--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="9"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="766">
   <si>
     <t>경기천년 기념사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1878,13 +1878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설치운영 / 퍼포먼스 / 의견수렴 / 결과분석</t>
-  </si>
-  <si>
-    <t>사진영상 아카이브
-공중촬영 및 영상물제작</t>
-  </si>
-  <si>
     <t>홍보 콘텐츠 제작 및 행사 안내(SNS페이지 운영)</t>
   </si>
   <si>
@@ -2906,10 +2899,6 @@
   </si>
   <si>
     <t>사업 관련 계획, 계약, 각종 보고 등 기획 및 관리에 관한 업무</t>
-  </si>
-  <si>
-    <t>경기천년소풍(제2회)사업 관련 계획, 계약, 각종 보고 등 기획 및 관리에 관한 업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2965,28 +2954,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POP&amp;U 답사프로그램 진행에 관한 업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답사단 대상 워크숍 및 심화 워크숍 진행에 관한 업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년소풍 사업 홍보에 있어, 홍보물제작, 언론보도 및 SNS 홍보에 관련된 없무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드론 활용한 경기천년소풍 사업 현장의 공중촬영에 관한 업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년소풍 사업 내 천개의 경기프로그램 운영에 관한 업무로 키워드 공유 / 데이터 통계 / 결과분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년소풍 사업 내 프로그램 운영으로, 도전도의원(전시콘텐츠), 경기도의방, 
-인생낙서, 추억의방 운영 및 프로그램 운영을 통해 수집된 도민의견 수렴 및 분석에 관한 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3417,6 +3385,55 @@
   </si>
   <si>
     <t>브랜딩 / 아카이빙 / 도민참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍(제2회) 사업 내 '천개의 경기' 프로그램 운영에 관한 업무로 키워드 공유, 데이터 통계, 결과분석에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍(제2회) 사업 관련 계획, 계약, 각종 보고 등 기획 및 관리에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍(제1회) 사업 내 프로그램 운영으로, 도전도의원(전시콘텐츠), 경기도의방, 
+인생낙서, 추억의방 운영 및 프로그램 운영을 통해 수집된 도민의견 수렴 및 분석에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍(제1회) 사업 홍보에 있어, 홍보물제작, 언론보도 및 SNS 홍보에 관련된 없무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍(제2회) 사업 내 '우리를 경기에 새기다' 프로그램 설치운영, 퍼포먼스, 의견수렴, 결과분석에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍(제2회) 사업 과정의 사진영상 아카이빙 및 공중촬영 및 영상물제작에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼사업기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소풍(제2회)사업기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소풍(제1회)사업기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답사단사업기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 DMZ 답사단 사업 내 POP&amp;U 답사프로그램 진행에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 DMZ 답사단 사업 내 답사단 대상 워크숍 및 심화 워크숍 진행에 관한 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4836,7 +4853,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5551,72 +5568,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5641,16 +5592,10 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5668,6 +5613,72 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -6032,7 +6043,7 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6066,7 +6077,7 @@
         <v>350</v>
       </c>
       <c r="F1" s="83" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G1" s="83" t="s">
         <v>10</v>
@@ -6089,7 +6100,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -6108,10 +6119,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="162" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F3" s="162" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="1"/>
@@ -6133,7 +6144,7 @@
         <v>441</v>
       </c>
       <c r="F4" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -6155,7 +6166,7 @@
         <v>74</v>
       </c>
       <c r="F5" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L5" s="168"/>
       <c r="M5" s="168"/>
@@ -6177,7 +6188,7 @@
         <v>78</v>
       </c>
       <c r="F6" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -6199,7 +6210,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L7" s="5"/>
     </row>
@@ -6220,7 +6231,7 @@
         <v>72</v>
       </c>
       <c r="F8" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L8" s="5"/>
     </row>
@@ -6241,7 +6252,7 @@
         <v>73</v>
       </c>
       <c r="F9" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1">
@@ -6261,7 +6272,7 @@
         <v>78</v>
       </c>
       <c r="F10" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1">
@@ -6278,10 +6289,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="263" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F11" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1">
@@ -6298,10 +6309,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="263" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F12" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1">
@@ -6318,10 +6329,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="263" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F13" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1">
@@ -6341,7 +6352,7 @@
         <v>291</v>
       </c>
       <c r="F14" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -6379,7 +6390,7 @@
         <v>78</v>
       </c>
       <c r="F16" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1">
@@ -6399,7 +6410,7 @@
         <v>289</v>
       </c>
       <c r="F17" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -6419,7 +6430,7 @@
         <v>290</v>
       </c>
       <c r="F18" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1">
@@ -6439,7 +6450,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1">
@@ -6459,7 +6470,7 @@
         <v>34</v>
       </c>
       <c r="F20" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1">
@@ -6479,7 +6490,7 @@
         <v>295</v>
       </c>
       <c r="F21" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="8" customFormat="1">
@@ -6553,7 +6564,7 @@
         <v>39</v>
       </c>
       <c r="F25" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1">
@@ -6573,7 +6584,7 @@
         <v>78</v>
       </c>
       <c r="F26" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6593,7 +6604,7 @@
         <v>443</v>
       </c>
       <c r="F27" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6610,10 +6621,10 @@
         <v>31</v>
       </c>
       <c r="E28" s="265" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F28" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6633,7 +6644,7 @@
         <v>78</v>
       </c>
       <c r="F29" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6653,7 +6664,7 @@
         <v>297</v>
       </c>
       <c r="F30" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6690,7 +6701,7 @@
         <v>296</v>
       </c>
       <c r="F32" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6710,7 +6721,7 @@
         <v>78</v>
       </c>
       <c r="F33" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6748,7 +6759,7 @@
         <v>78</v>
       </c>
       <c r="F35" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6768,7 +6779,7 @@
         <v>294</v>
       </c>
       <c r="F36" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6785,10 +6796,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="265" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F37" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6808,7 +6819,7 @@
         <v>78</v>
       </c>
       <c r="F38" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6845,7 +6856,7 @@
         <v>298</v>
       </c>
       <c r="F40" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6865,7 +6876,7 @@
         <v>299</v>
       </c>
       <c r="F41" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6885,7 +6896,7 @@
         <v>300</v>
       </c>
       <c r="F42" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6905,7 +6916,7 @@
         <v>78</v>
       </c>
       <c r="F43" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6922,10 +6933,10 @@
         <v>55</v>
       </c>
       <c r="E44" s="263" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F44" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6945,7 +6956,7 @@
         <v>444</v>
       </c>
       <c r="F45" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6962,10 +6973,10 @@
         <v>57</v>
       </c>
       <c r="E46" s="265" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F46" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6985,7 +6996,7 @@
         <v>78</v>
       </c>
       <c r="F47" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7002,10 +7013,10 @@
         <v>59</v>
       </c>
       <c r="E48" s="263" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F48" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -7026,7 +7037,7 @@
         <v>76</v>
       </c>
       <c r="H49" s="254"/>
-      <c r="I49" s="292"/>
+      <c r="I49" s="270"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
@@ -7045,7 +7056,7 @@
         <v>78</v>
       </c>
       <c r="F50" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7062,10 +7073,10 @@
         <v>62</v>
       </c>
       <c r="E51" s="263" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F51" s="167" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -7082,10 +7093,10 @@
         <v>63</v>
       </c>
       <c r="E52" s="265" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F52" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H52" s="254"/>
     </row>
@@ -7106,7 +7117,7 @@
         <v>78</v>
       </c>
       <c r="F53" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -7126,7 +7137,7 @@
         <v>301</v>
       </c>
       <c r="F54" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="14" customFormat="1">
@@ -7146,7 +7157,7 @@
         <v>78</v>
       </c>
       <c r="F55" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1">
@@ -7166,7 +7177,7 @@
         <v>431</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="164" customFormat="1" ht="14.25" thickBot="1">
@@ -7180,13 +7191,13 @@
         <v>66</v>
       </c>
       <c r="D57" s="164" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E57" s="264" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F57" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7206,7 +7217,7 @@
         <v>78</v>
       </c>
       <c r="F58" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7226,7 +7237,7 @@
         <v>435</v>
       </c>
       <c r="F59" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7246,7 +7257,7 @@
         <v>439</v>
       </c>
       <c r="F60" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -7266,7 +7277,7 @@
         <v>433</v>
       </c>
       <c r="F61" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1">
@@ -7286,7 +7297,7 @@
         <v>78</v>
       </c>
       <c r="F62" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1">
@@ -7306,7 +7317,7 @@
         <v>424</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1">
@@ -7326,7 +7337,7 @@
         <v>425</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -7346,7 +7357,7 @@
         <v>446</v>
       </c>
       <c r="F65" s="168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -7363,11 +7374,9 @@
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -7378,7 +7387,7 @@
     <col min="5" max="5" width="42.625" style="69" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="69" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="69" customWidth="1"/>
-    <col min="8" max="8" width="36.75" style="69" customWidth="1"/>
+    <col min="8" max="8" width="62.875" style="69" customWidth="1"/>
     <col min="9" max="16384" width="12.625" style="69"/>
   </cols>
   <sheetData>
@@ -7399,8 +7408,8 @@
       <c r="F1" s="150" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="297" t="s">
-        <v>729</v>
+      <c r="G1" s="275" t="s">
+        <v>721</v>
       </c>
       <c r="H1" s="150" t="s">
         <v>429</v>
@@ -7415,11 +7424,11 @@
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
       <c r="F2" s="108"/>
-      <c r="G2" s="295" t="s">
+      <c r="G2" s="273" t="s">
         <v>419</v>
       </c>
       <c r="H2" s="108" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
@@ -7433,11 +7442,11 @@
         <v>276</v>
       </c>
       <c r="D3" s="73"/>
-      <c r="E3" s="298" t="s">
-        <v>734</v>
+      <c r="E3" s="276" t="s">
+        <v>726</v>
       </c>
       <c r="F3" s="73"/>
-      <c r="G3" s="296" t="s">
+      <c r="G3" s="274" t="s">
         <v>418</v>
       </c>
       <c r="H3" s="73" t="s">
@@ -7459,7 +7468,7 @@
         <v>284</v>
       </c>
       <c r="F4" s="73"/>
-      <c r="G4" s="296" t="s">
+      <c r="G4" s="274" t="s">
         <v>415</v>
       </c>
       <c r="H4" s="158" t="s">
@@ -7477,174 +7486,174 @@
       <c r="F5" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="296" t="s">
+      <c r="G5" s="274" t="s">
         <v>417</v>
       </c>
       <c r="H5" s="73"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B8" s="302" t="s">
+      <c r="B8" s="280" t="s">
+        <v>745</v>
+      </c>
+      <c r="C8" s="280"/>
+      <c r="D8" s="280"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B9" s="277" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B10" s="277" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B11" s="277" t="s">
+        <v>730</v>
+      </c>
+      <c r="E11" s="277" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B12" s="277" t="s">
+        <v>731</v>
+      </c>
+      <c r="E12" s="277" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="278" t="s">
+        <v>733</v>
+      </c>
+      <c r="B13" s="278" t="s">
+        <v>732</v>
+      </c>
+      <c r="C13" s="279"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B14" s="280" t="s">
+        <v>744</v>
+      </c>
+      <c r="C14" s="281" t="s">
+        <v>751</v>
+      </c>
+      <c r="D14" s="288" t="s">
+        <v>750</v>
+      </c>
+      <c r="E14" s="287"/>
+      <c r="F14" s="290"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B15" s="277" t="s">
+        <v>734</v>
+      </c>
+      <c r="C15" s="283" t="s">
+        <v>743</v>
+      </c>
+      <c r="D15" s="283" t="s">
+        <v>728</v>
+      </c>
+      <c r="E15" s="283" t="s">
+        <v>748</v>
+      </c>
+      <c r="F15" s="286"/>
+      <c r="G15" s="277"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B16" s="277" t="s">
+        <v>735</v>
+      </c>
+      <c r="C16" s="283" t="s">
+        <v>742</v>
+      </c>
+      <c r="D16" s="283" t="s">
+        <v>729</v>
+      </c>
+      <c r="E16" s="283" t="s">
+        <v>752</v>
+      </c>
+      <c r="F16" s="286"/>
+      <c r="G16" s="277"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B17" s="277" t="s">
+        <v>736</v>
+      </c>
+      <c r="C17" s="283" t="s">
+        <v>741</v>
+      </c>
+      <c r="D17" s="283" t="s">
+        <v>730</v>
+      </c>
+      <c r="E17" s="283" t="s">
         <v>753</v>
       </c>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B9" s="299" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B10" s="299" t="s">
+      <c r="F17" s="286"/>
+      <c r="G17" s="277"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B18" s="277" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B11" s="299" t="s">
-        <v>738</v>
-      </c>
-      <c r="E11" s="299" t="s">
+      <c r="C18" s="283" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B12" s="299" t="s">
-        <v>739</v>
-      </c>
-      <c r="E12" s="299" t="s">
+      <c r="D18" s="284" t="s">
+        <v>731</v>
+      </c>
+      <c r="E18" s="289" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="301" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="300" t="s">
-        <v>741</v>
-      </c>
-      <c r="B13" s="300" t="s">
-        <v>740</v>
-      </c>
-      <c r="E13" s="301" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B14" s="302" t="s">
-        <v>752</v>
-      </c>
-      <c r="C14" s="303" t="s">
-        <v>759</v>
-      </c>
-      <c r="D14" s="312" t="s">
-        <v>758</v>
-      </c>
-      <c r="E14" s="311"/>
-      <c r="F14" s="314"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B15" s="299" t="s">
-        <v>742</v>
-      </c>
-      <c r="C15" s="305" t="s">
-        <v>751</v>
-      </c>
-      <c r="D15" s="305" t="s">
-        <v>736</v>
-      </c>
-      <c r="E15" s="305" t="s">
-        <v>756</v>
-      </c>
-      <c r="F15" s="310"/>
-      <c r="G15" s="299"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B16" s="299" t="s">
-        <v>743</v>
-      </c>
-      <c r="C16" s="305" t="s">
-        <v>750</v>
-      </c>
-      <c r="D16" s="305" t="s">
-        <v>737</v>
-      </c>
-      <c r="E16" s="305" t="s">
-        <v>760</v>
-      </c>
-      <c r="F16" s="310"/>
-      <c r="G16" s="299"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B17" s="299" t="s">
-        <v>744</v>
-      </c>
-      <c r="C17" s="305" t="s">
+      <c r="F18" s="282"/>
+      <c r="G18" s="277"/>
+      <c r="H18" s="277"/>
+    </row>
+    <row r="19" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="279"/>
+      <c r="B19" s="278" t="s">
+        <v>733</v>
+      </c>
+      <c r="C19" s="285" t="s">
         <v>749</v>
       </c>
-      <c r="D17" s="305" t="s">
-        <v>738</v>
-      </c>
-      <c r="E17" s="305" t="s">
-        <v>761</v>
-      </c>
-      <c r="F17" s="310"/>
-      <c r="G17" s="299"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B18" s="299" t="s">
-        <v>745</v>
-      </c>
-      <c r="C18" s="305" t="s">
-        <v>754</v>
-      </c>
-      <c r="D18" s="307" t="s">
-        <v>739</v>
-      </c>
-      <c r="E18" s="313" t="s">
-        <v>755</v>
-      </c>
-      <c r="F18" s="304"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-    </row>
-    <row r="19" spans="2:9" s="301" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B19" s="300" t="s">
-        <v>741</v>
-      </c>
-      <c r="C19" s="308" t="s">
-        <v>757</v>
-      </c>
-      <c r="D19" s="308" t="s">
-        <v>740</v>
-      </c>
-      <c r="E19" s="308" t="s">
-        <v>740</v>
-      </c>
-      <c r="F19" s="304"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1">
-      <c r="E20" s="305"/>
-      <c r="F20" s="315"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1">
-      <c r="F21" s="86"/>
-      <c r="H21" s="306"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1">
-      <c r="H22" s="305"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1">
-      <c r="H23" s="305"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1">
-      <c r="H24" s="306"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1">
-      <c r="H25" s="309"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1">
-      <c r="H26" s="305"/>
-    </row>
+      <c r="D19" s="285" t="s">
+        <v>732</v>
+      </c>
+      <c r="E19" s="285" t="s">
+        <v>732</v>
+      </c>
+      <c r="F19" s="282"/>
+    </row>
+    <row r="20" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E20" s="284"/>
+      <c r="F20" s="291"/>
+    </row>
+    <row r="21" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H21" s="289"/>
+    </row>
+    <row r="22" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H22" s="284"/>
+    </row>
+    <row r="23" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H23" s="284"/>
+    </row>
+    <row r="24" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H24" s="289"/>
+    </row>
+    <row r="25" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H25" s="289"/>
+    </row>
+    <row r="26" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H26" s="284"/>
+    </row>
+    <row r="27" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7666,169 +7675,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="312" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1" s="248" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1" s="248" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1" s="312" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="E1" s="312" t="s">
         <v>598</v>
       </c>
-      <c r="C1" s="248" t="s">
-        <v>598</v>
-      </c>
-      <c r="D1" s="284" t="s">
+      <c r="F1" s="312" t="s">
         <v>599</v>
       </c>
-      <c r="E1" s="284" t="s">
+      <c r="G1" s="312" t="s">
         <v>600</v>
       </c>
-      <c r="F1" s="284" t="s">
+      <c r="H1" s="248" t="s">
         <v>601</v>
       </c>
-      <c r="G1" s="284" t="s">
+      <c r="I1" s="312" t="s">
         <v>602</v>
       </c>
-      <c r="H1" s="248" t="s">
+      <c r="J1" s="248" t="s">
         <v>603</v>
       </c>
-      <c r="I1" s="284" t="s">
+      <c r="K1" s="248" t="s">
         <v>604</v>
       </c>
-      <c r="J1" s="248" t="s">
+      <c r="L1" s="248" t="s">
         <v>605</v>
       </c>
-      <c r="K1" s="248" t="s">
+      <c r="M1" s="312" t="s">
         <v>606</v>
       </c>
-      <c r="L1" s="248" t="s">
+      <c r="N1" s="312" t="s">
+        <v>579</v>
+      </c>
+      <c r="O1" s="312" t="s">
         <v>607</v>
       </c>
-      <c r="M1" s="284" t="s">
+      <c r="P1" s="312" t="s">
         <v>608</v>
       </c>
-      <c r="N1" s="284" t="s">
-        <v>581</v>
-      </c>
-      <c r="O1" s="284" t="s">
+      <c r="Q1" s="248" t="s">
         <v>609</v>
       </c>
-      <c r="P1" s="284" t="s">
+      <c r="R1" s="312" t="s">
         <v>610</v>
       </c>
-      <c r="Q1" s="248" t="s">
+      <c r="S1" s="312" t="s">
         <v>611</v>
       </c>
-      <c r="R1" s="284" t="s">
+      <c r="T1" s="312" t="s">
         <v>612</v>
       </c>
-      <c r="S1" s="284" t="s">
+      <c r="U1" s="312" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="284" t="s">
+      <c r="V1" s="312" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="313"/>
+      <c r="B2" s="249" t="s">
         <v>614</v>
       </c>
-      <c r="U1" s="284" t="s">
+      <c r="C2" s="249" t="s">
         <v>615</v>
       </c>
-      <c r="V1" s="284" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="285"/>
-      <c r="B2" s="249" t="s">
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="249" t="s">
         <v>616</v>
       </c>
-      <c r="C2" s="249" t="s">
+      <c r="I2" s="313"/>
+      <c r="J2" s="249" t="s">
         <v>617</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="249" t="s">
+      <c r="K2" s="249" t="s">
         <v>618</v>
       </c>
-      <c r="I2" s="285"/>
-      <c r="J2" s="249" t="s">
+      <c r="L2" s="249" t="s">
+        <v>615</v>
+      </c>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="249" t="s">
         <v>619</v>
       </c>
-      <c r="K2" s="249" t="s">
+      <c r="R2" s="313"/>
+      <c r="S2" s="313"/>
+      <c r="T2" s="313"/>
+      <c r="U2" s="313"/>
+      <c r="V2" s="313"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.25">
+      <c r="A3" s="306" t="s">
         <v>620</v>
       </c>
-      <c r="L2" s="249" t="s">
-        <v>617</v>
-      </c>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="249" t="s">
+      <c r="B3" s="307"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="307"/>
+      <c r="L3" s="307"/>
+      <c r="M3" s="308"/>
+      <c r="N3" s="306" t="s">
         <v>621</v>
       </c>
-      <c r="R2" s="285"/>
-      <c r="S2" s="285"/>
-      <c r="T2" s="285"/>
-      <c r="U2" s="285"/>
-      <c r="V2" s="285"/>
-    </row>
-    <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="286" t="s">
+      <c r="O3" s="307"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="307"/>
+      <c r="S3" s="307"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="306" t="s">
         <v>622</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="288"/>
-      <c r="N3" s="286" t="s">
+      <c r="V3" s="308"/>
+    </row>
+    <row r="4" spans="1:22" ht="17.25">
+      <c r="A4" s="309"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="311"/>
+      <c r="N4" s="309"/>
+      <c r="O4" s="310"/>
+      <c r="P4" s="310"/>
+      <c r="Q4" s="310"/>
+      <c r="R4" s="310"/>
+      <c r="S4" s="310"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="309" t="s">
         <v>623</v>
       </c>
-      <c r="O3" s="287"/>
-      <c r="P3" s="287"/>
-      <c r="Q3" s="287"/>
-      <c r="R3" s="287"/>
-      <c r="S3" s="287"/>
-      <c r="T3" s="288"/>
-      <c r="U3" s="286" t="s">
-        <v>624</v>
-      </c>
-      <c r="V3" s="288"/>
-    </row>
-    <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="289"/>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="291"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="290"/>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="290"/>
-      <c r="R4" s="290"/>
-      <c r="S4" s="290"/>
-      <c r="T4" s="291"/>
-      <c r="U4" s="289" t="s">
-        <v>625</v>
-      </c>
-      <c r="V4" s="291"/>
+      <c r="V4" s="311"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
     <mergeCell ref="U3:V3"/>
@@ -7845,9 +7857,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7862,9 +7871,9 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7872,8 +7881,8 @@
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="67.625" style="247" customWidth="1"/>
-    <col min="5" max="5" width="40" style="74" customWidth="1"/>
+    <col min="4" max="4" width="78.5" style="247" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="74" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="74" customWidth="1"/>
     <col min="7" max="7" width="15.875" style="74" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
@@ -7900,37 +7909,37 @@
         <v>292</v>
       </c>
       <c r="E1" s="214" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F1" s="214" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G1" s="230" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1" s="214" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I1" s="230" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J1" s="213" t="s">
         <v>293</v>
       </c>
       <c r="K1" s="213" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L1" s="213" t="s">
+        <v>558</v>
+      </c>
+      <c r="M1" s="232" t="s">
+        <v>559</v>
+      </c>
+      <c r="N1" s="232" t="s">
         <v>560</v>
       </c>
-      <c r="M1" s="232" t="s">
-        <v>561</v>
-      </c>
-      <c r="N1" s="232" t="s">
-        <v>562</v>
-      </c>
       <c r="O1" s="231" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27">
@@ -7940,14 +7949,14 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="161" t="s">
-        <v>77</v>
+      <c r="C2" s="166" t="s">
+        <v>762</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="81"/>
@@ -7955,28 +7964,28 @@
         <v>76</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J2" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K2" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L2" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M2" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N2" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O2" s="166" t="s">
         <v>564</v>
       </c>
-      <c r="M2" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N2" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O2" s="166" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="40.5">
+    </row>
+    <row r="3" spans="1:15" ht="27">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -7984,21 +7993,21 @@
         <v>2</v>
       </c>
       <c r="C3" s="162" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
       <c r="H3" s="76" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="I3" s="76" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="162"/>
@@ -8006,13 +8015,13 @@
         <v>178</v>
       </c>
       <c r="M3" s="234" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="N3" s="234" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O3" s="162" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="27">
@@ -8026,10 +8035,10 @@
         <v>440</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F4" s="80"/>
       <c r="G4" s="80"/>
@@ -8037,21 +8046,21 @@
         <v>76</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="167"/>
       <c r="L4" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M4" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N4" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O4" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M4" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N4" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O4" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="27.75" thickBot="1">
@@ -8065,10 +8074,10 @@
         <v>442</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
@@ -8076,21 +8085,21 @@
         <v>76</v>
       </c>
       <c r="I5" s="79" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M5" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N5" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O5" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M5" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N5" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O5" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27">
@@ -8100,14 +8109,14 @@
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="161" t="s">
-        <v>77</v>
+      <c r="C6" s="166" t="s">
+        <v>761</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>717</v>
+        <v>755</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -8115,25 +8124,25 @@
         <v>76</v>
       </c>
       <c r="I6" s="81" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J6" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K6" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L6" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M6" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N6" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O6" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M6" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N6" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O6" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="27">
@@ -8147,10 +8156,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -8158,21 +8167,21 @@
         <v>76</v>
       </c>
       <c r="I7" s="80" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="167"/>
       <c r="L7" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M7" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N7" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O7" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M7" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N7" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O7" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="27">
@@ -8186,10 +8195,10 @@
         <v>72</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>451</v>
+        <v>758</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="77"/>
@@ -8197,21 +8206,21 @@
         <v>76</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="167"/>
       <c r="L8" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M8" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N8" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O8" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M8" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N8" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O8" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="27.75" thickBot="1">
@@ -8225,10 +8234,10 @@
         <v>73</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>452</v>
+        <v>759</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
@@ -8236,21 +8245,21 @@
         <v>76</v>
       </c>
       <c r="I9" s="79" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M9" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N9" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O9" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M9" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N9" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O9" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27">
@@ -8260,14 +8269,14 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="161" t="s">
-        <v>77</v>
+      <c r="C10" s="166" t="s">
+        <v>760</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -8275,25 +8284,25 @@
         <v>76</v>
       </c>
       <c r="I10" s="81" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J10" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K10" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L10" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M10" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N10" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O10" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M10" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N10" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O10" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="27">
@@ -8304,13 +8313,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
@@ -8318,21 +8327,21 @@
         <v>76</v>
       </c>
       <c r="I11" s="80" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="167"/>
       <c r="L11" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M11" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N11" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O11" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M11" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N11" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O11" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="40.5">
@@ -8343,13 +8352,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F12" s="80"/>
       <c r="G12" s="80"/>
@@ -8357,21 +8366,21 @@
         <v>76</v>
       </c>
       <c r="I12" s="80" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="167"/>
       <c r="L12" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M12" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N12" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O12" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M12" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N12" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O12" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="27">
@@ -8382,13 +8391,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
@@ -8396,21 +8405,21 @@
         <v>76</v>
       </c>
       <c r="I13" s="80" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="167"/>
       <c r="L13" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M13" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N13" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O13" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M13" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N13" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O13" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="212" customFormat="1" ht="41.25" thickBot="1">
@@ -8424,10 +8433,10 @@
         <v>291</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
@@ -8435,21 +8444,21 @@
         <v>76</v>
       </c>
       <c r="I14" s="79" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J14" s="168"/>
       <c r="K14" s="168"/>
       <c r="L14" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M14" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N14" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O14" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M14" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N14" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O14" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="27">
@@ -8459,14 +8468,14 @@
       <c r="B15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="161" t="s">
-        <v>77</v>
+      <c r="C15" s="166" t="s">
+        <v>763</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -8474,25 +8483,25 @@
         <v>76</v>
       </c>
       <c r="I15" s="81" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J15" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K15" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L15" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M15" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N15" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O15" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M15" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N15" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O15" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27">
@@ -8506,10 +8515,10 @@
         <v>289</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>723</v>
+        <v>764</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
@@ -8517,21 +8526,21 @@
         <v>76</v>
       </c>
       <c r="I16" s="80" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="167"/>
       <c r="L16" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M16" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N16" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O16" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M16" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N16" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O16" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="27.75" thickBot="1">
@@ -8545,10 +8554,10 @@
         <v>290</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>724</v>
+        <v>765</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
@@ -8556,21 +8565,21 @@
         <v>76</v>
       </c>
       <c r="I17" s="79" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="168"/>
       <c r="L17" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M17" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N17" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O17" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M17" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N17" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O17" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="208" customFormat="1" ht="27">
@@ -8584,40 +8593,40 @@
         <v>77</v>
       </c>
       <c r="D18" s="250" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E18" s="250" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F18" s="250" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G18" s="250" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H18" s="250" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="250" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J18" s="204" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K18" s="204" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L18" s="204" t="s">
+        <v>562</v>
+      </c>
+      <c r="M18" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N18" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O18" s="204" t="s">
         <v>564</v>
-      </c>
-      <c r="M18" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N18" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O18" s="204" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="208" customFormat="1" ht="40.5">
@@ -8631,43 +8640,43 @@
         <v>34</v>
       </c>
       <c r="D19" s="251" t="s">
+        <v>591</v>
+      </c>
+      <c r="E19" s="252" t="s">
+        <v>662</v>
+      </c>
+      <c r="F19" s="252" t="s">
+        <v>592</v>
+      </c>
+      <c r="G19" s="252" t="s">
         <v>593</v>
-      </c>
-      <c r="E19" s="252" t="s">
-        <v>664</v>
-      </c>
-      <c r="F19" s="252" t="s">
-        <v>594</v>
-      </c>
-      <c r="G19" s="252" t="s">
-        <v>595</v>
       </c>
       <c r="H19" s="252" t="s">
         <v>76</v>
       </c>
       <c r="I19" s="251" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J19" s="205" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K19" s="205" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L19" s="205" t="s">
+        <v>562</v>
+      </c>
+      <c r="M19" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N19" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O19" s="205" t="s">
         <v>564</v>
       </c>
-      <c r="M19" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N19" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O19" s="205" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="208" customFormat="1" ht="40.5">
+    </row>
+    <row r="20" spans="1:15" s="208" customFormat="1" ht="27">
       <c r="A20" s="204" t="s">
         <v>12</v>
       </c>
@@ -8678,40 +8687,40 @@
         <v>295</v>
       </c>
       <c r="D20" s="251" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E20" s="251" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F20" s="251" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G20" s="251" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H20" s="251" t="s">
         <v>76</v>
       </c>
       <c r="I20" s="251" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J20" s="205" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K20" s="205" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L20" s="205" t="s">
+        <v>562</v>
+      </c>
+      <c r="M20" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N20" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O20" s="205" t="s">
         <v>564</v>
-      </c>
-      <c r="M20" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N20" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O20" s="205" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="208" customFormat="1" ht="41.25" thickBot="1">
@@ -8722,43 +8731,43 @@
         <v>32</v>
       </c>
       <c r="C21" s="207" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D21" s="253" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E21" s="253" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F21" s="253" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G21" s="253" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H21" s="253" t="s">
         <v>76</v>
       </c>
       <c r="I21" s="253" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J21" s="207" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K21" s="207" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L21" s="207" t="s">
+        <v>562</v>
+      </c>
+      <c r="M21" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N21" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O21" s="207" t="s">
         <v>564</v>
-      </c>
-      <c r="M21" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N21" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O21" s="207" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="27">
@@ -8772,10 +8781,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
@@ -8783,25 +8792,25 @@
         <v>76</v>
       </c>
       <c r="I22" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J22" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K22" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L22" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M22" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N22" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O22" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M22" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N22" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O22" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="27">
@@ -8818,7 +8827,7 @@
         <v>448</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
@@ -8826,21 +8835,21 @@
         <v>76</v>
       </c>
       <c r="I23" s="80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="167"/>
       <c r="L23" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M23" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N23" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O23" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M23" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N23" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O23" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="27.75" thickBot="1">
@@ -8851,13 +8860,13 @@
         <v>26</v>
       </c>
       <c r="C24" s="168" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
@@ -8865,21 +8874,21 @@
         <v>76</v>
       </c>
       <c r="I24" s="79" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="168"/>
       <c r="L24" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M24" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N24" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O24" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M24" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N24" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O24" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="27">
@@ -8893,10 +8902,10 @@
         <v>77</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F25" s="81"/>
       <c r="G25" s="81"/>
@@ -8904,25 +8913,25 @@
         <v>76</v>
       </c>
       <c r="I25" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J25" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K25" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L25" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M25" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N25" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O25" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M25" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N25" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O25" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="27">
@@ -8936,10 +8945,10 @@
         <v>297</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
@@ -8947,21 +8956,21 @@
         <v>76</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="167"/>
       <c r="L26" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M26" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N26" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O26" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M26" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N26" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O26" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="27.75" thickBot="1">
@@ -8976,7 +8985,7 @@
       </c>
       <c r="D27" s="79"/>
       <c r="E27" s="78" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
@@ -8984,21 +8993,21 @@
         <v>76</v>
       </c>
       <c r="I27" s="79" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J27" s="168"/>
       <c r="K27" s="168"/>
       <c r="L27" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M27" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N27" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O27" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M27" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N27" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O27" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="212" customFormat="1" ht="27.75" thickBot="1">
@@ -9009,39 +9018,39 @@
         <v>45</v>
       </c>
       <c r="C28" s="168" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D28" s="244" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E28" s="168" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F28" s="168"/>
       <c r="G28" s="168"/>
       <c r="H28" s="168" t="s">
+        <v>574</v>
+      </c>
+      <c r="I28" s="244" t="s">
+        <v>590</v>
+      </c>
+      <c r="J28" s="168" t="s">
+        <v>575</v>
+      </c>
+      <c r="K28" s="168" t="s">
         <v>576</v>
       </c>
-      <c r="I28" s="244" t="s">
-        <v>592</v>
-      </c>
-      <c r="J28" s="168" t="s">
-        <v>577</v>
-      </c>
-      <c r="K28" s="168" t="s">
-        <v>578</v>
-      </c>
       <c r="L28" s="164" t="s">
+        <v>562</v>
+      </c>
+      <c r="M28" s="236" t="s">
+        <v>566</v>
+      </c>
+      <c r="N28" s="236" t="s">
+        <v>567</v>
+      </c>
+      <c r="O28" s="164" t="s">
         <v>564</v>
-      </c>
-      <c r="M28" s="236" t="s">
-        <v>568</v>
-      </c>
-      <c r="N28" s="236" t="s">
-        <v>569</v>
-      </c>
-      <c r="O28" s="164" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="27">
@@ -9055,10 +9064,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F29" s="81"/>
       <c r="G29" s="81"/>
@@ -9066,25 +9075,25 @@
         <v>76</v>
       </c>
       <c r="I29" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J29" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K29" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L29" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M29" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N29" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O29" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M29" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N29" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O29" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="27">
@@ -9101,7 +9110,7 @@
         <v>449</v>
       </c>
       <c r="E30" s="77" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
@@ -9109,21 +9118,21 @@
         <v>76</v>
       </c>
       <c r="I30" s="80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="167"/>
       <c r="L30" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M30" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N30" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O30" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M30" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N30" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O30" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="41.25" thickBot="1">
@@ -9134,13 +9143,13 @@
         <v>46</v>
       </c>
       <c r="C31" s="168" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E31" s="79" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="79"/>
@@ -9148,21 +9157,21 @@
         <v>76</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="168"/>
       <c r="L31" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M31" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N31" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O31" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M31" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N31" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O31" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="27">
@@ -9176,10 +9185,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F32" s="81"/>
       <c r="G32" s="81"/>
@@ -9187,25 +9196,25 @@
         <v>76</v>
       </c>
       <c r="I32" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J32" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K32" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L32" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M32" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N32" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O32" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M32" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N32" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O32" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="67.5">
@@ -9219,10 +9228,10 @@
         <v>298</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F33" s="80"/>
       <c r="G33" s="80"/>
@@ -9230,21 +9239,21 @@
         <v>76</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="167"/>
       <c r="L33" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M33" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N33" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O33" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M33" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N33" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O33" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="27">
@@ -9258,10 +9267,10 @@
         <v>299</v>
       </c>
       <c r="D34" s="80" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
@@ -9269,21 +9278,21 @@
         <v>76</v>
       </c>
       <c r="I34" s="80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="167"/>
       <c r="L34" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M34" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N34" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O34" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M34" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N34" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O34" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="27.75" thickBot="1">
@@ -9297,10 +9306,10 @@
         <v>300</v>
       </c>
       <c r="D35" s="245" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E35" s="159" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F35" s="159"/>
       <c r="G35" s="159"/>
@@ -9308,21 +9317,21 @@
         <v>76</v>
       </c>
       <c r="I35" s="245" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="168"/>
       <c r="L35" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M35" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N35" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O35" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M35" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N35" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O35" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="27">
@@ -9336,10 +9345,10 @@
         <v>77</v>
       </c>
       <c r="D36" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F36" s="81"/>
       <c r="G36" s="81"/>
@@ -9347,25 +9356,25 @@
         <v>76</v>
       </c>
       <c r="I36" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J36" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K36" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L36" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M36" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N36" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O36" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M36" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N36" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O36" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="27">
@@ -9382,7 +9391,7 @@
         <v>450</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F37" s="77"/>
       <c r="G37" s="77"/>
@@ -9390,21 +9399,21 @@
         <v>76</v>
       </c>
       <c r="I37" s="80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="167"/>
       <c r="L37" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M37" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N37" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O37" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M37" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N37" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O37" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="40.5">
@@ -9418,10 +9427,10 @@
         <v>444</v>
       </c>
       <c r="D38" s="80" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E38" s="80" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F38" s="80"/>
       <c r="G38" s="80"/>
@@ -9429,21 +9438,21 @@
         <v>76</v>
       </c>
       <c r="I38" s="80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="167"/>
       <c r="L38" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M38" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N38" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O38" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M38" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N38" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O38" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="27.75" thickBot="1">
@@ -9454,13 +9463,13 @@
         <v>54</v>
       </c>
       <c r="C39" s="168" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E39" s="78" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F39" s="78"/>
       <c r="G39" s="78"/>
@@ -9468,21 +9477,21 @@
         <v>76</v>
       </c>
       <c r="I39" s="79" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="168"/>
       <c r="L39" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M39" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N39" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O39" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M39" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N39" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O39" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="27">
@@ -9496,10 +9505,10 @@
         <v>77</v>
       </c>
       <c r="D40" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F40" s="81"/>
       <c r="G40" s="81"/>
@@ -9507,25 +9516,25 @@
         <v>76</v>
       </c>
       <c r="I40" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J40" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K40" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L40" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M40" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N40" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O40" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M40" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N40" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O40" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="212" customFormat="1" ht="27.75" thickBot="1">
@@ -9536,13 +9545,13 @@
         <v>58</v>
       </c>
       <c r="C41" s="168" t="s">
-        <v>644</v>
-      </c>
-      <c r="D41" s="293" t="s">
-        <v>712</v>
+        <v>642</v>
+      </c>
+      <c r="D41" s="271" t="s">
+        <v>710</v>
       </c>
       <c r="E41" s="78" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F41" s="78"/>
       <c r="G41" s="78"/>
@@ -9550,21 +9559,21 @@
         <v>76</v>
       </c>
       <c r="I41" s="79" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J41" s="168"/>
       <c r="K41" s="168"/>
       <c r="L41" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M41" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N41" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O41" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M41" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N41" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O41" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="27">
@@ -9578,10 +9587,10 @@
         <v>77</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E42" s="81" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F42" s="81"/>
       <c r="G42" s="81"/>
@@ -9589,25 +9598,25 @@
         <v>76</v>
       </c>
       <c r="I42" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J42" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K42" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L42" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M42" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N42" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O42" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M42" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N42" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O42" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="67.5">
@@ -9618,13 +9627,13 @@
         <v>61</v>
       </c>
       <c r="C43" s="167" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D43" s="80" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E43" s="80" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F43" s="80"/>
       <c r="G43" s="80"/>
@@ -9632,21 +9641,21 @@
         <v>76</v>
       </c>
       <c r="I43" s="80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="167"/>
       <c r="L43" s="167" t="s">
+        <v>562</v>
+      </c>
+      <c r="M43" s="235" t="s">
+        <v>566</v>
+      </c>
+      <c r="N43" s="235" t="s">
+        <v>567</v>
+      </c>
+      <c r="O43" s="167" t="s">
         <v>564</v>
-      </c>
-      <c r="M43" s="235" t="s">
-        <v>568</v>
-      </c>
-      <c r="N43" s="235" t="s">
-        <v>569</v>
-      </c>
-      <c r="O43" s="167" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="27.75" thickBot="1">
@@ -9657,13 +9666,13 @@
         <v>61</v>
       </c>
       <c r="C44" s="265" t="s">
-        <v>699</v>
-      </c>
-      <c r="D44" s="293" t="s">
-        <v>710</v>
+        <v>697</v>
+      </c>
+      <c r="D44" s="271" t="s">
+        <v>708</v>
       </c>
       <c r="E44" s="78" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F44" s="78"/>
       <c r="G44" s="78"/>
@@ -9671,21 +9680,21 @@
         <v>76</v>
       </c>
       <c r="I44" s="79" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="168"/>
       <c r="L44" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M44" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N44" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O44" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M44" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N44" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O44" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="27">
@@ -9699,10 +9708,10 @@
         <v>77</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E45" s="81" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
@@ -9710,25 +9719,25 @@
         <v>76</v>
       </c>
       <c r="I45" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J45" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K45" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L45" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M45" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N45" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O45" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M45" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N45" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O45" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="41.25" thickBot="1">
@@ -9742,10 +9751,10 @@
         <v>301</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E46" s="79" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F46" s="79"/>
       <c r="G46" s="79"/>
@@ -9753,21 +9762,21 @@
         <v>76</v>
       </c>
       <c r="I46" s="79" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="168"/>
       <c r="L46" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M46" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N46" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O46" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M46" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N46" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O46" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="27">
@@ -9781,10 +9790,10 @@
         <v>77</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E47" s="81" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F47" s="81"/>
       <c r="G47" s="81"/>
@@ -9792,25 +9801,25 @@
         <v>76</v>
       </c>
       <c r="I47" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J47" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K47" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L47" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M47" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N47" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O47" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M47" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N47" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O47" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="40.5">
@@ -9823,33 +9832,33 @@
       <c r="C48" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D48" s="294" t="s">
-        <v>466</v>
-      </c>
-      <c r="E48" s="294" t="s">
-        <v>689</v>
-      </c>
-      <c r="F48" s="294"/>
-      <c r="G48" s="294"/>
-      <c r="H48" s="294" t="s">
+      <c r="D48" s="272" t="s">
+        <v>464</v>
+      </c>
+      <c r="E48" s="272" t="s">
+        <v>687</v>
+      </c>
+      <c r="F48" s="272"/>
+      <c r="G48" s="272"/>
+      <c r="H48" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="294" t="s">
-        <v>592</v>
+      <c r="I48" s="272" t="s">
+        <v>590</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M48" s="238" t="s">
+        <v>566</v>
+      </c>
+      <c r="N48" s="238" t="s">
+        <v>567</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="M48" s="238" t="s">
-        <v>568</v>
-      </c>
-      <c r="N48" s="238" t="s">
-        <v>569</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="160" customFormat="1" ht="27.75" thickBot="1">
@@ -9860,35 +9869,35 @@
         <v>66</v>
       </c>
       <c r="C49" s="168" t="s">
+        <v>705</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>706</v>
+      </c>
+      <c r="E49" s="79" t="s">
         <v>707</v>
-      </c>
-      <c r="D49" s="79" t="s">
-        <v>708</v>
-      </c>
-      <c r="E49" s="79" t="s">
-        <v>709</v>
       </c>
       <c r="F49" s="79"/>
       <c r="G49" s="79"/>
       <c r="H49" s="79" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I49" s="79" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J49" s="168"/>
       <c r="K49" s="168"/>
       <c r="L49" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M49" s="238" t="s">
+        <v>566</v>
+      </c>
+      <c r="N49" s="238" t="s">
+        <v>567</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="M49" s="238" t="s">
-        <v>568</v>
-      </c>
-      <c r="N49" s="238" t="s">
-        <v>569</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="27">
@@ -9902,10 +9911,10 @@
         <v>77</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E50" s="81" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
@@ -9913,25 +9922,25 @@
         <v>76</v>
       </c>
       <c r="I50" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J50" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K50" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L50" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M50" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N50" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O50" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M50" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N50" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O50" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="160" customFormat="1" ht="27">
@@ -9945,10 +9954,10 @@
         <v>434</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F51" s="81"/>
       <c r="G51" s="81"/>
@@ -9956,21 +9965,21 @@
         <v>76</v>
       </c>
       <c r="I51" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J51" s="161"/>
       <c r="K51" s="166"/>
       <c r="L51" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M51" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N51" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O51" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M51" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N51" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O51" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="160" customFormat="1" ht="27">
@@ -9984,10 +9993,10 @@
         <v>438</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F52" s="81"/>
       <c r="G52" s="81"/>
@@ -9995,21 +10004,21 @@
         <v>76</v>
       </c>
       <c r="I52" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J52" s="161"/>
       <c r="K52" s="166"/>
       <c r="L52" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M52" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N52" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O52" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M52" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N52" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O52" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="27.75" thickBot="1">
@@ -10023,10 +10032,10 @@
         <v>432</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E53" s="78" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F53" s="78"/>
       <c r="G53" s="78"/>
@@ -10034,21 +10043,21 @@
         <v>76</v>
       </c>
       <c r="I53" s="79" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="168"/>
       <c r="L53" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M53" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N53" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O53" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M53" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N53" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O53" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="27">
@@ -10062,10 +10071,10 @@
         <v>77</v>
       </c>
       <c r="D54" s="81" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E54" s="81" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F54" s="81"/>
       <c r="G54" s="81"/>
@@ -10073,25 +10082,25 @@
         <v>76</v>
       </c>
       <c r="I54" s="81" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J54" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K54" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L54" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M54" s="233" t="s">
+        <v>566</v>
+      </c>
+      <c r="N54" s="233" t="s">
+        <v>567</v>
+      </c>
+      <c r="O54" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M54" s="233" t="s">
-        <v>568</v>
-      </c>
-      <c r="N54" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="O54" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="27">
@@ -10105,28 +10114,28 @@
         <v>424</v>
       </c>
       <c r="D55" s="246" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I55" s="246" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L55" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M55" s="238" t="s">
+        <v>566</v>
+      </c>
+      <c r="N55" s="238" t="s">
+        <v>567</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="M55" s="238" t="s">
-        <v>568</v>
-      </c>
-      <c r="N55" s="238" t="s">
-        <v>569</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="27">
@@ -10140,28 +10149,28 @@
         <v>445</v>
       </c>
       <c r="D56" s="246" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I56" s="246" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L56" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M56" s="238" t="s">
+        <v>566</v>
+      </c>
+      <c r="N56" s="238" t="s">
+        <v>567</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="M56" s="238" t="s">
-        <v>568</v>
-      </c>
-      <c r="N56" s="238" t="s">
-        <v>569</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="27.75" thickBot="1">
@@ -10175,10 +10184,10 @@
         <v>446</v>
       </c>
       <c r="D57" s="244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E57" s="168" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F57" s="168"/>
       <c r="G57" s="168"/>
@@ -10186,21 +10195,21 @@
         <v>76</v>
       </c>
       <c r="I57" s="244" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J57" s="168"/>
       <c r="K57" s="168"/>
       <c r="L57" s="168" t="s">
+        <v>562</v>
+      </c>
+      <c r="M57" s="237" t="s">
+        <v>566</v>
+      </c>
+      <c r="N57" s="237" t="s">
+        <v>567</v>
+      </c>
+      <c r="O57" s="168" t="s">
         <v>564</v>
-      </c>
-      <c r="M57" s="237" t="s">
-        <v>568</v>
-      </c>
-      <c r="N57" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="O57" s="168" t="s">
-        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -10218,7 +10227,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E21"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10238,62 +10247,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="292" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="293" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="271"/>
+      <c r="B2" s="293"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293"/>
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="293"/>
+      <c r="N2" s="293"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="294" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="272" t="s">
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="294" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="295"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="295"/>
       <c r="O3" s="201" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1">
@@ -10340,7 +10349,7 @@
         <v>96</v>
       </c>
       <c r="O4" s="203" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickTop="1">
@@ -10381,7 +10390,7 @@
         <v>209</v>
       </c>
       <c r="O5" s="202" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -10422,7 +10431,7 @@
         <v>182</v>
       </c>
       <c r="O6" s="202" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -10463,7 +10472,7 @@
         <v>212</v>
       </c>
       <c r="O7" s="202" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -10504,7 +10513,7 @@
         <v>212</v>
       </c>
       <c r="O8" s="202" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -10545,7 +10554,7 @@
         <v>104</v>
       </c>
       <c r="O9" s="202" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -10586,7 +10595,7 @@
         <v>216</v>
       </c>
       <c r="O10" s="202" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -10627,7 +10636,7 @@
         <v>209</v>
       </c>
       <c r="O11" s="202" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -10668,7 +10677,7 @@
         <v>216</v>
       </c>
       <c r="O12" s="202" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -10709,7 +10718,7 @@
         <v>216</v>
       </c>
       <c r="O13" s="202" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -10750,7 +10759,7 @@
         <v>209</v>
       </c>
       <c r="O14" s="202" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -10791,7 +10800,7 @@
         <v>216</v>
       </c>
       <c r="O15" s="202" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -10832,7 +10841,7 @@
         <v>216</v>
       </c>
       <c r="O16" s="202" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -10849,7 +10858,7 @@
         <v>164</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -10873,7 +10882,7 @@
         <v>216</v>
       </c>
       <c r="O17" s="202" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -10914,7 +10923,7 @@
         <v>216</v>
       </c>
       <c r="O18" s="202" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -10955,7 +10964,7 @@
         <v>209</v>
       </c>
       <c r="O19" s="202" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -10996,7 +11005,7 @@
         <v>216</v>
       </c>
       <c r="O20" s="269" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="56" customFormat="1" ht="17.25" thickBot="1">
@@ -11037,7 +11046,7 @@
         <v>216</v>
       </c>
       <c r="O21" s="202" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -11537,7 +11546,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G2" s="255"/>
     </row>
@@ -11624,7 +11633,7 @@
         <v>78</v>
       </c>
       <c r="F7" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G7" s="256"/>
     </row>
@@ -11730,7 +11739,7 @@
         <v>78</v>
       </c>
       <c r="F13" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G13" s="256"/>
     </row>
@@ -11802,7 +11811,7 @@
         <v>78</v>
       </c>
       <c r="F17" s="226" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G17" s="257"/>
     </row>
@@ -11823,7 +11832,7 @@
         <v>78</v>
       </c>
       <c r="F18" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G18" s="256"/>
     </row>
@@ -11895,7 +11904,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G22" s="256"/>
     </row>
@@ -11997,7 +12006,7 @@
         <v>78</v>
       </c>
       <c r="F28" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G28" s="256"/>
     </row>
@@ -12067,7 +12076,7 @@
         <v>78</v>
       </c>
       <c r="F32" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G32" s="256"/>
     </row>
@@ -12137,7 +12146,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G36" s="256"/>
     </row>
@@ -12220,7 +12229,7 @@
         <v>78</v>
       </c>
       <c r="F41" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G41" s="256"/>
     </row>
@@ -12281,7 +12290,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="89" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>77</v>
@@ -12290,7 +12299,7 @@
         <v>78</v>
       </c>
       <c r="F45" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G45" s="256"/>
     </row>
@@ -12343,7 +12352,7 @@
         <v>78</v>
       </c>
       <c r="F48" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G48" s="256"/>
     </row>
@@ -12413,7 +12422,7 @@
         <v>78</v>
       </c>
       <c r="F52" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G52" s="256"/>
     </row>
@@ -12483,7 +12492,7 @@
         <v>78</v>
       </c>
       <c r="F56" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G56" s="256"/>
     </row>
@@ -12538,7 +12547,7 @@
         <v>78</v>
       </c>
       <c r="F59" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G59" s="256"/>
     </row>
@@ -12610,7 +12619,7 @@
         <v>78</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G63" s="256"/>
     </row>
@@ -12648,7 +12657,7 @@
         <v>78</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G65" s="256"/>
     </row>
@@ -12686,7 +12695,7 @@
         <v>78</v>
       </c>
       <c r="F67" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G67" s="256"/>
     </row>
@@ -12752,7 +12761,7 @@
         <v>78</v>
       </c>
       <c r="F71" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G71" s="256"/>
     </row>
@@ -12818,7 +12827,7 @@
         <v>78</v>
       </c>
       <c r="F75" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G75" s="256"/>
     </row>
@@ -12939,7 +12948,7 @@
         <v>78</v>
       </c>
       <c r="F82" s="166" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G82" s="256"/>
     </row>
@@ -13048,37 +13057,37 @@
         <v>292</v>
       </c>
       <c r="E1" s="215" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F1" s="215" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G1" s="215" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H1" s="215" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I1" s="215" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J1" s="84" t="s">
         <v>293</v>
       </c>
       <c r="K1" s="84" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L1" s="84" t="s">
+        <v>558</v>
+      </c>
+      <c r="M1" s="216" t="s">
+        <v>559</v>
+      </c>
+      <c r="N1" s="216" t="s">
         <v>560</v>
       </c>
-      <c r="M1" s="216" t="s">
-        <v>561</v>
-      </c>
-      <c r="N1" s="216" t="s">
-        <v>562</v>
-      </c>
       <c r="O1" s="243" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="211" customFormat="1" ht="27.75" thickTop="1">
@@ -13092,7 +13101,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
@@ -13101,25 +13110,25 @@
         <v>76</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J2" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K2" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L2" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M2" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N2" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O2" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M2" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N2" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O2" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13139,16 +13148,16 @@
       <c r="H3" s="93"/>
       <c r="I3" s="93"/>
       <c r="J3" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K3" s="93"/>
       <c r="L3" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M3" s="217"/>
       <c r="N3" s="217"/>
       <c r="O3" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P3" s="212"/>
       <c r="Q3" s="212"/>
@@ -13170,16 +13179,16 @@
       <c r="H4" s="93"/>
       <c r="I4" s="93"/>
       <c r="J4" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K4" s="93"/>
       <c r="L4" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M4" s="217"/>
       <c r="N4" s="217"/>
       <c r="O4" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P4" s="212"/>
       <c r="Q4" s="212"/>
@@ -13199,16 +13208,16 @@
       <c r="H5" s="93"/>
       <c r="I5" s="93"/>
       <c r="J5" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K5" s="93"/>
       <c r="L5" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M5" s="217"/>
       <c r="N5" s="217"/>
       <c r="O5" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickBot="1">
@@ -13228,16 +13237,16 @@
       <c r="H6" s="98"/>
       <c r="I6" s="98"/>
       <c r="J6" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K6" s="98"/>
       <c r="L6" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M6" s="218"/>
       <c r="N6" s="218"/>
       <c r="O6" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="160" customFormat="1" ht="27">
@@ -13251,7 +13260,7 @@
         <v>77</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
@@ -13260,25 +13269,25 @@
         <v>76</v>
       </c>
       <c r="I7" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J7" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K7" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L7" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M7" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N7" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O7" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M7" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N7" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O7" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -13298,16 +13307,16 @@
       <c r="H8" s="96"/>
       <c r="I8" s="96"/>
       <c r="J8" s="96" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K8" s="96"/>
       <c r="L8" s="96" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M8" s="219"/>
       <c r="N8" s="219"/>
       <c r="O8" s="96" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -13327,16 +13336,16 @@
       <c r="H9" s="96"/>
       <c r="I9" s="96"/>
       <c r="J9" s="96" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K9" s="96"/>
       <c r="L9" s="96" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M9" s="219"/>
       <c r="N9" s="219"/>
       <c r="O9" s="96" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -13356,16 +13365,16 @@
       <c r="H10" s="96"/>
       <c r="I10" s="96"/>
       <c r="J10" s="96" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K10" s="96"/>
       <c r="L10" s="96" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M10" s="219"/>
       <c r="N10" s="219"/>
       <c r="O10" s="96" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -13385,16 +13394,16 @@
       <c r="H11" s="96"/>
       <c r="I11" s="96"/>
       <c r="J11" s="96" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K11" s="96"/>
       <c r="L11" s="96" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M11" s="219"/>
       <c r="N11" s="219"/>
       <c r="O11" s="96" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1">
@@ -13414,16 +13423,16 @@
       <c r="H12" s="102"/>
       <c r="I12" s="102"/>
       <c r="J12" s="102" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="102" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M12" s="220"/>
       <c r="N12" s="220"/>
       <c r="O12" s="102" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="160" customFormat="1" ht="27">
@@ -13437,7 +13446,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
@@ -13446,25 +13455,25 @@
         <v>76</v>
       </c>
       <c r="I13" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J13" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K13" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L13" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M13" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N13" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O13" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M13" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N13" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O13" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -13484,16 +13493,16 @@
       <c r="H14" s="93"/>
       <c r="I14" s="93"/>
       <c r="J14" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K14" s="93"/>
       <c r="L14" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M14" s="217"/>
       <c r="N14" s="217"/>
       <c r="O14" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -13513,16 +13522,16 @@
       <c r="H15" s="93"/>
       <c r="I15" s="93"/>
       <c r="J15" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K15" s="93"/>
       <c r="L15" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M15" s="217"/>
       <c r="N15" s="217"/>
       <c r="O15" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17.25" thickBot="1">
@@ -13542,16 +13551,16 @@
       <c r="H16" s="98"/>
       <c r="I16" s="98"/>
       <c r="J16" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K16" s="98"/>
       <c r="L16" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M16" s="218"/>
       <c r="N16" s="218"/>
       <c r="O16" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="27.75" thickBot="1">
@@ -13565,7 +13574,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="227" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E17" s="227"/>
       <c r="F17" s="227"/>
@@ -13574,25 +13583,25 @@
         <v>76</v>
       </c>
       <c r="I17" s="227" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J17" s="226" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K17" s="226" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L17" s="226" t="s">
+        <v>562</v>
+      </c>
+      <c r="M17" s="228" t="s">
+        <v>566</v>
+      </c>
+      <c r="N17" s="228" t="s">
+        <v>567</v>
+      </c>
+      <c r="O17" s="226" t="s">
         <v>564</v>
-      </c>
-      <c r="M17" s="228" t="s">
-        <v>568</v>
-      </c>
-      <c r="N17" s="228" t="s">
-        <v>569</v>
-      </c>
-      <c r="O17" s="226" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="160" customFormat="1" ht="27">
@@ -13606,7 +13615,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
@@ -13615,25 +13624,25 @@
         <v>76</v>
       </c>
       <c r="I18" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J18" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K18" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L18" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M18" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N18" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O18" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M18" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N18" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O18" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -13653,16 +13662,16 @@
       <c r="H19" s="93"/>
       <c r="I19" s="93"/>
       <c r="J19" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K19" s="93"/>
       <c r="L19" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M19" s="217"/>
       <c r="N19" s="217"/>
       <c r="O19" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -13682,16 +13691,16 @@
       <c r="H20" s="93"/>
       <c r="I20" s="93"/>
       <c r="J20" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K20" s="93"/>
       <c r="L20" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M20" s="217"/>
       <c r="N20" s="217"/>
       <c r="O20" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17.25" thickBot="1">
@@ -13711,16 +13720,16 @@
       <c r="H21" s="98"/>
       <c r="I21" s="98"/>
       <c r="J21" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K21" s="98"/>
       <c r="L21" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M21" s="218"/>
       <c r="N21" s="218"/>
       <c r="O21" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="160" customFormat="1" ht="27">
@@ -13734,7 +13743,7 @@
         <v>77</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
@@ -13743,25 +13752,25 @@
         <v>76</v>
       </c>
       <c r="I22" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J22" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K22" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L22" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M22" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N22" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O22" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M22" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N22" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O22" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -13779,16 +13788,16 @@
       <c r="H23" s="97"/>
       <c r="I23" s="97"/>
       <c r="J23" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K23" s="97"/>
       <c r="L23" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M23" s="221"/>
       <c r="N23" s="221"/>
       <c r="O23" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -13806,16 +13815,16 @@
       <c r="H24" s="97"/>
       <c r="I24" s="97"/>
       <c r="J24" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K24" s="97"/>
       <c r="L24" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M24" s="221"/>
       <c r="N24" s="221"/>
       <c r="O24" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -13833,16 +13842,16 @@
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="J25" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K25" s="97"/>
       <c r="L25" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M25" s="221"/>
       <c r="N25" s="221"/>
       <c r="O25" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -13860,16 +13869,16 @@
       <c r="H26" s="97"/>
       <c r="I26" s="97"/>
       <c r="J26" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K26" s="97"/>
       <c r="L26" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M26" s="221"/>
       <c r="N26" s="221"/>
       <c r="O26" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -13887,16 +13896,16 @@
       <c r="H27" s="97"/>
       <c r="I27" s="97"/>
       <c r="J27" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K27" s="97"/>
       <c r="L27" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M27" s="221"/>
       <c r="N27" s="221"/>
       <c r="O27" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17.25" thickBot="1">
@@ -13914,16 +13923,16 @@
       <c r="H28" s="103"/>
       <c r="I28" s="103"/>
       <c r="J28" s="103" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K28" s="103"/>
       <c r="L28" s="103" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M28" s="222"/>
       <c r="N28" s="222"/>
       <c r="O28" s="103" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="160" customFormat="1" ht="27">
@@ -13937,7 +13946,7 @@
         <v>77</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E29" s="81"/>
       <c r="F29" s="81"/>
@@ -13946,25 +13955,25 @@
         <v>76</v>
       </c>
       <c r="I29" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J29" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K29" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L29" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M29" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N29" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O29" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M29" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N29" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O29" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -13982,16 +13991,16 @@
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
       <c r="J30" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K30" s="97"/>
       <c r="L30" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M30" s="221"/>
       <c r="N30" s="221"/>
       <c r="O30" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -14009,16 +14018,16 @@
       <c r="H31" s="97"/>
       <c r="I31" s="97"/>
       <c r="J31" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K31" s="97"/>
       <c r="L31" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M31" s="221"/>
       <c r="N31" s="221"/>
       <c r="O31" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1">
@@ -14036,16 +14045,16 @@
       <c r="H32" s="103"/>
       <c r="I32" s="103"/>
       <c r="J32" s="103" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K32" s="103"/>
       <c r="L32" s="103" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M32" s="222"/>
       <c r="N32" s="222"/>
       <c r="O32" s="103" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14059,7 +14068,7 @@
         <v>77</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E33" s="81"/>
       <c r="F33" s="81"/>
@@ -14068,25 +14077,25 @@
         <v>76</v>
       </c>
       <c r="I33" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J33" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K33" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L33" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M33" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N33" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O33" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M33" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N33" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O33" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -14106,16 +14115,16 @@
       <c r="H34" s="93"/>
       <c r="I34" s="93"/>
       <c r="J34" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K34" s="93"/>
       <c r="L34" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M34" s="217"/>
       <c r="N34" s="217"/>
       <c r="O34" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -14133,16 +14142,16 @@
       <c r="H35" s="93"/>
       <c r="I35" s="93"/>
       <c r="J35" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K35" s="93"/>
       <c r="L35" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M35" s="217"/>
       <c r="N35" s="217"/>
       <c r="O35" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -14162,16 +14171,16 @@
       <c r="H36" s="93"/>
       <c r="I36" s="93"/>
       <c r="J36" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K36" s="93"/>
       <c r="L36" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M36" s="217"/>
       <c r="N36" s="217"/>
       <c r="O36" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -14191,16 +14200,16 @@
       <c r="H37" s="93"/>
       <c r="I37" s="93"/>
       <c r="J37" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K37" s="93"/>
       <c r="L37" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M37" s="217"/>
       <c r="N37" s="217"/>
       <c r="O37" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="17.25" thickBot="1">
@@ -14218,16 +14227,16 @@
       <c r="H38" s="98"/>
       <c r="I38" s="98"/>
       <c r="J38" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K38" s="98"/>
       <c r="L38" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M38" s="218"/>
       <c r="N38" s="218"/>
       <c r="O38" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14241,7 +14250,7 @@
         <v>77</v>
       </c>
       <c r="D39" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E39" s="81"/>
       <c r="F39" s="81"/>
@@ -14250,25 +14259,25 @@
         <v>76</v>
       </c>
       <c r="I39" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J39" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K39" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L39" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M39" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N39" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O39" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M39" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N39" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O39" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -14288,16 +14297,16 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
       <c r="J40" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K40" s="93"/>
       <c r="L40" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M40" s="217"/>
       <c r="N40" s="217"/>
       <c r="O40" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -14317,16 +14326,16 @@
       <c r="H41" s="93"/>
       <c r="I41" s="93"/>
       <c r="J41" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K41" s="93"/>
       <c r="L41" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M41" s="217"/>
       <c r="N41" s="217"/>
       <c r="O41" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="17.25" thickBot="1">
@@ -14344,16 +14353,16 @@
       <c r="H42" s="103"/>
       <c r="I42" s="103"/>
       <c r="J42" s="103" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K42" s="103"/>
       <c r="L42" s="103" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M42" s="222"/>
       <c r="N42" s="222"/>
       <c r="O42" s="103" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14367,7 +14376,7 @@
         <v>77</v>
       </c>
       <c r="D43" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
@@ -14376,25 +14385,25 @@
         <v>76</v>
       </c>
       <c r="I43" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J43" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K43" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L43" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M43" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N43" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O43" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M43" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N43" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O43" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -14414,16 +14423,16 @@
       <c r="H44" s="93"/>
       <c r="I44" s="93"/>
       <c r="J44" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K44" s="93"/>
       <c r="L44" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M44" s="217"/>
       <c r="N44" s="217"/>
       <c r="O44" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -14443,16 +14452,16 @@
       <c r="H45" s="93"/>
       <c r="I45" s="93"/>
       <c r="J45" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K45" s="93"/>
       <c r="L45" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M45" s="217"/>
       <c r="N45" s="217"/>
       <c r="O45" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="17.25" thickBot="1">
@@ -14470,16 +14479,16 @@
       <c r="H46" s="98"/>
       <c r="I46" s="98"/>
       <c r="J46" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K46" s="98"/>
       <c r="L46" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M46" s="218"/>
       <c r="N46" s="218"/>
       <c r="O46" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14493,7 +14502,7 @@
         <v>77</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
@@ -14502,25 +14511,25 @@
         <v>76</v>
       </c>
       <c r="I47" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J47" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K47" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L47" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M47" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N47" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O47" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M47" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N47" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O47" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -14540,16 +14549,16 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
       <c r="J48" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K48" s="93"/>
       <c r="L48" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M48" s="217"/>
       <c r="N48" s="217"/>
       <c r="O48" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -14567,16 +14576,16 @@
       <c r="H49" s="93"/>
       <c r="I49" s="93"/>
       <c r="J49" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K49" s="93"/>
       <c r="L49" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M49" s="217"/>
       <c r="N49" s="217"/>
       <c r="O49" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -14594,16 +14603,16 @@
       <c r="H50" s="93"/>
       <c r="I50" s="93"/>
       <c r="J50" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K50" s="93"/>
       <c r="L50" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M50" s="217"/>
       <c r="N50" s="217"/>
       <c r="O50" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="17.25" thickBot="1">
@@ -14621,16 +14630,16 @@
       <c r="H51" s="98"/>
       <c r="I51" s="98"/>
       <c r="J51" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K51" s="98"/>
       <c r="L51" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M51" s="218"/>
       <c r="N51" s="218"/>
       <c r="O51" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14644,7 +14653,7 @@
         <v>77</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E52" s="81"/>
       <c r="F52" s="81"/>
@@ -14653,25 +14662,25 @@
         <v>76</v>
       </c>
       <c r="I52" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J52" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K52" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L52" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M52" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N52" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O52" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M52" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N52" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O52" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -14691,16 +14700,16 @@
       <c r="H53" s="93"/>
       <c r="I53" s="93"/>
       <c r="J53" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K53" s="93"/>
       <c r="L53" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M53" s="217"/>
       <c r="N53" s="217"/>
       <c r="O53" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -14720,16 +14729,16 @@
       <c r="H54" s="93"/>
       <c r="I54" s="93"/>
       <c r="J54" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K54" s="93"/>
       <c r="L54" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M54" s="217"/>
       <c r="N54" s="217"/>
       <c r="O54" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="17.25" thickBot="1">
@@ -14747,16 +14756,16 @@
       <c r="H55" s="98"/>
       <c r="I55" s="98"/>
       <c r="J55" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K55" s="98"/>
       <c r="L55" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M55" s="218"/>
       <c r="N55" s="218"/>
       <c r="O55" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14764,13 +14773,13 @@
         <v>268</v>
       </c>
       <c r="B56" s="89" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C56" s="166" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E56" s="81"/>
       <c r="F56" s="81"/>
@@ -14779,25 +14788,25 @@
         <v>76</v>
       </c>
       <c r="I56" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J56" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K56" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L56" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M56" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N56" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O56" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M56" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N56" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O56" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -14817,16 +14826,16 @@
       <c r="H57" s="93"/>
       <c r="I57" s="93"/>
       <c r="J57" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K57" s="93"/>
       <c r="L57" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M57" s="217"/>
       <c r="N57" s="217"/>
       <c r="O57" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="17.25" thickBot="1">
@@ -14844,16 +14853,16 @@
       <c r="H58" s="98"/>
       <c r="I58" s="98"/>
       <c r="J58" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K58" s="98"/>
       <c r="L58" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M58" s="218"/>
       <c r="N58" s="218"/>
       <c r="O58" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14867,7 +14876,7 @@
         <v>77</v>
       </c>
       <c r="D59" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E59" s="81"/>
       <c r="F59" s="81"/>
@@ -14876,25 +14885,25 @@
         <v>76</v>
       </c>
       <c r="I59" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J59" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K59" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L59" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M59" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N59" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O59" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M59" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N59" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O59" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -14914,16 +14923,16 @@
       <c r="H60" s="93"/>
       <c r="I60" s="93"/>
       <c r="J60" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K60" s="93"/>
       <c r="L60" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M60" s="217"/>
       <c r="N60" s="217"/>
       <c r="O60" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -14943,16 +14952,16 @@
       <c r="H61" s="93"/>
       <c r="I61" s="93"/>
       <c r="J61" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K61" s="93"/>
       <c r="L61" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M61" s="217"/>
       <c r="N61" s="217"/>
       <c r="O61" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="17.25" thickBot="1">
@@ -14970,16 +14979,16 @@
       <c r="H62" s="98"/>
       <c r="I62" s="98"/>
       <c r="J62" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K62" s="98"/>
       <c r="L62" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M62" s="218"/>
       <c r="N62" s="218"/>
       <c r="O62" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14993,7 +15002,7 @@
         <v>77</v>
       </c>
       <c r="D63" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E63" s="81"/>
       <c r="F63" s="81"/>
@@ -15002,25 +15011,25 @@
         <v>76</v>
       </c>
       <c r="I63" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J63" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K63" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L63" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M63" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N63" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O63" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M63" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N63" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O63" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -15040,16 +15049,16 @@
       <c r="H64" s="93"/>
       <c r="I64" s="93"/>
       <c r="J64" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K64" s="93"/>
       <c r="L64" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M64" s="217"/>
       <c r="N64" s="217"/>
       <c r="O64" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -15067,16 +15076,16 @@
       <c r="H65" s="93"/>
       <c r="I65" s="93"/>
       <c r="J65" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K65" s="93"/>
       <c r="L65" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M65" s="217"/>
       <c r="N65" s="217"/>
       <c r="O65" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="17.25" thickBot="1">
@@ -15096,16 +15105,16 @@
       <c r="H66" s="98"/>
       <c r="I66" s="98"/>
       <c r="J66" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K66" s="98"/>
       <c r="L66" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M66" s="218"/>
       <c r="N66" s="218"/>
       <c r="O66" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15119,7 +15128,7 @@
         <v>77</v>
       </c>
       <c r="D67" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E67" s="81"/>
       <c r="F67" s="81"/>
@@ -15128,25 +15137,25 @@
         <v>76</v>
       </c>
       <c r="I67" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J67" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K67" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L67" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M67" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N67" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O67" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M67" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N67" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O67" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -15166,16 +15175,16 @@
       <c r="H68" s="93"/>
       <c r="I68" s="93"/>
       <c r="J68" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K68" s="93"/>
       <c r="L68" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M68" s="217"/>
       <c r="N68" s="217"/>
       <c r="O68" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="17.25" thickBot="1">
@@ -15195,16 +15204,16 @@
       <c r="H69" s="98"/>
       <c r="I69" s="98"/>
       <c r="J69" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K69" s="98"/>
       <c r="L69" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M69" s="218"/>
       <c r="N69" s="218"/>
       <c r="O69" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15218,7 +15227,7 @@
         <v>77</v>
       </c>
       <c r="D70" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E70" s="81"/>
       <c r="F70" s="81"/>
@@ -15227,25 +15236,25 @@
         <v>76</v>
       </c>
       <c r="I70" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J70" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K70" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L70" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M70" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N70" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O70" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M70" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N70" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O70" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -15265,16 +15274,16 @@
       <c r="H71" s="93"/>
       <c r="I71" s="93"/>
       <c r="J71" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K71" s="93"/>
       <c r="L71" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M71" s="217"/>
       <c r="N71" s="217"/>
       <c r="O71" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -15294,16 +15303,16 @@
       <c r="H72" s="93"/>
       <c r="I72" s="93"/>
       <c r="J72" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K72" s="93"/>
       <c r="L72" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M72" s="217"/>
       <c r="N72" s="217"/>
       <c r="O72" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="17.25" thickBot="1">
@@ -15323,16 +15332,16 @@
       <c r="H73" s="98"/>
       <c r="I73" s="98"/>
       <c r="J73" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K73" s="98"/>
       <c r="L73" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M73" s="218"/>
       <c r="N73" s="218"/>
       <c r="O73" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15346,7 +15355,7 @@
         <v>77</v>
       </c>
       <c r="D74" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E74" s="81"/>
       <c r="F74" s="81"/>
@@ -15355,25 +15364,25 @@
         <v>76</v>
       </c>
       <c r="I74" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J74" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K74" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L74" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M74" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N74" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O74" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M74" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N74" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O74" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="17.25" thickBot="1">
@@ -15393,21 +15402,21 @@
       <c r="H75" s="106"/>
       <c r="I75" s="106"/>
       <c r="J75" s="106" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K75" s="106"/>
       <c r="L75" s="106" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M75" s="223"/>
       <c r="N75" s="223"/>
       <c r="O75" s="106" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="160" customFormat="1" ht="27">
       <c r="A76" s="229" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B76" s="166" t="s">
         <v>355</v>
@@ -15416,7 +15425,7 @@
         <v>77</v>
       </c>
       <c r="D76" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E76" s="81"/>
       <c r="F76" s="81"/>
@@ -15425,30 +15434,30 @@
         <v>76</v>
       </c>
       <c r="I76" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J76" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K76" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L76" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M76" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N76" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O76" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M76" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N76" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O76" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="17.25" thickBot="1">
       <c r="A77" s="91" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B77" s="106" t="s">
         <v>355</v>
@@ -15463,16 +15472,16 @@
       <c r="H77" s="106"/>
       <c r="I77" s="106"/>
       <c r="J77" s="106" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K77" s="106"/>
       <c r="L77" s="106" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M77" s="223"/>
       <c r="N77" s="223"/>
       <c r="O77" s="106" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15486,7 +15495,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E78" s="81"/>
       <c r="F78" s="81"/>
@@ -15495,25 +15504,25 @@
         <v>76</v>
       </c>
       <c r="I78" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J78" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K78" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L78" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M78" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N78" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O78" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M78" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N78" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O78" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -15531,16 +15540,16 @@
       <c r="H79" s="97"/>
       <c r="I79" s="97"/>
       <c r="J79" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K79" s="97"/>
       <c r="L79" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M79" s="221"/>
       <c r="N79" s="221"/>
       <c r="O79" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -15558,16 +15567,16 @@
       <c r="H80" s="97"/>
       <c r="I80" s="97"/>
       <c r="J80" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K80" s="97"/>
       <c r="L80" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M80" s="221"/>
       <c r="N80" s="221"/>
       <c r="O80" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -15585,16 +15594,16 @@
       <c r="H81" s="97"/>
       <c r="I81" s="97"/>
       <c r="J81" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K81" s="97"/>
       <c r="L81" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M81" s="221"/>
       <c r="N81" s="221"/>
       <c r="O81" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -15612,16 +15621,16 @@
       <c r="H82" s="97"/>
       <c r="I82" s="97"/>
       <c r="J82" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K82" s="97"/>
       <c r="L82" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M82" s="221"/>
       <c r="N82" s="221"/>
       <c r="O82" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="17.25" thickBot="1">
@@ -15639,16 +15648,16 @@
       <c r="H83" s="103"/>
       <c r="I83" s="103"/>
       <c r="J83" s="103" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K83" s="103"/>
       <c r="L83" s="103" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M83" s="222"/>
       <c r="N83" s="222"/>
       <c r="O83" s="103" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15662,7 +15671,7 @@
         <v>77</v>
       </c>
       <c r="D84" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E84" s="81"/>
       <c r="F84" s="81"/>
@@ -15671,25 +15680,25 @@
         <v>76</v>
       </c>
       <c r="I84" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J84" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K84" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L84" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M84" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N84" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O84" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M84" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N84" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O84" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -15707,16 +15716,16 @@
       <c r="H85" s="97"/>
       <c r="I85" s="97"/>
       <c r="J85" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K85" s="97"/>
       <c r="L85" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M85" s="221"/>
       <c r="N85" s="221"/>
       <c r="O85" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -15734,16 +15743,16 @@
       <c r="H86" s="97"/>
       <c r="I86" s="97"/>
       <c r="J86" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K86" s="97"/>
       <c r="L86" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M86" s="221"/>
       <c r="N86" s="221"/>
       <c r="O86" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="17.25" thickBot="1">
@@ -15761,16 +15770,16 @@
       <c r="H87" s="103"/>
       <c r="I87" s="103"/>
       <c r="J87" s="103" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K87" s="103"/>
       <c r="L87" s="103" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M87" s="222"/>
       <c r="N87" s="222"/>
       <c r="O87" s="103" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15784,7 +15793,7 @@
         <v>77</v>
       </c>
       <c r="D88" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E88" s="81"/>
       <c r="F88" s="81"/>
@@ -15793,25 +15802,25 @@
         <v>76</v>
       </c>
       <c r="I88" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J88" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K88" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L88" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M88" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N88" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O88" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M88" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N88" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O88" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -15831,16 +15840,16 @@
       <c r="H89" s="93"/>
       <c r="I89" s="93"/>
       <c r="J89" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K89" s="93"/>
       <c r="L89" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M89" s="217"/>
       <c r="N89" s="217"/>
       <c r="O89" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -15860,16 +15869,16 @@
       <c r="H90" s="93"/>
       <c r="I90" s="93"/>
       <c r="J90" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K90" s="93"/>
       <c r="L90" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M90" s="217"/>
       <c r="N90" s="217"/>
       <c r="O90" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -15889,16 +15898,16 @@
       <c r="H91" s="93"/>
       <c r="I91" s="93"/>
       <c r="J91" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K91" s="93"/>
       <c r="L91" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M91" s="217"/>
       <c r="N91" s="217"/>
       <c r="O91" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -15916,16 +15925,16 @@
       <c r="H92" s="93"/>
       <c r="I92" s="93"/>
       <c r="J92" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K92" s="93"/>
       <c r="L92" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M92" s="217"/>
       <c r="N92" s="217"/>
       <c r="O92" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -15945,16 +15954,16 @@
       <c r="H93" s="93"/>
       <c r="I93" s="93"/>
       <c r="J93" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K93" s="93"/>
       <c r="L93" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M93" s="217"/>
       <c r="N93" s="217"/>
       <c r="O93" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="17.25" thickBot="1">
@@ -15974,16 +15983,16 @@
       <c r="H94" s="98"/>
       <c r="I94" s="98"/>
       <c r="J94" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K94" s="98"/>
       <c r="L94" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M94" s="218"/>
       <c r="N94" s="218"/>
       <c r="O94" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15997,7 +16006,7 @@
         <v>77</v>
       </c>
       <c r="D95" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E95" s="81"/>
       <c r="F95" s="81"/>
@@ -16006,25 +16015,25 @@
         <v>76</v>
       </c>
       <c r="I95" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J95" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K95" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L95" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M95" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N95" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O95" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M95" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N95" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O95" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -16044,16 +16053,16 @@
       <c r="H96" s="93"/>
       <c r="I96" s="93"/>
       <c r="J96" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K96" s="93"/>
       <c r="L96" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M96" s="217"/>
       <c r="N96" s="217"/>
       <c r="O96" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -16073,16 +16082,16 @@
       <c r="H97" s="93"/>
       <c r="I97" s="93"/>
       <c r="J97" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K97" s="93"/>
       <c r="L97" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M97" s="217"/>
       <c r="N97" s="217"/>
       <c r="O97" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -16100,16 +16109,16 @@
       <c r="H98" s="93"/>
       <c r="I98" s="93"/>
       <c r="J98" s="93" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K98" s="93"/>
       <c r="L98" s="93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M98" s="217"/>
       <c r="N98" s="217"/>
       <c r="O98" s="93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="17.25" thickBot="1">
@@ -16127,16 +16136,16 @@
       <c r="H99" s="98"/>
       <c r="I99" s="98"/>
       <c r="J99" s="98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K99" s="98"/>
       <c r="L99" s="98" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M99" s="218"/>
       <c r="N99" s="218"/>
       <c r="O99" s="98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="160" customFormat="1" ht="27">
@@ -16150,7 +16159,7 @@
         <v>77</v>
       </c>
       <c r="D100" s="81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E100" s="81"/>
       <c r="F100" s="81"/>
@@ -16159,25 +16168,25 @@
         <v>76</v>
       </c>
       <c r="I100" s="81" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J100" s="166" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K100" s="166" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L100" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="M100" s="209" t="s">
+        <v>566</v>
+      </c>
+      <c r="N100" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="O100" s="166" t="s">
         <v>564</v>
-      </c>
-      <c r="M100" s="209" t="s">
-        <v>568</v>
-      </c>
-      <c r="N100" s="209" t="s">
-        <v>569</v>
-      </c>
-      <c r="O100" s="166" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -16195,16 +16204,16 @@
       <c r="H101" s="97"/>
       <c r="I101" s="97"/>
       <c r="J101" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K101" s="97"/>
       <c r="L101" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M101" s="221"/>
       <c r="N101" s="221"/>
       <c r="O101" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -16222,16 +16231,16 @@
       <c r="H102" s="97"/>
       <c r="I102" s="97"/>
       <c r="J102" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K102" s="97"/>
       <c r="L102" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M102" s="221"/>
       <c r="N102" s="221"/>
       <c r="O102" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -16249,16 +16258,16 @@
       <c r="H103" s="97"/>
       <c r="I103" s="97"/>
       <c r="J103" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K103" s="97"/>
       <c r="L103" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M103" s="221"/>
       <c r="N103" s="221"/>
       <c r="O103" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -16276,16 +16285,16 @@
       <c r="H104" s="97"/>
       <c r="I104" s="97"/>
       <c r="J104" s="97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K104" s="97"/>
       <c r="L104" s="97" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M104" s="221"/>
       <c r="N104" s="221"/>
       <c r="O104" s="97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="17.25" thickBot="1">
@@ -16303,16 +16312,16 @@
       <c r="H105" s="103"/>
       <c r="I105" s="103"/>
       <c r="J105" s="103" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K105" s="103"/>
       <c r="L105" s="103" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M105" s="222"/>
       <c r="N105" s="222"/>
       <c r="O105" s="103" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -16352,62 +16361,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="293" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="271"/>
+      <c r="B2" s="293"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293"/>
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="293"/>
+      <c r="N2" s="293"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="294" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="272" t="s">
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="294" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="295"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="295"/>
       <c r="O3" s="201" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1">
@@ -16454,7 +16463,7 @@
         <v>96</v>
       </c>
       <c r="O4" s="203" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickTop="1">
@@ -16495,7 +16504,7 @@
         <v>104</v>
       </c>
       <c r="O5" s="202" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -16536,7 +16545,7 @@
         <v>107</v>
       </c>
       <c r="O6" s="202" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -16577,7 +16586,7 @@
         <v>110</v>
       </c>
       <c r="O7" s="202" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -16618,7 +16627,7 @@
         <v>104</v>
       </c>
       <c r="O8" s="202" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -16659,7 +16668,7 @@
         <v>104</v>
       </c>
       <c r="O9" s="202" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -16700,7 +16709,7 @@
         <v>110</v>
       </c>
       <c r="O10" s="202" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -16741,7 +16750,7 @@
         <v>104</v>
       </c>
       <c r="O11" s="202" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -16782,7 +16791,7 @@
         <v>110</v>
       </c>
       <c r="O12" s="202" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -16823,7 +16832,7 @@
         <v>104</v>
       </c>
       <c r="O13" s="202" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -16864,7 +16873,7 @@
         <v>104</v>
       </c>
       <c r="O14" s="202" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -16905,7 +16914,7 @@
         <v>104</v>
       </c>
       <c r="O15" s="202" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" thickBot="1">
@@ -16946,7 +16955,7 @@
         <v>110</v>
       </c>
       <c r="O16" s="202" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -16987,7 +16996,7 @@
         <v>133</v>
       </c>
       <c r="O17" s="202" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -17028,7 +17037,7 @@
         <v>136</v>
       </c>
       <c r="O18" s="202" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -17069,7 +17078,7 @@
         <v>139</v>
       </c>
       <c r="O19" s="202" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -17110,7 +17119,7 @@
         <v>139</v>
       </c>
       <c r="O20" s="202" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -17153,7 +17162,7 @@
         <v>133</v>
       </c>
       <c r="O21" s="202" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.25" thickBot="1">
@@ -17196,7 +17205,7 @@
         <v>136</v>
       </c>
       <c r="O22" s="202" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -17237,7 +17246,7 @@
         <v>107</v>
       </c>
       <c r="O23" s="202" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -17278,7 +17287,7 @@
         <v>110</v>
       </c>
       <c r="O24" s="202" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -17319,7 +17328,7 @@
         <v>107</v>
       </c>
       <c r="O25" s="202" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -17362,7 +17371,7 @@
         <v>107</v>
       </c>
       <c r="O26" s="202" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -17405,7 +17414,7 @@
         <v>159</v>
       </c>
       <c r="O27" s="202" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17.25" thickBot="1">
@@ -17448,7 +17457,7 @@
         <v>107</v>
       </c>
       <c r="O28" s="202" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -18109,34 +18118,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="297" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="275" t="s">
+      <c r="B1" s="297" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="275" t="s">
+      <c r="C1" s="297" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="277" t="s">
+      <c r="D1" s="299" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="277"/>
-      <c r="F1" s="275" t="s">
+      <c r="E1" s="299"/>
+      <c r="F1" s="297" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="276"/>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
+      <c r="A2" s="298"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
       <c r="D2" s="125" t="s">
         <v>229</v>
       </c>
       <c r="E2" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="276"/>
+      <c r="F2" s="298"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="126" t="s">
@@ -18397,10 +18406,10 @@
       <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="301" t="s">
         <v>408</v>
       </c>
-      <c r="C3" s="279"/>
+      <c r="C3" s="301"/>
       <c r="D3" s="120" t="s">
         <v>407</v>
       </c>
@@ -18418,10 +18427,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="280" t="s">
+      <c r="B4" s="302" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="281"/>
+      <c r="C4" s="303"/>
       <c r="D4" s="123" t="s">
         <v>406</v>
       </c>
@@ -18435,11 +18444,11 @@
         <v>404</v>
       </c>
       <c r="H4" s="141" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="304" t="s">
         <v>403</v>
       </c>
       <c r="C5" s="140" t="s">
@@ -18460,7 +18469,7 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="283"/>
+      <c r="B6" s="305"/>
       <c r="C6" s="140" t="s">
         <v>410</v>
       </c>
@@ -18499,10 +18508,10 @@
       <c r="H8" s="149"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="279" t="s">
+      <c r="B10" s="301" t="s">
         <v>396</v>
       </c>
-      <c r="C10" s="279"/>
+      <c r="C10" s="301"/>
       <c r="D10" s="120" t="s">
         <v>395</v>
       </c>
@@ -18520,10 +18529,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="278" t="s">
+      <c r="B11" s="300" t="s">
         <v>390</v>
       </c>
-      <c r="C11" s="278"/>
+      <c r="C11" s="300"/>
       <c r="D11" s="109" t="s">
         <v>389</v>
       </c>
@@ -18541,10 +18550,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="278" t="s">
+      <c r="B12" s="300" t="s">
         <v>388</v>
       </c>
-      <c r="C12" s="278"/>
+      <c r="C12" s="300"/>
       <c r="D12" s="109" t="s">
         <v>387</v>
       </c>
@@ -18562,10 +18571,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="278" t="s">
+      <c r="B13" s="300" t="s">
         <v>384</v>
       </c>
-      <c r="C13" s="278"/>
+      <c r="C13" s="300"/>
       <c r="D13" s="109" t="s">
         <v>383</v>
       </c>
@@ -18581,10 +18590,10 @@
       <c r="H13" s="143"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="278" t="s">
+      <c r="B14" s="300" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="278"/>
+      <c r="C14" s="300"/>
       <c r="D14" s="109" t="s">
         <v>381</v>
       </c>
@@ -18602,10 +18611,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="278" t="s">
+      <c r="B15" s="300" t="s">
         <v>379</v>
       </c>
-      <c r="C15" s="278"/>
+      <c r="C15" s="300"/>
       <c r="D15" s="119"/>
       <c r="E15" s="118" t="s">
         <v>378</v>
@@ -18619,10 +18628,10 @@
       <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="278" t="s">
+      <c r="B16" s="300" t="s">
         <v>376</v>
       </c>
-      <c r="C16" s="278"/>
+      <c r="C16" s="300"/>
       <c r="D16" s="109" t="s">
         <v>411</v>
       </c>
@@ -18869,16 +18878,16 @@
     </row>
     <row r="7" spans="1:7" s="176" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="182" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" s="183" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="183" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="D7" s="183" t="s">
         <v>504</v>
-      </c>
-      <c r="C7" s="183" t="s">
-        <v>505</v>
-      </c>
-      <c r="D7" s="183" t="s">
-        <v>506</v>
       </c>
       <c r="E7" s="184"/>
       <c r="F7" s="185"/>
@@ -18889,10 +18898,10 @@
         <v>266</v>
       </c>
       <c r="B8" s="187" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D8" s="189"/>
       <c r="E8" s="189" t="s">
@@ -18908,10 +18917,10 @@
         <v>263</v>
       </c>
       <c r="B9" s="187" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C9" s="188" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D9" s="192"/>
       <c r="E9" s="192" t="s">
@@ -18927,7 +18936,7 @@
         <v>265</v>
       </c>
       <c r="B10" s="187" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C10" s="188"/>
       <c r="D10" s="192"/>
@@ -18942,7 +18951,7 @@
     <row r="11" spans="1:7" ht="24.75">
       <c r="A11" s="194"/>
       <c r="B11" s="187" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C11" s="188"/>
       <c r="D11" s="192"/>
@@ -18959,10 +18968,10 @@
         <v>263</v>
       </c>
       <c r="B12" s="187" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C12" s="188" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D12" s="192"/>
       <c r="E12" s="192" t="s">
@@ -18978,10 +18987,10 @@
         <v>262</v>
       </c>
       <c r="B13" s="187" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C13" s="188" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D13" s="192"/>
       <c r="E13" s="192" t="s">
@@ -18995,7 +19004,7 @@
     <row r="14" spans="1:7" ht="24.75">
       <c r="A14" s="195"/>
       <c r="B14" s="187" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C14" s="188"/>
       <c r="D14" s="195"/>
@@ -19010,14 +19019,14 @@
     <row r="15" spans="1:7" ht="24.75">
       <c r="A15" s="188"/>
       <c r="B15" s="187" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C15" s="188" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D15" s="188"/>
       <c r="E15" s="188" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F15" s="193" t="s">
         <v>75</v>
@@ -19027,14 +19036,14 @@
     <row r="16" spans="1:7" ht="24.75">
       <c r="A16" s="187"/>
       <c r="B16" s="187" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C16" s="187" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D16" s="187"/>
       <c r="E16" s="187" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F16" s="193" t="s">
         <v>75</v>
@@ -19044,14 +19053,14 @@
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="187"/>
       <c r="B17" s="187" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" s="187" t="s">
         <v>476</v>
-      </c>
-      <c r="C17" s="187" t="s">
-        <v>478</v>
       </c>
       <c r="D17" s="187"/>
       <c r="E17" s="187" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F17" s="193" t="s">
         <v>75</v>
@@ -19061,14 +19070,14 @@
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="187"/>
       <c r="B18" s="187" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D18" s="187"/>
       <c r="E18" s="187" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F18" s="193" t="s">
         <v>75</v>
@@ -19078,16 +19087,16 @@
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="187"/>
       <c r="B19" s="187" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C19" s="187" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D19" s="187" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E19" s="187" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F19" s="193" t="s">
         <v>75</v>
@@ -19097,16 +19106,16 @@
     <row r="20" spans="1:7" ht="31.5" customHeight="1">
       <c r="A20" s="187"/>
       <c r="B20" s="198" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C20" s="198" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D20" s="198" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E20" s="198" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F20" s="199" t="s">
         <v>75</v>
@@ -19116,16 +19125,16 @@
     <row r="21" spans="1:7" ht="24.75">
       <c r="A21" s="187"/>
       <c r="B21" s="187" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="187" t="s">
         <v>480</v>
       </c>
-      <c r="C21" s="187" t="s">
-        <v>482</v>
-      </c>
       <c r="D21" s="196" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E21" s="187" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F21" s="193" t="s">
         <v>75</v>
@@ -19135,14 +19144,14 @@
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="187"/>
       <c r="B22" s="187" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C22" s="187" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D22" s="187"/>
       <c r="E22" s="187" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F22" s="193" t="s">
         <v>75</v>
@@ -19152,14 +19161,14 @@
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="187"/>
       <c r="B23" s="187" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" s="187" t="s">
         <v>484</v>
-      </c>
-      <c r="C23" s="187" t="s">
-        <v>486</v>
       </c>
       <c r="D23" s="187"/>
       <c r="E23" s="187" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F23" s="193" t="s">
         <v>75</v>
@@ -19169,16 +19178,16 @@
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="187"/>
       <c r="B24" s="187" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C24" s="187" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D24" s="187" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E24" s="187" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F24" s="193" t="s">
         <v>75</v>
@@ -19188,16 +19197,16 @@
     <row r="25" spans="1:7" ht="24.75">
       <c r="A25" s="187"/>
       <c r="B25" s="187" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C25" s="187" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D25" s="187" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E25" s="187" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F25" s="193" t="s">
         <v>75</v>
@@ -19207,16 +19216,16 @@
     <row r="26" spans="1:7" ht="24.75">
       <c r="A26" s="187"/>
       <c r="B26" s="187" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C26" s="187" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" s="197" t="s">
         <v>513</v>
       </c>
-      <c r="D26" s="197" t="s">
-        <v>515</v>
-      </c>
       <c r="E26" s="187" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F26" s="193" t="s">
         <v>75</v>
@@ -19226,16 +19235,16 @@
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="187"/>
       <c r="B27" s="187" t="s">
+        <v>487</v>
+      </c>
+      <c r="C27" s="187" t="s">
+        <v>488</v>
+      </c>
+      <c r="D27" s="187" t="s">
         <v>489</v>
       </c>
-      <c r="C27" s="187" t="s">
-        <v>490</v>
-      </c>
-      <c r="D27" s="187" t="s">
-        <v>491</v>
-      </c>
       <c r="E27" s="187" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F27" s="193" t="s">
         <v>75</v>
@@ -19246,11 +19255,11 @@
       <c r="A28" s="187"/>
       <c r="B28" s="187"/>
       <c r="C28" s="187" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D28" s="187"/>
       <c r="E28" s="187" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F28" s="193" t="s">
         <v>75</v>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="3"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="기록물등록사항참고" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">분류맵2017!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">분류맵2017!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">분류맵2018!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">철등록부2017참고!$A$4:$N$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">철등록부2018참고!$A$4:$N$44</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="741">
   <si>
     <t>경기천년 기념사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2291,10 +2291,6 @@
   </si>
   <si>
     <t>보존기간책정사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보존기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3150,230 +3146,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정책목표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이행과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기록물철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단위업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년기념사업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아카이빙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사업명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화사업팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화예술본부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기문화재단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기록물분류기준표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포털</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기록관리기준</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목적별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업(사업계획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사업명</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화플랫폼구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단기사업계획/중장기사업계획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록관리기준표(현행)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재단규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화사업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜딩 / 아카이빙 / 도민참여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3426,11 +3203,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단위과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제 세부</t>
+    <t>e0001186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제 세부
+기록물철 업무내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3438,7 +3220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="64">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3908,21 +3690,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4159,18 +3928,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4850,7 +4607,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5578,36 +5335,12 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="62" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="43" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="44" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="44" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5673,6 +5406,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -6032,12 +5768,12 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6045,39 +5781,36 @@
     <col min="1" max="1" width="17.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="262" customWidth="1"/>
-    <col min="6" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="27.375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="27.375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="83" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A1" s="83" t="s">
-        <v>6</v>
+        <v>739</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>7</v>
+        <v>725</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>763</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>764</v>
+        <v>724</v>
+      </c>
+      <c r="D1" s="301" t="s">
+        <v>740</v>
       </c>
       <c r="E1" s="260" t="s">
         <v>348</v>
       </c>
       <c r="F1" s="83" t="s">
-        <v>552</v>
-      </c>
-      <c r="G1" s="83" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" thickTop="1">
+    <row r="2" spans="1:12" ht="14.25" thickTop="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6093,13 +5826,10 @@
       <c r="E2" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="166" t="s">
-        <v>553</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -6113,15 +5843,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="162" t="s">
-        <v>632</v>
-      </c>
-      <c r="F3" s="162" t="s">
-        <v>553</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+        <v>631</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -6137,13 +5864,10 @@
       <c r="E4" s="262" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="167" t="s">
-        <v>553</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" s="164" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="5" spans="1:12" s="164" customFormat="1" ht="14.25" thickBot="1">
       <c r="A5" s="164" t="s">
         <v>10</v>
       </c>
@@ -6159,13 +5883,10 @@
       <c r="E5" s="264" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="168" t="s">
-        <v>553</v>
-      </c>
+      <c r="K5" s="168"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -6181,13 +5902,10 @@
       <c r="E6" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="166" t="s">
-        <v>553</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -6203,12 +5921,9 @@
       <c r="E7" s="262" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="167" t="s">
-        <v>553</v>
-      </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -6224,12 +5939,9 @@
       <c r="E8" s="262" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="167" t="s">
-        <v>553</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -6245,11 +5957,8 @@
       <c r="E9" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1">
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -6265,11 +5974,8 @@
       <c r="E10" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="5" customFormat="1">
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -6283,13 +5989,10 @@
         <v>19</v>
       </c>
       <c r="E11" s="262" t="s">
-        <v>634</v>
-      </c>
-      <c r="F11" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -6303,13 +6006,10 @@
         <v>20</v>
       </c>
       <c r="E12" s="262" t="s">
-        <v>636</v>
-      </c>
-      <c r="F12" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="5" customFormat="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -6323,13 +6023,10 @@
         <v>21</v>
       </c>
       <c r="E13" s="262" t="s">
-        <v>638</v>
-      </c>
-      <c r="F13" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="5" customFormat="1">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -6345,11 +6042,8 @@
       <c r="E14" s="262" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
@@ -6363,11 +6057,8 @@
         <v>23</v>
       </c>
       <c r="E15" s="264"/>
-      <c r="F15" s="168" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1">
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -6383,11 +6074,8 @@
       <c r="E16" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1">
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -6403,11 +6091,8 @@
       <c r="E17" s="262" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
@@ -6423,11 +6108,8 @@
       <c r="E18" s="264" t="s">
         <v>289</v>
       </c>
-      <c r="F18" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1">
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1">
       <c r="A19" s="166" t="s">
         <v>0</v>
       </c>
@@ -6443,11 +6125,8 @@
       <c r="E19" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1">
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -6463,11 +6142,8 @@
       <c r="E20" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="8" customFormat="1">
+    </row>
+    <row r="21" spans="1:5" s="8" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -6483,11 +6159,8 @@
       <c r="E21" s="262" t="s">
         <v>294</v>
       </c>
-      <c r="F21" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="8" customFormat="1">
+    </row>
+    <row r="22" spans="1:5" s="8" customFormat="1">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -6501,11 +6174,8 @@
         <v>35</v>
       </c>
       <c r="E22" s="262"/>
-      <c r="F22" s="167" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1">
+    </row>
+    <row r="23" spans="1:5" s="8" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -6519,11 +6189,8 @@
         <v>36</v>
       </c>
       <c r="E23" s="262"/>
-      <c r="F23" s="167" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="8" customFormat="1">
+    </row>
+    <row r="24" spans="1:5" s="8" customFormat="1">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -6537,11 +6204,8 @@
         <v>37</v>
       </c>
       <c r="E24" s="262"/>
-      <c r="F24" s="167" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -6557,11 +6221,8 @@
       <c r="E25" s="264" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="14" customFormat="1">
+    </row>
+    <row r="26" spans="1:5" s="14" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -6577,11 +6238,8 @@
       <c r="E26" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -6597,11 +6255,8 @@
       <c r="E27" s="262" t="s">
         <v>440</v>
       </c>
-      <c r="F27" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="28" spans="1:5" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -6615,13 +6270,10 @@
         <v>30</v>
       </c>
       <c r="E28" s="264" t="s">
-        <v>715</v>
-      </c>
-      <c r="F28" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -6637,11 +6289,8 @@
       <c r="E29" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -6657,11 +6306,8 @@
       <c r="E30" s="262" t="s">
         <v>296</v>
       </c>
-      <c r="F30" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -6674,11 +6320,8 @@
       <c r="D31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="167" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="32" spans="1:5" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
@@ -6694,11 +6337,8 @@
       <c r="E32" s="264" t="s">
         <v>295</v>
       </c>
-      <c r="F32" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -6714,11 +6354,8 @@
       <c r="E33" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="34" spans="1:5" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -6732,11 +6369,8 @@
         <v>46</v>
       </c>
       <c r="E34" s="264"/>
-      <c r="F34" s="168" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -6752,11 +6386,8 @@
       <c r="E35" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -6772,11 +6403,8 @@
       <c r="E36" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
@@ -6790,13 +6418,10 @@
         <v>4</v>
       </c>
       <c r="E37" s="264" t="s">
-        <v>696</v>
-      </c>
-      <c r="F37" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -6812,11 +6437,8 @@
       <c r="E38" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -6829,11 +6451,8 @@
       <c r="D39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="167" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -6849,11 +6468,8 @@
       <c r="E40" s="262" t="s">
         <v>297</v>
       </c>
-      <c r="F40" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -6869,11 +6485,8 @@
       <c r="E41" s="262" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -6889,11 +6502,8 @@
       <c r="E42" s="264" t="s">
         <v>299</v>
       </c>
-      <c r="F42" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -6909,11 +6519,8 @@
       <c r="E43" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -6927,13 +6534,10 @@
         <v>54</v>
       </c>
       <c r="E44" s="262" t="s">
-        <v>697</v>
-      </c>
-      <c r="F44" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -6949,11 +6553,8 @@
       <c r="E45" s="262" t="s">
         <v>441</v>
       </c>
-      <c r="F45" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="46" spans="1:5" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -6967,13 +6568,10 @@
         <v>56</v>
       </c>
       <c r="E46" s="264" t="s">
-        <v>698</v>
-      </c>
-      <c r="F46" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -6989,11 +6587,8 @@
       <c r="E47" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -7007,13 +6602,10 @@
         <v>58</v>
       </c>
       <c r="E48" s="262" t="s">
-        <v>639</v>
-      </c>
-      <c r="F48" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
@@ -7027,13 +6619,10 @@
         <v>59</v>
       </c>
       <c r="E49" s="264"/>
-      <c r="F49" s="168" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="254"/>
-      <c r="I49" s="269"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="G49" s="254"/>
+      <c r="H49" s="269"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
@@ -7049,11 +6638,8 @@
       <c r="E50" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -7067,13 +6653,10 @@
         <v>61</v>
       </c>
       <c r="E51" s="262" t="s">
-        <v>695</v>
-      </c>
-      <c r="F51" s="167" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
@@ -7087,14 +6670,11 @@
         <v>62</v>
       </c>
       <c r="E52" s="264" t="s">
-        <v>694</v>
-      </c>
-      <c r="F52" s="168" t="s">
-        <v>553</v>
-      </c>
-      <c r="H52" s="254"/>
-    </row>
-    <row r="53" spans="1:9">
+        <v>693</v>
+      </c>
+      <c r="G52" s="254"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
@@ -7110,11 +6690,8 @@
       <c r="E53" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="54" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -7130,11 +6707,8 @@
       <c r="E54" s="264" t="s">
         <v>300</v>
       </c>
-      <c r="F54" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="14" customFormat="1">
+    </row>
+    <row r="55" spans="1:8" s="14" customFormat="1">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -7150,11 +6724,8 @@
       <c r="E55" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1">
+    </row>
+    <row r="56" spans="1:8" s="4" customFormat="1">
       <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
@@ -7170,11 +6741,8 @@
       <c r="E56" s="265" t="s">
         <v>428</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="164" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="57" spans="1:8" s="164" customFormat="1" ht="14.25" thickBot="1">
       <c r="A57" s="164" t="s">
         <v>10</v>
       </c>
@@ -7185,16 +6753,13 @@
         <v>65</v>
       </c>
       <c r="D57" s="164" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E57" s="263" t="s">
-        <v>701</v>
-      </c>
-      <c r="F57" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -7210,11 +6775,8 @@
       <c r="E58" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
@@ -7230,11 +6792,8 @@
       <c r="E59" s="261" t="s">
         <v>432</v>
       </c>
-      <c r="F59" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
@@ -7250,11 +6809,8 @@
       <c r="E60" s="261" t="s">
         <v>436</v>
       </c>
-      <c r="F60" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="6" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="61" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A61" s="7" t="s">
         <v>10</v>
       </c>
@@ -7270,11 +6826,8 @@
       <c r="E61" s="264" t="s">
         <v>430</v>
       </c>
-      <c r="F61" s="168" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="1" customFormat="1">
+    </row>
+    <row r="62" spans="1:8" s="1" customFormat="1">
       <c r="A62" s="4" t="s">
         <v>0</v>
       </c>
@@ -7290,11 +6843,8 @@
       <c r="E62" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="F62" s="166" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="1" customFormat="1">
+    </row>
+    <row r="63" spans="1:8" s="1" customFormat="1">
       <c r="A63" s="4" t="s">
         <v>0</v>
       </c>
@@ -7310,11 +6860,8 @@
       <c r="E63" s="265" t="s">
         <v>421</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="1" customFormat="1">
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1">
       <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
@@ -7330,11 +6877,8 @@
       <c r="E64" s="265" t="s">
         <v>422</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+    </row>
+    <row r="65" spans="1:5" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A65" s="7" t="s">
         <v>0</v>
       </c>
@@ -7350,12 +6894,9 @@
       <c r="E65" s="264" t="s">
         <v>443</v>
       </c>
-      <c r="F65" s="168" t="s">
-        <v>553</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:F1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="75" orientation="portrait" r:id="rId1"/>
@@ -7368,10 +6909,10 @@
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7379,15 +6920,14 @@
     <col min="1" max="1" width="21.125" style="69" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="69" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="69" customWidth="1"/>
-    <col min="5" max="5" width="42.625" style="69" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="24.375" style="69" customWidth="1"/>
-    <col min="8" max="8" width="62.875" style="69" customWidth="1"/>
-    <col min="9" max="16384" width="12.625" style="69"/>
+    <col min="4" max="4" width="19.75" style="69" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="69" customWidth="1"/>
+    <col min="7" max="7" width="62.875" style="69" customWidth="1"/>
+    <col min="8" max="16384" width="12.625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="150" t="s">
         <v>287</v>
       </c>
@@ -7397,21 +6937,20 @@
       <c r="C1" s="150" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="150"/>
+      <c r="D1" s="150" t="s">
+        <v>413</v>
+      </c>
       <c r="E1" s="150" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="150" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="274" t="s">
-        <v>718</v>
-      </c>
-      <c r="H1" s="150" t="s">
+      <c r="F1" s="274" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1" s="150" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="153" t="s">
         <v>285</v>
       </c>
@@ -7419,15 +6958,14 @@
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="272" t="s">
+      <c r="F2" s="272" t="s">
         <v>416</v>
       </c>
-      <c r="H2" s="108" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G2" s="108" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="154" t="s">
         <v>280</v>
       </c>
@@ -7437,19 +6975,18 @@
       <c r="C3" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="275" t="s">
-        <v>723</v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="273" t="s">
+      <c r="D3" s="275" t="s">
+        <v>722</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="273" t="s">
         <v>415</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="G3" s="73" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="154" t="s">
         <v>284</v>
       </c>
@@ -7459,197 +6996,174 @@
       <c r="C4" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73" t="s">
+      <c r="D4" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="273" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="273" t="s">
         <v>412</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="G4" s="158" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="154" t="s">
         <v>282</v>
       </c>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="E5" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="273" t="s">
+      <c r="F5" s="273" t="s">
         <v>414</v>
       </c>
-      <c r="H5" s="73"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B8" s="279" t="s">
-        <v>742</v>
-      </c>
-      <c r="C8" s="279"/>
-      <c r="D8" s="279"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B9" s="276" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B10" s="276" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B11" s="276" t="s">
-        <v>727</v>
-      </c>
-      <c r="E11" s="276" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B12" s="276" t="s">
-        <v>728</v>
-      </c>
-      <c r="E12" s="276" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="277" t="s">
-        <v>730</v>
-      </c>
-      <c r="B13" s="277" t="s">
-        <v>729</v>
-      </c>
-      <c r="C13" s="278"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="278" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B14" s="279" t="s">
-        <v>741</v>
-      </c>
-      <c r="C14" s="280" t="s">
-        <v>748</v>
-      </c>
-      <c r="D14" s="287" t="s">
-        <v>747</v>
-      </c>
-      <c r="E14" s="286"/>
-      <c r="F14" s="289"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B15" s="276" t="s">
-        <v>731</v>
-      </c>
-      <c r="C15" s="282" t="s">
-        <v>740</v>
-      </c>
-      <c r="D15" s="282" t="s">
-        <v>725</v>
-      </c>
-      <c r="E15" s="282" t="s">
-        <v>745</v>
-      </c>
-      <c r="F15" s="285"/>
-      <c r="G15" s="276"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B16" s="276" t="s">
-        <v>732</v>
-      </c>
-      <c r="C16" s="282" t="s">
-        <v>739</v>
-      </c>
-      <c r="D16" s="282" t="s">
-        <v>726</v>
-      </c>
-      <c r="E16" s="282" t="s">
-        <v>749</v>
-      </c>
-      <c r="F16" s="285"/>
-      <c r="G16" s="276"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B17" s="276" t="s">
-        <v>733</v>
-      </c>
-      <c r="C17" s="282" t="s">
-        <v>738</v>
-      </c>
-      <c r="D17" s="282" t="s">
-        <v>727</v>
-      </c>
-      <c r="E17" s="282" t="s">
-        <v>750</v>
-      </c>
-      <c r="F17" s="285"/>
-      <c r="G17" s="276"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B18" s="276" t="s">
-        <v>734</v>
-      </c>
-      <c r="C18" s="282" t="s">
-        <v>743</v>
-      </c>
-      <c r="D18" s="283" t="s">
-        <v>728</v>
-      </c>
-      <c r="E18" s="288" t="s">
-        <v>744</v>
-      </c>
-      <c r="F18" s="281"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" s="276"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="276"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" s="276"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" s="276"/>
       <c r="G18" s="276"/>
-      <c r="H18" s="276"/>
-    </row>
-    <row r="19" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="278"/>
-      <c r="B19" s="277" t="s">
-        <v>730</v>
-      </c>
-      <c r="C19" s="284" t="s">
-        <v>746</v>
-      </c>
-      <c r="D19" s="284" t="s">
-        <v>729</v>
-      </c>
-      <c r="E19" s="284" t="s">
-        <v>729</v>
-      </c>
-      <c r="F19" s="281"/>
-    </row>
-    <row r="20" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E20" s="283"/>
-      <c r="F20" s="290"/>
-    </row>
-    <row r="21" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="H21" s="288"/>
-    </row>
-    <row r="22" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="H22" s="283"/>
-    </row>
-    <row r="23" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="H23" s="283"/>
-    </row>
-    <row r="24" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="H24" s="288"/>
-    </row>
-    <row r="25" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="H25" s="288"/>
-    </row>
-    <row r="26" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="H26" s="283"/>
-    </row>
-    <row r="27" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="19" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="G21" s="278"/>
+    </row>
+    <row r="22" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="G22" s="277"/>
+    </row>
+    <row r="23" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="G23" s="277"/>
+    </row>
+    <row r="24" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="G24" s="278"/>
+    </row>
+    <row r="25" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G25" s="278"/>
+    </row>
+    <row r="26" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G26" s="277"/>
+    </row>
+    <row r="27" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7671,169 +7185,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="293" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" s="248" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="C1" s="248" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" s="293" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="248" t="s">
-        <v>593</v>
-      </c>
-      <c r="D1" s="305" t="s">
+      <c r="E1" s="293" t="s">
         <v>594</v>
       </c>
-      <c r="E1" s="305" t="s">
+      <c r="F1" s="293" t="s">
         <v>595</v>
       </c>
-      <c r="F1" s="305" t="s">
+      <c r="G1" s="293" t="s">
         <v>596</v>
       </c>
-      <c r="G1" s="305" t="s">
+      <c r="H1" s="248" t="s">
         <v>597</v>
       </c>
-      <c r="H1" s="248" t="s">
+      <c r="I1" s="293" t="s">
         <v>598</v>
       </c>
-      <c r="I1" s="305" t="s">
+      <c r="J1" s="248" t="s">
         <v>599</v>
       </c>
-      <c r="J1" s="248" t="s">
+      <c r="K1" s="248" t="s">
         <v>600</v>
       </c>
-      <c r="K1" s="248" t="s">
+      <c r="L1" s="248" t="s">
         <v>601</v>
       </c>
-      <c r="L1" s="248" t="s">
+      <c r="M1" s="293" t="s">
         <v>602</v>
       </c>
-      <c r="M1" s="305" t="s">
+      <c r="N1" s="293" t="s">
+        <v>575</v>
+      </c>
+      <c r="O1" s="293" t="s">
         <v>603</v>
       </c>
-      <c r="N1" s="305" t="s">
-        <v>576</v>
-      </c>
-      <c r="O1" s="305" t="s">
+      <c r="P1" s="293" t="s">
         <v>604</v>
       </c>
-      <c r="P1" s="305" t="s">
+      <c r="Q1" s="248" t="s">
         <v>605</v>
       </c>
-      <c r="Q1" s="248" t="s">
+      <c r="R1" s="293" t="s">
         <v>606</v>
       </c>
-      <c r="R1" s="305" t="s">
+      <c r="S1" s="293" t="s">
         <v>607</v>
       </c>
-      <c r="S1" s="305" t="s">
+      <c r="T1" s="293" t="s">
         <v>608</v>
       </c>
-      <c r="T1" s="305" t="s">
+      <c r="U1" s="293" t="s">
         <v>609</v>
       </c>
-      <c r="U1" s="305" t="s">
+      <c r="V1" s="293" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="294"/>
+      <c r="B2" s="249" t="s">
         <v>610</v>
       </c>
-      <c r="V1" s="305" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="306"/>
-      <c r="B2" s="249" t="s">
+      <c r="C2" s="249" t="s">
         <v>611</v>
       </c>
-      <c r="C2" s="249" t="s">
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="249" t="s">
         <v>612</v>
       </c>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306"/>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306"/>
-      <c r="H2" s="249" t="s">
+      <c r="I2" s="294"/>
+      <c r="J2" s="249" t="s">
         <v>613</v>
       </c>
-      <c r="I2" s="306"/>
-      <c r="J2" s="249" t="s">
+      <c r="K2" s="249" t="s">
         <v>614</v>
       </c>
-      <c r="K2" s="249" t="s">
+      <c r="L2" s="249" t="s">
+        <v>611</v>
+      </c>
+      <c r="M2" s="294"/>
+      <c r="N2" s="294"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="294"/>
+      <c r="Q2" s="249" t="s">
         <v>615</v>
       </c>
-      <c r="L2" s="249" t="s">
-        <v>612</v>
-      </c>
-      <c r="M2" s="306"/>
-      <c r="N2" s="306"/>
-      <c r="O2" s="306"/>
-      <c r="P2" s="306"/>
-      <c r="Q2" s="249" t="s">
+      <c r="R2" s="294"/>
+      <c r="S2" s="294"/>
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.25">
+      <c r="A3" s="295" t="s">
         <v>616</v>
       </c>
-      <c r="R2" s="306"/>
-      <c r="S2" s="306"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-    </row>
-    <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="307" t="s">
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="296"/>
+      <c r="L3" s="296"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="295" t="s">
         <v>617</v>
       </c>
-      <c r="B3" s="308"/>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="308"/>
-      <c r="I3" s="308"/>
-      <c r="J3" s="308"/>
-      <c r="K3" s="308"/>
-      <c r="L3" s="308"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="307" t="s">
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="297"/>
+      <c r="U3" s="295" t="s">
         <v>618</v>
       </c>
-      <c r="O3" s="308"/>
-      <c r="P3" s="308"/>
-      <c r="Q3" s="308"/>
-      <c r="R3" s="308"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="307" t="s">
+      <c r="V3" s="297"/>
+    </row>
+    <row r="4" spans="1:22" ht="17.25">
+      <c r="A4" s="298"/>
+      <c r="B4" s="299"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="300"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="299"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="299"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="300"/>
+      <c r="U4" s="298" t="s">
         <v>619</v>
       </c>
-      <c r="V3" s="309"/>
-    </row>
-    <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="310"/>
-      <c r="B4" s="311"/>
-      <c r="C4" s="311"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="310"/>
-      <c r="O4" s="311"/>
-      <c r="P4" s="311"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="312"/>
-      <c r="U4" s="310" t="s">
-        <v>620</v>
-      </c>
-      <c r="V4" s="312"/>
+      <c r="V4" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
@@ -7850,9 +7367,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7869,7 +7383,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7905,37 +7419,37 @@
         <v>291</v>
       </c>
       <c r="E1" s="214" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F1" s="214" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G1" s="230" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1" s="214" t="s">
         <v>550</v>
       </c>
       <c r="I1" s="230" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J1" s="213" t="s">
         <v>292</v>
       </c>
       <c r="K1" s="213" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L1" s="213" t="s">
+        <v>554</v>
+      </c>
+      <c r="M1" s="232" t="s">
         <v>555</v>
       </c>
-      <c r="M1" s="232" t="s">
+      <c r="N1" s="232" t="s">
         <v>556</v>
       </c>
-      <c r="N1" s="232" t="s">
-        <v>557</v>
-      </c>
       <c r="O1" s="231" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27">
@@ -7946,13 +7460,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="166" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="81"/>
@@ -7960,25 +7474,25 @@
         <v>75</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J2" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K2" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K2" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L2" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M2" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N2" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N2" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O2" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="27">
@@ -7989,21 +7503,21 @@
         <v>2</v>
       </c>
       <c r="C3" s="162" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
       <c r="H3" s="76" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I3" s="76" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="162"/>
@@ -8011,13 +7525,13 @@
         <v>177</v>
       </c>
       <c r="M3" s="234" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N3" s="234" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O3" s="162" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="27">
@@ -8031,10 +7545,10 @@
         <v>437</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F4" s="80"/>
       <c r="G4" s="80"/>
@@ -8042,21 +7556,21 @@
         <v>75</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="167"/>
       <c r="L4" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M4" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N4" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N4" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O4" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="27.75" thickBot="1">
@@ -8070,10 +7584,10 @@
         <v>439</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
@@ -8081,21 +7595,21 @@
         <v>75</v>
       </c>
       <c r="I5" s="79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M5" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N5" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N5" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O5" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27">
@@ -8106,13 +7620,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="166" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -8120,25 +7634,25 @@
         <v>75</v>
       </c>
       <c r="I6" s="81" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J6" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K6" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K6" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L6" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M6" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N6" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N6" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O6" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="27">
@@ -8152,10 +7666,10 @@
         <v>70</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -8163,21 +7677,21 @@
         <v>75</v>
       </c>
       <c r="I7" s="80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="167"/>
       <c r="L7" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M7" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N7" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N7" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O7" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="27">
@@ -8191,10 +7705,10 @@
         <v>71</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F8" s="77"/>
       <c r="G8" s="77"/>
@@ -8202,21 +7716,21 @@
         <v>75</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="167"/>
       <c r="L8" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M8" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N8" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N8" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O8" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="27.75" thickBot="1">
@@ -8230,10 +7744,10 @@
         <v>72</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
@@ -8241,21 +7755,21 @@
         <v>75</v>
       </c>
       <c r="I9" s="79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M9" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N9" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N9" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O9" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27">
@@ -8266,13 +7780,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="166" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F10" s="81"/>
       <c r="G10" s="81"/>
@@ -8280,25 +7794,25 @@
         <v>75</v>
       </c>
       <c r="I10" s="81" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J10" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K10" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K10" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L10" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M10" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N10" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N10" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O10" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="27">
@@ -8309,13 +7823,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D11" s="80" t="s">
         <v>448</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
@@ -8323,21 +7837,21 @@
         <v>75</v>
       </c>
       <c r="I11" s="80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="167"/>
       <c r="L11" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M11" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N11" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N11" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O11" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="40.5">
@@ -8348,13 +7862,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D12" s="80" t="s">
         <v>449</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F12" s="80"/>
       <c r="G12" s="80"/>
@@ -8362,21 +7876,21 @@
         <v>75</v>
       </c>
       <c r="I12" s="80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="167"/>
       <c r="L12" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M12" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N12" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N12" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O12" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="27">
@@ -8387,13 +7901,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D13" s="80" t="s">
         <v>450</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
@@ -8401,21 +7915,21 @@
         <v>75</v>
       </c>
       <c r="I13" s="80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="167"/>
       <c r="L13" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M13" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N13" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N13" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O13" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="212" customFormat="1" ht="41.25" thickBot="1">
@@ -8432,7 +7946,7 @@
         <v>451</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
@@ -8440,21 +7954,21 @@
         <v>75</v>
       </c>
       <c r="I14" s="79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J14" s="168"/>
       <c r="K14" s="168"/>
       <c r="L14" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M14" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N14" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N14" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O14" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="27">
@@ -8465,13 +7979,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="166" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
@@ -8479,25 +7993,25 @@
         <v>75</v>
       </c>
       <c r="I15" s="81" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J15" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K15" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K15" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L15" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M15" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N15" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N15" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O15" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27">
@@ -8511,10 +8025,10 @@
         <v>288</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
@@ -8522,21 +8036,21 @@
         <v>75</v>
       </c>
       <c r="I16" s="80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="167"/>
       <c r="L16" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M16" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N16" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N16" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O16" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="27.75" thickBot="1">
@@ -8550,10 +8064,10 @@
         <v>289</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
@@ -8561,21 +8075,21 @@
         <v>75</v>
       </c>
       <c r="I17" s="79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="168"/>
       <c r="L17" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M17" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N17" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N17" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O17" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="208" customFormat="1" ht="27">
@@ -8589,40 +8103,40 @@
         <v>76</v>
       </c>
       <c r="D18" s="250" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E18" s="250" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F18" s="250" t="s">
+        <v>578</v>
+      </c>
+      <c r="G18" s="250" t="s">
         <v>579</v>
-      </c>
-      <c r="G18" s="250" t="s">
-        <v>580</v>
       </c>
       <c r="H18" s="250" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="250" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J18" s="204" t="s">
+        <v>567</v>
+      </c>
+      <c r="K18" s="204" t="s">
         <v>568</v>
       </c>
-      <c r="K18" s="204" t="s">
-        <v>569</v>
-      </c>
       <c r="L18" s="204" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M18" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N18" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N18" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O18" s="204" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="208" customFormat="1" ht="40.5">
@@ -8636,40 +8150,40 @@
         <v>33</v>
       </c>
       <c r="D19" s="251" t="s">
+        <v>587</v>
+      </c>
+      <c r="E19" s="252" t="s">
+        <v>658</v>
+      </c>
+      <c r="F19" s="252" t="s">
         <v>588</v>
       </c>
-      <c r="E19" s="252" t="s">
-        <v>659</v>
-      </c>
-      <c r="F19" s="252" t="s">
+      <c r="G19" s="252" t="s">
         <v>589</v>
-      </c>
-      <c r="G19" s="252" t="s">
-        <v>590</v>
       </c>
       <c r="H19" s="252" t="s">
         <v>75</v>
       </c>
       <c r="I19" s="251" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J19" s="205" t="s">
+        <v>620</v>
+      </c>
+      <c r="K19" s="205" t="s">
         <v>621</v>
       </c>
-      <c r="K19" s="205" t="s">
-        <v>622</v>
-      </c>
       <c r="L19" s="205" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M19" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N19" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N19" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O19" s="205" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="208" customFormat="1" ht="27">
@@ -8683,40 +8197,40 @@
         <v>294</v>
       </c>
       <c r="D20" s="251" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E20" s="251" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F20" s="251" t="s">
+        <v>622</v>
+      </c>
+      <c r="G20" s="251" t="s">
         <v>623</v>
-      </c>
-      <c r="G20" s="251" t="s">
-        <v>624</v>
       </c>
       <c r="H20" s="251" t="s">
         <v>75</v>
       </c>
       <c r="I20" s="251" t="s">
+        <v>624</v>
+      </c>
+      <c r="J20" s="205" t="s">
+        <v>620</v>
+      </c>
+      <c r="K20" s="205" t="s">
         <v>625</v>
       </c>
-      <c r="J20" s="205" t="s">
-        <v>621</v>
-      </c>
-      <c r="K20" s="205" t="s">
-        <v>626</v>
-      </c>
       <c r="L20" s="205" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M20" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N20" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N20" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O20" s="205" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="208" customFormat="1" ht="41.25" thickBot="1">
@@ -8730,40 +8244,40 @@
         <v>512</v>
       </c>
       <c r="D21" s="253" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E21" s="253" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F21" s="253" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G21" s="253" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H21" s="253" t="s">
         <v>75</v>
       </c>
       <c r="I21" s="253" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J21" s="207" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K21" s="207" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L21" s="207" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M21" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N21" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N21" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O21" s="207" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="27">
@@ -8777,10 +8291,10 @@
         <v>76</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
@@ -8788,25 +8302,25 @@
         <v>75</v>
       </c>
       <c r="I22" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J22" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K22" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K22" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L22" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M22" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N22" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N22" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O22" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="27">
@@ -8823,7 +8337,7 @@
         <v>445</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
@@ -8831,21 +8345,21 @@
         <v>75</v>
       </c>
       <c r="I23" s="80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="167"/>
       <c r="L23" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M23" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N23" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N23" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O23" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="27.75" thickBot="1">
@@ -8856,13 +8370,13 @@
         <v>25</v>
       </c>
       <c r="C24" s="168" t="s">
+        <v>714</v>
+      </c>
+      <c r="D24" s="79" t="s">
         <v>715</v>
       </c>
-      <c r="D24" s="79" t="s">
-        <v>716</v>
-      </c>
       <c r="E24" s="78" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
@@ -8870,21 +8384,21 @@
         <v>75</v>
       </c>
       <c r="I24" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="168"/>
       <c r="L24" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M24" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N24" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N24" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O24" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="27">
@@ -8898,10 +8412,10 @@
         <v>76</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F25" s="81"/>
       <c r="G25" s="81"/>
@@ -8909,25 +8423,25 @@
         <v>75</v>
       </c>
       <c r="I25" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J25" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K25" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K25" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L25" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M25" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N25" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N25" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O25" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="27">
@@ -8944,7 +8458,7 @@
         <v>452</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
@@ -8952,21 +8466,21 @@
         <v>75</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="167"/>
       <c r="L26" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M26" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N26" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N26" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O26" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="27.75" thickBot="1">
@@ -8981,7 +8495,7 @@
       </c>
       <c r="D27" s="79"/>
       <c r="E27" s="78" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
@@ -8989,21 +8503,21 @@
         <v>75</v>
       </c>
       <c r="I27" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J27" s="168"/>
       <c r="K27" s="168"/>
       <c r="L27" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M27" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N27" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N27" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O27" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="212" customFormat="1" ht="27.75" thickBot="1">
@@ -9014,39 +8528,39 @@
         <v>44</v>
       </c>
       <c r="C28" s="168" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D28" s="244" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E28" s="168" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F28" s="168"/>
       <c r="G28" s="168"/>
       <c r="H28" s="168" t="s">
+        <v>570</v>
+      </c>
+      <c r="I28" s="244" t="s">
+        <v>586</v>
+      </c>
+      <c r="J28" s="168" t="s">
         <v>571</v>
       </c>
-      <c r="I28" s="244" t="s">
-        <v>587</v>
-      </c>
-      <c r="J28" s="168" t="s">
+      <c r="K28" s="168" t="s">
         <v>572</v>
       </c>
-      <c r="K28" s="168" t="s">
-        <v>573</v>
-      </c>
       <c r="L28" s="164" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M28" s="236" t="s">
+        <v>562</v>
+      </c>
+      <c r="N28" s="236" t="s">
         <v>563</v>
       </c>
-      <c r="N28" s="236" t="s">
-        <v>564</v>
-      </c>
       <c r="O28" s="164" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="27">
@@ -9060,10 +8574,10 @@
         <v>76</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F29" s="81"/>
       <c r="G29" s="81"/>
@@ -9071,25 +8585,25 @@
         <v>75</v>
       </c>
       <c r="I29" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J29" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K29" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K29" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L29" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M29" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N29" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N29" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O29" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="27">
@@ -9106,7 +8620,7 @@
         <v>446</v>
       </c>
       <c r="E30" s="77" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
@@ -9114,21 +8628,21 @@
         <v>75</v>
       </c>
       <c r="I30" s="80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="167"/>
       <c r="L30" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M30" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N30" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N30" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O30" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="41.25" thickBot="1">
@@ -9139,13 +8653,13 @@
         <v>45</v>
       </c>
       <c r="C31" s="168" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D31" s="79" t="s">
         <v>453</v>
       </c>
       <c r="E31" s="79" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F31" s="79"/>
       <c r="G31" s="79"/>
@@ -9153,21 +8667,21 @@
         <v>75</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="168"/>
       <c r="L31" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M31" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N31" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N31" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O31" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="27">
@@ -9181,10 +8695,10 @@
         <v>76</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F32" s="81"/>
       <c r="G32" s="81"/>
@@ -9192,25 +8706,25 @@
         <v>75</v>
       </c>
       <c r="I32" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J32" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K32" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K32" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L32" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M32" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N32" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N32" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O32" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="67.5">
@@ -9227,7 +8741,7 @@
         <v>454</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F33" s="80"/>
       <c r="G33" s="80"/>
@@ -9235,21 +8749,21 @@
         <v>75</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="167"/>
       <c r="L33" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M33" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N33" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N33" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O33" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="27">
@@ -9266,7 +8780,7 @@
         <v>455</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
@@ -9274,21 +8788,21 @@
         <v>75</v>
       </c>
       <c r="I34" s="80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="167"/>
       <c r="L34" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M34" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N34" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N34" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O34" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="27.75" thickBot="1">
@@ -9305,7 +8819,7 @@
         <v>456</v>
       </c>
       <c r="E35" s="159" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F35" s="159"/>
       <c r="G35" s="159"/>
@@ -9313,21 +8827,21 @@
         <v>75</v>
       </c>
       <c r="I35" s="245" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="168"/>
       <c r="L35" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M35" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N35" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N35" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O35" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="27">
@@ -9341,10 +8855,10 @@
         <v>76</v>
       </c>
       <c r="D36" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F36" s="81"/>
       <c r="G36" s="81"/>
@@ -9352,25 +8866,25 @@
         <v>75</v>
       </c>
       <c r="I36" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J36" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K36" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K36" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L36" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M36" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N36" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N36" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O36" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="27">
@@ -9387,7 +8901,7 @@
         <v>447</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F37" s="77"/>
       <c r="G37" s="77"/>
@@ -9395,21 +8909,21 @@
         <v>75</v>
       </c>
       <c r="I37" s="80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="167"/>
       <c r="L37" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M37" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N37" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N37" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O37" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="40.5">
@@ -9426,7 +8940,7 @@
         <v>457</v>
       </c>
       <c r="E38" s="80" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F38" s="80"/>
       <c r="G38" s="80"/>
@@ -9434,21 +8948,21 @@
         <v>75</v>
       </c>
       <c r="I38" s="80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="167"/>
       <c r="L38" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M38" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N38" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N38" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O38" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="27.75" thickBot="1">
@@ -9459,13 +8973,13 @@
         <v>53</v>
       </c>
       <c r="C39" s="168" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D39" s="79" t="s">
         <v>458</v>
       </c>
       <c r="E39" s="78" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F39" s="78"/>
       <c r="G39" s="78"/>
@@ -9473,21 +8987,21 @@
         <v>75</v>
       </c>
       <c r="I39" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="168"/>
       <c r="L39" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M39" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N39" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N39" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O39" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="27">
@@ -9501,10 +9015,10 @@
         <v>76</v>
       </c>
       <c r="D40" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F40" s="81"/>
       <c r="G40" s="81"/>
@@ -9512,25 +9026,25 @@
         <v>75</v>
       </c>
       <c r="I40" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J40" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K40" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K40" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L40" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M40" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N40" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N40" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O40" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="212" customFormat="1" ht="27.75" thickBot="1">
@@ -9541,13 +9055,13 @@
         <v>57</v>
       </c>
       <c r="C41" s="168" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D41" s="270" t="s">
+        <v>706</v>
+      </c>
+      <c r="E41" s="78" t="s">
         <v>707</v>
-      </c>
-      <c r="E41" s="78" t="s">
-        <v>708</v>
       </c>
       <c r="F41" s="78"/>
       <c r="G41" s="78"/>
@@ -9555,21 +9069,21 @@
         <v>75</v>
       </c>
       <c r="I41" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J41" s="168"/>
       <c r="K41" s="168"/>
       <c r="L41" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M41" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N41" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N41" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O41" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="27">
@@ -9583,10 +9097,10 @@
         <v>76</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E42" s="81" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F42" s="81"/>
       <c r="G42" s="81"/>
@@ -9594,25 +9108,25 @@
         <v>75</v>
       </c>
       <c r="I42" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J42" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K42" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K42" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L42" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M42" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N42" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N42" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O42" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="67.5">
@@ -9623,13 +9137,13 @@
         <v>60</v>
       </c>
       <c r="C43" s="167" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D43" s="80" t="s">
         <v>459</v>
       </c>
       <c r="E43" s="80" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F43" s="80"/>
       <c r="G43" s="80"/>
@@ -9637,21 +9151,21 @@
         <v>75</v>
       </c>
       <c r="I43" s="80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="167"/>
       <c r="L43" s="167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M43" s="235" t="s">
+        <v>562</v>
+      </c>
+      <c r="N43" s="235" t="s">
         <v>563</v>
       </c>
-      <c r="N43" s="235" t="s">
-        <v>564</v>
-      </c>
       <c r="O43" s="167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="27.75" thickBot="1">
@@ -9662,13 +9176,13 @@
         <v>60</v>
       </c>
       <c r="C44" s="264" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D44" s="270" t="s">
+        <v>704</v>
+      </c>
+      <c r="E44" s="78" t="s">
         <v>705</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>706</v>
       </c>
       <c r="F44" s="78"/>
       <c r="G44" s="78"/>
@@ -9676,21 +9190,21 @@
         <v>75</v>
       </c>
       <c r="I44" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="168"/>
       <c r="L44" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M44" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N44" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N44" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O44" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="27">
@@ -9704,10 +9218,10 @@
         <v>76</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E45" s="81" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F45" s="81"/>
       <c r="G45" s="81"/>
@@ -9715,25 +9229,25 @@
         <v>75</v>
       </c>
       <c r="I45" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J45" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K45" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K45" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L45" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M45" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N45" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N45" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O45" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="41.25" thickBot="1">
@@ -9750,7 +9264,7 @@
         <v>460</v>
       </c>
       <c r="E46" s="79" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F46" s="79"/>
       <c r="G46" s="79"/>
@@ -9758,21 +9272,21 @@
         <v>75</v>
       </c>
       <c r="I46" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="168"/>
       <c r="L46" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M46" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N46" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N46" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O46" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="27">
@@ -9786,10 +9300,10 @@
         <v>76</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E47" s="81" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F47" s="81"/>
       <c r="G47" s="81"/>
@@ -9797,25 +9311,25 @@
         <v>75</v>
       </c>
       <c r="I47" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J47" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K47" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K47" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L47" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M47" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N47" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N47" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O47" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="40.5">
@@ -9832,7 +9346,7 @@
         <v>461</v>
       </c>
       <c r="E48" s="271" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F48" s="271"/>
       <c r="G48" s="271"/>
@@ -9840,21 +9354,21 @@
         <v>75</v>
       </c>
       <c r="I48" s="271" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M48" s="238" t="s">
+        <v>562</v>
+      </c>
+      <c r="N48" s="238" t="s">
         <v>563</v>
       </c>
-      <c r="N48" s="238" t="s">
-        <v>564</v>
-      </c>
       <c r="O48" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="160" customFormat="1" ht="27.75" thickBot="1">
@@ -9865,35 +9379,35 @@
         <v>65</v>
       </c>
       <c r="C49" s="168" t="s">
+        <v>701</v>
+      </c>
+      <c r="D49" s="79" t="s">
         <v>702</v>
       </c>
-      <c r="D49" s="79" t="s">
+      <c r="E49" s="79" t="s">
         <v>703</v>
-      </c>
-      <c r="E49" s="79" t="s">
-        <v>704</v>
       </c>
       <c r="F49" s="79"/>
       <c r="G49" s="79"/>
       <c r="H49" s="79" t="s">
+        <v>698</v>
+      </c>
+      <c r="I49" s="79" t="s">
         <v>699</v>
-      </c>
-      <c r="I49" s="79" t="s">
-        <v>700</v>
       </c>
       <c r="J49" s="168"/>
       <c r="K49" s="168"/>
       <c r="L49" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M49" s="238" t="s">
+        <v>562</v>
+      </c>
+      <c r="N49" s="238" t="s">
         <v>563</v>
       </c>
-      <c r="N49" s="238" t="s">
-        <v>564</v>
-      </c>
       <c r="O49" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="27">
@@ -9907,10 +9421,10 @@
         <v>76</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E50" s="81" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F50" s="81"/>
       <c r="G50" s="81"/>
@@ -9918,25 +9432,25 @@
         <v>75</v>
       </c>
       <c r="I50" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J50" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K50" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K50" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L50" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M50" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N50" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N50" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O50" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="160" customFormat="1" ht="27">
@@ -9953,7 +9467,7 @@
         <v>462</v>
       </c>
       <c r="E51" s="81" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F51" s="81"/>
       <c r="G51" s="81"/>
@@ -9961,21 +9475,21 @@
         <v>75</v>
       </c>
       <c r="I51" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J51" s="161"/>
       <c r="K51" s="166"/>
       <c r="L51" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M51" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N51" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N51" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O51" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="160" customFormat="1" ht="27">
@@ -9992,7 +9506,7 @@
         <v>463</v>
       </c>
       <c r="E52" s="81" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F52" s="81"/>
       <c r="G52" s="81"/>
@@ -10000,21 +9514,21 @@
         <v>75</v>
       </c>
       <c r="I52" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J52" s="161"/>
       <c r="K52" s="166"/>
       <c r="L52" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M52" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N52" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N52" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O52" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="27.75" thickBot="1">
@@ -10031,7 +9545,7 @@
         <v>464</v>
       </c>
       <c r="E53" s="78" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F53" s="78"/>
       <c r="G53" s="78"/>
@@ -10039,21 +9553,21 @@
         <v>75</v>
       </c>
       <c r="I53" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="168"/>
       <c r="L53" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M53" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N53" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N53" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O53" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="27">
@@ -10067,10 +9581,10 @@
         <v>76</v>
       </c>
       <c r="D54" s="81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E54" s="81" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F54" s="81"/>
       <c r="G54" s="81"/>
@@ -10078,25 +9592,25 @@
         <v>75</v>
       </c>
       <c r="I54" s="81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J54" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K54" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K54" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L54" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M54" s="233" t="s">
+        <v>562</v>
+      </c>
+      <c r="N54" s="233" t="s">
         <v>563</v>
       </c>
-      <c r="N54" s="233" t="s">
-        <v>564</v>
-      </c>
       <c r="O54" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="27">
@@ -10113,25 +9627,25 @@
         <v>465</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I55" s="246" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M55" s="238" t="s">
+        <v>562</v>
+      </c>
+      <c r="N55" s="238" t="s">
         <v>563</v>
       </c>
-      <c r="N55" s="238" t="s">
-        <v>564</v>
-      </c>
       <c r="O55" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="27">
@@ -10148,25 +9662,25 @@
         <v>466</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I56" s="246" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M56" s="238" t="s">
+        <v>562</v>
+      </c>
+      <c r="N56" s="238" t="s">
         <v>563</v>
       </c>
-      <c r="N56" s="238" t="s">
-        <v>564</v>
-      </c>
       <c r="O56" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="27.75" thickBot="1">
@@ -10183,7 +9697,7 @@
         <v>467</v>
       </c>
       <c r="E57" s="168" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F57" s="168"/>
       <c r="G57" s="168"/>
@@ -10191,21 +9705,21 @@
         <v>75</v>
       </c>
       <c r="I57" s="244" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J57" s="168"/>
       <c r="K57" s="168"/>
       <c r="L57" s="168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M57" s="237" t="s">
+        <v>562</v>
+      </c>
+      <c r="N57" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="N57" s="237" t="s">
-        <v>564</v>
-      </c>
       <c r="O57" s="168" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -10243,60 +9757,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="279" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="279"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="279"/>
+      <c r="N1" s="279"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="280" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="281" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="294"/>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="293" t="s">
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="281" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
-      <c r="M3" s="294"/>
-      <c r="N3" s="294"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
+      <c r="N3" s="282"/>
       <c r="O3" s="201" t="s">
         <v>536</v>
       </c>
@@ -11001,7 +10515,7 @@
         <v>215</v>
       </c>
       <c r="O20" s="268" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="56" customFormat="1" ht="17.25" thickBot="1">
@@ -11487,9 +11001,9 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11542,7 +11056,7 @@
         <v>77</v>
       </c>
       <c r="F2" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G2" s="255"/>
     </row>
@@ -11648,7 +11162,7 @@
         <v>77</v>
       </c>
       <c r="F8" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G8" s="255"/>
     </row>
@@ -11720,7 +11234,7 @@
         <v>77</v>
       </c>
       <c r="F12" s="226" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G12" s="256"/>
     </row>
@@ -11741,7 +11255,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G13" s="255"/>
     </row>
@@ -11813,7 +11327,7 @@
         <v>77</v>
       </c>
       <c r="F17" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G17" s="255"/>
     </row>
@@ -11915,7 +11429,7 @@
         <v>77</v>
       </c>
       <c r="F23" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G23" s="255"/>
     </row>
@@ -11985,7 +11499,7 @@
         <v>77</v>
       </c>
       <c r="F27" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G27" s="255"/>
     </row>
@@ -12055,7 +11569,7 @@
         <v>77</v>
       </c>
       <c r="F31" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G31" s="255"/>
     </row>
@@ -12138,7 +11652,7 @@
         <v>77</v>
       </c>
       <c r="F36" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G36" s="255"/>
     </row>
@@ -12199,7 +11713,7 @@
         <v>267</v>
       </c>
       <c r="C40" s="89" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>76</v>
@@ -12208,7 +11722,7 @@
         <v>77</v>
       </c>
       <c r="F40" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G40" s="255"/>
     </row>
@@ -12261,7 +11775,7 @@
         <v>77</v>
       </c>
       <c r="F43" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G43" s="255"/>
     </row>
@@ -12331,7 +11845,7 @@
         <v>77</v>
       </c>
       <c r="F47" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G47" s="255"/>
     </row>
@@ -12401,7 +11915,7 @@
         <v>77</v>
       </c>
       <c r="F51" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G51" s="255"/>
     </row>
@@ -12456,7 +11970,7 @@
         <v>77</v>
       </c>
       <c r="F54" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G54" s="255"/>
     </row>
@@ -12528,7 +12042,7 @@
         <v>77</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G58" s="255"/>
     </row>
@@ -12566,7 +12080,7 @@
         <v>77</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G60" s="255"/>
     </row>
@@ -12604,7 +12118,7 @@
         <v>77</v>
       </c>
       <c r="F62" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G62" s="255"/>
     </row>
@@ -12670,7 +12184,7 @@
         <v>77</v>
       </c>
       <c r="F66" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G66" s="255"/>
     </row>
@@ -12736,7 +12250,7 @@
         <v>77</v>
       </c>
       <c r="F70" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G70" s="255"/>
     </row>
@@ -12857,7 +12371,7 @@
         <v>77</v>
       </c>
       <c r="F77" s="166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G77" s="255"/>
     </row>
@@ -12966,13 +12480,13 @@
         <v>291</v>
       </c>
       <c r="E1" s="215" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F1" s="215" t="s">
+        <v>564</v>
+      </c>
+      <c r="G1" s="215" t="s">
         <v>565</v>
-      </c>
-      <c r="G1" s="215" t="s">
-        <v>566</v>
       </c>
       <c r="H1" s="215" t="s">
         <v>550</v>
@@ -12984,19 +12498,19 @@
         <v>292</v>
       </c>
       <c r="K1" s="84" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L1" s="84" t="s">
+        <v>554</v>
+      </c>
+      <c r="M1" s="216" t="s">
         <v>555</v>
       </c>
-      <c r="M1" s="216" t="s">
+      <c r="N1" s="216" t="s">
         <v>556</v>
       </c>
-      <c r="N1" s="216" t="s">
-        <v>557</v>
-      </c>
       <c r="O1" s="243" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="160" customFormat="1" ht="27.75" thickTop="1">
@@ -13019,25 +12533,25 @@
         <v>75</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J2" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K2" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K2" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L2" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M2" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N2" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N2" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O2" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -13057,16 +12571,16 @@
       <c r="H3" s="96"/>
       <c r="I3" s="96"/>
       <c r="J3" s="96" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K3" s="96"/>
       <c r="L3" s="96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M3" s="219"/>
       <c r="N3" s="219"/>
       <c r="O3" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -13086,16 +12600,16 @@
       <c r="H4" s="96"/>
       <c r="I4" s="96"/>
       <c r="J4" s="96" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K4" s="96"/>
       <c r="L4" s="96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M4" s="219"/>
       <c r="N4" s="219"/>
       <c r="O4" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -13115,16 +12629,16 @@
       <c r="H5" s="96"/>
       <c r="I5" s="96"/>
       <c r="J5" s="96" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K5" s="96"/>
       <c r="L5" s="96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M5" s="219"/>
       <c r="N5" s="219"/>
       <c r="O5" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -13144,16 +12658,16 @@
       <c r="H6" s="96"/>
       <c r="I6" s="96"/>
       <c r="J6" s="96" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K6" s="96"/>
       <c r="L6" s="96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M6" s="219"/>
       <c r="N6" s="219"/>
       <c r="O6" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1">
@@ -13173,16 +12687,16 @@
       <c r="H7" s="102"/>
       <c r="I7" s="102"/>
       <c r="J7" s="102" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K7" s="102"/>
       <c r="L7" s="102" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M7" s="220"/>
       <c r="N7" s="220"/>
       <c r="O7" s="102" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="160" customFormat="1" ht="27">
@@ -13205,25 +12719,25 @@
         <v>75</v>
       </c>
       <c r="I8" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J8" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K8" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K8" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L8" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M8" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N8" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N8" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O8" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -13243,16 +12757,16 @@
       <c r="H9" s="93"/>
       <c r="I9" s="93"/>
       <c r="J9" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K9" s="93"/>
       <c r="L9" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M9" s="217"/>
       <c r="N9" s="217"/>
       <c r="O9" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -13272,16 +12786,16 @@
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
       <c r="J10" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K10" s="93"/>
       <c r="L10" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M10" s="217"/>
       <c r="N10" s="217"/>
       <c r="O10" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickBot="1">
@@ -13301,16 +12815,16 @@
       <c r="H11" s="98"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K11" s="98"/>
       <c r="L11" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M11" s="218"/>
       <c r="N11" s="218"/>
       <c r="O11" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="27.75" thickBot="1">
@@ -13333,25 +12847,25 @@
         <v>75</v>
       </c>
       <c r="I12" s="227" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J12" s="226" t="s">
+        <v>567</v>
+      </c>
+      <c r="K12" s="226" t="s">
         <v>568</v>
       </c>
-      <c r="K12" s="226" t="s">
-        <v>569</v>
-      </c>
       <c r="L12" s="226" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M12" s="228" t="s">
+        <v>562</v>
+      </c>
+      <c r="N12" s="228" t="s">
         <v>563</v>
       </c>
-      <c r="N12" s="228" t="s">
-        <v>564</v>
-      </c>
       <c r="O12" s="226" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="160" customFormat="1" ht="27">
@@ -13374,25 +12888,25 @@
         <v>75</v>
       </c>
       <c r="I13" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J13" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K13" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K13" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L13" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M13" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N13" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N13" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O13" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -13412,16 +12926,16 @@
       <c r="H14" s="93"/>
       <c r="I14" s="93"/>
       <c r="J14" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K14" s="93"/>
       <c r="L14" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M14" s="217"/>
       <c r="N14" s="217"/>
       <c r="O14" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -13441,16 +12955,16 @@
       <c r="H15" s="93"/>
       <c r="I15" s="93"/>
       <c r="J15" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K15" s="93"/>
       <c r="L15" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M15" s="217"/>
       <c r="N15" s="217"/>
       <c r="O15" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" thickBot="1">
@@ -13470,16 +12984,16 @@
       <c r="H16" s="98"/>
       <c r="I16" s="98"/>
       <c r="J16" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K16" s="98"/>
       <c r="L16" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M16" s="218"/>
       <c r="N16" s="218"/>
       <c r="O16" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="160" customFormat="1" ht="27">
@@ -13502,25 +13016,25 @@
         <v>75</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J17" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K17" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K17" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L17" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M17" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N17" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N17" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O17" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -13538,16 +13052,16 @@
       <c r="H18" s="97"/>
       <c r="I18" s="97"/>
       <c r="J18" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K18" s="97"/>
       <c r="L18" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M18" s="221"/>
       <c r="N18" s="221"/>
       <c r="O18" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -13565,16 +13079,16 @@
       <c r="H19" s="97"/>
       <c r="I19" s="97"/>
       <c r="J19" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K19" s="97"/>
       <c r="L19" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M19" s="221"/>
       <c r="N19" s="221"/>
       <c r="O19" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -13592,16 +13106,16 @@
       <c r="H20" s="97"/>
       <c r="I20" s="97"/>
       <c r="J20" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K20" s="97"/>
       <c r="L20" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M20" s="221"/>
       <c r="N20" s="221"/>
       <c r="O20" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -13619,16 +13133,16 @@
       <c r="H21" s="97"/>
       <c r="I21" s="97"/>
       <c r="J21" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K21" s="97"/>
       <c r="L21" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M21" s="221"/>
       <c r="N21" s="221"/>
       <c r="O21" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -13646,16 +13160,16 @@
       <c r="H22" s="97"/>
       <c r="I22" s="97"/>
       <c r="J22" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K22" s="97"/>
       <c r="L22" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M22" s="221"/>
       <c r="N22" s="221"/>
       <c r="O22" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.25" thickBot="1">
@@ -13673,16 +13187,16 @@
       <c r="H23" s="103"/>
       <c r="I23" s="103"/>
       <c r="J23" s="103" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K23" s="103"/>
       <c r="L23" s="103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M23" s="222"/>
       <c r="N23" s="222"/>
       <c r="O23" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="160" customFormat="1" ht="27">
@@ -13705,25 +13219,25 @@
         <v>75</v>
       </c>
       <c r="I24" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J24" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K24" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K24" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L24" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M24" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N24" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N24" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O24" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -13741,16 +13255,16 @@
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="J25" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K25" s="97"/>
       <c r="L25" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M25" s="221"/>
       <c r="N25" s="221"/>
       <c r="O25" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -13768,16 +13282,16 @@
       <c r="H26" s="97"/>
       <c r="I26" s="97"/>
       <c r="J26" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K26" s="97"/>
       <c r="L26" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M26" s="221"/>
       <c r="N26" s="221"/>
       <c r="O26" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1">
@@ -13795,16 +13309,16 @@
       <c r="H27" s="103"/>
       <c r="I27" s="103"/>
       <c r="J27" s="103" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M27" s="222"/>
       <c r="N27" s="222"/>
       <c r="O27" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="160" customFormat="1" ht="27">
@@ -13827,25 +13341,25 @@
         <v>75</v>
       </c>
       <c r="I28" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J28" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K28" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K28" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L28" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M28" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N28" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N28" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O28" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -13865,16 +13379,16 @@
       <c r="H29" s="93"/>
       <c r="I29" s="93"/>
       <c r="J29" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K29" s="93"/>
       <c r="L29" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M29" s="217"/>
       <c r="N29" s="217"/>
       <c r="O29" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -13892,16 +13406,16 @@
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
       <c r="J30" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K30" s="93"/>
       <c r="L30" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M30" s="217"/>
       <c r="N30" s="217"/>
       <c r="O30" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -13921,16 +13435,16 @@
       <c r="H31" s="93"/>
       <c r="I31" s="93"/>
       <c r="J31" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K31" s="93"/>
       <c r="L31" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M31" s="217"/>
       <c r="N31" s="217"/>
       <c r="O31" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -13950,16 +13464,16 @@
       <c r="H32" s="93"/>
       <c r="I32" s="93"/>
       <c r="J32" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K32" s="93"/>
       <c r="L32" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M32" s="217"/>
       <c r="N32" s="217"/>
       <c r="O32" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="17.25" thickBot="1">
@@ -13977,16 +13491,16 @@
       <c r="H33" s="98"/>
       <c r="I33" s="98"/>
       <c r="J33" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K33" s="98"/>
       <c r="L33" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M33" s="218"/>
       <c r="N33" s="218"/>
       <c r="O33" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14009,25 +13523,25 @@
         <v>75</v>
       </c>
       <c r="I34" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J34" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K34" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K34" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L34" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M34" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N34" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N34" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O34" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -14047,16 +13561,16 @@
       <c r="H35" s="93"/>
       <c r="I35" s="93"/>
       <c r="J35" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K35" s="93"/>
       <c r="L35" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M35" s="217"/>
       <c r="N35" s="217"/>
       <c r="O35" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -14076,16 +13590,16 @@
       <c r="H36" s="93"/>
       <c r="I36" s="93"/>
       <c r="J36" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K36" s="93"/>
       <c r="L36" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M36" s="217"/>
       <c r="N36" s="217"/>
       <c r="O36" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="17.25" thickBot="1">
@@ -14103,16 +13617,16 @@
       <c r="H37" s="103"/>
       <c r="I37" s="103"/>
       <c r="J37" s="103" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K37" s="103"/>
       <c r="L37" s="103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M37" s="222"/>
       <c r="N37" s="222"/>
       <c r="O37" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14135,25 +13649,25 @@
         <v>75</v>
       </c>
       <c r="I38" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J38" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K38" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K38" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L38" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M38" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N38" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N38" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O38" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -14173,16 +13687,16 @@
       <c r="H39" s="93"/>
       <c r="I39" s="93"/>
       <c r="J39" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K39" s="93"/>
       <c r="L39" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M39" s="217"/>
       <c r="N39" s="217"/>
       <c r="O39" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -14202,16 +13716,16 @@
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
       <c r="J40" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K40" s="93"/>
       <c r="L40" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M40" s="217"/>
       <c r="N40" s="217"/>
       <c r="O40" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="17.25" thickBot="1">
@@ -14229,16 +13743,16 @@
       <c r="H41" s="98"/>
       <c r="I41" s="98"/>
       <c r="J41" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K41" s="98"/>
       <c r="L41" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M41" s="218"/>
       <c r="N41" s="218"/>
       <c r="O41" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14261,25 +13775,25 @@
         <v>75</v>
       </c>
       <c r="I42" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J42" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K42" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K42" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L42" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M42" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N42" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N42" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O42" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -14299,16 +13813,16 @@
       <c r="H43" s="93"/>
       <c r="I43" s="93"/>
       <c r="J43" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K43" s="93"/>
       <c r="L43" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M43" s="217"/>
       <c r="N43" s="217"/>
       <c r="O43" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -14326,16 +13840,16 @@
       <c r="H44" s="93"/>
       <c r="I44" s="93"/>
       <c r="J44" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K44" s="93"/>
       <c r="L44" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M44" s="217"/>
       <c r="N44" s="217"/>
       <c r="O44" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -14353,16 +13867,16 @@
       <c r="H45" s="93"/>
       <c r="I45" s="93"/>
       <c r="J45" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K45" s="93"/>
       <c r="L45" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M45" s="217"/>
       <c r="N45" s="217"/>
       <c r="O45" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="17.25" thickBot="1">
@@ -14380,16 +13894,16 @@
       <c r="H46" s="98"/>
       <c r="I46" s="98"/>
       <c r="J46" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K46" s="98"/>
       <c r="L46" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M46" s="218"/>
       <c r="N46" s="218"/>
       <c r="O46" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14412,25 +13926,25 @@
         <v>75</v>
       </c>
       <c r="I47" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J47" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K47" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K47" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L47" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M47" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N47" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N47" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O47" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -14450,16 +13964,16 @@
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
       <c r="J48" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K48" s="93"/>
       <c r="L48" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M48" s="217"/>
       <c r="N48" s="217"/>
       <c r="O48" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -14479,16 +13993,16 @@
       <c r="H49" s="93"/>
       <c r="I49" s="93"/>
       <c r="J49" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K49" s="93"/>
       <c r="L49" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M49" s="217"/>
       <c r="N49" s="217"/>
       <c r="O49" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="17.25" thickBot="1">
@@ -14506,16 +14020,16 @@
       <c r="H50" s="98"/>
       <c r="I50" s="98"/>
       <c r="J50" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K50" s="98"/>
       <c r="L50" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M50" s="218"/>
       <c r="N50" s="218"/>
       <c r="O50" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14523,7 +14037,7 @@
         <v>267</v>
       </c>
       <c r="B51" s="89" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C51" s="166" t="s">
         <v>76</v>
@@ -14538,25 +14052,25 @@
         <v>75</v>
       </c>
       <c r="I51" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J51" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K51" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K51" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L51" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M51" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N51" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N51" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O51" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -14576,16 +14090,16 @@
       <c r="H52" s="93"/>
       <c r="I52" s="93"/>
       <c r="J52" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K52" s="93"/>
       <c r="L52" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M52" s="217"/>
       <c r="N52" s="217"/>
       <c r="O52" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="17.25" thickBot="1">
@@ -14603,16 +14117,16 @@
       <c r="H53" s="98"/>
       <c r="I53" s="98"/>
       <c r="J53" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K53" s="98"/>
       <c r="L53" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M53" s="218"/>
       <c r="N53" s="218"/>
       <c r="O53" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14635,25 +14149,25 @@
         <v>75</v>
       </c>
       <c r="I54" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J54" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K54" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K54" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L54" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M54" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N54" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N54" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O54" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -14673,16 +14187,16 @@
       <c r="H55" s="93"/>
       <c r="I55" s="93"/>
       <c r="J55" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K55" s="93"/>
       <c r="L55" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M55" s="217"/>
       <c r="N55" s="217"/>
       <c r="O55" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -14702,16 +14216,16 @@
       <c r="H56" s="93"/>
       <c r="I56" s="93"/>
       <c r="J56" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K56" s="93"/>
       <c r="L56" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M56" s="217"/>
       <c r="N56" s="217"/>
       <c r="O56" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="17.25" thickBot="1">
@@ -14729,16 +14243,16 @@
       <c r="H57" s="98"/>
       <c r="I57" s="98"/>
       <c r="J57" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K57" s="98"/>
       <c r="L57" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M57" s="218"/>
       <c r="N57" s="218"/>
       <c r="O57" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14761,25 +14275,25 @@
         <v>75</v>
       </c>
       <c r="I58" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J58" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K58" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K58" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L58" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M58" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N58" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N58" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O58" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -14799,16 +14313,16 @@
       <c r="H59" s="93"/>
       <c r="I59" s="93"/>
       <c r="J59" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K59" s="93"/>
       <c r="L59" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M59" s="217"/>
       <c r="N59" s="217"/>
       <c r="O59" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -14826,16 +14340,16 @@
       <c r="H60" s="93"/>
       <c r="I60" s="93"/>
       <c r="J60" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K60" s="93"/>
       <c r="L60" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M60" s="217"/>
       <c r="N60" s="217"/>
       <c r="O60" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="17.25" thickBot="1">
@@ -14855,16 +14369,16 @@
       <c r="H61" s="98"/>
       <c r="I61" s="98"/>
       <c r="J61" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K61" s="98"/>
       <c r="L61" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M61" s="218"/>
       <c r="N61" s="218"/>
       <c r="O61" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14887,25 +14401,25 @@
         <v>75</v>
       </c>
       <c r="I62" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J62" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K62" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K62" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L62" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M62" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N62" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N62" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O62" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -14925,16 +14439,16 @@
       <c r="H63" s="93"/>
       <c r="I63" s="93"/>
       <c r="J63" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K63" s="93"/>
       <c r="L63" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M63" s="217"/>
       <c r="N63" s="217"/>
       <c r="O63" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="17.25" thickBot="1">
@@ -14954,16 +14468,16 @@
       <c r="H64" s="98"/>
       <c r="I64" s="98"/>
       <c r="J64" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K64" s="98"/>
       <c r="L64" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M64" s="218"/>
       <c r="N64" s="218"/>
       <c r="O64" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="160" customFormat="1" ht="27">
@@ -14986,25 +14500,25 @@
         <v>75</v>
       </c>
       <c r="I65" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J65" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K65" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K65" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L65" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M65" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N65" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N65" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O65" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -15024,16 +14538,16 @@
       <c r="H66" s="93"/>
       <c r="I66" s="93"/>
       <c r="J66" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K66" s="93"/>
       <c r="L66" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M66" s="217"/>
       <c r="N66" s="217"/>
       <c r="O66" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -15053,16 +14567,16 @@
       <c r="H67" s="93"/>
       <c r="I67" s="93"/>
       <c r="J67" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K67" s="93"/>
       <c r="L67" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M67" s="217"/>
       <c r="N67" s="217"/>
       <c r="O67" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="17.25" thickBot="1">
@@ -15082,16 +14596,16 @@
       <c r="H68" s="98"/>
       <c r="I68" s="98"/>
       <c r="J68" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K68" s="98"/>
       <c r="L68" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M68" s="218"/>
       <c r="N68" s="218"/>
       <c r="O68" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15114,25 +14628,25 @@
         <v>75</v>
       </c>
       <c r="I69" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J69" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K69" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K69" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L69" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M69" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N69" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N69" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O69" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="17.25" thickBot="1">
@@ -15152,21 +14666,21 @@
       <c r="H70" s="106"/>
       <c r="I70" s="106"/>
       <c r="J70" s="106" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K70" s="106"/>
       <c r="L70" s="106" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M70" s="223"/>
       <c r="N70" s="223"/>
       <c r="O70" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="71" spans="1:15" s="160" customFormat="1" ht="27">
       <c r="A71" s="229" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B71" s="166" t="s">
         <v>352</v>
@@ -15184,30 +14698,30 @@
         <v>75</v>
       </c>
       <c r="I71" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J71" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K71" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K71" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L71" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M71" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N71" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N71" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O71" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="17.25" thickBot="1">
       <c r="A72" s="91" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B72" s="106" t="s">
         <v>352</v>
@@ -15222,16 +14736,16 @@
       <c r="H72" s="106"/>
       <c r="I72" s="106"/>
       <c r="J72" s="106" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K72" s="106"/>
       <c r="L72" s="106" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M72" s="223"/>
       <c r="N72" s="223"/>
       <c r="O72" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15254,25 +14768,25 @@
         <v>75</v>
       </c>
       <c r="I73" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J73" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K73" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K73" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L73" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M73" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N73" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N73" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O73" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -15290,16 +14804,16 @@
       <c r="H74" s="97"/>
       <c r="I74" s="97"/>
       <c r="J74" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K74" s="97"/>
       <c r="L74" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M74" s="221"/>
       <c r="N74" s="221"/>
       <c r="O74" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -15317,16 +14831,16 @@
       <c r="H75" s="97"/>
       <c r="I75" s="97"/>
       <c r="J75" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K75" s="97"/>
       <c r="L75" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M75" s="221"/>
       <c r="N75" s="221"/>
       <c r="O75" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -15344,16 +14858,16 @@
       <c r="H76" s="97"/>
       <c r="I76" s="97"/>
       <c r="J76" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K76" s="97"/>
       <c r="L76" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M76" s="221"/>
       <c r="N76" s="221"/>
       <c r="O76" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -15371,16 +14885,16 @@
       <c r="H77" s="97"/>
       <c r="I77" s="97"/>
       <c r="J77" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K77" s="97"/>
       <c r="L77" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M77" s="221"/>
       <c r="N77" s="221"/>
       <c r="O77" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="17.25" thickBot="1">
@@ -15398,16 +14912,16 @@
       <c r="H78" s="103"/>
       <c r="I78" s="103"/>
       <c r="J78" s="103" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K78" s="103"/>
       <c r="L78" s="103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M78" s="222"/>
       <c r="N78" s="222"/>
       <c r="O78" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15430,25 +14944,25 @@
         <v>75</v>
       </c>
       <c r="I79" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J79" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K79" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K79" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L79" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M79" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N79" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N79" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O79" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -15466,16 +14980,16 @@
       <c r="H80" s="97"/>
       <c r="I80" s="97"/>
       <c r="J80" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K80" s="97"/>
       <c r="L80" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M80" s="221"/>
       <c r="N80" s="221"/>
       <c r="O80" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -15493,16 +15007,16 @@
       <c r="H81" s="97"/>
       <c r="I81" s="97"/>
       <c r="J81" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K81" s="97"/>
       <c r="L81" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M81" s="221"/>
       <c r="N81" s="221"/>
       <c r="O81" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="17.25" thickBot="1">
@@ -15520,16 +15034,16 @@
       <c r="H82" s="103"/>
       <c r="I82" s="103"/>
       <c r="J82" s="103" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K82" s="103"/>
       <c r="L82" s="103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M82" s="222"/>
       <c r="N82" s="222"/>
       <c r="O82" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15552,25 +15066,25 @@
         <v>75</v>
       </c>
       <c r="I83" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J83" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K83" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K83" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L83" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M83" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N83" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N83" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O83" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -15590,16 +15104,16 @@
       <c r="H84" s="93"/>
       <c r="I84" s="93"/>
       <c r="J84" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K84" s="93"/>
       <c r="L84" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M84" s="217"/>
       <c r="N84" s="217"/>
       <c r="O84" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -15619,16 +15133,16 @@
       <c r="H85" s="93"/>
       <c r="I85" s="93"/>
       <c r="J85" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K85" s="93"/>
       <c r="L85" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M85" s="217"/>
       <c r="N85" s="217"/>
       <c r="O85" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -15648,16 +15162,16 @@
       <c r="H86" s="93"/>
       <c r="I86" s="93"/>
       <c r="J86" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K86" s="93"/>
       <c r="L86" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M86" s="217"/>
       <c r="N86" s="217"/>
       <c r="O86" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -15675,16 +15189,16 @@
       <c r="H87" s="93"/>
       <c r="I87" s="93"/>
       <c r="J87" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K87" s="93"/>
       <c r="L87" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M87" s="217"/>
       <c r="N87" s="217"/>
       <c r="O87" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -15704,16 +15218,16 @@
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
       <c r="J88" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K88" s="93"/>
       <c r="L88" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M88" s="217"/>
       <c r="N88" s="217"/>
       <c r="O88" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="17.25" thickBot="1">
@@ -15733,16 +15247,16 @@
       <c r="H89" s="98"/>
       <c r="I89" s="98"/>
       <c r="J89" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K89" s="98"/>
       <c r="L89" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M89" s="218"/>
       <c r="N89" s="218"/>
       <c r="O89" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15765,25 +15279,25 @@
         <v>75</v>
       </c>
       <c r="I90" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J90" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K90" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K90" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L90" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M90" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N90" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N90" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O90" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -15803,16 +15317,16 @@
       <c r="H91" s="93"/>
       <c r="I91" s="93"/>
       <c r="J91" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K91" s="93"/>
       <c r="L91" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M91" s="217"/>
       <c r="N91" s="217"/>
       <c r="O91" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -15832,16 +15346,16 @@
       <c r="H92" s="93"/>
       <c r="I92" s="93"/>
       <c r="J92" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K92" s="93"/>
       <c r="L92" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M92" s="217"/>
       <c r="N92" s="217"/>
       <c r="O92" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -15859,16 +15373,16 @@
       <c r="H93" s="93"/>
       <c r="I93" s="93"/>
       <c r="J93" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K93" s="93"/>
       <c r="L93" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M93" s="217"/>
       <c r="N93" s="217"/>
       <c r="O93" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="17.25" thickBot="1">
@@ -15886,16 +15400,16 @@
       <c r="H94" s="98"/>
       <c r="I94" s="98"/>
       <c r="J94" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K94" s="98"/>
       <c r="L94" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M94" s="218"/>
       <c r="N94" s="218"/>
       <c r="O94" s="98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="160" customFormat="1" ht="27">
@@ -15918,25 +15432,25 @@
         <v>75</v>
       </c>
       <c r="I95" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J95" s="166" t="s">
+        <v>567</v>
+      </c>
+      <c r="K95" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="K95" s="166" t="s">
-        <v>569</v>
-      </c>
       <c r="L95" s="166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M95" s="209" t="s">
+        <v>562</v>
+      </c>
+      <c r="N95" s="209" t="s">
         <v>563</v>
       </c>
-      <c r="N95" s="209" t="s">
-        <v>564</v>
-      </c>
       <c r="O95" s="166" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -15954,16 +15468,16 @@
       <c r="H96" s="97"/>
       <c r="I96" s="97"/>
       <c r="J96" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K96" s="97"/>
       <c r="L96" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M96" s="221"/>
       <c r="N96" s="221"/>
       <c r="O96" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -15981,16 +15495,16 @@
       <c r="H97" s="97"/>
       <c r="I97" s="97"/>
       <c r="J97" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K97" s="97"/>
       <c r="L97" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M97" s="221"/>
       <c r="N97" s="221"/>
       <c r="O97" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -16008,16 +15522,16 @@
       <c r="H98" s="97"/>
       <c r="I98" s="97"/>
       <c r="J98" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K98" s="97"/>
       <c r="L98" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M98" s="221"/>
       <c r="N98" s="221"/>
       <c r="O98" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -16035,16 +15549,16 @@
       <c r="H99" s="97"/>
       <c r="I99" s="97"/>
       <c r="J99" s="97" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K99" s="97"/>
       <c r="L99" s="97" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M99" s="221"/>
       <c r="N99" s="221"/>
       <c r="O99" s="97" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="17.25" thickBot="1">
@@ -16062,16 +15576,16 @@
       <c r="H100" s="103"/>
       <c r="I100" s="103"/>
       <c r="J100" s="103" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K100" s="103"/>
       <c r="L100" s="103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M100" s="222"/>
       <c r="N100" s="222"/>
       <c r="O100" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -16088,7 +15602,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16111,60 +15625,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="279"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="279"/>
+      <c r="N1" s="279"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="280" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="281" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="294"/>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="293" t="s">
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="281" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
-      <c r="M3" s="294"/>
-      <c r="N3" s="294"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
+      <c r="N3" s="282"/>
       <c r="O3" s="201" t="s">
         <v>536</v>
       </c>
@@ -17412,7 +16926,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="40" t="s">
-        <v>176</v>
+        <v>738</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>177</v>
@@ -17868,34 +17382,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="284" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="296" t="s">
+      <c r="B1" s="284" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="296" t="s">
+      <c r="C1" s="284" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="298" t="s">
+      <c r="D1" s="286" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="298"/>
-      <c r="F1" s="296" t="s">
+      <c r="E1" s="286"/>
+      <c r="F1" s="284" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="297"/>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
+      <c r="A2" s="285"/>
+      <c r="B2" s="285"/>
+      <c r="C2" s="285"/>
       <c r="D2" s="125" t="s">
         <v>228</v>
       </c>
       <c r="E2" s="125" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="297"/>
+      <c r="F2" s="285"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="126" t="s">
@@ -18138,7 +17652,7 @@
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18156,10 +17670,10 @@
       <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="300" t="s">
+      <c r="B3" s="288" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="300"/>
+      <c r="C3" s="288"/>
       <c r="D3" s="120" t="s">
         <v>404</v>
       </c>
@@ -18177,10 +17691,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="301" t="s">
+      <c r="B4" s="289" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="302"/>
+      <c r="C4" s="290"/>
       <c r="D4" s="123" t="s">
         <v>403</v>
       </c>
@@ -18198,7 +17712,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="291" t="s">
         <v>400</v>
       </c>
       <c r="C5" s="140" t="s">
@@ -18219,7 +17733,7 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="304"/>
+      <c r="B6" s="292"/>
       <c r="C6" s="140" t="s">
         <v>407</v>
       </c>
@@ -18258,10 +17772,10 @@
       <c r="H8" s="149"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="300" t="s">
+      <c r="B10" s="288" t="s">
         <v>393</v>
       </c>
-      <c r="C10" s="300"/>
+      <c r="C10" s="288"/>
       <c r="D10" s="120" t="s">
         <v>392</v>
       </c>
@@ -18279,10 +17793,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="299" t="s">
+      <c r="B11" s="287" t="s">
         <v>387</v>
       </c>
-      <c r="C11" s="299"/>
+      <c r="C11" s="287"/>
       <c r="D11" s="109" t="s">
         <v>386</v>
       </c>
@@ -18300,10 +17814,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="299" t="s">
+      <c r="B12" s="287" t="s">
         <v>385</v>
       </c>
-      <c r="C12" s="299"/>
+      <c r="C12" s="287"/>
       <c r="D12" s="109" t="s">
         <v>384</v>
       </c>
@@ -18321,10 +17835,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="299" t="s">
+      <c r="B13" s="287" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="299"/>
+      <c r="C13" s="287"/>
       <c r="D13" s="109" t="s">
         <v>380</v>
       </c>
@@ -18340,10 +17854,10 @@
       <c r="H13" s="143"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="299" t="s">
+      <c r="B14" s="287" t="s">
         <v>379</v>
       </c>
-      <c r="C14" s="299"/>
+      <c r="C14" s="287"/>
       <c r="D14" s="109" t="s">
         <v>378</v>
       </c>
@@ -18361,10 +17875,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="299" t="s">
+      <c r="B15" s="287" t="s">
         <v>376</v>
       </c>
-      <c r="C15" s="299"/>
+      <c r="C15" s="287"/>
       <c r="D15" s="119"/>
       <c r="E15" s="118" t="s">
         <v>375</v>
@@ -18378,10 +17892,10 @@
       <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="299" t="s">
+      <c r="B16" s="287" t="s">
         <v>373</v>
       </c>
-      <c r="C16" s="299"/>
+      <c r="C16" s="287"/>
       <c r="D16" s="109" t="s">
         <v>408</v>
       </c>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="3"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="808">
   <si>
     <t>아카이빙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2873,80 +2873,16 @@
     <t>재단규칙(단위업무 기준)</t>
   </si>
   <si>
-    <t>계획</t>
-  </si>
-  <si>
-    <t>현재</t>
-  </si>
-  <si>
-    <t>정책분야</t>
-  </si>
-  <si>
     <t>정책영역</t>
   </si>
   <si>
-    <t>대</t>
-  </si>
-  <si>
     <t>비전</t>
   </si>
   <si>
-    <t>경기문화재단</t>
-  </si>
-  <si>
-    <t>문화플랫폼구현</t>
-  </si>
-  <si>
-    <t>(경기문화재단단위)</t>
-  </si>
-  <si>
-    <t>중</t>
-  </si>
-  <si>
     <t>정책목표</t>
   </si>
   <si>
-    <t>문화예술본부</t>
-  </si>
-  <si>
-    <t>문화사업</t>
-  </si>
-  <si>
-    <t>(문화예술본부단위)</t>
-  </si>
-  <si>
-    <t>소</t>
-  </si>
-  <si>
     <t>이행과제</t>
-  </si>
-  <si>
-    <t>브랜딩 / 아카이빙 / 도민참여</t>
-  </si>
-  <si>
-    <t>기획사업(문화사업팀단위/경기천년사업)</t>
-  </si>
-  <si>
-    <t>단위업무</t>
-  </si>
-  <si>
-    <t>사업(사업계획)</t>
-  </si>
-  <si>
-    <t>개별사업명</t>
-  </si>
-  <si>
-    <t>기록물철</t>
-  </si>
-  <si>
-    <t>단기사업계획/중장기사업계획</t>
-  </si>
-  <si>
-    <t>개별사업</t>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3117,47 +3053,319 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>기록관리기준표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화자원발굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제 세부(최종)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍2회기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회홍보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회공중촬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천개의경기운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록물철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화역량강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답사단기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답사운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제프로그램운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅포럼연계홍보부스운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅포럼연계홍보부스기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기자단기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기자단모집및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보전기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년홍보기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년상상 콘텐츠 공모전 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년콘텐츠공모전운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로건엠블럼개발기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로건공모전운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보영상제작기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다큐영상제작기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대효과연구기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대효과연구보고서발간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임캡슐연구기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임캡슐원고집필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임캡슐보고서발간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년DMZ답사단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로건엠블럼도민설명회운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도민의견숙의운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상설치및상영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠전시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보전운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다큐영상송출및보도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅포럼2017연계경기천년플랫폼홍보부스운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅포럼2017연계경기천년플랫폼홍보부스운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천천경기천년기자단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍제1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제(사업명 띄어쓰기 및 기호 없이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍제2회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년플랫폼구축운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년홍보전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G미디어파사드페스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년기획홍보온오프라인및SNS운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년슬로건엠블럼개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년CF형홍보영상제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년기념내가사랑하는경기영상제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년기념사업기대효과연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년타임캡슐추진방향연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업과정아카이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년기록아카이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획사업(경기천년사업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과정아카이브기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아카이브연구및자문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록관리교육지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업과정기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록아카이브기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31개시군촬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기새천년맞이사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제 세부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활문화콜로키움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년대축제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년장인발굴달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려인예술단초청공연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>관리과제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단위과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록관리기준표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화자원발굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제 세부(최종)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍2회기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍1회기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍1회운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍1회홍보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍1회공중촬영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천개의경기운영</t>
+    <t>단위사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3165,267 +3373,1224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>정책분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기록물철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화역량강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랫폼기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답사단기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답사운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제프로그램운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅포럼연계홍보부스운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅포럼연계홍보부스기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기자단기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기자단모집및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍보전기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전시기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년홍보기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년상상 콘텐츠 공모전 운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년콘텐츠공모전운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로건엠블럼개발기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로건공모전운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍보영상제작기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다큐영상제작기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대효과연구기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대효과연구보고서발간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임캡슐연구기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임캡슐원고집필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임캡슐보고서발간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청년DMZ답사단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로건엠블럼도민설명회운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도민의견숙의운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상설치및상영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘텐츠전시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍보전운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다큐영상송출및보도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅포럼2017연계경기천년플랫폼홍보부스운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅포럼2017연계경기천년플랫폼홍보부스운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천천천경기천년기자단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년소풍제1회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제(사업명 띄어쓰기 및 기호 없이)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년소풍제2회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년플랫폼구축운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년홍보전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G미디어파사드페스타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년기획홍보온오프라인및SNS운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년슬로건엠블럼개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년CF형홍보영상제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년기념내가사랑하는경기영상제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년기념사업기대효과연구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년타임캡슐추진방향연구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년사업과정아카이브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년기록아카이브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획사업(경기천년사업)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과정아카이브기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아카이브연구및자문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록관리교육지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년사업과정기록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록아카이브기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31개시군촬영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기새천년맞이사업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제 세부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활문화콜로키움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년대축제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년장인발굴달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고려인예술단초청공연</t>
+    <t>단위업무(사업계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중장기 / 단기 사업 관련철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G20(예산서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위사업(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단위업무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화예술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록관리기준(목적별)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위업무를 수행하기 위해 업무담당자별로 수행하는 기능
+- 단위사업의 규모나 예산에 따라 업무담당자가 복수로 지정될 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산하</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재단별로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연계될</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분야</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기능을 담당하는 조직 내부의 최상위 업무 영역
+- 문화예술; 경영
+- 경기문화재단은 업무 영역별로 문화예술본부와 경영본부를 두고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소기능의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업무분야를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유형별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영역별로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세분화한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">단위업무
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문화사업팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브랜딩사업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아카이빙사업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">도민참여사업
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단위사업간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유사성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>독자성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고려하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중기능의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영역을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세분화한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분야
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문화예술본부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문예진흥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문화사업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지역문화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생활문화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">문화정책
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문화예술본부는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분야의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업무를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문예진흥팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문화사업팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지역문화팀을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분야의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단위업무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성격에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3433,7 +4598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="65">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3906,26 +5071,48 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="함초롬바탕"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="함초롬바탕"/>
-      <family val="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFA5A5A5"/>
-      <name val="함초롬바탕"/>
-      <family val="1"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4168,6 +5355,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4856,7 +6055,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5565,13 +6764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5596,69 +6788,54 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5725,50 +6902,62 @@
     <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="66" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -6148,8 +7337,8 @@
     <col min="3" max="3" width="26.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="40.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.5" style="274" customWidth="1"/>
-    <col min="7" max="7" width="27" style="324" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="271" customWidth="1"/>
+    <col min="7" max="7" width="27" style="279" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" style="2"/>
@@ -6158,24 +7347,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="164" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="328" t="s">
-        <v>739</v>
-      </c>
-      <c r="B1" s="328" t="s">
-        <v>738</v>
-      </c>
-      <c r="C1" s="328" t="s">
-        <v>737</v>
-      </c>
-      <c r="D1" s="328" t="s">
-        <v>735</v>
-      </c>
-      <c r="E1" s="328" t="s">
-        <v>736</v>
-      </c>
-      <c r="F1" s="328"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="328"/>
+      <c r="A1" s="283" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="283" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1" s="283" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="283" t="s">
+        <v>712</v>
+      </c>
+      <c r="E1" s="283" t="s">
+        <v>713</v>
+      </c>
+      <c r="F1" s="283"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="283"/>
     </row>
     <row r="2" spans="1:14" s="83" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="B2" s="83" t="s">
@@ -6188,13 +7377,13 @@
         <v>690</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="F2" s="273" t="s">
+        <v>752</v>
+      </c>
+      <c r="F2" s="270" t="s">
         <v>692</v>
       </c>
-      <c r="G2" s="325" t="s">
-        <v>728</v>
+      <c r="G2" s="280" t="s">
+        <v>705</v>
       </c>
       <c r="H2" s="83" t="s">
         <v>8</v>
@@ -6202,194 +7391,194 @@
     </row>
     <row r="3" spans="1:14" ht="14.25" thickTop="1">
       <c r="A3" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B3" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>774</v>
-      </c>
-      <c r="F3" s="274" t="s">
+        <v>751</v>
+      </c>
+      <c r="F3" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="258" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B4" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="164" t="s">
-        <v>774</v>
-      </c>
-      <c r="F4" s="275" t="s">
+        <v>751</v>
+      </c>
+      <c r="F4" s="272" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="161" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B5" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="164" t="s">
-        <v>774</v>
-      </c>
-      <c r="F5" s="274" t="s">
+        <v>751</v>
+      </c>
+      <c r="F5" s="271" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="330" t="s">
-        <v>732</v>
+      <c r="G5" s="285" t="s">
+        <v>709</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A6" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B6" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D6" s="162" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="162" t="s">
-        <v>774</v>
-      </c>
-      <c r="F6" s="276" t="s">
+        <v>751</v>
+      </c>
+      <c r="F6" s="273" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="259" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="M6" s="166"/>
       <c r="N6" s="166"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B7" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="164" t="s">
-        <v>776</v>
-      </c>
-      <c r="F7" s="274" t="s">
+        <v>753</v>
+      </c>
+      <c r="F7" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="258" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="164" t="s">
-        <v>776</v>
-      </c>
-      <c r="F8" s="274" t="s">
+        <v>753</v>
+      </c>
+      <c r="F8" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="324" t="s">
-        <v>734</v>
+      <c r="G8" s="279" t="s">
+        <v>711</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B9" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="164" t="s">
-        <v>776</v>
-      </c>
-      <c r="F9" s="274" t="s">
+        <v>753</v>
+      </c>
+      <c r="F9" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="324" t="s">
+      <c r="G9" s="279" t="s">
         <v>65</v>
       </c>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:14" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A10" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B10" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="162" t="s">
-        <v>776</v>
-      </c>
-      <c r="F10" s="276" t="s">
+        <v>753</v>
+      </c>
+      <c r="F10" s="273" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="259" t="s">
@@ -6398,203 +7587,203 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="164" t="s">
-        <v>777</v>
-      </c>
-      <c r="F11" s="277" t="s">
+        <v>754</v>
+      </c>
+      <c r="F11" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="258" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1">
       <c r="A12" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B12" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="F12" s="274" t="s">
+        <v>754</v>
+      </c>
+      <c r="F12" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="324" t="s">
+      <c r="G12" s="279" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1">
       <c r="A13" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B13" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="F13" s="274" t="s">
+        <v>754</v>
+      </c>
+      <c r="F13" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="324" t="s">
+      <c r="G13" s="279" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1">
       <c r="A14" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B14" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="F14" s="274" t="s">
+        <v>754</v>
+      </c>
+      <c r="F14" s="271" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="324" t="s">
+      <c r="G14" s="279" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1">
       <c r="A15" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B15" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="F15" s="274" t="s">
+        <v>754</v>
+      </c>
+      <c r="F15" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="324" t="s">
-        <v>766</v>
+      <c r="G15" s="279" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A16" s="166" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B16" s="166" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="F16" s="276" t="s">
+        <v>754</v>
+      </c>
+      <c r="F16" s="273" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="259"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="165" t="s">
-        <v>764</v>
-      </c>
-      <c r="F17" s="277" t="s">
+        <v>741</v>
+      </c>
+      <c r="F17" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G17" s="258" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1">
       <c r="A18" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B18" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="F18" s="274" t="s">
+        <v>741</v>
+      </c>
+      <c r="F18" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="324" t="s">
-        <v>743</v>
+      <c r="G18" s="279" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A19" s="166" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="F19" s="276" t="s">
+        <v>741</v>
+      </c>
+      <c r="F19" s="273" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="259" t="s">
@@ -6603,222 +7792,222 @@
     </row>
     <row r="20" spans="1:7" s="14" customFormat="1">
       <c r="A20" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B20" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C20" s="164" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="165" t="s">
-        <v>795</v>
-      </c>
-      <c r="F20" s="274" t="s">
+        <v>772</v>
+      </c>
+      <c r="F20" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="258" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1">
       <c r="A21" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B21" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="F21" s="274" t="s">
+        <v>772</v>
+      </c>
+      <c r="F21" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="324" t="s">
+      <c r="G21" s="279" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
       <c r="A22" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="F22" s="274" t="s">
+        <v>772</v>
+      </c>
+      <c r="F22" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="324" t="s">
-        <v>745</v>
+      <c r="G22" s="279" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
       <c r="A23" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B23" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="F23" s="274" t="s">
+        <v>772</v>
+      </c>
+      <c r="F23" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="324"/>
+      <c r="G23" s="279"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B24" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="F24" s="274" t="s">
+        <v>772</v>
+      </c>
+      <c r="F24" s="271" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="324"/>
+      <c r="G24" s="279"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
       <c r="A25" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B25" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="F25" s="274" t="s">
+        <v>772</v>
+      </c>
+      <c r="F25" s="271" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="324"/>
+      <c r="G25" s="279"/>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A26" s="166" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B26" s="166" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="F26" s="276" t="s">
+        <v>772</v>
+      </c>
+      <c r="F26" s="273" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="331" t="s">
+      <c r="G26" s="286" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1">
       <c r="A27" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B27" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="165" t="s">
-        <v>771</v>
-      </c>
-      <c r="F27" s="274" t="s">
+        <v>748</v>
+      </c>
+      <c r="F27" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="258" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B28" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="165" t="s">
-        <v>772</v>
-      </c>
-      <c r="F28" s="274" t="s">
+        <v>749</v>
+      </c>
+      <c r="F28" s="271" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="324" t="s">
-        <v>746</v>
+      <c r="G28" s="279" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A29" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B29" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="166" t="s">
-        <v>772</v>
-      </c>
-      <c r="F29" s="276" t="s">
+        <v>749</v>
+      </c>
+      <c r="F29" s="273" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="259" t="s">
@@ -6827,87 +8016,87 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B30" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="165" t="s">
-        <v>773</v>
-      </c>
-      <c r="F30" s="274" t="s">
+        <v>750</v>
+      </c>
+      <c r="F30" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="258" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B31" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="F31" s="274" t="s">
+        <v>750</v>
+      </c>
+      <c r="F31" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="324" t="s">
-        <v>749</v>
+      <c r="G31" s="279" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B32" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="F32" s="274" t="s">
+        <v>750</v>
+      </c>
+      <c r="F32" s="271" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A33" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B33" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="F33" s="276" t="s">
+        <v>750</v>
+      </c>
+      <c r="F33" s="273" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="259" t="s">
@@ -6916,407 +8105,407 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B34" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="165" t="s">
-        <v>778</v>
-      </c>
-      <c r="F34" s="274" t="s">
+        <v>755</v>
+      </c>
+      <c r="F34" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="258" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="F35" s="277" t="s">
-        <v>767</v>
-      </c>
-      <c r="G35" s="326" t="s">
-        <v>769</v>
+        <v>755</v>
+      </c>
+      <c r="F35" s="274" t="s">
+        <v>744</v>
+      </c>
+      <c r="G35" s="281" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A36" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B36" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C36" s="162" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D36" s="162" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="166" t="s">
-        <v>778</v>
-      </c>
-      <c r="F36" s="276" t="s">
-        <v>768</v>
+        <v>755</v>
+      </c>
+      <c r="F36" s="273" t="s">
+        <v>745</v>
       </c>
       <c r="G36" s="259"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B37" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="165" t="s">
-        <v>779</v>
-      </c>
-      <c r="F37" s="274" t="s">
+        <v>756</v>
+      </c>
+      <c r="F37" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="258" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B38" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>779</v>
-      </c>
-      <c r="F38" s="274" t="s">
+        <v>756</v>
+      </c>
+      <c r="F38" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="324" t="s">
+      <c r="G38" s="279" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A39" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B39" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="F39" s="276" t="s">
+        <v>756</v>
+      </c>
+      <c r="F39" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="331" t="s">
+      <c r="G39" s="286" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B40" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="165" t="s">
-        <v>780</v>
-      </c>
-      <c r="F40" s="274" t="s">
+        <v>757</v>
+      </c>
+      <c r="F40" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G40" s="258" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B41" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>780</v>
-      </c>
-      <c r="F41" s="274" t="s">
+        <v>757</v>
+      </c>
+      <c r="F41" s="271" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B42" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>780</v>
-      </c>
-      <c r="F42" s="274" t="s">
+        <v>757</v>
+      </c>
+      <c r="F42" s="271" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="324" t="s">
+      <c r="G42" s="279" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B43" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>780</v>
-      </c>
-      <c r="F43" s="274" t="s">
+        <v>757</v>
+      </c>
+      <c r="F43" s="271" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="324" t="s">
+      <c r="G43" s="279" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A44" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B44" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="F44" s="276" t="s">
-        <v>753</v>
+        <v>757</v>
+      </c>
+      <c r="F44" s="273" t="s">
+        <v>730</v>
       </c>
       <c r="G44" s="259" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B45" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="165" t="s">
-        <v>781</v>
-      </c>
-      <c r="F45" s="274" t="s">
+        <v>758</v>
+      </c>
+      <c r="F45" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G45" s="258" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B46" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="F46" s="274" t="s">
+        <v>758</v>
+      </c>
+      <c r="F46" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="324" t="s">
-        <v>756</v>
+      <c r="G46" s="279" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B47" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>781</v>
-      </c>
-      <c r="F47" s="274" t="s">
+        <v>758</v>
+      </c>
+      <c r="F47" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="324" t="s">
+      <c r="G47" s="279" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A48" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B48" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F48" s="276" t="s">
+        <v>758</v>
+      </c>
+      <c r="F48" s="273" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="259" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B49" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E49" s="165" t="s">
-        <v>782</v>
-      </c>
-      <c r="F49" s="274" t="s">
+        <v>759</v>
+      </c>
+      <c r="F49" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G49" s="258" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B50" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>782</v>
-      </c>
-      <c r="F50" s="274" t="s">
+        <v>759</v>
+      </c>
+      <c r="F50" s="271" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="324" t="s">
+      <c r="G50" s="279" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A51" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B51" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="F51" s="276" t="s">
+        <v>759</v>
+      </c>
+      <c r="F51" s="273" t="s">
         <v>54</v>
       </c>
       <c r="G51" s="259"/>
@@ -7325,367 +8514,367 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B52" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="164" t="s">
-        <v>783</v>
-      </c>
-      <c r="F52" s="274" t="s">
+        <v>760</v>
+      </c>
+      <c r="F52" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G52" s="258" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B53" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="F53" s="274" t="s">
+        <v>760</v>
+      </c>
+      <c r="F53" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="324" t="s">
+      <c r="G53" s="279" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A54" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B54" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="F54" s="276" t="s">
+        <v>760</v>
+      </c>
+      <c r="F54" s="273" t="s">
         <v>57</v>
       </c>
       <c r="G54" s="259" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="I54" s="252"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B55" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="164" t="s">
-        <v>784</v>
-      </c>
-      <c r="F55" s="274" t="s">
+        <v>761</v>
+      </c>
+      <c r="F55" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G55" s="258" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A56" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B56" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="F56" s="276" t="s">
+        <v>761</v>
+      </c>
+      <c r="F56" s="273" t="s">
         <v>59</v>
       </c>
       <c r="G56" s="259" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="14" customFormat="1">
       <c r="A57" s="165" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B57" s="165" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="165" t="s">
-        <v>785</v>
-      </c>
-      <c r="F57" s="274" t="s">
+        <v>762</v>
+      </c>
+      <c r="F57" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="258" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1">
       <c r="A58" s="4" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="165" t="s">
-        <v>785</v>
-      </c>
-      <c r="F58" s="277" t="s">
+        <v>762</v>
+      </c>
+      <c r="F58" s="274" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="326" t="s">
-        <v>762</v>
+      <c r="G58" s="281" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A59" s="162" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B59" s="162" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C59" s="162" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D59" s="162" t="s">
         <v>0</v>
       </c>
       <c r="E59" s="166" t="s">
-        <v>785</v>
-      </c>
-      <c r="F59" s="276" t="s">
+        <v>762</v>
+      </c>
+      <c r="F59" s="273" t="s">
         <v>605</v>
       </c>
-      <c r="G59" s="327" t="s">
-        <v>763</v>
+      <c r="G59" s="282" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B60" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="165" t="s">
-        <v>786</v>
-      </c>
-      <c r="F60" s="274" t="s">
+        <v>763</v>
+      </c>
+      <c r="F60" s="271" t="s">
         <v>69</v>
       </c>
       <c r="G60" s="258" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B61" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>786</v>
-      </c>
-      <c r="F61" s="274" t="s">
+        <v>763</v>
+      </c>
+      <c r="F61" s="271" t="s">
         <v>413</v>
       </c>
       <c r="G61" s="258" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="164" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>786</v>
-      </c>
-      <c r="F62" s="274" t="s">
+        <v>763</v>
+      </c>
+      <c r="F62" s="271" t="s">
         <v>414</v>
       </c>
       <c r="G62" s="258" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A63" s="166" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B63" s="166" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="F63" s="276" t="s">
+        <v>763</v>
+      </c>
+      <c r="F63" s="273" t="s">
         <v>415</v>
       </c>
       <c r="G63" s="259" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="F64" s="278" t="s">
+        <v>764</v>
+      </c>
+      <c r="F64" s="275" t="s">
         <v>406</v>
       </c>
       <c r="G64" s="258" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1">
       <c r="A65" s="1" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="F65" s="279" t="s">
+        <v>764</v>
+      </c>
+      <c r="F65" s="276" t="s">
         <v>403</v>
       </c>
-      <c r="G65" s="326" t="s">
-        <v>794</v>
+      <c r="G65" s="281" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1">
       <c r="A66" s="1" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="F66" s="279" t="s">
+        <v>764</v>
+      </c>
+      <c r="F66" s="276" t="s">
         <v>404</v>
       </c>
-      <c r="G66" s="326" t="s">
+      <c r="G66" s="281" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A67" s="166" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="B67" s="166" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>297</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="F67" s="280" t="s">
+        <v>764</v>
+      </c>
+      <c r="F67" s="277" t="s">
         <v>405</v>
       </c>
       <c r="G67" s="259" t="s">
@@ -7706,360 +8895,403 @@
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="69" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="69" customWidth="1"/>
-    <col min="6" max="6" width="28.125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="62.875" style="69" customWidth="1"/>
-    <col min="8" max="16384" width="12.625" style="69"/>
+    <col min="1" max="1" width="12.625" style="69"/>
+    <col min="2" max="2" width="21.125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="69" customWidth="1"/>
+    <col min="5" max="5" width="64.25" style="69" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="69" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="69" customWidth="1"/>
+    <col min="8" max="8" width="62.875" style="69" customWidth="1"/>
+    <col min="9" max="16384" width="12.625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="301" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1" s="150" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B1" s="278" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1" s="150" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="D1" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="E1" s="150" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="F1" s="150" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="268" t="s">
+      <c r="G1" s="268" t="s">
         <v>678</v>
       </c>
-      <c r="G1" s="150" t="s">
+      <c r="H1" s="150" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="152" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B2" s="152" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="108"/>
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
-      <c r="F2" s="266" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="G2" s="108" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="153" t="s">
+      <c r="H2" s="108" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B3" s="153" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="C3" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="D3" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="269" t="s">
+      <c r="E3" s="269" t="s">
         <v>680</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="267" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="267" t="s">
         <v>401</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="H3" s="73" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="153" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B4" s="153" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="C4" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="D4" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="E4" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="267" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="267" t="s">
         <v>398</v>
       </c>
-      <c r="G4" s="157" t="s">
+      <c r="H4" s="157" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="153" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B5" s="153" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="F5" s="267" t="s">
+      <c r="G5" s="267" t="s">
         <v>400</v>
       </c>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="281" t="s">
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="322"/>
+      <c r="B9" s="319" t="s">
         <v>694</v>
       </c>
-      <c r="B9" s="282" t="s">
+      <c r="C9" s="319" t="s">
+        <v>696</v>
+      </c>
+      <c r="D9" s="319" t="s">
+        <v>697</v>
+      </c>
+      <c r="E9" s="319" t="s">
         <v>695</v>
       </c>
-      <c r="C9" s="282" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="322"/>
+      <c r="B10" s="316" t="s">
+        <v>783</v>
+      </c>
+      <c r="C10" s="316" t="s">
+        <v>699</v>
+      </c>
+      <c r="D10" s="325"/>
+      <c r="E10" s="316"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="322"/>
+      <c r="B11" s="316" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" s="316" t="s">
+        <v>700</v>
+      </c>
+      <c r="D11" s="316"/>
+      <c r="E11" s="316" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="322"/>
+      <c r="B12" s="316" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="316" t="s">
+        <v>701</v>
+      </c>
+      <c r="D12" s="316"/>
+      <c r="E12" s="316" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="323"/>
+      <c r="B13" s="316" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="326"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="316" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="322"/>
+      <c r="B14" s="316" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="325"/>
+      <c r="D14" s="316" t="s">
+        <v>785</v>
+      </c>
+      <c r="E14" s="327" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="324" t="s">
+        <v>784</v>
+      </c>
+      <c r="B15" s="328" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="328" t="s">
+        <v>780</v>
+      </c>
+      <c r="D15" s="328" t="s">
+        <v>786</v>
+      </c>
+      <c r="E15" s="328" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="322"/>
+      <c r="B16" s="316"/>
+      <c r="C16" s="317"/>
+      <c r="D16" s="317"/>
+      <c r="E16" s="320"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B18" s="319" t="s">
         <v>696</v>
       </c>
-      <c r="D9" s="282" t="s">
-        <v>697</v>
-      </c>
-      <c r="E9" s="282" t="s">
-        <v>698</v>
-      </c>
-      <c r="F9" s="289" t="s">
+      <c r="C18" s="319" t="s">
+        <v>695</v>
+      </c>
+      <c r="D18" s="329" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B19" s="330"/>
+      <c r="C19" s="316" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B20" s="316" t="s">
         <v>699</v>
       </c>
-      <c r="G9" s="171" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="283" t="s">
+      <c r="C20" s="316" t="s">
+        <v>794</v>
+      </c>
+      <c r="D20" s="316" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B21" s="316" t="s">
         <v>700</v>
       </c>
-      <c r="B10" s="284"/>
-      <c r="C10" s="285" t="s">
-        <v>703</v>
-      </c>
-      <c r="D10" s="284"/>
-      <c r="E10" s="284"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="171"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="283" t="s">
+      <c r="C21" s="316" t="s">
+        <v>795</v>
+      </c>
+      <c r="D21" s="316" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B22" s="316" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="284"/>
-      <c r="C11" s="285" t="s">
-        <v>708</v>
-      </c>
-      <c r="D11" s="284"/>
-      <c r="E11" s="284"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="292" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="283" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="285" t="s">
-        <v>702</v>
-      </c>
-      <c r="C12" s="285" t="s">
-        <v>713</v>
-      </c>
-      <c r="D12" s="286" t="s">
-        <v>704</v>
-      </c>
-      <c r="E12" s="287" t="s">
-        <v>705</v>
-      </c>
-      <c r="F12" s="291" t="s">
-        <v>706</v>
-      </c>
-      <c r="G12" s="292" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="283" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="285" t="s">
-        <v>707</v>
-      </c>
-      <c r="D13" s="286" t="s">
-        <v>709</v>
-      </c>
-      <c r="E13" s="287" t="s">
-        <v>710</v>
-      </c>
-      <c r="F13" s="291" t="s">
-        <v>711</v>
-      </c>
-      <c r="G13" s="292" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="283" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="285" t="s">
-        <v>712</v>
-      </c>
-      <c r="D14" s="286" t="s">
-        <v>529</v>
-      </c>
-      <c r="E14" s="287" t="s">
-        <v>714</v>
-      </c>
-      <c r="F14" s="291" t="s">
-        <v>715</v>
-      </c>
-      <c r="G14" s="293" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="294" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="295" t="s">
-        <v>716</v>
-      </c>
-      <c r="C15" s="295" t="s">
-        <v>724</v>
-      </c>
-      <c r="D15" s="296" t="s">
-        <v>717</v>
-      </c>
-      <c r="E15" s="297" t="s">
-        <v>718</v>
-      </c>
-      <c r="F15" s="298" t="s">
-        <v>714</v>
-      </c>
-      <c r="G15" s="299" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="288"/>
-      <c r="B16" s="285" t="s">
-        <v>719</v>
-      </c>
-      <c r="C16" s="300" t="s">
-        <v>725</v>
-      </c>
-      <c r="D16" s="286" t="s">
-        <v>720</v>
-      </c>
-      <c r="E16" s="287" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="285" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17" s="270"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-    </row>
-    <row r="19" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="G21" s="272"/>
-    </row>
-    <row r="22" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="G22" s="271"/>
-    </row>
-    <row r="23" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="G23" s="271"/>
-    </row>
-    <row r="24" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="G24" s="272"/>
-    </row>
-    <row r="25" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="G25" s="272"/>
-    </row>
-    <row r="26" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="G26" s="271"/>
-    </row>
-    <row r="27" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1"/>
+      <c r="C22" s="327" t="s">
+        <v>792</v>
+      </c>
+      <c r="D22" s="316" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B23" s="328" t="s">
+        <v>780</v>
+      </c>
+      <c r="C23" s="328" t="s">
+        <v>781</v>
+      </c>
+      <c r="D23" s="328" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B24" s="317"/>
+      <c r="C24" s="320"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B25" s="319" t="s">
+        <v>801</v>
+      </c>
+      <c r="C25" s="319" t="s">
+        <v>695</v>
+      </c>
+      <c r="D25" s="329" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
+      <c r="A26" s="331" t="s">
+        <v>796</v>
+      </c>
+      <c r="B26" s="316"/>
+      <c r="C26" s="316" t="s">
+        <v>793</v>
+      </c>
+      <c r="D26" s="321" t="s">
+        <v>803</v>
+      </c>
+      <c r="E26" s="318" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
+      <c r="A27" s="331" t="s">
+        <v>797</v>
+      </c>
+      <c r="B27" s="316" t="s">
+        <v>796</v>
+      </c>
+      <c r="C27" s="316" t="s">
+        <v>794</v>
+      </c>
+      <c r="D27" s="316" t="s">
+        <v>798</v>
+      </c>
+      <c r="E27" s="334" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
+      <c r="A28" s="331" t="s">
+        <v>800</v>
+      </c>
+      <c r="B28" s="316" t="s">
+        <v>797</v>
+      </c>
+      <c r="C28" s="316" t="s">
+        <v>795</v>
+      </c>
+      <c r="D28" s="316" t="s">
+        <v>779</v>
+      </c>
+      <c r="E28" s="333" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
+      <c r="A29" s="331" t="s">
+        <v>782</v>
+      </c>
+      <c r="B29" s="327" t="s">
+        <v>800</v>
+      </c>
+      <c r="C29" s="327" t="s">
+        <v>792</v>
+      </c>
+      <c r="D29" s="327" t="s">
+        <v>799</v>
+      </c>
+      <c r="E29" s="333" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
+      <c r="B30" s="328" t="s">
+        <v>781</v>
+      </c>
+      <c r="C30" s="328" t="s">
+        <v>781</v>
+      </c>
+      <c r="D30" s="328" t="s">
+        <v>781</v>
+      </c>
+      <c r="E30" s="332" t="s">
+        <v>802</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
+      <formula1>"미래스마트, 경기천년사업, 문화사업 발굴 및 확산"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27">
+      <formula1>"문화예술, 경영, 미술관, 박물관, 선사박물관, 어린이박물관, 실학박물관"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28">
+      <formula1>"문예진흥, 문화사업, 지역문화, 생활문화, 문화정책"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8079,7 +9311,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="308" t="s">
         <v>562</v>
       </c>
       <c r="B1" s="246" t="s">
@@ -8088,22 +9320,22 @@
       <c r="C1" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="316" t="s">
+      <c r="D1" s="308" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="316" t="s">
+      <c r="E1" s="308" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="316" t="s">
+      <c r="F1" s="308" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="316" t="s">
+      <c r="G1" s="308" t="s">
         <v>567</v>
       </c>
       <c r="H1" s="246" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="316" t="s">
+      <c r="I1" s="308" t="s">
         <v>569</v>
       </c>
       <c r="J1" s="246" t="s">
@@ -8115,53 +9347,53 @@
       <c r="L1" s="246" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="316" t="s">
+      <c r="M1" s="308" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="316" t="s">
+      <c r="N1" s="308" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="316" t="s">
+      <c r="O1" s="308" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="316" t="s">
+      <c r="P1" s="308" t="s">
         <v>575</v>
       </c>
       <c r="Q1" s="246" t="s">
         <v>576</v>
       </c>
-      <c r="R1" s="316" t="s">
+      <c r="R1" s="308" t="s">
         <v>577</v>
       </c>
-      <c r="S1" s="316" t="s">
+      <c r="S1" s="308" t="s">
         <v>578</v>
       </c>
-      <c r="T1" s="316" t="s">
+      <c r="T1" s="308" t="s">
         <v>579</v>
       </c>
-      <c r="U1" s="316" t="s">
+      <c r="U1" s="308" t="s">
         <v>580</v>
       </c>
-      <c r="V1" s="316" t="s">
+      <c r="V1" s="308" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="317"/>
+      <c r="A2" s="309"/>
       <c r="B2" s="247" t="s">
         <v>581</v>
       </c>
       <c r="C2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
       <c r="H2" s="247" t="s">
         <v>583</v>
       </c>
-      <c r="I2" s="317"/>
+      <c r="I2" s="309"/>
       <c r="J2" s="247" t="s">
         <v>584</v>
       </c>
@@ -8171,77 +9403,80 @@
       <c r="L2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="317"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="309"/>
+      <c r="O2" s="309"/>
+      <c r="P2" s="309"/>
       <c r="Q2" s="247" t="s">
         <v>586</v>
       </c>
-      <c r="R2" s="317"/>
-      <c r="S2" s="317"/>
-      <c r="T2" s="317"/>
-      <c r="U2" s="317"/>
-      <c r="V2" s="317"/>
+      <c r="R2" s="309"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="309"/>
+      <c r="U2" s="309"/>
+      <c r="V2" s="309"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="310" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="320"/>
-      <c r="N3" s="318" t="s">
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="311"/>
+      <c r="L3" s="311"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="310" t="s">
         <v>588</v>
       </c>
-      <c r="O3" s="319"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="319"/>
-      <c r="T3" s="320"/>
-      <c r="U3" s="318" t="s">
+      <c r="O3" s="311"/>
+      <c r="P3" s="311"/>
+      <c r="Q3" s="311"/>
+      <c r="R3" s="311"/>
+      <c r="S3" s="311"/>
+      <c r="T3" s="312"/>
+      <c r="U3" s="310" t="s">
         <v>589</v>
       </c>
-      <c r="V3" s="320"/>
+      <c r="V3" s="312"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="321"/>
-      <c r="B4" s="322"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="323"/>
-      <c r="N4" s="321"/>
-      <c r="O4" s="322"/>
-      <c r="P4" s="322"/>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="322"/>
-      <c r="S4" s="322"/>
-      <c r="T4" s="323"/>
-      <c r="U4" s="321" t="s">
+      <c r="A4" s="313"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="315"/>
+      <c r="N4" s="313"/>
+      <c r="O4" s="314"/>
+      <c r="P4" s="314"/>
+      <c r="Q4" s="314"/>
+      <c r="R4" s="314"/>
+      <c r="S4" s="314"/>
+      <c r="T4" s="315"/>
+      <c r="U4" s="313" t="s">
         <v>590</v>
       </c>
-      <c r="V4" s="323"/>
+      <c r="V4" s="315"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
@@ -8258,9 +9493,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8307,10 +9539,10 @@
         <v>691</v>
       </c>
       <c r="C1" s="211" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="D1" s="228" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="E1" s="212" t="s">
         <v>547</v>
@@ -8354,7 +9586,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="258" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>670</v>
@@ -8397,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="161" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="D3" s="76" t="s">
         <v>683</v>
@@ -8423,8 +9655,8 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="330" t="s">
-        <v>732</v>
+      <c r="C4" s="285" t="s">
+        <v>709</v>
       </c>
       <c r="D4" s="80" t="s">
         <v>684</v>
@@ -8451,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="259" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>677</v>
@@ -8478,7 +9710,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="258" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="D6" s="81" t="s">
         <v>682</v>
@@ -8520,8 +9752,8 @@
       <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="324" t="s">
-        <v>734</v>
+      <c r="C7" s="279" t="s">
+        <v>711</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>681</v>
@@ -8547,7 +9779,7 @@
       <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="324" t="s">
+      <c r="C8" s="279" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="80" t="s">
@@ -8602,7 +9834,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="258" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>672</v>
@@ -8644,7 +9876,7 @@
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="324" t="s">
+      <c r="C11" s="279" t="s">
         <v>601</v>
       </c>
       <c r="D11" s="80" t="s">
@@ -8671,7 +9903,7 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="324" t="s">
+      <c r="C12" s="279" t="s">
         <v>602</v>
       </c>
       <c r="D12" s="80" t="s">
@@ -8698,7 +9930,7 @@
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="324" t="s">
+      <c r="C13" s="279" t="s">
         <v>603</v>
       </c>
       <c r="D13" s="80" t="s">
@@ -8726,7 +9958,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="259" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>424</v>
@@ -8753,7 +9985,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="258" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
       <c r="D15" s="81" t="s">
         <v>673</v>
@@ -8795,8 +10027,8 @@
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="324" t="s">
-        <v>743</v>
+      <c r="C16" s="279" t="s">
+        <v>720</v>
       </c>
       <c r="D16" s="80" t="s">
         <v>687</v>
@@ -8850,7 +10082,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="258" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
       <c r="D18" s="248" t="s">
         <v>669</v>
@@ -8896,7 +10128,7 @@
       <c r="B19" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="324" t="s">
+      <c r="C19" s="279" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="249" t="s">
@@ -8943,8 +10175,8 @@
       <c r="B20" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="324" t="s">
-        <v>745</v>
+      <c r="C20" s="279" t="s">
+        <v>722</v>
       </c>
       <c r="D20" s="249" t="s">
         <v>598</v>
@@ -8990,7 +10222,7 @@
       <c r="B21" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="331" t="s">
+      <c r="C21" s="286" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="251" t="s">
@@ -9038,7 +10270,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="258" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="D22" s="81" t="s">
         <v>674</v>
@@ -9080,8 +10312,8 @@
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="324" t="s">
-        <v>746</v>
+      <c r="C23" s="279" t="s">
+        <v>723</v>
       </c>
       <c r="D23" s="80" t="s">
         <v>418</v>
@@ -9135,7 +10367,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="258" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
       <c r="D25" s="81" t="s">
         <v>671</v>
@@ -9177,8 +10409,8 @@
       <c r="B26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="324" t="s">
-        <v>749</v>
+      <c r="C26" s="279" t="s">
+        <v>726</v>
       </c>
       <c r="D26" s="80" t="s">
         <v>425</v>
@@ -9223,45 +10455,45 @@
       <c r="O27" s="166"/>
     </row>
     <row r="28" spans="1:15" s="210" customFormat="1" ht="27">
-      <c r="A28" s="332" t="s">
+      <c r="A28" s="287" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="333" t="s">
+      <c r="B28" s="288" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="258" t="s">
-        <v>750</v>
-      </c>
-      <c r="D28" s="334" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="289" t="s">
         <v>671</v>
       </c>
-      <c r="E28" s="335" t="s">
+      <c r="E28" s="290" t="s">
         <v>629</v>
       </c>
-      <c r="F28" s="335"/>
-      <c r="G28" s="335"/>
-      <c r="H28" s="335" t="s">
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290" t="s">
         <v>541</v>
       </c>
-      <c r="I28" s="336" t="s">
+      <c r="I28" s="291" t="s">
         <v>557</v>
       </c>
-      <c r="J28" s="335" t="s">
+      <c r="J28" s="290" t="s">
         <v>542</v>
       </c>
-      <c r="K28" s="335" t="s">
+      <c r="K28" s="290" t="s">
         <v>543</v>
       </c>
-      <c r="L28" s="337" t="s">
+      <c r="L28" s="292" t="s">
         <v>530</v>
       </c>
-      <c r="M28" s="338" t="s">
+      <c r="M28" s="293" t="s">
         <v>534</v>
       </c>
-      <c r="N28" s="338" t="s">
+      <c r="N28" s="293" t="s">
         <v>535</v>
       </c>
-      <c r="O28" s="337" t="s">
+      <c r="O28" s="292" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9273,7 +10505,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="259" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="D29" s="242"/>
       <c r="E29" s="166"/>
@@ -9296,7 +10528,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="258" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="D30" s="81" t="s">
         <v>671</v>
@@ -9338,7 +10570,7 @@
       <c r="B31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="324" t="s">
+      <c r="C31" s="279" t="s">
         <v>283</v>
       </c>
       <c r="D31" s="80" t="s">
@@ -9365,7 +10597,7 @@
       <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="331" t="s">
+      <c r="C32" s="286" t="s">
         <v>660</v>
       </c>
       <c r="D32" s="79" t="s">
@@ -9393,7 +10625,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="258" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="D33" s="81" t="s">
         <v>671</v>
@@ -9435,7 +10667,7 @@
       <c r="B34" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="324" t="s">
+      <c r="C34" s="279" t="s">
         <v>285</v>
       </c>
       <c r="D34" s="80" t="s">
@@ -9474,7 +10706,7 @@
       <c r="B35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="324" t="s">
+      <c r="C35" s="279" t="s">
         <v>286</v>
       </c>
       <c r="D35" s="80" t="s">
@@ -9514,7 +10746,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="259" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="D36" s="243" t="s">
         <v>429</v>
@@ -9553,7 +10785,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="258" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="D37" s="81" t="s">
         <v>671</v>
@@ -9595,8 +10827,8 @@
       <c r="B38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="324" t="s">
-        <v>756</v>
+      <c r="C38" s="279" t="s">
+        <v>733</v>
       </c>
       <c r="D38" s="80" t="s">
         <v>420</v>
@@ -9634,7 +10866,7 @@
       <c r="B39" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="324" t="s">
+      <c r="C39" s="279" t="s">
         <v>416</v>
       </c>
       <c r="D39" s="80" t="s">
@@ -9674,7 +10906,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="259" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="D40" s="79" t="s">
         <v>431</v>
@@ -9713,7 +10945,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="258" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="D41" s="81" t="s">
         <v>671</v>
@@ -9795,7 +11027,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="258" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="D43" s="81" t="s">
         <v>671</v>
@@ -9837,7 +11069,7 @@
       <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="324" t="s">
+      <c r="C44" s="279" t="s">
         <v>659</v>
       </c>
       <c r="D44" s="80" t="s">
@@ -9877,7 +11109,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="259" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="D45" s="264" t="s">
         <v>665</v>
@@ -9916,7 +11148,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="258" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="D46" s="81" t="s">
         <v>671</v>
@@ -9959,7 +11191,7 @@
         <v>58</v>
       </c>
       <c r="C47" s="259" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="D47" s="79" t="s">
         <v>433</v>
@@ -9998,7 +11230,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="258" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="D48" s="81" t="s">
         <v>671</v>
@@ -10040,8 +11272,8 @@
       <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="326" t="s">
-        <v>762</v>
+      <c r="C49" s="281" t="s">
+        <v>739</v>
       </c>
       <c r="D49" s="265" t="s">
         <v>434</v>
@@ -10079,8 +11311,8 @@
       <c r="B50" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="327" t="s">
-        <v>763</v>
+      <c r="C50" s="282" t="s">
+        <v>740</v>
       </c>
       <c r="D50" s="79" t="s">
         <v>663</v>
@@ -10119,7 +11351,7 @@
         <v>62</v>
       </c>
       <c r="C51" s="258" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="D51" s="81" t="s">
         <v>671</v>
@@ -10162,7 +11394,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="258" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="D52" s="81" t="s">
         <v>435</v>
@@ -10201,7 +11433,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="258" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="D53" s="81" t="s">
         <v>436</v>
@@ -10240,7 +11472,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="259" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="D54" s="79" t="s">
         <v>437</v>
@@ -10279,7 +11511,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="258" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="D55" s="81" t="s">
         <v>671</v>
@@ -10321,8 +11553,8 @@
       <c r="B56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="326" t="s">
-        <v>794</v>
+      <c r="C56" s="281" t="s">
+        <v>771</v>
       </c>
       <c r="D56" s="244" t="s">
         <v>438</v>
@@ -10356,7 +11588,7 @@
       <c r="B57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="326" t="s">
+      <c r="C57" s="281" t="s">
         <v>407</v>
       </c>
       <c r="D57" s="244" t="s">
@@ -10458,60 +11690,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="294" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
-      <c r="K1" s="302"/>
-      <c r="L1" s="302"/>
-      <c r="M1" s="302"/>
-      <c r="N1" s="302"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="295" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="296" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="304" t="s">
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="296" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="305"/>
-      <c r="J3" s="305"/>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="305"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
@@ -11702,7 +12934,7 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -11772,7 +13004,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="96" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="E3" s="90"/>
       <c r="F3" s="90"/>
@@ -11789,7 +13021,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -11806,7 +13038,7 @@
         <v>135</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="E5" s="90"/>
       <c r="F5" s="90"/>
@@ -11823,7 +13055,7 @@
         <v>135</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
@@ -16324,60 +17556,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="294" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
-      <c r="K1" s="302"/>
-      <c r="L1" s="302"/>
-      <c r="M1" s="302"/>
-      <c r="N1" s="302"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="295" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="296" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="304" t="s">
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="296" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="305"/>
-      <c r="J3" s="305"/>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="305"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
@@ -18081,34 +19313,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="299" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="307" t="s">
+      <c r="B1" s="299" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="299" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="309" t="s">
+      <c r="D1" s="301" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="309"/>
-      <c r="F1" s="307" t="s">
+      <c r="E1" s="301"/>
+      <c r="F1" s="299" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="308"/>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
       <c r="D2" s="125" t="s">
         <v>221</v>
       </c>
       <c r="E2" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="308"/>
+      <c r="F2" s="300"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="126" t="s">
@@ -18369,10 +19601,10 @@
       <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="311" t="s">
+      <c r="B3" s="303" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="311"/>
+      <c r="C3" s="303"/>
       <c r="D3" s="120" t="s">
         <v>390</v>
       </c>
@@ -18390,10 +19622,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="312" t="s">
+      <c r="B4" s="304" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="313"/>
+      <c r="C4" s="305"/>
       <c r="D4" s="123" t="s">
         <v>389</v>
       </c>
@@ -18411,7 +19643,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="314" t="s">
+      <c r="B5" s="306" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="140" t="s">
@@ -18432,7 +19664,7 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="315"/>
+      <c r="B6" s="307"/>
       <c r="C6" s="140" t="s">
         <v>393</v>
       </c>
@@ -18471,10 +19703,10 @@
       <c r="H8" s="149"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="311" t="s">
+      <c r="B10" s="303" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="311"/>
+      <c r="C10" s="303"/>
       <c r="D10" s="120" t="s">
         <v>378</v>
       </c>
@@ -18492,10 +19724,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="310" t="s">
+      <c r="B11" s="302" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="310"/>
+      <c r="C11" s="302"/>
       <c r="D11" s="109" t="s">
         <v>372</v>
       </c>
@@ -18513,10 +19745,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="310" t="s">
+      <c r="B12" s="302" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="310"/>
+      <c r="C12" s="302"/>
       <c r="D12" s="109" t="s">
         <v>370</v>
       </c>
@@ -18534,10 +19766,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="310" t="s">
+      <c r="B13" s="302" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="310"/>
+      <c r="C13" s="302"/>
       <c r="D13" s="109" t="s">
         <v>366</v>
       </c>
@@ -18553,10 +19785,10 @@
       <c r="H13" s="143"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="310" t="s">
+      <c r="B14" s="302" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="310"/>
+      <c r="C14" s="302"/>
       <c r="D14" s="109" t="s">
         <v>364</v>
       </c>
@@ -18574,10 +19806,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="310" t="s">
+      <c r="B15" s="302" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="310"/>
+      <c r="C15" s="302"/>
       <c r="D15" s="119"/>
       <c r="E15" s="118" t="s">
         <v>361</v>
@@ -18591,10 +19823,10 @@
       <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="310" t="s">
+      <c r="B16" s="302" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="310"/>
+      <c r="C16" s="302"/>
       <c r="D16" s="109" t="s">
         <v>394</v>
       </c>
@@ -18735,7 +19967,7 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I32" sqref="I32"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="3"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -3117,315 +3117,315 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>기록관리기준표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화자원발굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제 세부(최종)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍2회기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회홍보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회공중촬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천개의경기운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록물철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화역량강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답사단기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답사운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제프로그램운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅포럼연계홍보부스운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅포럼연계홍보부스기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기자단기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기자단모집및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보전기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년홍보기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년상상 콘텐츠 공모전 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년콘텐츠공모전운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로건엠블럼개발기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로건공모전운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보영상제작기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다큐영상제작기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대효과연구기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대효과연구보고서발간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임캡슐연구기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임캡슐원고집필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임캡슐보고서발간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년DMZ답사단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로건엠블럼도민설명회운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도민의견숙의운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상설치및상영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠전시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보전운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다큐영상송출및보도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅포럼2017연계경기천년플랫폼홍보부스운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅포럼2017연계경기천년플랫폼홍보부스운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천천천경기천년기자단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍제1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제(사업명 띄어쓰기 및 기호 없이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍제2회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년플랫폼구축운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년홍보전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G미디어파사드페스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년기획홍보온오프라인및SNS운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년슬로건엠블럼개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년CF형홍보영상제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년기념내가사랑하는경기영상제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년기념사업기대효과연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년타임캡슐추진방향연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업과정아카이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년기록아카이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획사업(경기천년사업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과정아카이브기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아카이브연구및자문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록관리교육지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업과정기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록아카이브기획및관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31개시군촬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기새천년맞이사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제 세부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활문화콜로키움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년대축제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년장인발굴달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려인예술단초청공연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>관리과제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>단위과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록관리기준표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화자원발굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제 세부(최종)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍2회기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍1회기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍1회운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍1회홍보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년소풍1회공중촬영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천개의경기운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록물철</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화역량강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랫폼기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답사단기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답사운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축제프로그램운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅포럼연계홍보부스운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅포럼연계홍보부스기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기자단기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기자단모집및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍보전기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전시기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년홍보기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년상상 콘텐츠 공모전 운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년콘텐츠공모전운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로건엠블럼개발기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로건공모전운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍보영상제작기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다큐영상제작기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대효과연구기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대효과연구보고서발간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임캡슐연구기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임캡슐원고집필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임캡슐보고서발간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청년DMZ답사단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬로건엠블럼도민설명회운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도민의견숙의운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상설치및상영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘텐츠전시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍보전운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다큐영상송출및보도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅포럼2017연계경기천년플랫폼홍보부스운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅포럼2017연계경기천년플랫폼홍보부스운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천천천경기천년기자단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년소풍제1회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제(사업명 띄어쓰기 및 기호 없이)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년소풍제2회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년플랫폼구축운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년홍보전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G미디어파사드페스타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년기획홍보온오프라인및SNS운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년슬로건엠블럼개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년CF형홍보영상제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년기념내가사랑하는경기영상제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년기념사업기대효과연구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년타임캡슐추진방향연구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년사업과정아카이브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년기록아카이브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획사업(경기천년사업)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과정아카이브기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아카이브연구및자문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록관리교육지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년사업과정기록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록아카이브기획및관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31개시군촬영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기새천년맞이사업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위과제 세부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활문화콜로키움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년대축제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천년장인발굴달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고려인예술단초청공연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3433,7 +3433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="65">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3904,24 +3904,17 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="함초롬바탕"/>
-      <family val="1"/>
+      <name val="맑은고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="함초롬바탕"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FFA5A5A5"/>
-      <name val="함초롬바탕"/>
-      <family val="1"/>
+      <name val="맑은고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -4856,7 +4849,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5596,42 +5589,156 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5644,7 +5751,7 @@
     <xf numFmtId="0" fontId="62" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5655,120 +5762,6 @@
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -6135,10 +6128,10 @@
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6149,7 +6142,7 @@
     <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="40.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.5" style="274" customWidth="1"/>
-    <col min="7" max="7" width="27" style="324" customWidth="1"/>
+    <col min="7" max="7" width="27" style="282" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" style="2"/>
@@ -6158,24 +6151,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="164" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="328" t="s">
-        <v>739</v>
-      </c>
-      <c r="B1" s="328" t="s">
-        <v>738</v>
-      </c>
-      <c r="C1" s="328" t="s">
+      <c r="A1" s="286" t="s">
         <v>737</v>
       </c>
-      <c r="D1" s="328" t="s">
+      <c r="B1" s="286" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1" s="286" t="s">
         <v>735</v>
       </c>
-      <c r="E1" s="328" t="s">
-        <v>736</v>
-      </c>
-      <c r="F1" s="328"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="328"/>
+      <c r="D1" s="286" t="s">
+        <v>733</v>
+      </c>
+      <c r="E1" s="286" t="s">
+        <v>734</v>
+      </c>
+      <c r="F1" s="286"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="286"/>
     </row>
     <row r="2" spans="1:14" s="83" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="B2" s="83" t="s">
@@ -6188,13 +6181,13 @@
         <v>690</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F2" s="273" t="s">
         <v>692</v>
       </c>
-      <c r="G2" s="325" t="s">
-        <v>728</v>
+      <c r="G2" s="283" t="s">
+        <v>726</v>
       </c>
       <c r="H2" s="83" t="s">
         <v>8</v>
@@ -6202,192 +6195,192 @@
     </row>
     <row r="3" spans="1:14" ht="14.25" thickTop="1">
       <c r="A3" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B3" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F3" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="258" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B4" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="164" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F4" s="275" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="161" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B5" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="164" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F5" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="330" t="s">
-        <v>732</v>
+      <c r="G5" s="288" t="s">
+        <v>730</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A6" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B6" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D6" s="162" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="162" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F6" s="276" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="259" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M6" s="166"/>
       <c r="N6" s="166"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B7" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="164" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F7" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="258" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="164" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F8" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="324" t="s">
-        <v>734</v>
+      <c r="G8" s="282" t="s">
+        <v>732</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B9" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="164" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F9" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="324" t="s">
+      <c r="G9" s="282" t="s">
         <v>65</v>
       </c>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:14" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A10" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B10" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="162" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F10" s="276" t="s">
         <v>15</v>
@@ -6398,134 +6391,134 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="164" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F11" s="277" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="258" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1">
       <c r="A12" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B12" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F12" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="324" t="s">
+      <c r="G12" s="282" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1">
       <c r="A13" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B13" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F13" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="324" t="s">
+      <c r="G13" s="282" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1">
       <c r="A14" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B14" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F14" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="324" t="s">
+      <c r="G14" s="282" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1">
       <c r="A15" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B15" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F15" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="324" t="s">
-        <v>766</v>
+      <c r="G15" s="282" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A16" s="166" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B16" s="166" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F16" s="276" t="s">
         <v>20</v>
@@ -6534,65 +6527,65 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="165" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F17" s="277" t="s">
         <v>69</v>
       </c>
       <c r="G17" s="258" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1">
       <c r="A18" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B18" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F18" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="324" t="s">
-        <v>743</v>
+      <c r="G18" s="282" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A19" s="166" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F19" s="276" t="s">
         <v>25</v>
@@ -6603,220 +6596,220 @@
     </row>
     <row r="20" spans="1:7" s="14" customFormat="1">
       <c r="A20" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B20" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C20" s="164" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="165" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F20" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="258" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1">
       <c r="A21" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B21" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F21" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="324" t="s">
+      <c r="G21" s="282" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
       <c r="A22" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F22" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="324" t="s">
-        <v>745</v>
+      <c r="G22" s="282" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
       <c r="A23" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B23" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F23" s="274" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="324"/>
+      <c r="G23" s="282"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B24" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F24" s="274" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="324"/>
+      <c r="G24" s="282"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
       <c r="A25" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B25" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F25" s="274" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="324"/>
+      <c r="G25" s="282"/>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A26" s="166" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B26" s="166" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F26" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="331" t="s">
+      <c r="G26" s="289" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1">
       <c r="A27" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B27" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="165" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F27" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="258" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B28" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="165" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F28" s="274" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="324" t="s">
-        <v>746</v>
+      <c r="G28" s="282" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A29" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B29" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="166" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F29" s="276" t="s">
         <v>27</v>
@@ -6827,65 +6820,65 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B30" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="165" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F30" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="258" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B31" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F31" s="274" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="324" t="s">
-        <v>749</v>
+      <c r="G31" s="282" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B32" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F32" s="274" t="s">
         <v>39</v>
@@ -6893,19 +6886,19 @@
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A33" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B33" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F33" s="276" t="s">
         <v>40</v>
@@ -6916,178 +6909,178 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B34" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="165" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F34" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="258" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F35" s="277" t="s">
+        <v>765</v>
+      </c>
+      <c r="G35" s="284" t="s">
         <v>767</v>
-      </c>
-      <c r="G35" s="326" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A36" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B36" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C36" s="162" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D36" s="162" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="166" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F36" s="276" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G36" s="259"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B37" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="165" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F37" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="258" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B38" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F38" s="274" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="324" t="s">
+      <c r="G38" s="282" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A39" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B39" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F39" s="276" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="331" t="s">
+      <c r="G39" s="289" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B40" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="165" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F40" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G40" s="258" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B41" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F41" s="274" t="s">
         <v>45</v>
@@ -7095,226 +7088,226 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B42" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F42" s="274" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="324" t="s">
+      <c r="G42" s="282" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B43" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F43" s="274" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="324" t="s">
+      <c r="G43" s="282" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A44" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B44" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F44" s="276" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G44" s="259" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B45" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="165" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F45" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G45" s="258" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B46" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F46" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="324" t="s">
-        <v>756</v>
+      <c r="G46" s="282" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B47" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F47" s="274" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="324" t="s">
+      <c r="G47" s="282" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A48" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B48" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F48" s="276" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="259" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B49" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E49" s="165" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F49" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G49" s="258" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B50" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F50" s="274" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="324" t="s">
+      <c r="G50" s="282" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A51" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B51" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F51" s="276" t="s">
         <v>54</v>
@@ -7325,365 +7318,365 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B52" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="164" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F52" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G52" s="258" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B53" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F53" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="324" t="s">
+      <c r="G53" s="282" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A54" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B54" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F54" s="276" t="s">
         <v>57</v>
       </c>
       <c r="G54" s="259" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I54" s="252"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B55" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="164" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F55" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G55" s="258" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A56" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B56" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F56" s="276" t="s">
         <v>59</v>
       </c>
       <c r="G56" s="259" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="14" customFormat="1">
       <c r="A57" s="165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B57" s="165" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="165" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F57" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="258" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1">
       <c r="A58" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="165" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F58" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="326" t="s">
-        <v>762</v>
+      <c r="G58" s="284" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A59" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B59" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C59" s="162" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D59" s="162" t="s">
         <v>0</v>
       </c>
       <c r="E59" s="166" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F59" s="276" t="s">
         <v>605</v>
       </c>
-      <c r="G59" s="327" t="s">
-        <v>763</v>
+      <c r="G59" s="285" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B60" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="165" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F60" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G60" s="258" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B61" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F61" s="274" t="s">
         <v>413</v>
       </c>
       <c r="G61" s="258" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F62" s="274" t="s">
         <v>414</v>
       </c>
       <c r="G62" s="258" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A63" s="166" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B63" s="166" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F63" s="276" t="s">
         <v>415</v>
       </c>
       <c r="G63" s="259" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F64" s="278" t="s">
         <v>406</v>
       </c>
       <c r="G64" s="258" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1">
       <c r="A65" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F65" s="279" t="s">
         <v>403</v>
       </c>
-      <c r="G65" s="326" t="s">
-        <v>794</v>
+      <c r="G65" s="284" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1">
       <c r="A66" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F66" s="279" t="s">
         <v>404</v>
       </c>
-      <c r="G66" s="326" t="s">
+      <c r="G66" s="284" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A67" s="166" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B67" s="166" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>297</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F67" s="280" t="s">
         <v>405</v>
@@ -7708,16 +7701,14 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.125" style="69" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="69" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="69" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="69" customWidth="1"/>
     <col min="5" max="5" width="21.125" style="69" customWidth="1"/>
     <col min="6" max="6" width="28.125" style="69" customWidth="1"/>
     <col min="7" max="7" width="62.875" style="69" customWidth="1"/>
@@ -7725,8 +7716,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="301" t="s">
-        <v>726</v>
+      <c r="A1" s="281" t="s">
+        <v>724</v>
       </c>
       <c r="B1" s="150" t="s">
         <v>269</v>
@@ -7833,160 +7824,163 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="281" t="s">
+    <row r="9" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A9" s="322" t="s">
         <v>694</v>
       </c>
-      <c r="B9" s="282" t="s">
+      <c r="B9" s="323" t="s">
         <v>695</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="323" t="s">
         <v>696</v>
       </c>
-      <c r="D9" s="282" t="s">
+      <c r="D9" s="323" t="s">
         <v>697</v>
       </c>
-      <c r="E9" s="282" t="s">
+      <c r="E9" s="323" t="s">
         <v>698</v>
       </c>
-      <c r="F9" s="289" t="s">
+      <c r="F9" s="324" t="s">
         <v>699</v>
       </c>
-      <c r="G9" s="171" t="s">
+      <c r="G9" s="325" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="283" t="s">
+      <c r="A10" s="326" t="s">
         <v>700</v>
       </c>
-      <c r="B10" s="284"/>
-      <c r="C10" s="285" t="s">
+      <c r="B10" s="319"/>
+      <c r="C10" s="327" t="s">
         <v>703</v>
       </c>
-      <c r="D10" s="284"/>
-      <c r="E10" s="284"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="171"/>
+      <c r="D10" s="319"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="325"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="283" t="s">
+      <c r="A11" s="326" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="284"/>
-      <c r="C11" s="285" t="s">
+      <c r="B11" s="319"/>
+      <c r="C11" s="327" t="s">
         <v>708</v>
       </c>
-      <c r="D11" s="284"/>
-      <c r="E11" s="284"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="292" t="s">
+      <c r="D11" s="319"/>
+      <c r="E11" s="319"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="328" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="283" t="s">
+      <c r="A12" s="326" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="285" t="s">
+      <c r="B12" s="327" t="s">
         <v>702</v>
       </c>
-      <c r="C12" s="285" t="s">
+      <c r="C12" s="327" t="s">
         <v>713</v>
       </c>
-      <c r="D12" s="286" t="s">
+      <c r="D12" s="319" t="s">
         <v>704</v>
       </c>
-      <c r="E12" s="287" t="s">
+      <c r="E12" s="329" t="s">
         <v>705</v>
       </c>
-      <c r="F12" s="291" t="s">
+      <c r="F12" s="330" t="s">
         <v>706</v>
       </c>
-      <c r="G12" s="292" t="s">
+      <c r="G12" s="328" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="283" t="s">
+      <c r="A13" s="326" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="327" t="s">
         <v>707</v>
       </c>
-      <c r="D13" s="286" t="s">
+      <c r="C13" s="331"/>
+      <c r="D13" s="319" t="s">
         <v>709</v>
       </c>
-      <c r="E13" s="287" t="s">
+      <c r="E13" s="329" t="s">
         <v>710</v>
       </c>
-      <c r="F13" s="291" t="s">
+      <c r="F13" s="330" t="s">
         <v>711</v>
       </c>
-      <c r="G13" s="292" t="s">
+      <c r="G13" s="328" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="283" t="s">
+    <row r="14" spans="1:7" ht="23.25">
+      <c r="A14" s="326" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="285" t="s">
+      <c r="B14" s="327" t="s">
         <v>712</v>
       </c>
-      <c r="D14" s="286" t="s">
+      <c r="C14" s="332"/>
+      <c r="D14" s="319" t="s">
         <v>529</v>
       </c>
-      <c r="E14" s="287" t="s">
+      <c r="E14" s="329" t="s">
         <v>714</v>
       </c>
-      <c r="F14" s="291" t="s">
+      <c r="F14" s="330" t="s">
         <v>715</v>
       </c>
-      <c r="G14" s="293" t="s">
+      <c r="G14" s="333" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="294" t="s">
+      <c r="A15" s="334" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="295" t="s">
+      <c r="B15" s="335" t="s">
         <v>716</v>
       </c>
-      <c r="C15" s="295" t="s">
-        <v>724</v>
-      </c>
-      <c r="D15" s="296" t="s">
+      <c r="C15" s="335" t="s">
+        <v>800</v>
+      </c>
+      <c r="D15" s="336" t="s">
         <v>717</v>
       </c>
-      <c r="E15" s="297" t="s">
+      <c r="E15" s="337" t="s">
         <v>718</v>
       </c>
-      <c r="F15" s="298" t="s">
+      <c r="F15" s="338" t="s">
         <v>714</v>
       </c>
-      <c r="G15" s="299" t="s">
+      <c r="G15" s="339" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="288"/>
-      <c r="B16" s="285" t="s">
+      <c r="A16" s="321"/>
+      <c r="B16" s="327" t="s">
         <v>719</v>
       </c>
-      <c r="C16" s="300" t="s">
-        <v>725</v>
-      </c>
-      <c r="D16" s="286" t="s">
+      <c r="C16" s="340" t="s">
+        <v>801</v>
+      </c>
+      <c r="D16" s="319" t="s">
         <v>720</v>
       </c>
-      <c r="E16" s="287" t="s">
+      <c r="E16" s="329" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="285" t="s">
+      <c r="F16" s="327" t="s">
         <v>721</v>
       </c>
+      <c r="G16" s="332"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17"/>
@@ -8079,7 +8073,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="311" t="s">
         <v>562</v>
       </c>
       <c r="B1" s="246" t="s">
@@ -8088,22 +8082,22 @@
       <c r="C1" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="316" t="s">
+      <c r="D1" s="311" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="316" t="s">
+      <c r="E1" s="311" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="316" t="s">
+      <c r="F1" s="311" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="316" t="s">
+      <c r="G1" s="311" t="s">
         <v>567</v>
       </c>
       <c r="H1" s="246" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="316" t="s">
+      <c r="I1" s="311" t="s">
         <v>569</v>
       </c>
       <c r="J1" s="246" t="s">
@@ -8115,53 +8109,53 @@
       <c r="L1" s="246" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="316" t="s">
+      <c r="M1" s="311" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="316" t="s">
+      <c r="N1" s="311" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="316" t="s">
+      <c r="O1" s="311" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="316" t="s">
+      <c r="P1" s="311" t="s">
         <v>575</v>
       </c>
       <c r="Q1" s="246" t="s">
         <v>576</v>
       </c>
-      <c r="R1" s="316" t="s">
+      <c r="R1" s="311" t="s">
         <v>577</v>
       </c>
-      <c r="S1" s="316" t="s">
+      <c r="S1" s="311" t="s">
         <v>578</v>
       </c>
-      <c r="T1" s="316" t="s">
+      <c r="T1" s="311" t="s">
         <v>579</v>
       </c>
-      <c r="U1" s="316" t="s">
+      <c r="U1" s="311" t="s">
         <v>580</v>
       </c>
-      <c r="V1" s="316" t="s">
+      <c r="V1" s="311" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="317"/>
+      <c r="A2" s="312"/>
       <c r="B2" s="247" t="s">
         <v>581</v>
       </c>
       <c r="C2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
       <c r="H2" s="247" t="s">
         <v>583</v>
       </c>
-      <c r="I2" s="317"/>
+      <c r="I2" s="312"/>
       <c r="J2" s="247" t="s">
         <v>584</v>
       </c>
@@ -8171,77 +8165,80 @@
       <c r="L2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="317"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
       <c r="Q2" s="247" t="s">
         <v>586</v>
       </c>
-      <c r="R2" s="317"/>
-      <c r="S2" s="317"/>
-      <c r="T2" s="317"/>
-      <c r="U2" s="317"/>
-      <c r="V2" s="317"/>
+      <c r="R2" s="312"/>
+      <c r="S2" s="312"/>
+      <c r="T2" s="312"/>
+      <c r="U2" s="312"/>
+      <c r="V2" s="312"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="313" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="320"/>
-      <c r="N3" s="318" t="s">
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="314"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="313" t="s">
         <v>588</v>
       </c>
-      <c r="O3" s="319"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="319"/>
-      <c r="S3" s="319"/>
-      <c r="T3" s="320"/>
-      <c r="U3" s="318" t="s">
+      <c r="O3" s="314"/>
+      <c r="P3" s="314"/>
+      <c r="Q3" s="314"/>
+      <c r="R3" s="314"/>
+      <c r="S3" s="314"/>
+      <c r="T3" s="315"/>
+      <c r="U3" s="313" t="s">
         <v>589</v>
       </c>
-      <c r="V3" s="320"/>
+      <c r="V3" s="315"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="321"/>
-      <c r="B4" s="322"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="323"/>
-      <c r="N4" s="321"/>
-      <c r="O4" s="322"/>
-      <c r="P4" s="322"/>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="322"/>
-      <c r="S4" s="322"/>
-      <c r="T4" s="323"/>
-      <c r="U4" s="321" t="s">
+      <c r="A4" s="316"/>
+      <c r="B4" s="317"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="317"/>
+      <c r="H4" s="317"/>
+      <c r="I4" s="317"/>
+      <c r="J4" s="317"/>
+      <c r="K4" s="317"/>
+      <c r="L4" s="317"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="316"/>
+      <c r="O4" s="317"/>
+      <c r="P4" s="317"/>
+      <c r="Q4" s="317"/>
+      <c r="R4" s="317"/>
+      <c r="S4" s="317"/>
+      <c r="T4" s="318"/>
+      <c r="U4" s="316" t="s">
         <v>590</v>
       </c>
-      <c r="V4" s="323"/>
+      <c r="V4" s="318"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
@@ -8258,9 +8255,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8275,9 +8269,9 @@
   </sheetPr>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8307,10 +8301,10 @@
         <v>691</v>
       </c>
       <c r="C1" s="211" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D1" s="228" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E1" s="212" t="s">
         <v>547</v>
@@ -8354,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="258" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>670</v>
@@ -8397,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="161" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D3" s="76" t="s">
         <v>683</v>
@@ -8423,8 +8417,8 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="330" t="s">
-        <v>732</v>
+      <c r="C4" s="288" t="s">
+        <v>730</v>
       </c>
       <c r="D4" s="80" t="s">
         <v>684</v>
@@ -8451,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="259" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>677</v>
@@ -8478,7 +8472,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="258" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D6" s="81" t="s">
         <v>682</v>
@@ -8520,8 +8514,8 @@
       <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="324" t="s">
-        <v>734</v>
+      <c r="C7" s="282" t="s">
+        <v>732</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>681</v>
@@ -8547,7 +8541,7 @@
       <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="324" t="s">
+      <c r="C8" s="282" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="80" t="s">
@@ -8602,7 +8596,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="258" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>672</v>
@@ -8644,7 +8638,7 @@
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="324" t="s">
+      <c r="C11" s="282" t="s">
         <v>601</v>
       </c>
       <c r="D11" s="80" t="s">
@@ -8671,7 +8665,7 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="324" t="s">
+      <c r="C12" s="282" t="s">
         <v>602</v>
       </c>
       <c r="D12" s="80" t="s">
@@ -8698,7 +8692,7 @@
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="324" t="s">
+      <c r="C13" s="282" t="s">
         <v>603</v>
       </c>
       <c r="D13" s="80" t="s">
@@ -8726,7 +8720,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="259" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>424</v>
@@ -8753,7 +8747,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="258" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D15" s="81" t="s">
         <v>673</v>
@@ -8795,8 +8789,8 @@
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="324" t="s">
-        <v>743</v>
+      <c r="C16" s="282" t="s">
+        <v>741</v>
       </c>
       <c r="D16" s="80" t="s">
         <v>687</v>
@@ -8850,7 +8844,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="258" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D18" s="248" t="s">
         <v>669</v>
@@ -8896,7 +8890,7 @@
       <c r="B19" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="324" t="s">
+      <c r="C19" s="282" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="249" t="s">
@@ -8943,8 +8937,8 @@
       <c r="B20" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="324" t="s">
-        <v>745</v>
+      <c r="C20" s="282" t="s">
+        <v>743</v>
       </c>
       <c r="D20" s="249" t="s">
         <v>598</v>
@@ -8990,7 +8984,7 @@
       <c r="B21" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="331" t="s">
+      <c r="C21" s="289" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="251" t="s">
@@ -9038,7 +9032,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="258" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D22" s="81" t="s">
         <v>674</v>
@@ -9080,8 +9074,8 @@
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="324" t="s">
-        <v>746</v>
+      <c r="C23" s="282" t="s">
+        <v>744</v>
       </c>
       <c r="D23" s="80" t="s">
         <v>418</v>
@@ -9135,7 +9129,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="258" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D25" s="81" t="s">
         <v>671</v>
@@ -9177,8 +9171,8 @@
       <c r="B26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="324" t="s">
-        <v>749</v>
+      <c r="C26" s="282" t="s">
+        <v>747</v>
       </c>
       <c r="D26" s="80" t="s">
         <v>425</v>
@@ -9223,45 +9217,45 @@
       <c r="O27" s="166"/>
     </row>
     <row r="28" spans="1:15" s="210" customFormat="1" ht="27">
-      <c r="A28" s="332" t="s">
+      <c r="A28" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="333" t="s">
+      <c r="B28" s="291" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="258" t="s">
-        <v>750</v>
-      </c>
-      <c r="D28" s="334" t="s">
+        <v>748</v>
+      </c>
+      <c r="D28" s="292" t="s">
         <v>671</v>
       </c>
-      <c r="E28" s="335" t="s">
+      <c r="E28" s="293" t="s">
         <v>629</v>
       </c>
-      <c r="F28" s="335"/>
-      <c r="G28" s="335"/>
-      <c r="H28" s="335" t="s">
+      <c r="F28" s="293"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="293" t="s">
         <v>541</v>
       </c>
-      <c r="I28" s="336" t="s">
+      <c r="I28" s="294" t="s">
         <v>557</v>
       </c>
-      <c r="J28" s="335" t="s">
+      <c r="J28" s="293" t="s">
         <v>542</v>
       </c>
-      <c r="K28" s="335" t="s">
+      <c r="K28" s="293" t="s">
         <v>543</v>
       </c>
-      <c r="L28" s="337" t="s">
+      <c r="L28" s="295" t="s">
         <v>530</v>
       </c>
-      <c r="M28" s="338" t="s">
+      <c r="M28" s="296" t="s">
         <v>534</v>
       </c>
-      <c r="N28" s="338" t="s">
+      <c r="N28" s="296" t="s">
         <v>535</v>
       </c>
-      <c r="O28" s="337" t="s">
+      <c r="O28" s="295" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9273,7 +9267,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="259" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D29" s="242"/>
       <c r="E29" s="166"/>
@@ -9296,7 +9290,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="258" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D30" s="81" t="s">
         <v>671</v>
@@ -9338,7 +9332,7 @@
       <c r="B31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="324" t="s">
+      <c r="C31" s="282" t="s">
         <v>283</v>
       </c>
       <c r="D31" s="80" t="s">
@@ -9365,7 +9359,7 @@
       <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="331" t="s">
+      <c r="C32" s="289" t="s">
         <v>660</v>
       </c>
       <c r="D32" s="79" t="s">
@@ -9393,7 +9387,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="258" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D33" s="81" t="s">
         <v>671</v>
@@ -9435,7 +9429,7 @@
       <c r="B34" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="324" t="s">
+      <c r="C34" s="282" t="s">
         <v>285</v>
       </c>
       <c r="D34" s="80" t="s">
@@ -9474,7 +9468,7 @@
       <c r="B35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="324" t="s">
+      <c r="C35" s="282" t="s">
         <v>286</v>
       </c>
       <c r="D35" s="80" t="s">
@@ -9514,7 +9508,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="259" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D36" s="243" t="s">
         <v>429</v>
@@ -9553,7 +9547,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="258" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D37" s="81" t="s">
         <v>671</v>
@@ -9595,8 +9589,8 @@
       <c r="B38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="324" t="s">
-        <v>756</v>
+      <c r="C38" s="282" t="s">
+        <v>754</v>
       </c>
       <c r="D38" s="80" t="s">
         <v>420</v>
@@ -9634,7 +9628,7 @@
       <c r="B39" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="324" t="s">
+      <c r="C39" s="282" t="s">
         <v>416</v>
       </c>
       <c r="D39" s="80" t="s">
@@ -9674,7 +9668,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="259" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D40" s="79" t="s">
         <v>431</v>
@@ -9713,7 +9707,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="258" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D41" s="81" t="s">
         <v>671</v>
@@ -9795,7 +9789,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="258" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D43" s="81" t="s">
         <v>671</v>
@@ -9837,7 +9831,7 @@
       <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="324" t="s">
+      <c r="C44" s="282" t="s">
         <v>659</v>
       </c>
       <c r="D44" s="80" t="s">
@@ -9877,7 +9871,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="259" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D45" s="264" t="s">
         <v>665</v>
@@ -9916,7 +9910,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="258" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D46" s="81" t="s">
         <v>671</v>
@@ -9959,7 +9953,7 @@
         <v>58</v>
       </c>
       <c r="C47" s="259" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D47" s="79" t="s">
         <v>433</v>
@@ -9998,7 +9992,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="258" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D48" s="81" t="s">
         <v>671</v>
@@ -10040,8 +10034,8 @@
       <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="326" t="s">
-        <v>762</v>
+      <c r="C49" s="284" t="s">
+        <v>760</v>
       </c>
       <c r="D49" s="265" t="s">
         <v>434</v>
@@ -10079,8 +10073,8 @@
       <c r="B50" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="327" t="s">
-        <v>763</v>
+      <c r="C50" s="285" t="s">
+        <v>761</v>
       </c>
       <c r="D50" s="79" t="s">
         <v>663</v>
@@ -10119,7 +10113,7 @@
         <v>62</v>
       </c>
       <c r="C51" s="258" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D51" s="81" t="s">
         <v>671</v>
@@ -10162,7 +10156,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="258" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D52" s="81" t="s">
         <v>435</v>
@@ -10201,7 +10195,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="258" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D53" s="81" t="s">
         <v>436</v>
@@ -10240,7 +10234,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="259" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D54" s="79" t="s">
         <v>437</v>
@@ -10279,7 +10273,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="258" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D55" s="81" t="s">
         <v>671</v>
@@ -10321,8 +10315,8 @@
       <c r="B56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="326" t="s">
-        <v>794</v>
+      <c r="C56" s="284" t="s">
+        <v>792</v>
       </c>
       <c r="D56" s="244" t="s">
         <v>438</v>
@@ -10356,7 +10350,7 @@
       <c r="B57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="326" t="s">
+      <c r="C57" s="284" t="s">
         <v>407</v>
       </c>
       <c r="D57" s="244" t="s">
@@ -10458,60 +10452,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="297" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
-      <c r="K1" s="302"/>
-      <c r="L1" s="302"/>
-      <c r="M1" s="302"/>
-      <c r="N1" s="302"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
+      <c r="N1" s="297"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="298" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="298"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="299" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="304" t="s">
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="299" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="305"/>
-      <c r="J3" s="305"/>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="305"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="300"/>
+      <c r="K3" s="300"/>
+      <c r="L3" s="300"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="300"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
@@ -11702,7 +11696,7 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -11772,7 +11766,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="96" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E3" s="90"/>
       <c r="F3" s="90"/>
@@ -11789,7 +11783,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -11806,7 +11800,7 @@
         <v>135</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E5" s="90"/>
       <c r="F5" s="90"/>
@@ -11823,7 +11817,7 @@
         <v>135</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
@@ -16324,60 +16318,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="297" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
-      <c r="K1" s="302"/>
-      <c r="L1" s="302"/>
-      <c r="M1" s="302"/>
-      <c r="N1" s="302"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
+      <c r="N1" s="297"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="298" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="298"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="299" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="304" t="s">
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="299" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="305"/>
-      <c r="J3" s="305"/>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="305"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="300"/>
+      <c r="K3" s="300"/>
+      <c r="L3" s="300"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="300"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
@@ -18081,34 +18075,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="302" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="307" t="s">
+      <c r="B1" s="302" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="302" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="309" t="s">
+      <c r="D1" s="304" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="309"/>
-      <c r="F1" s="307" t="s">
+      <c r="E1" s="304"/>
+      <c r="F1" s="302" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="308"/>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
+      <c r="A2" s="303"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
       <c r="D2" s="125" t="s">
         <v>221</v>
       </c>
       <c r="E2" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="308"/>
+      <c r="F2" s="303"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="126" t="s">
@@ -18369,10 +18363,10 @@
       <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="311" t="s">
+      <c r="B3" s="306" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="311"/>
+      <c r="C3" s="306"/>
       <c r="D3" s="120" t="s">
         <v>390</v>
       </c>
@@ -18390,10 +18384,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="312" t="s">
+      <c r="B4" s="307" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="313"/>
+      <c r="C4" s="308"/>
       <c r="D4" s="123" t="s">
         <v>389</v>
       </c>
@@ -18411,7 +18405,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="314" t="s">
+      <c r="B5" s="309" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="140" t="s">
@@ -18432,7 +18426,7 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="315"/>
+      <c r="B6" s="310"/>
       <c r="C6" s="140" t="s">
         <v>393</v>
       </c>
@@ -18471,10 +18465,10 @@
       <c r="H8" s="149"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="311" t="s">
+      <c r="B10" s="306" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="311"/>
+      <c r="C10" s="306"/>
       <c r="D10" s="120" t="s">
         <v>378</v>
       </c>
@@ -18492,10 +18486,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="310" t="s">
+      <c r="B11" s="305" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="310"/>
+      <c r="C11" s="305"/>
       <c r="D11" s="109" t="s">
         <v>372</v>
       </c>
@@ -18513,10 +18507,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="310" t="s">
+      <c r="B12" s="305" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="310"/>
+      <c r="C12" s="305"/>
       <c r="D12" s="109" t="s">
         <v>370</v>
       </c>
@@ -18534,10 +18528,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="310" t="s">
+      <c r="B13" s="305" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="310"/>
+      <c r="C13" s="305"/>
       <c r="D13" s="109" t="s">
         <v>366</v>
       </c>
@@ -18553,10 +18547,10 @@
       <c r="H13" s="143"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="310" t="s">
+      <c r="B14" s="305" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="310"/>
+      <c r="C14" s="305"/>
       <c r="D14" s="109" t="s">
         <v>364</v>
       </c>
@@ -18574,10 +18568,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="310" t="s">
+      <c r="B15" s="305" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="310"/>
+      <c r="C15" s="305"/>
       <c r="D15" s="119"/>
       <c r="E15" s="118" t="s">
         <v>361</v>
@@ -18591,10 +18585,10 @@
       <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="310" t="s">
+      <c r="B16" s="305" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="310"/>
+      <c r="C16" s="305"/>
       <c r="D16" s="109" t="s">
         <v>394</v>
       </c>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="809">
   <si>
     <t>아카이빙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2943,10 +2943,6 @@
   </si>
   <si>
     <t>개별사업</t>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3428,11 +3424,43 @@
     <t>단위과제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>경기도 문화정책과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 문화쳬육관광국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기문화재단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화예술본부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="64">
     <font>
       <sz val="11"/>
@@ -5637,72 +5665,6 @@
     <xf numFmtId="0" fontId="5" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5762,6 +5724,72 @@
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -5913,6 +5941,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5947,6 +5976,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6122,13 +6152,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
       <selection pane="bottomLeft"/>
@@ -6152,19 +6182,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="164" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="286" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B1" s="286" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C1" s="286" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D1" s="286" t="s">
+        <v>732</v>
+      </c>
+      <c r="E1" s="286" t="s">
         <v>733</v>
-      </c>
-      <c r="E1" s="286" t="s">
-        <v>734</v>
       </c>
       <c r="F1" s="286"/>
       <c r="G1" s="287"/>
@@ -6181,13 +6211,13 @@
         <v>690</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F2" s="273" t="s">
         <v>692</v>
       </c>
       <c r="G2" s="283" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H2" s="83" t="s">
         <v>8</v>
@@ -6195,168 +6225,168 @@
     </row>
     <row r="3" spans="1:14" ht="14.25" thickTop="1">
       <c r="A3" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B3" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F3" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="258" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B4" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="164" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F4" s="275" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="161" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B5" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="164" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F5" s="274" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="288" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A6" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B6" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D6" s="162" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="162" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F6" s="276" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="259" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M6" s="166"/>
       <c r="N6" s="166"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B7" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="164" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F7" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="258" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="164" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F8" s="274" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="282" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B9" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="164" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F9" s="274" t="s">
         <v>14</v>
@@ -6368,19 +6398,19 @@
     </row>
     <row r="10" spans="1:14" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A10" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B10" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="162" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F10" s="276" t="s">
         <v>15</v>
@@ -6391,42 +6421,42 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="164" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F11" s="277" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="258" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1">
       <c r="A12" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B12" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F12" s="274" t="s">
         <v>16</v>
@@ -6437,19 +6467,19 @@
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1">
       <c r="A13" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B13" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F13" s="274" t="s">
         <v>17</v>
@@ -6460,19 +6490,19 @@
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1">
       <c r="A14" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B14" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F14" s="274" t="s">
         <v>18</v>
@@ -6483,42 +6513,42 @@
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1">
       <c r="A15" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B15" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F15" s="274" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="282" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A16" s="166" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B16" s="166" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F16" s="276" t="s">
         <v>20</v>
@@ -6527,65 +6557,65 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="165" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F17" s="277" t="s">
         <v>69</v>
       </c>
       <c r="G17" s="258" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1">
       <c r="A18" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B18" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F18" s="274" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="282" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A19" s="166" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F19" s="276" t="s">
         <v>25</v>
@@ -6596,42 +6626,42 @@
     </row>
     <row r="20" spans="1:7" s="14" customFormat="1">
       <c r="A20" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B20" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C20" s="164" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="165" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F20" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="258" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1">
       <c r="A21" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B21" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F21" s="274" t="s">
         <v>30</v>
@@ -6642,42 +6672,42 @@
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
       <c r="A22" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F22" s="274" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="282" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
       <c r="A23" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B23" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F23" s="274" t="s">
         <v>32</v>
@@ -6686,19 +6716,19 @@
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B24" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F24" s="274" t="s">
         <v>33</v>
@@ -6707,19 +6737,19 @@
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
       <c r="A25" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B25" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F25" s="274" t="s">
         <v>34</v>
@@ -6728,19 +6758,19 @@
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A26" s="166" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B26" s="166" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F26" s="276" t="s">
         <v>35</v>
@@ -6751,65 +6781,65 @@
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1">
       <c r="A27" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B27" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="165" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F27" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="258" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B28" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="165" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F28" s="274" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="282" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A29" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B29" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="166" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F29" s="276" t="s">
         <v>27</v>
@@ -6820,65 +6850,65 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B30" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="165" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F30" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="258" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B31" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F31" s="274" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="282" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B32" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F32" s="274" t="s">
         <v>39</v>
@@ -6886,19 +6916,19 @@
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A33" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B33" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F33" s="276" t="s">
         <v>40</v>
@@ -6909,109 +6939,109 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B34" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="165" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F34" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="258" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F35" s="277" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G35" s="284" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A36" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B36" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C36" s="162" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D36" s="162" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="166" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F36" s="276" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G36" s="259"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B37" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="165" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F37" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="258" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B38" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F38" s="274" t="s">
         <v>43</v>
@@ -7022,19 +7052,19 @@
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A39" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B39" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F39" s="276" t="s">
         <v>3</v>
@@ -7045,42 +7075,42 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B40" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="165" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F40" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G40" s="258" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B41" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F41" s="274" t="s">
         <v>45</v>
@@ -7088,19 +7118,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B42" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F42" s="274" t="s">
         <v>46</v>
@@ -7111,19 +7141,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B43" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F43" s="274" t="s">
         <v>47</v>
@@ -7134,88 +7164,88 @@
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A44" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B44" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F44" s="276" t="s">
+        <v>750</v>
+      </c>
+      <c r="G44" s="259" t="s">
         <v>751</v>
-      </c>
-      <c r="G44" s="259" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B45" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="165" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F45" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G45" s="258" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B46" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F46" s="274" t="s">
         <v>49</v>
       </c>
       <c r="G46" s="282" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B47" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F47" s="274" t="s">
         <v>50</v>
@@ -7226,65 +7256,65 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A48" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B48" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F48" s="276" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="259" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B49" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E49" s="165" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F49" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G49" s="258" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B50" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F50" s="274" t="s">
         <v>53</v>
@@ -7295,19 +7325,19 @@
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A51" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B51" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F51" s="276" t="s">
         <v>54</v>
@@ -7318,42 +7348,42 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B52" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="164" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F52" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G52" s="258" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B53" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F53" s="274" t="s">
         <v>56</v>
@@ -7364,296 +7394,296 @@
     </row>
     <row r="54" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A54" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B54" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F54" s="276" t="s">
         <v>57</v>
       </c>
       <c r="G54" s="259" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I54" s="252"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B55" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="164" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F55" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G55" s="258" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A56" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B56" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F56" s="276" t="s">
         <v>59</v>
       </c>
       <c r="G56" s="259" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="14" customFormat="1">
       <c r="A57" s="165" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B57" s="165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="165" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F57" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="258" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1">
       <c r="A58" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="165" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F58" s="277" t="s">
         <v>61</v>
       </c>
       <c r="G58" s="284" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A59" s="162" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B59" s="162" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C59" s="162" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D59" s="162" t="s">
         <v>0</v>
       </c>
       <c r="E59" s="166" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F59" s="276" t="s">
         <v>605</v>
       </c>
       <c r="G59" s="285" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B60" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="165" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F60" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G60" s="258" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B61" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F61" s="274" t="s">
         <v>413</v>
       </c>
       <c r="G61" s="258" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="164" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F62" s="274" t="s">
         <v>414</v>
       </c>
       <c r="G62" s="258" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A63" s="166" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B63" s="166" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F63" s="276" t="s">
         <v>415</v>
       </c>
       <c r="G63" s="259" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F64" s="278" t="s">
         <v>406</v>
       </c>
       <c r="G64" s="258" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1">
       <c r="A65" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F65" s="279" t="s">
         <v>403</v>
       </c>
       <c r="G65" s="284" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1">
       <c r="A66" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F66" s="279" t="s">
         <v>404</v>
@@ -7664,19 +7694,19 @@
     </row>
     <row r="67" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A67" s="166" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B67" s="166" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>297</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F67" s="280" t="s">
         <v>405</v>
@@ -7694,14 +7724,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -7711,13 +7743,14 @@
     <col min="4" max="4" width="22.125" style="69" customWidth="1"/>
     <col min="5" max="5" width="21.125" style="69" customWidth="1"/>
     <col min="6" max="6" width="28.125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="62.875" style="69" customWidth="1"/>
-    <col min="8" max="16384" width="12.625" style="69"/>
+    <col min="7" max="7" width="37.375" style="69" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="69" customWidth="1"/>
+    <col min="9" max="16384" width="12.625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="281" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B1" s="150" t="s">
         <v>269</v>
@@ -7738,7 +7771,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="152" t="s">
         <v>278</v>
       </c>
@@ -7750,10 +7783,10 @@
         <v>402</v>
       </c>
       <c r="G2" s="108" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="153" t="s">
         <v>273</v>
       </c>
@@ -7774,7 +7807,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="153" t="s">
         <v>277</v>
       </c>
@@ -7795,7 +7828,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="153" t="s">
         <v>275</v>
       </c>
@@ -7810,177 +7843,199 @@
       </c>
       <c r="G5" s="73"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A9" s="322" t="s">
+    <row r="9" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A9" s="300" t="s">
         <v>694</v>
       </c>
-      <c r="B9" s="323" t="s">
+      <c r="B9" s="301" t="s">
         <v>695</v>
       </c>
-      <c r="C9" s="323" t="s">
+      <c r="C9" s="301" t="s">
         <v>696</v>
       </c>
-      <c r="D9" s="323" t="s">
+      <c r="D9" s="301" t="s">
         <v>697</v>
       </c>
-      <c r="E9" s="323" t="s">
+      <c r="E9" s="301" t="s">
         <v>698</v>
       </c>
-      <c r="F9" s="324" t="s">
+      <c r="F9" s="302" t="s">
         <v>699</v>
       </c>
-      <c r="G9" s="325" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="326" t="s">
+      <c r="G9" s="303" t="s">
+        <v>807</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="304" t="s">
         <v>700</v>
       </c>
-      <c r="B10" s="319"/>
-      <c r="C10" s="327" t="s">
+      <c r="B10" s="297"/>
+      <c r="C10" s="305" t="s">
         <v>703</v>
       </c>
-      <c r="D10" s="319"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="325"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="326" t="s">
+      <c r="D10" s="297"/>
+      <c r="E10" s="297"/>
+      <c r="F10" s="298" t="s">
+        <v>802</v>
+      </c>
+      <c r="G10" s="303"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="304" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="319"/>
-      <c r="C11" s="327" t="s">
+      <c r="B11" s="297"/>
+      <c r="C11" s="305" t="s">
         <v>708</v>
       </c>
-      <c r="D11" s="319"/>
-      <c r="E11" s="319"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="328" t="s">
+      <c r="D11" s="297"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="298" t="s">
+        <v>801</v>
+      </c>
+      <c r="G11" s="306" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="326" t="s">
+      <c r="H11" s="306" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="304" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="327" t="s">
+      <c r="B12" s="305" t="s">
         <v>702</v>
       </c>
-      <c r="C12" s="327" t="s">
+      <c r="C12" s="305" t="s">
         <v>713</v>
       </c>
-      <c r="D12" s="319" t="s">
+      <c r="D12" s="297" t="s">
         <v>704</v>
       </c>
-      <c r="E12" s="329" t="s">
+      <c r="E12" s="307" t="s">
         <v>705</v>
       </c>
-      <c r="F12" s="330" t="s">
-        <v>706</v>
-      </c>
-      <c r="G12" s="328" t="s">
+      <c r="F12" s="308" t="s">
+        <v>803</v>
+      </c>
+      <c r="G12" s="306" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="326" t="s">
+      <c r="H12" s="306" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="86" customFormat="1" ht="23.25">
+      <c r="A13" s="304" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="327" t="s">
+      <c r="B13" s="305" t="s">
         <v>707</v>
       </c>
-      <c r="C13" s="331"/>
-      <c r="D13" s="319" t="s">
+      <c r="C13" s="309"/>
+      <c r="D13" s="297" t="s">
         <v>709</v>
       </c>
-      <c r="E13" s="329" t="s">
+      <c r="E13" s="307" t="s">
         <v>710</v>
       </c>
-      <c r="F13" s="330" t="s">
-        <v>711</v>
-      </c>
-      <c r="G13" s="328" t="s">
+      <c r="F13" s="308" t="s">
+        <v>804</v>
+      </c>
+      <c r="G13" s="306" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.25">
-      <c r="A14" s="326" t="s">
+      <c r="H13" s="306" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="23.25">
+      <c r="A14" s="304" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="327" t="s">
+      <c r="B14" s="305" t="s">
         <v>712</v>
       </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="319" t="s">
+      <c r="C14" s="310"/>
+      <c r="D14" s="297" t="s">
         <v>529</v>
       </c>
-      <c r="E14" s="329" t="s">
+      <c r="E14" s="307" t="s">
         <v>714</v>
       </c>
-      <c r="F14" s="330" t="s">
+      <c r="F14" s="308" t="s">
         <v>715</v>
       </c>
-      <c r="G14" s="333" t="s">
+      <c r="G14" s="311" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="334" t="s">
+      <c r="H14" s="270" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="312" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="335" t="s">
+      <c r="B15" s="313" t="s">
         <v>716</v>
       </c>
-      <c r="C15" s="335" t="s">
+      <c r="C15" s="313" t="s">
+        <v>799</v>
+      </c>
+      <c r="D15" s="314" t="s">
+        <v>717</v>
+      </c>
+      <c r="E15" s="315" t="s">
+        <v>718</v>
+      </c>
+      <c r="F15" s="316" t="s">
+        <v>714</v>
+      </c>
+      <c r="G15" s="317" t="s">
+        <v>721</v>
+      </c>
+      <c r="H15" s="270" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A16" s="299"/>
+      <c r="B16" s="305" t="s">
+        <v>719</v>
+      </c>
+      <c r="C16" s="318" t="s">
         <v>800</v>
       </c>
-      <c r="D15" s="336" t="s">
-        <v>717</v>
-      </c>
-      <c r="E15" s="337" t="s">
-        <v>718</v>
-      </c>
-      <c r="F15" s="338" t="s">
-        <v>714</v>
-      </c>
-      <c r="G15" s="339" t="s">
+      <c r="D16" s="297" t="s">
+        <v>720</v>
+      </c>
+      <c r="E16" s="307" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="305" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="321"/>
-      <c r="B16" s="327" t="s">
-        <v>719</v>
-      </c>
-      <c r="C16" s="340" t="s">
-        <v>801</v>
-      </c>
-      <c r="D16" s="319" t="s">
-        <v>720</v>
-      </c>
-      <c r="E16" s="329" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="327" t="s">
-        <v>721</v>
-      </c>
-      <c r="G16" s="332"/>
+      <c r="G16" s="310"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17"/>
@@ -8060,7 +8115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -8073,7 +8128,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="333" t="s">
         <v>562</v>
       </c>
       <c r="B1" s="246" t="s">
@@ -8082,22 +8137,22 @@
       <c r="C1" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="311" t="s">
+      <c r="D1" s="333" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="311" t="s">
+      <c r="E1" s="333" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="311" t="s">
+      <c r="F1" s="333" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="311" t="s">
+      <c r="G1" s="333" t="s">
         <v>567</v>
       </c>
       <c r="H1" s="246" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="311" t="s">
+      <c r="I1" s="333" t="s">
         <v>569</v>
       </c>
       <c r="J1" s="246" t="s">
@@ -8109,53 +8164,53 @@
       <c r="L1" s="246" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="311" t="s">
+      <c r="M1" s="333" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="311" t="s">
+      <c r="N1" s="333" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="311" t="s">
+      <c r="O1" s="333" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="311" t="s">
+      <c r="P1" s="333" t="s">
         <v>575</v>
       </c>
       <c r="Q1" s="246" t="s">
         <v>576</v>
       </c>
-      <c r="R1" s="311" t="s">
+      <c r="R1" s="333" t="s">
         <v>577</v>
       </c>
-      <c r="S1" s="311" t="s">
+      <c r="S1" s="333" t="s">
         <v>578</v>
       </c>
-      <c r="T1" s="311" t="s">
+      <c r="T1" s="333" t="s">
         <v>579</v>
       </c>
-      <c r="U1" s="311" t="s">
+      <c r="U1" s="333" t="s">
         <v>580</v>
       </c>
-      <c r="V1" s="311" t="s">
+      <c r="V1" s="333" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="312"/>
+      <c r="A2" s="334"/>
       <c r="B2" s="247" t="s">
         <v>581</v>
       </c>
       <c r="C2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
       <c r="H2" s="247" t="s">
         <v>583</v>
       </c>
-      <c r="I2" s="312"/>
+      <c r="I2" s="334"/>
       <c r="J2" s="247" t="s">
         <v>584</v>
       </c>
@@ -8165,82 +8220,77 @@
       <c r="L2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="312"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
       <c r="Q2" s="247" t="s">
         <v>586</v>
       </c>
-      <c r="R2" s="312"/>
-      <c r="S2" s="312"/>
-      <c r="T2" s="312"/>
-      <c r="U2" s="312"/>
-      <c r="V2" s="312"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
+      <c r="T2" s="334"/>
+      <c r="U2" s="334"/>
+      <c r="V2" s="334"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="313" t="s">
+      <c r="A3" s="335" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="314"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="313" t="s">
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="335" t="s">
         <v>588</v>
       </c>
-      <c r="O3" s="314"/>
-      <c r="P3" s="314"/>
-      <c r="Q3" s="314"/>
-      <c r="R3" s="314"/>
-      <c r="S3" s="314"/>
-      <c r="T3" s="315"/>
-      <c r="U3" s="313" t="s">
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="337"/>
+      <c r="U3" s="335" t="s">
         <v>589</v>
       </c>
-      <c r="V3" s="315"/>
+      <c r="V3" s="337"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="316"/>
-      <c r="B4" s="317"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="317"/>
-      <c r="E4" s="317"/>
-      <c r="F4" s="317"/>
-      <c r="G4" s="317"/>
-      <c r="H4" s="317"/>
-      <c r="I4" s="317"/>
-      <c r="J4" s="317"/>
-      <c r="K4" s="317"/>
-      <c r="L4" s="317"/>
-      <c r="M4" s="318"/>
-      <c r="N4" s="316"/>
-      <c r="O4" s="317"/>
-      <c r="P4" s="317"/>
-      <c r="Q4" s="317"/>
-      <c r="R4" s="317"/>
-      <c r="S4" s="317"/>
-      <c r="T4" s="318"/>
-      <c r="U4" s="316" t="s">
+      <c r="A4" s="338"/>
+      <c r="B4" s="339"/>
+      <c r="C4" s="339"/>
+      <c r="D4" s="339"/>
+      <c r="E4" s="339"/>
+      <c r="F4" s="339"/>
+      <c r="G4" s="339"/>
+      <c r="H4" s="339"/>
+      <c r="I4" s="339"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="339"/>
+      <c r="L4" s="339"/>
+      <c r="M4" s="340"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="339"/>
+      <c r="P4" s="339"/>
+      <c r="Q4" s="339"/>
+      <c r="R4" s="339"/>
+      <c r="S4" s="339"/>
+      <c r="T4" s="340"/>
+      <c r="U4" s="338" t="s">
         <v>590</v>
       </c>
-      <c r="V4" s="318"/>
+      <c r="V4" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
     <mergeCell ref="U3:V3"/>
@@ -8255,6 +8305,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8263,7 +8318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8301,10 +8356,10 @@
         <v>691</v>
       </c>
       <c r="C1" s="211" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D1" s="228" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E1" s="212" t="s">
         <v>547</v>
@@ -8348,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="258" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>670</v>
@@ -8391,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="161" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D3" s="76" t="s">
         <v>683</v>
@@ -8418,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="288" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D4" s="80" t="s">
         <v>684</v>
@@ -8445,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="259" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>677</v>
@@ -8472,7 +8527,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="258" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D6" s="81" t="s">
         <v>682</v>
@@ -8515,7 +8570,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="282" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>681</v>
@@ -8596,7 +8651,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="258" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>672</v>
@@ -8720,7 +8775,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="259" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>424</v>
@@ -8747,7 +8802,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="258" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D15" s="81" t="s">
         <v>673</v>
@@ -8790,7 +8845,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="282" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D16" s="80" t="s">
         <v>687</v>
@@ -8844,7 +8899,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="258" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D18" s="248" t="s">
         <v>669</v>
@@ -8938,7 +8993,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="282" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D20" s="249" t="s">
         <v>598</v>
@@ -9032,7 +9087,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="258" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D22" s="81" t="s">
         <v>674</v>
@@ -9075,7 +9130,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="282" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D23" s="80" t="s">
         <v>418</v>
@@ -9129,7 +9184,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="258" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D25" s="81" t="s">
         <v>671</v>
@@ -9172,7 +9227,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="282" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D26" s="80" t="s">
         <v>425</v>
@@ -9224,7 +9279,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="258" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D28" s="292" t="s">
         <v>671</v>
@@ -9267,7 +9322,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="259" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D29" s="242"/>
       <c r="E29" s="166"/>
@@ -9290,7 +9345,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="258" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D30" s="81" t="s">
         <v>671</v>
@@ -9387,7 +9442,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="258" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D33" s="81" t="s">
         <v>671</v>
@@ -9508,7 +9563,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="259" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D36" s="243" t="s">
         <v>429</v>
@@ -9547,7 +9602,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="258" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D37" s="81" t="s">
         <v>671</v>
@@ -9590,7 +9645,7 @@
         <v>48</v>
       </c>
       <c r="C38" s="282" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D38" s="80" t="s">
         <v>420</v>
@@ -9668,7 +9723,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="259" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D40" s="79" t="s">
         <v>431</v>
@@ -9707,7 +9762,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="258" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D41" s="81" t="s">
         <v>671</v>
@@ -9789,7 +9844,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="258" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D43" s="81" t="s">
         <v>671</v>
@@ -9871,7 +9926,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="259" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D45" s="264" t="s">
         <v>665</v>
@@ -9910,7 +9965,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="258" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D46" s="81" t="s">
         <v>671</v>
@@ -9953,7 +10008,7 @@
         <v>58</v>
       </c>
       <c r="C47" s="259" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D47" s="79" t="s">
         <v>433</v>
@@ -9992,7 +10047,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="258" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D48" s="81" t="s">
         <v>671</v>
@@ -10035,7 +10090,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="284" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D49" s="265" t="s">
         <v>434</v>
@@ -10074,7 +10129,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="285" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D50" s="79" t="s">
         <v>663</v>
@@ -10113,7 +10168,7 @@
         <v>62</v>
       </c>
       <c r="C51" s="258" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D51" s="81" t="s">
         <v>671</v>
@@ -10156,7 +10211,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="258" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D52" s="81" t="s">
         <v>435</v>
@@ -10195,7 +10250,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="258" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D53" s="81" t="s">
         <v>436</v>
@@ -10234,7 +10289,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="259" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D54" s="79" t="s">
         <v>437</v>
@@ -10273,7 +10328,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="258" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D55" s="81" t="s">
         <v>671</v>
@@ -10316,7 +10371,7 @@
         <v>213</v>
       </c>
       <c r="C56" s="284" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D56" s="244" t="s">
         <v>438</v>
@@ -10425,7 +10480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -10452,60 +10507,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="319" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
-      <c r="N1" s="297"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="320" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="320"/>
+      <c r="N2" s="320"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="299" t="s">
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="321" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="300"/>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="300"/>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
@@ -11690,7 +11745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -11766,7 +11821,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="96" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E3" s="90"/>
       <c r="F3" s="90"/>
@@ -11783,7 +11838,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -11800,7 +11855,7 @@
         <v>135</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E5" s="90"/>
       <c r="F5" s="90"/>
@@ -11817,7 +11872,7 @@
         <v>135</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
@@ -13131,7 +13186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -16288,7 +16343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -16318,60 +16373,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="319" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
-      <c r="N1" s="297"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="320" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="320"/>
+      <c r="N2" s="320"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="299" t="s">
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="321" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="300"/>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="300"/>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
@@ -18053,7 +18108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -18075,34 +18130,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="324" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="302" t="s">
+      <c r="B1" s="324" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="302" t="s">
+      <c r="C1" s="324" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="304" t="s">
+      <c r="D1" s="326" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="304"/>
-      <c r="F1" s="302" t="s">
+      <c r="E1" s="326"/>
+      <c r="F1" s="324" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="303"/>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
+      <c r="A2" s="325"/>
+      <c r="B2" s="325"/>
+      <c r="C2" s="325"/>
       <c r="D2" s="125" t="s">
         <v>221</v>
       </c>
       <c r="E2" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="303"/>
+      <c r="F2" s="325"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="126" t="s">
@@ -18338,7 +18393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -18363,10 +18418,10 @@
       <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="328" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="306"/>
+      <c r="C3" s="328"/>
       <c r="D3" s="120" t="s">
         <v>390</v>
       </c>
@@ -18384,10 +18439,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="307" t="s">
+      <c r="B4" s="329" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="308"/>
+      <c r="C4" s="330"/>
       <c r="D4" s="123" t="s">
         <v>389</v>
       </c>
@@ -18405,7 +18460,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="309" t="s">
+      <c r="B5" s="331" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="140" t="s">
@@ -18426,7 +18481,7 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="310"/>
+      <c r="B6" s="332"/>
       <c r="C6" s="140" t="s">
         <v>393</v>
       </c>
@@ -18465,10 +18520,10 @@
       <c r="H8" s="149"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="306" t="s">
+      <c r="B10" s="328" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="306"/>
+      <c r="C10" s="328"/>
       <c r="D10" s="120" t="s">
         <v>378</v>
       </c>
@@ -18486,10 +18541,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="305" t="s">
+      <c r="B11" s="327" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="305"/>
+      <c r="C11" s="327"/>
       <c r="D11" s="109" t="s">
         <v>372</v>
       </c>
@@ -18507,10 +18562,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="305" t="s">
+      <c r="B12" s="327" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="305"/>
+      <c r="C12" s="327"/>
       <c r="D12" s="109" t="s">
         <v>370</v>
       </c>
@@ -18528,10 +18583,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="305" t="s">
+      <c r="B13" s="327" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="305"/>
+      <c r="C13" s="327"/>
       <c r="D13" s="109" t="s">
         <v>366</v>
       </c>
@@ -18547,10 +18602,10 @@
       <c r="H13" s="143"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="305" t="s">
+      <c r="B14" s="327" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="305"/>
+      <c r="C14" s="327"/>
       <c r="D14" s="109" t="s">
         <v>364</v>
       </c>
@@ -18568,10 +18623,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="305" t="s">
+      <c r="B15" s="327" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="305"/>
+      <c r="C15" s="327"/>
       <c r="D15" s="119"/>
       <c r="E15" s="118" t="s">
         <v>361</v>
@@ -18585,10 +18640,10 @@
       <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="305" t="s">
+      <c r="B16" s="327" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="305"/>
+      <c r="C16" s="327"/>
       <c r="D16" s="109" t="s">
         <v>394</v>
       </c>
@@ -18719,7 +18774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="814">
   <si>
     <t>아카이빙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3454,6 +3454,38 @@
   </si>
   <si>
     <t>rere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예산과목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4877,7 +4909,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5767,30 +5799,31 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - 강조색1" xfId="30" builtinId="30" customBuiltin="1"/>
@@ -7729,10 +7762,11 @@
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7748,7 +7782,7 @@
     <col min="9" max="16384" width="12.625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="281" t="s">
         <v>723</v>
       </c>
@@ -7771,7 +7805,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="152" t="s">
         <v>278</v>
       </c>
@@ -7786,7 +7820,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="153" t="s">
         <v>273</v>
       </c>
@@ -7807,7 +7841,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="153" t="s">
         <v>277</v>
       </c>
@@ -7828,7 +7862,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="153" t="s">
         <v>275</v>
       </c>
@@ -7843,21 +7877,21 @@
       </c>
       <c r="G5" s="73"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:8" ht="26.25" customHeight="1">
+    <row r="9" spans="1:9" ht="26.25" customHeight="1">
       <c r="A9" s="300" t="s">
         <v>694</v>
       </c>
@@ -7882,8 +7916,11 @@
       <c r="H9" s="69" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I9" s="270" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="304" t="s">
         <v>700</v>
       </c>
@@ -7898,7 +7935,7 @@
       </c>
       <c r="G10" s="303"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="304" t="s">
         <v>701</v>
       </c>
@@ -7918,7 +7955,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="304" t="s">
         <v>278</v>
       </c>
@@ -7943,8 +7980,11 @@
       <c r="H12" s="306" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="86" customFormat="1" ht="23.25">
+      <c r="I12" s="69" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="86" customFormat="1" ht="12.75">
       <c r="A13" s="304" t="s">
         <v>273</v>
       </c>
@@ -7967,8 +8007,11 @@
       <c r="H13" s="306" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="23.25">
+      <c r="I13" s="341" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23.25">
       <c r="A14" s="304" t="s">
         <v>277</v>
       </c>
@@ -7991,8 +8034,11 @@
       <c r="H14" s="270" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I14" s="270" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="312" t="s">
         <v>275</v>
       </c>
@@ -8017,8 +8063,11 @@
       <c r="H15" s="270" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="29.25" customHeight="1">
+      <c r="I15" s="270" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29.25" customHeight="1">
       <c r="A16" s="299"/>
       <c r="B16" s="305" t="s">
         <v>719</v>
@@ -8128,7 +8177,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="339" t="s">
         <v>562</v>
       </c>
       <c r="B1" s="246" t="s">
@@ -8137,22 +8186,22 @@
       <c r="C1" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="333" t="s">
+      <c r="D1" s="339" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="333" t="s">
+      <c r="E1" s="339" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="333" t="s">
+      <c r="F1" s="339" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="333" t="s">
+      <c r="G1" s="339" t="s">
         <v>567</v>
       </c>
       <c r="H1" s="246" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="333" t="s">
+      <c r="I1" s="339" t="s">
         <v>569</v>
       </c>
       <c r="J1" s="246" t="s">
@@ -8164,53 +8213,53 @@
       <c r="L1" s="246" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="333" t="s">
+      <c r="M1" s="339" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="333" t="s">
+      <c r="N1" s="339" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="333" t="s">
+      <c r="O1" s="339" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="333" t="s">
+      <c r="P1" s="339" t="s">
         <v>575</v>
       </c>
       <c r="Q1" s="246" t="s">
         <v>576</v>
       </c>
-      <c r="R1" s="333" t="s">
+      <c r="R1" s="339" t="s">
         <v>577</v>
       </c>
-      <c r="S1" s="333" t="s">
+      <c r="S1" s="339" t="s">
         <v>578</v>
       </c>
-      <c r="T1" s="333" t="s">
+      <c r="T1" s="339" t="s">
         <v>579</v>
       </c>
-      <c r="U1" s="333" t="s">
+      <c r="U1" s="339" t="s">
         <v>580</v>
       </c>
-      <c r="V1" s="333" t="s">
+      <c r="V1" s="339" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="334"/>
+      <c r="A2" s="340"/>
       <c r="B2" s="247" t="s">
         <v>581</v>
       </c>
       <c r="C2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
       <c r="H2" s="247" t="s">
         <v>583</v>
       </c>
-      <c r="I2" s="334"/>
+      <c r="I2" s="340"/>
       <c r="J2" s="247" t="s">
         <v>584</v>
       </c>
@@ -8220,77 +8269,80 @@
       <c r="L2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
+      <c r="M2" s="340"/>
+      <c r="N2" s="340"/>
+      <c r="O2" s="340"/>
+      <c r="P2" s="340"/>
       <c r="Q2" s="247" t="s">
         <v>586</v>
       </c>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="334"/>
-      <c r="U2" s="334"/>
-      <c r="V2" s="334"/>
+      <c r="R2" s="340"/>
+      <c r="S2" s="340"/>
+      <c r="T2" s="340"/>
+      <c r="U2" s="340"/>
+      <c r="V2" s="340"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="333" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="337"/>
-      <c r="N3" s="335" t="s">
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="333" t="s">
         <v>588</v>
       </c>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="337"/>
-      <c r="U3" s="335" t="s">
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
+      <c r="T3" s="335"/>
+      <c r="U3" s="333" t="s">
         <v>589</v>
       </c>
-      <c r="V3" s="337"/>
+      <c r="V3" s="335"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="338"/>
-      <c r="B4" s="339"/>
-      <c r="C4" s="339"/>
-      <c r="D4" s="339"/>
-      <c r="E4" s="339"/>
-      <c r="F4" s="339"/>
-      <c r="G4" s="339"/>
-      <c r="H4" s="339"/>
-      <c r="I4" s="339"/>
-      <c r="J4" s="339"/>
-      <c r="K4" s="339"/>
-      <c r="L4" s="339"/>
-      <c r="M4" s="340"/>
-      <c r="N4" s="338"/>
-      <c r="O4" s="339"/>
-      <c r="P4" s="339"/>
-      <c r="Q4" s="339"/>
-      <c r="R4" s="339"/>
-      <c r="S4" s="339"/>
-      <c r="T4" s="340"/>
-      <c r="U4" s="338" t="s">
+      <c r="A4" s="336"/>
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="337"/>
+      <c r="J4" s="337"/>
+      <c r="K4" s="337"/>
+      <c r="L4" s="337"/>
+      <c r="M4" s="338"/>
+      <c r="N4" s="336"/>
+      <c r="O4" s="337"/>
+      <c r="P4" s="337"/>
+      <c r="Q4" s="337"/>
+      <c r="R4" s="337"/>
+      <c r="S4" s="337"/>
+      <c r="T4" s="338"/>
+      <c r="U4" s="336" t="s">
         <v>590</v>
       </c>
-      <c r="V4" s="340"/>
+      <c r="V4" s="338"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
     <mergeCell ref="U3:V3"/>
@@ -8307,9 +8359,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="825">
   <si>
     <t>아카이빙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3457,6 +3457,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>예산과목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목(개별사업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항(경기천년)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -3470,22 +3482,156 @@
       </rPr>
       <t>레벨</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예산과목</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문화예술본부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관(문화사업팀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>철</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단위과제세부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제세부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 문화정책과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기문화재단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기록관리기준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5757,6 +5903,7 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5799,6 +5946,12 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5817,13 +5970,6 @@
     <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - 강조색1" xfId="30" builtinId="30" customBuiltin="1"/>
@@ -7762,11 +7908,11 @@
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7779,10 +7925,12 @@
     <col min="6" max="6" width="28.125" style="69" customWidth="1"/>
     <col min="7" max="7" width="37.375" style="69" customWidth="1"/>
     <col min="8" max="8" width="32.5" style="69" customWidth="1"/>
-    <col min="9" max="16384" width="12.625" style="69"/>
+    <col min="9" max="9" width="18" style="69" customWidth="1"/>
+    <col min="10" max="10" width="17" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="12.625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="281" t="s">
         <v>723</v>
       </c>
@@ -7805,7 +7953,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="152" t="s">
         <v>278</v>
       </c>
@@ -7820,7 +7968,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="153" t="s">
         <v>273</v>
       </c>
@@ -7841,7 +7989,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="153" t="s">
         <v>277</v>
       </c>
@@ -7862,7 +8010,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="153" t="s">
         <v>275</v>
       </c>
@@ -7877,21 +8025,21 @@
       </c>
       <c r="G5" s="73"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:9" ht="26.25" customHeight="1">
+    <row r="9" spans="1:11" ht="26.25" customHeight="1">
       <c r="A9" s="300" t="s">
         <v>694</v>
       </c>
@@ -7917,10 +8065,16 @@
         <v>808</v>
       </c>
       <c r="I9" s="270" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+        <v>809</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>824</v>
+      </c>
+      <c r="K9" s="301" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="304" t="s">
         <v>700</v>
       </c>
@@ -7934,12 +8088,21 @@
         <v>802</v>
       </c>
       <c r="G10" s="303"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I10" s="270" t="s">
+        <v>822</v>
+      </c>
+      <c r="J10" s="270" t="s">
+        <v>815</v>
+      </c>
+      <c r="K10" s="297"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="304" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="297"/>
+      <c r="B11" s="305" t="s">
+        <v>702</v>
+      </c>
       <c r="C11" s="305" t="s">
         <v>708</v>
       </c>
@@ -7954,13 +8117,22 @@
       <c r="H11" s="306" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I11" s="270" t="s">
+        <v>823</v>
+      </c>
+      <c r="J11" s="270" t="s">
+        <v>816</v>
+      </c>
+      <c r="K11" s="305" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="304" t="s">
         <v>278</v>
       </c>
       <c r="B12" s="305" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C12" s="305" t="s">
         <v>713</v>
@@ -7981,15 +8153,21 @@
         <v>711</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="86" customFormat="1" ht="12.75">
+        <v>812</v>
+      </c>
+      <c r="J12" s="270" t="s">
+        <v>817</v>
+      </c>
+      <c r="K12" s="305" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="86" customFormat="1" ht="12.75">
       <c r="A13" s="304" t="s">
         <v>273</v>
       </c>
       <c r="B13" s="305" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C13" s="309"/>
       <c r="D13" s="297" t="s">
@@ -8007,16 +8185,22 @@
       <c r="H13" s="306" t="s">
         <v>715</v>
       </c>
-      <c r="I13" s="341" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="23.25">
+      <c r="I13" s="319" t="s">
+        <v>813</v>
+      </c>
+      <c r="J13" s="319" t="s">
+        <v>818</v>
+      </c>
+      <c r="K13" s="305" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="23.25">
       <c r="A14" s="304" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="305" t="s">
-        <v>712</v>
+      <c r="B14" s="313" t="s">
+        <v>716</v>
       </c>
       <c r="C14" s="310"/>
       <c r="D14" s="297" t="s">
@@ -8037,13 +8221,19 @@
       <c r="I14" s="270" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="J14" s="270" t="s">
+        <v>819</v>
+      </c>
+      <c r="K14" s="313" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="312" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="313" t="s">
-        <v>716</v>
+      <c r="B15" s="305" t="s">
+        <v>719</v>
       </c>
       <c r="C15" s="313" t="s">
         <v>799</v>
@@ -8066,12 +8256,15 @@
       <c r="I15" s="270" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="29.25" customHeight="1">
+      <c r="J15" s="270" t="s">
+        <v>820</v>
+      </c>
+      <c r="K15" s="305" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="29.25" customHeight="1">
       <c r="A16" s="299"/>
-      <c r="B16" s="305" t="s">
-        <v>719</v>
-      </c>
       <c r="C16" s="318" t="s">
         <v>800</v>
       </c>
@@ -8085,6 +8278,12 @@
         <v>721</v>
       </c>
       <c r="G16" s="310"/>
+      <c r="I16" s="69" t="s">
+        <v>814</v>
+      </c>
+      <c r="J16" s="270" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17"/>
@@ -8177,7 +8376,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="334" t="s">
         <v>562</v>
       </c>
       <c r="B1" s="246" t="s">
@@ -8186,22 +8385,22 @@
       <c r="C1" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="339" t="s">
+      <c r="D1" s="334" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="339" t="s">
+      <c r="E1" s="334" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="339" t="s">
+      <c r="F1" s="334" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="339" t="s">
+      <c r="G1" s="334" t="s">
         <v>567</v>
       </c>
       <c r="H1" s="246" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="339" t="s">
+      <c r="I1" s="334" t="s">
         <v>569</v>
       </c>
       <c r="J1" s="246" t="s">
@@ -8213,53 +8412,53 @@
       <c r="L1" s="246" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="339" t="s">
+      <c r="M1" s="334" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="339" t="s">
+      <c r="N1" s="334" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="339" t="s">
+      <c r="O1" s="334" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="339" t="s">
+      <c r="P1" s="334" t="s">
         <v>575</v>
       </c>
       <c r="Q1" s="246" t="s">
         <v>576</v>
       </c>
-      <c r="R1" s="339" t="s">
+      <c r="R1" s="334" t="s">
         <v>577</v>
       </c>
-      <c r="S1" s="339" t="s">
+      <c r="S1" s="334" t="s">
         <v>578</v>
       </c>
-      <c r="T1" s="339" t="s">
+      <c r="T1" s="334" t="s">
         <v>579</v>
       </c>
-      <c r="U1" s="339" t="s">
+      <c r="U1" s="334" t="s">
         <v>580</v>
       </c>
-      <c r="V1" s="339" t="s">
+      <c r="V1" s="334" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="340"/>
+      <c r="A2" s="335"/>
       <c r="B2" s="247" t="s">
         <v>581</v>
       </c>
       <c r="C2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
       <c r="H2" s="247" t="s">
         <v>583</v>
       </c>
-      <c r="I2" s="340"/>
+      <c r="I2" s="335"/>
       <c r="J2" s="247" t="s">
         <v>584</v>
       </c>
@@ -8269,77 +8468,80 @@
       <c r="L2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M2" s="340"/>
-      <c r="N2" s="340"/>
-      <c r="O2" s="340"/>
-      <c r="P2" s="340"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
       <c r="Q2" s="247" t="s">
         <v>586</v>
       </c>
-      <c r="R2" s="340"/>
-      <c r="S2" s="340"/>
-      <c r="T2" s="340"/>
-      <c r="U2" s="340"/>
-      <c r="V2" s="340"/>
+      <c r="R2" s="335"/>
+      <c r="S2" s="335"/>
+      <c r="T2" s="335"/>
+      <c r="U2" s="335"/>
+      <c r="V2" s="335"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="336" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="333" t="s">
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
+      <c r="M3" s="338"/>
+      <c r="N3" s="336" t="s">
         <v>588</v>
       </c>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="335"/>
-      <c r="U3" s="333" t="s">
+      <c r="O3" s="337"/>
+      <c r="P3" s="337"/>
+      <c r="Q3" s="337"/>
+      <c r="R3" s="337"/>
+      <c r="S3" s="337"/>
+      <c r="T3" s="338"/>
+      <c r="U3" s="336" t="s">
         <v>589</v>
       </c>
-      <c r="V3" s="335"/>
+      <c r="V3" s="338"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="336"/>
-      <c r="B4" s="337"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
-      <c r="G4" s="337"/>
-      <c r="H4" s="337"/>
-      <c r="I4" s="337"/>
-      <c r="J4" s="337"/>
-      <c r="K4" s="337"/>
-      <c r="L4" s="337"/>
-      <c r="M4" s="338"/>
-      <c r="N4" s="336"/>
-      <c r="O4" s="337"/>
-      <c r="P4" s="337"/>
-      <c r="Q4" s="337"/>
-      <c r="R4" s="337"/>
-      <c r="S4" s="337"/>
-      <c r="T4" s="338"/>
-      <c r="U4" s="336" t="s">
+      <c r="A4" s="339"/>
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="340"/>
+      <c r="G4" s="340"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="341"/>
+      <c r="N4" s="339"/>
+      <c r="O4" s="340"/>
+      <c r="P4" s="340"/>
+      <c r="Q4" s="340"/>
+      <c r="R4" s="340"/>
+      <c r="S4" s="340"/>
+      <c r="T4" s="341"/>
+      <c r="U4" s="339" t="s">
         <v>590</v>
       </c>
-      <c r="V4" s="338"/>
+      <c r="V4" s="341"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
@@ -8356,9 +8558,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10556,60 +10755,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="320" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="321" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="322" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="323"/>
-      <c r="H3" s="321" t="s">
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="322" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="322"/>
-      <c r="M3" s="322"/>
-      <c r="N3" s="322"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="323"/>
+      <c r="M3" s="323"/>
+      <c r="N3" s="323"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
@@ -16422,60 +16621,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="320" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="321" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="322" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="323"/>
-      <c r="H3" s="321" t="s">
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="322" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="322"/>
-      <c r="M3" s="322"/>
-      <c r="N3" s="322"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="323"/>
+      <c r="M3" s="323"/>
+      <c r="N3" s="323"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
@@ -18179,34 +18378,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="325" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="324" t="s">
+      <c r="B1" s="325" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="324" t="s">
+      <c r="C1" s="325" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="326" t="s">
+      <c r="D1" s="327" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="326"/>
-      <c r="F1" s="324" t="s">
+      <c r="E1" s="327"/>
+      <c r="F1" s="325" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="325"/>
-      <c r="B2" s="325"/>
-      <c r="C2" s="325"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
       <c r="D2" s="125" t="s">
         <v>221</v>
       </c>
       <c r="E2" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="325"/>
+      <c r="F2" s="326"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="126" t="s">
@@ -18467,10 +18666,10 @@
       <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="329" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="328"/>
+      <c r="C3" s="329"/>
       <c r="D3" s="120" t="s">
         <v>390</v>
       </c>
@@ -18488,10 +18687,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="330" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="330"/>
+      <c r="C4" s="331"/>
       <c r="D4" s="123" t="s">
         <v>389</v>
       </c>
@@ -18509,7 +18708,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="331" t="s">
+      <c r="B5" s="332" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="140" t="s">
@@ -18530,7 +18729,7 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="332"/>
+      <c r="B6" s="333"/>
       <c r="C6" s="140" t="s">
         <v>393</v>
       </c>
@@ -18569,10 +18768,10 @@
       <c r="H8" s="149"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="328" t="s">
+      <c r="B10" s="329" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="328"/>
+      <c r="C10" s="329"/>
       <c r="D10" s="120" t="s">
         <v>378</v>
       </c>
@@ -18590,10 +18789,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="327" t="s">
+      <c r="B11" s="328" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="327"/>
+      <c r="C11" s="328"/>
       <c r="D11" s="109" t="s">
         <v>372</v>
       </c>
@@ -18611,10 +18810,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="327" t="s">
+      <c r="B12" s="328" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="327"/>
+      <c r="C12" s="328"/>
       <c r="D12" s="109" t="s">
         <v>370</v>
       </c>
@@ -18632,10 +18831,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="327" t="s">
+      <c r="B13" s="328" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="327"/>
+      <c r="C13" s="328"/>
       <c r="D13" s="109" t="s">
         <v>366</v>
       </c>
@@ -18651,10 +18850,10 @@
       <c r="H13" s="143"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="327" t="s">
+      <c r="B14" s="328" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="327"/>
+      <c r="C14" s="328"/>
       <c r="D14" s="109" t="s">
         <v>364</v>
       </c>
@@ -18672,10 +18871,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="327" t="s">
+      <c r="B15" s="328" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="327"/>
+      <c r="C15" s="328"/>
       <c r="D15" s="119"/>
       <c r="E15" s="118" t="s">
         <v>361</v>
@@ -18689,10 +18888,10 @@
       <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="327" t="s">
+      <c r="B16" s="328" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="327"/>
+      <c r="C16" s="328"/>
       <c r="D16" s="109" t="s">
         <v>394</v>
       </c>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="9"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="819">
   <si>
     <t>아카이빙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1427,7 +1427,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1438,7 +1438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2766,7 +2766,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3369,10 +3369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단위업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정책분야</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3445,1171 +3441,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기록관리기준(목적별)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>경기문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책분야</t>
+  </si>
+  <si>
+    <t>기록물분류기준(G포털)</t>
+  </si>
+  <si>
+    <t>운영 매뉴얼(문화사업팀)</t>
+  </si>
+  <si>
+    <t>지방정부 업무 활동, 대도민 서비스, 지방정부의 예산분배체계 등을 고려하여 구분한 최상위 계층</t>
+  </si>
+  <si>
+    <t>문화체육관광</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>예시</t>
+  </si>
+  <si>
+    <t>경기문화재단; 경기신용보증재단; 경기문화의전당; 경기도시공사 등 경기도 산하 11개 공공기관</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문화예술; 경영 등 </t>
+  </si>
+  <si>
+    <t>기관의 본부 수준에서 담당하는 기능</t>
+  </si>
+  <si>
+    <t>각 기관이 수정하지 못하는 계층이며, 범 지방정부 차원의 업무관리, 성과관리, 예산과리 등을 위해 만들어짐</t>
+  </si>
+  <si>
+    <t>경기도 산하 공공기관별로 수행하는 기능과 연계될 수 있도록 정책분야를 세분류</t>
+  </si>
+  <si>
+    <t>정책; 문예진흥; 문화사업; 지역문화; 생활문화; 인사; 경영지원; 미디어마케팅</t>
+  </si>
+  <si>
+    <t>경기천년사업; 미래스마트사업; 육성 및 발굴</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 기관의 실/팀 수준에서 담당하는 기능
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정부기능분류체계에서는 실/팀간 유사 업무를 확인할 수 있으며, </t>
+  </si>
+  <si>
+    <t>경기천년플랫폼</t>
   </si>
   <si>
     <t>단위업무를 수행하기 위해 업무담당자별로 수행하는 기능
 - 단위사업의 규모나 예산에 따라 업무담당자가 복수로 지정될 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기문화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경기도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산하</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재단별로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수행하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연계될</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분야</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기능을 담당하는 조직 내부의 최상위 업무 영역
-- 문화예술; 경영
-- 경기문화재단은 업무 영역별로 문화예술본부와 경영본부를 두고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소기능의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업무분야를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유형별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영역별로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세분화한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">단위업무
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문화사업팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>브랜딩사업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아카이빙사업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">도민참여사업
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단위사업간</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유사성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>독자성을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고려하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처리과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중기능의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업무</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영역을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세분화한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업무</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">분야
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문화예술본부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문예진흥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문화사업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지역문화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생활문화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">문화정책
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문화예술본부는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분야의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업무를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>담당하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문예진흥팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문화사업팀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지역문화팀을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>두고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업무</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분야의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단위업무</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성격에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="67">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4623,7 +3530,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4631,7 +3538,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -4639,7 +3546,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4664,7 +3571,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4673,7 +3580,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4681,7 +3588,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4690,7 +3597,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4698,7 +3605,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4707,7 +3614,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4715,7 +3622,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4723,7 +3630,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4731,7 +3638,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4762,14 +3669,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -4777,7 +3684,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -4786,7 +3693,7 @@
       <strike/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -4795,7 +3702,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4895,7 +3802,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4904,7 +3811,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -4913,7 +3820,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4922,7 +3829,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4931,7 +3838,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4939,7 +3846,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4947,7 +3854,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4955,7 +3862,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4963,7 +3870,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4972,7 +3879,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4981,7 +3888,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4989,7 +3896,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4998,7 +3905,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5007,7 +3914,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5016,7 +3923,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5024,7 +3931,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5033,7 +3940,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5042,7 +3949,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5071,7 +3978,7 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -5079,7 +3986,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -5088,7 +3995,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -5097,7 +4004,16 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -5109,7 +4025,28 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="46">
@@ -6055,7 +4992,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6836,6 +5773,51 @@
     <xf numFmtId="0" fontId="5" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6902,62 +5884,45 @@
     <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="45" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="69" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -7109,6 +6074,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7143,6 +6109,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7318,7 +6285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7330,19 +6297,19 @@
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18" style="164" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="164" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.5" style="271" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="164" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="271" customWidth="1"/>
     <col min="7" max="7" width="27" style="279" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="27.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -7389,7 +6356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" thickTop="1">
+    <row r="3" spans="1:14" ht="13.5" thickTop="1">
       <c r="A3" s="164" t="s">
         <v>717</v>
       </c>
@@ -7464,7 +6431,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" s="162" customFormat="1" ht="14.25" thickBot="1">
+    <row r="6" spans="1:14" s="162" customFormat="1" ht="13.5" thickBot="1">
       <c r="A6" s="162" t="s">
         <v>717</v>
       </c>
@@ -7562,7 +6529,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:14" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="10" spans="1:14" s="7" customFormat="1" ht="13.5" thickBot="1">
       <c r="A10" s="162" t="s">
         <v>717</v>
       </c>
@@ -7700,7 +6667,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="16" spans="1:14" s="6" customFormat="1" ht="13.5" thickBot="1">
       <c r="A16" s="166" t="s">
         <v>717</v>
       </c>
@@ -7767,7 +6734,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="13.5" thickBot="1">
       <c r="A19" s="166" t="s">
         <v>717</v>
       </c>
@@ -7922,7 +6889,7 @@
       </c>
       <c r="G25" s="279"/>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="13.5" thickBot="1">
       <c r="A26" s="166" t="s">
         <v>717</v>
       </c>
@@ -7991,7 +6958,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
       <c r="A29" s="162" t="s">
         <v>717</v>
       </c>
@@ -8080,7 +7047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
       <c r="A33" s="162" t="s">
         <v>717</v>
       </c>
@@ -8149,7 +7116,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="162" customFormat="1" ht="14.25" thickBot="1">
+    <row r="36" spans="1:7" s="162" customFormat="1" ht="13.5" thickBot="1">
       <c r="A36" s="162" t="s">
         <v>717</v>
       </c>
@@ -8216,7 +7183,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
       <c r="A39" s="162" t="s">
         <v>717</v>
       </c>
@@ -8328,7 +7295,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
       <c r="A44" s="162" t="s">
         <v>717</v>
       </c>
@@ -8420,7 +7387,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
       <c r="A48" s="162" t="s">
         <v>717</v>
       </c>
@@ -8489,7 +7456,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="51" spans="1:10" s="7" customFormat="1" ht="13.5" thickBot="1">
       <c r="A51" s="162" t="s">
         <v>717</v>
       </c>
@@ -8558,7 +7525,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="54" spans="1:10" s="7" customFormat="1" ht="13.5" thickBot="1">
       <c r="A54" s="162" t="s">
         <v>717</v>
       </c>
@@ -8605,7 +7572,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="56" spans="1:10" s="7" customFormat="1" ht="13.5" thickBot="1">
       <c r="A56" s="162" t="s">
         <v>717</v>
       </c>
@@ -8674,7 +7641,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="162" customFormat="1" ht="14.25" thickBot="1">
+    <row r="59" spans="1:10" s="162" customFormat="1" ht="13.5" thickBot="1">
       <c r="A59" s="162" t="s">
         <v>717</v>
       </c>
@@ -8766,7 +7733,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="63" spans="1:10" s="6" customFormat="1" ht="13.5" thickBot="1">
       <c r="A63" s="166" t="s">
         <v>717</v>
       </c>
@@ -8858,7 +7825,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="67" spans="1:7" s="6" customFormat="1" ht="13.5" thickBot="1">
       <c r="A67" s="166" t="s">
         <v>717</v>
       </c>
@@ -8890,28 +7857,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="69"/>
-    <col min="2" max="2" width="21.125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="69" customWidth="1"/>
-    <col min="5" max="5" width="64.25" style="69" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="69" customWidth="1"/>
-    <col min="8" max="8" width="62.875" style="69" customWidth="1"/>
-    <col min="9" max="16384" width="12.625" style="69"/>
+    <col min="1" max="1" width="12.5703125" style="69"/>
+    <col min="2" max="2" width="21.140625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="26" style="69" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="69" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="69" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="69" customWidth="1"/>
+    <col min="8" max="8" width="62.85546875" style="69" customWidth="1"/>
+    <col min="9" max="16384" width="12.5703125" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
@@ -9024,271 +7991,311 @@
       <c r="F8"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="322"/>
-      <c r="B9" s="319" t="s">
+      <c r="A9" s="299"/>
+      <c r="B9" s="297" t="s">
         <v>694</v>
       </c>
-      <c r="C9" s="319" t="s">
+      <c r="C9" s="297" t="s">
         <v>696</v>
       </c>
-      <c r="D9" s="319" t="s">
+      <c r="D9" s="297" t="s">
         <v>697</v>
       </c>
-      <c r="E9" s="319" t="s">
+      <c r="E9" s="297" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="322"/>
-      <c r="B10" s="316" t="s">
+      <c r="A10" s="299"/>
+      <c r="B10" s="294" t="s">
+        <v>782</v>
+      </c>
+      <c r="C10" s="294" t="s">
+        <v>699</v>
+      </c>
+      <c r="D10" s="302"/>
+      <c r="E10" s="294"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="299"/>
+      <c r="B11" s="294" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" s="294" t="s">
+        <v>700</v>
+      </c>
+      <c r="D11" s="294"/>
+      <c r="E11" s="294" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="299"/>
+      <c r="B12" s="294" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="294" t="s">
+        <v>701</v>
+      </c>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="300"/>
+      <c r="B13" s="294" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="303"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="299"/>
+      <c r="B14" s="294" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="302"/>
+      <c r="D14" s="294" t="s">
+        <v>784</v>
+      </c>
+      <c r="E14" s="304" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="301" t="s">
         <v>783</v>
       </c>
-      <c r="C10" s="316" t="s">
+      <c r="B15" s="305" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="305" t="s">
+        <v>780</v>
+      </c>
+      <c r="D15" s="305" t="s">
+        <v>785</v>
+      </c>
+      <c r="E15" s="305" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="299"/>
+      <c r="B16" s="294"/>
+      <c r="C16" s="295"/>
+      <c r="D16" s="295"/>
+      <c r="E16" s="298"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B18" s="297" t="s">
+        <v>696</v>
+      </c>
+      <c r="C18" s="297" t="s">
+        <v>695</v>
+      </c>
+      <c r="D18" s="306" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B19" s="307"/>
+      <c r="C19" s="294" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B20" s="294" t="s">
         <v>699</v>
       </c>
-      <c r="D10" s="325"/>
-      <c r="E10" s="316"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="322"/>
-      <c r="B11" s="316" t="s">
+      <c r="C20" s="294" t="s">
+        <v>793</v>
+      </c>
+      <c r="D20" s="294" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B21" s="294" t="s">
+        <v>700</v>
+      </c>
+      <c r="C21" s="294" t="s">
+        <v>794</v>
+      </c>
+      <c r="D21" s="294" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B22" s="294" t="s">
+        <v>701</v>
+      </c>
+      <c r="C22" s="304" t="s">
+        <v>791</v>
+      </c>
+      <c r="D22" s="294" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B23" s="305" t="s">
+        <v>780</v>
+      </c>
+      <c r="C23" s="305" t="s">
+        <v>781</v>
+      </c>
+      <c r="D23" s="305" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B24" s="295"/>
+      <c r="C24" s="298"/>
+    </row>
+    <row r="25" spans="1:7" s="331" customFormat="1" ht="36" customHeight="1">
+      <c r="B25" s="332" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" s="332" t="s">
+        <v>802</v>
+      </c>
+      <c r="D25" s="333" t="s">
+        <v>803</v>
+      </c>
+      <c r="E25" s="334" t="s">
+        <v>806</v>
+      </c>
+      <c r="F25" s="334" t="s">
+        <v>807</v>
+      </c>
+      <c r="G25" s="334" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="46.5" customHeight="1">
+      <c r="B26" s="336" t="s">
+        <v>801</v>
+      </c>
+      <c r="C26" s="336"/>
+      <c r="D26" s="336" t="s">
+        <v>805</v>
+      </c>
+      <c r="E26" s="342" t="s">
+        <v>804</v>
+      </c>
+      <c r="F26" s="340"/>
+      <c r="G26" s="341" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="296" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A27" s="308"/>
+      <c r="B27" s="336" t="s">
         <v>698</v>
       </c>
-      <c r="C11" s="316" t="s">
-        <v>700</v>
-      </c>
-      <c r="D11" s="316"/>
-      <c r="E11" s="316" t="s">
+      <c r="C27" s="336" t="s">
+        <v>792</v>
+      </c>
+      <c r="D27" s="337" t="s">
+        <v>800</v>
+      </c>
+      <c r="E27" s="342" t="s">
+        <v>812</v>
+      </c>
+      <c r="F27" s="342" t="s">
+        <v>808</v>
+      </c>
+      <c r="G27" s="341"/>
+    </row>
+    <row r="28" spans="1:7" s="296" customFormat="1" ht="114" customHeight="1">
+      <c r="A28" s="308"/>
+      <c r="B28" s="336" t="s">
+        <v>795</v>
+      </c>
+      <c r="C28" s="336" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="322"/>
-      <c r="B12" s="316" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="316" t="s">
-        <v>701</v>
-      </c>
-      <c r="D12" s="316"/>
-      <c r="E12" s="316" t="s">
+      <c r="D28" s="336" t="s">
+        <v>797</v>
+      </c>
+      <c r="E28" s="342" t="s">
+        <v>810</v>
+      </c>
+      <c r="F28" s="339" t="s">
+        <v>809</v>
+      </c>
+      <c r="G28" s="341"/>
+    </row>
+    <row r="29" spans="1:7" s="296" customFormat="1" ht="114" customHeight="1">
+      <c r="A29" s="308"/>
+      <c r="B29" s="336" t="s">
+        <v>796</v>
+      </c>
+      <c r="C29" s="336" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="323"/>
-      <c r="B13" s="316" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="326"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="322"/>
-      <c r="B14" s="316" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="325"/>
-      <c r="D14" s="316" t="s">
-        <v>785</v>
-      </c>
-      <c r="E14" s="327" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="324" t="s">
-        <v>784</v>
-      </c>
-      <c r="B15" s="328" t="s">
+      <c r="D29" s="336" t="s">
+        <v>779</v>
+      </c>
+      <c r="E29" s="342" t="s">
+        <v>815</v>
+      </c>
+      <c r="F29" s="342" t="s">
+        <v>813</v>
+      </c>
+      <c r="G29" s="342" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="296" customFormat="1" ht="114" customHeight="1">
+      <c r="A30" s="308"/>
+      <c r="B30" s="338" t="s">
+        <v>799</v>
+      </c>
+      <c r="C30" s="338" t="s">
+        <v>791</v>
+      </c>
+      <c r="D30" s="338" t="s">
+        <v>798</v>
+      </c>
+      <c r="E30" s="342"/>
+      <c r="F30" s="344" t="s">
+        <v>814</v>
+      </c>
+      <c r="G30" s="339"/>
+    </row>
+    <row r="31" spans="1:7" s="296" customFormat="1" ht="114" customHeight="1">
+      <c r="B31" s="335" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="328" t="s">
-        <v>780</v>
-      </c>
-      <c r="D15" s="328" t="s">
-        <v>786</v>
-      </c>
-      <c r="E15" s="328" t="s">
+      <c r="C31" s="335" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="322"/>
-      <c r="B16" s="316"/>
-      <c r="C16" s="317"/>
-      <c r="D16" s="317"/>
-      <c r="E16" s="320"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B18" s="319" t="s">
-        <v>696</v>
-      </c>
-      <c r="C18" s="319" t="s">
-        <v>695</v>
-      </c>
-      <c r="D18" s="329" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B19" s="330"/>
-      <c r="C19" s="316" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B20" s="316" t="s">
-        <v>699</v>
-      </c>
-      <c r="C20" s="316" t="s">
-        <v>794</v>
-      </c>
-      <c r="D20" s="316" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B21" s="316" t="s">
-        <v>700</v>
-      </c>
-      <c r="C21" s="316" t="s">
-        <v>795</v>
-      </c>
-      <c r="D21" s="316" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B22" s="316" t="s">
-        <v>701</v>
-      </c>
-      <c r="C22" s="327" t="s">
-        <v>792</v>
-      </c>
-      <c r="D22" s="316" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B23" s="328" t="s">
-        <v>780</v>
-      </c>
-      <c r="C23" s="328" t="s">
-        <v>781</v>
-      </c>
-      <c r="D23" s="328" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B24" s="317"/>
-      <c r="C24" s="320"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B25" s="319" t="s">
-        <v>801</v>
-      </c>
-      <c r="C25" s="319" t="s">
-        <v>695</v>
-      </c>
-      <c r="D25" s="329" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
-      <c r="A26" s="331" t="s">
-        <v>796</v>
-      </c>
-      <c r="B26" s="316"/>
-      <c r="C26" s="316" t="s">
-        <v>793</v>
-      </c>
-      <c r="D26" s="321" t="s">
-        <v>803</v>
-      </c>
-      <c r="E26" s="318" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
-      <c r="A27" s="331" t="s">
-        <v>797</v>
-      </c>
-      <c r="B27" s="316" t="s">
-        <v>796</v>
-      </c>
-      <c r="C27" s="316" t="s">
-        <v>794</v>
-      </c>
-      <c r="D27" s="316" t="s">
-        <v>798</v>
-      </c>
-      <c r="E27" s="334" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
-      <c r="A28" s="331" t="s">
-        <v>800</v>
-      </c>
-      <c r="B28" s="316" t="s">
-        <v>797</v>
-      </c>
-      <c r="C28" s="316" t="s">
-        <v>795</v>
-      </c>
-      <c r="D28" s="316" t="s">
-        <v>779</v>
-      </c>
-      <c r="E28" s="333" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
-      <c r="A29" s="331" t="s">
-        <v>782</v>
-      </c>
-      <c r="B29" s="327" t="s">
-        <v>800</v>
-      </c>
-      <c r="C29" s="327" t="s">
-        <v>792</v>
-      </c>
-      <c r="D29" s="327" t="s">
-        <v>799</v>
-      </c>
-      <c r="E29" s="333" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="318" customFormat="1" ht="114" customHeight="1">
-      <c r="B30" s="328" t="s">
-        <v>781</v>
-      </c>
-      <c r="C30" s="328" t="s">
-        <v>781</v>
-      </c>
-      <c r="D30" s="328" t="s">
-        <v>781</v>
-      </c>
-      <c r="E30" s="332" t="s">
-        <v>802</v>
-      </c>
+      <c r="D31" s="335" t="s">
+        <v>817</v>
+      </c>
+      <c r="E31" s="343" t="s">
+        <v>818</v>
+      </c>
+      <c r="F31" s="339"/>
+      <c r="G31" s="339"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G26:G28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30">
       <formula1>"미래스마트, 경기천년사업, 문화사업 발굴 및 확산"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28">
       <formula1>"문화예술, 경영, 미술관, 박물관, 선사박물관, 어린이박물관, 실학박물관"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
       <formula1>"문예진흥, 문화사업, 지역문화, 생활문화, 문화정책"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9298,20 +8305,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="323" t="s">
         <v>562</v>
       </c>
       <c r="B1" s="246" t="s">
@@ -9320,22 +8327,22 @@
       <c r="C1" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="308" t="s">
+      <c r="D1" s="323" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="308" t="s">
+      <c r="E1" s="323" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="308" t="s">
+      <c r="F1" s="323" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="308" t="s">
+      <c r="G1" s="323" t="s">
         <v>567</v>
       </c>
       <c r="H1" s="246" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="308" t="s">
+      <c r="I1" s="323" t="s">
         <v>569</v>
       </c>
       <c r="J1" s="246" t="s">
@@ -9347,53 +8354,53 @@
       <c r="L1" s="246" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="308" t="s">
+      <c r="M1" s="323" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="308" t="s">
+      <c r="N1" s="323" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="308" t="s">
+      <c r="O1" s="323" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="308" t="s">
+      <c r="P1" s="323" t="s">
         <v>575</v>
       </c>
       <c r="Q1" s="246" t="s">
         <v>576</v>
       </c>
-      <c r="R1" s="308" t="s">
+      <c r="R1" s="323" t="s">
         <v>577</v>
       </c>
-      <c r="S1" s="308" t="s">
+      <c r="S1" s="323" t="s">
         <v>578</v>
       </c>
-      <c r="T1" s="308" t="s">
+      <c r="T1" s="323" t="s">
         <v>579</v>
       </c>
-      <c r="U1" s="308" t="s">
+      <c r="U1" s="323" t="s">
         <v>580</v>
       </c>
-      <c r="V1" s="308" t="s">
+      <c r="V1" s="323" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="309"/>
+    <row r="2" spans="1:22" ht="24">
+      <c r="A2" s="324"/>
       <c r="B2" s="247" t="s">
         <v>581</v>
       </c>
       <c r="C2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
       <c r="H2" s="247" t="s">
         <v>583</v>
       </c>
-      <c r="I2" s="309"/>
+      <c r="I2" s="324"/>
       <c r="J2" s="247" t="s">
         <v>584</v>
       </c>
@@ -9403,82 +8410,77 @@
       <c r="L2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="309"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
       <c r="Q2" s="247" t="s">
         <v>586</v>
       </c>
-      <c r="R2" s="309"/>
-      <c r="S2" s="309"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="309"/>
-      <c r="V2" s="309"/>
-    </row>
-    <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="310" t="s">
+      <c r="R2" s="324"/>
+      <c r="S2" s="324"/>
+      <c r="T2" s="324"/>
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75">
+      <c r="A3" s="325" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="311"/>
-      <c r="L3" s="311"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="310" t="s">
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="327"/>
+      <c r="N3" s="325" t="s">
         <v>588</v>
       </c>
-      <c r="O3" s="311"/>
-      <c r="P3" s="311"/>
-      <c r="Q3" s="311"/>
-      <c r="R3" s="311"/>
-      <c r="S3" s="311"/>
-      <c r="T3" s="312"/>
-      <c r="U3" s="310" t="s">
+      <c r="O3" s="326"/>
+      <c r="P3" s="326"/>
+      <c r="Q3" s="326"/>
+      <c r="R3" s="326"/>
+      <c r="S3" s="326"/>
+      <c r="T3" s="327"/>
+      <c r="U3" s="325" t="s">
         <v>589</v>
       </c>
-      <c r="V3" s="312"/>
-    </row>
-    <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="313"/>
-      <c r="B4" s="314"/>
-      <c r="C4" s="314"/>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="314"/>
-      <c r="K4" s="314"/>
-      <c r="L4" s="314"/>
-      <c r="M4" s="315"/>
-      <c r="N4" s="313"/>
-      <c r="O4" s="314"/>
-      <c r="P4" s="314"/>
-      <c r="Q4" s="314"/>
-      <c r="R4" s="314"/>
-      <c r="S4" s="314"/>
-      <c r="T4" s="315"/>
-      <c r="U4" s="313" t="s">
+      <c r="V3" s="327"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75">
+      <c r="A4" s="328"/>
+      <c r="B4" s="329"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="329"/>
+      <c r="H4" s="329"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="329"/>
+      <c r="K4" s="329"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="330"/>
+      <c r="N4" s="328"/>
+      <c r="O4" s="329"/>
+      <c r="P4" s="329"/>
+      <c r="Q4" s="329"/>
+      <c r="R4" s="329"/>
+      <c r="S4" s="329"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="328" t="s">
         <v>590</v>
       </c>
-      <c r="V4" s="315"/>
+      <c r="V4" s="330"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
     <mergeCell ref="U3:V3"/>
@@ -9493,6 +8495,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9501,7 +8508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -9512,26 +8519,26 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="78.5" style="245" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="74" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="74" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="74" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" style="245" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="74" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="95.5" style="75" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="159" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="95.42578125" style="75" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="159" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="9" style="237"/>
-    <col min="14" max="14" width="16.5" style="237" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="237" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="209" customFormat="1" ht="35.25" thickBot="1">
+    <row r="1" spans="1:15" s="209" customFormat="1" ht="48" thickBot="1">
       <c r="A1" s="211" t="s">
         <v>690</v>
       </c>
@@ -9578,7 +8585,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="27">
+    <row r="2" spans="1:15" ht="25.5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -9621,7 +8628,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27">
+    <row r="3" spans="1:15" ht="25.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -9675,7 +8682,7 @@
       <c r="N4" s="233"/>
       <c r="O4" s="165"/>
     </row>
-    <row r="5" spans="1:15" ht="17.25" thickBot="1">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1">
       <c r="A5" s="162" t="s">
         <v>9</v>
       </c>
@@ -9702,7 +8709,7 @@
       <c r="N5" s="235"/>
       <c r="O5" s="166"/>
     </row>
-    <row r="6" spans="1:15" ht="27">
+    <row r="6" spans="1:15" ht="25.5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -9745,7 +8752,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="27">
+    <row r="7" spans="1:15" ht="25.5">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -9772,7 +8779,7 @@
       <c r="N7" s="233"/>
       <c r="O7" s="165"/>
     </row>
-    <row r="8" spans="1:15" ht="27">
+    <row r="8" spans="1:15" ht="25.5">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -9799,7 +8806,7 @@
       <c r="N8" s="233"/>
       <c r="O8" s="165"/>
     </row>
-    <row r="9" spans="1:15" ht="17.25" thickBot="1">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -9826,7 +8833,7 @@
       <c r="N9" s="235"/>
       <c r="O9" s="166"/>
     </row>
-    <row r="10" spans="1:15" ht="27">
+    <row r="10" spans="1:15" ht="25.5">
       <c r="A10" s="164" t="s">
         <v>29</v>
       </c>
@@ -9896,7 +8903,7 @@
       <c r="N11" s="233"/>
       <c r="O11" s="165"/>
     </row>
-    <row r="12" spans="1:15" ht="40.5">
+    <row r="12" spans="1:15" ht="38.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -9950,7 +8957,7 @@
       <c r="N13" s="233"/>
       <c r="O13" s="165"/>
     </row>
-    <row r="14" spans="1:15" s="210" customFormat="1" ht="41.25" thickBot="1">
+    <row r="14" spans="1:15" s="210" customFormat="1" ht="39" thickBot="1">
       <c r="A14" s="162" t="s">
         <v>9</v>
       </c>
@@ -9977,7 +8984,7 @@
       <c r="N14" s="235"/>
       <c r="O14" s="166"/>
     </row>
-    <row r="15" spans="1:15" ht="27">
+    <row r="15" spans="1:15" ht="25.5">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -10047,7 +9054,7 @@
       <c r="N16" s="233"/>
       <c r="O16" s="165"/>
     </row>
-    <row r="17" spans="1:15" ht="17.25" thickBot="1">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -10074,7 +9081,7 @@
       <c r="N17" s="235"/>
       <c r="O17" s="166"/>
     </row>
-    <row r="18" spans="1:15" s="206" customFormat="1" ht="27">
+    <row r="18" spans="1:15" s="206" customFormat="1" ht="25.5">
       <c r="A18" s="202" t="s">
         <v>9</v>
       </c>
@@ -10121,7 +9128,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="206" customFormat="1" ht="40.5">
+    <row r="19" spans="1:15" s="206" customFormat="1" ht="38.25">
       <c r="A19" s="202" t="s">
         <v>9</v>
       </c>
@@ -10168,7 +9175,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="206" customFormat="1" ht="27">
+    <row r="20" spans="1:15" s="206" customFormat="1" ht="25.5">
       <c r="A20" s="202" t="s">
         <v>9</v>
       </c>
@@ -10215,7 +9222,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="206" customFormat="1" ht="41.25" thickBot="1">
+    <row r="21" spans="1:15" s="206" customFormat="1" ht="39" thickBot="1">
       <c r="A21" s="204" t="s">
         <v>9</v>
       </c>
@@ -10262,7 +9269,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="27">
+    <row r="22" spans="1:15" ht="25.5">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -10332,7 +9339,7 @@
       <c r="N23" s="233"/>
       <c r="O23" s="165"/>
     </row>
-    <row r="24" spans="1:15" ht="17.25" thickBot="1">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
@@ -10359,7 +9366,7 @@
       <c r="N24" s="235"/>
       <c r="O24" s="166"/>
     </row>
-    <row r="25" spans="1:15" ht="27">
+    <row r="25" spans="1:15" ht="25.5">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -10429,7 +9436,7 @@
       <c r="N26" s="233"/>
       <c r="O26" s="165"/>
     </row>
-    <row r="27" spans="1:15" ht="17.25" thickBot="1">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1">
       <c r="A27" s="162" t="s">
         <v>21</v>
       </c>
@@ -10454,7 +9461,7 @@
       <c r="N27" s="235"/>
       <c r="O27" s="166"/>
     </row>
-    <row r="28" spans="1:15" s="210" customFormat="1" ht="27">
+    <row r="28" spans="1:15" s="210" customFormat="1" ht="25.5">
       <c r="A28" s="287" t="s">
         <v>21</v>
       </c>
@@ -10497,7 +9504,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="210" customFormat="1" ht="17.25" thickBot="1">
+    <row r="29" spans="1:15" s="210" customFormat="1" ht="15.75" thickBot="1">
       <c r="A29" s="162" t="s">
         <v>21</v>
       </c>
@@ -10520,7 +9527,7 @@
       <c r="N29" s="234"/>
       <c r="O29" s="162"/>
     </row>
-    <row r="30" spans="1:15" ht="27">
+    <row r="30" spans="1:15" ht="25.5">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
@@ -10590,7 +9597,7 @@
       <c r="N31" s="233"/>
       <c r="O31" s="165"/>
     </row>
-    <row r="32" spans="1:15" ht="41.25" thickBot="1">
+    <row r="32" spans="1:15" ht="39" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>21</v>
       </c>
@@ -10617,7 +9624,7 @@
       <c r="N32" s="235"/>
       <c r="O32" s="166"/>
     </row>
-    <row r="33" spans="1:15" ht="27">
+    <row r="33" spans="1:15" ht="25.5">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -10660,7 +9667,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="67.5">
+    <row r="34" spans="1:15" ht="63.75">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -10699,7 +9706,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="27">
+    <row r="35" spans="1:15" ht="25.5">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -10738,7 +9745,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="27.75" thickBot="1">
+    <row r="36" spans="1:15" ht="26.25" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>21</v>
       </c>
@@ -10777,7 +9784,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="27">
+    <row r="37" spans="1:15" ht="25.5">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -10820,7 +9827,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="27">
+    <row r="38" spans="1:15" ht="25.5">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -10859,7 +9866,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="40.5">
+    <row r="39" spans="1:15" ht="38.25">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -10898,7 +9905,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="27.75" thickBot="1">
+    <row r="40" spans="1:15" ht="26.25" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>21</v>
       </c>
@@ -10937,7 +9944,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="27">
+    <row r="41" spans="1:15" ht="25.5">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -10980,7 +9987,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="210" customFormat="1" ht="27.75" thickBot="1">
+    <row r="42" spans="1:15" s="210" customFormat="1" ht="26.25" thickBot="1">
       <c r="A42" s="162" t="s">
         <v>21</v>
       </c>
@@ -11019,7 +10026,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="27">
+    <row r="43" spans="1:15" ht="25.5">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -11062,7 +10069,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="67.5">
+    <row r="44" spans="1:15" ht="63.75">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -11101,7 +10108,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="27.75" thickBot="1">
+    <row r="45" spans="1:15" ht="26.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>21</v>
       </c>
@@ -11140,7 +10147,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="27">
+    <row r="46" spans="1:15" ht="25.5">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -11183,7 +10190,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="41.25" thickBot="1">
+    <row r="47" spans="1:15" ht="39" thickBot="1">
       <c r="A47" s="7" t="s">
         <v>21</v>
       </c>
@@ -11222,7 +10229,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="27">
+    <row r="48" spans="1:15" ht="25.5">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -11265,7 +10272,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="40.5">
+    <row r="49" spans="1:15" ht="38.25">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
@@ -11304,7 +10311,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="159" customFormat="1" ht="27.75" thickBot="1">
+    <row r="50" spans="1:15" s="159" customFormat="1" ht="26.25" thickBot="1">
       <c r="A50" s="162" t="s">
         <v>0</v>
       </c>
@@ -11343,7 +10350,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="27">
+    <row r="51" spans="1:15" ht="25.5">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -11386,7 +10393,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="52" spans="1:15" s="159" customFormat="1" ht="25.5">
       <c r="A52" s="164" t="s">
         <v>0</v>
       </c>
@@ -11425,7 +10432,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="53" spans="1:15" s="159" customFormat="1" ht="25.5">
       <c r="A53" s="164" t="s">
         <v>0</v>
       </c>
@@ -11464,7 +10471,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="27.75" thickBot="1">
+    <row r="54" spans="1:15" ht="26.25" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -11503,7 +10510,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="1" customFormat="1" ht="27">
+    <row r="55" spans="1:15" s="1" customFormat="1" ht="25.5">
       <c r="A55" s="1" t="s">
         <v>297</v>
       </c>
@@ -11546,7 +10553,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="1" customFormat="1" ht="27">
+    <row r="56" spans="1:15" s="1" customFormat="1" ht="25.5">
       <c r="A56" s="1" t="s">
         <v>297</v>
       </c>
@@ -11581,7 +10588,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="1" customFormat="1" ht="27">
+    <row r="57" spans="1:15" s="1" customFormat="1" ht="25.5">
       <c r="A57" s="1" t="s">
         <v>297</v>
       </c>
@@ -11616,7 +10623,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="58" spans="1:15" s="1" customFormat="1" ht="26.25" thickBot="1">
       <c r="A58" s="166" t="s">
         <v>297</v>
       </c>
@@ -11663,7 +10670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -11673,82 +10680,82 @@
       <selection activeCell="E18" sqref="E18:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="53" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="53" customWidth="1"/>
     <col min="2" max="2" width="18" style="53" customWidth="1"/>
     <col min="3" max="3" width="9" style="53"/>
-    <col min="4" max="4" width="16.125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="35.25" style="53" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="53" customWidth="1"/>
     <col min="6" max="9" width="9" style="53"/>
-    <col min="10" max="10" width="14.5" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="53" customWidth="1"/>
     <col min="11" max="11" width="9" style="53"/>
-    <col min="12" max="12" width="11.375" style="53" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="53" customWidth="1"/>
     <col min="13" max="14" width="9" style="53"/>
-    <col min="15" max="15" width="14.75" style="53" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="53" customWidth="1"/>
     <col min="16" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="294" t="s">
+    <row r="1" spans="1:15" ht="18.75">
+      <c r="A1" s="309" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-    </row>
-    <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
-      <c r="A2" s="295" t="s">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="309"/>
+    </row>
+    <row r="2" spans="1:15" s="54" customFormat="1" ht="18.75">
+      <c r="A2" s="310" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="295"/>
-      <c r="L2" s="295"/>
-      <c r="M2" s="295"/>
-      <c r="N2" s="295"/>
-    </row>
-    <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="296" t="s">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
+      <c r="L2" s="310"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="310"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="A3" s="311" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="296" t="s">
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="311" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="297"/>
-      <c r="J3" s="297"/>
-      <c r="K3" s="297"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="312"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1">
+    <row r="4" spans="1:15" ht="24.75" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>75</v>
       </c>
@@ -11795,7 +10802,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.25" thickTop="1">
+    <row r="5" spans="1:15" ht="15.75" thickTop="1">
       <c r="A5" s="19" t="s">
         <v>89</v>
       </c>
@@ -11877,7 +10884,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="24">
       <c r="A7" s="21" t="s">
         <v>89</v>
       </c>
@@ -11959,7 +10966,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="24">
       <c r="A9" s="21" t="s">
         <v>89</v>
       </c>
@@ -12123,7 +11130,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="24">
       <c r="A13" s="21" t="s">
         <v>89</v>
       </c>
@@ -12451,7 +11458,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="56" customFormat="1" ht="17.25" thickBot="1">
+    <row r="21" spans="1:15" s="56" customFormat="1" ht="15.75" thickBot="1">
       <c r="A21" s="25" t="s">
         <v>139</v>
       </c>
@@ -12928,7 +11935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -12939,14 +11946,14 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="83" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
@@ -12972,7 +11979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="210" customFormat="1" ht="17.25" thickTop="1">
+    <row r="2" spans="1:7" s="210" customFormat="1" ht="15.75" thickTop="1">
       <c r="A2" s="94" t="s">
         <v>178</v>
       </c>
@@ -13061,7 +12068,7 @@
       <c r="F6" s="90"/>
       <c r="G6" s="90"/>
     </row>
-    <row r="7" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="100" t="s">
         <v>178</v>
       </c>
@@ -13131,7 +12138,7 @@
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
     </row>
-    <row r="11" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="11" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="91" t="s">
         <v>178</v>
       </c>
@@ -13148,7 +12155,7 @@
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
     </row>
-    <row r="12" spans="1:7" s="255" customFormat="1" ht="17.25" thickBot="1">
+    <row r="12" spans="1:7" s="255" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="222" t="s">
         <v>178</v>
       </c>
@@ -13224,7 +12231,7 @@
       <c r="F15" s="90"/>
       <c r="G15" s="90"/>
     </row>
-    <row r="16" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="16" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="91" t="s">
         <v>178</v>
       </c>
@@ -13328,7 +12335,7 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
     </row>
-    <row r="22" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="22" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A22" s="91" t="s">
         <v>178</v>
       </c>
@@ -13398,7 +12405,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
     </row>
-    <row r="26" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="26" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A26" s="91" t="s">
         <v>178</v>
       </c>
@@ -13468,7 +12475,7 @@
       <c r="F29" s="90"/>
       <c r="G29" s="90"/>
     </row>
-    <row r="30" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="30" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A30" s="91" t="s">
         <v>178</v>
       </c>
@@ -13551,7 +12558,7 @@
       <c r="F34" s="90"/>
       <c r="G34" s="90"/>
     </row>
-    <row r="35" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="35" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A35" s="91" t="s">
         <v>178</v>
       </c>
@@ -13621,7 +12628,7 @@
       <c r="F38" s="90"/>
       <c r="G38" s="90"/>
     </row>
-    <row r="39" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="39" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A39" s="91" t="s">
         <v>178</v>
       </c>
@@ -13674,7 +12681,7 @@
       <c r="F41" s="90"/>
       <c r="G41" s="90"/>
     </row>
-    <row r="42" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="42" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A42" s="91" t="s">
         <v>178</v>
       </c>
@@ -13744,7 +12751,7 @@
       <c r="F45" s="90"/>
       <c r="G45" s="90"/>
     </row>
-    <row r="46" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="46" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="91" t="s">
         <v>178</v>
       </c>
@@ -13812,7 +12819,7 @@
       <c r="F49" s="90"/>
       <c r="G49" s="90"/>
     </row>
-    <row r="50" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="50" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A50" s="91" t="s">
         <v>178</v>
       </c>
@@ -13867,7 +12874,7 @@
       <c r="F52" s="90"/>
       <c r="G52" s="90"/>
     </row>
-    <row r="53" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="53" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A53" s="91" t="s">
         <v>178</v>
       </c>
@@ -13939,7 +12946,7 @@
       <c r="F56" s="90"/>
       <c r="G56" s="90"/>
     </row>
-    <row r="57" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="57" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A57" s="91" t="s">
         <v>178</v>
       </c>
@@ -13977,7 +12984,7 @@
       </c>
       <c r="G58" s="253"/>
     </row>
-    <row r="59" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="59" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A59" s="104" t="s">
         <v>178</v>
       </c>
@@ -14015,7 +13022,7 @@
       </c>
       <c r="G60" s="253"/>
     </row>
-    <row r="61" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="61" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A61" s="104" t="s">
         <v>178</v>
       </c>
@@ -14083,7 +13090,7 @@
       <c r="F64" s="90"/>
       <c r="G64" s="90"/>
     </row>
-    <row r="65" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="65" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A65" s="91" t="s">
         <v>178</v>
       </c>
@@ -14149,7 +13156,7 @@
       <c r="F68" s="90"/>
       <c r="G68" s="90"/>
     </row>
-    <row r="69" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="69" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A69" s="91" t="s">
         <v>178</v>
       </c>
@@ -14268,7 +13275,7 @@
       <c r="F75" s="90"/>
       <c r="G75" s="90"/>
     </row>
-    <row r="76" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="76" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A76" s="91" t="s">
         <v>178</v>
       </c>
@@ -14340,7 +13347,7 @@
       <c r="F79" s="90"/>
       <c r="G79" s="90"/>
     </row>
-    <row r="80" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
+    <row r="80" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
       <c r="A80" s="91" t="s">
         <v>178</v>
       </c>
@@ -14369,7 +13376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -14380,24 +13387,24 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="110" customWidth="1"/>
-    <col min="2" max="2" width="48.25" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="159" customWidth="1"/>
-    <col min="6" max="7" width="11.875" style="159" customWidth="1"/>
-    <col min="9" max="9" width="35.75" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="159" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="110" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="159" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" style="159" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="159" customWidth="1"/>
     <col min="11" max="11" width="20" style="159" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="208" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="208" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="159" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="208" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="208" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="159" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="209" customFormat="1" ht="35.25" thickBot="1">
+    <row r="1" spans="1:15" s="209" customFormat="1" ht="48" thickBot="1">
       <c r="A1" s="238" t="s">
         <v>6</v>
       </c>
@@ -14444,7 +13451,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="159" customFormat="1" ht="27.75" thickTop="1">
+    <row r="2" spans="1:15" s="159" customFormat="1" ht="39" thickTop="1">
       <c r="A2" s="94" t="s">
         <v>263</v>
       </c>
@@ -14601,7 +13608,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17.25" thickBot="1">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1">
       <c r="A7" s="100" t="s">
         <v>263</v>
       </c>
@@ -14630,7 +13637,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="8" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A8" s="88" t="s">
         <v>263</v>
       </c>
@@ -14729,7 +13736,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.25" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="91" t="s">
         <v>263</v>
       </c>
@@ -14758,7 +13765,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="27.75" thickBot="1">
+    <row r="12" spans="1:15" ht="39" thickBot="1">
       <c r="A12" s="222" t="s">
         <v>263</v>
       </c>
@@ -14799,7 +13806,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="13" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A13" s="88" t="s">
         <v>263</v>
       </c>
@@ -14898,7 +13905,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.25" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="A16" s="91" t="s">
         <v>263</v>
       </c>
@@ -14927,7 +13934,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="17" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A17" s="88" t="s">
         <v>263</v>
       </c>
@@ -15103,7 +14110,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17.25" thickBot="1">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="91" t="s">
         <v>263</v>
       </c>
@@ -15130,7 +14137,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="24" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A24" s="227" t="s">
         <v>263</v>
       </c>
@@ -15225,7 +14232,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17.25" thickBot="1">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1">
       <c r="A27" s="240" t="s">
         <v>263</v>
       </c>
@@ -15252,7 +14259,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="28" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A28" s="88" t="s">
         <v>260</v>
       </c>
@@ -15407,7 +14414,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="17.25" thickBot="1">
+    <row r="33" spans="1:15" ht="15.75" thickBot="1">
       <c r="A33" s="91" t="s">
         <v>260</v>
       </c>
@@ -15434,7 +14441,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="34" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A34" s="88" t="s">
         <v>260</v>
       </c>
@@ -15533,7 +14540,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="17.25" thickBot="1">
+    <row r="37" spans="1:15" ht="15.75" thickBot="1">
       <c r="A37" s="91" t="s">
         <v>260</v>
       </c>
@@ -15560,7 +14567,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="38" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A38" s="88" t="s">
         <v>260</v>
       </c>
@@ -15659,7 +14666,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="17.25" thickBot="1">
+    <row r="41" spans="1:15" ht="15.75" thickBot="1">
       <c r="A41" s="91" t="s">
         <v>260</v>
       </c>
@@ -15686,7 +14693,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="42" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A42" s="88" t="s">
         <v>260</v>
       </c>
@@ -15810,7 +14817,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="17.25" thickBot="1">
+    <row r="46" spans="1:15" ht="15.75" thickBot="1">
       <c r="A46" s="91" t="s">
         <v>260</v>
       </c>
@@ -15837,7 +14844,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="47" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A47" s="88" t="s">
         <v>260</v>
       </c>
@@ -15936,7 +14943,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="17.25" thickBot="1">
+    <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="A50" s="91" t="s">
         <v>260</v>
       </c>
@@ -15963,7 +14970,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="51" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A51" s="88" t="s">
         <v>260</v>
       </c>
@@ -16033,7 +15040,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="17.25" thickBot="1">
+    <row r="53" spans="1:15" ht="15.75" thickBot="1">
       <c r="A53" s="91" t="s">
         <v>260</v>
       </c>
@@ -16060,7 +15067,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="54" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A54" s="88" t="s">
         <v>260</v>
       </c>
@@ -16159,7 +15166,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="17.25" thickBot="1">
+    <row r="57" spans="1:15" ht="15.75" thickBot="1">
       <c r="A57" s="91" t="s">
         <v>260</v>
       </c>
@@ -16186,7 +15193,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="58" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A58" s="88" t="s">
         <v>260</v>
       </c>
@@ -16283,7 +15290,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="17.25" thickBot="1">
+    <row r="61" spans="1:15" ht="15.75" thickBot="1">
       <c r="A61" s="91" t="s">
         <v>260</v>
       </c>
@@ -16312,7 +15319,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="62" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A62" s="88" t="s">
         <v>260</v>
       </c>
@@ -16382,7 +15389,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="17.25" thickBot="1">
+    <row r="64" spans="1:15" ht="15.75" thickBot="1">
       <c r="A64" s="91" t="s">
         <v>260</v>
       </c>
@@ -16411,7 +15418,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="65" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A65" s="88" t="s">
         <v>260</v>
       </c>
@@ -16510,7 +15517,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="17.25" thickBot="1">
+    <row r="68" spans="1:15" ht="15.75" thickBot="1">
       <c r="A68" s="91" t="s">
         <v>260</v>
       </c>
@@ -16539,7 +15546,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="69" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A69" s="227" t="s">
         <v>260</v>
       </c>
@@ -16580,7 +15587,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="17.25" thickBot="1">
+    <row r="70" spans="1:15" ht="15.75" thickBot="1">
       <c r="A70" s="91" t="s">
         <v>260</v>
       </c>
@@ -16609,7 +15616,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="71" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A71" s="227" t="s">
         <v>545</v>
       </c>
@@ -16650,7 +15657,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="17.25" thickBot="1">
+    <row r="72" spans="1:15" ht="15.75" thickBot="1">
       <c r="A72" s="91" t="s">
         <v>545</v>
       </c>
@@ -16679,7 +15686,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="73" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A73" s="88" t="s">
         <v>297</v>
       </c>
@@ -16828,7 +15835,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="17.25" thickBot="1">
+    <row r="78" spans="1:15" ht="15.75" thickBot="1">
       <c r="A78" s="91" t="s">
         <v>297</v>
       </c>
@@ -16855,7 +15862,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="79" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A79" s="88" t="s">
         <v>297</v>
       </c>
@@ -16950,7 +15957,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="17.25" thickBot="1">
+    <row r="82" spans="1:15" ht="15.75" thickBot="1">
       <c r="A82" s="91" t="s">
         <v>297</v>
       </c>
@@ -16977,7 +15984,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="83" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A83" s="88" t="s">
         <v>297</v>
       </c>
@@ -17161,7 +16168,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="17.25" thickBot="1">
+    <row r="89" spans="1:15" ht="15.75" thickBot="1">
       <c r="A89" s="91" t="s">
         <v>297</v>
       </c>
@@ -17190,7 +16197,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="90" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A90" s="88" t="s">
         <v>297</v>
       </c>
@@ -17316,7 +16323,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="17.25" thickBot="1">
+    <row r="94" spans="1:15" ht="15.75" thickBot="1">
       <c r="A94" s="91" t="s">
         <v>297</v>
       </c>
@@ -17343,7 +16350,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="159" customFormat="1" ht="27">
+    <row r="95" spans="1:15" s="159" customFormat="1" ht="38.25">
       <c r="A95" s="88" t="s">
         <v>297</v>
       </c>
@@ -17492,7 +16499,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="17.25" thickBot="1">
+    <row r="100" spans="1:15" ht="15.75" thickBot="1">
       <c r="A100" s="91" t="s">
         <v>297</v>
       </c>
@@ -17526,7 +16533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -17536,85 +16543,85 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="17" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="17" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
-    <col min="8" max="9" width="7.5" style="17" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="17" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="17" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1"/>
+    <col min="8" max="9" width="7.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="17" customWidth="1"/>
     <col min="14" max="14" width="9" style="17"/>
-    <col min="15" max="15" width="19.5" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="17" customWidth="1"/>
     <col min="16" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="294" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="18.75">
+      <c r="A1" s="309" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="309"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="310" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="295"/>
-      <c r="L2" s="295"/>
-      <c r="M2" s="295"/>
-      <c r="N2" s="295"/>
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
+      <c r="L2" s="310"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="310"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="311" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="296" t="s">
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="311" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="297"/>
-      <c r="J3" s="297"/>
-      <c r="K3" s="297"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="312"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1">
+    <row r="4" spans="1:15" ht="24.75" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>75</v>
       </c>
@@ -17661,7 +16668,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.25" thickTop="1">
+    <row r="5" spans="1:15" ht="15.75" thickTop="1">
       <c r="A5" s="19" t="s">
         <v>89</v>
       </c>
@@ -17702,7 +16709,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="24">
       <c r="A6" s="21" t="s">
         <v>89</v>
       </c>
@@ -18112,7 +17119,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.25" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="A16" s="23" t="s">
         <v>89</v>
       </c>
@@ -18360,7 +17367,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17.25" thickBot="1">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1">
       <c r="A22" s="23" t="s">
         <v>121</v>
       </c>
@@ -18569,7 +17576,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="24">
       <c r="A27" s="21" t="s">
         <v>139</v>
       </c>
@@ -18612,7 +17619,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17.25" thickBot="1">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>139</v>
       </c>
@@ -18655,7 +17662,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="24">
       <c r="A29" s="27" t="s">
         <v>154</v>
       </c>
@@ -18695,7 +17702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="24">
       <c r="A30" s="32" t="s">
         <v>154</v>
       </c>
@@ -18735,7 +17742,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="24">
       <c r="A31" s="32" t="s">
         <v>154</v>
       </c>
@@ -18775,7 +17782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="24">
       <c r="A32" s="32" t="s">
         <v>154</v>
       </c>
@@ -18815,7 +17822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17.25" thickBot="1">
+    <row r="33" spans="1:14" ht="15.75" thickBot="1">
       <c r="A33" s="38" t="s">
         <v>166</v>
       </c>
@@ -19291,7 +18298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -19301,48 +18308,48 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="67" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="67" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" style="67" customWidth="1"/>
     <col min="3" max="3" width="35" style="67" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="68" customWidth="1"/>
     <col min="5" max="5" width="9" style="68"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="299" t="s">
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="314" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="299" t="s">
+      <c r="B1" s="314" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="299" t="s">
+      <c r="C1" s="314" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="301" t="s">
+      <c r="D1" s="316" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="301"/>
-      <c r="F1" s="299" t="s">
+      <c r="E1" s="316"/>
+      <c r="F1" s="314" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="300"/>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A2" s="315"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
       <c r="D2" s="125" t="s">
         <v>221</v>
       </c>
       <c r="E2" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="300"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickTop="1">
+      <c r="F2" s="315"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickTop="1">
       <c r="A3" s="126" t="s">
         <v>223</v>
       </c>
@@ -19388,7 +18395,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="134" t="s">
         <v>226</v>
       </c>
@@ -19496,7 +18503,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="A13" s="134"/>
       <c r="B13" s="134" t="s">
         <v>239</v>
@@ -19532,7 +18539,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="61" t="s">
         <v>249</v>
       </c>
@@ -19576,7 +18583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -19586,25 +18593,25 @@
       <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" style="112" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="112" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="112" customWidth="1"/>
     <col min="4" max="4" width="62" customWidth="1"/>
-    <col min="5" max="5" width="37.75" style="111" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="111" customWidth="1"/>
     <col min="7" max="7" width="9" style="110"/>
-    <col min="8" max="8" width="37.75" style="110" customWidth="1"/>
-    <col min="15" max="20" width="26.25" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="110" customWidth="1"/>
+    <col min="15" max="20" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
       <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="318" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="303"/>
+      <c r="C3" s="318"/>
       <c r="D3" s="120" t="s">
         <v>390</v>
       </c>
@@ -19622,10 +18629,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="304" t="s">
+      <c r="B4" s="319" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="305"/>
+      <c r="C4" s="320"/>
       <c r="D4" s="123" t="s">
         <v>389</v>
       </c>
@@ -19643,7 +18650,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="306" t="s">
+      <c r="B5" s="321" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="140" t="s">
@@ -19664,7 +18671,7 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="307"/>
+      <c r="B6" s="322"/>
       <c r="C6" s="140" t="s">
         <v>393</v>
       </c>
@@ -19703,10 +18710,10 @@
       <c r="H8" s="149"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="318" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="303"/>
+      <c r="C10" s="318"/>
       <c r="D10" s="120" t="s">
         <v>378</v>
       </c>
@@ -19724,10 +18731,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="302" t="s">
+      <c r="B11" s="317" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="302"/>
+      <c r="C11" s="317"/>
       <c r="D11" s="109" t="s">
         <v>372</v>
       </c>
@@ -19744,11 +18751,11 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="302" t="s">
+    <row r="12" spans="2:8" ht="60">
+      <c r="B12" s="317" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="302"/>
+      <c r="C12" s="317"/>
       <c r="D12" s="109" t="s">
         <v>370</v>
       </c>
@@ -19766,10 +18773,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="302" t="s">
+      <c r="B13" s="317" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="302"/>
+      <c r="C13" s="317"/>
       <c r="D13" s="109" t="s">
         <v>366</v>
       </c>
@@ -19785,10 +18792,10 @@
       <c r="H13" s="143"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="302" t="s">
+      <c r="B14" s="317" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="302"/>
+      <c r="C14" s="317"/>
       <c r="D14" s="109" t="s">
         <v>364</v>
       </c>
@@ -19806,10 +18813,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="302" t="s">
+      <c r="B15" s="317" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="302"/>
+      <c r="C15" s="317"/>
       <c r="D15" s="119"/>
       <c r="E15" s="118" t="s">
         <v>361</v>
@@ -19823,10 +18830,10 @@
       <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="302" t="s">
+      <c r="B16" s="317" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="302"/>
+      <c r="C16" s="317"/>
       <c r="D16" s="109" t="s">
         <v>394</v>
       </c>
@@ -19957,7 +18964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -19970,15 +18977,15 @@
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="60.75" style="69" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" style="69" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="69" customWidth="1"/>
     <col min="3" max="4" width="32" style="69" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="69"/>
-    <col min="6" max="6" width="40.125" style="168" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="69" customWidth="1"/>
-    <col min="8" max="16384" width="12.625" style="69"/>
+    <col min="5" max="5" width="12.5703125" style="69"/>
+    <col min="6" max="6" width="40.140625" style="168" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="69" customWidth="1"/>
+    <col min="8" max="16384" width="12.5703125" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1">
@@ -20317,7 +19324,7 @@
       </c>
       <c r="G20" s="171"/>
     </row>
-    <row r="21" spans="1:7" ht="24.75">
+    <row r="21" spans="1:7" ht="36.75">
       <c r="A21" s="185"/>
       <c r="B21" s="185" t="s">
         <v>448</v>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="1"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="859">
   <si>
     <t>경기천년소풍(제1회)</t>
   </si>
@@ -3176,10 +3176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경기문화재단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기도 문화쳬육관광국</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3335,10 +3331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경기문화재단(문화플랫폼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전시홍보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3696,32 +3688,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화예술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정책영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정책분야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문화정책</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화사업팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기문화재단(문화플랫폼)</t>
   </si>
   <si>
     <t>처리과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4982,7 +4955,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5122,6 +5095,18 @@
     <xf numFmtId="0" fontId="56" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -5163,7 +5148,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6015,8 +6000,65 @@
     <xf numFmtId="0" fontId="12" fillId="40" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="105">
     <cellStyle name="20% - 강조색1" xfId="30" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="34" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="38" builtinId="38" customBuiltin="1"/>
@@ -6078,6 +6120,12 @@
     <cellStyle name="표준 4 20" xfId="91"/>
     <cellStyle name="표준 4 21" xfId="80"/>
     <cellStyle name="표준 4 22" xfId="86"/>
+    <cellStyle name="표준 4 23" xfId="93"/>
+    <cellStyle name="표준 4 24" xfId="99"/>
+    <cellStyle name="표준 4 25" xfId="95"/>
+    <cellStyle name="표준 4 26" xfId="103"/>
+    <cellStyle name="표준 4 27" xfId="97"/>
+    <cellStyle name="표준 4 28" xfId="104"/>
     <cellStyle name="표준 4 3" xfId="54"/>
     <cellStyle name="표준 4 4" xfId="53"/>
     <cellStyle name="표준 4 5" xfId="73"/>
@@ -6102,6 +6150,12 @@
     <cellStyle name="표준 7 20" xfId="65"/>
     <cellStyle name="표준 7 21" xfId="81"/>
     <cellStyle name="표준 7 22" xfId="92"/>
+    <cellStyle name="표준 7 23" xfId="94"/>
+    <cellStyle name="표준 7 24" xfId="102"/>
+    <cellStyle name="표준 7 25" xfId="98"/>
+    <cellStyle name="표준 7 26" xfId="100"/>
+    <cellStyle name="표준 7 27" xfId="96"/>
+    <cellStyle name="표준 7 28" xfId="101"/>
     <cellStyle name="표준 7 3" xfId="55"/>
     <cellStyle name="표준 7 4" xfId="56"/>
     <cellStyle name="표준 7 5" xfId="74"/>
@@ -6414,12 +6468,12 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="156" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="319" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="156" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="156" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="2" customWidth="1"/>
@@ -6435,20 +6489,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="77" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="77" t="s">
-        <v>861</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>860</v>
+      <c r="A1" s="326" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" s="326" t="s">
+        <v>665</v>
       </c>
       <c r="C1" s="77" t="s">
         <v>658</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F1" s="77" t="s">
         <v>729</v>
@@ -6461,20 +6515,20 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" thickTop="1">
-      <c r="A2" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B2" s="156" t="s">
-        <v>780</v>
+      <c r="A2" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B2" s="321" t="s">
+        <v>857</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D2" s="156" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E2" s="156" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F2" s="156" t="s">
         <v>728</v>
@@ -6489,20 +6543,20 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B3" s="156" t="s">
-        <v>757</v>
+      <c r="A3" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B3" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C3" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F3" s="156" t="s">
         <v>728</v>
@@ -6517,20 +6571,20 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1">
-      <c r="A4" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>757</v>
+      <c r="A4" s="322" t="s">
+        <v>856</v>
+      </c>
+      <c r="B4" s="322" t="s">
+        <v>668</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>728</v>
@@ -6545,20 +6599,20 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" s="154" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A5" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B5" s="154" t="s">
-        <v>757</v>
+      <c r="A5" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B5" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C5" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D5" s="154" t="s">
         <v>774</v>
       </c>
-      <c r="D5" s="154" t="s">
-        <v>775</v>
-      </c>
       <c r="E5" s="154" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F5" s="154" t="s">
         <v>728</v>
@@ -6567,26 +6621,26 @@
         <v>5</v>
       </c>
       <c r="H5" s="250" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M5" s="158"/>
       <c r="N5" s="158"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B6" s="156" t="s">
-        <v>757</v>
+      <c r="A6" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B6" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C6" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F6" s="156" t="s">
         <v>730</v>
@@ -6601,20 +6655,20 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B7" s="156" t="s">
-        <v>757</v>
+      <c r="A7" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B7" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C7" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F7" s="156" t="s">
         <v>730</v>
@@ -6628,20 +6682,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B8" s="156" t="s">
-        <v>757</v>
+      <c r="A8" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B8" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C8" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F8" s="156" t="s">
         <v>730</v>
@@ -6655,20 +6709,20 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A9" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B9" s="154" t="s">
-        <v>757</v>
+      <c r="A9" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B9" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C9" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F9" s="154" t="s">
         <v>730</v>
@@ -6681,20 +6735,20 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>757</v>
+      <c r="A10" s="322" t="s">
+        <v>856</v>
+      </c>
+      <c r="B10" s="322" t="s">
+        <v>668</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F10" s="156" t="s">
         <v>731</v>
@@ -6707,20 +6761,20 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1">
-      <c r="A11" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B11" s="157" t="s">
-        <v>757</v>
+      <c r="A11" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B11" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C11" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>731</v>
@@ -6733,20 +6787,20 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1">
-      <c r="A12" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B12" s="157" t="s">
-        <v>757</v>
+      <c r="A12" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B12" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C12" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>731</v>
@@ -6759,20 +6813,20 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1">
-      <c r="A13" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B13" s="157" t="s">
-        <v>757</v>
+      <c r="A13" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B13" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C13" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>731</v>
@@ -6785,20 +6839,20 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1">
-      <c r="A14" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B14" s="157" t="s">
-        <v>757</v>
+      <c r="A14" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B14" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C14" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>731</v>
@@ -6811,20 +6865,20 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A15" s="158" t="s">
-        <v>862</v>
-      </c>
-      <c r="B15" s="158" t="s">
-        <v>757</v>
+      <c r="A15" s="324" t="s">
+        <v>856</v>
+      </c>
+      <c r="B15" s="324" t="s">
+        <v>668</v>
       </c>
       <c r="C15" s="158" t="s">
+        <v>773</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>731</v>
@@ -6835,20 +6889,20 @@
       <c r="H15" s="224"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>757</v>
+      <c r="A16" s="320" t="s">
+        <v>856</v>
+      </c>
+      <c r="B16" s="320" t="s">
+        <v>668</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F16" s="157" t="s">
         <v>718</v>
@@ -6861,20 +6915,20 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1">
-      <c r="A17" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B17" s="157" t="s">
-        <v>757</v>
+      <c r="A17" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B17" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C17" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>718</v>
@@ -6887,20 +6941,20 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A18" s="158" t="s">
-        <v>862</v>
-      </c>
-      <c r="B18" s="158" t="s">
-        <v>757</v>
+      <c r="A18" s="324" t="s">
+        <v>856</v>
+      </c>
+      <c r="B18" s="324" t="s">
+        <v>668</v>
       </c>
       <c r="C18" s="158" t="s">
+        <v>773</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>718</v>
@@ -6913,20 +6967,20 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="14" customFormat="1">
-      <c r="A19" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B19" s="157" t="s">
-        <v>757</v>
+      <c r="A19" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B19" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C19" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D19" s="156" t="s">
         <v>774</v>
       </c>
-      <c r="D19" s="156" t="s">
-        <v>775</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F19" s="157" t="s">
         <v>748</v>
@@ -6939,20 +6993,20 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1">
-      <c r="A20" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B20" s="157" t="s">
-        <v>757</v>
+      <c r="A20" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B20" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C20" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>748</v>
@@ -6965,20 +7019,20 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1">
-      <c r="A21" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B21" s="157" t="s">
-        <v>757</v>
+      <c r="A21" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B21" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C21" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>748</v>
@@ -6991,20 +7045,20 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1">
-      <c r="A22" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B22" s="157" t="s">
-        <v>757</v>
+      <c r="A22" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B22" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C22" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>748</v>
@@ -7015,20 +7069,20 @@
       <c r="H22" s="246"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1">
-      <c r="A23" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B23" s="157" t="s">
-        <v>757</v>
+      <c r="A23" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B23" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C23" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>748</v>
@@ -7039,20 +7093,20 @@
       <c r="H23" s="246"/>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1">
-      <c r="A24" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B24" s="157" t="s">
-        <v>757</v>
+      <c r="A24" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B24" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C24" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>748</v>
@@ -7063,20 +7117,20 @@
       <c r="H24" s="246"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A25" s="158" t="s">
-        <v>862</v>
-      </c>
-      <c r="B25" s="158" t="s">
-        <v>757</v>
+      <c r="A25" s="324" t="s">
+        <v>856</v>
+      </c>
+      <c r="B25" s="324" t="s">
+        <v>668</v>
       </c>
       <c r="C25" s="158" t="s">
+        <v>773</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>748</v>
@@ -7085,24 +7139,24 @@
         <v>26</v>
       </c>
       <c r="H25" s="250" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="14" customFormat="1">
-      <c r="A26" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B26" s="157" t="s">
-        <v>757</v>
+      <c r="A26" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B26" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C26" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F26" s="157" t="s">
         <v>725</v>
@@ -7115,20 +7169,20 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B27" s="156" t="s">
-        <v>757</v>
+      <c r="A27" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B27" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C27" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F27" s="157" t="s">
         <v>726</v>
@@ -7141,20 +7195,20 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A28" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B28" s="154" t="s">
-        <v>757</v>
+      <c r="A28" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B28" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C28" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F28" s="158" t="s">
         <v>726</v>
@@ -7167,20 +7221,20 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B29" s="156" t="s">
-        <v>757</v>
+      <c r="A29" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B29" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C29" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F29" s="157" t="s">
         <v>727</v>
@@ -7193,20 +7247,20 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B30" s="156" t="s">
-        <v>757</v>
+      <c r="A30" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B30" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C30" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>727</v>
@@ -7219,20 +7273,20 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B31" s="156" t="s">
-        <v>757</v>
+      <c r="A31" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B31" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C31" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>727</v>
@@ -7242,20 +7296,20 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A32" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B32" s="154" t="s">
-        <v>757</v>
+      <c r="A32" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B32" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C32" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>727</v>
@@ -7268,20 +7322,20 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B33" s="156" t="s">
-        <v>757</v>
+      <c r="A33" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B33" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C33" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F33" s="157" t="s">
         <v>732</v>
@@ -7294,20 +7348,20 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>757</v>
+      <c r="A34" s="322" t="s">
+        <v>856</v>
+      </c>
+      <c r="B34" s="322" t="s">
+        <v>668</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>732</v>
@@ -7320,20 +7374,20 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="154" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A35" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B35" s="154" t="s">
-        <v>757</v>
+      <c r="A35" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B35" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C35" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D35" s="154" t="s">
         <v>774</v>
       </c>
-      <c r="D35" s="154" t="s">
-        <v>775</v>
-      </c>
       <c r="E35" s="154" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F35" s="158" t="s">
         <v>732</v>
@@ -7344,20 +7398,20 @@
       <c r="H35" s="224"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B36" s="156" t="s">
-        <v>757</v>
+      <c r="A36" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B36" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C36" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F36" s="157" t="s">
         <v>733</v>
@@ -7370,20 +7424,20 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B37" s="156" t="s">
-        <v>757</v>
+      <c r="A37" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B37" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C37" s="156" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D37" s="156" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>733</v>
@@ -7396,20 +7450,20 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A38" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B38" s="154" t="s">
-        <v>757</v>
+      <c r="A38" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B38" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C38" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>733</v>
@@ -7418,24 +7472,24 @@
         <v>2</v>
       </c>
       <c r="H38" s="250" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B39" s="156" t="s">
-        <v>757</v>
+      <c r="A39" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B39" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C39" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F39" s="157" t="s">
         <v>734</v>
@@ -7448,20 +7502,20 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B40" s="156" t="s">
-        <v>757</v>
+      <c r="A40" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B40" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C40" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>734</v>
@@ -7471,20 +7525,20 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B41" s="156" t="s">
-        <v>757</v>
+      <c r="A41" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B41" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C41" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>734</v>
@@ -7497,20 +7551,20 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B42" s="156" t="s">
-        <v>757</v>
+      <c r="A42" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B42" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C42" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>734</v>
@@ -7523,20 +7577,20 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A43" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B43" s="154" t="s">
-        <v>757</v>
+      <c r="A43" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B43" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C43" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E43" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>734</v>
@@ -7549,20 +7603,20 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B44" s="156" t="s">
-        <v>757</v>
+      <c r="A44" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B44" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C44" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F44" s="157" t="s">
         <v>735</v>
@@ -7575,20 +7629,20 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B45" s="156" t="s">
-        <v>757</v>
+      <c r="A45" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B45" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C45" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>735</v>
@@ -7601,20 +7655,20 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B46" s="156" t="s">
-        <v>757</v>
+      <c r="A46" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B46" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C46" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>735</v>
@@ -7627,20 +7681,20 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A47" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B47" s="154" t="s">
-        <v>757</v>
+      <c r="A47" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B47" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C47" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>735</v>
@@ -7653,20 +7707,20 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B48" s="156" t="s">
-        <v>757</v>
+      <c r="A48" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B48" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C48" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F48" s="157" t="s">
         <v>736</v>
@@ -7679,20 +7733,20 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B49" s="156" t="s">
-        <v>757</v>
+      <c r="A49" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B49" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C49" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>736</v>
@@ -7705,20 +7759,20 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A50" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B50" s="154" t="s">
-        <v>757</v>
+      <c r="A50" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B50" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C50" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E50" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>736</v>
@@ -7731,20 +7785,20 @@
       <c r="J50" s="228"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B51" s="156" t="s">
-        <v>757</v>
+      <c r="A51" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B51" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C51" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F51" s="156" t="s">
         <v>737</v>
@@ -7757,20 +7811,20 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B52" s="156" t="s">
-        <v>757</v>
+      <c r="A52" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B52" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C52" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>737</v>
@@ -7783,20 +7837,20 @@
       </c>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A53" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B53" s="154" t="s">
-        <v>757</v>
+      <c r="A53" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B53" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C53" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E53" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>737</v>
@@ -7810,20 +7864,20 @@
       <c r="I53" s="219"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B54" s="156" t="s">
-        <v>757</v>
+      <c r="A54" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B54" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C54" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F54" s="156" t="s">
         <v>738</v>
@@ -7836,20 +7890,20 @@
       </c>
     </row>
     <row r="55" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A55" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B55" s="154" t="s">
-        <v>757</v>
+      <c r="A55" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B55" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C55" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E55" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>738</v>
@@ -7862,20 +7916,20 @@
       </c>
     </row>
     <row r="56" spans="1:10" s="14" customFormat="1">
-      <c r="A56" s="157" t="s">
-        <v>862</v>
-      </c>
-      <c r="B56" s="157" t="s">
-        <v>757</v>
+      <c r="A56" s="323" t="s">
+        <v>856</v>
+      </c>
+      <c r="B56" s="323" t="s">
+        <v>668</v>
       </c>
       <c r="C56" s="157" t="s">
+        <v>773</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F56" s="157" t="s">
         <v>739</v>
@@ -7888,20 +7942,20 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="4" customFormat="1">
-      <c r="A57" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>757</v>
+      <c r="A57" s="322" t="s">
+        <v>856</v>
+      </c>
+      <c r="B57" s="322" t="s">
+        <v>668</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="E57" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F57" s="157" t="s">
         <v>739</v>
@@ -7914,20 +7968,20 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="154" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A58" s="154" t="s">
-        <v>862</v>
-      </c>
-      <c r="B58" s="154" t="s">
-        <v>757</v>
+      <c r="A58" s="325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B58" s="325" t="s">
+        <v>668</v>
       </c>
       <c r="C58" s="154" t="s">
+        <v>773</v>
+      </c>
+      <c r="D58" s="154" t="s">
         <v>774</v>
       </c>
-      <c r="D58" s="154" t="s">
-        <v>775</v>
-      </c>
       <c r="E58" s="154" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F58" s="158" t="s">
         <v>739</v>
@@ -7940,20 +7994,20 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B59" s="156" t="s">
-        <v>757</v>
+      <c r="A59" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B59" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C59" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F59" s="157" t="s">
         <v>740</v>
@@ -7966,20 +8020,20 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B60" s="156" t="s">
-        <v>757</v>
+      <c r="A60" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B60" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C60" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>740</v>
@@ -7992,20 +8046,20 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="156" t="s">
-        <v>862</v>
-      </c>
-      <c r="B61" s="156" t="s">
-        <v>757</v>
+      <c r="A61" s="321" t="s">
+        <v>856</v>
+      </c>
+      <c r="B61" s="321" t="s">
+        <v>668</v>
       </c>
       <c r="C61" s="156" t="s">
+        <v>773</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>740</v>
@@ -8018,20 +8072,20 @@
       </c>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A62" s="158" t="s">
-        <v>862</v>
-      </c>
-      <c r="B62" s="158" t="s">
-        <v>757</v>
+      <c r="A62" s="324" t="s">
+        <v>856</v>
+      </c>
+      <c r="B62" s="324" t="s">
+        <v>668</v>
       </c>
       <c r="C62" s="158" t="s">
+        <v>773</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E62" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>740</v>
@@ -8044,20 +8098,20 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1">
-      <c r="A63" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>757</v>
+      <c r="A63" s="320" t="s">
+        <v>856</v>
+      </c>
+      <c r="B63" s="320" t="s">
+        <v>668</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>741</v>
@@ -8070,20 +8124,20 @@
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1">
-      <c r="A64" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>757</v>
+      <c r="A64" s="320" t="s">
+        <v>856</v>
+      </c>
+      <c r="B64" s="320" t="s">
+        <v>668</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>741</v>
@@ -8096,20 +8150,20 @@
       </c>
     </row>
     <row r="65" spans="1:8" s="1" customFormat="1">
-      <c r="A65" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>757</v>
+      <c r="A65" s="320" t="s">
+        <v>856</v>
+      </c>
+      <c r="B65" s="320" t="s">
+        <v>668</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>741</v>
@@ -8122,20 +8176,20 @@
       </c>
     </row>
     <row r="66" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A66" s="158" t="s">
-        <v>862</v>
-      </c>
-      <c r="B66" s="158" t="s">
-        <v>757</v>
+      <c r="A66" s="324" t="s">
+        <v>856</v>
+      </c>
+      <c r="B66" s="324" t="s">
+        <v>668</v>
       </c>
       <c r="C66" s="158" t="s">
+        <v>773</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="E66" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>741</v>
@@ -9132,7 +9186,7 @@
         <v>370</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -9199,7 +9253,7 @@
         <v>662</v>
       </c>
       <c r="E9" s="259" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F9" s="259" t="s">
         <v>663</v>
@@ -9225,12 +9279,12 @@
       <c r="D10" s="252"/>
       <c r="E10" s="252"/>
       <c r="F10" s="252" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G10" s="177"/>
       <c r="H10" s="177"/>
       <c r="I10" s="177" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
@@ -9246,7 +9300,7 @@
       <c r="D11" s="252"/>
       <c r="E11" s="252"/>
       <c r="F11" s="252" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G11" s="251" t="s">
         <v>670</v>
@@ -9255,7 +9309,7 @@
         <v>670</v>
       </c>
       <c r="I11" s="177" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
@@ -9275,7 +9329,7 @@
         <v>669</v>
       </c>
       <c r="F12" s="251" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G12" s="251" t="s">
         <v>675</v>
@@ -9284,7 +9338,7 @@
         <v>675</v>
       </c>
       <c r="I12" s="177" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="80" customFormat="1" ht="24.75">
@@ -9302,7 +9356,7 @@
         <v>674</v>
       </c>
       <c r="F13" s="251" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G13" s="251" t="s">
         <v>679</v>
@@ -9311,7 +9365,7 @@
         <v>679</v>
       </c>
       <c r="I13" s="254" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.75">
@@ -9335,10 +9389,10 @@
         <v>678</v>
       </c>
       <c r="H14" s="177" t="s">
+        <v>763</v>
+      </c>
+      <c r="I14" s="177" t="s">
         <v>764</v>
-      </c>
-      <c r="I14" s="177" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
@@ -9349,7 +9403,7 @@
         <v>683</v>
       </c>
       <c r="C15" s="255" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D15" s="256" t="s">
         <v>681</v>
@@ -9364,19 +9418,19 @@
         <v>685</v>
       </c>
       <c r="H15" s="177" t="s">
+        <v>766</v>
+      </c>
+      <c r="I15" s="177" t="s">
         <v>767</v>
-      </c>
-      <c r="I15" s="177" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29.25" customHeight="1">
       <c r="A16" s="252" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="177"/>
       <c r="C16" s="258" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D16" s="252" t="s">
         <v>684</v>
@@ -9390,7 +9444,7 @@
       <c r="G16" s="177"/>
       <c r="H16" s="177"/>
       <c r="I16" s="177" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
@@ -9680,17 +9734,17 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="53" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="53" customWidth="1"/>
     <col min="2" max="3" width="9" style="53"/>
     <col min="4" max="4" width="12.625" style="291" customWidth="1"/>
-    <col min="5" max="5" width="41.25" style="291" customWidth="1"/>
+    <col min="5" max="5" width="46.375" style="291" customWidth="1"/>
     <col min="6" max="6" width="55.625" style="291" customWidth="1"/>
     <col min="7" max="7" width="27.875" style="294" customWidth="1"/>
     <col min="8" max="8" width="80.125" style="266" customWidth="1"/>
@@ -9709,14 +9763,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="287" customFormat="1" ht="35.25" thickBot="1">
-      <c r="A1" s="273" t="s">
-        <v>807</v>
+      <c r="A1" s="333" t="s">
+        <v>858</v>
       </c>
       <c r="B1" s="273" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="273" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D1" s="273" t="s">
         <v>655</v>
@@ -9725,13 +9779,13 @@
         <v>656</v>
       </c>
       <c r="F1" s="273" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G1" s="273" t="s">
         <v>749</v>
       </c>
       <c r="H1" s="282" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I1" s="281" t="s">
         <v>514</v>
@@ -9768,23 +9822,23 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="27">
-      <c r="A2" s="291" t="s">
-        <v>863</v>
+      <c r="A2" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B2" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C2" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D2" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E2" s="291" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F2" s="288" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G2" s="291" t="s">
         <v>690</v>
@@ -9823,20 +9877,20 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="27">
-      <c r="A3" s="291" t="s">
-        <v>863</v>
+      <c r="A3" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B3" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C3" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D3" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E3" s="291" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G3" s="290" t="s">
         <v>691</v>
@@ -9859,20 +9913,20 @@
       <c r="S3" s="290"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="293" t="s">
-        <v>863</v>
+      <c r="A4" s="329" t="s">
+        <v>496</v>
       </c>
       <c r="B4" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C4" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D4" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E4" s="291" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G4" s="295" t="s">
         <v>693</v>
@@ -9895,20 +9949,20 @@
       <c r="S4" s="295"/>
     </row>
     <row r="5" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A5" s="296" t="s">
-        <v>863</v>
+      <c r="A5" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B5" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C5" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D5" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E5" s="296" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F5" s="296"/>
       <c r="G5" s="292" t="s">
@@ -9932,23 +9986,23 @@
       <c r="S5" s="292"/>
     </row>
     <row r="6" spans="1:19" ht="40.5">
-      <c r="A6" s="291" t="s">
-        <v>863</v>
+      <c r="A6" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B6" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C6" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D6" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E6" s="291" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F6" s="288" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G6" s="291" t="s">
         <v>689</v>
@@ -9987,20 +10041,20 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="27">
-      <c r="A7" s="291" t="s">
-        <v>863</v>
+      <c r="A7" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B7" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C7" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D7" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E7" s="291" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G7" s="294" t="s">
         <v>694</v>
@@ -10023,20 +10077,20 @@
       <c r="S7" s="294"/>
     </row>
     <row r="8" spans="1:19" ht="27">
-      <c r="A8" s="291" t="s">
-        <v>863</v>
+      <c r="A8" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B8" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C8" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D8" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E8" s="291" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G8" s="294" t="s">
         <v>45</v>
@@ -10059,20 +10113,20 @@
       <c r="S8" s="294"/>
     </row>
     <row r="9" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A9" s="296" t="s">
-        <v>863</v>
+      <c r="A9" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B9" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C9" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D9" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E9" s="296" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F9" s="296"/>
       <c r="G9" s="292" t="s">
@@ -10096,29 +10150,29 @@
       <c r="S9" s="292"/>
     </row>
     <row r="10" spans="1:19" ht="27">
-      <c r="A10" s="291" t="s">
-        <v>863</v>
+      <c r="A10" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B10" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C10" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D10" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E10" s="291" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F10" s="265" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G10" s="291" t="s">
         <v>695</v>
       </c>
       <c r="H10" s="265" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I10" s="265" t="s">
         <v>580</v>
@@ -10151,20 +10205,20 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="291" t="s">
-        <v>863</v>
+      <c r="A11" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B11" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C11" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D11" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E11" s="291" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G11" s="294" t="s">
         <v>568</v>
@@ -10187,20 +10241,20 @@
       <c r="S11" s="294"/>
     </row>
     <row r="12" spans="1:19" ht="40.5">
-      <c r="A12" s="291" t="s">
-        <v>863</v>
+      <c r="A12" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B12" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C12" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D12" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E12" s="291" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G12" s="294" t="s">
         <v>569</v>
@@ -10223,20 +10277,20 @@
       <c r="S12" s="294"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="291" t="s">
-        <v>863</v>
+      <c r="A13" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B13" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C13" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D13" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E13" s="291" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G13" s="294" t="s">
         <v>570</v>
@@ -10259,20 +10313,20 @@
       <c r="S13" s="294"/>
     </row>
     <row r="14" spans="1:19" s="56" customFormat="1" ht="41.25" thickBot="1">
-      <c r="A14" s="296" t="s">
-        <v>863</v>
+      <c r="A14" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B14" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C14" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D14" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E14" s="296" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F14" s="296"/>
       <c r="G14" s="292" t="s">
@@ -10296,29 +10350,29 @@
       <c r="S14" s="292"/>
     </row>
     <row r="15" spans="1:19" ht="27">
-      <c r="A15" s="291" t="s">
-        <v>863</v>
+      <c r="A15" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B15" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C15" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D15" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E15" s="294" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F15" s="265" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G15" s="291" t="s">
         <v>696</v>
       </c>
       <c r="H15" s="265" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I15" s="265" t="s">
         <v>585</v>
@@ -10351,20 +10405,20 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="291" t="s">
-        <v>863</v>
+      <c r="A16" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B16" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C16" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D16" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E16" s="294" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F16" s="294"/>
       <c r="G16" s="294" t="s">
@@ -10388,20 +10442,20 @@
       <c r="S16" s="294"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A17" s="296" t="s">
-        <v>863</v>
+      <c r="A17" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B17" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C17" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D17" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E17" s="292" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F17" s="292"/>
       <c r="G17" s="292" t="s">
@@ -10425,23 +10479,23 @@
       <c r="S17" s="292"/>
     </row>
     <row r="18" spans="1:19" ht="40.5">
-      <c r="A18" s="291" t="s">
-        <v>863</v>
+      <c r="A18" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B18" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C18" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D18" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E18" s="294" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F18" s="265" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G18" s="291" t="s">
         <v>698</v>
@@ -10484,20 +10538,20 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="40.5">
-      <c r="A19" s="291" t="s">
-        <v>863</v>
+      <c r="A19" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B19" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C19" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D19" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E19" s="294" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F19" s="294"/>
       <c r="G19" s="294" t="s">
@@ -10541,20 +10595,20 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="27">
-      <c r="A20" s="291" t="s">
-        <v>863</v>
+      <c r="A20" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B20" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C20" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D20" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E20" s="294" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F20" s="294"/>
       <c r="G20" s="294" t="s">
@@ -10598,20 +10652,20 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="41.25" thickBot="1">
-      <c r="A21" s="296" t="s">
-        <v>863</v>
+      <c r="A21" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B21" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C21" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D21" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E21" s="292" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F21" s="292"/>
       <c r="G21" s="292" t="s">
@@ -10655,23 +10709,23 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="40.5">
-      <c r="A22" s="291" t="s">
-        <v>863</v>
+      <c r="A22" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B22" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C22" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D22" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E22" s="294" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F22" s="265" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G22" s="291" t="s">
         <v>701</v>
@@ -10710,20 +10764,20 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="291" t="s">
-        <v>863</v>
+      <c r="A23" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B23" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C23" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D23" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E23" s="294" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F23" s="294"/>
       <c r="G23" s="294" t="s">
@@ -10747,20 +10801,20 @@
       <c r="S23" s="294"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A24" s="296" t="s">
-        <v>863</v>
+      <c r="A24" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B24" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C24" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D24" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E24" s="292" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F24" s="292"/>
       <c r="G24" s="292" t="s">
@@ -10784,23 +10838,23 @@
       <c r="S24" s="292"/>
     </row>
     <row r="25" spans="1:19" ht="27">
-      <c r="A25" s="291" t="s">
-        <v>863</v>
+      <c r="A25" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B25" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C25" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D25" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E25" s="294" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F25" s="265" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G25" s="291" t="s">
         <v>702</v>
@@ -10839,20 +10893,20 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="291" t="s">
-        <v>863</v>
+      <c r="A26" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B26" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C26" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D26" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E26" s="294" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F26" s="294"/>
       <c r="G26" s="294" t="s">
@@ -10876,20 +10930,20 @@
       <c r="S26" s="294"/>
     </row>
     <row r="27" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A27" s="296" t="s">
-        <v>863</v>
+      <c r="A27" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B27" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C27" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D27" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E27" s="292" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F27" s="292"/>
       <c r="G27" s="292" t="s">
@@ -10911,23 +10965,23 @@
       <c r="S27" s="292"/>
     </row>
     <row r="28" spans="1:19" s="56" customFormat="1" ht="27">
-      <c r="A28" s="270" t="s">
-        <v>863</v>
+      <c r="A28" s="332" t="s">
+        <v>496</v>
       </c>
       <c r="B28" s="270" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C28" s="270" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D28" s="270" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E28" s="294" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F28" s="261" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G28" s="291" t="s">
         <v>704</v>
@@ -10966,20 +11020,20 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="56" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A29" s="296" t="s">
-        <v>863</v>
+      <c r="A29" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B29" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C29" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D29" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E29" s="292" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F29" s="292"/>
       <c r="G29" s="292" t="s">
@@ -10999,23 +11053,23 @@
       <c r="S29" s="296"/>
     </row>
     <row r="30" spans="1:19" ht="27">
-      <c r="A30" s="291" t="s">
-        <v>863</v>
+      <c r="A30" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B30" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C30" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D30" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E30" s="294" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F30" s="261" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G30" s="291" t="s">
         <v>705</v>
@@ -11054,20 +11108,20 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="291" t="s">
-        <v>863</v>
+      <c r="A31" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B31" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C31" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D31" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E31" s="294" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F31" s="294"/>
       <c r="G31" s="294" t="s">
@@ -11091,20 +11145,20 @@
       <c r="S31" s="294"/>
     </row>
     <row r="32" spans="1:19" ht="41.25" thickBot="1">
-      <c r="A32" s="296" t="s">
-        <v>863</v>
+      <c r="A32" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B32" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C32" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D32" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E32" s="292" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F32" s="292"/>
       <c r="G32" s="292" t="s">
@@ -11128,23 +11182,23 @@
       <c r="S32" s="292"/>
     </row>
     <row r="33" spans="1:19" ht="27">
-      <c r="A33" s="291" t="s">
-        <v>863</v>
+      <c r="A33" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B33" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C33" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D33" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E33" s="294" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F33" s="261" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G33" s="291" t="s">
         <v>706</v>
@@ -11183,20 +11237,20 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="67.5">
-      <c r="A34" s="291" t="s">
-        <v>863</v>
+      <c r="A34" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B34" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C34" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D34" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E34" s="294" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F34" s="294"/>
       <c r="G34" s="294" t="s">
@@ -11232,20 +11286,20 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="27">
-      <c r="A35" s="291" t="s">
-        <v>863</v>
+      <c r="A35" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B35" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C35" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D35" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E35" s="294" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F35" s="294"/>
       <c r="G35" s="294" t="s">
@@ -11281,20 +11335,20 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="27.75" thickBot="1">
-      <c r="A36" s="296" t="s">
-        <v>863</v>
+      <c r="A36" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B36" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C36" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D36" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E36" s="292" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F36" s="292"/>
       <c r="G36" s="292" t="s">
@@ -11330,23 +11384,23 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="27">
-      <c r="A37" s="291" t="s">
-        <v>863</v>
+      <c r="A37" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B37" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C37" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D37" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E37" s="294" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F37" s="261" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G37" s="291" t="s">
         <v>709</v>
@@ -11385,20 +11439,20 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="27">
-      <c r="A38" s="291" t="s">
-        <v>863</v>
+      <c r="A38" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B38" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C38" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D38" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E38" s="294" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F38" s="294"/>
       <c r="G38" s="294" t="s">
@@ -11434,20 +11488,20 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="40.5">
-      <c r="A39" s="291" t="s">
-        <v>863</v>
+      <c r="A39" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B39" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C39" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D39" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E39" s="294" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F39" s="294"/>
       <c r="G39" s="294" t="s">
@@ -11483,20 +11537,20 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="27.75" thickBot="1">
-      <c r="A40" s="296" t="s">
-        <v>863</v>
+      <c r="A40" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B40" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C40" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D40" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E40" s="292" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F40" s="292"/>
       <c r="G40" s="292" t="s">
@@ -11532,23 +11586,23 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="27">
-      <c r="A41" s="291" t="s">
-        <v>863</v>
+      <c r="A41" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B41" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C41" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D41" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E41" s="294" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F41" s="261" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G41" s="291" t="s">
         <v>711</v>
@@ -11587,20 +11641,20 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="56" customFormat="1" ht="27.75" thickBot="1">
-      <c r="A42" s="296" t="s">
-        <v>863</v>
+      <c r="A42" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B42" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C42" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D42" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E42" s="292" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F42" s="292"/>
       <c r="G42" s="292" t="s">
@@ -11636,23 +11690,23 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="27">
-      <c r="A43" s="291" t="s">
-        <v>863</v>
+      <c r="A43" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B43" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C43" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D43" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E43" s="291" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F43" s="261" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G43" s="291" t="s">
         <v>712</v>
@@ -11691,20 +11745,20 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="67.5">
-      <c r="A44" s="291" t="s">
-        <v>863</v>
+      <c r="A44" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B44" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C44" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D44" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E44" s="291" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G44" s="294" t="s">
         <v>626</v>
@@ -11739,20 +11793,20 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="27.75" thickBot="1">
-      <c r="A45" s="296" t="s">
-        <v>863</v>
+      <c r="A45" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B45" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C45" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D45" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E45" s="296" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F45" s="296"/>
       <c r="G45" s="292" t="s">
@@ -11788,23 +11842,23 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="27">
-      <c r="A46" s="291" t="s">
-        <v>863</v>
+      <c r="A46" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B46" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C46" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D46" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E46" s="284" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F46" s="261" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G46" s="291" t="s">
         <v>713</v>
@@ -11843,20 +11897,20 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="41.25" thickBot="1">
-      <c r="A47" s="296" t="s">
-        <v>863</v>
+      <c r="A47" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B47" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C47" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D47" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E47" s="296" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F47" s="296"/>
       <c r="G47" s="292" t="s">
@@ -11892,23 +11946,23 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="27">
-      <c r="A48" s="291" t="s">
-        <v>863</v>
+      <c r="A48" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B48" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C48" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D48" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E48" s="294" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F48" s="261" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G48" s="291" t="s">
         <v>715</v>
@@ -11947,20 +12001,20 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="40.5">
-      <c r="A49" s="293" t="s">
-        <v>863</v>
+      <c r="A49" s="329" t="s">
+        <v>496</v>
       </c>
       <c r="B49" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C49" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D49" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E49" s="295" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F49" s="295"/>
       <c r="G49" s="295" t="s">
@@ -11996,20 +12050,20 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="27.75" thickBot="1">
-      <c r="A50" s="296" t="s">
-        <v>863</v>
+      <c r="A50" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B50" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C50" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D50" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E50" s="292" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F50" s="292"/>
       <c r="G50" s="296" t="s">
@@ -12045,23 +12099,23 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="27">
-      <c r="A51" s="291" t="s">
-        <v>863</v>
+      <c r="A51" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B51" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C51" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D51" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E51" s="294" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F51" s="261" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G51" s="291" t="s">
         <v>742</v>
@@ -12100,20 +12154,20 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="27">
-      <c r="A52" s="291" t="s">
-        <v>863</v>
+      <c r="A52" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B52" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C52" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D52" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E52" s="294" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F52" s="294"/>
       <c r="G52" s="291" t="s">
@@ -12149,20 +12203,20 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="27">
-      <c r="A53" s="291" t="s">
-        <v>863</v>
+      <c r="A53" s="327" t="s">
+        <v>496</v>
       </c>
       <c r="B53" s="291" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C53" s="291" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D53" s="291" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E53" s="294" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F53" s="294"/>
       <c r="G53" s="291" t="s">
@@ -12198,20 +12252,20 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="27.75" thickBot="1">
-      <c r="A54" s="296" t="s">
-        <v>863</v>
+      <c r="A54" s="331" t="s">
+        <v>496</v>
       </c>
       <c r="B54" s="296" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C54" s="296" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D54" s="296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E54" s="292" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F54" s="292"/>
       <c r="G54" s="292" t="s">
@@ -12247,23 +12301,23 @@
       </c>
     </row>
     <row r="55" spans="1:19" s="295" customFormat="1" ht="27">
-      <c r="A55" s="295" t="s">
-        <v>863</v>
+      <c r="A55" s="330" t="s">
+        <v>496</v>
       </c>
       <c r="B55" s="295" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C55" s="295" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D55" s="295" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E55" s="295" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F55" s="261" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G55" s="291" t="s">
         <v>746</v>
@@ -12302,20 +12356,20 @@
       </c>
     </row>
     <row r="56" spans="1:19" s="295" customFormat="1" ht="27">
-      <c r="A56" s="295" t="s">
-        <v>863</v>
+      <c r="A56" s="330" t="s">
+        <v>496</v>
       </c>
       <c r="B56" s="295" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C56" s="295" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D56" s="295" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E56" s="295" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G56" s="295" t="s">
         <v>747</v>
@@ -12346,20 +12400,20 @@
       </c>
     </row>
     <row r="57" spans="1:19" s="295" customFormat="1" ht="27">
-      <c r="A57" s="295" t="s">
-        <v>863</v>
+      <c r="A57" s="330" t="s">
+        <v>496</v>
       </c>
       <c r="B57" s="295" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C57" s="295" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D57" s="295" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E57" s="295" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G57" s="295" t="s">
         <v>376</v>
@@ -12390,20 +12444,20 @@
       </c>
     </row>
     <row r="58" spans="1:19" s="295" customFormat="1" ht="27.75" thickBot="1">
-      <c r="A58" s="292" t="s">
-        <v>863</v>
+      <c r="A58" s="328" t="s">
+        <v>496</v>
       </c>
       <c r="B58" s="292" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C58" s="292" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D58" s="292" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E58" s="292" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F58" s="292"/>
       <c r="G58" s="292" t="s">
@@ -12450,7 +12504,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12463,18 +12517,18 @@
     <col min="11" max="11" width="21.375" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.25" thickBot="1">
-      <c r="A1" s="273" t="s">
-        <v>807</v>
+      <c r="A1" s="335" t="s">
+        <v>858</v>
       </c>
       <c r="B1" s="273" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="273" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D1" s="273" t="s">
         <v>655</v>
@@ -12483,7 +12537,7 @@
         <v>656</v>
       </c>
       <c r="F1" s="273" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G1" s="281" t="s">
         <v>514</v>
@@ -12514,23 +12568,23 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="40.5">
-      <c r="A2" s="293" t="s">
-        <v>863</v>
+      <c r="A2" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B2" s="293" t="s">
-        <v>859</v>
+        <v>773</v>
       </c>
       <c r="C2" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D2" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E2" s="293" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F2" s="285" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G2" s="286" t="s">
         <v>573</v>
@@ -12561,23 +12615,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5">
-      <c r="A3" s="293" t="s">
-        <v>863</v>
+      <c r="A3" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B3" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C3" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D3" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E3" s="293" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F3" s="285" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G3" s="286" t="s">
         <v>576</v>
@@ -12608,23 +12662,23 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="40.5">
-      <c r="A4" s="293" t="s">
-        <v>863</v>
+      <c r="A4" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B4" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C4" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D4" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E4" s="293" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F4" s="286" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G4" s="286" t="s">
         <v>580</v>
@@ -12655,23 +12709,23 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="54.75" customHeight="1">
-      <c r="A5" s="293" t="s">
-        <v>863</v>
+      <c r="A5" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B5" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C5" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D5" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E5" s="295" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F5" s="286" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G5" s="286" t="s">
         <v>585</v>
@@ -12702,23 +12756,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="54.75" customHeight="1">
-      <c r="A6" s="293" t="s">
-        <v>863</v>
+      <c r="A6" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B6" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C6" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D6" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E6" s="295" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F6" s="286" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G6" s="286" t="s">
         <v>590</v>
@@ -12749,23 +12803,23 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="40.5">
-      <c r="A7" s="293" t="s">
-        <v>863</v>
+      <c r="A7" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B7" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C7" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D7" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E7" s="295" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F7" s="286" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G7" s="286" t="s">
         <v>588</v>
@@ -12796,23 +12850,23 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="40.5">
-      <c r="A8" s="293" t="s">
-        <v>863</v>
+      <c r="A8" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B8" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C8" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D8" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E8" s="295" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F8" s="286" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G8" s="286" t="s">
         <v>594</v>
@@ -12843,23 +12897,23 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="40.5">
-      <c r="A9" s="293" t="s">
-        <v>863</v>
+      <c r="A9" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B9" s="270" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C9" s="270" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D9" s="270" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E9" s="295" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F9" s="261" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G9" s="275" t="s">
         <v>596</v>
@@ -12890,23 +12944,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="40.5">
-      <c r="A10" s="293" t="s">
-        <v>863</v>
+      <c r="A10" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B10" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C10" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D10" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E10" s="295" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F10" s="261" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G10" s="286" t="s">
         <v>597</v>
@@ -12937,23 +12991,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="40.5">
-      <c r="A11" s="293" t="s">
-        <v>863</v>
+      <c r="A11" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B11" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C11" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D11" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E11" s="295" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F11" s="261" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G11" s="286" t="s">
         <v>600</v>
@@ -12984,23 +13038,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="40.5">
-      <c r="A12" s="293" t="s">
-        <v>863</v>
+      <c r="A12" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B12" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C12" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D12" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E12" s="295" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F12" s="261" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G12" s="286" t="s">
         <v>606</v>
@@ -13031,23 +13085,23 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.5">
-      <c r="A13" s="293" t="s">
-        <v>863</v>
+      <c r="A13" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B13" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C13" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D13" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E13" s="295" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F13" s="261" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G13" s="286" t="s">
         <v>610</v>
@@ -13078,23 +13132,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.5">
-      <c r="A14" s="293" t="s">
-        <v>863</v>
+      <c r="A14" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B14" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C14" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D14" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E14" s="293" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F14" s="261" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G14" s="286" t="s">
         <v>611</v>
@@ -13125,23 +13179,23 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="40.5">
-      <c r="A15" s="293" t="s">
-        <v>863</v>
+      <c r="A15" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B15" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C15" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D15" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E15" s="293" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F15" s="261" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G15" s="286" t="s">
         <v>613</v>
@@ -13172,23 +13226,23 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="40.5">
-      <c r="A16" s="293" t="s">
-        <v>863</v>
+      <c r="A16" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B16" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C16" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D16" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E16" s="295" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F16" s="261" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G16" s="286" t="s">
         <v>615</v>
@@ -13219,23 +13273,23 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="40.5">
-      <c r="A17" s="293" t="s">
-        <v>863</v>
+      <c r="A17" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B17" s="293" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C17" s="293" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D17" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E17" s="295" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F17" s="261" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G17" s="286" t="s">
         <v>617</v>
@@ -13266,23 +13320,23 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="40.5">
-      <c r="A18" s="293" t="s">
-        <v>863</v>
+      <c r="A18" s="334" t="s">
+        <v>496</v>
       </c>
       <c r="B18" s="295" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C18" s="295" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D18" s="295" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E18" s="295" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F18" s="261" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G18" s="286" t="s">
         <v>621</v>
@@ -13320,9 +13374,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -13337,15 +13393,15 @@
     <col min="15" max="15" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="35.25" thickBot="1">
-      <c r="A1" s="273" t="s">
-        <v>807</v>
+    <row r="1" spans="1:15" ht="35.25" thickBot="1">
+      <c r="A1" s="337" t="s">
+        <v>858</v>
       </c>
       <c r="B1" s="273" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="273" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D1" s="273" t="s">
         <v>655</v>
@@ -13354,7 +13410,7 @@
         <v>656</v>
       </c>
       <c r="F1" s="273" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G1" s="281" t="s">
         <v>514</v>
@@ -13383,28 +13439,25 @@
       <c r="O1" s="272" t="s">
         <v>519</v>
       </c>
-      <c r="P1" s="287" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="40.5">
-      <c r="A2" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="2" spans="1:15" ht="40.5">
+      <c r="A2" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D2" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E2" s="293" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F2" s="285" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G2" s="286" t="s">
         <v>573</v>
@@ -13433,28 +13486,25 @@
       <c r="O2" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="40.5">
-      <c r="A3" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="3" spans="1:15" ht="40.5">
+      <c r="A3" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C3" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D3" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E3" s="293" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F3" s="285" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G3" s="286" t="s">
         <v>576</v>
@@ -13483,28 +13533,25 @@
       <c r="O3" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="40.5">
-      <c r="A4" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="4" spans="1:15" ht="40.5">
+      <c r="A4" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B4" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D4" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E4" s="293" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F4" s="286" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G4" s="286" t="s">
         <v>580</v>
@@ -13533,28 +13580,25 @@
       <c r="O4" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="40.5">
-      <c r="A5" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="5" spans="1:15" ht="40.5">
+      <c r="A5" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B5" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C5" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D5" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E5" s="295" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F5" s="286" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G5" s="286" t="s">
         <v>585</v>
@@ -13583,28 +13627,25 @@
       <c r="O5" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="40.5">
-      <c r="A6" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="6" spans="1:15" ht="40.5">
+      <c r="A6" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B6" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D6" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E6" s="295" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F6" s="286" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G6" s="286" t="s">
         <v>590</v>
@@ -13633,28 +13674,25 @@
       <c r="O6" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P6" s="289">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="40.5">
-      <c r="A7" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="7" spans="1:15" ht="40.5">
+      <c r="A7" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B7" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C7" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D7" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E7" s="295" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F7" s="286" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G7" s="286" t="s">
         <v>588</v>
@@ -13683,28 +13721,25 @@
       <c r="O7" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P7" s="289">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="40.5">
-      <c r="A8" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="8" spans="1:15" ht="40.5">
+      <c r="A8" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B8" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C8" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D8" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E8" s="295" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F8" s="286" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G8" s="286" t="s">
         <v>594</v>
@@ -13733,28 +13768,25 @@
       <c r="O8" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P8" s="289">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="27">
-      <c r="A9" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="9" spans="1:15" ht="27">
+      <c r="A9" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B9" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C9" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D9" s="270" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E9" s="295" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F9" s="261" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G9" s="275" t="s">
         <v>596</v>
@@ -13783,28 +13815,25 @@
       <c r="O9" s="270" t="s">
         <v>499</v>
       </c>
-      <c r="P9" s="289">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="40.5">
-      <c r="A10" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="10" spans="1:15" ht="40.5">
+      <c r="A10" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B10" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C10" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D10" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E10" s="295" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F10" s="261" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G10" s="286" t="s">
         <v>597</v>
@@ -13833,28 +13862,25 @@
       <c r="O10" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P10" s="289">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="40.5">
-      <c r="A11" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="11" spans="1:15" ht="40.5">
+      <c r="A11" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B11" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C11" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D11" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E11" s="295" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F11" s="261" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G11" s="286" t="s">
         <v>600</v>
@@ -13883,28 +13909,25 @@
       <c r="O11" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P11" s="289">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="40.5">
-      <c r="A12" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="12" spans="1:15" ht="40.5">
+      <c r="A12" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B12" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C12" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D12" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E12" s="295" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F12" s="261" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G12" s="286" t="s">
         <v>606</v>
@@ -13933,28 +13956,25 @@
       <c r="O12" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P12" s="289">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="40.5">
-      <c r="A13" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="13" spans="1:15" ht="40.5">
+      <c r="A13" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B13" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D13" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E13" s="295" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F13" s="261" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G13" s="286" t="s">
         <v>610</v>
@@ -13983,28 +14003,25 @@
       <c r="O13" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P13" s="289">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="40.5">
-      <c r="A14" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="14" spans="1:15" ht="40.5">
+      <c r="A14" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B14" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C14" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D14" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E14" s="293" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F14" s="261" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G14" s="286" t="s">
         <v>611</v>
@@ -14033,28 +14050,25 @@
       <c r="O14" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P14" s="289">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="40.5">
-      <c r="A15" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="15" spans="1:15" ht="40.5">
+      <c r="A15" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B15" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C15" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D15" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E15" s="293" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F15" s="261" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G15" s="286" t="s">
         <v>613</v>
@@ -14083,28 +14097,25 @@
       <c r="O15" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P15" s="289">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="40.5">
-      <c r="A16" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="16" spans="1:15" ht="40.5">
+      <c r="A16" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B16" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C16" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D16" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E16" s="295" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F16" s="261" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G16" s="286" t="s">
         <v>615</v>
@@ -14133,28 +14144,25 @@
       <c r="O16" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P16" s="289">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="40.5">
-      <c r="A17" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="17" spans="1:15" ht="40.5">
+      <c r="A17" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B17" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C17" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D17" s="293" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E17" s="295" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F17" s="261" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G17" s="286" t="s">
         <v>617</v>
@@ -14183,28 +14191,25 @@
       <c r="O17" s="293" t="s">
         <v>499</v>
       </c>
-      <c r="P17" s="289">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="40.5">
-      <c r="A18" s="293" t="s">
-        <v>863</v>
+    </row>
+    <row r="18" spans="1:15" ht="40.5">
+      <c r="A18" s="336" t="s">
+        <v>496</v>
       </c>
       <c r="B18" s="156" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D18" s="295" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E18" s="295" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F18" s="261" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G18" s="286" t="s">
         <v>621</v>
@@ -14232,9 +14237,6 @@
       </c>
       <c r="O18" s="293" t="s">
         <v>499</v>
-      </c>
-      <c r="P18" s="289">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -14431,7 +14433,7 @@
         <v>93</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21" t="s">
@@ -14472,7 +14474,7 @@
         <v>95</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
@@ -14513,7 +14515,7 @@
         <v>97</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21" t="s">
@@ -14554,7 +14556,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="s">
@@ -14595,7 +14597,7 @@
         <v>112</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
@@ -14636,7 +14638,7 @@
         <v>99</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
@@ -14677,7 +14679,7 @@
         <v>125</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="s">
@@ -14759,7 +14761,7 @@
         <v>114</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21" t="s">
@@ -14964,7 +14966,7 @@
         <v>106</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
@@ -15005,7 +15007,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -15046,7 +15048,7 @@
         <v>91</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25" t="s">
@@ -15517,12 +15519,12 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="289" customWidth="1"/>
+    <col min="1" max="1" width="9" style="289" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="289" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
@@ -15532,47 +15534,39 @@
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="77" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A1" s="77" t="s">
-        <v>860</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>861</v>
-      </c>
+    <row r="1" spans="2:8" s="77" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
+      <c r="B1" s="81"/>
       <c r="C1" s="81" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>801</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>844</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>845</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>803</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>846</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>847</v>
-      </c>
       <c r="G1" s="81" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H1" s="81" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="197" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A2" s="197" t="s">
-        <v>862</v>
-      </c>
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" s="197" customFormat="1" ht="17.25" thickTop="1">
       <c r="B2" s="88" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F2" s="89" t="s">
         <v>115</v>
@@ -15581,24 +15575,21 @@
         <v>49</v>
       </c>
       <c r="H2" s="291" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="289" t="s">
-        <v>862</v>
-      </c>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="88" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F3" s="89" t="s">
         <v>115</v>
@@ -15608,21 +15599,18 @@
       </c>
       <c r="H3" s="84"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="4" spans="2:8">
       <c r="B4" s="88" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F4" s="89" t="s">
         <v>115</v>
@@ -15632,21 +15620,18 @@
       </c>
       <c r="H4" s="84"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="5" spans="2:8">
       <c r="B5" s="88" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F5" s="89" t="s">
         <v>115</v>
@@ -15656,21 +15641,18 @@
       </c>
       <c r="H5" s="84"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="6" spans="2:8">
       <c r="B6" s="88" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F6" s="89" t="s">
         <v>115</v>
@@ -15680,45 +15662,39 @@
       </c>
       <c r="H6" s="84"/>
     </row>
-    <row r="7" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A7" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="7" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B7" s="94" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E7" s="94" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F7" s="95" t="s">
         <v>115</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H7" s="93"/>
     </row>
-    <row r="8" spans="1:8" s="197" customFormat="1">
-      <c r="A8" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="8" spans="2:8" s="197" customFormat="1">
       <c r="B8" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F8" s="83" t="s">
         <v>118</v>
@@ -15727,24 +15703,21 @@
         <v>49</v>
       </c>
       <c r="H8" s="291" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="289" t="s">
-        <v>862</v>
-      </c>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F9" s="83" t="s">
         <v>118</v>
@@ -15754,21 +15727,18 @@
       </c>
       <c r="H9" s="84"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="10" spans="2:8">
       <c r="B10" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>118</v>
@@ -15778,21 +15748,18 @@
       </c>
       <c r="H10" s="84"/>
     </row>
-    <row r="11" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A11" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="11" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B11" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F11" s="86" t="s">
         <v>118</v>
@@ -15802,21 +15769,18 @@
       </c>
       <c r="H11" s="93"/>
     </row>
-    <row r="12" spans="1:8" s="220" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A12" s="220" t="s">
-        <v>862</v>
-      </c>
+    <row r="12" spans="2:8" s="220" customFormat="1" ht="17.25" thickBot="1">
       <c r="B12" s="207" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C12" s="207" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D12" s="207" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E12" s="207" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F12" s="208" t="s">
         <v>258</v>
@@ -15825,24 +15789,21 @@
         <v>49</v>
       </c>
       <c r="H12" s="226" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="197" customFormat="1">
-      <c r="A13" s="197" t="s">
-        <v>862</v>
-      </c>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="197" customFormat="1">
       <c r="B13" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F13" s="83" t="s">
         <v>259</v>
@@ -15851,24 +15812,21 @@
         <v>49</v>
       </c>
       <c r="H13" s="291" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="289" t="s">
-        <v>862</v>
-      </c>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F14" s="83" t="s">
         <v>259</v>
@@ -15878,21 +15836,18 @@
       </c>
       <c r="H14" s="84"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="15" spans="2:8">
       <c r="B15" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F15" s="83" t="s">
         <v>259</v>
@@ -15902,21 +15857,18 @@
       </c>
       <c r="H15" s="84"/>
     </row>
-    <row r="16" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A16" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="16" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B16" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F16" s="86" t="s">
         <v>259</v>
@@ -15926,21 +15878,18 @@
       </c>
       <c r="H16" s="93"/>
     </row>
-    <row r="17" spans="1:8" s="197" customFormat="1">
-      <c r="A17" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="17" spans="2:8" s="197" customFormat="1">
       <c r="B17" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F17" s="83" t="s">
         <v>261</v>
@@ -15949,24 +15898,21 @@
         <v>49</v>
       </c>
       <c r="H17" s="291" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="289" t="s">
-        <v>862</v>
-      </c>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F18" s="83" t="s">
         <v>261</v>
@@ -15976,21 +15922,18 @@
       </c>
       <c r="H18" s="84"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="19" spans="2:8">
       <c r="B19" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F19" s="83" t="s">
         <v>261</v>
@@ -15998,21 +15941,18 @@
       <c r="G19" s="87"/>
       <c r="H19" s="84"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="20" spans="2:8">
       <c r="B20" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F20" s="83" t="s">
         <v>262</v>
@@ -16022,21 +15962,18 @@
       </c>
       <c r="H20" s="84"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="21" spans="2:8">
       <c r="B21" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F21" s="83" t="s">
         <v>262</v>
@@ -16046,21 +15983,18 @@
       </c>
       <c r="H21" s="84"/>
     </row>
-    <row r="22" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A22" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="22" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B22" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F22" s="86" t="s">
         <v>262</v>
@@ -16068,21 +16002,18 @@
       <c r="G22" s="92"/>
       <c r="H22" s="93"/>
     </row>
-    <row r="23" spans="1:8" s="197" customFormat="1">
-      <c r="A23" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="23" spans="2:8" s="197" customFormat="1">
       <c r="B23" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F23" s="83" t="s">
         <v>263</v>
@@ -16091,24 +16022,21 @@
         <v>49</v>
       </c>
       <c r="H23" s="291" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="289" t="s">
-        <v>862</v>
-      </c>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F24" s="83" t="s">
         <v>263</v>
@@ -16118,21 +16046,18 @@
       </c>
       <c r="H24" s="84"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="25" spans="2:8">
       <c r="B25" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F25" s="83" t="s">
         <v>263</v>
@@ -16142,21 +16067,18 @@
       </c>
       <c r="H25" s="84"/>
     </row>
-    <row r="26" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A26" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="26" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B26" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D26" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F26" s="86" t="s">
         <v>263</v>
@@ -16164,21 +16086,18 @@
       <c r="G26" s="97"/>
       <c r="H26" s="93"/>
     </row>
-    <row r="27" spans="1:8" s="197" customFormat="1">
-      <c r="A27" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="27" spans="2:8" s="197" customFormat="1">
       <c r="B27" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F27" s="83" t="s">
         <v>94</v>
@@ -16190,21 +16109,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="28" spans="2:8">
       <c r="B28" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F28" s="83" t="s">
         <v>94</v>
@@ -16214,21 +16130,18 @@
       </c>
       <c r="H28" s="84"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="29" spans="2:8">
       <c r="B29" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F29" s="83" t="s">
         <v>94</v>
@@ -16238,21 +16151,18 @@
       </c>
       <c r="H29" s="84"/>
     </row>
-    <row r="30" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A30" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="30" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B30" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C30" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D30" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F30" s="86" t="s">
         <v>94</v>
@@ -16260,21 +16170,18 @@
       <c r="G30" s="92"/>
       <c r="H30" s="93"/>
     </row>
-    <row r="31" spans="1:8" s="197" customFormat="1">
-      <c r="A31" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="31" spans="2:8" s="197" customFormat="1">
       <c r="B31" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F31" s="83" t="s">
         <v>96</v>
@@ -16286,21 +16193,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="32" spans="2:8">
       <c r="B32" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F32" s="83" t="s">
         <v>96</v>
@@ -16310,21 +16214,18 @@
       </c>
       <c r="H32" s="84"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="33" spans="2:8">
       <c r="B33" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F33" s="83" t="s">
         <v>96</v>
@@ -16332,21 +16233,18 @@
       <c r="G33" s="87"/>
       <c r="H33" s="84"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="34" spans="2:8">
       <c r="B34" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F34" s="83" t="s">
         <v>96</v>
@@ -16354,21 +16252,18 @@
       <c r="G34" s="87"/>
       <c r="H34" s="84"/>
     </row>
-    <row r="35" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A35" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="35" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B35" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D35" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E35" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F35" s="86" t="s">
         <v>96</v>
@@ -16376,21 +16271,18 @@
       <c r="G35" s="92"/>
       <c r="H35" s="93"/>
     </row>
-    <row r="36" spans="1:8" s="197" customFormat="1">
-      <c r="A36" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="36" spans="2:8" s="197" customFormat="1">
       <c r="B36" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C36" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F36" s="83" t="s">
         <v>264</v>
@@ -16402,21 +16294,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="37" spans="2:8">
       <c r="B37" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C37" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F37" s="83" t="s">
         <v>264</v>
@@ -16426,21 +16315,18 @@
       </c>
       <c r="H37" s="84"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="38" spans="2:8">
       <c r="B38" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F38" s="83" t="s">
         <v>264</v>
@@ -16450,21 +16336,18 @@
       </c>
       <c r="H38" s="84"/>
     </row>
-    <row r="39" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A39" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="39" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B39" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C39" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D39" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E39" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F39" s="86" t="s">
         <v>264</v>
@@ -16472,21 +16355,18 @@
       <c r="G39" s="92"/>
       <c r="H39" s="93"/>
     </row>
-    <row r="40" spans="1:8" s="197" customFormat="1">
-      <c r="A40" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="40" spans="2:8" s="197" customFormat="1">
       <c r="B40" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E40" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F40" s="83" t="s">
         <v>511</v>
@@ -16498,21 +16378,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="41" spans="2:8">
       <c r="B41" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E41" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F41" s="83" t="s">
         <v>265</v>
@@ -16522,21 +16399,18 @@
       </c>
       <c r="H41" s="84"/>
     </row>
-    <row r="42" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A42" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="42" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B42" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C42" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D42" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F42" s="86" t="s">
         <v>306</v>
@@ -16544,21 +16418,18 @@
       <c r="G42" s="92"/>
       <c r="H42" s="93"/>
     </row>
-    <row r="43" spans="1:8" s="197" customFormat="1">
-      <c r="A43" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="43" spans="2:8" s="197" customFormat="1">
       <c r="B43" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E43" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F43" s="83" t="s">
         <v>78</v>
@@ -16570,21 +16441,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="44" spans="2:8">
       <c r="B44" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F44" s="83" t="s">
         <v>78</v>
@@ -16594,21 +16462,18 @@
       </c>
       <c r="H44" s="84"/>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="45" spans="2:8">
       <c r="B45" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E45" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F45" s="83" t="s">
         <v>78</v>
@@ -16618,21 +16483,18 @@
       </c>
       <c r="H45" s="84"/>
     </row>
-    <row r="46" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A46" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="46" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B46" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D46" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F46" s="86" t="s">
         <v>78</v>
@@ -16640,21 +16502,18 @@
       <c r="G46" s="92"/>
       <c r="H46" s="93"/>
     </row>
-    <row r="47" spans="1:8" s="197" customFormat="1">
-      <c r="A47" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="47" spans="2:8" s="197" customFormat="1">
       <c r="B47" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E47" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F47" s="83" t="s">
         <v>86</v>
@@ -16666,21 +16525,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="48" spans="2:8">
       <c r="B48" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E48" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F48" s="83" t="s">
         <v>86</v>
@@ -16690,21 +16546,18 @@
       </c>
       <c r="H48" s="84"/>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="49" spans="2:8">
       <c r="B49" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E49" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F49" s="83" t="s">
         <v>86</v>
@@ -16712,21 +16565,18 @@
       <c r="G49" s="87"/>
       <c r="H49" s="84"/>
     </row>
-    <row r="50" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A50" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="50" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B50" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C50" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F50" s="86" t="s">
         <v>86</v>
@@ -16736,21 +16586,18 @@
       </c>
       <c r="H50" s="93"/>
     </row>
-    <row r="51" spans="1:8" s="197" customFormat="1">
-      <c r="A51" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="51" spans="2:8" s="197" customFormat="1">
       <c r="B51" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E51" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F51" s="83" t="s">
         <v>98</v>
@@ -16762,21 +16609,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="52" spans="2:8">
       <c r="B52" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F52" s="83" t="s">
         <v>98</v>
@@ -16786,21 +16630,18 @@
       </c>
       <c r="H52" s="84"/>
     </row>
-    <row r="53" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A53" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="53" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B53" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C53" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D53" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E53" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F53" s="86" t="s">
         <v>98</v>
@@ -16810,21 +16651,18 @@
       </c>
       <c r="H53" s="93"/>
     </row>
-    <row r="54" spans="1:8" s="197" customFormat="1">
-      <c r="A54" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="54" spans="2:8" s="197" customFormat="1">
       <c r="B54" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E54" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F54" s="83" t="s">
         <v>266</v>
@@ -16836,21 +16674,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="55" spans="2:8">
       <c r="B55" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D55" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E55" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F55" s="83" t="s">
         <v>266</v>
@@ -16860,21 +16695,18 @@
       </c>
       <c r="H55" s="84"/>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="56" spans="2:8">
       <c r="B56" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E56" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F56" s="83" t="s">
         <v>266</v>
@@ -16884,21 +16716,18 @@
       </c>
       <c r="H56" s="84"/>
     </row>
-    <row r="57" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A57" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="57" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B57" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C57" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D57" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E57" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F57" s="86" t="s">
         <v>266</v>
@@ -16908,21 +16737,18 @@
       </c>
       <c r="H57" s="93"/>
     </row>
-    <row r="58" spans="1:8" s="197" customFormat="1">
-      <c r="A58" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="58" spans="2:8" s="197" customFormat="1">
       <c r="B58" s="221" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C58" s="221" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D58" s="221" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E58" s="221" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F58" s="222" t="s">
         <v>267</v>
@@ -16934,21 +16760,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A59" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="59" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B59" s="98" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C59" s="98" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D59" s="98" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E59" s="98" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F59" s="99" t="s">
         <v>267</v>
@@ -16958,21 +16781,18 @@
       </c>
       <c r="H59" s="93"/>
     </row>
-    <row r="60" spans="1:8" s="197" customFormat="1">
-      <c r="A60" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="60" spans="2:8" s="197" customFormat="1">
       <c r="B60" s="221" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C60" s="221" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D60" s="221" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E60" s="221" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F60" s="222" t="s">
         <v>307</v>
@@ -16984,21 +16804,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A61" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="61" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B61" s="98" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D61" s="98" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E61" s="98" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F61" s="99" t="s">
         <v>307</v>
@@ -17008,21 +16825,18 @@
       </c>
       <c r="H61" s="93"/>
     </row>
-    <row r="62" spans="1:8" s="197" customFormat="1">
-      <c r="A62" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="62" spans="2:8" s="197" customFormat="1">
       <c r="B62" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C62" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D62" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E62" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F62" s="83" t="s">
         <v>128</v>
@@ -17034,21 +16848,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="63" spans="2:8">
       <c r="B63" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C63" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D63" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E63" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F63" s="83" t="s">
         <v>128</v>
@@ -17056,21 +16867,18 @@
       <c r="G63" s="91"/>
       <c r="H63" s="84"/>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="64" spans="2:8">
       <c r="B64" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C64" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D64" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E64" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F64" s="83" t="s">
         <v>128</v>
@@ -17078,21 +16886,18 @@
       <c r="G64" s="91"/>
       <c r="H64" s="84"/>
     </row>
-    <row r="65" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A65" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="65" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B65" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D65" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E65" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F65" s="86" t="s">
         <v>128</v>
@@ -17100,21 +16905,18 @@
       <c r="G65" s="97"/>
       <c r="H65" s="93"/>
     </row>
-    <row r="66" spans="1:8" s="197" customFormat="1">
-      <c r="A66" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="66" spans="2:8" s="197" customFormat="1">
       <c r="B66" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C66" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D66" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E66" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F66" s="83" t="s">
         <v>269</v>
@@ -17126,21 +16928,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="67" spans="2:8">
       <c r="B67" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C67" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D67" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E67" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F67" s="83" t="s">
         <v>269</v>
@@ -17148,21 +16947,18 @@
       <c r="G67" s="91"/>
       <c r="H67" s="84"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="68" spans="2:8">
       <c r="B68" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D68" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E68" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F68" s="83" t="s">
         <v>269</v>
@@ -17170,21 +16966,18 @@
       <c r="G68" s="91"/>
       <c r="H68" s="84"/>
     </row>
-    <row r="69" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A69" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="69" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B69" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C69" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D69" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E69" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F69" s="86" t="s">
         <v>269</v>
@@ -17192,21 +16985,18 @@
       <c r="G69" s="97"/>
       <c r="H69" s="93"/>
     </row>
-    <row r="70" spans="1:8" s="197" customFormat="1">
-      <c r="A70" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="70" spans="2:8" s="197" customFormat="1">
       <c r="B70" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C70" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D70" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E70" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F70" s="83" t="s">
         <v>130</v>
@@ -17218,21 +17008,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="71" spans="2:8">
       <c r="B71" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D71" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E71" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F71" s="83" t="s">
         <v>130</v>
@@ -17242,21 +17029,18 @@
       </c>
       <c r="H71" s="84"/>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="72" spans="2:8">
       <c r="B72" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C72" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D72" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E72" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F72" s="83" t="s">
         <v>130</v>
@@ -17266,21 +17050,18 @@
       </c>
       <c r="H72" s="84"/>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="73" spans="2:8">
       <c r="B73" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C73" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D73" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E73" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F73" s="83" t="s">
         <v>130</v>
@@ -17290,21 +17071,18 @@
       </c>
       <c r="H73" s="84"/>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="74" spans="2:8">
       <c r="B74" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C74" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D74" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E74" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F74" s="83" t="s">
         <v>130</v>
@@ -17312,21 +17090,18 @@
       <c r="G74" s="87"/>
       <c r="H74" s="84"/>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="75" spans="2:8">
       <c r="B75" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C75" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D75" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E75" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F75" s="83" t="s">
         <v>130</v>
@@ -17336,21 +17111,18 @@
       </c>
       <c r="H75" s="84"/>
     </row>
-    <row r="76" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A76" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="76" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B76" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C76" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D76" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E76" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F76" s="86" t="s">
         <v>130</v>
@@ -17360,21 +17132,18 @@
       </c>
       <c r="H76" s="93"/>
     </row>
-    <row r="77" spans="1:8" s="197" customFormat="1">
-      <c r="A77" s="197" t="s">
-        <v>862</v>
-      </c>
+    <row r="77" spans="2:8" s="197" customFormat="1">
       <c r="B77" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C77" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D77" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E77" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F77" s="83" t="s">
         <v>126</v>
@@ -17383,24 +17152,21 @@
         <v>49</v>
       </c>
       <c r="H77" s="291" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="289" t="s">
-        <v>862</v>
-      </c>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C78" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D78" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E78" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F78" s="83" t="s">
         <v>126</v>
@@ -17410,21 +17176,18 @@
       </c>
       <c r="H78" s="84"/>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="289" t="s">
-        <v>862</v>
-      </c>
+    <row r="79" spans="2:8">
       <c r="B79" s="82" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C79" s="82" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D79" s="82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E79" s="82" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F79" s="83" t="s">
         <v>126</v>
@@ -17434,21 +17197,18 @@
       </c>
       <c r="H79" s="84"/>
     </row>
-    <row r="80" spans="1:8" s="76" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A80" s="76" t="s">
-        <v>862</v>
-      </c>
+    <row r="80" spans="2:8" s="76" customFormat="1" ht="17.25" thickBot="1">
       <c r="B80" s="85" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C80" s="85" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D80" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E80" s="85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F80" s="86" t="s">
         <v>126</v>
@@ -17480,7 +17240,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17503,8 +17263,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="196" customFormat="1" ht="35.25" thickBot="1">
-      <c r="A1" s="213" t="s">
-        <v>864</v>
+      <c r="A1" s="196" t="s">
+        <v>805</v>
       </c>
       <c r="B1" s="213" t="s">
         <v>4</v>
@@ -17553,7 +17313,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="152" customFormat="1" ht="27.75" thickTop="1">
-      <c r="A2" s="88"/>
+      <c r="A2" s="289"/>
       <c r="B2" s="88" t="s">
         <v>234</v>
       </c>
@@ -17595,7 +17355,6 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="88"/>
       <c r="B3" s="88" t="s">
         <v>234</v>
       </c>
@@ -17625,7 +17384,6 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="88"/>
       <c r="B4" s="88" t="s">
         <v>234</v>
       </c>
@@ -17655,7 +17413,6 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="88"/>
       <c r="B5" s="88" t="s">
         <v>234</v>
       </c>
@@ -17685,7 +17442,6 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="88"/>
       <c r="B6" s="88" t="s">
         <v>234</v>
       </c>
@@ -17715,7 +17471,6 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A7" s="94"/>
       <c r="B7" s="94" t="s">
         <v>234</v>
       </c>
@@ -17745,7 +17500,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A8" s="82"/>
+      <c r="A8" s="289"/>
       <c r="B8" s="82" t="s">
         <v>234</v>
       </c>
@@ -17787,7 +17542,6 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="82"/>
       <c r="B9" s="82" t="s">
         <v>234</v>
       </c>
@@ -17817,7 +17571,6 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="82"/>
       <c r="B10" s="82" t="s">
         <v>234</v>
       </c>
@@ -17847,7 +17600,6 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A11" s="85"/>
       <c r="B11" s="85" t="s">
         <v>234</v>
       </c>
@@ -17877,7 +17629,6 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" thickBot="1">
-      <c r="A12" s="207"/>
       <c r="B12" s="207" t="s">
         <v>234</v>
       </c>
@@ -17919,7 +17670,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A13" s="82"/>
+      <c r="A13" s="289"/>
       <c r="B13" s="82" t="s">
         <v>234</v>
       </c>
@@ -17961,7 +17712,6 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="82"/>
       <c r="B14" s="82" t="s">
         <v>234</v>
       </c>
@@ -17991,7 +17741,6 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="82"/>
       <c r="B15" s="82" t="s">
         <v>234</v>
       </c>
@@ -18021,7 +17770,6 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A16" s="85"/>
       <c r="B16" s="85" t="s">
         <v>234</v>
       </c>
@@ -18051,7 +17799,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A17" s="82"/>
+      <c r="A17" s="289"/>
       <c r="B17" s="82" t="s">
         <v>234</v>
       </c>
@@ -18093,7 +17841,6 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="82"/>
       <c r="B18" s="82" t="s">
         <v>234</v>
       </c>
@@ -18121,7 +17868,6 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="82"/>
       <c r="B19" s="82" t="s">
         <v>234</v>
       </c>
@@ -18149,7 +17895,6 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="82"/>
       <c r="B20" s="82" t="s">
         <v>234</v>
       </c>
@@ -18177,7 +17922,6 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="82"/>
       <c r="B21" s="82" t="s">
         <v>234</v>
       </c>
@@ -18205,7 +17949,6 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="82"/>
       <c r="B22" s="82" t="s">
         <v>234</v>
       </c>
@@ -18233,7 +17976,6 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A23" s="85"/>
       <c r="B23" s="85" t="s">
         <v>234</v>
       </c>
@@ -18261,7 +18003,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A24" s="212"/>
+      <c r="A24" s="289"/>
       <c r="B24" s="212" t="s">
         <v>234</v>
       </c>
@@ -18303,7 +18045,6 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="214"/>
       <c r="B25" s="214" t="s">
         <v>234</v>
       </c>
@@ -18331,7 +18072,6 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="214"/>
       <c r="B26" s="214" t="s">
         <v>234</v>
       </c>
@@ -18359,7 +18099,6 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A27" s="215"/>
       <c r="B27" s="215" t="s">
         <v>234</v>
       </c>
@@ -18387,7 +18126,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A28" s="82"/>
+      <c r="A28" s="289"/>
       <c r="B28" s="82" t="s">
         <v>231</v>
       </c>
@@ -18429,7 +18168,6 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="82"/>
       <c r="B29" s="82" t="s">
         <v>231</v>
       </c>
@@ -18459,7 +18197,6 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="82"/>
       <c r="B30" s="82" t="s">
         <v>231</v>
       </c>
@@ -18487,7 +18224,6 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="82"/>
       <c r="B31" s="82" t="s">
         <v>231</v>
       </c>
@@ -18517,7 +18253,6 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="82"/>
       <c r="B32" s="82" t="s">
         <v>231</v>
       </c>
@@ -18547,7 +18282,6 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A33" s="85"/>
       <c r="B33" s="85" t="s">
         <v>231</v>
       </c>
@@ -18575,7 +18309,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A34" s="82"/>
+      <c r="A34" s="289"/>
       <c r="B34" s="82" t="s">
         <v>231</v>
       </c>
@@ -18617,7 +18351,6 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="82"/>
       <c r="B35" s="82" t="s">
         <v>231</v>
       </c>
@@ -18647,7 +18380,6 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="82"/>
       <c r="B36" s="82" t="s">
         <v>231</v>
       </c>
@@ -18677,7 +18409,6 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A37" s="85"/>
       <c r="B37" s="85" t="s">
         <v>231</v>
       </c>
@@ -18705,7 +18436,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A38" s="82"/>
+      <c r="A38" s="289"/>
       <c r="B38" s="82" t="s">
         <v>231</v>
       </c>
@@ -18747,7 +18478,6 @@
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="82"/>
       <c r="B39" s="82" t="s">
         <v>231</v>
       </c>
@@ -18777,7 +18507,6 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="82"/>
       <c r="B40" s="82" t="s">
         <v>231</v>
       </c>
@@ -18807,7 +18536,6 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A41" s="85"/>
       <c r="B41" s="85" t="s">
         <v>231</v>
       </c>
@@ -18835,7 +18563,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A42" s="82"/>
+      <c r="A42" s="289"/>
       <c r="B42" s="82" t="s">
         <v>231</v>
       </c>
@@ -18877,7 +18605,6 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="82"/>
       <c r="B43" s="82" t="s">
         <v>231</v>
       </c>
@@ -18907,7 +18634,6 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="82"/>
       <c r="B44" s="82" t="s">
         <v>231</v>
       </c>
@@ -18935,7 +18661,6 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="82"/>
       <c r="B45" s="82" t="s">
         <v>231</v>
       </c>
@@ -18963,7 +18688,6 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A46" s="85"/>
       <c r="B46" s="85" t="s">
         <v>231</v>
       </c>
@@ -18991,7 +18715,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A47" s="82"/>
+      <c r="A47" s="289"/>
       <c r="B47" s="82" t="s">
         <v>231</v>
       </c>
@@ -19033,7 +18757,6 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="82"/>
       <c r="B48" s="82" t="s">
         <v>231</v>
       </c>
@@ -19063,7 +18786,6 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="82"/>
       <c r="B49" s="82" t="s">
         <v>231</v>
       </c>
@@ -19093,7 +18815,6 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A50" s="85"/>
       <c r="B50" s="85" t="s">
         <v>231</v>
       </c>
@@ -19121,7 +18842,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A51" s="82"/>
+      <c r="A51" s="289"/>
       <c r="B51" s="82" t="s">
         <v>231</v>
       </c>
@@ -19163,7 +18884,6 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="82"/>
       <c r="B52" s="82" t="s">
         <v>231</v>
       </c>
@@ -19193,7 +18913,6 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A53" s="85"/>
       <c r="B53" s="85" t="s">
         <v>231</v>
       </c>
@@ -19221,7 +18940,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A54" s="82"/>
+      <c r="A54" s="289"/>
       <c r="B54" s="82" t="s">
         <v>231</v>
       </c>
@@ -19263,7 +18982,6 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="82"/>
       <c r="B55" s="82" t="s">
         <v>231</v>
       </c>
@@ -19293,7 +19011,6 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="82"/>
       <c r="B56" s="82" t="s">
         <v>231</v>
       </c>
@@ -19323,7 +19040,6 @@
       </c>
     </row>
     <row r="57" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A57" s="85"/>
       <c r="B57" s="85" t="s">
         <v>231</v>
       </c>
@@ -19351,7 +19067,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A58" s="82"/>
+      <c r="A58" s="289"/>
       <c r="B58" s="82" t="s">
         <v>231</v>
       </c>
@@ -19393,7 +19109,6 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="82"/>
       <c r="B59" s="82" t="s">
         <v>231</v>
       </c>
@@ -19423,7 +19138,6 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="82"/>
       <c r="B60" s="82" t="s">
         <v>231</v>
       </c>
@@ -19451,7 +19165,6 @@
       </c>
     </row>
     <row r="61" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A61" s="85"/>
       <c r="B61" s="85" t="s">
         <v>231</v>
       </c>
@@ -19481,7 +19194,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A62" s="82"/>
+      <c r="A62" s="289"/>
       <c r="B62" s="82" t="s">
         <v>231</v>
       </c>
@@ -19523,7 +19236,6 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="82"/>
       <c r="B63" s="82" t="s">
         <v>231</v>
       </c>
@@ -19553,7 +19265,6 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A64" s="85"/>
       <c r="B64" s="85" t="s">
         <v>231</v>
       </c>
@@ -19583,7 +19294,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A65" s="82"/>
+      <c r="A65" s="289"/>
       <c r="B65" s="82" t="s">
         <v>231</v>
       </c>
@@ -19625,7 +19336,6 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="82"/>
       <c r="B66" s="82" t="s">
         <v>231</v>
       </c>
@@ -19655,7 +19365,6 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="82"/>
       <c r="B67" s="82" t="s">
         <v>231</v>
       </c>
@@ -19685,7 +19394,6 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A68" s="85"/>
       <c r="B68" s="85" t="s">
         <v>231</v>
       </c>
@@ -19715,7 +19423,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A69" s="212"/>
+      <c r="A69" s="289"/>
       <c r="B69" s="212" t="s">
         <v>231</v>
       </c>
@@ -19757,7 +19465,6 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A70" s="85"/>
       <c r="B70" s="85" t="s">
         <v>231</v>
       </c>
@@ -19787,7 +19494,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A71" s="212"/>
+      <c r="A71" s="289"/>
       <c r="B71" s="212" t="s">
         <v>512</v>
       </c>
@@ -19829,7 +19536,6 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A72" s="85"/>
       <c r="B72" s="85" t="s">
         <v>512</v>
       </c>
@@ -19859,7 +19565,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A73" s="82"/>
+      <c r="A73" s="289"/>
       <c r="B73" s="82" t="s">
         <v>268</v>
       </c>
@@ -19901,7 +19607,6 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="82"/>
       <c r="B74" s="82" t="s">
         <v>268</v>
       </c>
@@ -19929,7 +19634,6 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="82"/>
       <c r="B75" s="82" t="s">
         <v>268</v>
       </c>
@@ -19957,7 +19661,6 @@
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="82"/>
       <c r="B76" s="82" t="s">
         <v>268</v>
       </c>
@@ -19985,7 +19688,6 @@
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="82"/>
       <c r="B77" s="82" t="s">
         <v>268</v>
       </c>
@@ -20013,7 +19715,6 @@
       </c>
     </row>
     <row r="78" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A78" s="85"/>
       <c r="B78" s="85" t="s">
         <v>268</v>
       </c>
@@ -20041,7 +19742,7 @@
       </c>
     </row>
     <row r="79" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A79" s="82"/>
+      <c r="A79" s="289"/>
       <c r="B79" s="82" t="s">
         <v>268</v>
       </c>
@@ -20083,7 +19784,6 @@
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="82"/>
       <c r="B80" s="82" t="s">
         <v>268</v>
       </c>
@@ -20111,7 +19811,6 @@
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="82"/>
       <c r="B81" s="82" t="s">
         <v>268</v>
       </c>
@@ -20139,7 +19838,6 @@
       </c>
     </row>
     <row r="82" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A82" s="85"/>
       <c r="B82" s="85" t="s">
         <v>268</v>
       </c>
@@ -20167,7 +19865,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A83" s="82"/>
+      <c r="A83" s="289"/>
       <c r="B83" s="82" t="s">
         <v>268</v>
       </c>
@@ -20209,7 +19907,6 @@
       </c>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="82"/>
       <c r="B84" s="82" t="s">
         <v>268</v>
       </c>
@@ -20239,7 +19936,6 @@
       </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="82"/>
       <c r="B85" s="82" t="s">
         <v>268</v>
       </c>
@@ -20269,7 +19965,6 @@
       </c>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="82"/>
       <c r="B86" s="82" t="s">
         <v>268</v>
       </c>
@@ -20299,7 +19994,6 @@
       </c>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="82"/>
       <c r="B87" s="82" t="s">
         <v>268</v>
       </c>
@@ -20327,7 +20021,6 @@
       </c>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="82"/>
       <c r="B88" s="82" t="s">
         <v>268</v>
       </c>
@@ -20357,7 +20050,6 @@
       </c>
     </row>
     <row r="89" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A89" s="85"/>
       <c r="B89" s="85" t="s">
         <v>268</v>
       </c>
@@ -20387,7 +20079,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A90" s="82"/>
+      <c r="A90" s="289"/>
       <c r="B90" s="82" t="s">
         <v>268</v>
       </c>
@@ -20429,7 +20121,6 @@
       </c>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="82"/>
       <c r="B91" s="82" t="s">
         <v>268</v>
       </c>
@@ -20459,7 +20150,6 @@
       </c>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="82"/>
       <c r="B92" s="82" t="s">
         <v>268</v>
       </c>
@@ -20489,7 +20179,6 @@
       </c>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="82"/>
       <c r="B93" s="82" t="s">
         <v>268</v>
       </c>
@@ -20517,7 +20206,6 @@
       </c>
     </row>
     <row r="94" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A94" s="85"/>
       <c r="B94" s="85" t="s">
         <v>268</v>
       </c>
@@ -20545,7 +20233,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" s="152" customFormat="1" ht="27">
-      <c r="A95" s="82"/>
+      <c r="A95" s="289"/>
       <c r="B95" s="82" t="s">
         <v>268</v>
       </c>
@@ -20587,7 +20275,6 @@
       </c>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="82"/>
       <c r="B96" s="82" t="s">
         <v>268</v>
       </c>
@@ -20614,8 +20301,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
-      <c r="A97" s="82"/>
+    <row r="97" spans="2:16">
       <c r="B97" s="82" t="s">
         <v>268</v>
       </c>
@@ -20642,8 +20328,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
-      <c r="A98" s="82"/>
+    <row r="98" spans="2:16">
       <c r="B98" s="82" t="s">
         <v>268</v>
       </c>
@@ -20670,8 +20355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
-      <c r="A99" s="82"/>
+    <row r="99" spans="2:16">
       <c r="B99" s="82" t="s">
         <v>268</v>
       </c>
@@ -20698,8 +20382,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A100" s="85"/>
+    <row r="100" spans="2:16" ht="17.25" thickBot="1">
       <c r="B100" s="85" t="s">
         <v>268</v>
       </c>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="9"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="825">
   <si>
     <t>아카이빙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1427,7 +1427,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1438,7 +1438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2766,7 +2766,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2873,16 +2873,76 @@
     <t>재단규칙(단위업무 기준)</t>
   </si>
   <si>
+    <t>계획</t>
+  </si>
+  <si>
+    <t>현재</t>
+  </si>
+  <si>
+    <t>정책분야</t>
+  </si>
+  <si>
     <t>정책영역</t>
   </si>
   <si>
+    <t>대</t>
+  </si>
+  <si>
     <t>비전</t>
   </si>
   <si>
+    <t>경기문화재단</t>
+  </si>
+  <si>
+    <t>문화플랫폼구현</t>
+  </si>
+  <si>
+    <t>(경기문화재단단위)</t>
+  </si>
+  <si>
+    <t>중</t>
+  </si>
+  <si>
     <t>정책목표</t>
   </si>
   <si>
+    <t>문화예술본부</t>
+  </si>
+  <si>
+    <t>문화사업</t>
+  </si>
+  <si>
+    <t>(문화예술본부단위)</t>
+  </si>
+  <si>
+    <t>소</t>
+  </si>
+  <si>
     <t>이행과제</t>
+  </si>
+  <si>
+    <t>브랜딩 / 아카이빙 / 도민참여</t>
+  </si>
+  <si>
+    <t>기획사업(문화사업팀단위/경기천년사업)</t>
+  </si>
+  <si>
+    <t>단위업무</t>
+  </si>
+  <si>
+    <t>사업(사업계획)</t>
+  </si>
+  <si>
+    <t>개별사업명</t>
+  </si>
+  <si>
+    <t>기록물철</t>
+  </si>
+  <si>
+    <t>단기사업계획/중장기사업계획</t>
+  </si>
+  <si>
+    <t>개별사업</t>
   </si>
   <si>
     <r>
@@ -3357,15 +3417,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문화사업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리과제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단위사업</t>
+    <t>단위과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 문화정책과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 문화쳬육관광국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기문화재단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화예술본부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예산과목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목(개별사업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항(경기천년)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문화예술본부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관(문화사업팀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>철</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단위과제세부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3373,150 +3562,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기록물철</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위업무(사업계획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 중장기 / 단기 사업 관련철</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G20(예산서)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위사업(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단위업무)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(대)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화예술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년사업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기문화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정책분야</t>
-  </si>
-  <si>
-    <t>기록물분류기준(G포털)</t>
-  </si>
-  <si>
-    <t>운영 매뉴얼(문화사업팀)</t>
-  </si>
-  <si>
-    <t>지방정부 업무 활동, 대도민 서비스, 지방정부의 예산분배체계 등을 고려하여 구분한 최상위 계층</t>
-  </si>
-  <si>
-    <t>문화체육관광</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>예시</t>
-  </si>
-  <si>
-    <t>경기문화재단; 경기신용보증재단; 경기문화의전당; 경기도시공사 등 경기도 산하 11개 공공기관</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문화예술; 경영 등 </t>
-  </si>
-  <si>
-    <t>기관의 본부 수준에서 담당하는 기능</t>
-  </si>
-  <si>
-    <t>각 기관이 수정하지 못하는 계층이며, 범 지방정부 차원의 업무관리, 성과관리, 예산과리 등을 위해 만들어짐</t>
-  </si>
-  <si>
-    <t>경기도 산하 공공기관별로 수행하는 기능과 연계될 수 있도록 정책분야를 세분류</t>
-  </si>
-  <si>
-    <t>정책; 문예진흥; 문화사업; 지역문화; 생활문화; 인사; 경영지원; 미디어마케팅</t>
-  </si>
-  <si>
-    <t>경기천년사업; 미래스마트사업; 육성 및 발굴</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 기관의 실/팀 수준에서 담당하는 기능
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정부기능분류체계에서는 실/팀간 유사 업무를 확인할 수 있으며, </t>
-  </si>
-  <si>
-    <t>경기천년플랫폼</t>
-  </si>
-  <si>
-    <t>단위업무를 수행하기 위해 업무담당자별로 수행하는 기능
-- 단위사업의 규모나 예산에 따라 업무담당자가 복수로 지정될 수 있음</t>
+    <t>정책영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제세부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 문화정책과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기문화재단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기록관리기준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="71">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3530,7 +3664,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3538,7 +3672,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -3546,7 +3680,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3571,7 +3705,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3580,7 +3714,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3588,7 +3722,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3597,7 +3731,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3605,7 +3739,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3614,7 +3748,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3622,7 +3756,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3630,7 +3764,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3638,7 +3772,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3669,14 +3803,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -3684,7 +3818,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -3693,7 +3827,7 @@
       <strike/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -3702,7 +3836,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3802,7 +3936,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3811,7 +3945,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -3820,7 +3954,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3829,7 +3963,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3838,7 +3972,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3846,7 +3980,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3854,7 +3988,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3862,7 +3996,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3870,7 +4004,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3879,7 +4013,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3888,7 +4022,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3896,7 +4030,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3905,7 +4039,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3914,7 +4048,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3923,7 +4057,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3931,7 +4065,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3940,7 +4074,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3949,7 +4083,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3976,80 +4110,21 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Cambria"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="맑은고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <sz val="9"/>
+      <color rgb="FFA5A5A5"/>
+      <name val="맑은고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4292,18 +4367,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4992,7 +5055,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5701,6 +5764,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5773,51 +5843,67 @@
     <xf numFmtId="0" fontId="5" fillId="40" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5883,46 +5969,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="45" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -6294,44 +6340,44 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" style="164" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="164" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="271" customWidth="1"/>
-    <col min="7" max="7" width="27" style="279" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="164" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="274" customWidth="1"/>
+    <col min="7" max="7" width="27" style="282" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="14.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="27.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.375" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="164" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="283" t="s">
-        <v>716</v>
-      </c>
-      <c r="B1" s="283" t="s">
-        <v>715</v>
-      </c>
-      <c r="C1" s="283" t="s">
-        <v>714</v>
-      </c>
-      <c r="D1" s="283" t="s">
-        <v>712</v>
-      </c>
-      <c r="E1" s="283" t="s">
-        <v>713</v>
-      </c>
-      <c r="F1" s="283"/>
-      <c r="G1" s="284"/>
-      <c r="H1" s="283"/>
+      <c r="A1" s="286" t="s">
+        <v>736</v>
+      </c>
+      <c r="B1" s="286" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1" s="286" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1" s="286" t="s">
+        <v>732</v>
+      </c>
+      <c r="E1" s="286" t="s">
+        <v>733</v>
+      </c>
+      <c r="F1" s="286"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="286"/>
     </row>
     <row r="2" spans="1:14" s="83" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="B2" s="83" t="s">
@@ -6344,208 +6390,208 @@
         <v>690</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>752</v>
-      </c>
-      <c r="F2" s="270" t="s">
+        <v>772</v>
+      </c>
+      <c r="F2" s="273" t="s">
         <v>692</v>
       </c>
-      <c r="G2" s="280" t="s">
-        <v>705</v>
+      <c r="G2" s="283" t="s">
+        <v>725</v>
       </c>
       <c r="H2" s="83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.5" thickTop="1">
+    <row r="3" spans="1:14" ht="14.25" thickTop="1">
       <c r="A3" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B3" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="164" t="s">
-        <v>751</v>
-      </c>
-      <c r="F3" s="271" t="s">
+        <v>771</v>
+      </c>
+      <c r="F3" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="258" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B4" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="164" t="s">
-        <v>751</v>
-      </c>
-      <c r="F4" s="272" t="s">
+        <v>771</v>
+      </c>
+      <c r="F4" s="275" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="161" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B5" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="164" t="s">
-        <v>751</v>
-      </c>
-      <c r="F5" s="271" t="s">
+        <v>771</v>
+      </c>
+      <c r="F5" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="285" t="s">
-        <v>709</v>
+      <c r="G5" s="288" t="s">
+        <v>729</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" s="162" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:14" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A6" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B6" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D6" s="162" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="162" t="s">
-        <v>751</v>
-      </c>
-      <c r="F6" s="273" t="s">
+        <v>771</v>
+      </c>
+      <c r="F6" s="276" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="259" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="M6" s="166"/>
       <c r="N6" s="166"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B7" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="164" t="s">
-        <v>753</v>
-      </c>
-      <c r="F7" s="271" t="s">
+        <v>773</v>
+      </c>
+      <c r="F7" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="258" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="164" t="s">
-        <v>753</v>
-      </c>
-      <c r="F8" s="271" t="s">
+        <v>773</v>
+      </c>
+      <c r="F8" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="279" t="s">
-        <v>711</v>
+      <c r="G8" s="282" t="s">
+        <v>731</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B9" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="164" t="s">
-        <v>753</v>
-      </c>
-      <c r="F9" s="271" t="s">
+        <v>773</v>
+      </c>
+      <c r="F9" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="279" t="s">
+      <c r="G9" s="282" t="s">
         <v>65</v>
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:14" s="7" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:14" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A10" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B10" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="162" t="s">
-        <v>753</v>
-      </c>
-      <c r="F10" s="273" t="s">
+        <v>773</v>
+      </c>
+      <c r="F10" s="276" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="259" t="s">
@@ -6554,203 +6600,203 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="164" t="s">
-        <v>754</v>
-      </c>
-      <c r="F11" s="274" t="s">
+        <v>774</v>
+      </c>
+      <c r="F11" s="277" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="258" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1">
       <c r="A12" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B12" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="F12" s="271" t="s">
+        <v>774</v>
+      </c>
+      <c r="F12" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="279" t="s">
+      <c r="G12" s="282" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1">
       <c r="A13" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B13" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="F13" s="271" t="s">
+        <v>774</v>
+      </c>
+      <c r="F13" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="279" t="s">
+      <c r="G13" s="282" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1">
       <c r="A14" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B14" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="F14" s="271" t="s">
+        <v>774</v>
+      </c>
+      <c r="F14" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="279" t="s">
+      <c r="G14" s="282" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1">
       <c r="A15" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B15" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="F15" s="271" t="s">
+        <v>774</v>
+      </c>
+      <c r="F15" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="279" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G15" s="282" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A16" s="166" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B16" s="166" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="F16" s="273" t="s">
+        <v>774</v>
+      </c>
+      <c r="F16" s="276" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="259"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="165" t="s">
-        <v>741</v>
-      </c>
-      <c r="F17" s="274" t="s">
+        <v>761</v>
+      </c>
+      <c r="F17" s="277" t="s">
         <v>69</v>
       </c>
       <c r="G17" s="258" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1">
       <c r="A18" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B18" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="F18" s="271" t="s">
+        <v>761</v>
+      </c>
+      <c r="F18" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="279" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G18" s="282" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A19" s="166" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="F19" s="273" t="s">
+        <v>761</v>
+      </c>
+      <c r="F19" s="276" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="259" t="s">
@@ -6759,222 +6805,222 @@
     </row>
     <row r="20" spans="1:7" s="14" customFormat="1">
       <c r="A20" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B20" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C20" s="164" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="165" t="s">
-        <v>772</v>
-      </c>
-      <c r="F20" s="271" t="s">
+        <v>792</v>
+      </c>
+      <c r="F20" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="258" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1">
       <c r="A21" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B21" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="F21" s="271" t="s">
+        <v>792</v>
+      </c>
+      <c r="F21" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="279" t="s">
+      <c r="G21" s="282" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1">
       <c r="A22" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="F22" s="271" t="s">
+        <v>792</v>
+      </c>
+      <c r="F22" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="279" t="s">
-        <v>722</v>
+      <c r="G22" s="282" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1">
       <c r="A23" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B23" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="F23" s="271" t="s">
+        <v>792</v>
+      </c>
+      <c r="F23" s="274" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="279"/>
+      <c r="G23" s="282"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B24" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="F24" s="271" t="s">
+        <v>792</v>
+      </c>
+      <c r="F24" s="274" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="279"/>
+      <c r="G24" s="282"/>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1">
       <c r="A25" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B25" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="F25" s="271" t="s">
+        <v>792</v>
+      </c>
+      <c r="F25" s="274" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="279"/>
-    </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G25" s="282"/>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A26" s="166" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B26" s="166" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="F26" s="273" t="s">
+        <v>792</v>
+      </c>
+      <c r="F26" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="286" t="s">
+      <c r="G26" s="289" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1">
       <c r="A27" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B27" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="165" t="s">
-        <v>748</v>
-      </c>
-      <c r="F27" s="271" t="s">
+        <v>768</v>
+      </c>
+      <c r="F27" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="258" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B28" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="165" t="s">
-        <v>749</v>
-      </c>
-      <c r="F28" s="271" t="s">
+        <v>769</v>
+      </c>
+      <c r="F28" s="274" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="279" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G28" s="282" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A29" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B29" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="166" t="s">
-        <v>749</v>
-      </c>
-      <c r="F29" s="273" t="s">
+        <v>769</v>
+      </c>
+      <c r="F29" s="276" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="259" t="s">
@@ -6983,87 +7029,87 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B30" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="165" t="s">
-        <v>750</v>
-      </c>
-      <c r="F30" s="271" t="s">
+        <v>770</v>
+      </c>
+      <c r="F30" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="258" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B31" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="F31" s="271" t="s">
+        <v>770</v>
+      </c>
+      <c r="F31" s="274" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="279" t="s">
-        <v>726</v>
+      <c r="G31" s="282" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B32" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="F32" s="271" t="s">
+        <v>770</v>
+      </c>
+      <c r="F32" s="274" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A33" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B33" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="F33" s="273" t="s">
+        <v>770</v>
+      </c>
+      <c r="F33" s="276" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="259" t="s">
@@ -7072,407 +7118,407 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B34" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="165" t="s">
-        <v>755</v>
-      </c>
-      <c r="F34" s="271" t="s">
+        <v>775</v>
+      </c>
+      <c r="F34" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="258" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="F35" s="274" t="s">
-        <v>744</v>
-      </c>
-      <c r="G35" s="281" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="162" customFormat="1" ht="13.5" thickBot="1">
+        <v>775</v>
+      </c>
+      <c r="F35" s="277" t="s">
+        <v>764</v>
+      </c>
+      <c r="G35" s="284" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A36" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B36" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C36" s="162" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D36" s="162" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="166" t="s">
-        <v>755</v>
-      </c>
-      <c r="F36" s="273" t="s">
-        <v>745</v>
+        <v>775</v>
+      </c>
+      <c r="F36" s="276" t="s">
+        <v>765</v>
       </c>
       <c r="G36" s="259"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B37" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="165" t="s">
-        <v>756</v>
-      </c>
-      <c r="F37" s="271" t="s">
+        <v>776</v>
+      </c>
+      <c r="F37" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="258" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B38" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F38" s="271" t="s">
+        <v>776</v>
+      </c>
+      <c r="F38" s="274" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="279" t="s">
+      <c r="G38" s="282" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A39" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B39" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F39" s="273" t="s">
+        <v>776</v>
+      </c>
+      <c r="F39" s="276" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="286" t="s">
+      <c r="G39" s="289" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B40" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="165" t="s">
-        <v>757</v>
-      </c>
-      <c r="F40" s="271" t="s">
+        <v>777</v>
+      </c>
+      <c r="F40" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G40" s="258" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B41" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="F41" s="271" t="s">
+        <v>777</v>
+      </c>
+      <c r="F41" s="274" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B42" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="F42" s="271" t="s">
+        <v>777</v>
+      </c>
+      <c r="F42" s="274" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="279" t="s">
+      <c r="G42" s="282" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B43" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="F43" s="271" t="s">
+        <v>777</v>
+      </c>
+      <c r="F43" s="274" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="279" t="s">
+      <c r="G43" s="282" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A44" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B44" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="F44" s="273" t="s">
-        <v>730</v>
+        <v>777</v>
+      </c>
+      <c r="F44" s="276" t="s">
+        <v>750</v>
       </c>
       <c r="G44" s="259" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B45" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="165" t="s">
-        <v>758</v>
-      </c>
-      <c r="F45" s="271" t="s">
+        <v>778</v>
+      </c>
+      <c r="F45" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G45" s="258" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B46" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>758</v>
-      </c>
-      <c r="F46" s="271" t="s">
+        <v>778</v>
+      </c>
+      <c r="F46" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="279" t="s">
-        <v>733</v>
+      <c r="G46" s="282" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B47" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="F47" s="271" t="s">
+        <v>778</v>
+      </c>
+      <c r="F47" s="274" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="279" t="s">
+      <c r="G47" s="282" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="13.5" thickBot="1">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A48" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B48" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="F48" s="273" t="s">
+        <v>778</v>
+      </c>
+      <c r="F48" s="276" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="259" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B49" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E49" s="165" t="s">
-        <v>759</v>
-      </c>
-      <c r="F49" s="271" t="s">
+        <v>779</v>
+      </c>
+      <c r="F49" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G49" s="258" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B50" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="F50" s="271" t="s">
+        <v>779</v>
+      </c>
+      <c r="F50" s="274" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="279" t="s">
+      <c r="G50" s="282" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="7" customFormat="1" ht="13.5" thickBot="1">
+    <row r="51" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A51" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B51" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="F51" s="273" t="s">
+        <v>779</v>
+      </c>
+      <c r="F51" s="276" t="s">
         <v>54</v>
       </c>
       <c r="G51" s="259"/>
@@ -7481,367 +7527,367 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B52" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="164" t="s">
-        <v>760</v>
-      </c>
-      <c r="F52" s="271" t="s">
+        <v>780</v>
+      </c>
+      <c r="F52" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G52" s="258" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B53" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="F53" s="271" t="s">
+        <v>780</v>
+      </c>
+      <c r="F53" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="279" t="s">
+      <c r="G53" s="282" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="7" customFormat="1" ht="13.5" thickBot="1">
+    <row r="54" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A54" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B54" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="F54" s="273" t="s">
+        <v>780</v>
+      </c>
+      <c r="F54" s="276" t="s">
         <v>57</v>
       </c>
       <c r="G54" s="259" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="I54" s="252"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B55" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="164" t="s">
-        <v>761</v>
-      </c>
-      <c r="F55" s="271" t="s">
+        <v>781</v>
+      </c>
+      <c r="F55" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G55" s="258" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="7" customFormat="1" ht="13.5" thickBot="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A56" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B56" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="F56" s="273" t="s">
+        <v>781</v>
+      </c>
+      <c r="F56" s="276" t="s">
         <v>59</v>
       </c>
       <c r="G56" s="259" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="14" customFormat="1">
       <c r="A57" s="165" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B57" s="165" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="165" t="s">
-        <v>762</v>
-      </c>
-      <c r="F57" s="271" t="s">
+        <v>782</v>
+      </c>
+      <c r="F57" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="258" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1">
       <c r="A58" s="4" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="165" t="s">
-        <v>762</v>
-      </c>
-      <c r="F58" s="274" t="s">
+        <v>782</v>
+      </c>
+      <c r="F58" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="281" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="162" customFormat="1" ht="13.5" thickBot="1">
+      <c r="G58" s="284" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="162" customFormat="1" ht="14.25" thickBot="1">
       <c r="A59" s="162" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B59" s="162" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C59" s="162" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D59" s="162" t="s">
         <v>0</v>
       </c>
       <c r="E59" s="166" t="s">
-        <v>762</v>
-      </c>
-      <c r="F59" s="273" t="s">
+        <v>782</v>
+      </c>
+      <c r="F59" s="276" t="s">
         <v>605</v>
       </c>
-      <c r="G59" s="282" t="s">
-        <v>740</v>
+      <c r="G59" s="285" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B60" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="165" t="s">
-        <v>763</v>
-      </c>
-      <c r="F60" s="271" t="s">
+        <v>783</v>
+      </c>
+      <c r="F60" s="274" t="s">
         <v>69</v>
       </c>
       <c r="G60" s="258" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B61" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="F61" s="271" t="s">
+        <v>783</v>
+      </c>
+      <c r="F61" s="274" t="s">
         <v>413</v>
       </c>
       <c r="G61" s="258" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="164" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="F62" s="271" t="s">
+        <v>783</v>
+      </c>
+      <c r="F62" s="274" t="s">
         <v>414</v>
       </c>
       <c r="G62" s="258" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" ht="13.5" thickBot="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A63" s="166" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B63" s="166" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="F63" s="273" t="s">
+        <v>783</v>
+      </c>
+      <c r="F63" s="276" t="s">
         <v>415</v>
       </c>
       <c r="G63" s="259" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F64" s="275" t="s">
+        <v>784</v>
+      </c>
+      <c r="F64" s="278" t="s">
         <v>406</v>
       </c>
       <c r="G64" s="258" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1">
       <c r="A65" s="1" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F65" s="276" t="s">
+        <v>784</v>
+      </c>
+      <c r="F65" s="279" t="s">
         <v>403</v>
       </c>
-      <c r="G65" s="281" t="s">
-        <v>771</v>
+      <c r="G65" s="284" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1">
       <c r="A66" s="1" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F66" s="276" t="s">
+        <v>784</v>
+      </c>
+      <c r="F66" s="279" t="s">
         <v>404</v>
       </c>
-      <c r="G66" s="281" t="s">
+      <c r="G66" s="284" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="6" customFormat="1" ht="13.5" thickBot="1">
+    <row r="67" spans="1:7" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A67" s="166" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="B67" s="166" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>297</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="F67" s="277" t="s">
+        <v>784</v>
+      </c>
+      <c r="F67" s="280" t="s">
         <v>405</v>
       </c>
       <c r="G67" s="259" t="s">
@@ -7862,443 +7908,455 @@
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="69"/>
-    <col min="2" max="2" width="21.140625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="26" style="69" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="69" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" style="69" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="69" customWidth="1"/>
-    <col min="8" max="8" width="62.85546875" style="69" customWidth="1"/>
-    <col min="9" max="16384" width="12.5703125" style="69"/>
+    <col min="1" max="1" width="21.125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="69" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="69" customWidth="1"/>
+    <col min="7" max="7" width="37.375" style="69" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="69" customWidth="1"/>
+    <col min="9" max="9" width="18" style="69" customWidth="1"/>
+    <col min="10" max="10" width="17" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="12.625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B1" s="278" t="s">
-        <v>703</v>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A1" s="281" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>269</v>
       </c>
       <c r="C1" s="150" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D1" s="150" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="E1" s="150" t="s">
-        <v>399</v>
-      </c>
-      <c r="F1" s="150" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="268" t="s">
+      <c r="F1" s="268" t="s">
         <v>678</v>
       </c>
-      <c r="H1" s="150" t="s">
+      <c r="G1" s="150" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B2" s="152" t="s">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="152" t="s">
         <v>278</v>
       </c>
+      <c r="B2" s="108"/>
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
       <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="266" t="s">
+      <c r="F2" s="266" t="s">
         <v>402</v>
       </c>
-      <c r="H2" s="108" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B3" s="153" t="s">
+      <c r="G2" s="108" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="153" t="s">
         <v>273</v>
       </c>
+      <c r="B3" s="73" t="s">
+        <v>408</v>
+      </c>
       <c r="C3" s="73" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="269" t="s">
+      <c r="D3" s="269" t="s">
         <v>680</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="267" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="267" t="s">
         <v>401</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="G3" s="73" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B4" s="153" t="s">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="153" t="s">
         <v>277</v>
       </c>
+      <c r="B4" s="73" t="s">
+        <v>270</v>
+      </c>
       <c r="C4" s="73" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="267" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="267" t="s">
         <v>398</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="G4" s="157" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B5" s="153" t="s">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="153" t="s">
         <v>275</v>
       </c>
+      <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="E5" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="G5" s="267" t="s">
+      <c r="F5" s="267" t="s">
         <v>400</v>
       </c>
-      <c r="H5" s="73"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G5" s="73"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="299"/>
-      <c r="B9" s="297" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A9" s="300" t="s">
         <v>694</v>
       </c>
-      <c r="C9" s="297" t="s">
+      <c r="B9" s="301" t="s">
+        <v>695</v>
+      </c>
+      <c r="C9" s="301" t="s">
         <v>696</v>
       </c>
-      <c r="D9" s="297" t="s">
+      <c r="D9" s="301" t="s">
         <v>697</v>
       </c>
-      <c r="E9" s="297" t="s">
+      <c r="E9" s="301" t="s">
+        <v>698</v>
+      </c>
+      <c r="F9" s="302" t="s">
+        <v>699</v>
+      </c>
+      <c r="G9" s="303" t="s">
+        <v>807</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>808</v>
+      </c>
+      <c r="I9" s="270" t="s">
+        <v>809</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>824</v>
+      </c>
+      <c r="K9" s="301" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="299"/>
-      <c r="B10" s="294" t="s">
-        <v>782</v>
-      </c>
-      <c r="C10" s="294" t="s">
-        <v>699</v>
-      </c>
-      <c r="D10" s="302"/>
-      <c r="E10" s="294"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="299"/>
-      <c r="B11" s="294" t="s">
-        <v>698</v>
-      </c>
-      <c r="C11" s="294" t="s">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="304" t="s">
         <v>700</v>
       </c>
-      <c r="D11" s="294"/>
-      <c r="E11" s="294" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="299"/>
-      <c r="B12" s="294" t="s">
+      <c r="B10" s="297"/>
+      <c r="C10" s="305" t="s">
+        <v>703</v>
+      </c>
+      <c r="D10" s="297"/>
+      <c r="E10" s="297"/>
+      <c r="F10" s="298" t="s">
+        <v>802</v>
+      </c>
+      <c r="G10" s="303"/>
+      <c r="I10" s="270" t="s">
+        <v>822</v>
+      </c>
+      <c r="J10" s="270" t="s">
+        <v>815</v>
+      </c>
+      <c r="K10" s="297"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="304" t="s">
+        <v>701</v>
+      </c>
+      <c r="B11" s="305" t="s">
+        <v>702</v>
+      </c>
+      <c r="C11" s="305" t="s">
+        <v>708</v>
+      </c>
+      <c r="D11" s="297"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="298" t="s">
+        <v>801</v>
+      </c>
+      <c r="G11" s="306" t="s">
+        <v>706</v>
+      </c>
+      <c r="H11" s="306" t="s">
+        <v>706</v>
+      </c>
+      <c r="I11" s="270" t="s">
+        <v>823</v>
+      </c>
+      <c r="J11" s="270" t="s">
+        <v>816</v>
+      </c>
+      <c r="K11" s="305" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="304" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="294" t="s">
-        <v>701</v>
-      </c>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="300"/>
-      <c r="B13" s="294" t="s">
+      <c r="B12" s="305" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="305" t="s">
+        <v>713</v>
+      </c>
+      <c r="D12" s="297" t="s">
+        <v>704</v>
+      </c>
+      <c r="E12" s="307" t="s">
+        <v>705</v>
+      </c>
+      <c r="F12" s="308" t="s">
+        <v>803</v>
+      </c>
+      <c r="G12" s="306" t="s">
+        <v>711</v>
+      </c>
+      <c r="H12" s="306" t="s">
+        <v>711</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>812</v>
+      </c>
+      <c r="J12" s="270" t="s">
+        <v>817</v>
+      </c>
+      <c r="K12" s="305" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="86" customFormat="1" ht="12.75">
+      <c r="A13" s="304" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="303"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="299"/>
-      <c r="B14" s="294" t="s">
+      <c r="B13" s="305" t="s">
+        <v>712</v>
+      </c>
+      <c r="C13" s="309"/>
+      <c r="D13" s="297" t="s">
+        <v>709</v>
+      </c>
+      <c r="E13" s="307" t="s">
+        <v>710</v>
+      </c>
+      <c r="F13" s="308" t="s">
+        <v>804</v>
+      </c>
+      <c r="G13" s="306" t="s">
+        <v>715</v>
+      </c>
+      <c r="H13" s="306" t="s">
+        <v>715</v>
+      </c>
+      <c r="I13" s="319" t="s">
+        <v>813</v>
+      </c>
+      <c r="J13" s="319" t="s">
+        <v>818</v>
+      </c>
+      <c r="K13" s="305" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="23.25">
+      <c r="A14" s="304" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="302"/>
-      <c r="D14" s="294" t="s">
-        <v>784</v>
-      </c>
-      <c r="E14" s="304" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="301" t="s">
-        <v>783</v>
+      <c r="B14" s="313" t="s">
+        <v>716</v>
+      </c>
+      <c r="C14" s="310"/>
+      <c r="D14" s="297" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" s="307" t="s">
+        <v>714</v>
+      </c>
+      <c r="F14" s="308" t="s">
+        <v>715</v>
+      </c>
+      <c r="G14" s="311" t="s">
+        <v>714</v>
+      </c>
+      <c r="H14" s="270" t="s">
+        <v>805</v>
+      </c>
+      <c r="I14" s="270" t="s">
+        <v>811</v>
+      </c>
+      <c r="J14" s="270" t="s">
+        <v>819</v>
+      </c>
+      <c r="K14" s="313" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="312" t="s">
+        <v>275</v>
       </c>
       <c r="B15" s="305" t="s">
+        <v>719</v>
+      </c>
+      <c r="C15" s="313" t="s">
+        <v>799</v>
+      </c>
+      <c r="D15" s="314" t="s">
+        <v>717</v>
+      </c>
+      <c r="E15" s="315" t="s">
+        <v>718</v>
+      </c>
+      <c r="F15" s="316" t="s">
+        <v>714</v>
+      </c>
+      <c r="G15" s="317" t="s">
+        <v>721</v>
+      </c>
+      <c r="H15" s="270" t="s">
+        <v>806</v>
+      </c>
+      <c r="I15" s="270" t="s">
+        <v>810</v>
+      </c>
+      <c r="J15" s="270" t="s">
+        <v>820</v>
+      </c>
+      <c r="K15" s="305" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A16" s="299"/>
+      <c r="C16" s="318" t="s">
+        <v>800</v>
+      </c>
+      <c r="D16" s="297" t="s">
+        <v>720</v>
+      </c>
+      <c r="E16" s="307" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="305" t="s">
-        <v>780</v>
-      </c>
-      <c r="D15" s="305" t="s">
-        <v>785</v>
-      </c>
-      <c r="E15" s="305" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="299"/>
-      <c r="B16" s="294"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="295"/>
-      <c r="E16" s="298"/>
+      <c r="F16" s="305" t="s">
+        <v>721</v>
+      </c>
+      <c r="G16" s="310"/>
+      <c r="I16" s="69" t="s">
+        <v>814</v>
+      </c>
+      <c r="J16" s="270" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" s="270"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B18" s="297" t="s">
-        <v>696</v>
-      </c>
-      <c r="C18" s="297" t="s">
-        <v>695</v>
-      </c>
-      <c r="D18" s="306" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B19" s="307"/>
-      <c r="C19" s="294" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B20" s="294" t="s">
-        <v>699</v>
-      </c>
-      <c r="C20" s="294" t="s">
-        <v>793</v>
-      </c>
-      <c r="D20" s="294" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B21" s="294" t="s">
-        <v>700</v>
-      </c>
-      <c r="C21" s="294" t="s">
-        <v>794</v>
-      </c>
-      <c r="D21" s="294" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B22" s="294" t="s">
-        <v>701</v>
-      </c>
-      <c r="C22" s="304" t="s">
-        <v>791</v>
-      </c>
-      <c r="D22" s="294" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B23" s="305" t="s">
-        <v>780</v>
-      </c>
-      <c r="C23" s="305" t="s">
-        <v>781</v>
-      </c>
-      <c r="D23" s="305" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B24" s="295"/>
-      <c r="C24" s="298"/>
-    </row>
-    <row r="25" spans="1:7" s="331" customFormat="1" ht="36" customHeight="1">
-      <c r="B25" s="332" t="s">
-        <v>694</v>
-      </c>
-      <c r="C25" s="332" t="s">
-        <v>802</v>
-      </c>
-      <c r="D25" s="333" t="s">
-        <v>803</v>
-      </c>
-      <c r="E25" s="334" t="s">
-        <v>806</v>
-      </c>
-      <c r="F25" s="334" t="s">
-        <v>807</v>
-      </c>
-      <c r="G25" s="334" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="46.5" customHeight="1">
-      <c r="B26" s="336" t="s">
-        <v>801</v>
-      </c>
-      <c r="C26" s="336"/>
-      <c r="D26" s="336" t="s">
-        <v>805</v>
-      </c>
-      <c r="E26" s="342" t="s">
-        <v>804</v>
-      </c>
-      <c r="F26" s="340"/>
-      <c r="G26" s="341" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="296" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A27" s="308"/>
-      <c r="B27" s="336" t="s">
-        <v>698</v>
-      </c>
-      <c r="C27" s="336" t="s">
-        <v>792</v>
-      </c>
-      <c r="D27" s="337" t="s">
-        <v>800</v>
-      </c>
-      <c r="E27" s="342" t="s">
-        <v>812</v>
-      </c>
-      <c r="F27" s="342" t="s">
-        <v>808</v>
-      </c>
-      <c r="G27" s="341"/>
-    </row>
-    <row r="28" spans="1:7" s="296" customFormat="1" ht="114" customHeight="1">
-      <c r="A28" s="308"/>
-      <c r="B28" s="336" t="s">
-        <v>795</v>
-      </c>
-      <c r="C28" s="336" t="s">
-        <v>793</v>
-      </c>
-      <c r="D28" s="336" t="s">
-        <v>797</v>
-      </c>
-      <c r="E28" s="342" t="s">
-        <v>810</v>
-      </c>
-      <c r="F28" s="339" t="s">
-        <v>809</v>
-      </c>
-      <c r="G28" s="341"/>
-    </row>
-    <row r="29" spans="1:7" s="296" customFormat="1" ht="114" customHeight="1">
-      <c r="A29" s="308"/>
-      <c r="B29" s="336" t="s">
-        <v>796</v>
-      </c>
-      <c r="C29" s="336" t="s">
-        <v>794</v>
-      </c>
-      <c r="D29" s="336" t="s">
-        <v>779</v>
-      </c>
-      <c r="E29" s="342" t="s">
-        <v>815</v>
-      </c>
-      <c r="F29" s="342" t="s">
-        <v>813</v>
-      </c>
-      <c r="G29" s="342" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="296" customFormat="1" ht="114" customHeight="1">
-      <c r="A30" s="308"/>
-      <c r="B30" s="338" t="s">
-        <v>799</v>
-      </c>
-      <c r="C30" s="338" t="s">
-        <v>791</v>
-      </c>
-      <c r="D30" s="338" t="s">
-        <v>798</v>
-      </c>
-      <c r="E30" s="342"/>
-      <c r="F30" s="344" t="s">
-        <v>814</v>
-      </c>
-      <c r="G30" s="339"/>
-    </row>
-    <row r="31" spans="1:7" s="296" customFormat="1" ht="114" customHeight="1">
-      <c r="B31" s="335" t="s">
-        <v>275</v>
-      </c>
-      <c r="C31" s="335" t="s">
-        <v>781</v>
-      </c>
-      <c r="D31" s="335" t="s">
-        <v>817</v>
-      </c>
-      <c r="E31" s="343" t="s">
-        <v>818</v>
-      </c>
-      <c r="F31" s="339"/>
-      <c r="G31" s="339"/>
-    </row>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="270"/>
+    </row>
+    <row r="19" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="G21" s="272"/>
+    </row>
+    <row r="22" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="G22" s="271"/>
+    </row>
+    <row r="23" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="G23" s="271"/>
+    </row>
+    <row r="24" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="G24" s="272"/>
+    </row>
+    <row r="25" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G25" s="272"/>
+    </row>
+    <row r="26" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G26" s="271"/>
+    </row>
+    <row r="27" spans="1:7" s="86" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G26:G28"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30">
-      <formula1>"미래스마트, 경기천년사업, 문화사업 발굴 및 확산"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28">
-      <formula1>"문화예술, 경영, 미술관, 박물관, 선사박물관, 어린이박물관, 실학박물관"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
-      <formula1>"문예진흥, 문화사업, 지역문화, 생활문화, 문화정책"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8312,13 +8370,13 @@
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="334" t="s">
         <v>562</v>
       </c>
       <c r="B1" s="246" t="s">
@@ -8327,22 +8385,22 @@
       <c r="C1" s="246" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="323" t="s">
+      <c r="D1" s="334" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="323" t="s">
+      <c r="E1" s="334" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="323" t="s">
+      <c r="F1" s="334" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="323" t="s">
+      <c r="G1" s="334" t="s">
         <v>567</v>
       </c>
       <c r="H1" s="246" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="323" t="s">
+      <c r="I1" s="334" t="s">
         <v>569</v>
       </c>
       <c r="J1" s="246" t="s">
@@ -8354,53 +8412,53 @@
       <c r="L1" s="246" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="323" t="s">
+      <c r="M1" s="334" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="323" t="s">
+      <c r="N1" s="334" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="323" t="s">
+      <c r="O1" s="334" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="323" t="s">
+      <c r="P1" s="334" t="s">
         <v>575</v>
       </c>
       <c r="Q1" s="246" t="s">
         <v>576</v>
       </c>
-      <c r="R1" s="323" t="s">
+      <c r="R1" s="334" t="s">
         <v>577</v>
       </c>
-      <c r="S1" s="323" t="s">
+      <c r="S1" s="334" t="s">
         <v>578</v>
       </c>
-      <c r="T1" s="323" t="s">
+      <c r="T1" s="334" t="s">
         <v>579</v>
       </c>
-      <c r="U1" s="323" t="s">
+      <c r="U1" s="334" t="s">
         <v>580</v>
       </c>
-      <c r="V1" s="323" t="s">
+      <c r="V1" s="334" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24">
-      <c r="A2" s="324"/>
+    <row r="2" spans="1:22">
+      <c r="A2" s="335"/>
       <c r="B2" s="247" t="s">
         <v>581</v>
       </c>
       <c r="C2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
       <c r="H2" s="247" t="s">
         <v>583</v>
       </c>
-      <c r="I2" s="324"/>
+      <c r="I2" s="335"/>
       <c r="J2" s="247" t="s">
         <v>584</v>
       </c>
@@ -8410,77 +8468,83 @@
       <c r="L2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="324"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
       <c r="Q2" s="247" t="s">
         <v>586</v>
       </c>
-      <c r="R2" s="324"/>
-      <c r="S2" s="324"/>
-      <c r="T2" s="324"/>
-      <c r="U2" s="324"/>
-      <c r="V2" s="324"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75">
-      <c r="A3" s="325" t="s">
+      <c r="R2" s="335"/>
+      <c r="S2" s="335"/>
+      <c r="T2" s="335"/>
+      <c r="U2" s="335"/>
+      <c r="V2" s="335"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.25">
+      <c r="A3" s="336" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="325" t="s">
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
+      <c r="M3" s="338"/>
+      <c r="N3" s="336" t="s">
         <v>588</v>
       </c>
-      <c r="O3" s="326"/>
-      <c r="P3" s="326"/>
-      <c r="Q3" s="326"/>
-      <c r="R3" s="326"/>
-      <c r="S3" s="326"/>
-      <c r="T3" s="327"/>
-      <c r="U3" s="325" t="s">
+      <c r="O3" s="337"/>
+      <c r="P3" s="337"/>
+      <c r="Q3" s="337"/>
+      <c r="R3" s="337"/>
+      <c r="S3" s="337"/>
+      <c r="T3" s="338"/>
+      <c r="U3" s="336" t="s">
         <v>589</v>
       </c>
-      <c r="V3" s="327"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75">
-      <c r="A4" s="328"/>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="329"/>
-      <c r="H4" s="329"/>
-      <c r="I4" s="329"/>
-      <c r="J4" s="329"/>
-      <c r="K4" s="329"/>
-      <c r="L4" s="329"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="328"/>
-      <c r="O4" s="329"/>
-      <c r="P4" s="329"/>
-      <c r="Q4" s="329"/>
-      <c r="R4" s="329"/>
-      <c r="S4" s="329"/>
-      <c r="T4" s="330"/>
-      <c r="U4" s="328" t="s">
+      <c r="V3" s="338"/>
+    </row>
+    <row r="4" spans="1:22" ht="17.25">
+      <c r="A4" s="339"/>
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="340"/>
+      <c r="G4" s="340"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="341"/>
+      <c r="N4" s="339"/>
+      <c r="O4" s="340"/>
+      <c r="P4" s="340"/>
+      <c r="Q4" s="340"/>
+      <c r="R4" s="340"/>
+      <c r="S4" s="340"/>
+      <c r="T4" s="341"/>
+      <c r="U4" s="339" t="s">
         <v>590</v>
       </c>
-      <c r="V4" s="330"/>
+      <c r="V4" s="341"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
     <mergeCell ref="U3:V3"/>
@@ -8494,12 +8558,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8514,31 +8572,31 @@
   </sheetPr>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" style="245" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="74" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="74" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="74" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="78.5" style="245" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="74" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="74" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="74" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="95.42578125" style="75" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="159" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="95.5" style="75" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="159" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="9" style="237"/>
-    <col min="14" max="14" width="16.42578125" style="237" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="237" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="209" customFormat="1" ht="48" thickBot="1">
+    <row r="1" spans="1:15" s="209" customFormat="1" ht="35.25" thickBot="1">
       <c r="A1" s="211" t="s">
         <v>690</v>
       </c>
@@ -8546,10 +8604,10 @@
         <v>691</v>
       </c>
       <c r="C1" s="211" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="D1" s="228" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="E1" s="212" t="s">
         <v>547</v>
@@ -8585,7 +8643,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25.5">
+    <row r="2" spans="1:15" ht="27">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -8593,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="258" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>670</v>
@@ -8628,7 +8686,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25.5">
+    <row r="3" spans="1:15" ht="27">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8636,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="161" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="D3" s="76" t="s">
         <v>683</v>
@@ -8662,8 +8720,8 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="285" t="s">
-        <v>709</v>
+      <c r="C4" s="288" t="s">
+        <v>729</v>
       </c>
       <c r="D4" s="80" t="s">
         <v>684</v>
@@ -8682,7 +8740,7 @@
       <c r="N4" s="233"/>
       <c r="O4" s="165"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1">
+    <row r="5" spans="1:15" ht="17.25" thickBot="1">
       <c r="A5" s="162" t="s">
         <v>9</v>
       </c>
@@ -8690,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="259" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>677</v>
@@ -8709,7 +8767,7 @@
       <c r="N5" s="235"/>
       <c r="O5" s="166"/>
     </row>
-    <row r="6" spans="1:15" ht="25.5">
+    <row r="6" spans="1:15" ht="27">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -8717,7 +8775,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="258" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="D6" s="81" t="s">
         <v>682</v>
@@ -8752,15 +8810,15 @@
         <v>532</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="25.5">
+    <row r="7" spans="1:15" ht="27">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="279" t="s">
-        <v>711</v>
+      <c r="C7" s="282" t="s">
+        <v>731</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>681</v>
@@ -8779,14 +8837,14 @@
       <c r="N7" s="233"/>
       <c r="O7" s="165"/>
     </row>
-    <row r="8" spans="1:15" ht="25.5">
+    <row r="8" spans="1:15" ht="27">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="279" t="s">
+      <c r="C8" s="282" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="80" t="s">
@@ -8806,7 +8864,7 @@
       <c r="N8" s="233"/>
       <c r="O8" s="165"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1">
+    <row r="9" spans="1:15" ht="17.25" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -8833,7 +8891,7 @@
       <c r="N9" s="235"/>
       <c r="O9" s="166"/>
     </row>
-    <row r="10" spans="1:15" ht="25.5">
+    <row r="10" spans="1:15" ht="27">
       <c r="A10" s="164" t="s">
         <v>29</v>
       </c>
@@ -8841,7 +8899,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="258" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>672</v>
@@ -8883,7 +8941,7 @@
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="279" t="s">
+      <c r="C11" s="282" t="s">
         <v>601</v>
       </c>
       <c r="D11" s="80" t="s">
@@ -8903,14 +8961,14 @@
       <c r="N11" s="233"/>
       <c r="O11" s="165"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25">
+    <row r="12" spans="1:15" ht="40.5">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="279" t="s">
+      <c r="C12" s="282" t="s">
         <v>602</v>
       </c>
       <c r="D12" s="80" t="s">
@@ -8937,7 +8995,7 @@
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="279" t="s">
+      <c r="C13" s="282" t="s">
         <v>603</v>
       </c>
       <c r="D13" s="80" t="s">
@@ -8957,7 +9015,7 @@
       <c r="N13" s="233"/>
       <c r="O13" s="165"/>
     </row>
-    <row r="14" spans="1:15" s="210" customFormat="1" ht="39" thickBot="1">
+    <row r="14" spans="1:15" s="210" customFormat="1" ht="41.25" thickBot="1">
       <c r="A14" s="162" t="s">
         <v>9</v>
       </c>
@@ -8965,7 +9023,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="259" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>424</v>
@@ -8984,7 +9042,7 @@
       <c r="N14" s="235"/>
       <c r="O14" s="166"/>
     </row>
-    <row r="15" spans="1:15" ht="25.5">
+    <row r="15" spans="1:15" ht="27">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -8992,7 +9050,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="258" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="D15" s="81" t="s">
         <v>673</v>
@@ -9034,8 +9092,8 @@
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="279" t="s">
-        <v>720</v>
+      <c r="C16" s="282" t="s">
+        <v>740</v>
       </c>
       <c r="D16" s="80" t="s">
         <v>687</v>
@@ -9054,7 +9112,7 @@
       <c r="N16" s="233"/>
       <c r="O16" s="165"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1">
+    <row r="17" spans="1:15" ht="17.25" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -9081,7 +9139,7 @@
       <c r="N17" s="235"/>
       <c r="O17" s="166"/>
     </row>
-    <row r="18" spans="1:15" s="206" customFormat="1" ht="25.5">
+    <row r="18" spans="1:15" s="206" customFormat="1" ht="27">
       <c r="A18" s="202" t="s">
         <v>9</v>
       </c>
@@ -9089,7 +9147,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="258" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="D18" s="248" t="s">
         <v>669</v>
@@ -9128,14 +9186,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="206" customFormat="1" ht="38.25">
+    <row r="19" spans="1:15" s="206" customFormat="1" ht="40.5">
       <c r="A19" s="202" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="279" t="s">
+      <c r="C19" s="282" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="249" t="s">
@@ -9175,15 +9233,15 @@
         <v>532</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="206" customFormat="1" ht="25.5">
+    <row r="20" spans="1:15" s="206" customFormat="1" ht="27">
       <c r="A20" s="202" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="279" t="s">
-        <v>722</v>
+      <c r="C20" s="282" t="s">
+        <v>742</v>
       </c>
       <c r="D20" s="249" t="s">
         <v>598</v>
@@ -9222,14 +9280,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="206" customFormat="1" ht="39" thickBot="1">
+    <row r="21" spans="1:15" s="206" customFormat="1" ht="41.25" thickBot="1">
       <c r="A21" s="204" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="286" t="s">
+      <c r="C21" s="289" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="251" t="s">
@@ -9269,7 +9327,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="25.5">
+    <row r="22" spans="1:15" ht="27">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -9277,7 +9335,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="258" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="D22" s="81" t="s">
         <v>674</v>
@@ -9319,8 +9377,8 @@
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="279" t="s">
-        <v>723</v>
+      <c r="C23" s="282" t="s">
+        <v>743</v>
       </c>
       <c r="D23" s="80" t="s">
         <v>418</v>
@@ -9339,7 +9397,7 @@
       <c r="N23" s="233"/>
       <c r="O23" s="165"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1">
+    <row r="24" spans="1:15" ht="17.25" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
@@ -9366,7 +9424,7 @@
       <c r="N24" s="235"/>
       <c r="O24" s="166"/>
     </row>
-    <row r="25" spans="1:15" ht="25.5">
+    <row r="25" spans="1:15" ht="27">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -9374,7 +9432,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="258" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="D25" s="81" t="s">
         <v>671</v>
@@ -9416,8 +9474,8 @@
       <c r="B26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="279" t="s">
-        <v>726</v>
+      <c r="C26" s="282" t="s">
+        <v>746</v>
       </c>
       <c r="D26" s="80" t="s">
         <v>425</v>
@@ -9436,7 +9494,7 @@
       <c r="N26" s="233"/>
       <c r="O26" s="165"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1">
+    <row r="27" spans="1:15" ht="17.25" thickBot="1">
       <c r="A27" s="162" t="s">
         <v>21</v>
       </c>
@@ -9461,50 +9519,50 @@
       <c r="N27" s="235"/>
       <c r="O27" s="166"/>
     </row>
-    <row r="28" spans="1:15" s="210" customFormat="1" ht="25.5">
-      <c r="A28" s="287" t="s">
+    <row r="28" spans="1:15" s="210" customFormat="1" ht="27">
+      <c r="A28" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="288" t="s">
+      <c r="B28" s="291" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="258" t="s">
-        <v>727</v>
-      </c>
-      <c r="D28" s="289" t="s">
+        <v>747</v>
+      </c>
+      <c r="D28" s="292" t="s">
         <v>671</v>
       </c>
-      <c r="E28" s="290" t="s">
+      <c r="E28" s="293" t="s">
         <v>629</v>
       </c>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290" t="s">
+      <c r="F28" s="293"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="293" t="s">
         <v>541</v>
       </c>
-      <c r="I28" s="291" t="s">
+      <c r="I28" s="294" t="s">
         <v>557</v>
       </c>
-      <c r="J28" s="290" t="s">
+      <c r="J28" s="293" t="s">
         <v>542</v>
       </c>
-      <c r="K28" s="290" t="s">
+      <c r="K28" s="293" t="s">
         <v>543</v>
       </c>
-      <c r="L28" s="292" t="s">
+      <c r="L28" s="295" t="s">
         <v>530</v>
       </c>
-      <c r="M28" s="293" t="s">
+      <c r="M28" s="296" t="s">
         <v>534</v>
       </c>
-      <c r="N28" s="293" t="s">
+      <c r="N28" s="296" t="s">
         <v>535</v>
       </c>
-      <c r="O28" s="292" t="s">
+      <c r="O28" s="295" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="210" customFormat="1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:15" s="210" customFormat="1" ht="17.25" thickBot="1">
       <c r="A29" s="162" t="s">
         <v>21</v>
       </c>
@@ -9512,7 +9570,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="259" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="D29" s="242"/>
       <c r="E29" s="166"/>
@@ -9527,7 +9585,7 @@
       <c r="N29" s="234"/>
       <c r="O29" s="162"/>
     </row>
-    <row r="30" spans="1:15" ht="25.5">
+    <row r="30" spans="1:15" ht="27">
       <c r="A30" s="2" t="s">
         <v>21</v>
       </c>
@@ -9535,7 +9593,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="258" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="D30" s="81" t="s">
         <v>671</v>
@@ -9577,7 +9635,7 @@
       <c r="B31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="279" t="s">
+      <c r="C31" s="282" t="s">
         <v>283</v>
       </c>
       <c r="D31" s="80" t="s">
@@ -9597,14 +9655,14 @@
       <c r="N31" s="233"/>
       <c r="O31" s="165"/>
     </row>
-    <row r="32" spans="1:15" ht="39" thickBot="1">
+    <row r="32" spans="1:15" ht="41.25" thickBot="1">
       <c r="A32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="286" t="s">
+      <c r="C32" s="289" t="s">
         <v>660</v>
       </c>
       <c r="D32" s="79" t="s">
@@ -9624,7 +9682,7 @@
       <c r="N32" s="235"/>
       <c r="O32" s="166"/>
     </row>
-    <row r="33" spans="1:15" ht="25.5">
+    <row r="33" spans="1:15" ht="27">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -9632,7 +9690,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="258" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="D33" s="81" t="s">
         <v>671</v>
@@ -9667,14 +9725,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="63.75">
+    <row r="34" spans="1:15" ht="67.5">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="279" t="s">
+      <c r="C34" s="282" t="s">
         <v>285</v>
       </c>
       <c r="D34" s="80" t="s">
@@ -9706,14 +9764,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="25.5">
+    <row r="35" spans="1:15" ht="27">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="279" t="s">
+      <c r="C35" s="282" t="s">
         <v>286</v>
       </c>
       <c r="D35" s="80" t="s">
@@ -9745,7 +9803,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="26.25" thickBot="1">
+    <row r="36" spans="1:15" ht="27.75" thickBot="1">
       <c r="A36" s="7" t="s">
         <v>21</v>
       </c>
@@ -9753,7 +9811,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="259" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="D36" s="243" t="s">
         <v>429</v>
@@ -9784,7 +9842,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="25.5">
+    <row r="37" spans="1:15" ht="27">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -9792,7 +9850,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="258" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="D37" s="81" t="s">
         <v>671</v>
@@ -9827,15 +9885,15 @@
         <v>532</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="25.5">
+    <row r="38" spans="1:15" ht="27">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="279" t="s">
-        <v>733</v>
+      <c r="C38" s="282" t="s">
+        <v>753</v>
       </c>
       <c r="D38" s="80" t="s">
         <v>420</v>
@@ -9866,14 +9924,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="38.25">
+    <row r="39" spans="1:15" ht="40.5">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="279" t="s">
+      <c r="C39" s="282" t="s">
         <v>416</v>
       </c>
       <c r="D39" s="80" t="s">
@@ -9905,7 +9963,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="26.25" thickBot="1">
+    <row r="40" spans="1:15" ht="27.75" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>21</v>
       </c>
@@ -9913,7 +9971,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="259" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="D40" s="79" t="s">
         <v>431</v>
@@ -9944,7 +10002,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="25.5">
+    <row r="41" spans="1:15" ht="27">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -9952,7 +10010,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="258" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c r="D41" s="81" t="s">
         <v>671</v>
@@ -9987,7 +10045,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="210" customFormat="1" ht="26.25" thickBot="1">
+    <row r="42" spans="1:15" s="210" customFormat="1" ht="27.75" thickBot="1">
       <c r="A42" s="162" t="s">
         <v>21</v>
       </c>
@@ -10026,7 +10084,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="25.5">
+    <row r="43" spans="1:15" ht="27">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -10034,7 +10092,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="258" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c r="D43" s="81" t="s">
         <v>671</v>
@@ -10069,14 +10127,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="63.75">
+    <row r="44" spans="1:15" ht="67.5">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="279" t="s">
+      <c r="C44" s="282" t="s">
         <v>659</v>
       </c>
       <c r="D44" s="80" t="s">
@@ -10108,7 +10166,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="26.25" thickBot="1">
+    <row r="45" spans="1:15" ht="27.75" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>21</v>
       </c>
@@ -10116,7 +10174,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="259" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="D45" s="264" t="s">
         <v>665</v>
@@ -10147,7 +10205,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="25.5">
+    <row r="46" spans="1:15" ht="27">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -10155,7 +10213,7 @@
         <v>58</v>
       </c>
       <c r="C46" s="258" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="D46" s="81" t="s">
         <v>671</v>
@@ -10190,7 +10248,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="39" thickBot="1">
+    <row r="47" spans="1:15" ht="41.25" thickBot="1">
       <c r="A47" s="7" t="s">
         <v>21</v>
       </c>
@@ -10198,7 +10256,7 @@
         <v>58</v>
       </c>
       <c r="C47" s="259" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="D47" s="79" t="s">
         <v>433</v>
@@ -10229,7 +10287,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="25.5">
+    <row r="48" spans="1:15" ht="27">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -10237,7 +10295,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="258" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="D48" s="81" t="s">
         <v>671</v>
@@ -10272,15 +10330,15 @@
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="38.25">
+    <row r="49" spans="1:15" ht="40.5">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="281" t="s">
-        <v>739</v>
+      <c r="C49" s="284" t="s">
+        <v>759</v>
       </c>
       <c r="D49" s="265" t="s">
         <v>434</v>
@@ -10311,15 +10369,15 @@
         <v>532</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="159" customFormat="1" ht="26.25" thickBot="1">
+    <row r="50" spans="1:15" s="159" customFormat="1" ht="27.75" thickBot="1">
       <c r="A50" s="162" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="282" t="s">
-        <v>740</v>
+      <c r="C50" s="285" t="s">
+        <v>760</v>
       </c>
       <c r="D50" s="79" t="s">
         <v>663</v>
@@ -10350,7 +10408,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="25.5">
+    <row r="51" spans="1:15" ht="27">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -10358,7 +10416,7 @@
         <v>62</v>
       </c>
       <c r="C51" s="258" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="D51" s="81" t="s">
         <v>671</v>
@@ -10393,7 +10451,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="159" customFormat="1" ht="25.5">
+    <row r="52" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A52" s="164" t="s">
         <v>0</v>
       </c>
@@ -10401,7 +10459,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="258" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c r="D52" s="81" t="s">
         <v>435</v>
@@ -10432,7 +10490,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="159" customFormat="1" ht="25.5">
+    <row r="53" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A53" s="164" t="s">
         <v>0</v>
       </c>
@@ -10440,7 +10498,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="258" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="D53" s="81" t="s">
         <v>436</v>
@@ -10471,7 +10529,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="26.25" thickBot="1">
+    <row r="54" spans="1:15" ht="27.75" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -10479,7 +10537,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="259" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="D54" s="79" t="s">
         <v>437</v>
@@ -10510,7 +10568,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="1" customFormat="1" ht="25.5">
+    <row r="55" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A55" s="1" t="s">
         <v>297</v>
       </c>
@@ -10518,7 +10576,7 @@
         <v>213</v>
       </c>
       <c r="C55" s="258" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="D55" s="81" t="s">
         <v>671</v>
@@ -10553,15 +10611,15 @@
         <v>532</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="1" customFormat="1" ht="25.5">
+    <row r="56" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A56" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="281" t="s">
-        <v>771</v>
+      <c r="C56" s="284" t="s">
+        <v>791</v>
       </c>
       <c r="D56" s="244" t="s">
         <v>438</v>
@@ -10588,14 +10646,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="1" customFormat="1" ht="25.5">
+    <row r="57" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A57" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="281" t="s">
+      <c r="C57" s="284" t="s">
         <v>407</v>
       </c>
       <c r="D57" s="244" t="s">
@@ -10623,7 +10681,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="1" customFormat="1" ht="26.25" thickBot="1">
+    <row r="58" spans="1:15" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A58" s="166" t="s">
         <v>297</v>
       </c>
@@ -10680,82 +10738,82 @@
       <selection activeCell="E18" sqref="E18:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="53" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="53" customWidth="1"/>
     <col min="2" max="2" width="18" style="53" customWidth="1"/>
     <col min="3" max="3" width="9" style="53"/>
-    <col min="4" max="4" width="16.140625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="35.25" style="53" customWidth="1"/>
     <col min="6" max="9" width="9" style="53"/>
-    <col min="10" max="10" width="14.42578125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="53" customWidth="1"/>
     <col min="11" max="11" width="9" style="53"/>
-    <col min="12" max="12" width="11.42578125" style="53" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="53" customWidth="1"/>
     <col min="13" max="14" width="9" style="53"/>
-    <col min="15" max="15" width="14.7109375" style="53" customWidth="1"/>
+    <col min="15" max="15" width="14.75" style="53" customWidth="1"/>
     <col min="16" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="309" t="s">
+    <row r="1" spans="1:15" ht="20.25">
+      <c r="A1" s="320" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-    </row>
-    <row r="2" spans="1:15" s="54" customFormat="1" ht="18.75">
-      <c r="A2" s="310" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
+    </row>
+    <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
+      <c r="A2" s="321" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
-      <c r="K2" s="310"/>
-      <c r="L2" s="310"/>
-      <c r="M2" s="310"/>
-      <c r="N2" s="310"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="311" t="s">
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.25">
+      <c r="A3" s="322" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="311" t="s">
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="322" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="312"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="323"/>
+      <c r="M3" s="323"/>
+      <c r="N3" s="323"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="24.75" thickBot="1">
+    <row r="4" spans="1:15" ht="17.25" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>75</v>
       </c>
@@ -10802,7 +10860,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickTop="1">
+    <row r="5" spans="1:15" ht="17.25" thickTop="1">
       <c r="A5" s="19" t="s">
         <v>89</v>
       </c>
@@ -10884,7 +10942,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="24">
+    <row r="7" spans="1:15">
       <c r="A7" s="21" t="s">
         <v>89</v>
       </c>
@@ -10966,7 +11024,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="24">
+    <row r="9" spans="1:15">
       <c r="A9" s="21" t="s">
         <v>89</v>
       </c>
@@ -11130,7 +11188,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="24">
+    <row r="13" spans="1:15">
       <c r="A13" s="21" t="s">
         <v>89</v>
       </c>
@@ -11458,7 +11516,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="56" customFormat="1" ht="15.75" thickBot="1">
+    <row r="21" spans="1:15" s="56" customFormat="1" ht="17.25" thickBot="1">
       <c r="A21" s="25" t="s">
         <v>139</v>
       </c>
@@ -11946,14 +12004,14 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="83" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
@@ -11979,7 +12037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="210" customFormat="1" ht="15.75" thickTop="1">
+    <row r="2" spans="1:7" s="210" customFormat="1" ht="17.25" thickTop="1">
       <c r="A2" s="94" t="s">
         <v>178</v>
       </c>
@@ -12011,7 +12069,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="96" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="E3" s="90"/>
       <c r="F3" s="90"/>
@@ -12028,7 +12086,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -12045,7 +12103,7 @@
         <v>135</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="E5" s="90"/>
       <c r="F5" s="90"/>
@@ -12062,13 +12120,13 @@
         <v>135</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
       <c r="G6" s="90"/>
     </row>
-    <row r="7" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A7" s="100" t="s">
         <v>178</v>
       </c>
@@ -12138,7 +12196,7 @@
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
     </row>
-    <row r="11" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A11" s="91" t="s">
         <v>178</v>
       </c>
@@ -12155,7 +12213,7 @@
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
     </row>
-    <row r="12" spans="1:7" s="255" customFormat="1" ht="15.75" thickBot="1">
+    <row r="12" spans="1:7" s="255" customFormat="1" ht="17.25" thickBot="1">
       <c r="A12" s="222" t="s">
         <v>178</v>
       </c>
@@ -12231,7 +12289,7 @@
       <c r="F15" s="90"/>
       <c r="G15" s="90"/>
     </row>
-    <row r="16" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A16" s="91" t="s">
         <v>178</v>
       </c>
@@ -12335,7 +12393,7 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
     </row>
-    <row r="22" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="22" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A22" s="91" t="s">
         <v>178</v>
       </c>
@@ -12405,7 +12463,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
     </row>
-    <row r="26" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="26" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A26" s="91" t="s">
         <v>178</v>
       </c>
@@ -12475,7 +12533,7 @@
       <c r="F29" s="90"/>
       <c r="G29" s="90"/>
     </row>
-    <row r="30" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="30" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A30" s="91" t="s">
         <v>178</v>
       </c>
@@ -12558,7 +12616,7 @@
       <c r="F34" s="90"/>
       <c r="G34" s="90"/>
     </row>
-    <row r="35" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="35" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A35" s="91" t="s">
         <v>178</v>
       </c>
@@ -12628,7 +12686,7 @@
       <c r="F38" s="90"/>
       <c r="G38" s="90"/>
     </row>
-    <row r="39" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="39" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A39" s="91" t="s">
         <v>178</v>
       </c>
@@ -12681,7 +12739,7 @@
       <c r="F41" s="90"/>
       <c r="G41" s="90"/>
     </row>
-    <row r="42" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="42" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A42" s="91" t="s">
         <v>178</v>
       </c>
@@ -12751,7 +12809,7 @@
       <c r="F45" s="90"/>
       <c r="G45" s="90"/>
     </row>
-    <row r="46" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A46" s="91" t="s">
         <v>178</v>
       </c>
@@ -12819,7 +12877,7 @@
       <c r="F49" s="90"/>
       <c r="G49" s="90"/>
     </row>
-    <row r="50" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="50" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A50" s="91" t="s">
         <v>178</v>
       </c>
@@ -12874,7 +12932,7 @@
       <c r="F52" s="90"/>
       <c r="G52" s="90"/>
     </row>
-    <row r="53" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="53" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A53" s="91" t="s">
         <v>178</v>
       </c>
@@ -12946,7 +13004,7 @@
       <c r="F56" s="90"/>
       <c r="G56" s="90"/>
     </row>
-    <row r="57" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="57" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A57" s="91" t="s">
         <v>178</v>
       </c>
@@ -12984,7 +13042,7 @@
       </c>
       <c r="G58" s="253"/>
     </row>
-    <row r="59" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="59" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A59" s="104" t="s">
         <v>178</v>
       </c>
@@ -13022,7 +13080,7 @@
       </c>
       <c r="G60" s="253"/>
     </row>
-    <row r="61" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="61" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A61" s="104" t="s">
         <v>178</v>
       </c>
@@ -13090,7 +13148,7 @@
       <c r="F64" s="90"/>
       <c r="G64" s="90"/>
     </row>
-    <row r="65" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="65" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A65" s="91" t="s">
         <v>178</v>
       </c>
@@ -13156,7 +13214,7 @@
       <c r="F68" s="90"/>
       <c r="G68" s="90"/>
     </row>
-    <row r="69" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="69" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A69" s="91" t="s">
         <v>178</v>
       </c>
@@ -13275,7 +13333,7 @@
       <c r="F75" s="90"/>
       <c r="G75" s="90"/>
     </row>
-    <row r="76" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="76" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A76" s="91" t="s">
         <v>178</v>
       </c>
@@ -13347,7 +13405,7 @@
       <c r="F79" s="90"/>
       <c r="G79" s="90"/>
     </row>
-    <row r="80" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1">
+    <row r="80" spans="1:7" s="82" customFormat="1" ht="17.25" thickBot="1">
       <c r="A80" s="91" t="s">
         <v>178</v>
       </c>
@@ -13387,24 +13445,24 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="110" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="159" customWidth="1"/>
-    <col min="6" max="7" width="11.85546875" style="159" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="159" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="110" customWidth="1"/>
+    <col min="2" max="2" width="48.25" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" style="159" customWidth="1"/>
+    <col min="6" max="7" width="11.875" style="159" customWidth="1"/>
+    <col min="9" max="9" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="159" customWidth="1"/>
     <col min="11" max="11" width="20" style="159" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="208" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="208" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="159" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="208" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="208" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="159" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="209" customFormat="1" ht="48" thickBot="1">
+    <row r="1" spans="1:15" s="209" customFormat="1" ht="35.25" thickBot="1">
       <c r="A1" s="238" t="s">
         <v>6</v>
       </c>
@@ -13451,7 +13509,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="159" customFormat="1" ht="39" thickTop="1">
+    <row r="2" spans="1:15" s="159" customFormat="1" ht="27.75" thickTop="1">
       <c r="A2" s="94" t="s">
         <v>263</v>
       </c>
@@ -13608,7 +13666,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
+    <row r="7" spans="1:15" ht="17.25" thickBot="1">
       <c r="A7" s="100" t="s">
         <v>263</v>
       </c>
@@ -13637,7 +13695,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="8" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A8" s="88" t="s">
         <v>263</v>
       </c>
@@ -13736,7 +13794,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+    <row r="11" spans="1:15" ht="17.25" thickBot="1">
       <c r="A11" s="91" t="s">
         <v>263</v>
       </c>
@@ -13765,7 +13823,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="39" thickBot="1">
+    <row r="12" spans="1:15" ht="27.75" thickBot="1">
       <c r="A12" s="222" t="s">
         <v>263</v>
       </c>
@@ -13806,7 +13864,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="13" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A13" s="88" t="s">
         <v>263</v>
       </c>
@@ -13905,7 +13963,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
+    <row r="16" spans="1:15" ht="17.25" thickBot="1">
       <c r="A16" s="91" t="s">
         <v>263</v>
       </c>
@@ -13934,7 +13992,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="17" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A17" s="88" t="s">
         <v>263</v>
       </c>
@@ -14110,7 +14168,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+    <row r="23" spans="1:15" ht="17.25" thickBot="1">
       <c r="A23" s="91" t="s">
         <v>263</v>
       </c>
@@ -14137,7 +14195,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="24" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A24" s="227" t="s">
         <v>263</v>
       </c>
@@ -14232,7 +14290,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1">
+    <row r="27" spans="1:15" ht="17.25" thickBot="1">
       <c r="A27" s="240" t="s">
         <v>263</v>
       </c>
@@ -14259,7 +14317,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="28" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A28" s="88" t="s">
         <v>260</v>
       </c>
@@ -14414,7 +14472,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1">
+    <row r="33" spans="1:15" ht="17.25" thickBot="1">
       <c r="A33" s="91" t="s">
         <v>260</v>
       </c>
@@ -14441,7 +14499,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="34" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A34" s="88" t="s">
         <v>260</v>
       </c>
@@ -14540,7 +14598,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1">
+    <row r="37" spans="1:15" ht="17.25" thickBot="1">
       <c r="A37" s="91" t="s">
         <v>260</v>
       </c>
@@ -14567,7 +14625,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="38" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A38" s="88" t="s">
         <v>260</v>
       </c>
@@ -14666,7 +14724,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1">
+    <row r="41" spans="1:15" ht="17.25" thickBot="1">
       <c r="A41" s="91" t="s">
         <v>260</v>
       </c>
@@ -14693,7 +14751,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="42" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A42" s="88" t="s">
         <v>260</v>
       </c>
@@ -14817,7 +14875,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" thickBot="1">
+    <row r="46" spans="1:15" ht="17.25" thickBot="1">
       <c r="A46" s="91" t="s">
         <v>260</v>
       </c>
@@ -14844,7 +14902,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="47" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A47" s="88" t="s">
         <v>260</v>
       </c>
@@ -14943,7 +15001,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1">
+    <row r="50" spans="1:15" ht="17.25" thickBot="1">
       <c r="A50" s="91" t="s">
         <v>260</v>
       </c>
@@ -14970,7 +15028,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="51" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A51" s="88" t="s">
         <v>260</v>
       </c>
@@ -15040,7 +15098,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" thickBot="1">
+    <row r="53" spans="1:15" ht="17.25" thickBot="1">
       <c r="A53" s="91" t="s">
         <v>260</v>
       </c>
@@ -15067,7 +15125,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="54" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A54" s="88" t="s">
         <v>260</v>
       </c>
@@ -15166,7 +15224,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" thickBot="1">
+    <row r="57" spans="1:15" ht="17.25" thickBot="1">
       <c r="A57" s="91" t="s">
         <v>260</v>
       </c>
@@ -15193,7 +15251,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="58" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A58" s="88" t="s">
         <v>260</v>
       </c>
@@ -15290,7 +15348,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" thickBot="1">
+    <row r="61" spans="1:15" ht="17.25" thickBot="1">
       <c r="A61" s="91" t="s">
         <v>260</v>
       </c>
@@ -15319,7 +15377,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="62" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A62" s="88" t="s">
         <v>260</v>
       </c>
@@ -15389,7 +15447,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15.75" thickBot="1">
+    <row r="64" spans="1:15" ht="17.25" thickBot="1">
       <c r="A64" s="91" t="s">
         <v>260</v>
       </c>
@@ -15418,7 +15476,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="65" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A65" s="88" t="s">
         <v>260</v>
       </c>
@@ -15517,7 +15575,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.75" thickBot="1">
+    <row r="68" spans="1:15" ht="17.25" thickBot="1">
       <c r="A68" s="91" t="s">
         <v>260</v>
       </c>
@@ -15546,7 +15604,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="69" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A69" s="227" t="s">
         <v>260</v>
       </c>
@@ -15587,7 +15645,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.75" thickBot="1">
+    <row r="70" spans="1:15" ht="17.25" thickBot="1">
       <c r="A70" s="91" t="s">
         <v>260</v>
       </c>
@@ -15616,7 +15674,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="71" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A71" s="227" t="s">
         <v>545</v>
       </c>
@@ -15657,7 +15715,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15.75" thickBot="1">
+    <row r="72" spans="1:15" ht="17.25" thickBot="1">
       <c r="A72" s="91" t="s">
         <v>545</v>
       </c>
@@ -15686,7 +15744,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="73" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A73" s="88" t="s">
         <v>297</v>
       </c>
@@ -15835,7 +15893,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75" thickBot="1">
+    <row r="78" spans="1:15" ht="17.25" thickBot="1">
       <c r="A78" s="91" t="s">
         <v>297</v>
       </c>
@@ -15862,7 +15920,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="79" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A79" s="88" t="s">
         <v>297</v>
       </c>
@@ -15957,7 +16015,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" thickBot="1">
+    <row r="82" spans="1:15" ht="17.25" thickBot="1">
       <c r="A82" s="91" t="s">
         <v>297</v>
       </c>
@@ -15984,7 +16042,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="83" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A83" s="88" t="s">
         <v>297</v>
       </c>
@@ -16168,7 +16226,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75" thickBot="1">
+    <row r="89" spans="1:15" ht="17.25" thickBot="1">
       <c r="A89" s="91" t="s">
         <v>297</v>
       </c>
@@ -16197,7 +16255,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="90" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A90" s="88" t="s">
         <v>297</v>
       </c>
@@ -16323,7 +16381,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15.75" thickBot="1">
+    <row r="94" spans="1:15" ht="17.25" thickBot="1">
       <c r="A94" s="91" t="s">
         <v>297</v>
       </c>
@@ -16350,7 +16408,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="159" customFormat="1" ht="38.25">
+    <row r="95" spans="1:15" s="159" customFormat="1" ht="27">
       <c r="A95" s="88" t="s">
         <v>297</v>
       </c>
@@ -16499,7 +16557,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15.75" thickBot="1">
+    <row r="100" spans="1:15" ht="17.25" thickBot="1">
       <c r="A100" s="91" t="s">
         <v>297</v>
       </c>
@@ -16543,85 +16601,85 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="17" customWidth="1"/>
     <col min="7" max="7" width="9" style="17"/>
-    <col min="8" max="9" width="7.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="17" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="17" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="17" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="17" customWidth="1"/>
     <col min="14" max="14" width="9" style="17"/>
-    <col min="15" max="15" width="19.42578125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" customWidth="1"/>
     <col min="16" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="18.75">
-      <c r="A1" s="309" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
+      <c r="A1" s="320" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="321" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
-      <c r="K2" s="310"/>
-      <c r="L2" s="310"/>
-      <c r="M2" s="310"/>
-      <c r="N2" s="310"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="311" t="s">
+      <c r="A3" s="322" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="311" t="s">
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="322" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="312"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="323"/>
+      <c r="M3" s="323"/>
+      <c r="N3" s="323"/>
       <c r="O3" s="199" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="24.75" thickBot="1">
+    <row r="4" spans="1:15" ht="17.25" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>75</v>
       </c>
@@ -16668,7 +16726,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickTop="1">
+    <row r="5" spans="1:15" ht="17.25" thickTop="1">
       <c r="A5" s="19" t="s">
         <v>89</v>
       </c>
@@ -16709,7 +16767,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="24">
+    <row r="6" spans="1:15">
       <c r="A6" s="21" t="s">
         <v>89</v>
       </c>
@@ -17119,7 +17177,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
+    <row r="16" spans="1:15" ht="17.25" thickBot="1">
       <c r="A16" s="23" t="s">
         <v>89</v>
       </c>
@@ -17367,7 +17425,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1">
+    <row r="22" spans="1:15" ht="17.25" thickBot="1">
       <c r="A22" s="23" t="s">
         <v>121</v>
       </c>
@@ -17576,7 +17634,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="24">
+    <row r="27" spans="1:15">
       <c r="A27" s="21" t="s">
         <v>139</v>
       </c>
@@ -17619,7 +17677,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1">
+    <row r="28" spans="1:15" ht="17.25" thickBot="1">
       <c r="A28" s="25" t="s">
         <v>139</v>
       </c>
@@ -17662,7 +17720,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="24">
+    <row r="29" spans="1:15">
       <c r="A29" s="27" t="s">
         <v>154</v>
       </c>
@@ -17702,7 +17760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="24">
+    <row r="30" spans="1:15">
       <c r="A30" s="32" t="s">
         <v>154</v>
       </c>
@@ -17742,7 +17800,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="24">
+    <row r="31" spans="1:15">
       <c r="A31" s="32" t="s">
         <v>154</v>
       </c>
@@ -17782,7 +17840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="24">
+    <row r="32" spans="1:15">
       <c r="A32" s="32" t="s">
         <v>154</v>
       </c>
@@ -17822,7 +17880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" thickBot="1">
+    <row r="33" spans="1:14" ht="17.25" thickBot="1">
       <c r="A33" s="38" t="s">
         <v>166</v>
       </c>
@@ -18308,48 +18366,48 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="67" customWidth="1"/>
     <col min="3" max="3" width="35" style="67" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="68" customWidth="1"/>
     <col min="5" max="5" width="9" style="68"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="12" max="12" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="51.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="314" t="s">
+    <row r="1" spans="1:6" ht="17.25">
+      <c r="A1" s="325" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="314" t="s">
+      <c r="B1" s="325" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="314" t="s">
+      <c r="C1" s="325" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="316" t="s">
+      <c r="D1" s="327" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="316"/>
-      <c r="F1" s="314" t="s">
+      <c r="E1" s="327"/>
+      <c r="F1" s="325" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A2" s="315"/>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
+    <row r="2" spans="1:6" ht="18" thickBot="1">
+      <c r="A2" s="326"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
       <c r="D2" s="125" t="s">
         <v>221</v>
       </c>
       <c r="E2" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="315"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1">
+      <c r="F2" s="326"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="126" t="s">
         <v>223</v>
       </c>
@@ -18395,7 +18453,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
       <c r="A6" s="134" t="s">
         <v>226</v>
       </c>
@@ -18503,7 +18561,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="134"/>
       <c r="B13" s="134" t="s">
         <v>239</v>
@@ -18539,7 +18597,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="61" t="s">
         <v>249</v>
       </c>
@@ -18593,25 +18651,25 @@
       <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12" style="112" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="112" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="112" customWidth="1"/>
     <col min="4" max="4" width="62" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="111" customWidth="1"/>
+    <col min="5" max="5" width="37.75" style="111" customWidth="1"/>
     <col min="7" max="7" width="9" style="110"/>
-    <col min="8" max="8" width="37.7109375" style="110" customWidth="1"/>
-    <col min="15" max="20" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="37.75" style="110" customWidth="1"/>
+    <col min="15" max="20" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
       <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="318" t="s">
+      <c r="B3" s="329" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="318"/>
+      <c r="C3" s="329"/>
       <c r="D3" s="120" t="s">
         <v>390</v>
       </c>
@@ -18629,10 +18687,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="319" t="s">
+      <c r="B4" s="330" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="320"/>
+      <c r="C4" s="331"/>
       <c r="D4" s="123" t="s">
         <v>389</v>
       </c>
@@ -18650,7 +18708,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="321" t="s">
+      <c r="B5" s="332" t="s">
         <v>386</v>
       </c>
       <c r="C5" s="140" t="s">
@@ -18671,7 +18729,7 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="322"/>
+      <c r="B6" s="333"/>
       <c r="C6" s="140" t="s">
         <v>393</v>
       </c>
@@ -18710,10 +18768,10 @@
       <c r="H8" s="149"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="318" t="s">
+      <c r="B10" s="329" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="318"/>
+      <c r="C10" s="329"/>
       <c r="D10" s="120" t="s">
         <v>378</v>
       </c>
@@ -18731,10 +18789,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="317" t="s">
+      <c r="B11" s="328" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="317"/>
+      <c r="C11" s="328"/>
       <c r="D11" s="109" t="s">
         <v>372</v>
       </c>
@@ -18751,11 +18809,11 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="60">
-      <c r="B12" s="317" t="s">
+    <row r="12" spans="2:8" ht="66">
+      <c r="B12" s="328" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="317"/>
+      <c r="C12" s="328"/>
       <c r="D12" s="109" t="s">
         <v>370</v>
       </c>
@@ -18773,10 +18831,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="328" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="317"/>
+      <c r="C13" s="328"/>
       <c r="D13" s="109" t="s">
         <v>366</v>
       </c>
@@ -18792,10 +18850,10 @@
       <c r="H13" s="143"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="317" t="s">
+      <c r="B14" s="328" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="317"/>
+      <c r="C14" s="328"/>
       <c r="D14" s="109" t="s">
         <v>364</v>
       </c>
@@ -18813,10 +18871,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="317" t="s">
+      <c r="B15" s="328" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="317"/>
+      <c r="C15" s="328"/>
       <c r="D15" s="119"/>
       <c r="E15" s="118" t="s">
         <v>361</v>
@@ -18830,10 +18888,10 @@
       <c r="H15" s="141"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="317" t="s">
+      <c r="B16" s="328" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="317"/>
+      <c r="C16" s="328"/>
       <c r="D16" s="109" t="s">
         <v>394</v>
       </c>
@@ -18974,18 +19032,18 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I32" sqref="I32"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="69" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="69" customWidth="1"/>
+    <col min="1" max="1" width="60.75" style="69" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="69" customWidth="1"/>
     <col min="3" max="4" width="32" style="69" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="69"/>
-    <col min="6" max="6" width="40.140625" style="168" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="69" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="69"/>
+    <col min="5" max="5" width="12.625" style="69"/>
+    <col min="6" max="6" width="40.125" style="168" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="69" customWidth="1"/>
+    <col min="8" max="16384" width="12.625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1">
@@ -19324,7 +19382,7 @@
       </c>
       <c r="G20" s="171"/>
     </row>
-    <row r="21" spans="1:7" ht="36.75">
+    <row r="21" spans="1:7" ht="24.75">
       <c r="A21" s="185"/>
       <c r="B21" s="185" t="s">
         <v>448</v>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909" activeTab="3"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="940">
   <si>
     <t>경기천년소풍(제1회)</t>
   </si>
@@ -4012,6 +4012,10 @@
   </si>
   <si>
     <t>컨설팅보고서발간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6370,28 +6374,28 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8838,9 +8842,7 @@
   </sheetPr>
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -10160,7 +10162,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="341" t="s">
         <v>518</v>
       </c>
       <c r="B1" s="217" t="s">
@@ -10169,22 +10171,22 @@
       <c r="C1" s="217" t="s">
         <v>519</v>
       </c>
-      <c r="D1" s="335" t="s">
+      <c r="D1" s="341" t="s">
         <v>520</v>
       </c>
-      <c r="E1" s="335" t="s">
+      <c r="E1" s="341" t="s">
         <v>521</v>
       </c>
-      <c r="F1" s="335" t="s">
+      <c r="F1" s="341" t="s">
         <v>522</v>
       </c>
-      <c r="G1" s="335" t="s">
+      <c r="G1" s="341" t="s">
         <v>523</v>
       </c>
       <c r="H1" s="217" t="s">
         <v>524</v>
       </c>
-      <c r="I1" s="335" t="s">
+      <c r="I1" s="341" t="s">
         <v>525</v>
       </c>
       <c r="J1" s="217" t="s">
@@ -10196,53 +10198,53 @@
       <c r="L1" s="217" t="s">
         <v>528</v>
       </c>
-      <c r="M1" s="335" t="s">
+      <c r="M1" s="341" t="s">
         <v>529</v>
       </c>
-      <c r="N1" s="335" t="s">
+      <c r="N1" s="341" t="s">
         <v>506</v>
       </c>
-      <c r="O1" s="335" t="s">
+      <c r="O1" s="341" t="s">
         <v>530</v>
       </c>
-      <c r="P1" s="335" t="s">
+      <c r="P1" s="341" t="s">
         <v>531</v>
       </c>
       <c r="Q1" s="217" t="s">
         <v>532</v>
       </c>
-      <c r="R1" s="335" t="s">
+      <c r="R1" s="341" t="s">
         <v>533</v>
       </c>
-      <c r="S1" s="335" t="s">
+      <c r="S1" s="341" t="s">
         <v>534</v>
       </c>
-      <c r="T1" s="335" t="s">
+      <c r="T1" s="341" t="s">
         <v>535</v>
       </c>
-      <c r="U1" s="335" t="s">
+      <c r="U1" s="341" t="s">
         <v>536</v>
       </c>
-      <c r="V1" s="335" t="s">
+      <c r="V1" s="341" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="336"/>
+      <c r="A2" s="342"/>
       <c r="B2" s="218" t="s">
         <v>537</v>
       </c>
       <c r="C2" s="218" t="s">
         <v>538</v>
       </c>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
       <c r="H2" s="218" t="s">
         <v>539</v>
       </c>
-      <c r="I2" s="336"/>
+      <c r="I2" s="342"/>
       <c r="J2" s="218" t="s">
         <v>540</v>
       </c>
@@ -10252,77 +10254,80 @@
       <c r="L2" s="218" t="s">
         <v>538</v>
       </c>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
+      <c r="M2" s="342"/>
+      <c r="N2" s="342"/>
+      <c r="O2" s="342"/>
+      <c r="P2" s="342"/>
       <c r="Q2" s="218" t="s">
         <v>542</v>
       </c>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336"/>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
+      <c r="R2" s="342"/>
+      <c r="S2" s="342"/>
+      <c r="T2" s="342"/>
+      <c r="U2" s="342"/>
+      <c r="V2" s="342"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="335" t="s">
         <v>543</v>
       </c>
-      <c r="B3" s="338"/>
-      <c r="C3" s="338"/>
-      <c r="D3" s="338"/>
-      <c r="E3" s="338"/>
-      <c r="F3" s="338"/>
-      <c r="G3" s="338"/>
-      <c r="H3" s="338"/>
-      <c r="I3" s="338"/>
-      <c r="J3" s="338"/>
-      <c r="K3" s="338"/>
-      <c r="L3" s="338"/>
-      <c r="M3" s="339"/>
-      <c r="N3" s="337" t="s">
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="335" t="s">
         <v>544</v>
       </c>
-      <c r="O3" s="338"/>
-      <c r="P3" s="338"/>
-      <c r="Q3" s="338"/>
-      <c r="R3" s="338"/>
-      <c r="S3" s="338"/>
-      <c r="T3" s="339"/>
-      <c r="U3" s="337" t="s">
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="337"/>
+      <c r="U3" s="335" t="s">
         <v>545</v>
       </c>
-      <c r="V3" s="339"/>
+      <c r="V3" s="337"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="340"/>
-      <c r="B4" s="341"/>
-      <c r="C4" s="341"/>
-      <c r="D4" s="341"/>
-      <c r="E4" s="341"/>
-      <c r="F4" s="341"/>
-      <c r="G4" s="341"/>
-      <c r="H4" s="341"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="341"/>
-      <c r="K4" s="341"/>
-      <c r="L4" s="341"/>
-      <c r="M4" s="342"/>
-      <c r="N4" s="340"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="341"/>
-      <c r="Q4" s="341"/>
-      <c r="R4" s="341"/>
-      <c r="S4" s="341"/>
-      <c r="T4" s="342"/>
-      <c r="U4" s="340" t="s">
+      <c r="A4" s="338"/>
+      <c r="B4" s="339"/>
+      <c r="C4" s="339"/>
+      <c r="D4" s="339"/>
+      <c r="E4" s="339"/>
+      <c r="F4" s="339"/>
+      <c r="G4" s="339"/>
+      <c r="H4" s="339"/>
+      <c r="I4" s="339"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="339"/>
+      <c r="L4" s="339"/>
+      <c r="M4" s="340"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="339"/>
+      <c r="P4" s="339"/>
+      <c r="Q4" s="339"/>
+      <c r="R4" s="339"/>
+      <c r="S4" s="339"/>
+      <c r="T4" s="340"/>
+      <c r="U4" s="338" t="s">
         <v>546</v>
       </c>
-      <c r="V4" s="342"/>
+      <c r="V4" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
     <mergeCell ref="U3:V3"/>
@@ -10339,9 +10344,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13996,7 +13998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -16145,8 +16147,8 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17955,7 +17957,7 @@
         <v>902</v>
       </c>
       <c r="G73" s="87" t="s">
-        <v>292</v>
+        <v>939</v>
       </c>
       <c r="H73" s="84"/>
     </row>
@@ -18148,7 +18150,7 @@
   </sheetPr>
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909" activeTab="4"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -32,11 +32,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">철등록부2018참고!$A$4:$O$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="1051">
   <si>
     <t>경기천년소풍(제1회)</t>
   </si>
@@ -3902,16 +3903,10 @@
   </si>
   <si>
     <t>천년경기의 목소리 공모전 사업관련 공모전 기획, 홍보 및 운영 등에 관한 업무</t>
-  </si>
-  <si>
-    <t>천년경기의 목소리 공모전 사업관련 공모전 기획, 홍보 및 운영 등에 관한 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경기천년 대축제 사업관련 기획, 운영, 홍보 및 콜로키움, 장인발굴단, 고려인예술단 초청 공연과 같은 프로그램 운영에 관한 업무</t>
-  </si>
-  <si>
-    <t>경기천년 대축제 사업관련 기획, 운영, 홍보 및 콜로키움, 장인발굴단, 고려인예술단 초청 공연과 같은 프로그램 운영에 관한 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3951,23 +3946,14 @@
   </si>
   <si>
     <t>라키비움 운영 컨설팅사업 관련 기획, 기록관리시스템 마련, 컨설팅보고서 발간 및 관리에 관한 업무</t>
-  </si>
-  <si>
-    <t>라키비움 운영 컨설팅사업 관련 기획, 기록관리시스템 마련, 컨설팅보고서 발간 및 관리에 관한 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경기천년사업 디지털 아카이빙사업 관련 기획, 데이터베이스 구축, 웹서버 및 웹페이지 구축 및 관리에 관한 업무</t>
-  </si>
-  <si>
-    <t>경기천년사업 디지털 아카이빙사업 관련 기획, 데이터베이스 구축, 웹서버 및 웹페이지 구축 및 관리에 관한 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경기천년사업 과정 아카이브 및 리서치사업 관련 기획, 과정기록 및 기록물 활용 콘텐츠 생산 등의 운영 및 관리에 관한 업무</t>
-  </si>
-  <si>
-    <t>경기천년사업 과정 아카이브 및 리서치사업 관련 기획, 과정기록 및 기록물 활용 콘텐츠 생산 등의 운영 및 관리에 관한 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3982,18 +3968,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1431052-e0001450-2018-000017(001)</t>
-  </si>
-  <si>
-    <t>1431052-e0001450-2018-000018(001)</t>
-  </si>
-  <si>
-    <t>1431052-e0001450-2018-000019(001)</t>
-  </si>
-  <si>
-    <t>1431052-e0001450-2018-000020(001)</t>
-  </si>
-  <si>
     <t>1431052-e0001450-2018-000021(001)</t>
   </si>
   <si>
@@ -4024,9 +3998,6 @@
     <t>1431052-e0001450-2018-000032(001)</t>
   </si>
   <si>
-    <t>1431052-e0001450-2018-000033(001)</t>
-  </si>
-  <si>
     <t>1431052-e0001450-2018-000034(001)</t>
   </si>
   <si>
@@ -4036,31 +4007,9 @@
     <t>1431052-e0001450-2018-000036(001)</t>
   </si>
   <si>
-    <t>1431052-e0001450-2018-000038(001)</t>
-  </si>
-  <si>
     <t>1431052-e0001450-2018-000039(001)</t>
   </si>
   <si>
-    <t>1431052-e0001450-2018-000040(001)</t>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단위과제설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4093,12 +4042,6 @@
   </si>
   <si>
     <t>경기아카이브전 홍보물 디자인 및 제작사업 관련 기획, 제작 및 관리에 관한 업무</t>
-  </si>
-  <si>
-    <t>천년경기의목소리공모전</t>
-  </si>
-  <si>
-    <t>경기천년사업홍보책자제작</t>
   </si>
   <si>
     <t>1431052-e0001450-2017-000015(001)</t>
@@ -4354,12 +4297,187 @@
   <si>
     <t>경기천년 기록 아카이브사업 관련 계획, 계약, 각종 보고 등 기획 및 경기도를 주제로한 촬영, 작품 대여 등 운영 및 관리에 관한 업무</t>
   </si>
+  <si>
+    <t>1431052-e0001450-2017-000016(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000018(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000019(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000020(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000021(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000022(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000023(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000024(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000025(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000026(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000027(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000028(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000029(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000030(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000031(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2017-000032(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년경기의목소리공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2018-000017(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년경기의 목소리 공모전 사업관련 공모전 기획, 홍보 및 운영 등에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2018-000018(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업 디지털 아카이빙사업 관련 기획, 데이터베이스 구축, 웹서버 및 웹페이지 구축 및 관리에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2018-000019(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001450-2018-000020(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라키비움 운영 컨설팅사업 관련 기획, 기록관리시스템 마련, 컨설팅보고서 발간 및 관리에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 대축제 사업관련 기획, 운영, 홍보 및 콜로키움, 장인발굴단, 고려인예술단 초청 공연과 같은 프로그램 운영에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업 과정 아카이브 및 리서치사업 관련 기획, 과정기록 및 기록물 활용 콘텐츠 생산 등의 운영 및 관리에 관한 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기아카이브전홍보물디자인및제작</t>
+  </si>
+  <si>
+    <t>경기천년사업디지털아카이빙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업과정아카이브및리서치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라키비움운영컨설팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년대축제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년상상룸공간조성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년사업홍보책자제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년영상콘텐츠제작및송출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년매체홍보및영상제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년기획홍보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년홍보부스운영(18년상반기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년브랜드및축제영상제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년홍보부스운영(18년하반기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년빛나는정신문화(경기그레이트북스100선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년홈페이지구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년역사교육부스운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018경기도청벚꽃축제연계경기천년홍보부스운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기아카이브전홍보물디자인및제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="70">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4873,22 +4991,6 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -5629,7 +5731,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5827,6 +5929,26 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -5906,7 +6028,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6700,9 +6822,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6761,15 +6880,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6785,12 +6898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -6803,28 +6910,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6902,47 +7030,8 @@
     <xf numFmtId="0" fontId="12" fillId="40" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="207">
     <cellStyle name="20% - 강조색1" xfId="30" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="34" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="38" builtinId="38" customBuiltin="1"/>
@@ -7056,7 +7145,17 @@
     <cellStyle name="표준 4 66" xfId="184"/>
     <cellStyle name="표준 4 67" xfId="151"/>
     <cellStyle name="표준 4 68" xfId="185"/>
+    <cellStyle name="표준 4 69" xfId="190"/>
     <cellStyle name="표준 4 7" xfId="61"/>
+    <cellStyle name="표준 4 70" xfId="197"/>
+    <cellStyle name="표준 4 71" xfId="201"/>
+    <cellStyle name="표준 4 72" xfId="194"/>
+    <cellStyle name="표준 4 73" xfId="204"/>
+    <cellStyle name="표준 4 74" xfId="188"/>
+    <cellStyle name="표준 4 75" xfId="203"/>
+    <cellStyle name="표준 4 76" xfId="187"/>
+    <cellStyle name="표준 4 77" xfId="205"/>
+    <cellStyle name="표준 4 78" xfId="206"/>
     <cellStyle name="표준 4 8" xfId="72"/>
     <cellStyle name="표준 4 9" xfId="71"/>
     <cellStyle name="표준 5" xfId="4"/>
@@ -7126,7 +7225,17 @@
     <cellStyle name="표준 7 66" xfId="163"/>
     <cellStyle name="표준 7 67" xfId="171"/>
     <cellStyle name="표준 7 68" xfId="186"/>
+    <cellStyle name="표준 7 69" xfId="191"/>
     <cellStyle name="표준 7 7" xfId="67"/>
+    <cellStyle name="표준 7 70" xfId="196"/>
+    <cellStyle name="표준 7 71" xfId="202"/>
+    <cellStyle name="표준 7 72" xfId="192"/>
+    <cellStyle name="표준 7 73" xfId="193"/>
+    <cellStyle name="표준 7 74" xfId="189"/>
+    <cellStyle name="표준 7 75" xfId="200"/>
+    <cellStyle name="표준 7 76" xfId="198"/>
+    <cellStyle name="표준 7 77" xfId="199"/>
+    <cellStyle name="표준 7 78" xfId="195"/>
     <cellStyle name="표준 7 8" xfId="62"/>
     <cellStyle name="표준 7 9" xfId="57"/>
     <cellStyle name="표준 8" xfId="6"/>
@@ -9198,34 +9307,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="352" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="350" t="s">
+      <c r="B1" s="352" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="350" t="s">
+      <c r="C1" s="352" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="352" t="s">
+      <c r="D1" s="354" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="352"/>
-      <c r="F1" s="350" t="s">
+      <c r="E1" s="354"/>
+      <c r="F1" s="352" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="351"/>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
+      <c r="A2" s="353"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
       <c r="D2" s="98" t="s">
         <v>180</v>
       </c>
       <c r="E2" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="351"/>
+      <c r="F2" s="353"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="99" t="s">
@@ -9486,10 +9595,10 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="354" t="s">
+      <c r="B3" s="356" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="354"/>
+      <c r="C3" s="356"/>
       <c r="D3" s="93" t="s">
         <v>324</v>
       </c>
@@ -9507,10 +9616,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="355" t="s">
+      <c r="B4" s="357" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="356"/>
+      <c r="C4" s="358"/>
       <c r="D4" s="96" t="s">
         <v>323</v>
       </c>
@@ -9528,7 +9637,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="359" t="s">
         <v>320</v>
       </c>
       <c r="C5" s="113" t="s">
@@ -9549,7 +9658,7 @@
       <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="358"/>
+      <c r="B6" s="360"/>
       <c r="C6" s="113" t="s">
         <v>327</v>
       </c>
@@ -9588,10 +9697,10 @@
       <c r="H8" s="122"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="354" t="s">
+      <c r="B10" s="356" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="354"/>
+      <c r="C10" s="356"/>
       <c r="D10" s="93" t="s">
         <v>312</v>
       </c>
@@ -9609,10 +9718,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="353" t="s">
+      <c r="B11" s="355" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="353"/>
+      <c r="C11" s="355"/>
       <c r="D11" s="82" t="s">
         <v>306</v>
       </c>
@@ -9630,10 +9739,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="353" t="s">
+      <c r="B12" s="355" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="353"/>
+      <c r="C12" s="355"/>
       <c r="D12" s="82" t="s">
         <v>304</v>
       </c>
@@ -9651,10 +9760,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="353" t="s">
+      <c r="B13" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="353"/>
+      <c r="C13" s="355"/>
       <c r="D13" s="82" t="s">
         <v>300</v>
       </c>
@@ -9670,10 +9779,10 @@
       <c r="H13" s="116"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="353" t="s">
+      <c r="B14" s="355" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="353"/>
+      <c r="C14" s="355"/>
       <c r="D14" s="82" t="s">
         <v>298</v>
       </c>
@@ -9691,10 +9800,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="353" t="s">
+      <c r="B15" s="355" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="353"/>
+      <c r="C15" s="355"/>
       <c r="D15" s="92"/>
       <c r="E15" s="91" t="s">
         <v>295</v>
@@ -9708,10 +9817,10 @@
       <c r="H15" s="114"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="353" t="s">
+      <c r="B16" s="355" t="s">
         <v>293</v>
       </c>
-      <c r="C16" s="353"/>
+      <c r="C16" s="355"/>
       <c r="D16" s="82" t="s">
         <v>328</v>
       </c>
@@ -10789,7 +10898,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="359" t="s">
+      <c r="A1" s="361" t="s">
         <v>486</v>
       </c>
       <c r="B1" s="193" t="s">
@@ -10798,22 +10907,22 @@
       <c r="C1" s="193" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="359" t="s">
+      <c r="D1" s="361" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="359" t="s">
+      <c r="E1" s="361" t="s">
         <v>489</v>
       </c>
-      <c r="F1" s="359" t="s">
+      <c r="F1" s="361" t="s">
         <v>490</v>
       </c>
-      <c r="G1" s="359" t="s">
+      <c r="G1" s="361" t="s">
         <v>491</v>
       </c>
       <c r="H1" s="193" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="359" t="s">
+      <c r="I1" s="361" t="s">
         <v>493</v>
       </c>
       <c r="J1" s="193" t="s">
@@ -10825,53 +10934,53 @@
       <c r="L1" s="193" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="359" t="s">
+      <c r="M1" s="361" t="s">
         <v>497</v>
       </c>
-      <c r="N1" s="359" t="s">
+      <c r="N1" s="361" t="s">
         <v>475</v>
       </c>
-      <c r="O1" s="359" t="s">
+      <c r="O1" s="361" t="s">
         <v>498</v>
       </c>
-      <c r="P1" s="359" t="s">
+      <c r="P1" s="361" t="s">
         <v>499</v>
       </c>
       <c r="Q1" s="193" t="s">
         <v>500</v>
       </c>
-      <c r="R1" s="359" t="s">
+      <c r="R1" s="361" t="s">
         <v>501</v>
       </c>
-      <c r="S1" s="359" t="s">
+      <c r="S1" s="361" t="s">
         <v>502</v>
       </c>
-      <c r="T1" s="359" t="s">
+      <c r="T1" s="361" t="s">
         <v>503</v>
       </c>
-      <c r="U1" s="359" t="s">
+      <c r="U1" s="361" t="s">
         <v>504</v>
       </c>
-      <c r="V1" s="359" t="s">
+      <c r="V1" s="361" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="360"/>
+      <c r="A2" s="362"/>
       <c r="B2" s="194" t="s">
         <v>505</v>
       </c>
       <c r="C2" s="194" t="s">
         <v>506</v>
       </c>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="362"/>
+      <c r="G2" s="362"/>
       <c r="H2" s="194" t="s">
         <v>507</v>
       </c>
-      <c r="I2" s="360"/>
+      <c r="I2" s="362"/>
       <c r="J2" s="194" t="s">
         <v>508</v>
       </c>
@@ -10881,81 +10990,77 @@
       <c r="L2" s="194" t="s">
         <v>506</v>
       </c>
-      <c r="M2" s="360"/>
-      <c r="N2" s="360"/>
-      <c r="O2" s="360"/>
-      <c r="P2" s="360"/>
+      <c r="M2" s="362"/>
+      <c r="N2" s="362"/>
+      <c r="O2" s="362"/>
+      <c r="P2" s="362"/>
       <c r="Q2" s="194" t="s">
         <v>510</v>
       </c>
-      <c r="R2" s="360"/>
-      <c r="S2" s="360"/>
-      <c r="T2" s="360"/>
-      <c r="U2" s="360"/>
-      <c r="V2" s="360"/>
+      <c r="R2" s="362"/>
+      <c r="S2" s="362"/>
+      <c r="T2" s="362"/>
+      <c r="U2" s="362"/>
+      <c r="V2" s="362"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="363" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="362"/>
-      <c r="K3" s="362"/>
-      <c r="L3" s="362"/>
-      <c r="M3" s="363"/>
-      <c r="N3" s="361" t="s">
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
+      <c r="K3" s="364"/>
+      <c r="L3" s="364"/>
+      <c r="M3" s="365"/>
+      <c r="N3" s="363" t="s">
         <v>512</v>
       </c>
-      <c r="O3" s="362"/>
-      <c r="P3" s="362"/>
-      <c r="Q3" s="362"/>
-      <c r="R3" s="362"/>
-      <c r="S3" s="362"/>
-      <c r="T3" s="363"/>
-      <c r="U3" s="361" t="s">
+      <c r="O3" s="364"/>
+      <c r="P3" s="364"/>
+      <c r="Q3" s="364"/>
+      <c r="R3" s="364"/>
+      <c r="S3" s="364"/>
+      <c r="T3" s="365"/>
+      <c r="U3" s="363" t="s">
         <v>513</v>
       </c>
-      <c r="V3" s="363"/>
+      <c r="V3" s="365"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="364"/>
-      <c r="B4" s="365"/>
-      <c r="C4" s="365"/>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="365"/>
-      <c r="K4" s="365"/>
-      <c r="L4" s="365"/>
-      <c r="M4" s="366"/>
-      <c r="N4" s="364"/>
-      <c r="O4" s="365"/>
-      <c r="P4" s="365"/>
-      <c r="Q4" s="365"/>
-      <c r="R4" s="365"/>
-      <c r="S4" s="365"/>
-      <c r="T4" s="366"/>
-      <c r="U4" s="364" t="s">
+      <c r="A4" s="366"/>
+      <c r="B4" s="367"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="367"/>
+      <c r="E4" s="367"/>
+      <c r="F4" s="367"/>
+      <c r="G4" s="367"/>
+      <c r="H4" s="367"/>
+      <c r="I4" s="367"/>
+      <c r="J4" s="367"/>
+      <c r="K4" s="367"/>
+      <c r="L4" s="367"/>
+      <c r="M4" s="368"/>
+      <c r="N4" s="366"/>
+      <c r="O4" s="367"/>
+      <c r="P4" s="367"/>
+      <c r="Q4" s="367"/>
+      <c r="R4" s="367"/>
+      <c r="S4" s="367"/>
+      <c r="T4" s="368"/>
+      <c r="U4" s="366" t="s">
         <v>514</v>
       </c>
-      <c r="V4" s="366"/>
+      <c r="V4" s="368"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
@@ -10971,6 +11076,10 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10985,9 +11094,9 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <selection pane="topRight" activeCell="E34" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11098,7 +11207,7 @@
         <v>534</v>
       </c>
       <c r="I2" s="238" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="J2" s="238" t="s">
         <v>760</v>
@@ -11224,7 +11333,7 @@
       <c r="H5" s="202" t="s">
         <v>545</v>
       </c>
-      <c r="I5" s="367"/>
+      <c r="I5" s="329"/>
       <c r="J5" s="202"/>
       <c r="K5" s="202"/>
       <c r="L5" s="202"/>
@@ -11262,7 +11371,7 @@
         <v>543</v>
       </c>
       <c r="I6" s="238" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="J6" s="238" t="s">
         <v>760</v>
@@ -11388,7 +11497,7 @@
       <c r="H9" s="202" t="s">
         <v>547</v>
       </c>
-      <c r="I9" s="367"/>
+      <c r="I9" s="329"/>
       <c r="J9" s="202"/>
       <c r="K9" s="202"/>
       <c r="L9" s="202"/>
@@ -11426,7 +11535,7 @@
         <v>703</v>
       </c>
       <c r="I10" s="238" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="J10" s="238" t="s">
         <v>761</v>
@@ -11587,7 +11696,7 @@
       <c r="H14" s="202" t="s">
         <v>357</v>
       </c>
-      <c r="I14" s="367"/>
+      <c r="I14" s="329"/>
       <c r="J14" s="202"/>
       <c r="K14" s="202"/>
       <c r="L14" s="202"/>
@@ -11625,7 +11734,7 @@
         <v>704</v>
       </c>
       <c r="I15" s="238" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="J15" s="238" t="s">
         <v>762</v>
@@ -11754,7 +11863,7 @@
         <v>533</v>
       </c>
       <c r="I18" s="238" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="J18" s="238" t="s">
         <v>785</v>
@@ -11966,7 +12075,7 @@
         <v>536</v>
       </c>
       <c r="I22" s="238" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="J22" s="284" t="s">
         <v>764</v>
@@ -12095,7 +12204,7 @@
         <v>535</v>
       </c>
       <c r="I25" s="238" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="J25" s="238" t="s">
         <v>765</v>
@@ -12222,7 +12331,7 @@
         <v>535</v>
       </c>
       <c r="I28" s="237" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="J28" s="237"/>
       <c r="K28" s="237"/>
@@ -12310,7 +12419,7 @@
         <v>535</v>
       </c>
       <c r="I30" s="238" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="J30" s="237" t="s">
         <v>767</v>
@@ -12439,7 +12548,7 @@
         <v>535</v>
       </c>
       <c r="I33" s="238" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
       <c r="J33" s="238" t="s">
         <v>772</v>
@@ -12627,7 +12736,7 @@
         <v>535</v>
       </c>
       <c r="I37" s="238" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="J37" s="238" t="s">
         <v>770</v>
@@ -12815,7 +12924,7 @@
         <v>535</v>
       </c>
       <c r="I41" s="238" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="J41" s="238" t="s">
         <v>773</v>
@@ -12917,7 +13026,7 @@
         <v>535</v>
       </c>
       <c r="I43" s="238" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="J43" s="238" t="s">
         <v>773</v>
@@ -13062,7 +13171,7 @@
         <v>535</v>
       </c>
       <c r="I46" s="238" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="J46" s="238" t="s">
         <v>780</v>
@@ -13164,7 +13273,7 @@
         <v>535</v>
       </c>
       <c r="I48" s="238" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="J48" s="238" t="s">
         <v>777</v>
@@ -13309,7 +13418,7 @@
         <v>535</v>
       </c>
       <c r="I51" s="238" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="J51" s="238" t="s">
         <v>779</v>
@@ -13497,7 +13606,7 @@
         <v>535</v>
       </c>
       <c r="I55" s="238" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="J55" s="238" t="s">
         <v>782</v>
@@ -13671,7 +13780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -13688,849 +13799,849 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.25" thickBot="1">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="334" t="s">
         <v>750</v>
       </c>
-      <c r="B1" s="372" t="s">
+      <c r="B1" s="334" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="372" t="s">
+      <c r="C1" s="334" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="372" t="s">
+      <c r="D1" s="334" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="372" t="s">
+      <c r="E1" s="334" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="372" t="s">
+      <c r="F1" s="334" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1" s="336" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" s="336" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="337" t="s">
+        <v>978</v>
+      </c>
+      <c r="J1" s="334" t="s">
+        <v>499</v>
+      </c>
+      <c r="K1" s="334" t="s">
+        <v>979</v>
+      </c>
+      <c r="L1" s="334" t="s">
+        <v>980</v>
+      </c>
+      <c r="M1" s="334" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="334" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="333" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="27">
+      <c r="A2" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C2" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="340" t="s">
+        <v>679</v>
+      </c>
+      <c r="F2" s="338" t="s">
+        <v>983</v>
+      </c>
+      <c r="G2" s="339" t="s">
+        <v>943</v>
+      </c>
+      <c r="H2" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I2" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J2" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K2" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L2" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M2" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N2" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O2" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="27">
+      <c r="A3" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C3" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D3" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="340" t="s">
+        <v>680</v>
+      </c>
+      <c r="F3" s="338" t="s">
+        <v>990</v>
+      </c>
+      <c r="G3" s="339" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H3" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I3" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J3" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K3" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L3" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M3" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N3" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O3" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="27">
+      <c r="A4" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C4" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D4" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="340" t="s">
+        <v>681</v>
+      </c>
+      <c r="F4" s="339" t="s">
+        <v>991</v>
+      </c>
+      <c r="G4" s="339" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H4" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I4" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J4" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K4" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L4" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M4" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N4" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O4" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="27">
+      <c r="A5" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C5" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D5" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="331" t="s">
+        <v>684</v>
+      </c>
+      <c r="F5" s="339" t="s">
         <v>992</v>
       </c>
-      <c r="G1" s="374" t="s">
-        <v>475</v>
-      </c>
-      <c r="H1" s="374" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="375" t="s">
+      <c r="G5" s="339" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H5" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I5" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J5" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K5" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L5" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M5" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N5" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O5" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="27">
+      <c r="A6" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C6" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="331" t="s">
+        <v>682</v>
+      </c>
+      <c r="F6" s="339" t="s">
         <v>993</v>
       </c>
-      <c r="J1" s="372" t="s">
-        <v>499</v>
-      </c>
-      <c r="K1" s="372" t="s">
+      <c r="G6" s="339" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H6" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I6" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J6" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K6" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L6" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M6" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N6" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O6" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="40.5">
+      <c r="A7" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C7" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D7" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="331" t="s">
+        <v>683</v>
+      </c>
+      <c r="F7" s="339" t="s">
         <v>994</v>
       </c>
-      <c r="L1" s="372" t="s">
+      <c r="G7" s="339" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H7" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I7" s="339" t="s">
         <v>995</v>
       </c>
-      <c r="M1" s="372" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="372" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="371" t="s">
+      <c r="J7" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K7" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L7" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M7" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N7" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O7" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="27">
+      <c r="A8" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C8" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D8" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="331" t="s">
+        <v>685</v>
+      </c>
+      <c r="F8" s="339" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="27">
-      <c r="A2" s="378" t="s">
+      <c r="G8" s="339" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H8" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I8" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J8" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K8" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L8" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="378" t="s">
+      <c r="M8" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N8" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O8" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="27">
+      <c r="A9" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C9" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D9" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="331" t="s">
+        <v>688</v>
+      </c>
+      <c r="F9" s="332" t="s">
         <v>997</v>
       </c>
-      <c r="C2" s="378" t="s">
+      <c r="G9" s="339" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H9" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I9" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J9" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K9" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L9" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M9" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N9" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O9" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="27">
+      <c r="A10" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C10" s="340" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="378" t="s">
+      <c r="D10" s="340" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="378" t="s">
-        <v>679</v>
-      </c>
-      <c r="F2" s="376" t="s">
+      <c r="E10" s="331" t="s">
+        <v>690</v>
+      </c>
+      <c r="F10" s="332" t="s">
         <v>998</v>
       </c>
-      <c r="G2" s="377" t="s">
-        <v>958</v>
-      </c>
-      <c r="H2" s="377" t="s">
+      <c r="G10" s="339" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H10" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I10" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J10" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K10" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L10" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M10" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N10" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O10" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="27">
+      <c r="A11" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C11" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D11" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="331" t="s">
+        <v>689</v>
+      </c>
+      <c r="F11" s="332" t="s">
         <v>999</v>
       </c>
-      <c r="I2" s="377" t="s">
+      <c r="G11" s="339" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H11" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I11" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J11" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K11" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L11" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M11" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N11" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O11" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="27">
+      <c r="A12" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C12" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D12" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="331" t="s">
+        <v>691</v>
+      </c>
+      <c r="F12" s="332" t="s">
         <v>1000</v>
       </c>
-      <c r="J2" s="378" t="s">
+      <c r="G12" s="339" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H12" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I12" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J12" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K12" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L12" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M12" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N12" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O12" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="27">
+      <c r="A13" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C13" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D13" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="340" t="s">
+        <v>692</v>
+      </c>
+      <c r="F13" s="332" t="s">
         <v>1001</v>
       </c>
-      <c r="K2" s="378" t="s">
+      <c r="G13" s="339" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H13" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I13" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J13" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K13" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L2" s="378" t="s">
+      <c r="L13" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M2" s="378" t="s">
+      <c r="M13" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N13" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O13" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27">
+      <c r="A14" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C14" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D14" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="340" t="s">
+        <v>693</v>
+      </c>
+      <c r="F14" s="332" t="s">
         <v>1002</v>
       </c>
-      <c r="N2" s="378" t="s">
+      <c r="G14" s="339" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H14" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I14" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J14" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K14" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L14" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M14" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N14" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O14" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27">
+      <c r="A15" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C15" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D15" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="331" t="s">
+        <v>694</v>
+      </c>
+      <c r="F15" s="332" t="s">
         <v>1003</v>
       </c>
-      <c r="O2" s="378" t="s">
+      <c r="G15" s="339" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H15" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I15" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J15" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K15" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L15" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M15" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N15" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O15" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27">
+      <c r="A16" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="340" t="s">
+        <v>982</v>
+      </c>
+      <c r="C16" s="340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D16" s="340" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="331" t="s">
+        <v>695</v>
+      </c>
+      <c r="F16" s="332" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="27">
-      <c r="A3" s="378" t="s">
+      <c r="G16" s="339" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H16" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I16" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J16" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K16" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L16" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="B3" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C3" s="378" t="s">
+      <c r="M16" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N16" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O16" s="340" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="27">
+      <c r="A17" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" s="341" t="s">
+        <v>982</v>
+      </c>
+      <c r="C17" s="341" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="378" t="s">
+      <c r="D17" s="341" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="378" t="s">
-        <v>680</v>
-      </c>
-      <c r="F3" s="376" t="s">
+      <c r="E17" s="331" t="s">
+        <v>686</v>
+      </c>
+      <c r="F17" s="332" t="s">
         <v>1005</v>
       </c>
-      <c r="G3" s="377" t="s">
-        <v>960</v>
-      </c>
-      <c r="H3" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I3" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K3" s="378" t="s">
+      <c r="G17" s="339" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H17" s="335" t="s">
+        <v>984</v>
+      </c>
+      <c r="I17" s="332" t="s">
+        <v>985</v>
+      </c>
+      <c r="J17" s="335" t="s">
+        <v>986</v>
+      </c>
+      <c r="K17" s="335" t="s">
         <v>471</v>
       </c>
-      <c r="L3" s="378" t="s">
+      <c r="L17" s="341" t="s">
         <v>461</v>
       </c>
-      <c r="M3" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N3" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O3" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="27">
-      <c r="A4" s="378" t="s">
+      <c r="M17" s="341" t="s">
+        <v>987</v>
+      </c>
+      <c r="N17" s="341" t="s">
+        <v>988</v>
+      </c>
+      <c r="O17" s="341" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="27">
+      <c r="A18" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="B4" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C4" s="378" t="s">
+      <c r="B18" s="331" t="s">
+        <v>982</v>
+      </c>
+      <c r="C18" s="331" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="378" t="s">
+      <c r="D18" s="331" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="378" t="s">
-        <v>681</v>
-      </c>
-      <c r="F4" s="377" t="s">
+      <c r="E18" s="331" t="s">
+        <v>696</v>
+      </c>
+      <c r="F18" s="332" t="s">
         <v>1006</v>
       </c>
-      <c r="G4" s="377" t="s">
-        <v>962</v>
-      </c>
-      <c r="H4" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I4" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K4" s="378" t="s">
+      <c r="G18" s="339" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H18" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I18" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J18" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K18" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L4" s="378" t="s">
+      <c r="L18" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M4" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N4" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O4" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="27">
-      <c r="A5" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B5" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C5" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D5" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="369" t="s">
-        <v>684</v>
-      </c>
-      <c r="F5" s="377" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G5" s="377" t="s">
-        <v>990</v>
-      </c>
-      <c r="H5" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I5" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K5" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L5" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M5" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N5" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O5" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="27">
-      <c r="A6" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B6" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C6" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D6" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="369" t="s">
-        <v>682</v>
-      </c>
-      <c r="F6" s="377" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G6" s="377" t="s">
-        <v>964</v>
-      </c>
-      <c r="H6" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I6" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K6" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L6" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M6" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N6" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O6" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="40.5">
-      <c r="A7" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B7" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C7" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D7" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="369" t="s">
-        <v>683</v>
-      </c>
-      <c r="F7" s="377" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G7" s="377" t="s">
-        <v>966</v>
-      </c>
-      <c r="H7" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I7" s="377" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J7" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K7" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L7" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M7" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N7" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O7" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="27">
-      <c r="A8" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C8" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D8" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="369" t="s">
-        <v>685</v>
-      </c>
-      <c r="F8" s="377" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G8" s="377" t="s">
+      <c r="M18" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N18" s="340" t="s">
         <v>988</v>
       </c>
-      <c r="H8" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I8" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K8" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L8" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M8" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N8" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O8" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="27">
-      <c r="A9" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C9" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D9" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="369" t="s">
-        <v>688</v>
-      </c>
-      <c r="F9" s="370" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G9" s="377" t="s">
-        <v>984</v>
-      </c>
-      <c r="H9" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I9" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K9" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L9" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M9" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N9" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O9" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="27">
-      <c r="A10" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B10" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C10" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D10" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="369" t="s">
-        <v>690</v>
-      </c>
-      <c r="F10" s="370" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G10" s="377" t="s">
-        <v>980</v>
-      </c>
-      <c r="H10" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I10" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K10" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L10" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M10" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N10" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O10" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="27">
-      <c r="A11" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B11" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C11" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D11" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="369" t="s">
-        <v>689</v>
-      </c>
-      <c r="F11" s="370" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G11" s="377" t="s">
-        <v>982</v>
-      </c>
-      <c r="H11" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I11" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K11" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L11" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M11" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N11" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O11" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="27">
-      <c r="A12" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B12" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C12" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D12" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="369" t="s">
-        <v>691</v>
-      </c>
-      <c r="F12" s="370" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G12" s="377" t="s">
-        <v>978</v>
-      </c>
-      <c r="H12" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I12" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K12" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L12" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M12" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N12" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O12" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27">
-      <c r="A13" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B13" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C13" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D13" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="378" t="s">
-        <v>692</v>
-      </c>
-      <c r="F13" s="370" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G13" s="377" t="s">
-        <v>976</v>
-      </c>
-      <c r="H13" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I13" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J13" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K13" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L13" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M13" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N13" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O13" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="27">
-      <c r="A14" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B14" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C14" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D14" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="378" t="s">
-        <v>693</v>
-      </c>
-      <c r="F14" s="370" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G14" s="377" t="s">
-        <v>974</v>
-      </c>
-      <c r="H14" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I14" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J14" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K14" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L14" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M14" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N14" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O14" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="27">
-      <c r="A15" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B15" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C15" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D15" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="369" t="s">
-        <v>694</v>
-      </c>
-      <c r="F15" s="370" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G15" s="377" t="s">
-        <v>972</v>
-      </c>
-      <c r="H15" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I15" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K15" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L15" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M15" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N15" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O15" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="27">
-      <c r="A16" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="378" t="s">
-        <v>997</v>
-      </c>
-      <c r="C16" s="378" t="s">
-        <v>570</v>
-      </c>
-      <c r="D16" s="378" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="369" t="s">
-        <v>695</v>
-      </c>
-      <c r="F16" s="370" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G16" s="377" t="s">
-        <v>970</v>
-      </c>
-      <c r="H16" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I16" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K16" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L16" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M16" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N16" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O16" s="378" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="27">
-      <c r="A17" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B17" s="379" t="s">
-        <v>997</v>
-      </c>
-      <c r="C17" s="379" t="s">
-        <v>570</v>
-      </c>
-      <c r="D17" s="379" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="369" t="s">
-        <v>686</v>
-      </c>
-      <c r="F17" s="370" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G17" s="377" t="s">
-        <v>986</v>
-      </c>
-      <c r="H17" s="373" t="s">
-        <v>999</v>
-      </c>
-      <c r="I17" s="370" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="373" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K17" s="373" t="s">
-        <v>471</v>
-      </c>
-      <c r="L17" s="379" t="s">
-        <v>461</v>
-      </c>
-      <c r="M17" s="379" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N17" s="379" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O17" s="379" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="27">
-      <c r="A18" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="B18" s="369" t="s">
-        <v>997</v>
-      </c>
-      <c r="C18" s="369" t="s">
-        <v>570</v>
-      </c>
-      <c r="D18" s="369" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="369" t="s">
-        <v>696</v>
-      </c>
-      <c r="F18" s="370" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G18" s="377" t="s">
-        <v>968</v>
-      </c>
-      <c r="H18" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I18" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K18" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L18" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M18" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N18" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O18" s="378" t="s">
-        <v>1004</v>
+      <c r="O18" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -14580,38 +14691,38 @@
       <c r="D1" s="245" t="s">
         <v>551</v>
       </c>
-      <c r="E1" s="372" t="s">
+      <c r="E1" s="334" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="372" t="s">
-        <v>992</v>
-      </c>
-      <c r="G1" s="374" t="s">
+      <c r="F1" s="334" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1" s="336" t="s">
         <v>475</v>
       </c>
-      <c r="H1" s="374" t="s">
+      <c r="H1" s="336" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="375" t="s">
-        <v>993</v>
-      </c>
-      <c r="J1" s="372" t="s">
+      <c r="I1" s="337" t="s">
+        <v>978</v>
+      </c>
+      <c r="J1" s="334" t="s">
         <v>499</v>
       </c>
-      <c r="K1" s="372" t="s">
-        <v>994</v>
-      </c>
-      <c r="L1" s="372" t="s">
-        <v>995</v>
-      </c>
-      <c r="M1" s="372" t="s">
+      <c r="K1" s="334" t="s">
+        <v>979</v>
+      </c>
+      <c r="L1" s="334" t="s">
+        <v>980</v>
+      </c>
+      <c r="M1" s="334" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="372" t="s">
+      <c r="N1" s="334" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="371" t="s">
-        <v>996</v>
+      <c r="O1" s="333" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27">
@@ -14627,38 +14738,38 @@
       <c r="D2" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="378" t="s">
+      <c r="E2" s="340" t="s">
         <v>679</v>
       </c>
-      <c r="F2" s="376" t="s">
-        <v>998</v>
-      </c>
-      <c r="G2" s="377" t="s">
-        <v>958</v>
-      </c>
-      <c r="H2" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I2" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K2" s="378" t="s">
+      <c r="F2" s="338" t="s">
+        <v>983</v>
+      </c>
+      <c r="G2" s="339" t="s">
+        <v>943</v>
+      </c>
+      <c r="H2" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I2" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J2" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K2" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L2" s="378" t="s">
+      <c r="L2" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M2" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N2" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O2" s="378" t="s">
-        <v>1004</v>
+      <c r="M2" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N2" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O2" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5">
@@ -14674,38 +14785,38 @@
       <c r="D3" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="378" t="s">
+      <c r="E3" s="340" t="s">
         <v>680</v>
       </c>
-      <c r="F3" s="376" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G3" s="377" t="s">
-        <v>960</v>
-      </c>
-      <c r="H3" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I3" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K3" s="378" t="s">
+      <c r="F3" s="338" t="s">
+        <v>990</v>
+      </c>
+      <c r="G3" s="339" t="s">
+        <v>945</v>
+      </c>
+      <c r="H3" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I3" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J3" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K3" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L3" s="378" t="s">
+      <c r="L3" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M3" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N3" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O3" s="378" t="s">
-        <v>1004</v>
+      <c r="M3" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N3" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O3" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="27">
@@ -14721,38 +14832,38 @@
       <c r="D4" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="340" t="s">
         <v>681</v>
       </c>
-      <c r="F4" s="377" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G4" s="377" t="s">
-        <v>962</v>
-      </c>
-      <c r="H4" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I4" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K4" s="378" t="s">
+      <c r="F4" s="339" t="s">
+        <v>991</v>
+      </c>
+      <c r="G4" s="339" t="s">
+        <v>947</v>
+      </c>
+      <c r="H4" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I4" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J4" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K4" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L4" s="378" t="s">
+      <c r="L4" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M4" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N4" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O4" s="378" t="s">
-        <v>1004</v>
+      <c r="M4" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N4" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O4" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="27">
@@ -14768,38 +14879,38 @@
       <c r="D5" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E5" s="369" t="s">
+      <c r="E5" s="331" t="s">
         <v>684</v>
       </c>
-      <c r="F5" s="377" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G5" s="377" t="s">
-        <v>990</v>
-      </c>
-      <c r="H5" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I5" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K5" s="378" t="s">
+      <c r="F5" s="339" t="s">
+        <v>992</v>
+      </c>
+      <c r="G5" s="339" t="s">
+        <v>975</v>
+      </c>
+      <c r="H5" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I5" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J5" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K5" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L5" s="378" t="s">
+      <c r="L5" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M5" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N5" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O5" s="378" t="s">
-        <v>1004</v>
+      <c r="M5" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N5" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O5" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27">
@@ -14815,38 +14926,38 @@
       <c r="D6" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E6" s="369" t="s">
+      <c r="E6" s="331" t="s">
         <v>682</v>
       </c>
-      <c r="F6" s="377" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G6" s="377" t="s">
-        <v>964</v>
-      </c>
-      <c r="H6" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I6" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K6" s="378" t="s">
+      <c r="F6" s="339" t="s">
+        <v>993</v>
+      </c>
+      <c r="G6" s="339" t="s">
+        <v>949</v>
+      </c>
+      <c r="H6" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I6" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J6" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K6" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L6" s="378" t="s">
+      <c r="L6" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M6" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N6" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O6" s="378" t="s">
-        <v>1004</v>
+      <c r="M6" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N6" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O6" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40.5">
@@ -14862,38 +14973,38 @@
       <c r="D7" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E7" s="369" t="s">
+      <c r="E7" s="331" t="s">
         <v>683</v>
       </c>
-      <c r="F7" s="377" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G7" s="377" t="s">
-        <v>966</v>
-      </c>
-      <c r="H7" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I7" s="377" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J7" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K7" s="378" t="s">
+      <c r="F7" s="339" t="s">
+        <v>994</v>
+      </c>
+      <c r="G7" s="339" t="s">
+        <v>951</v>
+      </c>
+      <c r="H7" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I7" s="339" t="s">
+        <v>995</v>
+      </c>
+      <c r="J7" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K7" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L7" s="378" t="s">
+      <c r="L7" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M7" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N7" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O7" s="378" t="s">
-        <v>1004</v>
+      <c r="M7" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N7" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O7" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="27">
@@ -14909,38 +15020,38 @@
       <c r="D8" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E8" s="369" t="s">
+      <c r="E8" s="331" t="s">
         <v>685</v>
       </c>
-      <c r="F8" s="377" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G8" s="377" t="s">
+      <c r="F8" s="339" t="s">
+        <v>996</v>
+      </c>
+      <c r="G8" s="339" t="s">
+        <v>973</v>
+      </c>
+      <c r="H8" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I8" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J8" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K8" s="340" t="s">
+        <v>471</v>
+      </c>
+      <c r="L8" s="340" t="s">
+        <v>461</v>
+      </c>
+      <c r="M8" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N8" s="340" t="s">
         <v>988</v>
       </c>
-      <c r="H8" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I8" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K8" s="378" t="s">
-        <v>471</v>
-      </c>
-      <c r="L8" s="378" t="s">
-        <v>461</v>
-      </c>
-      <c r="M8" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N8" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O8" s="378" t="s">
-        <v>1004</v>
+      <c r="O8" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="27">
@@ -14956,38 +15067,38 @@
       <c r="D9" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E9" s="369" t="s">
+      <c r="E9" s="331" t="s">
         <v>688</v>
       </c>
-      <c r="F9" s="370" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G9" s="377" t="s">
+      <c r="F9" s="332" t="s">
+        <v>997</v>
+      </c>
+      <c r="G9" s="339" t="s">
+        <v>969</v>
+      </c>
+      <c r="H9" s="339" t="s">
         <v>984</v>
       </c>
-      <c r="H9" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I9" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K9" s="378" t="s">
+      <c r="I9" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J9" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K9" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L9" s="378" t="s">
+      <c r="L9" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M9" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N9" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O9" s="378" t="s">
-        <v>1004</v>
+      <c r="M9" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N9" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O9" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27">
@@ -15003,38 +15114,38 @@
       <c r="D10" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E10" s="369" t="s">
+      <c r="E10" s="331" t="s">
         <v>690</v>
       </c>
-      <c r="F10" s="370" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G10" s="377" t="s">
-        <v>980</v>
-      </c>
-      <c r="H10" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I10" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K10" s="378" t="s">
+      <c r="F10" s="332" t="s">
+        <v>998</v>
+      </c>
+      <c r="G10" s="339" t="s">
+        <v>965</v>
+      </c>
+      <c r="H10" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I10" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J10" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K10" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L10" s="378" t="s">
+      <c r="L10" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M10" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N10" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O10" s="378" t="s">
-        <v>1004</v>
+      <c r="M10" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N10" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O10" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="27">
@@ -15050,38 +15161,38 @@
       <c r="D11" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="369" t="s">
+      <c r="E11" s="331" t="s">
         <v>689</v>
       </c>
-      <c r="F11" s="370" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G11" s="377" t="s">
-        <v>982</v>
-      </c>
-      <c r="H11" s="377" t="s">
+      <c r="F11" s="332" t="s">
         <v>999</v>
       </c>
-      <c r="I11" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K11" s="378" t="s">
+      <c r="G11" s="339" t="s">
+        <v>967</v>
+      </c>
+      <c r="H11" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I11" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J11" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K11" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L11" s="378" t="s">
+      <c r="L11" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M11" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N11" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O11" s="378" t="s">
-        <v>1004</v>
+      <c r="M11" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N11" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O11" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="27">
@@ -15097,38 +15208,38 @@
       <c r="D12" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="369" t="s">
+      <c r="E12" s="331" t="s">
         <v>691</v>
       </c>
-      <c r="F12" s="370" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G12" s="377" t="s">
-        <v>978</v>
-      </c>
-      <c r="H12" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I12" s="377" t="s">
+      <c r="F12" s="332" t="s">
         <v>1000</v>
       </c>
-      <c r="J12" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K12" s="378" t="s">
+      <c r="G12" s="339" t="s">
+        <v>963</v>
+      </c>
+      <c r="H12" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I12" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J12" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K12" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L12" s="378" t="s">
+      <c r="L12" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M12" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N12" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O12" s="378" t="s">
-        <v>1004</v>
+      <c r="M12" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N12" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O12" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="27">
@@ -15144,38 +15255,38 @@
       <c r="D13" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E13" s="378" t="s">
+      <c r="E13" s="340" t="s">
         <v>692</v>
       </c>
-      <c r="F13" s="370" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G13" s="377" t="s">
-        <v>976</v>
-      </c>
-      <c r="H13" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I13" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J13" s="378" t="s">
+      <c r="F13" s="332" t="s">
         <v>1001</v>
       </c>
-      <c r="K13" s="378" t="s">
+      <c r="G13" s="339" t="s">
+        <v>961</v>
+      </c>
+      <c r="H13" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I13" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J13" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K13" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L13" s="378" t="s">
+      <c r="L13" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M13" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N13" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O13" s="378" t="s">
-        <v>1004</v>
+      <c r="M13" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N13" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O13" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27">
@@ -15191,38 +15302,38 @@
       <c r="D14" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E14" s="378" t="s">
+      <c r="E14" s="340" t="s">
         <v>693</v>
       </c>
-      <c r="F14" s="370" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G14" s="377" t="s">
-        <v>974</v>
-      </c>
-      <c r="H14" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I14" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J14" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K14" s="378" t="s">
+      <c r="F14" s="332" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G14" s="339" t="s">
+        <v>959</v>
+      </c>
+      <c r="H14" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I14" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J14" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K14" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L14" s="378" t="s">
+      <c r="L14" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M14" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N14" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O14" s="378" t="s">
-        <v>1004</v>
+      <c r="M14" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N14" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O14" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="27">
@@ -15238,38 +15349,38 @@
       <c r="D15" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E15" s="369" t="s">
+      <c r="E15" s="331" t="s">
         <v>694</v>
       </c>
-      <c r="F15" s="370" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G15" s="377" t="s">
-        <v>972</v>
-      </c>
-      <c r="H15" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I15" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K15" s="378" t="s">
+      <c r="F15" s="332" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G15" s="339" t="s">
+        <v>957</v>
+      </c>
+      <c r="H15" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I15" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J15" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K15" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L15" s="378" t="s">
+      <c r="L15" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M15" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N15" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O15" s="378" t="s">
-        <v>1004</v>
+      <c r="M15" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N15" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O15" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27">
@@ -15285,38 +15396,38 @@
       <c r="D16" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="369" t="s">
+      <c r="E16" s="331" t="s">
         <v>695</v>
       </c>
-      <c r="F16" s="370" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G16" s="377" t="s">
-        <v>970</v>
-      </c>
-      <c r="H16" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I16" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K16" s="378" t="s">
+      <c r="F16" s="332" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G16" s="339" t="s">
+        <v>955</v>
+      </c>
+      <c r="H16" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I16" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J16" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K16" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L16" s="378" t="s">
+      <c r="L16" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M16" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N16" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O16" s="378" t="s">
-        <v>1004</v>
+      <c r="M16" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N16" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O16" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="27">
@@ -15332,38 +15443,38 @@
       <c r="D17" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E17" s="369" t="s">
+      <c r="E17" s="331" t="s">
         <v>686</v>
       </c>
-      <c r="F17" s="370" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G17" s="377" t="s">
+      <c r="F17" s="332" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G17" s="339" t="s">
+        <v>971</v>
+      </c>
+      <c r="H17" s="335" t="s">
+        <v>984</v>
+      </c>
+      <c r="I17" s="332" t="s">
+        <v>985</v>
+      </c>
+      <c r="J17" s="335" t="s">
         <v>986</v>
       </c>
-      <c r="H17" s="373" t="s">
-        <v>999</v>
-      </c>
-      <c r="I17" s="370" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="373" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K17" s="373" t="s">
+      <c r="K17" s="335" t="s">
         <v>471</v>
       </c>
-      <c r="L17" s="379" t="s">
+      <c r="L17" s="341" t="s">
         <v>461</v>
       </c>
-      <c r="M17" s="379" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N17" s="379" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O17" s="379" t="s">
-        <v>1004</v>
+      <c r="M17" s="341" t="s">
+        <v>987</v>
+      </c>
+      <c r="N17" s="341" t="s">
+        <v>988</v>
+      </c>
+      <c r="O17" s="341" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="27">
@@ -15379,38 +15490,38 @@
       <c r="D18" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="E18" s="369" t="s">
+      <c r="E18" s="331" t="s">
         <v>696</v>
       </c>
-      <c r="F18" s="370" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G18" s="377" t="s">
-        <v>968</v>
-      </c>
-      <c r="H18" s="377" t="s">
-        <v>999</v>
-      </c>
-      <c r="I18" s="377" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="378" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K18" s="378" t="s">
+      <c r="F18" s="332" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G18" s="339" t="s">
+        <v>953</v>
+      </c>
+      <c r="H18" s="339" t="s">
+        <v>984</v>
+      </c>
+      <c r="I18" s="339" t="s">
+        <v>985</v>
+      </c>
+      <c r="J18" s="340" t="s">
+        <v>986</v>
+      </c>
+      <c r="K18" s="340" t="s">
         <v>471</v>
       </c>
-      <c r="L18" s="378" t="s">
+      <c r="L18" s="340" t="s">
         <v>461</v>
       </c>
-      <c r="M18" s="378" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N18" s="378" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O18" s="378" t="s">
-        <v>1004</v>
+      <c r="M18" s="340" t="s">
+        <v>987</v>
+      </c>
+      <c r="N18" s="340" t="s">
+        <v>988</v>
+      </c>
+      <c r="O18" s="340" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -15432,7 +15543,7 @@
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -15453,60 +15564,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="344" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="344"/>
+      <c r="N1" s="344"/>
     </row>
     <row r="2" spans="1:15" s="37" customFormat="1" ht="20.25">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="345" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
-      <c r="H2" s="343"/>
-      <c r="I2" s="343"/>
-      <c r="J2" s="343"/>
-      <c r="K2" s="343"/>
-      <c r="L2" s="343"/>
-      <c r="M2" s="343"/>
-      <c r="N2" s="343"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="344" t="s">
+      <c r="A3" s="346" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="344" t="s">
+      <c r="B3" s="347"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="348"/>
+      <c r="H3" s="346" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="347"/>
+      <c r="K3" s="347"/>
+      <c r="L3" s="347"/>
+      <c r="M3" s="347"/>
+      <c r="N3" s="347"/>
       <c r="O3" s="170" t="s">
         <v>441</v>
       </c>
@@ -15600,10 +15711,10 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="368" t="s">
+      <c r="A6" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B6" s="368" t="s">
+      <c r="B6" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C6" s="21">
@@ -15641,10 +15752,10 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B7" s="368" t="s">
+      <c r="B7" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C7" s="21">
@@ -15682,10 +15793,10 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="368" t="s">
+      <c r="A8" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B8" s="368" t="s">
+      <c r="B8" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C8" s="21">
@@ -15723,10 +15834,10 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="368" t="s">
+      <c r="A9" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B9" s="368" t="s">
+      <c r="B9" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C9" s="21">
@@ -15764,10 +15875,10 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="368" t="s">
+      <c r="A10" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B10" s="368" t="s">
+      <c r="B10" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C10" s="21">
@@ -15805,10 +15916,10 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="368" t="s">
+      <c r="A11" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B11" s="368" t="s">
+      <c r="B11" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C11" s="21">
@@ -15846,10 +15957,10 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="368" t="s">
+      <c r="A12" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B12" s="368" t="s">
+      <c r="B12" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C12" s="21">
@@ -15887,10 +15998,10 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="368" t="s">
+      <c r="A13" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B13" s="368" t="s">
+      <c r="B13" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C13" s="21">
@@ -15928,10 +16039,10 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="368" t="s">
+      <c r="A14" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B14" s="368" t="s">
+      <c r="B14" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C14" s="21">
@@ -15969,10 +16080,10 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="368" t="s">
+      <c r="A15" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B15" s="368" t="s">
+      <c r="B15" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C15" s="21">
@@ -16010,10 +16121,10 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="368" t="s">
+      <c r="A16" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B16" s="368" t="s">
+      <c r="B16" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C16" s="21">
@@ -16051,10 +16162,10 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="368" t="s">
+      <c r="A17" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B17" s="368" t="s">
+      <c r="B17" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C17" s="21">
@@ -16092,10 +16203,10 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="368" t="s">
+      <c r="A18" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B18" s="368" t="s">
+      <c r="B18" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C18" s="296">
@@ -16133,10 +16244,10 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="368" t="s">
+      <c r="A19" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B19" s="368" t="s">
+      <c r="B19" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C19" s="296">
@@ -16174,10 +16285,10 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="368" t="s">
+      <c r="A20" s="330" t="s">
         <v>853</v>
       </c>
-      <c r="B20" s="368" t="s">
+      <c r="B20" s="330" t="s">
         <v>668</v>
       </c>
       <c r="C20" s="296">
@@ -16698,8 +16809,8 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17934,105 +18045,105 @@
       </c>
       <c r="H48" s="75"/>
     </row>
-    <row r="49" spans="1:8" s="307" customFormat="1">
-      <c r="A49" s="311" t="s">
+    <row r="49" spans="1:8" s="306" customFormat="1">
+      <c r="A49" s="310" t="s">
         <v>882</v>
       </c>
-      <c r="B49" s="311" t="s">
+      <c r="B49" s="310" t="s">
         <v>883</v>
       </c>
-      <c r="C49" s="311" t="s">
+      <c r="C49" s="310" t="s">
         <v>884</v>
       </c>
-      <c r="D49" s="311" t="s">
+      <c r="D49" s="310" t="s">
         <v>885</v>
       </c>
-      <c r="E49" s="311" t="s">
+      <c r="E49" s="310" t="s">
         <v>886</v>
       </c>
-      <c r="F49" s="300" t="s">
+      <c r="F49" s="299" t="s">
         <v>887</v>
       </c>
-      <c r="G49" s="318" t="s">
+      <c r="G49" s="317" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="321" t="s">
+      <c r="H49" s="319" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="304" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A50" s="316" t="s">
+    <row r="50" spans="1:8" s="303" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A50" s="315" t="s">
         <v>882</v>
       </c>
-      <c r="B50" s="316" t="s">
+      <c r="B50" s="315" t="s">
         <v>883</v>
       </c>
-      <c r="C50" s="316" t="s">
+      <c r="C50" s="315" t="s">
         <v>884</v>
       </c>
-      <c r="D50" s="316" t="s">
+      <c r="D50" s="315" t="s">
         <v>885</v>
       </c>
-      <c r="E50" s="316" t="s">
+      <c r="E50" s="315" t="s">
         <v>886</v>
       </c>
-      <c r="F50" s="312" t="s">
+      <c r="F50" s="311" t="s">
         <v>887</v>
       </c>
-      <c r="G50" s="313" t="s">
+      <c r="G50" s="312" t="s">
         <v>272</v>
       </c>
-      <c r="H50" s="317"/>
-    </row>
-    <row r="51" spans="1:8" s="307" customFormat="1">
-      <c r="A51" s="311" t="s">
+      <c r="H50" s="316"/>
+    </row>
+    <row r="51" spans="1:8" s="306" customFormat="1">
+      <c r="A51" s="310" t="s">
         <v>882</v>
       </c>
-      <c r="B51" s="311" t="s">
+      <c r="B51" s="310" t="s">
         <v>883</v>
       </c>
-      <c r="C51" s="311" t="s">
+      <c r="C51" s="310" t="s">
         <v>884</v>
       </c>
-      <c r="D51" s="311" t="s">
+      <c r="D51" s="310" t="s">
         <v>885</v>
       </c>
-      <c r="E51" s="311" t="s">
+      <c r="E51" s="310" t="s">
         <v>886</v>
       </c>
-      <c r="F51" s="300" t="s">
+      <c r="F51" s="299" t="s">
         <v>889</v>
       </c>
-      <c r="G51" s="318" t="s">
+      <c r="G51" s="317" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="321" t="s">
+      <c r="H51" s="319" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="304" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A52" s="316" t="s">
+    <row r="52" spans="1:8" s="303" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A52" s="315" t="s">
         <v>882</v>
       </c>
-      <c r="B52" s="316" t="s">
+      <c r="B52" s="315" t="s">
         <v>883</v>
       </c>
-      <c r="C52" s="316" t="s">
+      <c r="C52" s="315" t="s">
         <v>884</v>
       </c>
-      <c r="D52" s="316" t="s">
+      <c r="D52" s="315" t="s">
         <v>885</v>
       </c>
-      <c r="E52" s="316" t="s">
+      <c r="E52" s="315" t="s">
         <v>886</v>
       </c>
-      <c r="F52" s="312" t="s">
+      <c r="F52" s="311" t="s">
         <v>889</v>
       </c>
-      <c r="G52" s="313" t="s">
+      <c r="G52" s="312" t="s">
         <v>272</v>
       </c>
-      <c r="H52" s="317"/>
+      <c r="H52" s="316"/>
     </row>
     <row r="53" spans="1:8" s="176" customFormat="1">
       <c r="A53" s="64" t="s">
@@ -18500,16 +18611,16 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="259" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="83" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="327" customWidth="1"/>
-    <col min="4" max="4" width="48.25" style="303" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="324" customWidth="1"/>
+    <col min="4" max="4" width="48.25" style="302" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="33.875" customWidth="1"/>
     <col min="8" max="8" width="35.75" customWidth="1"/>
@@ -18528,10 +18639,10 @@
       <c r="B1" s="191" t="s">
         <v>671</v>
       </c>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="320" t="s">
         <v>739</v>
       </c>
-      <c r="D1" s="309" t="s">
+      <c r="D1" s="308" t="s">
         <v>838</v>
       </c>
       <c r="E1" s="63" t="s">
@@ -18572,11 +18683,11 @@
       <c r="B2" s="70" t="s">
         <v>755</v>
       </c>
-      <c r="C2" s="302" t="s">
+      <c r="C2" s="301" t="s">
         <v>647</v>
       </c>
       <c r="D2" s="258" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E2" s="274" t="s">
         <v>741</v>
@@ -18616,10 +18727,10 @@
       <c r="B3" s="70" t="s">
         <v>668</v>
       </c>
-      <c r="C3" s="302" t="s">
+      <c r="C3" s="301" t="s">
         <v>647</v>
       </c>
-      <c r="D3" s="314"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="66" t="s">
         <v>816</v>
       </c>
@@ -18646,10 +18757,10 @@
       <c r="B4" s="70" t="s">
         <v>668</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="301" t="s">
         <v>647</v>
       </c>
-      <c r="D4" s="306"/>
+      <c r="D4" s="305"/>
       <c r="E4" s="72" t="s">
         <v>646</v>
       </c>
@@ -18676,10 +18787,10 @@
       <c r="B5" s="70" t="s">
         <v>668</v>
       </c>
-      <c r="C5" s="302" t="s">
+      <c r="C5" s="301" t="s">
         <v>647</v>
       </c>
-      <c r="D5" s="306"/>
+      <c r="D5" s="305"/>
       <c r="E5" s="72" t="s">
         <v>895</v>
       </c>
@@ -18706,10 +18817,10 @@
       <c r="B6" s="70" t="s">
         <v>668</v>
       </c>
-      <c r="C6" s="302" t="s">
+      <c r="C6" s="301" t="s">
         <v>647</v>
       </c>
-      <c r="D6" s="306"/>
+      <c r="D6" s="305"/>
       <c r="E6" s="72" t="s">
         <v>817</v>
       </c>
@@ -18736,10 +18847,10 @@
       <c r="B7" s="76" t="s">
         <v>668</v>
       </c>
-      <c r="C7" s="325" t="s">
+      <c r="C7" s="322" t="s">
         <v>647</v>
       </c>
-      <c r="D7" s="324"/>
+      <c r="D7" s="321"/>
       <c r="E7" s="78" t="s">
         <v>746</v>
       </c>
@@ -18766,11 +18877,11 @@
       <c r="B8" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C8" s="319" t="s">
+      <c r="C8" s="318" t="s">
         <v>787</v>
       </c>
       <c r="D8" s="258" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E8" s="274" t="s">
         <v>819</v>
@@ -18810,10 +18921,10 @@
       <c r="B9" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C9" s="319" t="s">
+      <c r="C9" s="318" t="s">
         <v>787</v>
       </c>
-      <c r="D9" s="314"/>
+      <c r="D9" s="313"/>
       <c r="E9" s="66" t="s">
         <v>820</v>
       </c>
@@ -18840,10 +18951,10 @@
       <c r="B10" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C10" s="319" t="s">
+      <c r="C10" s="318" t="s">
         <v>787</v>
       </c>
-      <c r="D10" s="314"/>
+      <c r="D10" s="313"/>
       <c r="E10" s="66" t="s">
         <v>818</v>
       </c>
@@ -18870,10 +18981,10 @@
       <c r="B11" s="185" t="s">
         <v>668</v>
       </c>
-      <c r="C11" s="308" t="s">
+      <c r="C11" s="307" t="s">
         <v>788</v>
       </c>
-      <c r="D11" s="310" t="s">
+      <c r="D11" s="309" t="s">
         <v>900</v>
       </c>
       <c r="E11" s="199" t="s">
@@ -18914,7 +19025,7 @@
       <c r="B12" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C12" s="319" t="s">
+      <c r="C12" s="318" t="s">
         <v>789</v>
       </c>
       <c r="D12" s="258" t="s">
@@ -18958,10 +19069,10 @@
       <c r="B13" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C13" s="319" t="s">
+      <c r="C13" s="318" t="s">
         <v>789</v>
       </c>
-      <c r="D13" s="314"/>
+      <c r="D13" s="313"/>
       <c r="E13" s="66" t="s">
         <v>821</v>
       </c>
@@ -18988,10 +19099,10 @@
       <c r="B14" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C14" s="301" t="s">
+      <c r="C14" s="300" t="s">
         <v>789</v>
       </c>
-      <c r="D14" s="305"/>
+      <c r="D14" s="304"/>
       <c r="E14" s="75" t="s">
         <v>822</v>
       </c>
@@ -19018,7 +19129,7 @@
       <c r="B15" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C15" s="319" t="s">
+      <c r="C15" s="318" t="s">
         <v>790</v>
       </c>
       <c r="D15" s="258" t="s">
@@ -19062,10 +19173,10 @@
       <c r="B16" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C16" s="301" t="s">
+      <c r="C16" s="300" t="s">
         <v>790</v>
       </c>
-      <c r="D16" s="305"/>
+      <c r="D16" s="304"/>
       <c r="E16" s="75" t="s">
         <v>807</v>
       </c>
@@ -19092,7 +19203,7 @@
       <c r="B17" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C17" s="319" t="s">
+      <c r="C17" s="318" t="s">
         <v>791</v>
       </c>
       <c r="D17" s="258" t="s">
@@ -19124,10 +19235,10 @@
       <c r="B18" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C18" s="301" t="s">
+      <c r="C18" s="300" t="s">
         <v>791</v>
       </c>
-      <c r="D18" s="305"/>
+      <c r="D18" s="304"/>
       <c r="E18" s="75" t="s">
         <v>808</v>
       </c>
@@ -19154,7 +19265,7 @@
       <c r="B19" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C19" s="319" t="s">
+      <c r="C19" s="318" t="s">
         <v>792</v>
       </c>
       <c r="D19" s="258" t="s">
@@ -19198,10 +19309,10 @@
       <c r="B20" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C20" s="319" t="s">
+      <c r="C20" s="318" t="s">
         <v>792</v>
       </c>
-      <c r="D20" s="314"/>
+      <c r="D20" s="313"/>
       <c r="E20" s="66" t="s">
         <v>809</v>
       </c>
@@ -19228,10 +19339,10 @@
       <c r="B21" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C21" s="301" t="s">
+      <c r="C21" s="300" t="s">
         <v>792</v>
       </c>
-      <c r="D21" s="305"/>
+      <c r="D21" s="304"/>
       <c r="E21" s="75" t="s">
         <v>810</v>
       </c>
@@ -19258,11 +19369,11 @@
       <c r="B22" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C22" s="319" t="s">
+      <c r="C22" s="318" t="s">
         <v>873</v>
       </c>
       <c r="D22" s="258" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E22" s="274" t="s">
         <v>823</v>
@@ -19302,10 +19413,10 @@
       <c r="B23" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C23" s="319" t="s">
+      <c r="C23" s="318" t="s">
         <v>873</v>
       </c>
-      <c r="D23" s="314"/>
+      <c r="D23" s="313"/>
       <c r="E23" s="66" t="s">
         <v>868</v>
       </c>
@@ -19332,10 +19443,10 @@
       <c r="B24" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C24" s="301" t="s">
+      <c r="C24" s="300" t="s">
         <v>873</v>
       </c>
-      <c r="D24" s="305"/>
+      <c r="D24" s="304"/>
       <c r="E24" s="75" t="s">
         <v>811</v>
       </c>
@@ -19362,11 +19473,11 @@
       <c r="B25" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C25" s="319" t="s">
+      <c r="C25" s="318" t="s">
         <v>874</v>
       </c>
       <c r="D25" s="258" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E25" s="274" t="s">
         <v>824</v>
@@ -19406,10 +19517,10 @@
       <c r="B26" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C26" s="319" t="s">
+      <c r="C26" s="318" t="s">
         <v>874</v>
       </c>
-      <c r="D26" s="314"/>
+      <c r="D26" s="313"/>
       <c r="E26" s="66" t="s">
         <v>866</v>
       </c>
@@ -19436,10 +19547,10 @@
       <c r="B27" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C27" s="301" t="s">
+      <c r="C27" s="300" t="s">
         <v>874</v>
       </c>
-      <c r="D27" s="305"/>
+      <c r="D27" s="304"/>
       <c r="E27" s="75" t="s">
         <v>867</v>
       </c>
@@ -19466,11 +19577,11 @@
       <c r="B28" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C28" s="319" t="s">
+      <c r="C28" s="318" t="s">
         <v>875</v>
       </c>
       <c r="D28" s="258" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E28" s="274" t="s">
         <v>825</v>
@@ -19510,10 +19621,10 @@
       <c r="B29" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C29" s="301" t="s">
+      <c r="C29" s="300" t="s">
         <v>875</v>
       </c>
-      <c r="D29" s="305"/>
+      <c r="D29" s="304"/>
       <c r="E29" s="75" t="s">
         <v>812</v>
       </c>
@@ -19540,11 +19651,11 @@
       <c r="B30" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C30" s="319" t="s">
+      <c r="C30" s="318" t="s">
         <v>876</v>
       </c>
       <c r="D30" s="258" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E30" s="274" t="s">
         <v>826</v>
@@ -19584,10 +19695,10 @@
       <c r="B31" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C31" s="301" t="s">
+      <c r="C31" s="300" t="s">
         <v>877</v>
       </c>
-      <c r="D31" s="305"/>
+      <c r="D31" s="304"/>
       <c r="E31" s="75" t="s">
         <v>813</v>
       </c>
@@ -19614,11 +19725,11 @@
       <c r="B32" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C32" s="319" t="s">
-        <v>72</v>
+      <c r="C32" s="318" t="s">
+        <v>1033</v>
       </c>
       <c r="D32" s="258" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E32" s="274" t="s">
         <v>861</v>
@@ -19658,10 +19769,10 @@
       <c r="B33" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C33" s="301" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="305"/>
+      <c r="C33" s="343" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D33" s="304"/>
       <c r="E33" s="75" t="s">
         <v>814</v>
       </c>
@@ -19688,11 +19799,11 @@
       <c r="B34" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C34" s="319" t="s">
+      <c r="C34" s="318" t="s">
         <v>878</v>
       </c>
       <c r="D34" s="258" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E34" s="274" t="s">
         <v>827</v>
@@ -19732,10 +19843,10 @@
       <c r="B35" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C35" s="301" t="s">
+      <c r="C35" s="300" t="s">
         <v>878</v>
       </c>
-      <c r="D35" s="305"/>
+      <c r="D35" s="304"/>
       <c r="E35" s="75" t="s">
         <v>815</v>
       </c>
@@ -19762,11 +19873,11 @@
       <c r="B36" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C36" s="319" t="s">
+      <c r="C36" s="318" t="s">
         <v>879</v>
       </c>
       <c r="D36" s="258" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E36" s="274" t="s">
         <v>828</v>
@@ -19806,10 +19917,10 @@
       <c r="B37" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C37" s="301" t="s">
+      <c r="C37" s="300" t="s">
         <v>879</v>
       </c>
-      <c r="D37" s="305"/>
+      <c r="D37" s="304"/>
       <c r="E37" s="75" t="s">
         <v>829</v>
       </c>
@@ -19836,11 +19947,11 @@
       <c r="B38" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C38" s="319" t="s">
+      <c r="C38" s="318" t="s">
         <v>880</v>
       </c>
       <c r="D38" s="258" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E38" s="274" t="s">
         <v>830</v>
@@ -19880,10 +19991,10 @@
       <c r="B39" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C39" s="301" t="s">
+      <c r="C39" s="300" t="s">
         <v>880</v>
       </c>
-      <c r="D39" s="305"/>
+      <c r="D39" s="304"/>
       <c r="E39" s="75" t="s">
         <v>869</v>
       </c>
@@ -19910,11 +20021,11 @@
       <c r="B40" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C40" s="319" t="s">
+      <c r="C40" s="318" t="s">
         <v>891</v>
       </c>
       <c r="D40" s="258" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E40" s="274" t="s">
         <v>831</v>
@@ -19954,10 +20065,10 @@
       <c r="B41" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C41" s="319" t="s">
+      <c r="C41" s="318" t="s">
         <v>891</v>
       </c>
-      <c r="D41" s="314"/>
+      <c r="D41" s="313"/>
       <c r="E41" s="66" t="s">
         <v>832</v>
       </c>
@@ -19984,10 +20095,10 @@
       <c r="B42" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C42" s="301" t="s">
+      <c r="C42" s="300" t="s">
         <v>891</v>
       </c>
-      <c r="D42" s="305"/>
+      <c r="D42" s="304"/>
       <c r="E42" s="75" t="s">
         <v>833</v>
       </c>
@@ -20014,11 +20125,11 @@
       <c r="B43" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C43" s="319" t="s">
+      <c r="C43" s="318" t="s">
         <v>892</v>
       </c>
       <c r="D43" s="258" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E43" s="274" t="s">
         <v>862</v>
@@ -20058,10 +20169,10 @@
       <c r="B44" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C44" s="319" t="s">
+      <c r="C44" s="318" t="s">
         <v>892</v>
       </c>
-      <c r="D44" s="314"/>
+      <c r="D44" s="313"/>
       <c r="E44" s="66" t="s">
         <v>856</v>
       </c>
@@ -20088,10 +20199,10 @@
       <c r="B45" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C45" s="319" t="s">
+      <c r="C45" s="318" t="s">
         <v>892</v>
       </c>
-      <c r="D45" s="314"/>
+      <c r="D45" s="313"/>
       <c r="E45" s="66" t="s">
         <v>857</v>
       </c>
@@ -20118,10 +20229,10 @@
       <c r="B46" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C46" s="301" t="s">
+      <c r="C46" s="300" t="s">
         <v>892</v>
       </c>
-      <c r="D46" s="305"/>
+      <c r="D46" s="304"/>
       <c r="E46" s="75" t="s">
         <v>858</v>
       </c>
@@ -20148,11 +20259,11 @@
       <c r="B47" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C47" s="319" t="s">
+      <c r="C47" s="318" t="s">
         <v>893</v>
       </c>
       <c r="D47" s="258" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="E47" s="274" t="s">
         <v>863</v>
@@ -20192,10 +20303,10 @@
       <c r="B48" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C48" s="319" t="s">
+      <c r="C48" s="318" t="s">
         <v>893</v>
       </c>
-      <c r="D48" s="314"/>
+      <c r="D48" s="313"/>
       <c r="E48" s="66" t="s">
         <v>848</v>
       </c>
@@ -20222,10 +20333,10 @@
       <c r="B49" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C49" s="319" t="s">
+      <c r="C49" s="318" t="s">
         <v>893</v>
       </c>
-      <c r="D49" s="314"/>
+      <c r="D49" s="313"/>
       <c r="E49" s="66" t="s">
         <v>849</v>
       </c>
@@ -20252,10 +20363,10 @@
       <c r="B50" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C50" s="319" t="s">
+      <c r="C50" s="318" t="s">
         <v>893</v>
       </c>
-      <c r="D50" s="314"/>
+      <c r="D50" s="313"/>
       <c r="E50" s="66" t="s">
         <v>850</v>
       </c>
@@ -20282,10 +20393,10 @@
       <c r="B51" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C51" s="319" t="s">
+      <c r="C51" s="318" t="s">
         <v>893</v>
       </c>
-      <c r="D51" s="314"/>
+      <c r="D51" s="313"/>
       <c r="E51" s="66" t="s">
         <v>865</v>
       </c>
@@ -20312,10 +20423,10 @@
       <c r="B52" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C52" s="319" t="s">
+      <c r="C52" s="318" t="s">
         <v>893</v>
       </c>
-      <c r="D52" s="314"/>
+      <c r="D52" s="313"/>
       <c r="E52" s="66" t="s">
         <v>851</v>
       </c>
@@ -20342,10 +20453,10 @@
       <c r="B53" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C53" s="301" t="s">
+      <c r="C53" s="300" t="s">
         <v>893</v>
       </c>
-      <c r="D53" s="305"/>
+      <c r="D53" s="304"/>
       <c r="E53" s="75" t="s">
         <v>852</v>
       </c>
@@ -20372,11 +20483,11 @@
       <c r="B54" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C54" s="319" t="s">
+      <c r="C54" s="318" t="s">
         <v>894</v>
       </c>
       <c r="D54" s="258" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="E54" s="274" t="s">
         <v>740</v>
@@ -20416,10 +20527,10 @@
       <c r="B55" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="C55" s="319" t="s">
+      <c r="C55" s="318" t="s">
         <v>894</v>
       </c>
-      <c r="D55" s="314"/>
+      <c r="D55" s="313"/>
       <c r="E55" s="66" t="s">
         <v>870</v>
       </c>
@@ -20446,10 +20557,10 @@
       <c r="B56" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C56" s="301" t="s">
+      <c r="C56" s="300" t="s">
         <v>894</v>
       </c>
-      <c r="D56" s="305"/>
+      <c r="D56" s="304"/>
       <c r="E56" s="75" t="s">
         <v>871</v>
       </c>
@@ -20471,20 +20582,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="38" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="38" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="38" customWidth="1"/>
     <col min="5" max="5" width="48.25" style="38" customWidth="1"/>
-    <col min="6" max="6" width="53.375" style="326" customWidth="1"/>
+    <col min="6" max="6" width="53.375" style="323" customWidth="1"/>
     <col min="7" max="7" width="36.125" style="38" customWidth="1"/>
     <col min="8" max="8" width="9" style="38"/>
     <col min="9" max="9" width="61" style="38" customWidth="1"/>
@@ -20498,49 +20609,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="325" t="s">
         <v>834</v>
       </c>
-      <c r="B1" s="330" t="s">
+      <c r="B1" s="325" t="s">
         <v>835</v>
       </c>
-      <c r="C1" s="330" t="s">
+      <c r="C1" s="325" t="s">
         <v>836</v>
       </c>
-      <c r="D1" s="330" t="s">
+      <c r="D1" s="325" t="s">
         <v>837</v>
       </c>
-      <c r="E1" s="330" t="s">
+      <c r="E1" s="325" t="s">
         <v>739</v>
       </c>
-      <c r="F1" s="330" t="s">
-        <v>945</v>
-      </c>
-      <c r="G1" s="330" t="s">
+      <c r="F1" s="325" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1" s="325" t="s">
         <v>839</v>
       </c>
-      <c r="H1" s="330" t="s">
+      <c r="H1" s="325" t="s">
         <v>840</v>
       </c>
-      <c r="I1" s="330" t="s">
+      <c r="I1" s="325" t="s">
         <v>841</v>
       </c>
-      <c r="J1" s="330" t="s">
+      <c r="J1" s="325" t="s">
         <v>842</v>
       </c>
-      <c r="K1" s="330" t="s">
+      <c r="K1" s="325" t="s">
         <v>843</v>
       </c>
-      <c r="L1" s="330" t="s">
+      <c r="L1" s="325" t="s">
         <v>844</v>
       </c>
-      <c r="M1" s="330" t="s">
+      <c r="M1" s="325" t="s">
         <v>845</v>
       </c>
-      <c r="N1" s="330" t="s">
+      <c r="N1" s="325" t="s">
         <v>846</v>
       </c>
-      <c r="O1" s="332" t="s">
+      <c r="O1" s="327" t="s">
         <v>479</v>
       </c>
     </row>
@@ -20557,14 +20668,14 @@
       <c r="D2" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="335" t="s">
-        <v>956</v>
-      </c>
-      <c r="F2" s="331" t="s">
-        <v>901</v>
-      </c>
-      <c r="G2" s="333" t="s">
-        <v>923</v>
+      <c r="E2" s="342" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F2" s="326" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G2" s="328" t="s">
+        <v>1024</v>
       </c>
       <c r="H2" s="285" t="s">
         <v>44</v>
@@ -20604,14 +20715,14 @@
       <c r="D3" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="336" t="s">
-        <v>892</v>
-      </c>
-      <c r="F3" s="331" t="s">
-        <v>916</v>
-      </c>
-      <c r="G3" s="333" t="s">
-        <v>924</v>
+      <c r="E3" s="342" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F3" s="326" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G3" s="328" t="s">
+        <v>1026</v>
       </c>
       <c r="H3" s="285" t="s">
         <v>44</v>
@@ -20651,14 +20762,14 @@
       <c r="D4" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="337" t="s">
-        <v>893</v>
-      </c>
-      <c r="F4" s="331" t="s">
-        <v>918</v>
-      </c>
-      <c r="G4" s="333" t="s">
-        <v>925</v>
+      <c r="E4" s="342" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F4" s="326" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G4" s="328" t="s">
+        <v>1028</v>
       </c>
       <c r="H4" s="285" t="s">
         <v>44</v>
@@ -20698,14 +20809,14 @@
       <c r="D5" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="E5" s="338" t="s">
-        <v>891</v>
-      </c>
-      <c r="F5" s="331" t="s">
-        <v>914</v>
-      </c>
-      <c r="G5" s="333" t="s">
-        <v>926</v>
+      <c r="E5" s="342" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F5" s="326" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G5" s="328" t="s">
+        <v>1029</v>
       </c>
       <c r="H5" s="285" t="s">
         <v>44</v>
@@ -20745,14 +20856,14 @@
       <c r="D6" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="E6" s="339" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="331" t="s">
-        <v>903</v>
-      </c>
-      <c r="G6" s="333" t="s">
-        <v>927</v>
+      <c r="E6" s="342" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F6" s="326" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G6" s="328" t="s">
+        <v>918</v>
       </c>
       <c r="H6" s="285" t="s">
         <v>44</v>
@@ -20792,14 +20903,14 @@
       <c r="D7" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="E7" s="340" t="s">
-        <v>894</v>
-      </c>
-      <c r="F7" s="331" t="s">
-        <v>920</v>
-      </c>
-      <c r="G7" s="333" t="s">
-        <v>928</v>
+      <c r="E7" s="342" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F7" s="326" t="s">
+        <v>915</v>
+      </c>
+      <c r="G7" s="328" t="s">
+        <v>919</v>
       </c>
       <c r="H7" s="285" t="s">
         <v>44</v>
@@ -20839,14 +20950,14 @@
       <c r="D8" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E8" s="341" t="s">
-        <v>957</v>
-      </c>
-      <c r="F8" s="331" t="s">
-        <v>910</v>
-      </c>
-      <c r="G8" s="333" t="s">
-        <v>929</v>
+      <c r="E8" s="342" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F8" s="326" t="s">
+        <v>908</v>
+      </c>
+      <c r="G8" s="328" t="s">
+        <v>920</v>
       </c>
       <c r="H8" s="286" t="s">
         <v>44</v>
@@ -20886,14 +20997,14 @@
       <c r="D9" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E9" s="329" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="331" t="s">
-        <v>946</v>
-      </c>
-      <c r="G9" s="333" t="s">
-        <v>930</v>
+      <c r="E9" s="342" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F9" s="326" t="s">
+        <v>933</v>
+      </c>
+      <c r="G9" s="328" t="s">
+        <v>921</v>
       </c>
       <c r="H9" s="286" t="s">
         <v>44</v>
@@ -20933,14 +21044,14 @@
       <c r="D10" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E10" s="329" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="331" t="s">
-        <v>947</v>
-      </c>
-      <c r="G10" s="333" t="s">
-        <v>931</v>
+      <c r="E10" s="342" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F10" s="326" t="s">
+        <v>934</v>
+      </c>
+      <c r="G10" s="328" t="s">
+        <v>922</v>
       </c>
       <c r="H10" s="286" t="s">
         <v>44</v>
@@ -20980,14 +21091,14 @@
       <c r="D11" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="329" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="331" t="s">
-        <v>948</v>
-      </c>
-      <c r="G11" s="333" t="s">
-        <v>932</v>
+      <c r="E11" s="342" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F11" s="326" t="s">
+        <v>935</v>
+      </c>
+      <c r="G11" s="328" t="s">
+        <v>923</v>
       </c>
       <c r="H11" s="286" t="s">
         <v>44</v>
@@ -21027,14 +21138,14 @@
       <c r="D12" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="329" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="331" t="s">
-        <v>949</v>
-      </c>
-      <c r="G12" s="333" t="s">
-        <v>933</v>
+      <c r="E12" s="342" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F12" s="326" t="s">
+        <v>936</v>
+      </c>
+      <c r="G12" s="328" t="s">
+        <v>924</v>
       </c>
       <c r="H12" s="286" t="s">
         <v>44</v>
@@ -21074,14 +21185,14 @@
       <c r="D13" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E13" s="329" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="331" t="s">
-        <v>950</v>
-      </c>
-      <c r="G13" s="333" t="s">
-        <v>934</v>
+      <c r="E13" s="342" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F13" s="326" t="s">
+        <v>937</v>
+      </c>
+      <c r="G13" s="328" t="s">
+        <v>925</v>
       </c>
       <c r="H13" s="286" t="s">
         <v>44</v>
@@ -21121,14 +21232,14 @@
       <c r="D14" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E14" s="329" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="331" t="s">
-        <v>951</v>
-      </c>
-      <c r="G14" s="333" t="s">
-        <v>935</v>
+      <c r="E14" s="342" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F14" s="326" t="s">
+        <v>938</v>
+      </c>
+      <c r="G14" s="328" t="s">
+        <v>926</v>
       </c>
       <c r="H14" s="286" t="s">
         <v>44</v>
@@ -21168,14 +21279,14 @@
       <c r="D15" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E15" s="329" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="331" t="s">
-        <v>952</v>
-      </c>
-      <c r="G15" s="333" t="s">
-        <v>936</v>
+      <c r="E15" s="342" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F15" s="326" t="s">
+        <v>939</v>
+      </c>
+      <c r="G15" s="328" t="s">
+        <v>927</v>
       </c>
       <c r="H15" s="286" t="s">
         <v>44</v>
@@ -21202,48 +21313,50 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="328" customFormat="1" ht="27">
-      <c r="A16" s="322" t="s">
+    <row r="16" spans="1:15" ht="27">
+      <c r="A16" s="286" t="s">
         <v>461</v>
       </c>
-      <c r="B16" s="322" t="s">
+      <c r="B16" s="286" t="s">
         <v>733</v>
       </c>
-      <c r="C16" s="322" t="s">
+      <c r="C16" s="286" t="s">
         <v>734</v>
       </c>
-      <c r="D16" s="322" t="s">
+      <c r="D16" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="320" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="320"/>
-      <c r="G16" s="334" t="s">
-        <v>937</v>
-      </c>
-      <c r="H16" s="322" t="s">
-        <v>944</v>
-      </c>
-      <c r="I16" s="299" t="s">
-        <v>481</v>
-      </c>
-      <c r="J16" s="322" t="s">
+      <c r="E16" s="342" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F16" s="326" t="s">
+        <v>908</v>
+      </c>
+      <c r="G16" s="328" t="s">
+        <v>928</v>
+      </c>
+      <c r="H16" s="286" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="287" t="s">
+        <v>847</v>
+      </c>
+      <c r="J16" s="286" t="s">
         <v>470</v>
       </c>
-      <c r="K16" s="322" t="s">
+      <c r="K16" s="286" t="s">
         <v>471</v>
       </c>
-      <c r="L16" s="322" t="s">
-        <v>139</v>
-      </c>
-      <c r="M16" s="322" t="s">
+      <c r="L16" s="286" t="s">
+        <v>462</v>
+      </c>
+      <c r="M16" s="286" t="s">
         <v>466</v>
       </c>
-      <c r="N16" s="322" t="s">
+      <c r="N16" s="286" t="s">
         <v>467</v>
       </c>
-      <c r="O16" s="322" t="s">
+      <c r="O16" s="286" t="s">
         <v>464</v>
       </c>
     </row>
@@ -21260,14 +21373,14 @@
       <c r="D17" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E17" s="329" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="331" t="s">
-        <v>910</v>
-      </c>
-      <c r="G17" s="333" t="s">
-        <v>938</v>
+      <c r="E17" s="342" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F17" s="326" t="s">
+        <v>940</v>
+      </c>
+      <c r="G17" s="328" t="s">
+        <v>929</v>
       </c>
       <c r="H17" s="286" t="s">
         <v>44</v>
@@ -21307,14 +21420,14 @@
       <c r="D18" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E18" s="329" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="331" t="s">
-        <v>953</v>
-      </c>
-      <c r="G18" s="333" t="s">
-        <v>939</v>
+      <c r="E18" s="342" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F18" s="326" t="s">
+        <v>941</v>
+      </c>
+      <c r="G18" s="328" t="s">
+        <v>930</v>
       </c>
       <c r="H18" s="286" t="s">
         <v>44</v>
@@ -21354,14 +21467,14 @@
       <c r="D19" s="286" t="s">
         <v>336</v>
       </c>
-      <c r="E19" s="329" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="331" t="s">
-        <v>954</v>
-      </c>
-      <c r="G19" s="333" t="s">
-        <v>940</v>
+      <c r="E19" s="342" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F19" s="326" t="s">
+        <v>942</v>
+      </c>
+      <c r="G19" s="328" t="s">
+        <v>931</v>
       </c>
       <c r="H19" s="286" t="s">
         <v>44</v>
@@ -21376,7 +21489,7 @@
         <v>471</v>
       </c>
       <c r="L19" s="286" t="s">
-        <v>462</v>
+        <v>139</v>
       </c>
       <c r="M19" s="286" t="s">
         <v>466</v>
@@ -21388,142 +21501,56 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="328" customFormat="1" ht="27">
-      <c r="A20" s="322" t="s">
-        <v>461</v>
-      </c>
-      <c r="B20" s="322" t="s">
-        <v>733</v>
-      </c>
-      <c r="C20" s="322" t="s">
-        <v>734</v>
-      </c>
-      <c r="D20" s="322" t="s">
-        <v>336</v>
-      </c>
-      <c r="E20" s="320" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="320"/>
-      <c r="G20" s="334" t="s">
-        <v>941</v>
-      </c>
-      <c r="H20" s="322" t="s">
-        <v>944</v>
-      </c>
-      <c r="I20" s="299" t="s">
-        <v>481</v>
-      </c>
-      <c r="J20" s="322" t="s">
-        <v>470</v>
-      </c>
-      <c r="K20" s="322" t="s">
-        <v>471</v>
-      </c>
-      <c r="L20" s="322" t="s">
-        <v>139</v>
-      </c>
-      <c r="M20" s="322" t="s">
-        <v>466</v>
-      </c>
-      <c r="N20" s="322" t="s">
-        <v>467</v>
-      </c>
-      <c r="O20" s="322" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="27">
-      <c r="A21" s="286" t="s">
-        <v>461</v>
-      </c>
-      <c r="B21" s="286" t="s">
-        <v>733</v>
-      </c>
-      <c r="C21" s="286" t="s">
-        <v>734</v>
-      </c>
-      <c r="D21" s="286" t="s">
-        <v>336</v>
-      </c>
-      <c r="E21" s="329" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="331" t="s">
-        <v>955</v>
-      </c>
-      <c r="G21" s="333" t="s">
-        <v>942</v>
-      </c>
-      <c r="H21" s="286" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="287" t="s">
-        <v>847</v>
-      </c>
-      <c r="J21" s="286" t="s">
-        <v>470</v>
-      </c>
-      <c r="K21" s="286" t="s">
-        <v>471</v>
-      </c>
-      <c r="L21" s="286" t="s">
-        <v>139</v>
-      </c>
-      <c r="M21" s="286" t="s">
-        <v>466</v>
-      </c>
-      <c r="N21" s="286" t="s">
-        <v>467</v>
-      </c>
-      <c r="O21" s="286" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="328" customFormat="1" ht="27">
-      <c r="A22" s="322" t="s">
-        <v>461</v>
-      </c>
-      <c r="B22" s="322" t="s">
-        <v>733</v>
-      </c>
-      <c r="C22" s="322" t="s">
-        <v>734</v>
-      </c>
-      <c r="D22" s="322" t="s">
-        <v>336</v>
-      </c>
-      <c r="E22" s="320" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="320"/>
-      <c r="G22" s="334" t="s">
-        <v>943</v>
-      </c>
-      <c r="H22" s="322" t="s">
-        <v>944</v>
-      </c>
-      <c r="I22" s="299" t="s">
-        <v>481</v>
-      </c>
-      <c r="J22" s="322" t="s">
-        <v>470</v>
-      </c>
-      <c r="K22" s="322" t="s">
-        <v>471</v>
-      </c>
-      <c r="L22" s="322" t="s">
-        <v>139</v>
-      </c>
-      <c r="M22" s="322" t="s">
-        <v>466</v>
-      </c>
-      <c r="N22" s="322" t="s">
-        <v>467</v>
-      </c>
-      <c r="O22" s="322" t="s">
-        <v>464</v>
-      </c>
+    <row r="20" spans="1:15">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" s="302"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" s="302"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" s="302"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23"/>
@@ -21531,7 +21558,7 @@
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="303"/>
+      <c r="F23" s="302"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
@@ -21548,7 +21575,7 @@
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" s="303"/>
+      <c r="F24" s="302"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
@@ -21565,7 +21592,7 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="303"/>
+      <c r="F25" s="302"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -21582,7 +21609,7 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="303"/>
+      <c r="F26" s="302"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -21599,7 +21626,7 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="303"/>
+      <c r="F27" s="302"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -21616,7 +21643,7 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="303"/>
+      <c r="F28" s="302"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -21633,7 +21660,7 @@
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" s="303"/>
+      <c r="F29" s="302"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -21650,7 +21677,7 @@
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30" s="303"/>
+      <c r="F30" s="302"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -21667,7 +21694,7 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" s="303"/>
+      <c r="F31" s="302"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
@@ -21684,7 +21711,7 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="303"/>
+      <c r="F32" s="302"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
@@ -21701,7 +21728,7 @@
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="303"/>
+      <c r="F33" s="302"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -21718,7 +21745,7 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="303"/>
+      <c r="F34" s="302"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -21735,7 +21762,7 @@
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" s="303"/>
+      <c r="F35" s="302"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -21752,7 +21779,7 @@
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" s="303"/>
+      <c r="F36" s="302"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -21769,7 +21796,7 @@
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37" s="303"/>
+      <c r="F37" s="302"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -21786,7 +21813,7 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" s="303"/>
+      <c r="F38" s="302"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -21803,7 +21830,7 @@
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39" s="303"/>
+      <c r="F39" s="302"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -21820,7 +21847,7 @@
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40" s="303"/>
+      <c r="F40" s="302"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -21837,7 +21864,7 @@
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41" s="303"/>
+      <c r="F41" s="302"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
@@ -21854,7 +21881,7 @@
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42" s="303"/>
+      <c r="F42" s="302"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
@@ -21871,7 +21898,7 @@
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
-      <c r="F43" s="303"/>
+      <c r="F43" s="302"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
@@ -21888,7 +21915,7 @@
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="F44" s="303"/>
+      <c r="F44" s="302"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
@@ -21905,7 +21932,7 @@
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
-      <c r="F45" s="303"/>
+      <c r="F45" s="302"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
@@ -21922,7 +21949,7 @@
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
-      <c r="F46" s="303"/>
+      <c r="F46" s="302"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
@@ -21939,7 +21966,7 @@
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
-      <c r="F47" s="303"/>
+      <c r="F47" s="302"/>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
@@ -21956,7 +21983,7 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="F48" s="303"/>
+      <c r="F48" s="302"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
@@ -21973,7 +22000,7 @@
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49" s="303"/>
+      <c r="F49" s="302"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
@@ -21990,7 +22017,7 @@
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50" s="303"/>
+      <c r="F50" s="302"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
@@ -22007,7 +22034,7 @@
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51" s="303"/>
+      <c r="F51" s="302"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
@@ -22024,7 +22051,7 @@
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
-      <c r="F52" s="303"/>
+      <c r="F52" s="302"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
@@ -22041,7 +22068,7 @@
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
-      <c r="F53" s="303"/>
+      <c r="F53" s="302"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
@@ -22058,7 +22085,7 @@
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54" s="303"/>
+      <c r="F54" s="302"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
@@ -22075,7 +22102,7 @@
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55" s="303"/>
+      <c r="F55" s="302"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
@@ -22092,7 +22119,7 @@
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
-      <c r="F56" s="303"/>
+      <c r="F56" s="302"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
@@ -22109,7 +22136,7 @@
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="303"/>
+      <c r="F57" s="302"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
@@ -22126,7 +22153,7 @@
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="303"/>
+      <c r="F58" s="302"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
@@ -22143,7 +22170,7 @@
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
-      <c r="F59" s="303"/>
+      <c r="F59" s="302"/>
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
@@ -22160,7 +22187,7 @@
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
-      <c r="F60" s="303"/>
+      <c r="F60" s="302"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
@@ -22177,7 +22204,7 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
-      <c r="F61" s="303"/>
+      <c r="F61" s="302"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
@@ -22194,7 +22221,7 @@
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
-      <c r="F62" s="303"/>
+      <c r="F62" s="302"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
@@ -22211,7 +22238,7 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
-      <c r="F63" s="303"/>
+      <c r="F63" s="302"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
@@ -22228,7 +22255,7 @@
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
-      <c r="F64" s="303"/>
+      <c r="F64" s="302"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
@@ -22245,7 +22272,7 @@
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
-      <c r="F65" s="303"/>
+      <c r="F65" s="302"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
@@ -22262,7 +22289,7 @@
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
-      <c r="F66" s="303"/>
+      <c r="F66" s="302"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
@@ -22279,7 +22306,7 @@
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
-      <c r="F67" s="303"/>
+      <c r="F67" s="302"/>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
@@ -22296,7 +22323,7 @@
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
-      <c r="F68" s="303"/>
+      <c r="F68" s="302"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
@@ -22313,7 +22340,7 @@
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
-      <c r="F69" s="303"/>
+      <c r="F69" s="302"/>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
@@ -22330,7 +22357,7 @@
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="303"/>
+      <c r="F70" s="302"/>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
@@ -22342,98 +22369,83 @@
       <c r="O70"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71" s="303"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
+      <c r="B71" s="283"/>
+      <c r="C71" s="283"/>
+      <c r="D71" s="283"/>
+      <c r="E71" s="283"/>
+      <c r="F71" s="314"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72" s="303"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
+      <c r="F72" s="314"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73" s="303"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
+      <c r="F73" s="256"/>
+      <c r="G73" s="256"/>
+      <c r="H73" s="256"/>
+      <c r="I73" s="256"/>
+      <c r="J73" s="280"/>
+      <c r="K73" s="280"/>
+      <c r="L73" s="280"/>
+      <c r="M73" s="280"/>
+      <c r="N73" s="280"/>
+      <c r="O73" s="280"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="B74" s="283"/>
-      <c r="C74" s="283"/>
-      <c r="D74" s="283"/>
-      <c r="E74" s="283"/>
-      <c r="F74" s="315"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="73"/>
-      <c r="O74" s="73"/>
+      <c r="F74" s="314"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="F75" s="315"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="73"/>
-      <c r="N75" s="73"/>
-      <c r="O75" s="73"/>
+      <c r="F75" s="314"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="F76" s="256"/>
-      <c r="G76" s="256"/>
-      <c r="H76" s="256"/>
-      <c r="I76" s="256"/>
-      <c r="J76" s="280"/>
-      <c r="K76" s="280"/>
-      <c r="L76" s="280"/>
-      <c r="M76" s="280"/>
-      <c r="N76" s="280"/>
-      <c r="O76" s="280"/>
+      <c r="F76" s="314"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="69"/>
+      <c r="O76" s="69"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="F77" s="315"/>
+      <c r="F77" s="314"/>
       <c r="G77" s="69"/>
       <c r="H77" s="69"/>
       <c r="I77" s="69"/>
@@ -22445,7 +22457,7 @@
       <c r="O77" s="69"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="F78" s="315"/>
+      <c r="F78" s="314"/>
       <c r="G78" s="69"/>
       <c r="H78" s="69"/>
       <c r="I78" s="69"/>
@@ -22457,7 +22469,7 @@
       <c r="O78" s="69"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="F79" s="315"/>
+      <c r="F79" s="314"/>
       <c r="G79" s="69"/>
       <c r="H79" s="69"/>
       <c r="I79" s="69"/>
@@ -22469,19 +22481,19 @@
       <c r="O79" s="69"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="F80" s="315"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
-      <c r="J80" s="69"/>
-      <c r="K80" s="69"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="69"/>
-      <c r="N80" s="69"/>
-      <c r="O80" s="69"/>
+      <c r="F80" s="256"/>
+      <c r="G80" s="256"/>
+      <c r="H80" s="256"/>
+      <c r="I80" s="256"/>
+      <c r="J80" s="280"/>
+      <c r="K80" s="280"/>
+      <c r="L80" s="280"/>
+      <c r="M80" s="280"/>
+      <c r="N80" s="280"/>
+      <c r="O80" s="280"/>
     </row>
     <row r="81" spans="6:15">
-      <c r="F81" s="315"/>
+      <c r="F81" s="314"/>
       <c r="G81" s="69"/>
       <c r="H81" s="69"/>
       <c r="I81" s="69"/>
@@ -22493,7 +22505,7 @@
       <c r="O81" s="69"/>
     </row>
     <row r="82" spans="6:15">
-      <c r="F82" s="315"/>
+      <c r="F82" s="314"/>
       <c r="G82" s="69"/>
       <c r="H82" s="69"/>
       <c r="I82" s="69"/>
@@ -22505,19 +22517,19 @@
       <c r="O82" s="69"/>
     </row>
     <row r="83" spans="6:15">
-      <c r="F83" s="256"/>
-      <c r="G83" s="256"/>
-      <c r="H83" s="256"/>
-      <c r="I83" s="256"/>
-      <c r="J83" s="280"/>
-      <c r="K83" s="280"/>
-      <c r="L83" s="280"/>
-      <c r="M83" s="280"/>
-      <c r="N83" s="280"/>
-      <c r="O83" s="280"/>
+      <c r="F83" s="314"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="69"/>
+      <c r="N83" s="69"/>
+      <c r="O83" s="69"/>
     </row>
     <row r="84" spans="6:15">
-      <c r="F84" s="315"/>
+      <c r="F84" s="314"/>
       <c r="G84" s="69"/>
       <c r="H84" s="69"/>
       <c r="I84" s="69"/>
@@ -22529,55 +22541,55 @@
       <c r="O84" s="69"/>
     </row>
     <row r="85" spans="6:15">
-      <c r="F85" s="315"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="69"/>
-      <c r="K85" s="69"/>
-      <c r="L85" s="69"/>
-      <c r="M85" s="69"/>
-      <c r="N85" s="69"/>
-      <c r="O85" s="69"/>
+      <c r="F85" s="256"/>
+      <c r="G85" s="256"/>
+      <c r="H85" s="256"/>
+      <c r="I85" s="256"/>
+      <c r="J85" s="280"/>
+      <c r="K85" s="280"/>
+      <c r="L85" s="280"/>
+      <c r="M85" s="280"/>
+      <c r="N85" s="280"/>
+      <c r="O85" s="280"/>
     </row>
     <row r="86" spans="6:15">
-      <c r="F86" s="315"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="69"/>
-      <c r="I86" s="69"/>
-      <c r="J86" s="69"/>
-      <c r="K86" s="69"/>
-      <c r="L86" s="69"/>
-      <c r="M86" s="69"/>
-      <c r="N86" s="69"/>
-      <c r="O86" s="69"/>
+      <c r="F86" s="314"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="73"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="73"/>
+      <c r="O86" s="73"/>
     </row>
     <row r="87" spans="6:15">
-      <c r="F87" s="315"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="69"/>
-      <c r="O87" s="69"/>
+      <c r="F87" s="314"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="73"/>
+      <c r="L87" s="73"/>
+      <c r="M87" s="73"/>
+      <c r="N87" s="73"/>
+      <c r="O87" s="73"/>
     </row>
     <row r="88" spans="6:15">
-      <c r="F88" s="256"/>
-      <c r="G88" s="256"/>
-      <c r="H88" s="256"/>
-      <c r="I88" s="256"/>
-      <c r="J88" s="280"/>
-      <c r="K88" s="280"/>
-      <c r="L88" s="280"/>
-      <c r="M88" s="280"/>
-      <c r="N88" s="280"/>
-      <c r="O88" s="280"/>
+      <c r="F88" s="314"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="73"/>
+      <c r="L88" s="73"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="73"/>
+      <c r="O88" s="73"/>
     </row>
     <row r="89" spans="6:15">
-      <c r="F89" s="315"/>
+      <c r="F89" s="314"/>
       <c r="G89" s="73"/>
       <c r="H89" s="73"/>
       <c r="I89" s="73"/>
@@ -22589,7 +22601,7 @@
       <c r="O89" s="73"/>
     </row>
     <row r="90" spans="6:15">
-      <c r="F90" s="315"/>
+      <c r="F90" s="314"/>
       <c r="G90" s="73"/>
       <c r="H90" s="73"/>
       <c r="I90" s="73"/>
@@ -22599,42 +22611,6 @@
       <c r="M90" s="73"/>
       <c r="N90" s="73"/>
       <c r="O90" s="73"/>
-    </row>
-    <row r="91" spans="6:15">
-      <c r="F91" s="315"/>
-      <c r="G91" s="73"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
-      <c r="K91" s="73"/>
-      <c r="L91" s="73"/>
-      <c r="M91" s="73"/>
-      <c r="N91" s="73"/>
-      <c r="O91" s="73"/>
-    </row>
-    <row r="92" spans="6:15">
-      <c r="F92" s="315"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="73"/>
-      <c r="J92" s="73"/>
-      <c r="K92" s="73"/>
-      <c r="L92" s="73"/>
-      <c r="M92" s="73"/>
-      <c r="N92" s="73"/>
-      <c r="O92" s="73"/>
-    </row>
-    <row r="93" spans="6:15">
-      <c r="F93" s="315"/>
-      <c r="G93" s="73"/>
-      <c r="H93" s="73"/>
-      <c r="I93" s="73"/>
-      <c r="J93" s="73"/>
-      <c r="K93" s="73"/>
-      <c r="L93" s="73"/>
-      <c r="M93" s="73"/>
-      <c r="N93" s="73"/>
-      <c r="O93" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -22673,62 +22649,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="347" t="s">
+      <c r="A1" s="349" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
-      <c r="N1" s="347"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
+      <c r="N1" s="349"/>
       <c r="O1" s="295"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="348" t="s">
+      <c r="A2" s="350" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
-      <c r="L2" s="348"/>
-      <c r="M2" s="348"/>
-      <c r="N2" s="348"/>
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="350"/>
+      <c r="I2" s="350"/>
+      <c r="J2" s="350"/>
+      <c r="K2" s="350"/>
+      <c r="L2" s="350"/>
+      <c r="M2" s="350"/>
+      <c r="N2" s="350"/>
       <c r="O2" s="294"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="351" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="349"/>
-      <c r="G3" s="349"/>
-      <c r="H3" s="349" t="s">
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="351"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="351" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="349"/>
-      <c r="J3" s="349"/>
-      <c r="K3" s="349"/>
-      <c r="L3" s="349"/>
-      <c r="M3" s="349"/>
-      <c r="N3" s="349"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="351"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="351"/>
       <c r="O3" s="170" t="s">
         <v>441</v>
       </c>
@@ -22782,7 +22758,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="200" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B5" s="200" t="s">
         <v>668</v>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909" activeTab="7"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">철등록부2018참고!$A$4:$O$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -11061,6 +11060,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
@@ -11077,9 +11079,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14659,8 +14658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20584,8 +20583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909"/>
   </bookViews>
   <sheets>
-    <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
-    <sheet name="관리기준2017" sheetId="2" r:id="rId2"/>
-    <sheet name="기록관리기준표17" sheetId="14" r:id="rId3"/>
+    <sheet name="기록물철등록부_문화예술기념사업" sheetId="17" r:id="rId1"/>
+    <sheet name="분류맵2017" sheetId="1" r:id="rId2"/>
+    <sheet name="관리기준2017" sheetId="2" r:id="rId3"/>
     <sheet name="기록관리기준표(기능명)17" sheetId="15" r:id="rId4"/>
     <sheet name="철등록부2017참고" sheetId="7" r:id="rId5"/>
     <sheet name="분류맵2018" sheetId="4" r:id="rId6"/>
@@ -23,10 +23,10 @@
     <sheet name="기록물등록사항참고" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">관리기준2017!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">관리기준2017!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'기록관리기준표(기능명)17'!$A$1:$O$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">기록관리기준표17!$A$1:$O$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">분류맵2017!$D$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기록물철등록부_문화예술기념사업!$A$4:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">분류맵2017!$D$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">분류맵2018!$C$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">철등록부2017참고!$A$4:$N$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">철등록부2018참고!$A$4:$O$4</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1048">
   <si>
     <t>경기천년소풍(제1회)</t>
   </si>
@@ -4174,9 +4174,6 @@
 해당여부</t>
   </si>
   <si>
-    <t>문화예술</t>
-  </si>
-  <si>
     <t>경기천년소풍(제1회)사업 관련 계획, 계약, 각종 보고 등 기획 및 공중활영, 홍보 등을 포함한 사업 운영 및 관리에 관한 업무</t>
   </si>
   <si>
@@ -4293,70 +4290,6 @@
     <t>경기천년 기록 아카이브사업 관련 계획, 계약, 각종 보고 등 기획 및 경기도를 주제로한 촬영, 작품 대여 등 운영 및 관리에 관한 업무</t>
   </si>
   <si>
-    <t>1431052-e0001450-2017-000016(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000018(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000019(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000020(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000021(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000022(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000023(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000024(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000025(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000026(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000027(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000028(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000029(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000030(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000031(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001450-2017-000032(001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천년경기의목소리공모전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4462,13 +4395,63 @@
   <si>
     <t xml:space="preserve"> (단위과제세부)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(처리과기관코드 : 1431052 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e0001456</t>
+  </si>
+  <si>
+    <t>문화예술기념사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년소풍(제2회)</t>
+  </si>
+  <si>
+    <t>경기 새천년 맞이 사업 '천년의빛,천년파티'</t>
+  </si>
+  <si>
+    <t>천천천 경기천년 기자단</t>
+  </si>
+  <si>
+    <t>G-미디어파사드 페스타</t>
+  </si>
+  <si>
+    <t>경기천년 슬로건&amp;엠블럼 개발</t>
+  </si>
+  <si>
+    <t>경기천년 기획홍보(온.오프라인) 및 SNS 운영</t>
+  </si>
+  <si>
+    <t>경기천년 CF형 홍보영상 제작</t>
+  </si>
+  <si>
+    <t>경기천년 기념 '내가 사랑하는 경기' 영상 제작</t>
+  </si>
+  <si>
+    <t>경기천년 기념사업 기대효과 연구</t>
+  </si>
+  <si>
+    <t>경기천년 타임캡슐 추진방향 연구</t>
+  </si>
+  <si>
+    <t>경기천년사업 과정 아카이브</t>
+  </si>
+  <si>
+    <t>경기천년 기록 아카이브</t>
+  </si>
+  <si>
+    <t>천년경기의 목소리 공모전</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4988,6 +4971,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -5224,7 +5216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -5721,6 +5713,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6019,7 +6039,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6934,6 +6954,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7009,8 +7035,35 @@
     <xf numFmtId="0" fontId="12" fillId="40" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="207">
@@ -7517,1752 +7570,1560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="265" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="135" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="135" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.375" style="211" customWidth="1"/>
-    <col min="8" max="8" width="27" style="219" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="27.375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.5" style="368" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="368" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="368" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="368" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="368" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="368" customWidth="1"/>
+    <col min="7" max="7" width="9" style="368"/>
+    <col min="8" max="9" width="7.5" style="368" customWidth="1"/>
+    <col min="10" max="10" width="11" style="368" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="368" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="368" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="368" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="368"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="59" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="272" t="s">
-        <v>560</v>
-      </c>
-      <c r="B1" s="272" t="s">
-        <v>561</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>554</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>671</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>670</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>625</v>
-      </c>
-      <c r="G1" s="210" t="s">
-        <v>553</v>
-      </c>
-      <c r="H1" s="220" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" thickTop="1">
-      <c r="A2" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B2" s="267" t="s">
-        <v>748</v>
-      </c>
-      <c r="C2" s="135" t="s">
-        <v>673</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>672</v>
-      </c>
-      <c r="E2" s="135" t="s">
-        <v>667</v>
-      </c>
-      <c r="F2" s="135" t="s">
-        <v>624</v>
-      </c>
-      <c r="G2" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="197" t="s">
-        <v>586</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B3" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C3" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F3" s="135" t="s">
-        <v>624</v>
-      </c>
-      <c r="G3" s="212" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="132" t="s">
-        <v>587</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1">
-      <c r="A4" s="268" t="s">
-        <v>747</v>
-      </c>
-      <c r="B4" s="268" t="s">
-        <v>564</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="G4" s="214" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="221" t="s">
-        <v>589</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" s="133" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A5" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B5" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D5" s="133" t="s">
-        <v>669</v>
-      </c>
-      <c r="E5" s="133" t="s">
-        <v>667</v>
-      </c>
-      <c r="F5" s="133" t="s">
-        <v>624</v>
-      </c>
-      <c r="G5" s="213" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="223" t="s">
-        <v>676</v>
-      </c>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
+    <row r="1" spans="1:14" ht="45" customHeight="1">
+      <c r="A1" s="367" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="367"/>
+      <c r="C1" s="367"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
+      <c r="N1" s="367"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1">
+      <c r="A2" s="369" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A3" s="370" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="370" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="371"/>
+      <c r="J3" s="371"/>
+      <c r="K3" s="371"/>
+      <c r="L3" s="371"/>
+      <c r="M3" s="371"/>
+      <c r="N3" s="372"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="193" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="193" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="193" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="193" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="193" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="193" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="193" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="193" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="193" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="193" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="193" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="340" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B5" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C5" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="326" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I5" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="326"/>
+      <c r="M5" s="326"/>
+      <c r="N5" s="373" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B6" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F6" s="135" t="s">
-        <v>626</v>
-      </c>
-      <c r="G6" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="197" t="s">
-        <v>585</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="A6" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C6" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D6" s="326" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="294" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F6" s="326"/>
+      <c r="G6" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I6" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="326"/>
+      <c r="M6" s="326"/>
+      <c r="N6" s="373" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B7" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C7" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F7" s="135" t="s">
-        <v>626</v>
-      </c>
-      <c r="G7" s="211" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="219" t="s">
-        <v>590</v>
-      </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B8" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C8" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F8" s="135" t="s">
-        <v>626</v>
-      </c>
-      <c r="G8" s="211" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="219" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A9" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B9" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C9" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F9" s="133" t="s">
-        <v>626</v>
-      </c>
-      <c r="G9" s="213" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="198" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1">
-      <c r="A10" s="268" t="s">
-        <v>747</v>
-      </c>
-      <c r="B10" s="268" t="s">
-        <v>564</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F10" s="135" t="s">
-        <v>627</v>
-      </c>
-      <c r="G10" s="214" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="197" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1">
-      <c r="A11" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B11" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C11" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="G11" s="211" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="219" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1">
-      <c r="A12" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B12" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C12" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="G12" s="211" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="219" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1">
-      <c r="A13" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B13" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C13" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="G13" s="211" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="219" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="5" customFormat="1">
-      <c r="A14" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B14" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C14" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="G14" s="211" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="219" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A15" s="270" t="s">
-        <v>747</v>
-      </c>
-      <c r="B15" s="270" t="s">
-        <v>564</v>
-      </c>
-      <c r="C15" s="137" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="G15" s="213" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="198"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="266" t="s">
-        <v>747</v>
-      </c>
-      <c r="B16" s="266" t="s">
-        <v>564</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F16" s="136" t="s">
-        <v>614</v>
-      </c>
-      <c r="G16" s="214" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="197" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1">
-      <c r="A17" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B17" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C17" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="G17" s="211" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="219" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A18" s="270" t="s">
-        <v>747</v>
-      </c>
-      <c r="B18" s="270" t="s">
-        <v>564</v>
-      </c>
-      <c r="C18" s="137" t="s">
-        <v>668</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="G18" s="213" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="198" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="14" customFormat="1">
-      <c r="A19" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B19" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C19" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D19" s="135" t="s">
-        <v>669</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F19" s="136" t="s">
-        <v>644</v>
-      </c>
-      <c r="G19" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="197" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1">
-      <c r="A20" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B20" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C20" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="G20" s="211" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="219" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="8" customFormat="1">
-      <c r="A21" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B21" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C21" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="G21" s="211" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="219" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="8" customFormat="1">
-      <c r="A22" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B22" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C22" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="G22" s="211" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="219"/>
-    </row>
-    <row r="23" spans="1:8" s="8" customFormat="1">
-      <c r="A23" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B23" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C23" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="G23" s="211" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="219"/>
-    </row>
-    <row r="24" spans="1:8" s="8" customFormat="1">
-      <c r="A24" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B24" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C24" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="G24" s="211" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="219"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A25" s="270" t="s">
-        <v>747</v>
-      </c>
-      <c r="B25" s="270" t="s">
-        <v>564</v>
-      </c>
-      <c r="C25" s="137" t="s">
-        <v>668</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="G25" s="213" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="223" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="14" customFormat="1">
-      <c r="A26" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B26" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C26" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F26" s="136" t="s">
-        <v>621</v>
-      </c>
-      <c r="G26" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="197" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B27" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C27" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F27" s="136" t="s">
-        <v>622</v>
-      </c>
-      <c r="G27" s="211" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="219" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A28" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B28" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C28" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" s="137" t="s">
-        <v>622</v>
-      </c>
-      <c r="G28" s="213" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="198" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B29" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C29" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F29" s="136" t="s">
-        <v>623</v>
-      </c>
-      <c r="G29" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="197" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B30" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C30" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="G30" s="211" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="219" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B31" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C31" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="G31" s="211" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A32" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B32" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C32" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="G32" s="213" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="198" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B33" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C33" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F33" s="136" t="s">
-        <v>628</v>
-      </c>
-      <c r="G33" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="197" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1">
-      <c r="A34" s="268" t="s">
-        <v>747</v>
-      </c>
-      <c r="B34" s="268" t="s">
-        <v>564</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="G34" s="214" t="s">
-        <v>617</v>
-      </c>
-      <c r="H34" s="221" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="133" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A35" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B35" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C35" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D35" s="133" t="s">
-        <v>669</v>
-      </c>
-      <c r="E35" s="133" t="s">
-        <v>667</v>
-      </c>
-      <c r="F35" s="137" t="s">
-        <v>628</v>
-      </c>
-      <c r="G35" s="213" t="s">
-        <v>618</v>
-      </c>
-      <c r="H35" s="198"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B36" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C36" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F36" s="136" t="s">
-        <v>629</v>
-      </c>
-      <c r="G36" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="197" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B37" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C37" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D37" s="135" t="s">
-        <v>677</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="G37" s="211" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="219" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A38" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B38" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C38" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="G38" s="213" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="223" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B39" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C39" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F39" s="136" t="s">
-        <v>630</v>
-      </c>
-      <c r="G39" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="197" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B40" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C40" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="G40" s="211" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B41" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C41" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="G41" s="211" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="219" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B42" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C42" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="G42" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="219" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A43" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B43" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C43" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="G43" s="213" t="s">
-        <v>603</v>
-      </c>
-      <c r="H43" s="198" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B44" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C44" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F44" s="136" t="s">
-        <v>631</v>
-      </c>
-      <c r="G44" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="197" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B45" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C45" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="G45" s="211" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="219" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B46" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C46" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="G46" s="211" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="219" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A47" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B47" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C47" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="G47" s="213" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="198" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B48" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C48" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F48" s="136" t="s">
-        <v>632</v>
-      </c>
-      <c r="G48" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="197" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B49" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C49" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="G49" s="211" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="219" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A50" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B50" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C50" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="G50" s="213" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="198"/>
-      <c r="I50" s="195"/>
-      <c r="J50" s="201"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B51" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C51" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F51" s="135" t="s">
-        <v>633</v>
-      </c>
-      <c r="G51" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="197" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B52" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C52" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="G52" s="211" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="219" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A53" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B53" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C53" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G53" s="213" t="s">
-        <v>38</v>
-      </c>
-      <c r="H53" s="198" t="s">
-        <v>620</v>
-      </c>
-      <c r="I53" s="195"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B54" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C54" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F54" s="135" t="s">
-        <v>634</v>
-      </c>
-      <c r="G54" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="197" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A55" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B55" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C55" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="G55" s="213" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" s="198" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="14" customFormat="1">
-      <c r="A56" s="269" t="s">
-        <v>747</v>
-      </c>
-      <c r="B56" s="269" t="s">
-        <v>564</v>
-      </c>
-      <c r="C56" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F56" s="136" t="s">
-        <v>635</v>
-      </c>
-      <c r="G56" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="197" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="4" customFormat="1">
-      <c r="A57" s="268" t="s">
-        <v>747</v>
-      </c>
-      <c r="B57" s="268" t="s">
-        <v>564</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="F57" s="136" t="s">
-        <v>635</v>
-      </c>
-      <c r="G57" s="214" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="221" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="133" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A58" s="271" t="s">
-        <v>747</v>
-      </c>
-      <c r="B58" s="271" t="s">
-        <v>564</v>
-      </c>
-      <c r="C58" s="133" t="s">
-        <v>668</v>
-      </c>
-      <c r="D58" s="133" t="s">
-        <v>669</v>
-      </c>
-      <c r="E58" s="133" t="s">
-        <v>667</v>
-      </c>
-      <c r="F58" s="137" t="s">
-        <v>635</v>
-      </c>
-      <c r="G58" s="213" t="s">
-        <v>526</v>
-      </c>
-      <c r="H58" s="222" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B59" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C59" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F59" s="136" t="s">
-        <v>636</v>
-      </c>
-      <c r="G59" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" s="197" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B60" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C60" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="G60" s="211" t="s">
-        <v>346</v>
-      </c>
-      <c r="H60" s="197" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="B61" s="267" t="s">
-        <v>564</v>
-      </c>
-      <c r="C61" s="135" t="s">
-        <v>668</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="G61" s="211" t="s">
-        <v>347</v>
-      </c>
-      <c r="H61" s="197" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A62" s="270" t="s">
-        <v>747</v>
-      </c>
-      <c r="B62" s="270" t="s">
-        <v>564</v>
-      </c>
-      <c r="C62" s="137" t="s">
-        <v>668</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="G62" s="213" t="s">
-        <v>348</v>
-      </c>
-      <c r="H62" s="198" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1">
-      <c r="A63" s="266" t="s">
-        <v>747</v>
-      </c>
-      <c r="B63" s="266" t="s">
-        <v>564</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G63" s="215" t="s">
-        <v>340</v>
-      </c>
-      <c r="H63" s="197" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1">
-      <c r="A64" s="266" t="s">
-        <v>747</v>
-      </c>
-      <c r="B64" s="266" t="s">
-        <v>564</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G64" s="216" t="s">
-        <v>337</v>
-      </c>
-      <c r="H64" s="221" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="1" customFormat="1">
-      <c r="A65" s="266" t="s">
-        <v>747</v>
-      </c>
-      <c r="B65" s="266" t="s">
-        <v>564</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G65" s="216" t="s">
-        <v>338</v>
-      </c>
-      <c r="H65" s="221" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A66" s="270" t="s">
-        <v>747</v>
-      </c>
-      <c r="B66" s="270" t="s">
-        <v>564</v>
-      </c>
-      <c r="C66" s="137" t="s">
-        <v>668</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="G66" s="217" t="s">
-        <v>339</v>
-      </c>
-      <c r="H66" s="198" t="s">
-        <v>350</v>
+      <c r="A7" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C7" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="326" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="294" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="326"/>
+      <c r="G7" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I7" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="326"/>
+      <c r="M7" s="326"/>
+      <c r="N7" s="373" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24">
+      <c r="A8" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C8" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D8" s="326" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="294" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="326"/>
+      <c r="G8" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I8" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="326"/>
+      <c r="M8" s="326"/>
+      <c r="N8" s="373" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C9" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="326" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="294" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="326"/>
+      <c r="G9" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I9" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="326"/>
+      <c r="M9" s="326"/>
+      <c r="N9" s="373" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B10" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C10" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="326" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="294" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F10" s="326"/>
+      <c r="G10" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I10" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="326"/>
+      <c r="M10" s="326"/>
+      <c r="N10" s="373" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B11" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C11" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D11" s="326" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="294" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F11" s="326"/>
+      <c r="G11" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I11" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="326"/>
+      <c r="M11" s="326"/>
+      <c r="N11" s="373" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B12" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C12" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="326" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="294" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F12" s="326"/>
+      <c r="G12" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I12" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="326"/>
+      <c r="M12" s="326"/>
+      <c r="N12" s="373" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B13" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C13" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="326" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="294" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F13" s="326"/>
+      <c r="G13" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I13" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="326"/>
+      <c r="M13" s="326"/>
+      <c r="N13" s="373" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24">
+      <c r="A14" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B14" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C14" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="326" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="294" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F14" s="326"/>
+      <c r="G14" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I14" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="326"/>
+      <c r="M14" s="326"/>
+      <c r="N14" s="373" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B15" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C15" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D15" s="326" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="294" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F15" s="326"/>
+      <c r="G15" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I15" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="326"/>
+      <c r="M15" s="326"/>
+      <c r="N15" s="373" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24">
+      <c r="A16" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B16" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C16" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="326" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="294" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F16" s="326"/>
+      <c r="G16" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I16" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="326"/>
+      <c r="M16" s="326"/>
+      <c r="N16" s="373" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B17" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C17" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="326" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="294" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F17" s="326"/>
+      <c r="G17" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I17" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="326"/>
+      <c r="M17" s="326"/>
+      <c r="N17" s="373" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B18" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C18" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D18" s="326" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="294" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F18" s="326"/>
+      <c r="G18" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I18" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="326"/>
+      <c r="M18" s="326"/>
+      <c r="N18" s="373" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B19" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C19" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="326" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="294" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F19" s="326"/>
+      <c r="G19" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I19" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="326"/>
+      <c r="M19" s="326"/>
+      <c r="N19" s="373" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B20" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C20" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D20" s="326" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="294" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="326"/>
+      <c r="G20" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I20" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="326"/>
+      <c r="M20" s="326"/>
+      <c r="N20" s="373" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B21" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C21" s="326">
+        <v>2017</v>
+      </c>
+      <c r="D21" s="326" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="294" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F21" s="326"/>
+      <c r="G21" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="326">
+        <v>2017</v>
+      </c>
+      <c r="I21" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="326"/>
+      <c r="M21" s="326"/>
+      <c r="N21" s="373" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B22" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C22" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="326" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="294" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F22" s="326"/>
+      <c r="G22" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I22" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="326"/>
+      <c r="M22" s="326" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="373" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B23" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C23" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D23" s="326" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="294" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="326"/>
+      <c r="G23" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I23" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="326"/>
+      <c r="M23" s="326" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="373" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B24" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C24" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="326" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="294" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="326"/>
+      <c r="G24" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I24" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="326"/>
+      <c r="M24" s="326" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="373" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B25" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C25" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="326" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="294" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="326"/>
+      <c r="G25" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I25" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="326"/>
+      <c r="M25" s="326" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="373" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B26" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C26" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D26" s="326" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="294" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="326"/>
+      <c r="G26" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I26" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="326"/>
+      <c r="M26" s="326" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="373" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B27" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C27" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="326" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="294" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="326"/>
+      <c r="G27" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I27" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="326"/>
+      <c r="M27" s="326"/>
+      <c r="N27" s="373" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B28" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C28" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="326" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="294" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="326"/>
+      <c r="G28" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I28" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="326"/>
+      <c r="M28" s="326"/>
+      <c r="N28" s="373" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B29" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C29" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="326" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="294" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="326"/>
+      <c r="G29" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I29" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="326"/>
+      <c r="M29" s="326"/>
+      <c r="N29" s="373" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B30" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C30" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D30" s="326" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="294" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="326"/>
+      <c r="G30" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I30" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="326"/>
+      <c r="M30" s="326"/>
+      <c r="N30" s="373" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B31" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C31" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D31" s="326" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="294" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="326"/>
+      <c r="G31" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I31" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="326"/>
+      <c r="M31" s="326"/>
+      <c r="N31" s="373" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B32" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C32" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D32" s="326" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="294" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="326"/>
+      <c r="G32" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I32" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="326"/>
+      <c r="M32" s="326"/>
+      <c r="N32" s="373" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B33" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C33" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D33" s="326" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="294" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="326"/>
+      <c r="G33" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I33" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="326"/>
+      <c r="M33" s="326"/>
+      <c r="N33" s="373" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B34" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C34" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D34" s="326" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="294" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="326"/>
+      <c r="G34" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I34" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="326"/>
+      <c r="M34" s="326"/>
+      <c r="N34" s="373" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C35" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D35" s="326" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="294" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="326"/>
+      <c r="G35" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I35" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="326"/>
+      <c r="M35" s="326"/>
+      <c r="N35" s="373" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B36" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C36" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D36" s="326" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="294" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="326"/>
+      <c r="G36" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I36" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="326"/>
+      <c r="M36" s="326"/>
+      <c r="N36" s="373" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B37" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C37" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D37" s="326" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="294" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="326"/>
+      <c r="G37" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I37" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" s="326"/>
+      <c r="M37" s="326"/>
+      <c r="N37" s="373" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B38" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C38" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D38" s="326" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="294" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="326"/>
+      <c r="G38" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I38" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="326"/>
+      <c r="M38" s="326"/>
+      <c r="N38" s="373" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B39" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C39" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D39" s="326" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="294" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="326"/>
+      <c r="G39" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I39" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="326"/>
+      <c r="M39" s="326"/>
+      <c r="N39" s="373" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="326" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B40" s="326" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C40" s="326">
+        <v>2018</v>
+      </c>
+      <c r="D40" s="326" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="294" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="326"/>
+      <c r="G40" s="326" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="326">
+        <v>2018</v>
+      </c>
+      <c r="I40" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="326" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40" s="326" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="326"/>
+      <c r="M40" s="326"/>
+      <c r="N40" s="373" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="374" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B41" s="374" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C41" s="374">
+        <v>2018</v>
+      </c>
+      <c r="D41" s="374" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="375" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="374"/>
+      <c r="G41" s="374" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="374">
+        <v>2018</v>
+      </c>
+      <c r="I41" s="374" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="374" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="374" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="374"/>
+      <c r="M41" s="374"/>
+      <c r="N41" s="376" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:H1"/>
+  <autoFilter ref="A4:N4">
+    <filterColumn colId="1"/>
+    <sortState ref="A5:N41">
+      <sortCondition ref="C4"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="4">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:N3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="75" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -9289,34 +9150,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="350" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="348" t="s">
+      <c r="B1" s="350" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="348" t="s">
+      <c r="C1" s="350" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="350" t="s">
+      <c r="D1" s="352" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="350"/>
-      <c r="F1" s="348" t="s">
+      <c r="E1" s="352"/>
+      <c r="F1" s="350" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="349"/>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
+      <c r="A2" s="351"/>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
       <c r="D2" s="98" t="s">
         <v>180</v>
       </c>
       <c r="E2" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="349"/>
+      <c r="F2" s="351"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="99" t="s">
@@ -9577,10 +9438,10 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="352" t="s">
+      <c r="B3" s="354" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="352"/>
+      <c r="C3" s="354"/>
       <c r="D3" s="93" t="s">
         <v>324</v>
       </c>
@@ -9598,10 +9459,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="353" t="s">
+      <c r="B4" s="355" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="354"/>
+      <c r="C4" s="356"/>
       <c r="D4" s="96" t="s">
         <v>323</v>
       </c>
@@ -9619,7 +9480,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="355" t="s">
+      <c r="B5" s="357" t="s">
         <v>320</v>
       </c>
       <c r="C5" s="113" t="s">
@@ -9640,7 +9501,7 @@
       <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="356"/>
+      <c r="B6" s="358"/>
       <c r="C6" s="113" t="s">
         <v>327</v>
       </c>
@@ -9679,10 +9540,10 @@
       <c r="H8" s="122"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="352" t="s">
+      <c r="B10" s="354" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="352"/>
+      <c r="C10" s="354"/>
       <c r="D10" s="93" t="s">
         <v>312</v>
       </c>
@@ -9700,10 +9561,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="351" t="s">
+      <c r="B11" s="353" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="351"/>
+      <c r="C11" s="353"/>
       <c r="D11" s="82" t="s">
         <v>306</v>
       </c>
@@ -9721,10 +9582,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="351" t="s">
+      <c r="B12" s="353" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="351"/>
+      <c r="C12" s="353"/>
       <c r="D12" s="82" t="s">
         <v>304</v>
       </c>
@@ -9742,10 +9603,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="351" t="s">
+      <c r="B13" s="353" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="351"/>
+      <c r="C13" s="353"/>
       <c r="D13" s="82" t="s">
         <v>300</v>
       </c>
@@ -9761,10 +9622,10 @@
       <c r="H13" s="116"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="351" t="s">
+      <c r="B14" s="353" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="351"/>
+      <c r="C14" s="353"/>
       <c r="D14" s="82" t="s">
         <v>298</v>
       </c>
@@ -9782,10 +9643,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="351" t="s">
+      <c r="B15" s="353" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="351"/>
+      <c r="C15" s="353"/>
       <c r="D15" s="92"/>
       <c r="E15" s="91" t="s">
         <v>295</v>
@@ -9799,10 +9660,10 @@
       <c r="H15" s="114"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="351" t="s">
+      <c r="B16" s="353" t="s">
         <v>293</v>
       </c>
-      <c r="C16" s="351"/>
+      <c r="C16" s="353"/>
       <c r="D16" s="82" t="s">
         <v>328</v>
       </c>
@@ -10784,7 +10645,7 @@
       <c r="G16" s="156"/>
       <c r="H16" s="156"/>
       <c r="I16" s="156" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
@@ -10878,7 +10739,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="357" t="s">
+      <c r="A1" s="359" t="s">
         <v>486</v>
       </c>
       <c r="B1" s="193" t="s">
@@ -10887,22 +10748,22 @@
       <c r="C1" s="193" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="357" t="s">
+      <c r="D1" s="359" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="357" t="s">
+      <c r="E1" s="359" t="s">
         <v>489</v>
       </c>
-      <c r="F1" s="357" t="s">
+      <c r="F1" s="359" t="s">
         <v>490</v>
       </c>
-      <c r="G1" s="357" t="s">
+      <c r="G1" s="359" t="s">
         <v>491</v>
       </c>
       <c r="H1" s="193" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="357" t="s">
+      <c r="I1" s="359" t="s">
         <v>493</v>
       </c>
       <c r="J1" s="193" t="s">
@@ -10914,53 +10775,53 @@
       <c r="L1" s="193" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="357" t="s">
+      <c r="M1" s="359" t="s">
         <v>497</v>
       </c>
-      <c r="N1" s="357" t="s">
+      <c r="N1" s="359" t="s">
         <v>475</v>
       </c>
-      <c r="O1" s="357" t="s">
+      <c r="O1" s="359" t="s">
         <v>498</v>
       </c>
-      <c r="P1" s="357" t="s">
+      <c r="P1" s="359" t="s">
         <v>499</v>
       </c>
       <c r="Q1" s="193" t="s">
         <v>500</v>
       </c>
-      <c r="R1" s="357" t="s">
+      <c r="R1" s="359" t="s">
         <v>501</v>
       </c>
-      <c r="S1" s="357" t="s">
+      <c r="S1" s="359" t="s">
         <v>502</v>
       </c>
-      <c r="T1" s="357" t="s">
+      <c r="T1" s="359" t="s">
         <v>503</v>
       </c>
-      <c r="U1" s="357" t="s">
+      <c r="U1" s="359" t="s">
         <v>504</v>
       </c>
-      <c r="V1" s="357" t="s">
+      <c r="V1" s="359" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="358"/>
+      <c r="A2" s="360"/>
       <c r="B2" s="194" t="s">
         <v>505</v>
       </c>
       <c r="C2" s="194" t="s">
         <v>506</v>
       </c>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
       <c r="H2" s="194" t="s">
         <v>507</v>
       </c>
-      <c r="I2" s="358"/>
+      <c r="I2" s="360"/>
       <c r="J2" s="194" t="s">
         <v>508</v>
       </c>
@@ -10970,77 +10831,80 @@
       <c r="L2" s="194" t="s">
         <v>506</v>
       </c>
-      <c r="M2" s="358"/>
-      <c r="N2" s="358"/>
-      <c r="O2" s="358"/>
-      <c r="P2" s="358"/>
+      <c r="M2" s="360"/>
+      <c r="N2" s="360"/>
+      <c r="O2" s="360"/>
+      <c r="P2" s="360"/>
       <c r="Q2" s="194" t="s">
         <v>510</v>
       </c>
-      <c r="R2" s="358"/>
-      <c r="S2" s="358"/>
-      <c r="T2" s="358"/>
-      <c r="U2" s="358"/>
-      <c r="V2" s="358"/>
+      <c r="R2" s="360"/>
+      <c r="S2" s="360"/>
+      <c r="T2" s="360"/>
+      <c r="U2" s="360"/>
+      <c r="V2" s="360"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="361" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
-      <c r="I3" s="360"/>
-      <c r="J3" s="360"/>
-      <c r="K3" s="360"/>
-      <c r="L3" s="360"/>
-      <c r="M3" s="361"/>
-      <c r="N3" s="359" t="s">
+      <c r="B3" s="362"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+      <c r="H3" s="362"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="362"/>
+      <c r="K3" s="362"/>
+      <c r="L3" s="362"/>
+      <c r="M3" s="363"/>
+      <c r="N3" s="361" t="s">
         <v>512</v>
       </c>
-      <c r="O3" s="360"/>
-      <c r="P3" s="360"/>
-      <c r="Q3" s="360"/>
-      <c r="R3" s="360"/>
-      <c r="S3" s="360"/>
-      <c r="T3" s="361"/>
-      <c r="U3" s="359" t="s">
+      <c r="O3" s="362"/>
+      <c r="P3" s="362"/>
+      <c r="Q3" s="362"/>
+      <c r="R3" s="362"/>
+      <c r="S3" s="362"/>
+      <c r="T3" s="363"/>
+      <c r="U3" s="361" t="s">
         <v>513</v>
       </c>
-      <c r="V3" s="361"/>
+      <c r="V3" s="363"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="362"/>
-      <c r="B4" s="363"/>
-      <c r="C4" s="363"/>
-      <c r="D4" s="363"/>
-      <c r="E4" s="363"/>
-      <c r="F4" s="363"/>
-      <c r="G4" s="363"/>
-      <c r="H4" s="363"/>
-      <c r="I4" s="363"/>
-      <c r="J4" s="363"/>
-      <c r="K4" s="363"/>
-      <c r="L4" s="363"/>
-      <c r="M4" s="364"/>
-      <c r="N4" s="362"/>
-      <c r="O4" s="363"/>
-      <c r="P4" s="363"/>
-      <c r="Q4" s="363"/>
-      <c r="R4" s="363"/>
-      <c r="S4" s="363"/>
-      <c r="T4" s="364"/>
-      <c r="U4" s="362" t="s">
+      <c r="A4" s="364"/>
+      <c r="B4" s="365"/>
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
+      <c r="I4" s="365"/>
+      <c r="J4" s="365"/>
+      <c r="K4" s="365"/>
+      <c r="L4" s="365"/>
+      <c r="M4" s="366"/>
+      <c r="N4" s="364"/>
+      <c r="O4" s="365"/>
+      <c r="P4" s="365"/>
+      <c r="Q4" s="365"/>
+      <c r="R4" s="365"/>
+      <c r="S4" s="365"/>
+      <c r="T4" s="366"/>
+      <c r="U4" s="364" t="s">
         <v>514</v>
       </c>
-      <c r="V4" s="364"/>
+      <c r="V4" s="366"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
@@ -11057,9 +10921,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11068,6 +10929,1757 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N66"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:N1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="265" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="135" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="135" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.375" style="211" customWidth="1"/>
+    <col min="8" max="8" width="27" style="219" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="27.375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="59" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A1" s="272" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" s="272" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>670</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="G1" s="210" t="s">
+        <v>553</v>
+      </c>
+      <c r="H1" s="220" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.25" thickTop="1">
+      <c r="A2" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B2" s="267" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" s="135" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2" s="135" t="s">
+        <v>667</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>624</v>
+      </c>
+      <c r="G2" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="197" t="s">
+        <v>586</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F3" s="135" t="s">
+        <v>624</v>
+      </c>
+      <c r="G3" s="212" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>587</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1">
+      <c r="A4" s="268" t="s">
+        <v>747</v>
+      </c>
+      <c r="B4" s="268" t="s">
+        <v>564</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G4" s="214" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="221" t="s">
+        <v>589</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" s="133" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A5" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>669</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>667</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>624</v>
+      </c>
+      <c r="G5" s="213" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="223" t="s">
+        <v>676</v>
+      </c>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B6" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F6" s="135" t="s">
+        <v>626</v>
+      </c>
+      <c r="G6" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="197" t="s">
+        <v>585</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B7" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C7" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>626</v>
+      </c>
+      <c r="G7" s="211" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="219" t="s">
+        <v>590</v>
+      </c>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B8" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F8" s="135" t="s">
+        <v>626</v>
+      </c>
+      <c r="G8" s="211" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="219" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A9" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B9" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F9" s="133" t="s">
+        <v>626</v>
+      </c>
+      <c r="G9" s="213" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="198" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1">
+      <c r="A10" s="268" t="s">
+        <v>747</v>
+      </c>
+      <c r="B10" s="268" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F10" s="135" t="s">
+        <v>627</v>
+      </c>
+      <c r="G10" s="214" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="197" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1">
+      <c r="A11" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B11" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G11" s="211" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="219" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1">
+      <c r="A12" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B12" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C12" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G12" s="211" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="219" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1">
+      <c r="A13" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B13" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G13" s="211" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="219" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="5" customFormat="1">
+      <c r="A14" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B14" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G14" s="211" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="219" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A15" s="270" t="s">
+        <v>747</v>
+      </c>
+      <c r="B15" s="270" t="s">
+        <v>564</v>
+      </c>
+      <c r="C15" s="137" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G15" s="213" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="198"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1">
+      <c r="A16" s="266" t="s">
+        <v>747</v>
+      </c>
+      <c r="B16" s="266" t="s">
+        <v>564</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F16" s="136" t="s">
+        <v>614</v>
+      </c>
+      <c r="G16" s="214" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="197" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1">
+      <c r="A17" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B17" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C17" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="G17" s="211" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="219" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A18" s="270" t="s">
+        <v>747</v>
+      </c>
+      <c r="B18" s="270" t="s">
+        <v>564</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>668</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G18" s="213" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="198" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="14" customFormat="1">
+      <c r="A19" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B19" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C19" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D19" s="135" t="s">
+        <v>669</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F19" s="136" t="s">
+        <v>644</v>
+      </c>
+      <c r="G19" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="197" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1">
+      <c r="A20" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B20" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C20" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G20" s="211" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="219" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1">
+      <c r="A21" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B21" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C21" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G21" s="211" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="219" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1">
+      <c r="A22" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B22" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C22" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G22" s="211" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="219"/>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1">
+      <c r="A23" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B23" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C23" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G23" s="211" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="219"/>
+    </row>
+    <row r="24" spans="1:8" s="8" customFormat="1">
+      <c r="A24" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B24" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C24" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G24" s="211" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="219"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A25" s="270" t="s">
+        <v>747</v>
+      </c>
+      <c r="B25" s="270" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" s="137" t="s">
+        <v>668</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G25" s="213" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="223" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="14" customFormat="1">
+      <c r="A26" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B26" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C26" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F26" s="136" t="s">
+        <v>621</v>
+      </c>
+      <c r="G26" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="197" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B27" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C27" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F27" s="136" t="s">
+        <v>622</v>
+      </c>
+      <c r="G27" s="211" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="219" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A28" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B28" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C28" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="137" t="s">
+        <v>622</v>
+      </c>
+      <c r="G28" s="213" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="198" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B29" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C29" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F29" s="136" t="s">
+        <v>623</v>
+      </c>
+      <c r="G29" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="197" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B30" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C30" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="G30" s="211" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="219" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B31" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C31" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="G31" s="211" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A32" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B32" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C32" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="G32" s="213" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="198" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B33" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C33" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F33" s="136" t="s">
+        <v>628</v>
+      </c>
+      <c r="G33" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="197" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1">
+      <c r="A34" s="268" t="s">
+        <v>747</v>
+      </c>
+      <c r="B34" s="268" t="s">
+        <v>564</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G34" s="214" t="s">
+        <v>617</v>
+      </c>
+      <c r="H34" s="221" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="133" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A35" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B35" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C35" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D35" s="133" t="s">
+        <v>669</v>
+      </c>
+      <c r="E35" s="133" t="s">
+        <v>667</v>
+      </c>
+      <c r="F35" s="137" t="s">
+        <v>628</v>
+      </c>
+      <c r="G35" s="213" t="s">
+        <v>618</v>
+      </c>
+      <c r="H35" s="198"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B36" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C36" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F36" s="136" t="s">
+        <v>629</v>
+      </c>
+      <c r="G36" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="197" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B37" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C37" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D37" s="135" t="s">
+        <v>677</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="G37" s="211" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="219" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A38" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B38" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C38" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G38" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="223" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B39" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C39" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F39" s="136" t="s">
+        <v>630</v>
+      </c>
+      <c r="G39" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="197" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B40" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C40" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="G40" s="211" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B41" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C41" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="G41" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="219" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B42" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C42" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="G42" s="211" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="219" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A43" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B43" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C43" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="G43" s="213" t="s">
+        <v>603</v>
+      </c>
+      <c r="H43" s="198" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B44" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C44" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F44" s="136" t="s">
+        <v>631</v>
+      </c>
+      <c r="G44" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="197" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B45" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C45" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="G45" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="219" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B46" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C46" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="G46" s="211" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="219" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A47" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B47" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C47" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G47" s="213" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="198" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B48" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C48" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F48" s="136" t="s">
+        <v>632</v>
+      </c>
+      <c r="G48" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="197" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B49" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C49" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="G49" s="211" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="219" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A50" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B50" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C50" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="G50" s="213" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="198"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="201"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B51" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C51" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F51" s="135" t="s">
+        <v>633</v>
+      </c>
+      <c r="G51" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="197" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B52" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C52" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G52" s="211" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="219" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A53" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B53" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C53" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G53" s="213" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="198" t="s">
+        <v>620</v>
+      </c>
+      <c r="I53" s="195"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B54" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C54" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F54" s="135" t="s">
+        <v>634</v>
+      </c>
+      <c r="G54" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="197" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="7" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A55" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B55" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C55" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G55" s="213" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="198" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="14" customFormat="1">
+      <c r="A56" s="269" t="s">
+        <v>747</v>
+      </c>
+      <c r="B56" s="269" t="s">
+        <v>564</v>
+      </c>
+      <c r="C56" s="136" t="s">
+        <v>668</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F56" s="136" t="s">
+        <v>635</v>
+      </c>
+      <c r="G56" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="197" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="4" customFormat="1">
+      <c r="A57" s="268" t="s">
+        <v>747</v>
+      </c>
+      <c r="B57" s="268" t="s">
+        <v>564</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="F57" s="136" t="s">
+        <v>635</v>
+      </c>
+      <c r="G57" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="221" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="133" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A58" s="271" t="s">
+        <v>747</v>
+      </c>
+      <c r="B58" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="C58" s="133" t="s">
+        <v>668</v>
+      </c>
+      <c r="D58" s="133" t="s">
+        <v>669</v>
+      </c>
+      <c r="E58" s="133" t="s">
+        <v>667</v>
+      </c>
+      <c r="F58" s="137" t="s">
+        <v>635</v>
+      </c>
+      <c r="G58" s="213" t="s">
+        <v>526</v>
+      </c>
+      <c r="H58" s="222" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B59" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C59" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F59" s="136" t="s">
+        <v>636</v>
+      </c>
+      <c r="G59" s="211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="197" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B60" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C60" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="G60" s="211" t="s">
+        <v>346</v>
+      </c>
+      <c r="H60" s="197" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="267" t="s">
+        <v>747</v>
+      </c>
+      <c r="B61" s="267" t="s">
+        <v>564</v>
+      </c>
+      <c r="C61" s="135" t="s">
+        <v>668</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="G61" s="211" t="s">
+        <v>347</v>
+      </c>
+      <c r="H61" s="197" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A62" s="270" t="s">
+        <v>747</v>
+      </c>
+      <c r="B62" s="270" t="s">
+        <v>564</v>
+      </c>
+      <c r="C62" s="137" t="s">
+        <v>668</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G62" s="213" t="s">
+        <v>348</v>
+      </c>
+      <c r="H62" s="198" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1">
+      <c r="A63" s="266" t="s">
+        <v>747</v>
+      </c>
+      <c r="B63" s="266" t="s">
+        <v>564</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G63" s="215" t="s">
+        <v>340</v>
+      </c>
+      <c r="H63" s="197" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1">
+      <c r="A64" s="266" t="s">
+        <v>747</v>
+      </c>
+      <c r="B64" s="266" t="s">
+        <v>564</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G64" s="216" t="s">
+        <v>337</v>
+      </c>
+      <c r="H64" s="221" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="1" customFormat="1">
+      <c r="A65" s="266" t="s">
+        <v>747</v>
+      </c>
+      <c r="B65" s="266" t="s">
+        <v>564</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G65" s="216" t="s">
+        <v>338</v>
+      </c>
+      <c r="H65" s="221" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A66" s="270" t="s">
+        <v>747</v>
+      </c>
+      <c r="B66" s="270" t="s">
+        <v>564</v>
+      </c>
+      <c r="C66" s="137" t="s">
+        <v>668</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="G66" s="217" t="s">
+        <v>339</v>
+      </c>
+      <c r="H66" s="198" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:H1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -13756,885 +15368,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.5" customWidth="1"/>
-    <col min="7" max="7" width="36.125" customWidth="1"/>
-    <col min="9" max="9" width="60.625" customWidth="1"/>
-    <col min="11" max="11" width="21.375" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="35.25" thickBot="1">
-      <c r="A1" s="330" t="s">
-        <v>749</v>
-      </c>
-      <c r="B1" s="330" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="330" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="330" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="330" t="s">
-        <v>234</v>
-      </c>
-      <c r="F1" s="330" t="s">
-        <v>976</v>
-      </c>
-      <c r="G1" s="332" t="s">
-        <v>475</v>
-      </c>
-      <c r="H1" s="332" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="333" t="s">
-        <v>977</v>
-      </c>
-      <c r="J1" s="330" t="s">
-        <v>499</v>
-      </c>
-      <c r="K1" s="330" t="s">
-        <v>978</v>
-      </c>
-      <c r="L1" s="330" t="s">
-        <v>979</v>
-      </c>
-      <c r="M1" s="330" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="330" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="329" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="27">
-      <c r="A2" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B2" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C2" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D2" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="336" t="s">
-        <v>678</v>
-      </c>
-      <c r="F2" s="334" t="s">
-        <v>982</v>
-      </c>
-      <c r="G2" s="335" t="s">
-        <v>942</v>
-      </c>
-      <c r="H2" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I2" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J2" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K2" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L2" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M2" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N2" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O2" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="27">
-      <c r="A3" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C3" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D3" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="336" t="s">
-        <v>679</v>
-      </c>
-      <c r="F3" s="334" t="s">
-        <v>989</v>
-      </c>
-      <c r="G3" s="335" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H3" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I3" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J3" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K3" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L3" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M3" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N3" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O3" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="27">
-      <c r="A4" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C4" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D4" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="336" t="s">
-        <v>680</v>
-      </c>
-      <c r="F4" s="335" t="s">
-        <v>990</v>
-      </c>
-      <c r="G4" s="335" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H4" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I4" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J4" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K4" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L4" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M4" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N4" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O4" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="27">
-      <c r="A5" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B5" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C5" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D5" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="327" t="s">
-        <v>683</v>
-      </c>
-      <c r="F5" s="335" t="s">
-        <v>991</v>
-      </c>
-      <c r="G5" s="335" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H5" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I5" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J5" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K5" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L5" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M5" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N5" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O5" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="27">
-      <c r="A6" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B6" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C6" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D6" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="327" t="s">
-        <v>681</v>
-      </c>
-      <c r="F6" s="335" t="s">
-        <v>992</v>
-      </c>
-      <c r="G6" s="335" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H6" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I6" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J6" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K6" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L6" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M6" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N6" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O6" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="40.5">
-      <c r="A7" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B7" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C7" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D7" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="327" t="s">
-        <v>682</v>
-      </c>
-      <c r="F7" s="335" t="s">
-        <v>993</v>
-      </c>
-      <c r="G7" s="335" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H7" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I7" s="335" t="s">
-        <v>994</v>
-      </c>
-      <c r="J7" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K7" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L7" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M7" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N7" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O7" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="27">
-      <c r="A8" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C8" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D8" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="327" t="s">
-        <v>684</v>
-      </c>
-      <c r="F8" s="335" t="s">
-        <v>995</v>
-      </c>
-      <c r="G8" s="335" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H8" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I8" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J8" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K8" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L8" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M8" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N8" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O8" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="27">
-      <c r="A9" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C9" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D9" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="327" t="s">
-        <v>687</v>
-      </c>
-      <c r="F9" s="328" t="s">
-        <v>996</v>
-      </c>
-      <c r="G9" s="335" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H9" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I9" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J9" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K9" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L9" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M9" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N9" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O9" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="27">
-      <c r="A10" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B10" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C10" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D10" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="327" t="s">
-        <v>689</v>
-      </c>
-      <c r="F10" s="328" t="s">
-        <v>997</v>
-      </c>
-      <c r="G10" s="335" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H10" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I10" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J10" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K10" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L10" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M10" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N10" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O10" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="27">
-      <c r="A11" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B11" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C11" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D11" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="327" t="s">
-        <v>688</v>
-      </c>
-      <c r="F11" s="328" t="s">
-        <v>998</v>
-      </c>
-      <c r="G11" s="335" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H11" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I11" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J11" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K11" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L11" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M11" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N11" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O11" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="27">
-      <c r="A12" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B12" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C12" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D12" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="327" t="s">
-        <v>690</v>
-      </c>
-      <c r="F12" s="328" t="s">
-        <v>999</v>
-      </c>
-      <c r="G12" s="335" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H12" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I12" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J12" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K12" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L12" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M12" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N12" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O12" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27">
-      <c r="A13" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B13" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C13" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D13" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="336" t="s">
-        <v>691</v>
-      </c>
-      <c r="F13" s="328" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="335" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H13" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I13" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J13" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K13" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L13" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M13" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N13" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O13" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="27">
-      <c r="A14" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B14" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C14" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D14" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="336" t="s">
-        <v>692</v>
-      </c>
-      <c r="F14" s="328" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G14" s="335" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H14" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I14" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J14" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K14" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L14" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M14" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N14" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O14" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="27">
-      <c r="A15" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B15" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C15" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D15" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="327" t="s">
-        <v>693</v>
-      </c>
-      <c r="F15" s="328" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G15" s="335" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H15" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I15" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J15" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K15" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L15" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M15" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N15" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O15" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="27">
-      <c r="A16" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="336" t="s">
-        <v>981</v>
-      </c>
-      <c r="C16" s="336" t="s">
-        <v>570</v>
-      </c>
-      <c r="D16" s="336" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="327" t="s">
-        <v>694</v>
-      </c>
-      <c r="F16" s="328" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G16" s="335" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H16" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I16" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J16" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K16" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L16" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M16" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N16" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O16" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="27">
-      <c r="A17" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B17" s="337" t="s">
-        <v>981</v>
-      </c>
-      <c r="C17" s="337" t="s">
-        <v>570</v>
-      </c>
-      <c r="D17" s="337" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="327" t="s">
-        <v>685</v>
-      </c>
-      <c r="F17" s="328" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G17" s="335" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H17" s="331" t="s">
-        <v>983</v>
-      </c>
-      <c r="I17" s="328" t="s">
-        <v>984</v>
-      </c>
-      <c r="J17" s="331" t="s">
-        <v>985</v>
-      </c>
-      <c r="K17" s="331" t="s">
-        <v>471</v>
-      </c>
-      <c r="L17" s="337" t="s">
-        <v>461</v>
-      </c>
-      <c r="M17" s="337" t="s">
-        <v>986</v>
-      </c>
-      <c r="N17" s="337" t="s">
-        <v>987</v>
-      </c>
-      <c r="O17" s="337" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="27">
-      <c r="A18" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="B18" s="327" t="s">
-        <v>981</v>
-      </c>
-      <c r="C18" s="327" t="s">
-        <v>570</v>
-      </c>
-      <c r="D18" s="327" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="327" t="s">
-        <v>695</v>
-      </c>
-      <c r="F18" s="328" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G18" s="335" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H18" s="335" t="s">
-        <v>983</v>
-      </c>
-      <c r="I18" s="335" t="s">
-        <v>984</v>
-      </c>
-      <c r="J18" s="336" t="s">
-        <v>985</v>
-      </c>
-      <c r="K18" s="336" t="s">
-        <v>471</v>
-      </c>
-      <c r="L18" s="336" t="s">
-        <v>461</v>
-      </c>
-      <c r="M18" s="336" t="s">
-        <v>986</v>
-      </c>
-      <c r="N18" s="336" t="s">
-        <v>987</v>
-      </c>
-      <c r="O18" s="336" t="s">
-        <v>988</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:O18">
-    <sortState ref="A2:O18">
-      <sortCondition ref="G1:G18"/>
-    </sortState>
-  </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
@@ -14722,19 +15455,19 @@
         <v>678</v>
       </c>
       <c r="F2" s="334" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G2" s="335" t="s">
         <v>942</v>
       </c>
       <c r="H2" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I2" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I2" s="335" t="s">
+      <c r="J2" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J2" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K2" s="336" t="s">
         <v>471</v>
@@ -14743,13 +15476,13 @@
         <v>461</v>
       </c>
       <c r="M2" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N2" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N2" s="336" t="s">
+      <c r="O2" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O2" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5">
@@ -14769,19 +15502,19 @@
         <v>679</v>
       </c>
       <c r="F3" s="334" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G3" s="335" t="s">
         <v>944</v>
       </c>
       <c r="H3" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I3" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I3" s="335" t="s">
+      <c r="J3" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J3" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K3" s="336" t="s">
         <v>471</v>
@@ -14790,13 +15523,13 @@
         <v>461</v>
       </c>
       <c r="M3" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N3" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N3" s="336" t="s">
+      <c r="O3" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O3" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="27">
@@ -14816,19 +15549,19 @@
         <v>680</v>
       </c>
       <c r="F4" s="335" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G4" s="335" t="s">
         <v>946</v>
       </c>
       <c r="H4" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I4" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I4" s="335" t="s">
+      <c r="J4" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J4" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K4" s="336" t="s">
         <v>471</v>
@@ -14837,13 +15570,13 @@
         <v>461</v>
       </c>
       <c r="M4" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N4" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N4" s="336" t="s">
+      <c r="O4" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O4" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="27">
@@ -14863,19 +15596,19 @@
         <v>683</v>
       </c>
       <c r="F5" s="335" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G5" s="335" t="s">
         <v>974</v>
       </c>
       <c r="H5" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I5" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I5" s="335" t="s">
+      <c r="J5" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J5" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K5" s="336" t="s">
         <v>471</v>
@@ -14884,13 +15617,13 @@
         <v>461</v>
       </c>
       <c r="M5" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N5" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N5" s="336" t="s">
+      <c r="O5" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O5" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27">
@@ -14910,19 +15643,19 @@
         <v>681</v>
       </c>
       <c r="F6" s="335" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G6" s="335" t="s">
         <v>948</v>
       </c>
       <c r="H6" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I6" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I6" s="335" t="s">
+      <c r="J6" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J6" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K6" s="336" t="s">
         <v>471</v>
@@ -14931,13 +15664,13 @@
         <v>461</v>
       </c>
       <c r="M6" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N6" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N6" s="336" t="s">
+      <c r="O6" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O6" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40.5">
@@ -14957,19 +15690,19 @@
         <v>682</v>
       </c>
       <c r="F7" s="335" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G7" s="335" t="s">
         <v>950</v>
       </c>
       <c r="H7" s="335" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I7" s="335" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J7" s="336" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K7" s="336" t="s">
         <v>471</v>
@@ -14978,13 +15711,13 @@
         <v>461</v>
       </c>
       <c r="M7" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N7" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N7" s="336" t="s">
+      <c r="O7" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O7" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="27">
@@ -15004,19 +15737,19 @@
         <v>684</v>
       </c>
       <c r="F8" s="335" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G8" s="335" t="s">
         <v>972</v>
       </c>
       <c r="H8" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I8" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I8" s="335" t="s">
+      <c r="J8" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J8" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K8" s="336" t="s">
         <v>471</v>
@@ -15025,13 +15758,13 @@
         <v>461</v>
       </c>
       <c r="M8" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N8" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N8" s="336" t="s">
+      <c r="O8" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O8" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="27">
@@ -15051,19 +15784,19 @@
         <v>687</v>
       </c>
       <c r="F9" s="328" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G9" s="335" t="s">
         <v>968</v>
       </c>
       <c r="H9" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I9" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I9" s="335" t="s">
+      <c r="J9" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J9" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K9" s="336" t="s">
         <v>471</v>
@@ -15072,13 +15805,13 @@
         <v>461</v>
       </c>
       <c r="M9" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N9" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N9" s="336" t="s">
+      <c r="O9" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O9" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27">
@@ -15098,19 +15831,19 @@
         <v>689</v>
       </c>
       <c r="F10" s="328" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G10" s="335" t="s">
         <v>964</v>
       </c>
       <c r="H10" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I10" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I10" s="335" t="s">
+      <c r="J10" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J10" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K10" s="336" t="s">
         <v>471</v>
@@ -15119,13 +15852,13 @@
         <v>461</v>
       </c>
       <c r="M10" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N10" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N10" s="336" t="s">
+      <c r="O10" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O10" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="27">
@@ -15145,19 +15878,19 @@
         <v>688</v>
       </c>
       <c r="F11" s="328" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G11" s="335" t="s">
         <v>966</v>
       </c>
       <c r="H11" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I11" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I11" s="335" t="s">
+      <c r="J11" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J11" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K11" s="336" t="s">
         <v>471</v>
@@ -15166,13 +15899,13 @@
         <v>461</v>
       </c>
       <c r="M11" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N11" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N11" s="336" t="s">
+      <c r="O11" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O11" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="27">
@@ -15192,19 +15925,19 @@
         <v>690</v>
       </c>
       <c r="F12" s="328" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G12" s="335" t="s">
         <v>962</v>
       </c>
       <c r="H12" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I12" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I12" s="335" t="s">
+      <c r="J12" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J12" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K12" s="336" t="s">
         <v>471</v>
@@ -15213,13 +15946,13 @@
         <v>461</v>
       </c>
       <c r="M12" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N12" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N12" s="336" t="s">
+      <c r="O12" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O12" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="27">
@@ -15239,19 +15972,19 @@
         <v>691</v>
       </c>
       <c r="F13" s="328" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G13" s="335" t="s">
         <v>960</v>
       </c>
       <c r="H13" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I13" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I13" s="335" t="s">
+      <c r="J13" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J13" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K13" s="336" t="s">
         <v>471</v>
@@ -15260,13 +15993,13 @@
         <v>461</v>
       </c>
       <c r="M13" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N13" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N13" s="336" t="s">
+      <c r="O13" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O13" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27">
@@ -15286,19 +16019,19 @@
         <v>692</v>
       </c>
       <c r="F14" s="328" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="335" t="s">
         <v>958</v>
       </c>
       <c r="H14" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I14" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I14" s="335" t="s">
+      <c r="J14" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J14" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K14" s="336" t="s">
         <v>471</v>
@@ -15307,13 +16040,13 @@
         <v>461</v>
       </c>
       <c r="M14" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N14" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N14" s="336" t="s">
+      <c r="O14" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O14" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="27">
@@ -15333,19 +16066,19 @@
         <v>693</v>
       </c>
       <c r="F15" s="328" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G15" s="335" t="s">
         <v>956</v>
       </c>
       <c r="H15" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I15" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I15" s="335" t="s">
+      <c r="J15" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J15" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K15" s="336" t="s">
         <v>471</v>
@@ -15354,13 +16087,13 @@
         <v>461</v>
       </c>
       <c r="M15" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N15" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N15" s="336" t="s">
+      <c r="O15" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O15" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27">
@@ -15380,19 +16113,19 @@
         <v>694</v>
       </c>
       <c r="F16" s="328" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G16" s="335" t="s">
         <v>954</v>
       </c>
       <c r="H16" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I16" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I16" s="335" t="s">
+      <c r="J16" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J16" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K16" s="336" t="s">
         <v>471</v>
@@ -15401,13 +16134,13 @@
         <v>461</v>
       </c>
       <c r="M16" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N16" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N16" s="336" t="s">
+      <c r="O16" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O16" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="27">
@@ -15427,19 +16160,19 @@
         <v>685</v>
       </c>
       <c r="F17" s="328" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G17" s="335" t="s">
         <v>970</v>
       </c>
       <c r="H17" s="331" t="s">
+        <v>982</v>
+      </c>
+      <c r="I17" s="328" t="s">
         <v>983</v>
       </c>
-      <c r="I17" s="328" t="s">
+      <c r="J17" s="331" t="s">
         <v>984</v>
-      </c>
-      <c r="J17" s="331" t="s">
-        <v>985</v>
       </c>
       <c r="K17" s="331" t="s">
         <v>471</v>
@@ -15448,13 +16181,13 @@
         <v>461</v>
       </c>
       <c r="M17" s="337" t="s">
+        <v>985</v>
+      </c>
+      <c r="N17" s="337" t="s">
         <v>986</v>
       </c>
-      <c r="N17" s="337" t="s">
+      <c r="O17" s="337" t="s">
         <v>987</v>
-      </c>
-      <c r="O17" s="337" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="27">
@@ -15474,19 +16207,19 @@
         <v>695</v>
       </c>
       <c r="F18" s="328" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G18" s="335" t="s">
         <v>952</v>
       </c>
       <c r="H18" s="335" t="s">
+        <v>982</v>
+      </c>
+      <c r="I18" s="335" t="s">
         <v>983</v>
       </c>
-      <c r="I18" s="335" t="s">
+      <c r="J18" s="336" t="s">
         <v>984</v>
-      </c>
-      <c r="J18" s="336" t="s">
-        <v>985</v>
       </c>
       <c r="K18" s="336" t="s">
         <v>471</v>
@@ -15495,13 +16228,13 @@
         <v>461</v>
       </c>
       <c r="M18" s="336" t="s">
+        <v>985</v>
+      </c>
+      <c r="N18" s="336" t="s">
         <v>986</v>
       </c>
-      <c r="N18" s="336" t="s">
+      <c r="O18" s="336" t="s">
         <v>987</v>
-      </c>
-      <c r="O18" s="336" t="s">
-        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -15544,60 +16277,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="342" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-      <c r="N1" s="340"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
     </row>
     <row r="2" spans="1:15" s="37" customFormat="1" ht="20.25">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="343" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="341"/>
+      <c r="B2" s="343"/>
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="343"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="343"/>
+      <c r="J2" s="343"/>
+      <c r="K2" s="343"/>
+      <c r="L2" s="343"/>
+      <c r="M2" s="343"/>
+      <c r="N2" s="343"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="342" t="s">
+      <c r="A3" s="344" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="343"/>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="343"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="342" t="s">
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="344" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="343"/>
-      <c r="J3" s="343"/>
-      <c r="K3" s="343"/>
-      <c r="L3" s="343"/>
-      <c r="M3" s="343"/>
-      <c r="N3" s="343"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
       <c r="O3" s="170" t="s">
         <v>441</v>
       </c>
@@ -19706,7 +20439,7 @@
         <v>667</v>
       </c>
       <c r="C32" s="315" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="D32" s="257" t="s">
         <v>906</v>
@@ -19750,7 +20483,7 @@
         <v>667</v>
       </c>
       <c r="C33" s="339" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="D33" s="301"/>
       <c r="E33" s="75" t="s">
@@ -20564,7 +21297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -20649,18 +21382,18 @@
         <v>336</v>
       </c>
       <c r="E2" s="338" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="F2" s="323" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="H2" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="365" t="s">
+      <c r="I2" s="341" t="s">
         <v>481</v>
       </c>
       <c r="J2" s="284" t="s">
@@ -20696,18 +21429,18 @@
         <v>336</v>
       </c>
       <c r="E3" s="338" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="F3" s="323" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="G3" s="95" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="H3" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="365" t="s">
+      <c r="I3" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J3" s="284" t="s">
@@ -20746,15 +21479,15 @@
         <v>802</v>
       </c>
       <c r="F4" s="323" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="G4" s="95" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="H4" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="365" t="s">
+      <c r="I4" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J4" s="284" t="s">
@@ -20790,18 +21523,18 @@
         <v>336</v>
       </c>
       <c r="E5" s="338" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="F5" s="323" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="G5" s="95" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="H5" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="365" t="s">
+      <c r="I5" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J5" s="284" t="s">
@@ -20837,10 +21570,10 @@
         <v>336</v>
       </c>
       <c r="E6" s="338" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="F6" s="323" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="G6" s="95" t="s">
         <v>917</v>
@@ -20848,7 +21581,7 @@
       <c r="H6" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="365" t="s">
+      <c r="I6" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J6" s="284" t="s">
@@ -20884,7 +21617,7 @@
         <v>336</v>
       </c>
       <c r="E7" s="338" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="F7" s="323" t="s">
         <v>914</v>
@@ -20895,7 +21628,7 @@
       <c r="H7" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="365" t="s">
+      <c r="I7" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J7" s="284" t="s">
@@ -20931,7 +21664,7 @@
         <v>336</v>
       </c>
       <c r="E8" s="338" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="F8" s="323" t="s">
         <v>907</v>
@@ -20942,7 +21675,7 @@
       <c r="H8" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="365" t="s">
+      <c r="I8" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J8" s="284" t="s">
@@ -20978,7 +21711,7 @@
         <v>336</v>
       </c>
       <c r="E9" s="338" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="F9" s="323" t="s">
         <v>932</v>
@@ -20989,7 +21722,7 @@
       <c r="H9" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="365" t="s">
+      <c r="I9" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J9" s="284" t="s">
@@ -21025,7 +21758,7 @@
         <v>336</v>
       </c>
       <c r="E10" s="338" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="F10" s="323" t="s">
         <v>933</v>
@@ -21036,7 +21769,7 @@
       <c r="H10" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="365" t="s">
+      <c r="I10" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J10" s="284" t="s">
@@ -21072,7 +21805,7 @@
         <v>336</v>
       </c>
       <c r="E11" s="338" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="F11" s="323" t="s">
         <v>934</v>
@@ -21083,7 +21816,7 @@
       <c r="H11" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="365" t="s">
+      <c r="I11" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J11" s="284" t="s">
@@ -21119,7 +21852,7 @@
         <v>336</v>
       </c>
       <c r="E12" s="338" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="F12" s="323" t="s">
         <v>935</v>
@@ -21130,7 +21863,7 @@
       <c r="H12" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="365" t="s">
+      <c r="I12" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J12" s="284" t="s">
@@ -21177,7 +21910,7 @@
       <c r="H13" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="365" t="s">
+      <c r="I13" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J13" s="284" t="s">
@@ -21213,7 +21946,7 @@
         <v>336</v>
       </c>
       <c r="E14" s="338" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="F14" s="323" t="s">
         <v>937</v>
@@ -21224,7 +21957,7 @@
       <c r="H14" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="365" t="s">
+      <c r="I14" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J14" s="284" t="s">
@@ -21260,7 +21993,7 @@
         <v>336</v>
       </c>
       <c r="E15" s="338" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="F15" s="323" t="s">
         <v>938</v>
@@ -21271,7 +22004,7 @@
       <c r="H15" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="365" t="s">
+      <c r="I15" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J15" s="284" t="s">
@@ -21307,7 +22040,7 @@
         <v>336</v>
       </c>
       <c r="E16" s="338" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="F16" s="323" t="s">
         <v>907</v>
@@ -21318,7 +22051,7 @@
       <c r="H16" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="365" t="s">
+      <c r="I16" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J16" s="284" t="s">
@@ -21354,7 +22087,7 @@
         <v>336</v>
       </c>
       <c r="E17" s="338" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="F17" s="323" t="s">
         <v>939</v>
@@ -21365,7 +22098,7 @@
       <c r="H17" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="365" t="s">
+      <c r="I17" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J17" s="284" t="s">
@@ -21401,7 +22134,7 @@
         <v>336</v>
       </c>
       <c r="E18" s="338" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="F18" s="323" t="s">
         <v>940</v>
@@ -21412,7 +22145,7 @@
       <c r="H18" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="365" t="s">
+      <c r="I18" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J18" s="284" t="s">
@@ -21448,7 +22181,7 @@
         <v>336</v>
       </c>
       <c r="E19" s="338" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="F19" s="323" t="s">
         <v>941</v>
@@ -21459,7 +22192,7 @@
       <c r="H19" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="365" t="s">
+      <c r="I19" s="341" t="s">
         <v>846</v>
       </c>
       <c r="J19" s="284" t="s">
@@ -22629,62 +23362,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="347" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
-      <c r="N1" s="345"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
+      <c r="N1" s="347"/>
       <c r="O1" s="292"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="348" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="348"/>
+      <c r="L2" s="348"/>
+      <c r="M2" s="348"/>
+      <c r="N2" s="348"/>
       <c r="O2" s="291"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="347" t="s">
+      <c r="A3" s="349" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347" t="s">
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="349"/>
+      <c r="H3" s="349" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="347"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="347"/>
-      <c r="L3" s="347"/>
-      <c r="M3" s="347"/>
-      <c r="N3" s="347"/>
+      <c r="I3" s="349"/>
+      <c r="J3" s="349"/>
+      <c r="K3" s="349"/>
+      <c r="L3" s="349"/>
+      <c r="M3" s="349"/>
+      <c r="N3" s="349"/>
       <c r="O3" s="170" t="s">
         <v>441</v>
       </c>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="909" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="기록물철등록부_문화예술기념사업" sheetId="17" r:id="rId1"/>
@@ -17,10 +17,11 @@
     <sheet name="기록관리기준표18" sheetId="16" r:id="rId8"/>
     <sheet name="철등록부2018참고" sheetId="6" r:id="rId9"/>
     <sheet name="식별번호" sheetId="8" state="hidden" r:id="rId10"/>
-    <sheet name="식별번호수정" sheetId="12" r:id="rId11"/>
-    <sheet name="분류기준 및 보존기간" sheetId="9" r:id="rId12"/>
-    <sheet name="용어비교" sheetId="10" r:id="rId13"/>
-    <sheet name="기록물등록사항참고" sheetId="13" r:id="rId14"/>
+    <sheet name="단위과제카드" sheetId="18" r:id="rId11"/>
+    <sheet name="식별번호수정" sheetId="12" r:id="rId12"/>
+    <sheet name="분류기준 및 보존기간" sheetId="9" r:id="rId13"/>
+    <sheet name="용어비교" sheetId="10" r:id="rId14"/>
+    <sheet name="기록물등록사항참고" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">관리기준2017!$A$1:$S$1</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="1248">
   <si>
     <t>경기천년소풍(제1회)</t>
   </si>
@@ -4446,12 +4447,1878 @@
   <si>
     <t>천년경기의 목소리 공모전</t>
   </si>
+  <si>
+    <t>단위과제카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제카드설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위과제카드세부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비치여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비치기록이관시기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화예술기념사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000015(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>임혜원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화자원발굴강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천년소풍1회운영</t>
+  </si>
+  <si>
+    <t>천년소풍1회공중촬영</t>
+  </si>
+  <si>
+    <t>천년소풍1회홍보</t>
+  </si>
+  <si>
+    <t>천년소풍2회기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000016(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>고아라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임혜원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천개의경기운영</t>
+  </si>
+  <si>
+    <t>우리를경기에새기다운영</t>
+  </si>
+  <si>
+    <t>미디어아카이브운영</t>
+  </si>
+  <si>
+    <t>플랫폼기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000018(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>고아라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임혜원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>황순주</t>
+    </r>
+  </si>
+  <si>
+    <t>온라인플랫폼운영</t>
+  </si>
+  <si>
+    <t>이동식플랫폼운영</t>
+  </si>
+  <si>
+    <t>오프라인플랫폼운영</t>
+  </si>
+  <si>
+    <t>도민의견숙의운영</t>
+  </si>
+  <si>
+    <t>빅포럼연계홍보부스기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000019(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김효진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임혜원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+  </si>
+  <si>
+    <t>빅포럼연계홍보부스운영</t>
+  </si>
+  <si>
+    <t>소망메세지운영</t>
+  </si>
+  <si>
+    <t>답사단기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000020(001)</t>
+  </si>
+  <si>
+    <t>답사운영</t>
+  </si>
+  <si>
+    <t>워크숍운영</t>
+  </si>
+  <si>
+    <t>축제기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000021(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김효진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박정호</t>
+    </r>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제운영</t>
+  </si>
+  <si>
+    <t>경기문화재단 문화사업팀 내 축제운영에 관한 기록물로 
+「경기문화재단 사무관리규정」 시행규칙 252호 [별표16] 기록물분류기준 및 보존기간에 의거, 단기사업계획 및 사업 관련철로서 5년간 보존</t>
+  </si>
+  <si>
+    <t>개인정보</t>
+  </si>
+  <si>
+    <t>축제프로그램운영</t>
+  </si>
+  <si>
+    <t>축제홍보</t>
+  </si>
+  <si>
+    <t>경기문화재단 문화사업팀 내 축제홍보에 관한 기록물로 
+「경기문화재단 사무관리규정」 시행규칙 252호 [별표16] 기록물분류기준 및 보존기간에 의거, 단기사업계획 및 사업 관련철로서 5년간 보존</t>
+  </si>
+  <si>
+    <t>기자단기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000022(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>고아라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기자단모집및관리</t>
+  </si>
+  <si>
+    <t>기사관리및게재</t>
+  </si>
+  <si>
+    <t>전시기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000023(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김효진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박정호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>윤지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+  </si>
+  <si>
+    <t>전시운영</t>
+  </si>
+  <si>
+    <t>전시홍보</t>
+  </si>
+  <si>
+    <t>슬로건엠블럼개발기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000024(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>고아라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김정은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임혜원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로건공모전운영</t>
+  </si>
+  <si>
+    <t>슬로건엠블럼개발</t>
+  </si>
+  <si>
+    <t>슬로건엠블럼도민설명회운영</t>
+  </si>
+  <si>
+    <t>경기천년홍보기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000025(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김정은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인홍보</t>
+  </si>
+  <si>
+    <t>오프라인홍보</t>
+  </si>
+  <si>
+    <t>경기천년콘텐츠공모전운영</t>
+  </si>
+  <si>
+    <t>홍보영상제작기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000026(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>윤지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이서우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>황록주</t>
+    </r>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보영상제작</t>
+  </si>
+  <si>
+    <t>다큐영상제작기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000027(001)</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다큐영상제작</t>
+  </si>
+  <si>
+    <t>다큐영상송출및보도</t>
+  </si>
+  <si>
+    <t>기대효과연구기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000028(001)</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대효과연구보고서발간</t>
+  </si>
+  <si>
+    <t>타임캡슐연구기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000029(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김효진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임캡슐원고집필</t>
+  </si>
+  <si>
+    <t>타임캡슐보고서발간</t>
+  </si>
+  <si>
+    <t>과정아카이브기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000030(001)</t>
+  </si>
+  <si>
+    <t>아카이브연구및자문</t>
+  </si>
+  <si>
+    <t>기록관리교육지원</t>
+  </si>
+  <si>
+    <t>경기천년사업과정기록</t>
+  </si>
+  <si>
+    <t>홍보전기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000031(001)</t>
+  </si>
+  <si>
+    <t>홍보전운영</t>
+  </si>
+  <si>
+    <t>기록아카이브기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2017-000032(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>박정호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>심현철</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>홍민아</t>
+    </r>
+  </si>
+  <si>
+    <t>31개시군촬영</t>
+  </si>
+  <si>
+    <t>8개주제촬영</t>
+  </si>
+  <si>
+    <t>경기도주제작품대여</t>
+  </si>
+  <si>
+    <t>천년경기의목소리공모전</t>
+  </si>
+  <si>
+    <t>천년경기의 목소리 공모전 사업관련 공모전 기획, 홍보 및 운영 등에 관한 업무</t>
+  </si>
+  <si>
+    <t>영상공모전기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000017(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김가영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김민경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김정은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>윤가혜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상민</t>
+    </r>
+  </si>
+  <si>
+    <t>공모전홍보</t>
+  </si>
+  <si>
+    <t>공개</t>
+  </si>
+  <si>
+    <t>공모전운영</t>
+  </si>
+  <si>
+    <t>경기천년사업 디지털 아카이빙사업 관련 기획, 데이터베이스 구축, 웹서버 및 웹페이지 구축 및 관리에 관한 업무</t>
+  </si>
+  <si>
+    <t>디지털아카이빙기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000018(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김가영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상민</t>
+    </r>
+  </si>
+  <si>
+    <t>기록물데이터베이스구축</t>
+  </si>
+  <si>
+    <t>웹서버설계및구축</t>
+  </si>
+  <si>
+    <t>웹페이지구축</t>
+  </si>
+  <si>
+    <t>경기천년사업 과정 아카이브 및 리서치사업 관련 기획, 과정기록 및 기록물 활용 콘텐츠 생산 등의 운영 및 관리에 관한 업무</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000019(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김가영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김정은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상민</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최진호</t>
+    </r>
+  </si>
+  <si>
+    <t>기록물수집및목록화</t>
+  </si>
+  <si>
+    <t>영상및구술기록</t>
+  </si>
+  <si>
+    <t>전시콘텐츠구성</t>
+  </si>
+  <si>
+    <t>홈페이지콘텐츠구성</t>
+  </si>
+  <si>
+    <t>아카이브공공프로그램운영</t>
+  </si>
+  <si>
+    <t>수행자협력</t>
+  </si>
+  <si>
+    <t>라키비움 운영 컨설팅사업 관련 기획, 기록관리시스템 마련, 컨설팅보고서 발간 및 관리에 관한 업무</t>
+  </si>
+  <si>
+    <t>기록관리컨설팅기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000020(001)</t>
+  </si>
+  <si>
+    <t>기록물관리체계구축</t>
+  </si>
+  <si>
+    <t>컨설팅보고서발간</t>
+  </si>
+  <si>
+    <t>경기천년 대축제 사업관련 기획, 운영, 홍보 및 콜로키움, 장인발굴단, 고려인예술단 초청 공연과 같은 프로그램 운영에 관한 업무</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000021(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김민경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김현미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박소현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>윤가혜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>윤지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최진호</t>
+    </r>
+  </si>
+  <si>
+    <t>생활문화콜로키움</t>
+  </si>
+  <si>
+    <t>천년장인발굴단</t>
+  </si>
+  <si>
+    <t>고려인예술단초청공연</t>
+  </si>
+  <si>
+    <t>대축제홍보</t>
+  </si>
+  <si>
+    <t>상상룸조성기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000022(001)</t>
+  </si>
+  <si>
+    <t>경기천년사업홍보책자제작</t>
+  </si>
+  <si>
+    <t>경기천년사업 홍보책자 제작사업 관련 기획, 책자 제작 등 운영 및 관리에 관한 업무</t>
+  </si>
+  <si>
+    <t>홍보책자제작기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000023(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김현미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>황은진</t>
+    </r>
+  </si>
+  <si>
+    <t>홍보책자제작</t>
+  </si>
+  <si>
+    <t>영상콘텐츠기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000026(001)</t>
+  </si>
+  <si>
+    <t>영상콘텐츠제작및송출</t>
+  </si>
+  <si>
+    <t>경기천년매체홍보및영상제작</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000027(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김정은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박소현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상민</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최진호</t>
+    </r>
+  </si>
+  <si>
+    <t>매체광고</t>
+  </si>
+  <si>
+    <t>팟케스트및영상제작</t>
+  </si>
+  <si>
+    <t>경기천년기획홍보</t>
+  </si>
+  <si>
+    <t>홍보기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000028(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김가영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김정은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김현미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>윤지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최진호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>황은진</t>
+    </r>
+  </si>
+  <si>
+    <t>홈페이지및SNS콘텐츠제작</t>
+  </si>
+  <si>
+    <t>미디어홍보</t>
+  </si>
+  <si>
+    <t>경기천년홍보부스운영(18년상반기)</t>
+  </si>
+  <si>
+    <t>홍보부스하반기운영기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000029(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김현미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박소현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>황은진</t>
+    </r>
+  </si>
+  <si>
+    <t>상반기홍보부스운영</t>
+  </si>
+  <si>
+    <t>경기천년브랜드및축제영상제작</t>
+  </si>
+  <si>
+    <t>영상제작기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000030(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김정은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김현미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박소현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성형모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최진호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>황은진</t>
+    </r>
+  </si>
+  <si>
+    <t>브랜드영상제작</t>
+  </si>
+  <si>
+    <t>축제영상제작</t>
+  </si>
+  <si>
+    <t>경기천년홍보부스운영(18년하반기)</t>
+  </si>
+  <si>
+    <t>홍보부스상반기운영기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000031(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김현미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박소현</t>
+    </r>
+  </si>
+  <si>
+    <t>하반기홍보부스운영</t>
+  </si>
+  <si>
+    <t>경기천년빛나는정신문화(경기그레이트북스100선)</t>
+  </si>
+  <si>
+    <t>도서선정기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000032(001)</t>
+  </si>
+  <si>
+    <r>
+      <t>김민경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>김효진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>윤가혜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조병택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="경기천년바탕 Regular"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>황은진</t>
+    </r>
+  </si>
+  <si>
+    <t>100선선정</t>
+  </si>
+  <si>
+    <t>홈페이지구축기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000034(001)</t>
+  </si>
+  <si>
+    <t>홈페이지개발</t>
+  </si>
+  <si>
+    <t>역사교육부스기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000035(001)</t>
+  </si>
+  <si>
+    <t>교육부스운영</t>
+  </si>
+  <si>
+    <t>벚꽃축제연계홍보기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000036(001)</t>
+  </si>
+  <si>
+    <t>벚꽃축제연계홍보부스운영</t>
+  </si>
+  <si>
+    <t>아카이브전홍보기획및관리</t>
+  </si>
+  <si>
+    <t>1431052-e0001456-2018-000039(001)</t>
+  </si>
+  <si>
+    <t>홍보물디자인및제작</t>
+  </si>
+  <si>
+    <t>분류번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록물건수
+(시청각기록물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="69">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4979,6 +6846,21 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="경기천년바탕 Regular"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="42">
@@ -6039,7 +7921,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="410">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6960,6 +8842,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7035,35 +8947,92 @@
     <xf numFmtId="0" fontId="12" fillId="40" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="207">
@@ -7572,82 +9541,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="368" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="368" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="368" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="368" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="368" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="368" customWidth="1"/>
-    <col min="7" max="7" width="9" style="368"/>
-    <col min="8" max="9" width="7.5" style="368" customWidth="1"/>
-    <col min="10" max="10" width="11" style="368" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="368" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="368" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="368" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="368"/>
+    <col min="1" max="1" width="10.5" style="342" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="342" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="342" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="342" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="342" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="342" customWidth="1"/>
+    <col min="7" max="7" width="9" style="342"/>
+    <col min="8" max="9" width="7.5" style="342" customWidth="1"/>
+    <col min="10" max="10" width="11" style="342" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="342" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="342" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="342" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="342"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1">
-      <c r="A1" s="367" t="s">
+      <c r="A1" s="347" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="367"/>
-      <c r="C1" s="367"/>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="367"/>
-      <c r="H1" s="367"/>
-      <c r="I1" s="367"/>
-      <c r="J1" s="367"/>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367"/>
-      <c r="N1" s="367"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
+      <c r="N1" s="347"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="348" t="s">
         <v>1032</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="348"/>
+      <c r="L2" s="348"/>
+      <c r="M2" s="348"/>
+      <c r="N2" s="348"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A3" s="370" t="s">
+      <c r="A3" s="349" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371"/>
-      <c r="G3" s="372"/>
-      <c r="H3" s="370" t="s">
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="349" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="371"/>
-      <c r="J3" s="371"/>
-      <c r="K3" s="371"/>
-      <c r="L3" s="371"/>
-      <c r="M3" s="371"/>
-      <c r="N3" s="372"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="350"/>
+      <c r="K3" s="350"/>
+      <c r="L3" s="350"/>
+      <c r="M3" s="350"/>
+      <c r="N3" s="351"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="193" t="s">
@@ -7727,7 +9696,7 @@
       </c>
       <c r="L5" s="326"/>
       <c r="M5" s="326"/>
-      <c r="N5" s="373" t="s">
+      <c r="N5" s="343" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7765,7 +9734,7 @@
       </c>
       <c r="L6" s="326"/>
       <c r="M6" s="326"/>
-      <c r="N6" s="373" t="s">
+      <c r="N6" s="343" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7803,11 +9772,11 @@
       </c>
       <c r="L7" s="326"/>
       <c r="M7" s="326"/>
-      <c r="N7" s="373" t="s">
+      <c r="N7" s="343" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="24">
+    <row r="8" spans="1:14">
       <c r="A8" s="326" t="s">
         <v>1033</v>
       </c>
@@ -7841,7 +9810,7 @@
       </c>
       <c r="L8" s="326"/>
       <c r="M8" s="326"/>
-      <c r="N8" s="373" t="s">
+      <c r="N8" s="343" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7879,7 +9848,7 @@
       </c>
       <c r="L9" s="326"/>
       <c r="M9" s="326"/>
-      <c r="N9" s="373" t="s">
+      <c r="N9" s="343" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7917,7 +9886,7 @@
       </c>
       <c r="L10" s="326"/>
       <c r="M10" s="326"/>
-      <c r="N10" s="373" t="s">
+      <c r="N10" s="343" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7955,7 +9924,7 @@
       </c>
       <c r="L11" s="326"/>
       <c r="M11" s="326"/>
-      <c r="N11" s="373" t="s">
+      <c r="N11" s="343" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7993,7 +9962,7 @@
       </c>
       <c r="L12" s="326"/>
       <c r="M12" s="326"/>
-      <c r="N12" s="373" t="s">
+      <c r="N12" s="343" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8031,11 +10000,11 @@
       </c>
       <c r="L13" s="326"/>
       <c r="M13" s="326"/>
-      <c r="N13" s="373" t="s">
+      <c r="N13" s="343" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="24">
+    <row r="14" spans="1:14">
       <c r="A14" s="326" t="s">
         <v>1033</v>
       </c>
@@ -8069,7 +10038,7 @@
       </c>
       <c r="L14" s="326"/>
       <c r="M14" s="326"/>
-      <c r="N14" s="373" t="s">
+      <c r="N14" s="343" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8107,11 +10076,11 @@
       </c>
       <c r="L15" s="326"/>
       <c r="M15" s="326"/>
-      <c r="N15" s="373" t="s">
+      <c r="N15" s="343" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="24">
+    <row r="16" spans="1:14">
       <c r="A16" s="326" t="s">
         <v>1033</v>
       </c>
@@ -8145,7 +10114,7 @@
       </c>
       <c r="L16" s="326"/>
       <c r="M16" s="326"/>
-      <c r="N16" s="373" t="s">
+      <c r="N16" s="343" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8183,7 +10152,7 @@
       </c>
       <c r="L17" s="326"/>
       <c r="M17" s="326"/>
-      <c r="N17" s="373" t="s">
+      <c r="N17" s="343" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8221,7 +10190,7 @@
       </c>
       <c r="L18" s="326"/>
       <c r="M18" s="326"/>
-      <c r="N18" s="373" t="s">
+      <c r="N18" s="343" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8259,7 +10228,7 @@
       </c>
       <c r="L19" s="326"/>
       <c r="M19" s="326"/>
-      <c r="N19" s="373" t="s">
+      <c r="N19" s="343" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8297,7 +10266,7 @@
       </c>
       <c r="L20" s="326"/>
       <c r="M20" s="326"/>
-      <c r="N20" s="373" t="s">
+      <c r="N20" s="343" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8335,7 +10304,7 @@
       </c>
       <c r="L21" s="326"/>
       <c r="M21" s="326"/>
-      <c r="N21" s="373" t="s">
+      <c r="N21" s="343" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8375,7 +10344,7 @@
       <c r="M22" s="326" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="373" t="s">
+      <c r="N22" s="343" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8415,7 +10384,7 @@
       <c r="M23" s="326" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="373" t="s">
+      <c r="N23" s="343" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8455,7 +10424,7 @@
       <c r="M24" s="326" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="373" t="s">
+      <c r="N24" s="343" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8495,7 +10464,7 @@
       <c r="M25" s="326" t="s">
         <v>108</v>
       </c>
-      <c r="N25" s="373" t="s">
+      <c r="N25" s="343" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8535,7 +10504,7 @@
       <c r="M26" s="326" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="373" t="s">
+      <c r="N26" s="343" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8573,7 +10542,7 @@
       </c>
       <c r="L27" s="326"/>
       <c r="M27" s="326"/>
-      <c r="N27" s="373" t="s">
+      <c r="N27" s="343" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8611,7 +10580,7 @@
       </c>
       <c r="L28" s="326"/>
       <c r="M28" s="326"/>
-      <c r="N28" s="373" t="s">
+      <c r="N28" s="343" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8649,7 +10618,7 @@
       </c>
       <c r="L29" s="326"/>
       <c r="M29" s="326"/>
-      <c r="N29" s="373" t="s">
+      <c r="N29" s="343" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8687,7 +10656,7 @@
       </c>
       <c r="L30" s="326"/>
       <c r="M30" s="326"/>
-      <c r="N30" s="373" t="s">
+      <c r="N30" s="343" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8725,7 +10694,7 @@
       </c>
       <c r="L31" s="326"/>
       <c r="M31" s="326"/>
-      <c r="N31" s="373" t="s">
+      <c r="N31" s="343" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8763,7 +10732,7 @@
       </c>
       <c r="L32" s="326"/>
       <c r="M32" s="326"/>
-      <c r="N32" s="373" t="s">
+      <c r="N32" s="343" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8801,7 +10770,7 @@
       </c>
       <c r="L33" s="326"/>
       <c r="M33" s="326"/>
-      <c r="N33" s="373" t="s">
+      <c r="N33" s="343" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8839,7 +10808,7 @@
       </c>
       <c r="L34" s="326"/>
       <c r="M34" s="326"/>
-      <c r="N34" s="373" t="s">
+      <c r="N34" s="343" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8877,7 +10846,7 @@
       </c>
       <c r="L35" s="326"/>
       <c r="M35" s="326"/>
-      <c r="N35" s="373" t="s">
+      <c r="N35" s="343" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8915,7 +10884,7 @@
       </c>
       <c r="L36" s="326"/>
       <c r="M36" s="326"/>
-      <c r="N36" s="373" t="s">
+      <c r="N36" s="343" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8953,7 +10922,7 @@
       </c>
       <c r="L37" s="326"/>
       <c r="M37" s="326"/>
-      <c r="N37" s="373" t="s">
+      <c r="N37" s="343" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8991,7 +10960,7 @@
       </c>
       <c r="L38" s="326"/>
       <c r="M38" s="326"/>
-      <c r="N38" s="373" t="s">
+      <c r="N38" s="343" t="s">
         <v>70</v>
       </c>
     </row>
@@ -9029,7 +10998,7 @@
       </c>
       <c r="L39" s="326"/>
       <c r="M39" s="326"/>
-      <c r="N39" s="373" t="s">
+      <c r="N39" s="343" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9067,45 +11036,45 @@
       </c>
       <c r="L40" s="326"/>
       <c r="M40" s="326"/>
-      <c r="N40" s="373" t="s">
+      <c r="N40" s="343" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="374" t="s">
+      <c r="A41" s="344" t="s">
         <v>1033</v>
       </c>
-      <c r="B41" s="374" t="s">
+      <c r="B41" s="344" t="s">
         <v>1034</v>
       </c>
-      <c r="C41" s="374">
+      <c r="C41" s="344">
         <v>2018</v>
       </c>
-      <c r="D41" s="374" t="s">
+      <c r="D41" s="344" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="375" t="s">
+      <c r="E41" s="345" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="374"/>
-      <c r="G41" s="374" t="s">
+      <c r="F41" s="344"/>
+      <c r="G41" s="344" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="374">
+      <c r="H41" s="344">
         <v>2018</v>
       </c>
-      <c r="I41" s="374" t="s">
+      <c r="I41" s="344" t="s">
         <v>67</v>
       </c>
-      <c r="J41" s="374" t="s">
+      <c r="J41" s="344" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="374" t="s">
+      <c r="K41" s="344" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="374"/>
-      <c r="M41" s="374"/>
-      <c r="N41" s="376" t="s">
+      <c r="L41" s="344"/>
+      <c r="M41" s="344"/>
+      <c r="N41" s="346" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9150,34 +11119,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="360" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="350" t="s">
+      <c r="B1" s="360" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="350" t="s">
+      <c r="C1" s="360" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="352" t="s">
+      <c r="D1" s="362" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="352"/>
-      <c r="F1" s="350" t="s">
+      <c r="E1" s="362"/>
+      <c r="F1" s="360" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="351"/>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
+      <c r="A2" s="361"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
       <c r="D2" s="98" t="s">
         <v>180</v>
       </c>
       <c r="E2" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="351"/>
+      <c r="F2" s="361"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="99" t="s">
@@ -9414,13 +11383,4658 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13" style="36" customWidth="1"/>
+    <col min="2" max="2" width="19" style="409" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="409" customWidth="1"/>
+    <col min="4" max="4" width="40" style="36" customWidth="1"/>
+    <col min="5" max="5" width="50.375" style="36" customWidth="1"/>
+    <col min="6" max="7" width="27.625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="16" style="36" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="36" customWidth="1"/>
+    <col min="10" max="10" width="9" style="36"/>
+    <col min="11" max="11" width="41.875" style="36" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="36" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="36" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="36" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="36" customWidth="1"/>
+    <col min="16" max="17" width="9.625" style="36" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="36" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="34.5">
+      <c r="A1" s="377" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="378" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="378" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" s="377" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1" s="377" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F1" s="377" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G1" s="377" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H1" s="377" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I1" s="377" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J1" s="379" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="380" t="s">
+        <v>977</v>
+      </c>
+      <c r="L1" s="381" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M1" s="381" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N1" s="377" t="s">
+        <v>499</v>
+      </c>
+      <c r="O1" s="377" t="s">
+        <v>469</v>
+      </c>
+      <c r="P1" s="377" t="s">
+        <v>979</v>
+      </c>
+      <c r="Q1" s="382" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="382" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="40.5">
+      <c r="A2" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="384" t="s">
+        <v>733</v>
+      </c>
+      <c r="C2" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D2" s="383" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E2" s="323" t="s">
+        <v>981</v>
+      </c>
+      <c r="F2" s="383" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G2" s="383" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H2" s="383" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I2" s="383" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J2" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K2" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L2" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M2" s="383"/>
+      <c r="N2" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O2" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P2" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q2" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R2" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C3" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D3" s="383" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" s="383"/>
+      <c r="F3" s="387" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G3" s="387"/>
+      <c r="H3" s="387"/>
+      <c r="I3" s="387"/>
+      <c r="J3" s="388"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="387"/>
+      <c r="M3" s="387"/>
+      <c r="N3" s="387"/>
+      <c r="O3" s="387"/>
+      <c r="P3" s="387"/>
+      <c r="Q3" s="389"/>
+      <c r="R3" s="389"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C4" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D4" s="383" t="s">
+        <v>678</v>
+      </c>
+      <c r="E4" s="383"/>
+      <c r="F4" s="284" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="390"/>
+      <c r="K4" s="391"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="284"/>
+      <c r="N4" s="284"/>
+      <c r="O4" s="284"/>
+      <c r="P4" s="284"/>
+      <c r="Q4" s="392"/>
+      <c r="R4" s="392"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C5" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D5" s="383" t="s">
+        <v>678</v>
+      </c>
+      <c r="E5" s="383"/>
+      <c r="F5" s="284" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G5" s="284"/>
+      <c r="H5" s="284"/>
+      <c r="I5" s="284"/>
+      <c r="J5" s="391"/>
+      <c r="K5" s="391"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="284"/>
+      <c r="N5" s="284"/>
+      <c r="O5" s="284"/>
+      <c r="P5" s="284"/>
+      <c r="Q5" s="392"/>
+      <c r="R5" s="392"/>
+    </row>
+    <row r="6" spans="1:18" ht="40.5">
+      <c r="A6" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C6" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D6" s="383" t="s">
+        <v>679</v>
+      </c>
+      <c r="E6" s="323" t="s">
+        <v>988</v>
+      </c>
+      <c r="F6" s="383" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G6" s="383" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H6" s="383" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I6" s="383" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J6" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K6" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L6" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M6" s="383"/>
+      <c r="N6" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O6" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P6" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q6" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R6" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C7" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D7" s="383" t="s">
+        <v>679</v>
+      </c>
+      <c r="E7" s="383"/>
+      <c r="F7" s="284" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="390"/>
+      <c r="K7" s="391"/>
+      <c r="L7" s="284"/>
+      <c r="M7" s="284"/>
+      <c r="N7" s="284"/>
+      <c r="O7" s="284"/>
+      <c r="P7" s="284"/>
+      <c r="Q7" s="392"/>
+      <c r="R7" s="392"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C8" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D8" s="383" t="s">
+        <v>679</v>
+      </c>
+      <c r="E8" s="383"/>
+      <c r="F8" s="284" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="390"/>
+      <c r="K8" s="391"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="284"/>
+      <c r="N8" s="284"/>
+      <c r="O8" s="284"/>
+      <c r="P8" s="284"/>
+      <c r="Q8" s="392"/>
+      <c r="R8" s="392"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C9" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D9" s="383" t="s">
+        <v>679</v>
+      </c>
+      <c r="E9" s="383"/>
+      <c r="F9" s="284" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G9" s="284"/>
+      <c r="H9" s="284"/>
+      <c r="I9" s="284"/>
+      <c r="J9" s="391"/>
+      <c r="K9" s="391"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="284"/>
+      <c r="N9" s="284"/>
+      <c r="O9" s="284"/>
+      <c r="P9" s="284"/>
+      <c r="Q9" s="392"/>
+      <c r="R9" s="392"/>
+    </row>
+    <row r="10" spans="1:18" ht="40.5">
+      <c r="A10" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C10" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D10" s="383" t="s">
+        <v>680</v>
+      </c>
+      <c r="E10" s="385" t="s">
+        <v>989</v>
+      </c>
+      <c r="F10" s="383" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G10" s="383" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H10" s="383" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I10" s="383">
+        <v>137</v>
+      </c>
+      <c r="J10" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K10" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L10" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M10" s="383"/>
+      <c r="N10" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O10" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P10" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q10" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R10" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C11" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D11" s="383" t="s">
+        <v>680</v>
+      </c>
+      <c r="E11" s="383"/>
+      <c r="F11" s="284" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G11" s="284"/>
+      <c r="H11" s="284"/>
+      <c r="I11" s="284"/>
+      <c r="J11" s="390"/>
+      <c r="K11" s="391"/>
+      <c r="L11" s="284"/>
+      <c r="M11" s="284"/>
+      <c r="N11" s="284"/>
+      <c r="O11" s="284"/>
+      <c r="P11" s="284"/>
+      <c r="Q11" s="392"/>
+      <c r="R11" s="392"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C12" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D12" s="383" t="s">
+        <v>680</v>
+      </c>
+      <c r="E12" s="383"/>
+      <c r="F12" s="284" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G12" s="284"/>
+      <c r="H12" s="284"/>
+      <c r="I12" s="284"/>
+      <c r="J12" s="391"/>
+      <c r="K12" s="391"/>
+      <c r="L12" s="284"/>
+      <c r="M12" s="284"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="284"/>
+      <c r="P12" s="284"/>
+      <c r="Q12" s="392"/>
+      <c r="R12" s="392"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C13" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D13" s="383" t="s">
+        <v>680</v>
+      </c>
+      <c r="E13" s="383"/>
+      <c r="F13" s="284" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G13" s="284"/>
+      <c r="H13" s="284"/>
+      <c r="I13" s="284"/>
+      <c r="J13" s="390"/>
+      <c r="K13" s="391"/>
+      <c r="L13" s="284"/>
+      <c r="M13" s="284"/>
+      <c r="N13" s="284"/>
+      <c r="O13" s="284"/>
+      <c r="P13" s="284"/>
+      <c r="Q13" s="392"/>
+      <c r="R13" s="392"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C14" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D14" s="383" t="s">
+        <v>680</v>
+      </c>
+      <c r="E14" s="383"/>
+      <c r="F14" s="284" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G14" s="284"/>
+      <c r="H14" s="284"/>
+      <c r="I14" s="284"/>
+      <c r="J14" s="391"/>
+      <c r="K14" s="391"/>
+      <c r="L14" s="284"/>
+      <c r="M14" s="284"/>
+      <c r="N14" s="284"/>
+      <c r="O14" s="284"/>
+      <c r="P14" s="284"/>
+      <c r="Q14" s="392"/>
+      <c r="R14" s="392"/>
+    </row>
+    <row r="15" spans="1:18" ht="40.5">
+      <c r="A15" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C15" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D15" s="284" t="s">
+        <v>683</v>
+      </c>
+      <c r="E15" s="385" t="s">
+        <v>990</v>
+      </c>
+      <c r="F15" s="383" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G15" s="383" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H15" s="383" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I15" s="383">
+        <v>4</v>
+      </c>
+      <c r="J15" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K15" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L15" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M15" s="383"/>
+      <c r="N15" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O15" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P15" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q15" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R15" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C16" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D16" s="284" t="s">
+        <v>683</v>
+      </c>
+      <c r="E16" s="284"/>
+      <c r="F16" s="284" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G16" s="284"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="284"/>
+      <c r="J16" s="390"/>
+      <c r="K16" s="391"/>
+      <c r="L16" s="284"/>
+      <c r="M16" s="284"/>
+      <c r="N16" s="284"/>
+      <c r="O16" s="284"/>
+      <c r="P16" s="284"/>
+      <c r="Q16" s="392"/>
+      <c r="R16" s="392"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C17" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D17" s="284" t="s">
+        <v>683</v>
+      </c>
+      <c r="E17" s="284"/>
+      <c r="F17" s="284" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G17" s="284"/>
+      <c r="H17" s="284"/>
+      <c r="I17" s="284"/>
+      <c r="J17" s="390"/>
+      <c r="K17" s="391"/>
+      <c r="L17" s="284"/>
+      <c r="M17" s="284"/>
+      <c r="N17" s="284"/>
+      <c r="O17" s="284"/>
+      <c r="P17" s="284"/>
+      <c r="Q17" s="392"/>
+      <c r="R17" s="392"/>
+    </row>
+    <row r="18" spans="1:18" ht="40.5">
+      <c r="A18" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C18" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D18" s="284" t="s">
+        <v>681</v>
+      </c>
+      <c r="E18" s="385" t="s">
+        <v>991</v>
+      </c>
+      <c r="F18" s="383" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G18" s="383" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H18" s="383" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="383">
+        <v>22</v>
+      </c>
+      <c r="J18" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K18" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L18" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M18" s="383"/>
+      <c r="N18" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O18" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P18" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q18" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R18" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B19" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C19" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D19" s="284" t="s">
+        <v>681</v>
+      </c>
+      <c r="E19" s="284"/>
+      <c r="F19" s="284" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G19" s="284"/>
+      <c r="H19" s="284"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="390"/>
+      <c r="K19" s="391"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="284"/>
+      <c r="N19" s="284"/>
+      <c r="O19" s="284"/>
+      <c r="P19" s="284"/>
+      <c r="Q19" s="392"/>
+      <c r="R19" s="392"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C20" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D20" s="284" t="s">
+        <v>681</v>
+      </c>
+      <c r="E20" s="284"/>
+      <c r="F20" s="284" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G20" s="284"/>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="390"/>
+      <c r="K20" s="391"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="284"/>
+      <c r="N20" s="284"/>
+      <c r="O20" s="284"/>
+      <c r="P20" s="284"/>
+      <c r="Q20" s="392"/>
+      <c r="R20" s="392"/>
+    </row>
+    <row r="21" spans="1:18" ht="54">
+      <c r="A21" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B21" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C21" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D21" s="284" t="s">
+        <v>682</v>
+      </c>
+      <c r="E21" s="385" t="s">
+        <v>992</v>
+      </c>
+      <c r="F21" s="383" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G21" s="383" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H21" s="383" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I21" s="383" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J21" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K21" s="385" t="s">
+        <v>993</v>
+      </c>
+      <c r="L21" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M21" s="383"/>
+      <c r="N21" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O21" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P21" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q21" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R21" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="54">
+      <c r="A22" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B22" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C22" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D22" s="284" t="s">
+        <v>682</v>
+      </c>
+      <c r="E22" s="284"/>
+      <c r="F22" s="284" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G22" s="284"/>
+      <c r="H22" s="284"/>
+      <c r="I22" s="284"/>
+      <c r="J22" s="390" t="s">
+        <v>982</v>
+      </c>
+      <c r="K22" s="391" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L22" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M22" s="284"/>
+      <c r="N22" s="284" t="s">
+        <v>984</v>
+      </c>
+      <c r="O22" s="284" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P22" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q22" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R22" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="54">
+      <c r="A23" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C23" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D23" s="284" t="s">
+        <v>682</v>
+      </c>
+      <c r="E23" s="284"/>
+      <c r="F23" s="284" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G23" s="284"/>
+      <c r="H23" s="284"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="391" t="s">
+        <v>982</v>
+      </c>
+      <c r="K23" s="391" t="s">
+        <v>517</v>
+      </c>
+      <c r="L23" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M23" s="284"/>
+      <c r="N23" s="284" t="s">
+        <v>984</v>
+      </c>
+      <c r="O23" s="284" t="s">
+        <v>471</v>
+      </c>
+      <c r="P23" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q23" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R23" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="54">
+      <c r="A24" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B24" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C24" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D24" s="284" t="s">
+        <v>682</v>
+      </c>
+      <c r="E24" s="284"/>
+      <c r="F24" s="284" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G24" s="284"/>
+      <c r="H24" s="284"/>
+      <c r="I24" s="284"/>
+      <c r="J24" s="391" t="s">
+        <v>982</v>
+      </c>
+      <c r="K24" s="391" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L24" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M24" s="284"/>
+      <c r="N24" s="284" t="s">
+        <v>984</v>
+      </c>
+      <c r="O24" s="284" t="s">
+        <v>471</v>
+      </c>
+      <c r="P24" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q24" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R24" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="40.5">
+      <c r="A25" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B25" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C25" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D25" s="284" t="s">
+        <v>684</v>
+      </c>
+      <c r="E25" s="385" t="s">
+        <v>994</v>
+      </c>
+      <c r="F25" s="383" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G25" s="383" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H25" s="383" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I25" s="383" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J25" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K25" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L25" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M25" s="383"/>
+      <c r="N25" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O25" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P25" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q25" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R25" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C26" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D26" s="284" t="s">
+        <v>684</v>
+      </c>
+      <c r="E26" s="284"/>
+      <c r="F26" s="284" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G26" s="284"/>
+      <c r="H26" s="284"/>
+      <c r="I26" s="284"/>
+      <c r="J26" s="390"/>
+      <c r="K26" s="391"/>
+      <c r="L26" s="284"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="284"/>
+      <c r="O26" s="284"/>
+      <c r="P26" s="284"/>
+      <c r="Q26" s="392"/>
+      <c r="R26" s="392"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C27" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D27" s="284" t="s">
+        <v>684</v>
+      </c>
+      <c r="E27" s="284"/>
+      <c r="F27" s="284" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G27" s="284"/>
+      <c r="H27" s="284"/>
+      <c r="I27" s="284"/>
+      <c r="J27" s="390"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="284"/>
+      <c r="M27" s="284"/>
+      <c r="N27" s="284"/>
+      <c r="O27" s="284"/>
+      <c r="P27" s="284"/>
+      <c r="Q27" s="392"/>
+      <c r="R27" s="392"/>
+    </row>
+    <row r="28" spans="1:18" ht="40.5">
+      <c r="A28" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B28" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C28" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D28" s="284" t="s">
+        <v>687</v>
+      </c>
+      <c r="E28" s="393" t="s">
+        <v>995</v>
+      </c>
+      <c r="F28" s="383" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G28" s="383" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H28" s="383" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I28" s="383">
+        <v>22</v>
+      </c>
+      <c r="J28" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K28" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L28" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M28" s="383"/>
+      <c r="N28" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O28" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P28" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q28" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R28" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B29" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C29" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D29" s="284" t="s">
+        <v>687</v>
+      </c>
+      <c r="E29" s="284"/>
+      <c r="F29" s="284" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G29" s="284"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="284"/>
+      <c r="J29" s="390"/>
+      <c r="K29" s="391"/>
+      <c r="L29" s="284"/>
+      <c r="M29" s="284"/>
+      <c r="N29" s="284"/>
+      <c r="O29" s="284"/>
+      <c r="P29" s="284"/>
+      <c r="Q29" s="392"/>
+      <c r="R29" s="392"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B30" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C30" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D30" s="284" t="s">
+        <v>687</v>
+      </c>
+      <c r="E30" s="284"/>
+      <c r="F30" s="284" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G30" s="284"/>
+      <c r="H30" s="284"/>
+      <c r="I30" s="284"/>
+      <c r="J30" s="391"/>
+      <c r="K30" s="391"/>
+      <c r="L30" s="284"/>
+      <c r="M30" s="284"/>
+      <c r="N30" s="284"/>
+      <c r="O30" s="284"/>
+      <c r="P30" s="284"/>
+      <c r="Q30" s="392"/>
+      <c r="R30" s="392"/>
+    </row>
+    <row r="31" spans="1:18" ht="40.5">
+      <c r="A31" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C31" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D31" s="284" t="s">
+        <v>689</v>
+      </c>
+      <c r="E31" s="393" t="s">
+        <v>996</v>
+      </c>
+      <c r="F31" s="383" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G31" s="383" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H31" s="383" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I31" s="383" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J31" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K31" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L31" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M31" s="383"/>
+      <c r="N31" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O31" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P31" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q31" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R31" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B32" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C32" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D32" s="284" t="s">
+        <v>689</v>
+      </c>
+      <c r="E32" s="284"/>
+      <c r="F32" s="284" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G32" s="284"/>
+      <c r="H32" s="284"/>
+      <c r="I32" s="284"/>
+      <c r="J32" s="390"/>
+      <c r="K32" s="391"/>
+      <c r="L32" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M32" s="284"/>
+      <c r="N32" s="284"/>
+      <c r="O32" s="284"/>
+      <c r="P32" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q32" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R32" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C33" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D33" s="284" t="s">
+        <v>689</v>
+      </c>
+      <c r="E33" s="284"/>
+      <c r="F33" s="284" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G33" s="284"/>
+      <c r="H33" s="284"/>
+      <c r="I33" s="284"/>
+      <c r="J33" s="391"/>
+      <c r="K33" s="391"/>
+      <c r="L33" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M33" s="284"/>
+      <c r="N33" s="284"/>
+      <c r="O33" s="284"/>
+      <c r="P33" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q33" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R33" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B34" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C34" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D34" s="284" t="s">
+        <v>689</v>
+      </c>
+      <c r="E34" s="284"/>
+      <c r="F34" s="284" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G34" s="284"/>
+      <c r="H34" s="284"/>
+      <c r="I34" s="284"/>
+      <c r="J34" s="390"/>
+      <c r="K34" s="391"/>
+      <c r="L34" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M34" s="284"/>
+      <c r="N34" s="284"/>
+      <c r="O34" s="284"/>
+      <c r="P34" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q34" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R34" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="40.5">
+      <c r="A35" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B35" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C35" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D35" s="284" t="s">
+        <v>688</v>
+      </c>
+      <c r="E35" s="393" t="s">
+        <v>997</v>
+      </c>
+      <c r="F35" s="383" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G35" s="383" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H35" s="383" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I35" s="383" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J35" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K35" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L35" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M35" s="383"/>
+      <c r="N35" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O35" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P35" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q35" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R35" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B36" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C36" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D36" s="284" t="s">
+        <v>688</v>
+      </c>
+      <c r="E36" s="284"/>
+      <c r="F36" s="284" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G36" s="284"/>
+      <c r="H36" s="284"/>
+      <c r="I36" s="284"/>
+      <c r="J36" s="391"/>
+      <c r="K36" s="391"/>
+      <c r="L36" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M36" s="284"/>
+      <c r="N36" s="284"/>
+      <c r="O36" s="284"/>
+      <c r="P36" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q36" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R36" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C37" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D37" s="284" t="s">
+        <v>688</v>
+      </c>
+      <c r="E37" s="284"/>
+      <c r="F37" s="284" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G37" s="284"/>
+      <c r="H37" s="284"/>
+      <c r="I37" s="284"/>
+      <c r="J37" s="391"/>
+      <c r="K37" s="391"/>
+      <c r="L37" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M37" s="284"/>
+      <c r="N37" s="284"/>
+      <c r="O37" s="284"/>
+      <c r="P37" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q37" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R37" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B38" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C38" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D38" s="284" t="s">
+        <v>688</v>
+      </c>
+      <c r="E38" s="284"/>
+      <c r="F38" s="284" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G38" s="284"/>
+      <c r="H38" s="284"/>
+      <c r="I38" s="284"/>
+      <c r="J38" s="395"/>
+      <c r="K38" s="396"/>
+      <c r="L38" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M38" s="284"/>
+      <c r="N38" s="284"/>
+      <c r="O38" s="284"/>
+      <c r="P38" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q38" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R38" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="40.5">
+      <c r="A39" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B39" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C39" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D39" s="284" t="s">
+        <v>690</v>
+      </c>
+      <c r="E39" s="393" t="s">
+        <v>998</v>
+      </c>
+      <c r="F39" s="383" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G39" s="383" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H39" s="383" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I39" s="383" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J39" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K39" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L39" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O39" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P39" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q39" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R39" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B40" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C40" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D40" s="284" t="s">
+        <v>690</v>
+      </c>
+      <c r="E40" s="284"/>
+      <c r="F40" s="284" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G40" s="284"/>
+      <c r="H40" s="284"/>
+      <c r="I40" s="284"/>
+      <c r="J40" s="390"/>
+      <c r="K40" s="391"/>
+      <c r="L40" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M40" s="284"/>
+      <c r="N40" s="284"/>
+      <c r="O40" s="284"/>
+      <c r="P40" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q40" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R40" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="40.5">
+      <c r="A41" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B41" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C41" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D41" s="383" t="s">
+        <v>691</v>
+      </c>
+      <c r="E41" s="393" t="s">
+        <v>999</v>
+      </c>
+      <c r="F41" s="383" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G41" s="383" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H41" s="383" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I41" s="383" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J41" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K41" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L41" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M41" s="383"/>
+      <c r="N41" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O41" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P41" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q41" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R41" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B42" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C42" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D42" s="383" t="s">
+        <v>691</v>
+      </c>
+      <c r="E42" s="383"/>
+      <c r="F42" s="284" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G42" s="284"/>
+      <c r="H42" s="284"/>
+      <c r="I42" s="284"/>
+      <c r="J42" s="391"/>
+      <c r="K42" s="391"/>
+      <c r="L42" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M42" s="284"/>
+      <c r="N42" s="284"/>
+      <c r="O42" s="284"/>
+      <c r="P42" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q42" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R42" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B43" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C43" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D43" s="383" t="s">
+        <v>691</v>
+      </c>
+      <c r="E43" s="383"/>
+      <c r="F43" s="284" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G43" s="284"/>
+      <c r="H43" s="284"/>
+      <c r="I43" s="284"/>
+      <c r="J43" s="390"/>
+      <c r="K43" s="391"/>
+      <c r="L43" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M43" s="284"/>
+      <c r="N43" s="284"/>
+      <c r="O43" s="284"/>
+      <c r="P43" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q43" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R43" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="40.5">
+      <c r="A44" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B44" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C44" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D44" s="383" t="s">
+        <v>692</v>
+      </c>
+      <c r="E44" s="393" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="383" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G44" s="383" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H44" s="383" t="s">
+        <v>143</v>
+      </c>
+      <c r="I44" s="383" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J44" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K44" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L44" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M44" s="383"/>
+      <c r="N44" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O44" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P44" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q44" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R44" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B45" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C45" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D45" s="383" t="s">
+        <v>692</v>
+      </c>
+      <c r="E45" s="383"/>
+      <c r="F45" s="284" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G45" s="284"/>
+      <c r="H45" s="284"/>
+      <c r="I45" s="284"/>
+      <c r="J45" s="391"/>
+      <c r="K45" s="391"/>
+      <c r="L45" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M45" s="284"/>
+      <c r="N45" s="284"/>
+      <c r="O45" s="284"/>
+      <c r="P45" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q45" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R45" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="40.5">
+      <c r="A46" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B46" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C46" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D46" s="284" t="s">
+        <v>693</v>
+      </c>
+      <c r="E46" s="393" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F46" s="383" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G46" s="383" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H46" s="383" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I46" s="383" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J46" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K46" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L46" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M46" s="383"/>
+      <c r="N46" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O46" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P46" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q46" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R46" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C47" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D47" s="284" t="s">
+        <v>693</v>
+      </c>
+      <c r="E47" s="284"/>
+      <c r="F47" s="284" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="284"/>
+      <c r="J47" s="391"/>
+      <c r="K47" s="391"/>
+      <c r="L47" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M47" s="284"/>
+      <c r="N47" s="284"/>
+      <c r="O47" s="284"/>
+      <c r="P47" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q47" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R47" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B48" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C48" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D48" s="284" t="s">
+        <v>693</v>
+      </c>
+      <c r="E48" s="284"/>
+      <c r="F48" s="383" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G48" s="383"/>
+      <c r="H48" s="383"/>
+      <c r="I48" s="383"/>
+      <c r="J48" s="391"/>
+      <c r="K48" s="391"/>
+      <c r="L48" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M48" s="284"/>
+      <c r="N48" s="284"/>
+      <c r="O48" s="284"/>
+      <c r="P48" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q48" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R48" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="40.5">
+      <c r="A49" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B49" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C49" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D49" s="284" t="s">
+        <v>694</v>
+      </c>
+      <c r="E49" s="393" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F49" s="383" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G49" s="383" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H49" s="383" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I49" s="383" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J49" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K49" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L49" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M49" s="383"/>
+      <c r="N49" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O49" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P49" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q49" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R49" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B50" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C50" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D50" s="284" t="s">
+        <v>694</v>
+      </c>
+      <c r="E50" s="284"/>
+      <c r="F50" s="383" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G50" s="383"/>
+      <c r="H50" s="383"/>
+      <c r="I50" s="383"/>
+      <c r="J50" s="385"/>
+      <c r="K50" s="385"/>
+      <c r="L50" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M50" s="383"/>
+      <c r="N50" s="383"/>
+      <c r="O50" s="383"/>
+      <c r="P50" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q50" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R50" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B51" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C51" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D51" s="284" t="s">
+        <v>694</v>
+      </c>
+      <c r="E51" s="284"/>
+      <c r="F51" s="383" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G51" s="383"/>
+      <c r="H51" s="383"/>
+      <c r="I51" s="383"/>
+      <c r="J51" s="385"/>
+      <c r="K51" s="385"/>
+      <c r="L51" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M51" s="383"/>
+      <c r="N51" s="383"/>
+      <c r="O51" s="383"/>
+      <c r="P51" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q51" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R51" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B52" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C52" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D52" s="284" t="s">
+        <v>694</v>
+      </c>
+      <c r="E52" s="284"/>
+      <c r="F52" s="284" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G52" s="284"/>
+      <c r="H52" s="284"/>
+      <c r="I52" s="284"/>
+      <c r="J52" s="390"/>
+      <c r="K52" s="391"/>
+      <c r="L52" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M52" s="284"/>
+      <c r="N52" s="284"/>
+      <c r="O52" s="284"/>
+      <c r="P52" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q52" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R52" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="40.5">
+      <c r="A53" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B53" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C53" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D53" s="284" t="s">
+        <v>685</v>
+      </c>
+      <c r="E53" s="393" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F53" s="383" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G53" s="383" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H53" s="383" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I53" s="383">
+        <v>3</v>
+      </c>
+      <c r="J53" s="394" t="s">
+        <v>982</v>
+      </c>
+      <c r="K53" s="393" t="s">
+        <v>983</v>
+      </c>
+      <c r="L53" s="384" t="s">
+        <v>987</v>
+      </c>
+      <c r="M53" s="384"/>
+      <c r="N53" s="394" t="s">
+        <v>984</v>
+      </c>
+      <c r="O53" s="394" t="s">
+        <v>471</v>
+      </c>
+      <c r="P53" s="384" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q53" s="397" t="s">
+        <v>985</v>
+      </c>
+      <c r="R53" s="397" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B54" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C54" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D54" s="284" t="s">
+        <v>685</v>
+      </c>
+      <c r="E54" s="284"/>
+      <c r="F54" s="284" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G54" s="284"/>
+      <c r="H54" s="284"/>
+      <c r="I54" s="284"/>
+      <c r="J54" s="284"/>
+      <c r="K54" s="341"/>
+      <c r="L54" s="383"/>
+      <c r="M54" s="383"/>
+      <c r="N54" s="284"/>
+      <c r="O54" s="284"/>
+      <c r="P54" s="383"/>
+      <c r="Q54" s="386"/>
+      <c r="R54" s="386"/>
+    </row>
+    <row r="55" spans="1:18" ht="40.5">
+      <c r="A55" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B55" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C55" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D55" s="284" t="s">
+        <v>695</v>
+      </c>
+      <c r="E55" s="393" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F55" s="383" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G55" s="383" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H55" s="383" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I55" s="383" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J55" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K55" s="385" t="s">
+        <v>983</v>
+      </c>
+      <c r="L55" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M55" s="383"/>
+      <c r="N55" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O55" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P55" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q55" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R55" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B56" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C56" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D56" s="284" t="s">
+        <v>695</v>
+      </c>
+      <c r="E56" s="284"/>
+      <c r="F56" s="284" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G56" s="284"/>
+      <c r="H56" s="284"/>
+      <c r="I56" s="284"/>
+      <c r="J56" s="284"/>
+      <c r="K56" s="341"/>
+      <c r="L56" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M56" s="284"/>
+      <c r="N56" s="284"/>
+      <c r="O56" s="284"/>
+      <c r="P56" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q56" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R56" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B57" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C57" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D57" s="284" t="s">
+        <v>695</v>
+      </c>
+      <c r="E57" s="284"/>
+      <c r="F57" s="284" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G57" s="284"/>
+      <c r="H57" s="284"/>
+      <c r="I57" s="284"/>
+      <c r="J57" s="284"/>
+      <c r="K57" s="341"/>
+      <c r="L57" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M57" s="284"/>
+      <c r="N57" s="284"/>
+      <c r="O57" s="284"/>
+      <c r="P57" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q57" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R57" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B58" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C58" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D58" s="284" t="s">
+        <v>695</v>
+      </c>
+      <c r="E58" s="284"/>
+      <c r="F58" s="284" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G58" s="284"/>
+      <c r="H58" s="284"/>
+      <c r="I58" s="284"/>
+      <c r="J58" s="284"/>
+      <c r="K58" s="341"/>
+      <c r="L58" s="284" t="s">
+        <v>987</v>
+      </c>
+      <c r="M58" s="284"/>
+      <c r="N58" s="284"/>
+      <c r="O58" s="284"/>
+      <c r="P58" s="284" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q58" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="R58" s="392" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="27">
+      <c r="A59" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B59" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C59" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D59" s="338" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E59" s="323" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F59" s="383" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G59" s="383" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H59" s="383" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I59" s="383">
+        <v>44</v>
+      </c>
+      <c r="J59" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K59" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L59" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M59" s="383"/>
+      <c r="N59" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O59" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P59" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q59" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R59" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B60" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C60" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D60" s="338" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E60" s="398"/>
+      <c r="F60" s="399" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G60" s="399"/>
+      <c r="H60" s="399"/>
+      <c r="I60" s="399"/>
+      <c r="J60" s="400"/>
+      <c r="K60" s="400"/>
+      <c r="L60" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M60" s="400"/>
+      <c r="N60" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O60" s="400"/>
+      <c r="P60" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q60" s="401"/>
+      <c r="R60" s="401"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B61" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C61" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D61" s="338" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E61" s="398"/>
+      <c r="F61" s="399" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G61" s="399"/>
+      <c r="H61" s="399"/>
+      <c r="I61" s="399"/>
+      <c r="J61" s="400"/>
+      <c r="K61" s="400"/>
+      <c r="L61" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M61" s="400"/>
+      <c r="N61" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O61" s="400"/>
+      <c r="P61" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q61" s="401"/>
+      <c r="R61" s="401"/>
+    </row>
+    <row r="62" spans="1:18" ht="27">
+      <c r="A62" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B62" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C62" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D62" s="338" t="s">
+        <v>891</v>
+      </c>
+      <c r="E62" s="323" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F62" s="383" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G62" s="383" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H62" s="383" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I62" s="383"/>
+      <c r="J62" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K62" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L62" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M62" s="383"/>
+      <c r="N62" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O62" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P62" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q62" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R62" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B63" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C63" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D63" s="338" t="s">
+        <v>891</v>
+      </c>
+      <c r="E63" s="398"/>
+      <c r="F63" s="399" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G63" s="399"/>
+      <c r="H63" s="399"/>
+      <c r="I63" s="399"/>
+      <c r="J63" s="402"/>
+      <c r="K63" s="402"/>
+      <c r="L63" s="402" t="s">
+        <v>987</v>
+      </c>
+      <c r="M63" s="402"/>
+      <c r="N63" s="402" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O63" s="402"/>
+      <c r="P63" s="402" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q63" s="403"/>
+      <c r="R63" s="403"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B64" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C64" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D64" s="338" t="s">
+        <v>891</v>
+      </c>
+      <c r="E64" s="398"/>
+      <c r="F64" s="399" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G64" s="399"/>
+      <c r="H64" s="399"/>
+      <c r="I64" s="399"/>
+      <c r="J64" s="402"/>
+      <c r="K64" s="402"/>
+      <c r="L64" s="402" t="s">
+        <v>987</v>
+      </c>
+      <c r="M64" s="402"/>
+      <c r="N64" s="402" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O64" s="402"/>
+      <c r="P64" s="402" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q64" s="403"/>
+      <c r="R64" s="403"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B65" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C65" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D65" s="338" t="s">
+        <v>891</v>
+      </c>
+      <c r="E65" s="398"/>
+      <c r="F65" s="399" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G65" s="399"/>
+      <c r="H65" s="399"/>
+      <c r="I65" s="399"/>
+      <c r="J65" s="402"/>
+      <c r="K65" s="402"/>
+      <c r="L65" s="402" t="s">
+        <v>987</v>
+      </c>
+      <c r="M65" s="402"/>
+      <c r="N65" s="402" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O65" s="402"/>
+      <c r="P65" s="402" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q65" s="403"/>
+      <c r="R65" s="403"/>
+    </row>
+    <row r="66" spans="1:18" ht="27">
+      <c r="A66" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B66" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C66" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D66" s="338" t="s">
+        <v>892</v>
+      </c>
+      <c r="E66" s="323" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F66" s="383" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G66" s="383" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H66" s="383" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I66" s="383"/>
+      <c r="J66" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K66" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L66" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M66" s="383"/>
+      <c r="N66" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O66" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P66" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q66" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R66" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B67" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C67" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D67" s="338" t="s">
+        <v>892</v>
+      </c>
+      <c r="E67" s="398"/>
+      <c r="F67" s="399" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G67" s="399"/>
+      <c r="H67" s="399"/>
+      <c r="I67" s="399"/>
+      <c r="J67" s="400"/>
+      <c r="K67" s="400"/>
+      <c r="L67" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M67" s="400"/>
+      <c r="N67" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O67" s="400"/>
+      <c r="P67" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q67" s="401"/>
+      <c r="R67" s="401"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C68" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D68" s="338" t="s">
+        <v>892</v>
+      </c>
+      <c r="E68" s="398"/>
+      <c r="F68" s="399" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G68" s="399"/>
+      <c r="H68" s="399"/>
+      <c r="I68" s="399"/>
+      <c r="J68" s="400"/>
+      <c r="K68" s="400"/>
+      <c r="L68" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M68" s="400"/>
+      <c r="N68" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O68" s="400"/>
+      <c r="P68" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q68" s="401"/>
+      <c r="R68" s="401"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B69" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C69" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D69" s="338" t="s">
+        <v>892</v>
+      </c>
+      <c r="E69" s="398"/>
+      <c r="F69" s="399" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G69" s="399"/>
+      <c r="H69" s="399"/>
+      <c r="I69" s="399"/>
+      <c r="J69" s="400"/>
+      <c r="K69" s="400"/>
+      <c r="L69" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M69" s="400"/>
+      <c r="N69" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O69" s="400"/>
+      <c r="P69" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q69" s="401"/>
+      <c r="R69" s="401"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B70" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C70" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D70" s="338" t="s">
+        <v>892</v>
+      </c>
+      <c r="E70" s="398"/>
+      <c r="F70" s="399" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G70" s="399"/>
+      <c r="H70" s="399"/>
+      <c r="I70" s="399"/>
+      <c r="J70" s="400"/>
+      <c r="K70" s="400"/>
+      <c r="L70" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M70" s="400"/>
+      <c r="N70" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O70" s="400"/>
+      <c r="P70" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q70" s="401"/>
+      <c r="R70" s="401"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C71" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D71" s="338" t="s">
+        <v>892</v>
+      </c>
+      <c r="E71" s="398"/>
+      <c r="F71" s="399" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G71" s="399"/>
+      <c r="H71" s="399"/>
+      <c r="I71" s="399"/>
+      <c r="J71" s="400"/>
+      <c r="K71" s="400"/>
+      <c r="L71" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M71" s="400"/>
+      <c r="N71" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O71" s="400"/>
+      <c r="P71" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q71" s="401"/>
+      <c r="R71" s="401"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B72" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C72" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D72" s="338" t="s">
+        <v>892</v>
+      </c>
+      <c r="E72" s="398"/>
+      <c r="F72" s="399" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G72" s="399"/>
+      <c r="H72" s="399"/>
+      <c r="I72" s="399"/>
+      <c r="J72" s="400"/>
+      <c r="K72" s="400"/>
+      <c r="L72" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M72" s="400"/>
+      <c r="N72" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O72" s="400"/>
+      <c r="P72" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q72" s="401"/>
+      <c r="R72" s="401"/>
+    </row>
+    <row r="73" spans="1:18" ht="27">
+      <c r="A73" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C73" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D73" s="338" t="s">
+        <v>890</v>
+      </c>
+      <c r="E73" s="323" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F73" s="383" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G73" s="383" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H73" s="383" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I73" s="383"/>
+      <c r="J73" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K73" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L73" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M73" s="383"/>
+      <c r="N73" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O73" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P73" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q73" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R73" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B74" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C74" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D74" s="338" t="s">
+        <v>890</v>
+      </c>
+      <c r="E74" s="398"/>
+      <c r="F74" s="399" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G74" s="399"/>
+      <c r="H74" s="399"/>
+      <c r="I74" s="399"/>
+      <c r="J74" s="402"/>
+      <c r="K74" s="402"/>
+      <c r="L74" s="402" t="s">
+        <v>987</v>
+      </c>
+      <c r="M74" s="402"/>
+      <c r="N74" s="402" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O74" s="402"/>
+      <c r="P74" s="402" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q74" s="403"/>
+      <c r="R74" s="403"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B75" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C75" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D75" s="338" t="s">
+        <v>890</v>
+      </c>
+      <c r="E75" s="398"/>
+      <c r="F75" s="399" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G75" s="399"/>
+      <c r="H75" s="399"/>
+      <c r="I75" s="399"/>
+      <c r="J75" s="402"/>
+      <c r="K75" s="402"/>
+      <c r="L75" s="402" t="s">
+        <v>987</v>
+      </c>
+      <c r="M75" s="402"/>
+      <c r="N75" s="402" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O75" s="402"/>
+      <c r="P75" s="402" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q75" s="403"/>
+      <c r="R75" s="403"/>
+    </row>
+    <row r="76" spans="1:18" ht="27">
+      <c r="A76" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B76" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C76" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D76" s="404" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="323" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F76" s="383" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G76" s="383" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H76" s="383" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I76" s="383"/>
+      <c r="J76" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K76" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L76" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M76" s="383"/>
+      <c r="N76" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O76" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P76" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q76" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R76" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B77" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C77" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D77" s="404" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="398"/>
+      <c r="F77" s="399" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G77" s="399"/>
+      <c r="H77" s="399"/>
+      <c r="I77" s="399"/>
+      <c r="J77" s="405"/>
+      <c r="K77" s="405"/>
+      <c r="L77" s="405" t="s">
+        <v>987</v>
+      </c>
+      <c r="M77" s="405"/>
+      <c r="N77" s="405" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O77" s="405"/>
+      <c r="P77" s="405" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q77" s="406"/>
+      <c r="R77" s="406"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B78" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C78" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D78" s="404" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" s="407"/>
+      <c r="F78" s="405" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G78" s="405"/>
+      <c r="H78" s="405"/>
+      <c r="I78" s="405"/>
+      <c r="J78" s="405"/>
+      <c r="K78" s="405"/>
+      <c r="L78" s="405" t="s">
+        <v>987</v>
+      </c>
+      <c r="M78" s="405"/>
+      <c r="N78" s="405" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O78" s="405"/>
+      <c r="P78" s="405" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q78" s="406"/>
+      <c r="R78" s="406"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B79" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C79" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D79" s="404" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="407"/>
+      <c r="F79" s="405" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G79" s="405"/>
+      <c r="H79" s="405"/>
+      <c r="I79" s="405"/>
+      <c r="J79" s="405"/>
+      <c r="K79" s="405"/>
+      <c r="L79" s="405" t="s">
+        <v>987</v>
+      </c>
+      <c r="M79" s="405"/>
+      <c r="N79" s="405" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O79" s="405"/>
+      <c r="P79" s="405" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q79" s="406"/>
+      <c r="R79" s="406"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B80" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C80" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D80" s="404" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" s="407"/>
+      <c r="F80" s="405" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G80" s="405"/>
+      <c r="H80" s="405"/>
+      <c r="I80" s="405"/>
+      <c r="J80" s="405"/>
+      <c r="K80" s="405"/>
+      <c r="L80" s="405" t="s">
+        <v>987</v>
+      </c>
+      <c r="M80" s="405"/>
+      <c r="N80" s="405" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O80" s="405"/>
+      <c r="P80" s="405" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q80" s="406"/>
+      <c r="R80" s="406"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B81" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C81" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D81" s="404" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" s="407"/>
+      <c r="F81" s="405" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G81" s="405"/>
+      <c r="H81" s="405"/>
+      <c r="I81" s="405"/>
+      <c r="J81" s="405"/>
+      <c r="K81" s="405"/>
+      <c r="L81" s="405" t="s">
+        <v>987</v>
+      </c>
+      <c r="M81" s="405"/>
+      <c r="N81" s="405" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O81" s="405"/>
+      <c r="P81" s="405" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q81" s="406"/>
+      <c r="R81" s="406"/>
+    </row>
+    <row r="82" spans="1:18" ht="27">
+      <c r="A82" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B82" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C82" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D82" s="338" t="s">
+        <v>893</v>
+      </c>
+      <c r="E82" s="323" t="s">
+        <v>914</v>
+      </c>
+      <c r="F82" s="383" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G82" s="383" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H82" s="383" t="s">
+        <v>73</v>
+      </c>
+      <c r="I82" s="383">
+        <v>6</v>
+      </c>
+      <c r="J82" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K82" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L82" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M82" s="383"/>
+      <c r="N82" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O82" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P82" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q82" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R82" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B83" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C83" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D83" s="338" t="s">
+        <v>893</v>
+      </c>
+      <c r="E83" s="398"/>
+      <c r="F83" s="399" t="s">
+        <v>270</v>
+      </c>
+      <c r="G83" s="399"/>
+      <c r="H83" s="399"/>
+      <c r="I83" s="399"/>
+      <c r="J83" s="400"/>
+      <c r="K83" s="400"/>
+      <c r="L83" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M83" s="400"/>
+      <c r="N83" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O83" s="400"/>
+      <c r="P83" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q83" s="401"/>
+      <c r="R83" s="401"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B84" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C84" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D84" s="338" t="s">
+        <v>893</v>
+      </c>
+      <c r="E84" s="398"/>
+      <c r="F84" s="399" t="s">
+        <v>271</v>
+      </c>
+      <c r="G84" s="399"/>
+      <c r="H84" s="399"/>
+      <c r="I84" s="399"/>
+      <c r="J84" s="95"/>
+      <c r="K84" s="95"/>
+      <c r="L84" s="95"/>
+      <c r="M84" s="95"/>
+      <c r="N84" s="95"/>
+      <c r="O84" s="95"/>
+      <c r="P84" s="95"/>
+      <c r="Q84" s="408"/>
+      <c r="R84" s="408"/>
+    </row>
+    <row r="85" spans="1:18" ht="27">
+      <c r="A85" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B85" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C85" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D85" s="338" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E85" s="323" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F85" s="383" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G85" s="383" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H85" s="383" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I85" s="383">
+        <v>9</v>
+      </c>
+      <c r="J85" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K85" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L85" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M85" s="383"/>
+      <c r="N85" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O85" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P85" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q85" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R85" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B86" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C86" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D86" s="338" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E86" s="398"/>
+      <c r="F86" s="399" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G86" s="399"/>
+      <c r="H86" s="399"/>
+      <c r="I86" s="399"/>
+      <c r="J86" s="400"/>
+      <c r="K86" s="400"/>
+      <c r="L86" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M86" s="400"/>
+      <c r="N86" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O86" s="400"/>
+      <c r="P86" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q86" s="401"/>
+      <c r="R86" s="401"/>
+    </row>
+    <row r="87" spans="1:18" ht="27">
+      <c r="A87" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B87" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C87" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D87" s="338" t="s">
+        <v>878</v>
+      </c>
+      <c r="E87" s="323" t="s">
+        <v>932</v>
+      </c>
+      <c r="F87" s="383" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G87" s="383" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H87" s="383" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I87" s="383">
+        <v>26</v>
+      </c>
+      <c r="J87" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K87" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L87" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M87" s="383"/>
+      <c r="N87" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O87" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P87" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q87" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R87" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B88" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C88" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D88" s="338" t="s">
+        <v>878</v>
+      </c>
+      <c r="E88" s="398"/>
+      <c r="F88" s="399" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G88" s="399"/>
+      <c r="H88" s="399"/>
+      <c r="I88" s="399"/>
+      <c r="J88" s="400"/>
+      <c r="K88" s="400"/>
+      <c r="L88" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M88" s="400"/>
+      <c r="N88" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O88" s="400"/>
+      <c r="P88" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q88" s="401"/>
+      <c r="R88" s="401"/>
+    </row>
+    <row r="89" spans="1:18" ht="27">
+      <c r="A89" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B89" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C89" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D89" s="338" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E89" s="323" t="s">
+        <v>933</v>
+      </c>
+      <c r="F89" s="383" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G89" s="383" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H89" s="383" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I89" s="383">
+        <v>38</v>
+      </c>
+      <c r="J89" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K89" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L89" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M89" s="383"/>
+      <c r="N89" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O89" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P89" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q89" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R89" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B90" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C90" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D90" s="338" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E90" s="398"/>
+      <c r="F90" s="399" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G90" s="399"/>
+      <c r="H90" s="399"/>
+      <c r="I90" s="399"/>
+      <c r="J90" s="400"/>
+      <c r="K90" s="400"/>
+      <c r="L90" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M90" s="400"/>
+      <c r="N90" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O90" s="400"/>
+      <c r="P90" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q90" s="401"/>
+      <c r="R90" s="401"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B91" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C91" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D91" s="338" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E91" s="398"/>
+      <c r="F91" s="399" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G91" s="399"/>
+      <c r="H91" s="399"/>
+      <c r="I91" s="399"/>
+      <c r="J91" s="400"/>
+      <c r="K91" s="400"/>
+      <c r="L91" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M91" s="400"/>
+      <c r="N91" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O91" s="400"/>
+      <c r="P91" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q91" s="401"/>
+      <c r="R91" s="401"/>
+    </row>
+    <row r="92" spans="1:18" ht="27">
+      <c r="A92" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B92" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C92" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D92" s="338" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E92" s="323" t="s">
+        <v>934</v>
+      </c>
+      <c r="F92" s="383" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G92" s="383" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H92" s="383" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I92" s="383">
+        <v>41</v>
+      </c>
+      <c r="J92" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K92" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L92" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M92" s="383"/>
+      <c r="N92" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O92" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P92" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q92" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R92" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B93" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C93" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D93" s="338" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E93" s="398"/>
+      <c r="F93" s="399" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G93" s="399"/>
+      <c r="H93" s="399"/>
+      <c r="I93" s="399"/>
+      <c r="J93" s="400"/>
+      <c r="K93" s="400"/>
+      <c r="L93" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M93" s="400"/>
+      <c r="N93" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O93" s="400"/>
+      <c r="P93" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q93" s="401"/>
+      <c r="R93" s="401"/>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B94" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C94" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D94" s="338" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E94" s="398"/>
+      <c r="F94" s="399" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G94" s="399"/>
+      <c r="H94" s="399"/>
+      <c r="I94" s="399"/>
+      <c r="J94" s="400"/>
+      <c r="K94" s="400"/>
+      <c r="L94" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M94" s="400"/>
+      <c r="N94" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O94" s="400"/>
+      <c r="P94" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q94" s="401"/>
+      <c r="R94" s="401"/>
+    </row>
+    <row r="95" spans="1:18" ht="27">
+      <c r="A95" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B95" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C95" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D95" s="338" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E95" s="323" t="s">
+        <v>935</v>
+      </c>
+      <c r="F95" s="383" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G95" s="383" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H95" s="383" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I95" s="383">
+        <v>17</v>
+      </c>
+      <c r="J95" s="400"/>
+      <c r="K95" s="400"/>
+      <c r="L95" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M95" s="400"/>
+      <c r="N95" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O95" s="400"/>
+      <c r="P95" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q95" s="401"/>
+      <c r="R95" s="401"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B96" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C96" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D96" s="338" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E96" s="398"/>
+      <c r="F96" s="399" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G96" s="399"/>
+      <c r="H96" s="399"/>
+      <c r="I96" s="399"/>
+      <c r="J96" s="400"/>
+      <c r="K96" s="400"/>
+      <c r="L96" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M96" s="400"/>
+      <c r="N96" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O96" s="400"/>
+      <c r="P96" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q96" s="401"/>
+      <c r="R96" s="401"/>
+    </row>
+    <row r="97" spans="1:18" ht="27">
+      <c r="A97" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B97" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C97" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D97" s="338" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E97" s="323" t="s">
+        <v>936</v>
+      </c>
+      <c r="F97" s="383" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G97" s="383" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H97" s="383" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I97" s="383">
+        <v>27</v>
+      </c>
+      <c r="J97" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K97" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L97" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M97" s="383"/>
+      <c r="N97" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O97" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P97" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q97" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R97" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B98" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C98" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D98" s="338" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E98" s="398"/>
+      <c r="F98" s="399" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G98" s="399"/>
+      <c r="H98" s="399"/>
+      <c r="I98" s="399"/>
+      <c r="J98" s="400"/>
+      <c r="K98" s="400"/>
+      <c r="L98" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M98" s="400"/>
+      <c r="N98" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O98" s="400"/>
+      <c r="P98" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q98" s="401"/>
+      <c r="R98" s="401"/>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B99" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C99" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D99" s="338" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E99" s="398"/>
+      <c r="F99" s="399" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G99" s="399"/>
+      <c r="H99" s="399"/>
+      <c r="I99" s="399"/>
+      <c r="J99" s="400"/>
+      <c r="K99" s="400"/>
+      <c r="L99" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M99" s="400"/>
+      <c r="N99" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O99" s="400"/>
+      <c r="P99" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q99" s="401"/>
+      <c r="R99" s="401"/>
+    </row>
+    <row r="100" spans="1:18" ht="27">
+      <c r="A100" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B100" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C100" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D100" s="338" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E100" s="323" t="s">
+        <v>937</v>
+      </c>
+      <c r="F100" s="383" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G100" s="383" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H100" s="383" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I100" s="383">
+        <v>8</v>
+      </c>
+      <c r="J100" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K100" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L100" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M100" s="383"/>
+      <c r="N100" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O100" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P100" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q100" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R100" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B101" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C101" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D101" s="338" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E101" s="398"/>
+      <c r="F101" s="399" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G101" s="399"/>
+      <c r="H101" s="399"/>
+      <c r="I101" s="399"/>
+      <c r="J101" s="400"/>
+      <c r="K101" s="400"/>
+      <c r="L101" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M101" s="400"/>
+      <c r="N101" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O101" s="400"/>
+      <c r="P101" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q101" s="401"/>
+      <c r="R101" s="401"/>
+    </row>
+    <row r="102" spans="1:18" ht="27">
+      <c r="A102" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B102" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C102" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D102" s="338" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E102" s="323" t="s">
+        <v>938</v>
+      </c>
+      <c r="F102" s="383" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G102" s="383" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H102" s="383" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I102" s="383"/>
+      <c r="J102" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K102" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L102" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M102" s="383"/>
+      <c r="N102" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O102" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P102" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q102" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R102" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B103" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C103" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D103" s="338" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E103" s="398"/>
+      <c r="F103" s="399" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G103" s="399"/>
+      <c r="H103" s="399"/>
+      <c r="I103" s="399"/>
+      <c r="J103" s="400"/>
+      <c r="K103" s="400"/>
+      <c r="L103" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M103" s="400"/>
+      <c r="N103" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O103" s="400"/>
+      <c r="P103" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q103" s="401"/>
+      <c r="R103" s="401"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B104" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C104" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D104" s="338" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E104" s="398"/>
+      <c r="F104" s="399" t="s">
+        <v>249</v>
+      </c>
+      <c r="G104" s="399"/>
+      <c r="H104" s="399"/>
+      <c r="I104" s="399"/>
+      <c r="J104" s="400"/>
+      <c r="K104" s="400"/>
+      <c r="L104" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M104" s="400"/>
+      <c r="N104" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O104" s="400"/>
+      <c r="P104" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q104" s="401"/>
+      <c r="R104" s="401"/>
+    </row>
+    <row r="105" spans="1:18" ht="27">
+      <c r="A105" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B105" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C105" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D105" s="338" t="s">
+        <v>877</v>
+      </c>
+      <c r="E105" s="323" t="s">
+        <v>907</v>
+      </c>
+      <c r="F105" s="383" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G105" s="383" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H105" s="383" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I105" s="383">
+        <v>8</v>
+      </c>
+      <c r="J105" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K105" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L105" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M105" s="383"/>
+      <c r="N105" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O105" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P105" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q105" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R105" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B106" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C106" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D106" s="338" t="s">
+        <v>877</v>
+      </c>
+      <c r="E106" s="398"/>
+      <c r="F106" s="399" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G106" s="399"/>
+      <c r="H106" s="399"/>
+      <c r="I106" s="399"/>
+      <c r="J106" s="400"/>
+      <c r="K106" s="400"/>
+      <c r="L106" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M106" s="400"/>
+      <c r="N106" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O106" s="400"/>
+      <c r="P106" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q106" s="401"/>
+      <c r="R106" s="401"/>
+    </row>
+    <row r="107" spans="1:18" ht="27">
+      <c r="A107" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B107" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C107" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D107" s="338" t="s">
+        <v>879</v>
+      </c>
+      <c r="E107" s="323" t="s">
+        <v>939</v>
+      </c>
+      <c r="F107" s="383" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G107" s="383" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H107" s="383" t="s">
+        <v>70</v>
+      </c>
+      <c r="I107" s="383">
+        <v>6</v>
+      </c>
+      <c r="J107" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K107" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L107" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M107" s="383"/>
+      <c r="N107" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O107" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P107" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q107" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R107" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B108" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C108" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D108" s="338" t="s">
+        <v>879</v>
+      </c>
+      <c r="E108" s="398"/>
+      <c r="F108" s="399" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G108" s="399"/>
+      <c r="H108" s="399"/>
+      <c r="I108" s="399"/>
+      <c r="J108" s="400"/>
+      <c r="K108" s="400"/>
+      <c r="L108" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M108" s="400"/>
+      <c r="N108" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O108" s="400"/>
+      <c r="P108" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q108" s="401"/>
+      <c r="R108" s="401"/>
+    </row>
+    <row r="109" spans="1:18" ht="27">
+      <c r="A109" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B109" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C109" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D109" s="338" t="s">
+        <v>875</v>
+      </c>
+      <c r="E109" s="323" t="s">
+        <v>940</v>
+      </c>
+      <c r="F109" s="383" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G109" s="383" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H109" s="383" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I109" s="383">
+        <v>7</v>
+      </c>
+      <c r="J109" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K109" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L109" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M109" s="383"/>
+      <c r="N109" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O109" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P109" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q109" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R109" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B110" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C110" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D110" s="338" t="s">
+        <v>875</v>
+      </c>
+      <c r="E110" s="398"/>
+      <c r="F110" s="399" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G110" s="399"/>
+      <c r="H110" s="399"/>
+      <c r="I110" s="399"/>
+      <c r="J110" s="400"/>
+      <c r="K110" s="400"/>
+      <c r="L110" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M110" s="400"/>
+      <c r="N110" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O110" s="400"/>
+      <c r="P110" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q110" s="401"/>
+      <c r="R110" s="401"/>
+    </row>
+    <row r="111" spans="1:18" ht="27">
+      <c r="A111" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B111" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C111" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D111" s="338" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E111" s="323" t="s">
+        <v>941</v>
+      </c>
+      <c r="F111" s="383" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G111" s="383" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H111" s="383" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I111" s="383">
+        <v>7</v>
+      </c>
+      <c r="J111" s="385" t="s">
+        <v>982</v>
+      </c>
+      <c r="K111" s="385" t="s">
+        <v>43</v>
+      </c>
+      <c r="L111" s="383" t="s">
+        <v>987</v>
+      </c>
+      <c r="M111" s="383"/>
+      <c r="N111" s="383" t="s">
+        <v>984</v>
+      </c>
+      <c r="O111" s="383" t="s">
+        <v>471</v>
+      </c>
+      <c r="P111" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q111" s="386" t="s">
+        <v>985</v>
+      </c>
+      <c r="R111" s="386" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="383" t="s">
+        <v>461</v>
+      </c>
+      <c r="B112" s="384" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C112" s="384" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D112" s="338" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E112" s="398"/>
+      <c r="F112" s="399" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G112" s="399"/>
+      <c r="H112" s="399"/>
+      <c r="I112" s="399"/>
+      <c r="J112" s="400"/>
+      <c r="K112" s="400"/>
+      <c r="L112" s="400" t="s">
+        <v>987</v>
+      </c>
+      <c r="M112" s="400"/>
+      <c r="N112" s="400" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O112" s="400"/>
+      <c r="P112" s="400" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q112" s="401"/>
+      <c r="R112" s="401"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9438,10 +16052,10 @@
       <c r="D2" s="97"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="354" t="s">
+      <c r="B3" s="364" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="354"/>
+      <c r="C3" s="364"/>
       <c r="D3" s="93" t="s">
         <v>324</v>
       </c>
@@ -9459,10 +16073,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="355" t="s">
+      <c r="B4" s="365" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="356"/>
+      <c r="C4" s="366"/>
       <c r="D4" s="96" t="s">
         <v>323</v>
       </c>
@@ -9480,7 +16094,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="367" t="s">
         <v>320</v>
       </c>
       <c r="C5" s="113" t="s">
@@ -9501,7 +16115,7 @@
       <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="358"/>
+      <c r="B6" s="368"/>
       <c r="C6" s="113" t="s">
         <v>327</v>
       </c>
@@ -9540,10 +16154,10 @@
       <c r="H8" s="122"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="354" t="s">
+      <c r="B10" s="364" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="354"/>
+      <c r="C10" s="364"/>
       <c r="D10" s="93" t="s">
         <v>312</v>
       </c>
@@ -9561,10 +16175,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="353" t="s">
+      <c r="B11" s="363" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="353"/>
+      <c r="C11" s="363"/>
       <c r="D11" s="82" t="s">
         <v>306</v>
       </c>
@@ -9582,10 +16196,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="353" t="s">
+      <c r="B12" s="363" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="353"/>
+      <c r="C12" s="363"/>
       <c r="D12" s="82" t="s">
         <v>304</v>
       </c>
@@ -9603,10 +16217,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="353" t="s">
+      <c r="B13" s="363" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="353"/>
+      <c r="C13" s="363"/>
       <c r="D13" s="82" t="s">
         <v>300</v>
       </c>
@@ -9622,10 +16236,10 @@
       <c r="H13" s="116"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="353" t="s">
+      <c r="B14" s="363" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="353"/>
+      <c r="C14" s="363"/>
       <c r="D14" s="82" t="s">
         <v>298</v>
       </c>
@@ -9643,10 +16257,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="353" t="s">
+      <c r="B15" s="363" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="353"/>
+      <c r="C15" s="363"/>
       <c r="D15" s="92"/>
       <c r="E15" s="91" t="s">
         <v>295</v>
@@ -9660,10 +16274,10 @@
       <c r="H15" s="114"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="353" t="s">
+      <c r="B16" s="363" t="s">
         <v>293</v>
       </c>
-      <c r="C16" s="353"/>
+      <c r="C16" s="363"/>
       <c r="D16" s="82" t="s">
         <v>328</v>
       </c>
@@ -9793,7 +16407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10305,7 +16919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10725,7 +17339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -10739,7 +17353,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="359" t="s">
+      <c r="A1" s="369" t="s">
         <v>486</v>
       </c>
       <c r="B1" s="193" t="s">
@@ -10748,22 +17362,22 @@
       <c r="C1" s="193" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="359" t="s">
+      <c r="D1" s="369" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="359" t="s">
+      <c r="E1" s="369" t="s">
         <v>489</v>
       </c>
-      <c r="F1" s="359" t="s">
+      <c r="F1" s="369" t="s">
         <v>490</v>
       </c>
-      <c r="G1" s="359" t="s">
+      <c r="G1" s="369" t="s">
         <v>491</v>
       </c>
       <c r="H1" s="193" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="359" t="s">
+      <c r="I1" s="369" t="s">
         <v>493</v>
       </c>
       <c r="J1" s="193" t="s">
@@ -10775,53 +17389,53 @@
       <c r="L1" s="193" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="359" t="s">
+      <c r="M1" s="369" t="s">
         <v>497</v>
       </c>
-      <c r="N1" s="359" t="s">
+      <c r="N1" s="369" t="s">
         <v>475</v>
       </c>
-      <c r="O1" s="359" t="s">
+      <c r="O1" s="369" t="s">
         <v>498</v>
       </c>
-      <c r="P1" s="359" t="s">
+      <c r="P1" s="369" t="s">
         <v>499</v>
       </c>
       <c r="Q1" s="193" t="s">
         <v>500</v>
       </c>
-      <c r="R1" s="359" t="s">
+      <c r="R1" s="369" t="s">
         <v>501</v>
       </c>
-      <c r="S1" s="359" t="s">
+      <c r="S1" s="369" t="s">
         <v>502</v>
       </c>
-      <c r="T1" s="359" t="s">
+      <c r="T1" s="369" t="s">
         <v>503</v>
       </c>
-      <c r="U1" s="359" t="s">
+      <c r="U1" s="369" t="s">
         <v>504</v>
       </c>
-      <c r="V1" s="359" t="s">
+      <c r="V1" s="369" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="360"/>
+      <c r="A2" s="370"/>
       <c r="B2" s="194" t="s">
         <v>505</v>
       </c>
       <c r="C2" s="194" t="s">
         <v>506</v>
       </c>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
+      <c r="G2" s="370"/>
       <c r="H2" s="194" t="s">
         <v>507</v>
       </c>
-      <c r="I2" s="360"/>
+      <c r="I2" s="370"/>
       <c r="J2" s="194" t="s">
         <v>508</v>
       </c>
@@ -10831,82 +17445,77 @@
       <c r="L2" s="194" t="s">
         <v>506</v>
       </c>
-      <c r="M2" s="360"/>
-      <c r="N2" s="360"/>
-      <c r="O2" s="360"/>
-      <c r="P2" s="360"/>
+      <c r="M2" s="370"/>
+      <c r="N2" s="370"/>
+      <c r="O2" s="370"/>
+      <c r="P2" s="370"/>
       <c r="Q2" s="194" t="s">
         <v>510</v>
       </c>
-      <c r="R2" s="360"/>
-      <c r="S2" s="360"/>
-      <c r="T2" s="360"/>
-      <c r="U2" s="360"/>
-      <c r="V2" s="360"/>
+      <c r="R2" s="370"/>
+      <c r="S2" s="370"/>
+      <c r="T2" s="370"/>
+      <c r="U2" s="370"/>
+      <c r="V2" s="370"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="371" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="362"/>
-      <c r="K3" s="362"/>
-      <c r="L3" s="362"/>
-      <c r="M3" s="363"/>
-      <c r="N3" s="361" t="s">
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="372"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="372"/>
+      <c r="L3" s="372"/>
+      <c r="M3" s="373"/>
+      <c r="N3" s="371" t="s">
         <v>512</v>
       </c>
-      <c r="O3" s="362"/>
-      <c r="P3" s="362"/>
-      <c r="Q3" s="362"/>
-      <c r="R3" s="362"/>
-      <c r="S3" s="362"/>
-      <c r="T3" s="363"/>
-      <c r="U3" s="361" t="s">
+      <c r="O3" s="372"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="372"/>
+      <c r="R3" s="372"/>
+      <c r="S3" s="372"/>
+      <c r="T3" s="373"/>
+      <c r="U3" s="371" t="s">
         <v>513</v>
       </c>
-      <c r="V3" s="363"/>
+      <c r="V3" s="373"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="364"/>
-      <c r="B4" s="365"/>
-      <c r="C4" s="365"/>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="365"/>
-      <c r="K4" s="365"/>
-      <c r="L4" s="365"/>
-      <c r="M4" s="366"/>
-      <c r="N4" s="364"/>
-      <c r="O4" s="365"/>
-      <c r="P4" s="365"/>
-      <c r="Q4" s="365"/>
-      <c r="R4" s="365"/>
-      <c r="S4" s="365"/>
-      <c r="T4" s="366"/>
-      <c r="U4" s="364" t="s">
+      <c r="A4" s="374"/>
+      <c r="B4" s="375"/>
+      <c r="C4" s="375"/>
+      <c r="D4" s="375"/>
+      <c r="E4" s="375"/>
+      <c r="F4" s="375"/>
+      <c r="G4" s="375"/>
+      <c r="H4" s="375"/>
+      <c r="I4" s="375"/>
+      <c r="J4" s="375"/>
+      <c r="K4" s="375"/>
+      <c r="L4" s="375"/>
+      <c r="M4" s="376"/>
+      <c r="N4" s="374"/>
+      <c r="O4" s="375"/>
+      <c r="P4" s="375"/>
+      <c r="Q4" s="375"/>
+      <c r="R4" s="375"/>
+      <c r="S4" s="375"/>
+      <c r="T4" s="376"/>
+      <c r="U4" s="374" t="s">
         <v>514</v>
       </c>
-      <c r="V4" s="366"/>
+      <c r="V4" s="376"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
     <mergeCell ref="N3:T4"/>
     <mergeCell ref="U3:V3"/>
@@ -10921,6 +17530,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16277,60 +22891,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="352" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
+      <c r="N1" s="352"/>
     </row>
     <row r="2" spans="1:15" s="37" customFormat="1" ht="20.25">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="353" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
-      <c r="H2" s="343"/>
-      <c r="I2" s="343"/>
-      <c r="J2" s="343"/>
-      <c r="K2" s="343"/>
-      <c r="L2" s="343"/>
-      <c r="M2" s="343"/>
-      <c r="N2" s="343"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="353"/>
+      <c r="N2" s="353"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="344" t="s">
+      <c r="A3" s="354" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="344" t="s">
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="355"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="354" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="355"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="355"/>
+      <c r="N3" s="355"/>
       <c r="O3" s="170" t="s">
         <v>441</v>
       </c>
@@ -23362,62 +29976,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="347" t="s">
+      <c r="A1" s="357" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
-      <c r="N1" s="347"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
       <c r="O1" s="292"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="348" t="s">
+      <c r="A2" s="358" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
-      <c r="L2" s="348"/>
-      <c r="M2" s="348"/>
-      <c r="N2" s="348"/>
+      <c r="B2" s="358"/>
+      <c r="C2" s="358"/>
+      <c r="D2" s="358"/>
+      <c r="E2" s="358"/>
+      <c r="F2" s="358"/>
+      <c r="G2" s="358"/>
+      <c r="H2" s="358"/>
+      <c r="I2" s="358"/>
+      <c r="J2" s="358"/>
+      <c r="K2" s="358"/>
+      <c r="L2" s="358"/>
+      <c r="M2" s="358"/>
+      <c r="N2" s="358"/>
       <c r="O2" s="291"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="349"/>
-      <c r="G3" s="349"/>
-      <c r="H3" s="349" t="s">
+      <c r="B3" s="359"/>
+      <c r="C3" s="359"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="359"/>
+      <c r="F3" s="359"/>
+      <c r="G3" s="359"/>
+      <c r="H3" s="359" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="349"/>
-      <c r="J3" s="349"/>
-      <c r="K3" s="349"/>
-      <c r="L3" s="349"/>
-      <c r="M3" s="349"/>
-      <c r="N3" s="349"/>
+      <c r="I3" s="359"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="359"/>
+      <c r="L3" s="359"/>
+      <c r="M3" s="359"/>
+      <c r="N3" s="359"/>
       <c r="O3" s="170" t="s">
         <v>441</v>
       </c>

--- a/라키비움_경기천년사업 기능별 분류맵(안).xlsx
+++ b/라키비움_경기천년사업 기능별 분류맵(안).xlsx
@@ -7921,7 +7921,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="410">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8857,108 +8857,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8980,18 +8884,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -9000,12 +8895,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9033,6 +8922,132 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="207">
@@ -9563,60 +9578,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1">
-      <c r="A1" s="347" t="s">
+      <c r="A1" s="373" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
-      <c r="N1" s="347"/>
+      <c r="B1" s="373"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
+      <c r="G1" s="373"/>
+      <c r="H1" s="373"/>
+      <c r="I1" s="373"/>
+      <c r="J1" s="373"/>
+      <c r="K1" s="373"/>
+      <c r="L1" s="373"/>
+      <c r="M1" s="373"/>
+      <c r="N1" s="373"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1">
-      <c r="A2" s="348" t="s">
+      <c r="A2" s="374" t="s">
         <v>1032</v>
       </c>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
-      <c r="L2" s="348"/>
-      <c r="M2" s="348"/>
-      <c r="N2" s="348"/>
+      <c r="B2" s="374"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
+      <c r="F2" s="374"/>
+      <c r="G2" s="374"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="374"/>
+      <c r="J2" s="374"/>
+      <c r="K2" s="374"/>
+      <c r="L2" s="374"/>
+      <c r="M2" s="374"/>
+      <c r="N2" s="374"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="375" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="349" t="s">
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="375" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
-      <c r="K3" s="350"/>
-      <c r="L3" s="350"/>
-      <c r="M3" s="350"/>
-      <c r="N3" s="351"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="376"/>
+      <c r="M3" s="376"/>
+      <c r="N3" s="377"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="193" t="s">
@@ -11119,34 +11134,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="386" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="360" t="s">
+      <c r="B1" s="386" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="360" t="s">
+      <c r="C1" s="386" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="362" t="s">
+      <c r="D1" s="388" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="362"/>
-      <c r="F1" s="360" t="s">
+      <c r="E1" s="388"/>
+      <c r="F1" s="386" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="361"/>
-      <c r="B2" s="361"/>
-      <c r="C2" s="361"/>
+      <c r="A2" s="387"/>
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
       <c r="D2" s="98" t="s">
         <v>180</v>
       </c>
       <c r="E2" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="361"/>
+      <c r="F2" s="387"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="99" t="s">
@@ -11385,612 +11400,613 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13" style="36" customWidth="1"/>
-    <col min="2" max="2" width="19" style="409" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="409" customWidth="1"/>
+    <col min="2" max="2" width="19" style="372" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="372" customWidth="1"/>
     <col min="4" max="4" width="40" style="36" customWidth="1"/>
     <col min="5" max="5" width="50.375" style="36" customWidth="1"/>
     <col min="6" max="7" width="27.625" style="36" customWidth="1"/>
     <col min="8" max="8" width="16" style="36" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="9" style="36"/>
-    <col min="11" max="11" width="41.875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="9" style="414"/>
+    <col min="11" max="11" width="41.875" style="414" customWidth="1"/>
     <col min="12" max="12" width="9.75" style="36" customWidth="1"/>
     <col min="13" max="13" width="10.25" style="36" customWidth="1"/>
     <col min="14" max="14" width="9.875" style="36" customWidth="1"/>
     <col min="15" max="15" width="19.75" style="36" customWidth="1"/>
-    <col min="16" max="17" width="9.625" style="36" customWidth="1"/>
-    <col min="18" max="18" width="16.25" style="36" customWidth="1"/>
+    <col min="16" max="16" width="9.625" style="36" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="414" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="414" customWidth="1"/>
     <col min="19" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="34.5">
-      <c r="A1" s="377" t="s">
+      <c r="A1" s="347" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="378" t="s">
+      <c r="B1" s="348" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="378" t="s">
+      <c r="C1" s="348" t="s">
         <v>552</v>
       </c>
-      <c r="D1" s="377" t="s">
+      <c r="D1" s="347" t="s">
         <v>1048</v>
       </c>
-      <c r="E1" s="377" t="s">
+      <c r="E1" s="347" t="s">
         <v>1049</v>
       </c>
-      <c r="F1" s="377" t="s">
+      <c r="F1" s="347" t="s">
         <v>1050</v>
       </c>
-      <c r="G1" s="377" t="s">
+      <c r="G1" s="347" t="s">
         <v>1245</v>
       </c>
-      <c r="H1" s="377" t="s">
+      <c r="H1" s="347" t="s">
         <v>1246</v>
       </c>
-      <c r="I1" s="377" t="s">
+      <c r="I1" s="347" t="s">
         <v>1247</v>
       </c>
-      <c r="J1" s="379" t="s">
+      <c r="J1" s="403" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="380" t="s">
+      <c r="K1" s="404" t="s">
         <v>977</v>
       </c>
-      <c r="L1" s="381" t="s">
+      <c r="L1" s="349" t="s">
         <v>1051</v>
       </c>
-      <c r="M1" s="381" t="s">
+      <c r="M1" s="349" t="s">
         <v>1052</v>
       </c>
-      <c r="N1" s="377" t="s">
+      <c r="N1" s="347" t="s">
         <v>499</v>
       </c>
-      <c r="O1" s="377" t="s">
+      <c r="O1" s="347" t="s">
         <v>469</v>
       </c>
-      <c r="P1" s="377" t="s">
+      <c r="P1" s="347" t="s">
         <v>979</v>
       </c>
-      <c r="Q1" s="382" t="s">
+      <c r="Q1" s="350" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="382" t="s">
+      <c r="R1" s="350" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="40.5">
-      <c r="A2" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B2" s="384" t="s">
+      <c r="A2" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="352" t="s">
         <v>733</v>
       </c>
-      <c r="C2" s="384" t="s">
+      <c r="C2" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="351" t="s">
         <v>1053</v>
       </c>
       <c r="E2" s="323" t="s">
         <v>981</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="351" t="s">
         <v>1054</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="351" t="s">
         <v>1055</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="351" t="s">
         <v>1056</v>
       </c>
-      <c r="I2" s="383" t="s">
+      <c r="I2" s="351" t="s">
         <v>1057</v>
       </c>
-      <c r="J2" s="385" t="s">
+      <c r="J2" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K2" s="385" t="s">
+      <c r="K2" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L2" s="383" t="s">
+      <c r="L2" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M2" s="383"/>
-      <c r="N2" s="383" t="s">
+      <c r="M2" s="351"/>
+      <c r="N2" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O2" s="383" t="s">
+      <c r="O2" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P2" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q2" s="386" t="s">
+      <c r="P2" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q2" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R2" s="386" t="s">
+      <c r="R2" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="384" t="s">
+      <c r="A3" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C3" s="384" t="s">
+      <c r="C3" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D3" s="383" t="s">
+      <c r="D3" s="351" t="s">
         <v>678</v>
       </c>
-      <c r="E3" s="383"/>
-      <c r="F3" s="387" t="s">
+      <c r="E3" s="351"/>
+      <c r="F3" s="355" t="s">
         <v>1059</v>
       </c>
-      <c r="G3" s="387"/>
-      <c r="H3" s="387"/>
-      <c r="I3" s="387"/>
-      <c r="J3" s="388"/>
-      <c r="K3" s="388"/>
-      <c r="L3" s="387"/>
-      <c r="M3" s="387"/>
-      <c r="N3" s="387"/>
-      <c r="O3" s="387"/>
-      <c r="P3" s="387"/>
-      <c r="Q3" s="389"/>
-      <c r="R3" s="389"/>
+      <c r="G3" s="355"/>
+      <c r="H3" s="355"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="355"/>
+      <c r="N3" s="355"/>
+      <c r="O3" s="355"/>
+      <c r="P3" s="355"/>
+      <c r="Q3" s="356"/>
+      <c r="R3" s="356"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4" s="384" t="s">
+      <c r="A4" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C4" s="384" t="s">
+      <c r="C4" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D4" s="383" t="s">
+      <c r="D4" s="351" t="s">
         <v>678</v>
       </c>
-      <c r="E4" s="383"/>
+      <c r="E4" s="351"/>
       <c r="F4" s="284" t="s">
         <v>1060</v>
       </c>
       <c r="G4" s="284"/>
       <c r="H4" s="284"/>
       <c r="I4" s="284"/>
-      <c r="J4" s="390"/>
-      <c r="K4" s="391"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="408"/>
       <c r="L4" s="284"/>
       <c r="M4" s="284"/>
       <c r="N4" s="284"/>
       <c r="O4" s="284"/>
       <c r="P4" s="284"/>
-      <c r="Q4" s="392"/>
-      <c r="R4" s="392"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="357"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B5" s="384" t="s">
+      <c r="A5" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C5" s="384" t="s">
+      <c r="C5" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D5" s="383" t="s">
+      <c r="D5" s="351" t="s">
         <v>678</v>
       </c>
-      <c r="E5" s="383"/>
+      <c r="E5" s="351"/>
       <c r="F5" s="284" t="s">
         <v>1061</v>
       </c>
       <c r="G5" s="284"/>
       <c r="H5" s="284"/>
       <c r="I5" s="284"/>
-      <c r="J5" s="391"/>
-      <c r="K5" s="391"/>
+      <c r="J5" s="408"/>
+      <c r="K5" s="408"/>
       <c r="L5" s="284"/>
       <c r="M5" s="284"/>
       <c r="N5" s="284"/>
       <c r="O5" s="284"/>
       <c r="P5" s="284"/>
-      <c r="Q5" s="392"/>
-      <c r="R5" s="392"/>
+      <c r="Q5" s="357"/>
+      <c r="R5" s="357"/>
     </row>
     <row r="6" spans="1:18" ht="40.5">
-      <c r="A6" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B6" s="384" t="s">
+      <c r="A6" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C6" s="384" t="s">
+      <c r="C6" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D6" s="383" t="s">
+      <c r="D6" s="351" t="s">
         <v>679</v>
       </c>
       <c r="E6" s="323" t="s">
         <v>988</v>
       </c>
-      <c r="F6" s="383" t="s">
+      <c r="F6" s="351" t="s">
         <v>1062</v>
       </c>
-      <c r="G6" s="383" t="s">
+      <c r="G6" s="351" t="s">
         <v>1063</v>
       </c>
-      <c r="H6" s="383" t="s">
+      <c r="H6" s="351" t="s">
         <v>1064</v>
       </c>
-      <c r="I6" s="383" t="s">
+      <c r="I6" s="351" t="s">
         <v>1065</v>
       </c>
-      <c r="J6" s="385" t="s">
+      <c r="J6" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K6" s="385" t="s">
+      <c r="K6" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L6" s="383" t="s">
+      <c r="L6" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M6" s="383"/>
-      <c r="N6" s="383" t="s">
+      <c r="M6" s="351"/>
+      <c r="N6" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O6" s="383" t="s">
+      <c r="O6" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P6" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q6" s="386" t="s">
+      <c r="P6" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q6" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R6" s="386" t="s">
+      <c r="R6" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B7" s="384" t="s">
+      <c r="A7" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C7" s="384" t="s">
+      <c r="C7" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D7" s="383" t="s">
+      <c r="D7" s="351" t="s">
         <v>679</v>
       </c>
-      <c r="E7" s="383"/>
+      <c r="E7" s="351"/>
       <c r="F7" s="284" t="s">
         <v>1066</v>
       </c>
       <c r="G7" s="284"/>
       <c r="H7" s="284"/>
       <c r="I7" s="284"/>
-      <c r="J7" s="390"/>
-      <c r="K7" s="391"/>
+      <c r="J7" s="407"/>
+      <c r="K7" s="408"/>
       <c r="L7" s="284"/>
       <c r="M7" s="284"/>
       <c r="N7" s="284"/>
       <c r="O7" s="284"/>
       <c r="P7" s="284"/>
-      <c r="Q7" s="392"/>
-      <c r="R7" s="392"/>
+      <c r="Q7" s="357"/>
+      <c r="R7" s="357"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8" s="384" t="s">
+      <c r="A8" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C8" s="384" t="s">
+      <c r="C8" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D8" s="383" t="s">
+      <c r="D8" s="351" t="s">
         <v>679</v>
       </c>
-      <c r="E8" s="383"/>
+      <c r="E8" s="351"/>
       <c r="F8" s="284" t="s">
         <v>1067</v>
       </c>
       <c r="G8" s="284"/>
       <c r="H8" s="284"/>
       <c r="I8" s="284"/>
-      <c r="J8" s="390"/>
-      <c r="K8" s="391"/>
+      <c r="J8" s="407"/>
+      <c r="K8" s="408"/>
       <c r="L8" s="284"/>
       <c r="M8" s="284"/>
       <c r="N8" s="284"/>
       <c r="O8" s="284"/>
       <c r="P8" s="284"/>
-      <c r="Q8" s="392"/>
-      <c r="R8" s="392"/>
+      <c r="Q8" s="357"/>
+      <c r="R8" s="357"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9" s="384" t="s">
+      <c r="A9" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C9" s="384" t="s">
+      <c r="C9" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D9" s="383" t="s">
+      <c r="D9" s="351" t="s">
         <v>679</v>
       </c>
-      <c r="E9" s="383"/>
+      <c r="E9" s="351"/>
       <c r="F9" s="284" t="s">
         <v>1068</v>
       </c>
       <c r="G9" s="284"/>
       <c r="H9" s="284"/>
       <c r="I9" s="284"/>
-      <c r="J9" s="391"/>
-      <c r="K9" s="391"/>
+      <c r="J9" s="408"/>
+      <c r="K9" s="408"/>
       <c r="L9" s="284"/>
       <c r="M9" s="284"/>
       <c r="N9" s="284"/>
       <c r="O9" s="284"/>
       <c r="P9" s="284"/>
-      <c r="Q9" s="392"/>
-      <c r="R9" s="392"/>
+      <c r="Q9" s="357"/>
+      <c r="R9" s="357"/>
     </row>
     <row r="10" spans="1:18" ht="40.5">
-      <c r="A10" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B10" s="384" t="s">
+      <c r="A10" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C10" s="384" t="s">
+      <c r="C10" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D10" s="383" t="s">
+      <c r="D10" s="351" t="s">
         <v>680</v>
       </c>
-      <c r="E10" s="385" t="s">
+      <c r="E10" s="353" t="s">
         <v>989</v>
       </c>
-      <c r="F10" s="383" t="s">
+      <c r="F10" s="351" t="s">
         <v>1069</v>
       </c>
-      <c r="G10" s="383" t="s">
+      <c r="G10" s="351" t="s">
         <v>1070</v>
       </c>
-      <c r="H10" s="383" t="s">
+      <c r="H10" s="351" t="s">
         <v>1071</v>
       </c>
-      <c r="I10" s="383">
+      <c r="I10" s="351">
         <v>137</v>
       </c>
-      <c r="J10" s="385" t="s">
+      <c r="J10" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K10" s="385" t="s">
+      <c r="K10" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L10" s="383" t="s">
+      <c r="L10" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M10" s="383"/>
-      <c r="N10" s="383" t="s">
+      <c r="M10" s="351"/>
+      <c r="N10" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O10" s="383" t="s">
+      <c r="O10" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P10" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q10" s="386" t="s">
+      <c r="P10" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q10" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R10" s="386" t="s">
+      <c r="R10" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B11" s="384" t="s">
+      <c r="A11" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C11" s="384" t="s">
+      <c r="C11" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D11" s="383" t="s">
+      <c r="D11" s="351" t="s">
         <v>680</v>
       </c>
-      <c r="E11" s="383"/>
+      <c r="E11" s="351"/>
       <c r="F11" s="284" t="s">
         <v>1072</v>
       </c>
       <c r="G11" s="284"/>
       <c r="H11" s="284"/>
       <c r="I11" s="284"/>
-      <c r="J11" s="390"/>
-      <c r="K11" s="391"/>
+      <c r="J11" s="407"/>
+      <c r="K11" s="408"/>
       <c r="L11" s="284"/>
       <c r="M11" s="284"/>
       <c r="N11" s="284"/>
       <c r="O11" s="284"/>
       <c r="P11" s="284"/>
-      <c r="Q11" s="392"/>
-      <c r="R11" s="392"/>
+      <c r="Q11" s="357"/>
+      <c r="R11" s="357"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B12" s="384" t="s">
+      <c r="A12" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C12" s="384" t="s">
+      <c r="C12" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D12" s="383" t="s">
+      <c r="D12" s="351" t="s">
         <v>680</v>
       </c>
-      <c r="E12" s="383"/>
+      <c r="E12" s="351"/>
       <c r="F12" s="284" t="s">
         <v>1073</v>
       </c>
       <c r="G12" s="284"/>
       <c r="H12" s="284"/>
       <c r="I12" s="284"/>
-      <c r="J12" s="391"/>
-      <c r="K12" s="391"/>
+      <c r="J12" s="408"/>
+      <c r="K12" s="408"/>
       <c r="L12" s="284"/>
       <c r="M12" s="284"/>
       <c r="N12" s="284"/>
       <c r="O12" s="284"/>
       <c r="P12" s="284"/>
-      <c r="Q12" s="392"/>
-      <c r="R12" s="392"/>
+      <c r="Q12" s="357"/>
+      <c r="R12" s="357"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B13" s="384" t="s">
+      <c r="A13" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C13" s="384" t="s">
+      <c r="C13" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D13" s="383" t="s">
+      <c r="D13" s="351" t="s">
         <v>680</v>
       </c>
-      <c r="E13" s="383"/>
+      <c r="E13" s="351"/>
       <c r="F13" s="284" t="s">
         <v>1074</v>
       </c>
       <c r="G13" s="284"/>
       <c r="H13" s="284"/>
       <c r="I13" s="284"/>
-      <c r="J13" s="390"/>
-      <c r="K13" s="391"/>
+      <c r="J13" s="407"/>
+      <c r="K13" s="408"/>
       <c r="L13" s="284"/>
       <c r="M13" s="284"/>
       <c r="N13" s="284"/>
       <c r="O13" s="284"/>
       <c r="P13" s="284"/>
-      <c r="Q13" s="392"/>
-      <c r="R13" s="392"/>
+      <c r="Q13" s="357"/>
+      <c r="R13" s="357"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B14" s="384" t="s">
+      <c r="A14" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C14" s="384" t="s">
+      <c r="C14" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D14" s="383" t="s">
+      <c r="D14" s="351" t="s">
         <v>680</v>
       </c>
-      <c r="E14" s="383"/>
+      <c r="E14" s="351"/>
       <c r="F14" s="284" t="s">
         <v>1075</v>
       </c>
       <c r="G14" s="284"/>
       <c r="H14" s="284"/>
       <c r="I14" s="284"/>
-      <c r="J14" s="391"/>
-      <c r="K14" s="391"/>
+      <c r="J14" s="408"/>
+      <c r="K14" s="408"/>
       <c r="L14" s="284"/>
       <c r="M14" s="284"/>
       <c r="N14" s="284"/>
       <c r="O14" s="284"/>
       <c r="P14" s="284"/>
-      <c r="Q14" s="392"/>
-      <c r="R14" s="392"/>
+      <c r="Q14" s="357"/>
+      <c r="R14" s="357"/>
     </row>
     <row r="15" spans="1:18" ht="40.5">
-      <c r="A15" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B15" s="384" t="s">
+      <c r="A15" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C15" s="384" t="s">
+      <c r="C15" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D15" s="284" t="s">
         <v>683</v>
       </c>
-      <c r="E15" s="385" t="s">
+      <c r="E15" s="353" t="s">
         <v>990</v>
       </c>
-      <c r="F15" s="383" t="s">
+      <c r="F15" s="351" t="s">
         <v>1076</v>
       </c>
-      <c r="G15" s="383" t="s">
+      <c r="G15" s="351" t="s">
         <v>1077</v>
       </c>
-      <c r="H15" s="383" t="s">
+      <c r="H15" s="351" t="s">
         <v>1078</v>
       </c>
-      <c r="I15" s="383">
+      <c r="I15" s="351">
         <v>4</v>
       </c>
-      <c r="J15" s="385" t="s">
+      <c r="J15" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K15" s="385" t="s">
+      <c r="K15" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L15" s="383" t="s">
+      <c r="L15" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M15" s="383"/>
-      <c r="N15" s="383" t="s">
+      <c r="M15" s="351"/>
+      <c r="N15" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O15" s="383" t="s">
+      <c r="O15" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P15" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q15" s="386" t="s">
+      <c r="P15" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q15" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R15" s="386" t="s">
+      <c r="R15" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="384" t="s">
+      <c r="A16" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C16" s="384" t="s">
+      <c r="C16" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D16" s="284" t="s">
@@ -12003,24 +12019,24 @@
       <c r="G16" s="284"/>
       <c r="H16" s="284"/>
       <c r="I16" s="284"/>
-      <c r="J16" s="390"/>
-      <c r="K16" s="391"/>
+      <c r="J16" s="407"/>
+      <c r="K16" s="408"/>
       <c r="L16" s="284"/>
       <c r="M16" s="284"/>
       <c r="N16" s="284"/>
       <c r="O16" s="284"/>
       <c r="P16" s="284"/>
-      <c r="Q16" s="392"/>
-      <c r="R16" s="392"/>
+      <c r="Q16" s="357"/>
+      <c r="R16" s="357"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B17" s="384" t="s">
+      <c r="A17" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C17" s="384" t="s">
+      <c r="C17" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D17" s="284" t="s">
@@ -12033,78 +12049,78 @@
       <c r="G17" s="284"/>
       <c r="H17" s="284"/>
       <c r="I17" s="284"/>
-      <c r="J17" s="390"/>
-      <c r="K17" s="391"/>
+      <c r="J17" s="407"/>
+      <c r="K17" s="408"/>
       <c r="L17" s="284"/>
       <c r="M17" s="284"/>
       <c r="N17" s="284"/>
       <c r="O17" s="284"/>
       <c r="P17" s="284"/>
-      <c r="Q17" s="392"/>
-      <c r="R17" s="392"/>
+      <c r="Q17" s="357"/>
+      <c r="R17" s="357"/>
     </row>
     <row r="18" spans="1:18" ht="40.5">
-      <c r="A18" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B18" s="384" t="s">
+      <c r="A18" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C18" s="384" t="s">
+      <c r="C18" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D18" s="284" t="s">
         <v>681</v>
       </c>
-      <c r="E18" s="385" t="s">
+      <c r="E18" s="353" t="s">
         <v>991</v>
       </c>
-      <c r="F18" s="383" t="s">
+      <c r="F18" s="351" t="s">
         <v>1081</v>
       </c>
-      <c r="G18" s="383" t="s">
+      <c r="G18" s="351" t="s">
         <v>1082</v>
       </c>
-      <c r="H18" s="383" t="s">
+      <c r="H18" s="351" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="383">
+      <c r="I18" s="351">
         <v>22</v>
       </c>
-      <c r="J18" s="385" t="s">
+      <c r="J18" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K18" s="385" t="s">
+      <c r="K18" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L18" s="383" t="s">
+      <c r="L18" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M18" s="383"/>
-      <c r="N18" s="383" t="s">
+      <c r="M18" s="351"/>
+      <c r="N18" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O18" s="383" t="s">
+      <c r="O18" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P18" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q18" s="386" t="s">
+      <c r="P18" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q18" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R18" s="386" t="s">
+      <c r="R18" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B19" s="384" t="s">
+      <c r="A19" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B19" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C19" s="384" t="s">
+      <c r="C19" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D19" s="284" t="s">
@@ -12117,24 +12133,24 @@
       <c r="G19" s="284"/>
       <c r="H19" s="284"/>
       <c r="I19" s="284"/>
-      <c r="J19" s="390"/>
-      <c r="K19" s="391"/>
+      <c r="J19" s="407"/>
+      <c r="K19" s="408"/>
       <c r="L19" s="284"/>
       <c r="M19" s="284"/>
       <c r="N19" s="284"/>
       <c r="O19" s="284"/>
       <c r="P19" s="284"/>
-      <c r="Q19" s="392"/>
-      <c r="R19" s="392"/>
+      <c r="Q19" s="357"/>
+      <c r="R19" s="357"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B20" s="384" t="s">
+      <c r="A20" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C20" s="384" t="s">
+      <c r="C20" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D20" s="284" t="s">
@@ -12147,78 +12163,78 @@
       <c r="G20" s="284"/>
       <c r="H20" s="284"/>
       <c r="I20" s="284"/>
-      <c r="J20" s="390"/>
-      <c r="K20" s="391"/>
+      <c r="J20" s="407"/>
+      <c r="K20" s="408"/>
       <c r="L20" s="284"/>
       <c r="M20" s="284"/>
       <c r="N20" s="284"/>
       <c r="O20" s="284"/>
       <c r="P20" s="284"/>
-      <c r="Q20" s="392"/>
-      <c r="R20" s="392"/>
+      <c r="Q20" s="357"/>
+      <c r="R20" s="357"/>
     </row>
     <row r="21" spans="1:18" ht="54">
-      <c r="A21" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B21" s="384" t="s">
+      <c r="A21" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B21" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C21" s="384" t="s">
+      <c r="C21" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D21" s="284" t="s">
         <v>682</v>
       </c>
-      <c r="E21" s="385" t="s">
+      <c r="E21" s="353" t="s">
         <v>992</v>
       </c>
-      <c r="F21" s="383" t="s">
+      <c r="F21" s="351" t="s">
         <v>1085</v>
       </c>
-      <c r="G21" s="383" t="s">
+      <c r="G21" s="351" t="s">
         <v>1086</v>
       </c>
-      <c r="H21" s="383" t="s">
+      <c r="H21" s="351" t="s">
         <v>1087</v>
       </c>
-      <c r="I21" s="383" t="s">
+      <c r="I21" s="351" t="s">
         <v>1088</v>
       </c>
-      <c r="J21" s="385" t="s">
+      <c r="J21" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K21" s="385" t="s">
+      <c r="K21" s="405" t="s">
         <v>993</v>
       </c>
-      <c r="L21" s="383" t="s">
+      <c r="L21" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M21" s="383"/>
-      <c r="N21" s="383" t="s">
+      <c r="M21" s="351"/>
+      <c r="N21" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O21" s="383" t="s">
+      <c r="O21" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P21" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q21" s="386" t="s">
+      <c r="P21" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q21" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R21" s="386" t="s">
+      <c r="R21" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="54">
-      <c r="A22" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B22" s="384" t="s">
+      <c r="A22" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B22" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C22" s="384" t="s">
+      <c r="C22" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D22" s="284" t="s">
@@ -12231,10 +12247,10 @@
       <c r="G22" s="284"/>
       <c r="H22" s="284"/>
       <c r="I22" s="284"/>
-      <c r="J22" s="390" t="s">
+      <c r="J22" s="407" t="s">
         <v>982</v>
       </c>
-      <c r="K22" s="391" t="s">
+      <c r="K22" s="408" t="s">
         <v>1090</v>
       </c>
       <c r="L22" s="284" t="s">
@@ -12250,21 +12266,21 @@
       <c r="P22" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q22" s="392" t="s">
+      <c r="Q22" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R22" s="392" t="s">
+      <c r="R22" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="54">
-      <c r="A23" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B23" s="384" t="s">
+      <c r="A23" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C23" s="384" t="s">
+      <c r="C23" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D23" s="284" t="s">
@@ -12277,10 +12293,10 @@
       <c r="G23" s="284"/>
       <c r="H23" s="284"/>
       <c r="I23" s="284"/>
-      <c r="J23" s="391" t="s">
+      <c r="J23" s="408" t="s">
         <v>982</v>
       </c>
-      <c r="K23" s="391" t="s">
+      <c r="K23" s="408" t="s">
         <v>517</v>
       </c>
       <c r="L23" s="284" t="s">
@@ -12296,21 +12312,21 @@
       <c r="P23" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q23" s="392" t="s">
+      <c r="Q23" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R23" s="392" t="s">
+      <c r="R23" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="54">
-      <c r="A24" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B24" s="384" t="s">
+      <c r="A24" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B24" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C24" s="384" t="s">
+      <c r="C24" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D24" s="284" t="s">
@@ -12323,10 +12339,10 @@
       <c r="G24" s="284"/>
       <c r="H24" s="284"/>
       <c r="I24" s="284"/>
-      <c r="J24" s="391" t="s">
+      <c r="J24" s="408" t="s">
         <v>982</v>
       </c>
-      <c r="K24" s="391" t="s">
+      <c r="K24" s="408" t="s">
         <v>1094</v>
       </c>
       <c r="L24" s="284" t="s">
@@ -12342,75 +12358,75 @@
       <c r="P24" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q24" s="392" t="s">
+      <c r="Q24" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R24" s="392" t="s">
+      <c r="R24" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="40.5">
-      <c r="A25" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B25" s="384" t="s">
+      <c r="A25" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B25" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C25" s="384" t="s">
+      <c r="C25" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D25" s="284" t="s">
         <v>684</v>
       </c>
-      <c r="E25" s="385" t="s">
+      <c r="E25" s="353" t="s">
         <v>994</v>
       </c>
-      <c r="F25" s="383" t="s">
+      <c r="F25" s="351" t="s">
         <v>1095</v>
       </c>
-      <c r="G25" s="383" t="s">
+      <c r="G25" s="351" t="s">
         <v>1096</v>
       </c>
-      <c r="H25" s="383" t="s">
+      <c r="H25" s="351" t="s">
         <v>1097</v>
       </c>
-      <c r="I25" s="383" t="s">
+      <c r="I25" s="351" t="s">
         <v>1098</v>
       </c>
-      <c r="J25" s="385" t="s">
+      <c r="J25" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K25" s="385" t="s">
+      <c r="K25" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L25" s="383" t="s">
+      <c r="L25" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M25" s="383"/>
-      <c r="N25" s="383" t="s">
+      <c r="M25" s="351"/>
+      <c r="N25" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O25" s="383" t="s">
+      <c r="O25" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P25" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q25" s="386" t="s">
+      <c r="P25" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q25" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R25" s="386" t="s">
+      <c r="R25" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B26" s="384" t="s">
+      <c r="A26" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C26" s="384" t="s">
+      <c r="C26" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D26" s="284" t="s">
@@ -12423,24 +12439,24 @@
       <c r="G26" s="284"/>
       <c r="H26" s="284"/>
       <c r="I26" s="284"/>
-      <c r="J26" s="390"/>
-      <c r="K26" s="391"/>
+      <c r="J26" s="407"/>
+      <c r="K26" s="408"/>
       <c r="L26" s="284"/>
       <c r="M26" s="284"/>
       <c r="N26" s="284"/>
       <c r="O26" s="284"/>
       <c r="P26" s="284"/>
-      <c r="Q26" s="392"/>
-      <c r="R26" s="392"/>
+      <c r="Q26" s="357"/>
+      <c r="R26" s="357"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B27" s="384" t="s">
+      <c r="A27" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C27" s="384" t="s">
+      <c r="C27" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D27" s="284" t="s">
@@ -12453,78 +12469,78 @@
       <c r="G27" s="284"/>
       <c r="H27" s="284"/>
       <c r="I27" s="284"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="391"/>
+      <c r="J27" s="407"/>
+      <c r="K27" s="408"/>
       <c r="L27" s="284"/>
       <c r="M27" s="284"/>
       <c r="N27" s="284"/>
       <c r="O27" s="284"/>
       <c r="P27" s="284"/>
-      <c r="Q27" s="392"/>
-      <c r="R27" s="392"/>
+      <c r="Q27" s="357"/>
+      <c r="R27" s="357"/>
     </row>
     <row r="28" spans="1:18" ht="40.5">
-      <c r="A28" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B28" s="384" t="s">
+      <c r="A28" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B28" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C28" s="384" t="s">
+      <c r="C28" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D28" s="284" t="s">
         <v>687</v>
       </c>
-      <c r="E28" s="393" t="s">
+      <c r="E28" s="358" t="s">
         <v>995</v>
       </c>
-      <c r="F28" s="383" t="s">
+      <c r="F28" s="351" t="s">
         <v>1101</v>
       </c>
-      <c r="G28" s="383" t="s">
+      <c r="G28" s="351" t="s">
         <v>1102</v>
       </c>
-      <c r="H28" s="383" t="s">
+      <c r="H28" s="351" t="s">
         <v>1103</v>
       </c>
-      <c r="I28" s="383">
+      <c r="I28" s="351">
         <v>22</v>
       </c>
-      <c r="J28" s="385" t="s">
+      <c r="J28" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K28" s="385" t="s">
+      <c r="K28" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L28" s="383" t="s">
+      <c r="L28" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M28" s="383"/>
-      <c r="N28" s="383" t="s">
+      <c r="M28" s="351"/>
+      <c r="N28" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O28" s="383" t="s">
+      <c r="O28" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P28" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q28" s="386" t="s">
+      <c r="P28" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q28" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R28" s="386" t="s">
+      <c r="R28" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B29" s="384" t="s">
+      <c r="A29" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B29" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C29" s="384" t="s">
+      <c r="C29" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D29" s="284" t="s">
@@ -12537,24 +12553,24 @@
       <c r="G29" s="284"/>
       <c r="H29" s="284"/>
       <c r="I29" s="284"/>
-      <c r="J29" s="390"/>
-      <c r="K29" s="391"/>
+      <c r="J29" s="407"/>
+      <c r="K29" s="408"/>
       <c r="L29" s="284"/>
       <c r="M29" s="284"/>
       <c r="N29" s="284"/>
       <c r="O29" s="284"/>
       <c r="P29" s="284"/>
-      <c r="Q29" s="392"/>
-      <c r="R29" s="392"/>
+      <c r="Q29" s="357"/>
+      <c r="R29" s="357"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B30" s="384" t="s">
+      <c r="A30" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B30" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C30" s="384" t="s">
+      <c r="C30" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D30" s="284" t="s">
@@ -12567,78 +12583,78 @@
       <c r="G30" s="284"/>
       <c r="H30" s="284"/>
       <c r="I30" s="284"/>
-      <c r="J30" s="391"/>
-      <c r="K30" s="391"/>
+      <c r="J30" s="408"/>
+      <c r="K30" s="408"/>
       <c r="L30" s="284"/>
       <c r="M30" s="284"/>
       <c r="N30" s="284"/>
       <c r="O30" s="284"/>
       <c r="P30" s="284"/>
-      <c r="Q30" s="392"/>
-      <c r="R30" s="392"/>
+      <c r="Q30" s="357"/>
+      <c r="R30" s="357"/>
     </row>
     <row r="31" spans="1:18" ht="40.5">
-      <c r="A31" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B31" s="384" t="s">
+      <c r="A31" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C31" s="384" t="s">
+      <c r="C31" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D31" s="284" t="s">
         <v>689</v>
       </c>
-      <c r="E31" s="393" t="s">
+      <c r="E31" s="358" t="s">
         <v>996</v>
       </c>
-      <c r="F31" s="383" t="s">
+      <c r="F31" s="351" t="s">
         <v>1106</v>
       </c>
-      <c r="G31" s="383" t="s">
+      <c r="G31" s="351" t="s">
         <v>1107</v>
       </c>
-      <c r="H31" s="383" t="s">
+      <c r="H31" s="351" t="s">
         <v>1108</v>
       </c>
-      <c r="I31" s="383" t="s">
+      <c r="I31" s="351" t="s">
         <v>1109</v>
       </c>
-      <c r="J31" s="385" t="s">
+      <c r="J31" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K31" s="385" t="s">
+      <c r="K31" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L31" s="383" t="s">
+      <c r="L31" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M31" s="383"/>
-      <c r="N31" s="383" t="s">
+      <c r="M31" s="351"/>
+      <c r="N31" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O31" s="383" t="s">
+      <c r="O31" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P31" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q31" s="386" t="s">
+      <c r="P31" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q31" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R31" s="386" t="s">
+      <c r="R31" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B32" s="384" t="s">
+      <c r="A32" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B32" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C32" s="384" t="s">
+      <c r="C32" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D32" s="284" t="s">
@@ -12651,8 +12667,8 @@
       <c r="G32" s="284"/>
       <c r="H32" s="284"/>
       <c r="I32" s="284"/>
-      <c r="J32" s="390"/>
-      <c r="K32" s="391"/>
+      <c r="J32" s="407"/>
+      <c r="K32" s="408"/>
       <c r="L32" s="284" t="s">
         <v>987</v>
       </c>
@@ -12662,21 +12678,21 @@
       <c r="P32" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q32" s="392" t="s">
+      <c r="Q32" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R32" s="392" t="s">
+      <c r="R32" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B33" s="384" t="s">
+      <c r="A33" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C33" s="384" t="s">
+      <c r="C33" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D33" s="284" t="s">
@@ -12689,8 +12705,8 @@
       <c r="G33" s="284"/>
       <c r="H33" s="284"/>
       <c r="I33" s="284"/>
-      <c r="J33" s="391"/>
-      <c r="K33" s="391"/>
+      <c r="J33" s="408"/>
+      <c r="K33" s="408"/>
       <c r="L33" s="284" t="s">
         <v>987</v>
       </c>
@@ -12700,21 +12716,21 @@
       <c r="P33" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q33" s="392" t="s">
+      <c r="Q33" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R33" s="392" t="s">
+      <c r="R33" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B34" s="384" t="s">
+      <c r="A34" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B34" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C34" s="384" t="s">
+      <c r="C34" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D34" s="284" t="s">
@@ -12727,8 +12743,8 @@
       <c r="G34" s="284"/>
       <c r="H34" s="284"/>
       <c r="I34" s="284"/>
-      <c r="J34" s="390"/>
-      <c r="K34" s="391"/>
+      <c r="J34" s="407"/>
+      <c r="K34" s="408"/>
       <c r="L34" s="284" t="s">
         <v>987</v>
       </c>
@@ -12738,75 +12754,75 @@
       <c r="P34" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q34" s="392" t="s">
+      <c r="Q34" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R34" s="392" t="s">
+      <c r="R34" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="40.5">
-      <c r="A35" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B35" s="384" t="s">
+      <c r="A35" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B35" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C35" s="384" t="s">
+      <c r="C35" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D35" s="284" t="s">
         <v>688</v>
       </c>
-      <c r="E35" s="393" t="s">
+      <c r="E35" s="358" t="s">
         <v>997</v>
       </c>
-      <c r="F35" s="383" t="s">
+      <c r="F35" s="351" t="s">
         <v>1113</v>
       </c>
-      <c r="G35" s="383" t="s">
+      <c r="G35" s="351" t="s">
         <v>1114</v>
       </c>
-      <c r="H35" s="383" t="s">
+      <c r="H35" s="351" t="s">
         <v>1115</v>
       </c>
-      <c r="I35" s="383" t="s">
+      <c r="I35" s="351" t="s">
         <v>1116</v>
       </c>
-      <c r="J35" s="385" t="s">
+      <c r="J35" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K35" s="385" t="s">
+      <c r="K35" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L35" s="383" t="s">
+      <c r="L35" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M35" s="383"/>
-      <c r="N35" s="383" t="s">
+      <c r="M35" s="351"/>
+      <c r="N35" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O35" s="383" t="s">
+      <c r="O35" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P35" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q35" s="386" t="s">
+      <c r="P35" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q35" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R35" s="386" t="s">
+      <c r="R35" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B36" s="384" t="s">
+      <c r="A36" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B36" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C36" s="384" t="s">
+      <c r="C36" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D36" s="284" t="s">
@@ -12819,8 +12835,8 @@
       <c r="G36" s="284"/>
       <c r="H36" s="284"/>
       <c r="I36" s="284"/>
-      <c r="J36" s="391"/>
-      <c r="K36" s="391"/>
+      <c r="J36" s="408"/>
+      <c r="K36" s="408"/>
       <c r="L36" s="284" t="s">
         <v>987</v>
       </c>
@@ -12830,21 +12846,21 @@
       <c r="P36" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q36" s="392" t="s">
+      <c r="Q36" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R36" s="392" t="s">
+      <c r="R36" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B37" s="384" t="s">
+      <c r="A37" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C37" s="384" t="s">
+      <c r="C37" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D37" s="284" t="s">
@@ -12857,8 +12873,8 @@
       <c r="G37" s="284"/>
       <c r="H37" s="284"/>
       <c r="I37" s="284"/>
-      <c r="J37" s="391"/>
-      <c r="K37" s="391"/>
+      <c r="J37" s="408"/>
+      <c r="K37" s="408"/>
       <c r="L37" s="284" t="s">
         <v>987</v>
       </c>
@@ -12868,21 +12884,21 @@
       <c r="P37" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q37" s="392" t="s">
+      <c r="Q37" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R37" s="392" t="s">
+      <c r="R37" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B38" s="384" t="s">
+      <c r="A38" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B38" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C38" s="384" t="s">
+      <c r="C38" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D38" s="284" t="s">
@@ -12895,8 +12911,8 @@
       <c r="G38" s="284"/>
       <c r="H38" s="284"/>
       <c r="I38" s="284"/>
-      <c r="J38" s="395"/>
-      <c r="K38" s="396"/>
+      <c r="J38" s="409"/>
+      <c r="K38" s="410"/>
       <c r="L38" s="284" t="s">
         <v>987</v>
       </c>
@@ -12906,75 +12922,75 @@
       <c r="P38" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q38" s="392" t="s">
+      <c r="Q38" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R38" s="392" t="s">
+      <c r="R38" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="40.5">
-      <c r="A39" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B39" s="384" t="s">
+      <c r="A39" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B39" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C39" s="384" t="s">
+      <c r="C39" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D39" s="284" t="s">
         <v>690</v>
       </c>
-      <c r="E39" s="393" t="s">
+      <c r="E39" s="358" t="s">
         <v>998</v>
       </c>
-      <c r="F39" s="383" t="s">
+      <c r="F39" s="351" t="s">
         <v>1120</v>
       </c>
-      <c r="G39" s="383" t="s">
+      <c r="G39" s="351" t="s">
         <v>1121</v>
       </c>
-      <c r="H39" s="383" t="s">
+      <c r="H39" s="351" t="s">
         <v>1122</v>
       </c>
-      <c r="I39" s="383" t="s">
+      <c r="I39" s="351" t="s">
         <v>1123</v>
       </c>
-      <c r="J39" s="385" t="s">
+      <c r="J39" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K39" s="385" t="s">
+      <c r="K39" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L39" s="383" t="s">
+      <c r="L39" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M39" s="383"/>
-      <c r="N39" s="383" t="s">
+      <c r="M39" s="351"/>
+      <c r="N39" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O39" s="383" t="s">
+      <c r="O39" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P39" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q39" s="386" t="s">
+      <c r="P39" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q39" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R39" s="386" t="s">
+      <c r="R39" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B40" s="384" t="s">
+      <c r="A40" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B40" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C40" s="384" t="s">
+      <c r="C40" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D40" s="284" t="s">
@@ -12987,8 +13003,8 @@
       <c r="G40" s="284"/>
       <c r="H40" s="284"/>
       <c r="I40" s="284"/>
-      <c r="J40" s="390"/>
-      <c r="K40" s="391"/>
+      <c r="J40" s="407"/>
+      <c r="K40" s="408"/>
       <c r="L40" s="284" t="s">
         <v>987</v>
       </c>
@@ -12998,89 +13014,89 @@
       <c r="P40" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q40" s="392" t="s">
+      <c r="Q40" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R40" s="392" t="s">
+      <c r="R40" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="40.5">
-      <c r="A41" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B41" s="384" t="s">
+      <c r="A41" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B41" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C41" s="384" t="s">
+      <c r="C41" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D41" s="383" t="s">
+      <c r="D41" s="351" t="s">
         <v>691</v>
       </c>
-      <c r="E41" s="393" t="s">
+      <c r="E41" s="358" t="s">
         <v>999</v>
       </c>
-      <c r="F41" s="383" t="s">
+      <c r="F41" s="351" t="s">
         <v>1125</v>
       </c>
-      <c r="G41" s="383" t="s">
+      <c r="G41" s="351" t="s">
         <v>1126</v>
       </c>
-      <c r="H41" s="383" t="s">
+      <c r="H41" s="351" t="s">
         <v>1122</v>
       </c>
-      <c r="I41" s="383" t="s">
+      <c r="I41" s="351" t="s">
         <v>1127</v>
       </c>
-      <c r="J41" s="385" t="s">
+      <c r="J41" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K41" s="385" t="s">
+      <c r="K41" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L41" s="383" t="s">
+      <c r="L41" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M41" s="383"/>
-      <c r="N41" s="383" t="s">
+      <c r="M41" s="351"/>
+      <c r="N41" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O41" s="383" t="s">
+      <c r="O41" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P41" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q41" s="386" t="s">
+      <c r="P41" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q41" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R41" s="386" t="s">
+      <c r="R41" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B42" s="384" t="s">
+      <c r="A42" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B42" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C42" s="384" t="s">
+      <c r="C42" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D42" s="383" t="s">
+      <c r="D42" s="351" t="s">
         <v>691</v>
       </c>
-      <c r="E42" s="383"/>
+      <c r="E42" s="351"/>
       <c r="F42" s="284" t="s">
         <v>1128</v>
       </c>
       <c r="G42" s="284"/>
       <c r="H42" s="284"/>
       <c r="I42" s="284"/>
-      <c r="J42" s="391"/>
-      <c r="K42" s="391"/>
+      <c r="J42" s="408"/>
+      <c r="K42" s="408"/>
       <c r="L42" s="284" t="s">
         <v>987</v>
       </c>
@@ -13090,35 +13106,35 @@
       <c r="P42" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q42" s="392" t="s">
+      <c r="Q42" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R42" s="392" t="s">
+      <c r="R42" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B43" s="384" t="s">
+      <c r="A43" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B43" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C43" s="384" t="s">
+      <c r="C43" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D43" s="383" t="s">
+      <c r="D43" s="351" t="s">
         <v>691</v>
       </c>
-      <c r="E43" s="383"/>
+      <c r="E43" s="351"/>
       <c r="F43" s="284" t="s">
         <v>1129</v>
       </c>
       <c r="G43" s="284"/>
       <c r="H43" s="284"/>
       <c r="I43" s="284"/>
-      <c r="J43" s="390"/>
-      <c r="K43" s="391"/>
+      <c r="J43" s="407"/>
+      <c r="K43" s="408"/>
       <c r="L43" s="284" t="s">
         <v>987</v>
       </c>
@@ -13128,89 +13144,89 @@
       <c r="P43" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q43" s="392" t="s">
+      <c r="Q43" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R43" s="392" t="s">
+      <c r="R43" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="40.5">
-      <c r="A44" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B44" s="384" t="s">
+      <c r="A44" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B44" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C44" s="384" t="s">
+      <c r="C44" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D44" s="383" t="s">
+      <c r="D44" s="351" t="s">
         <v>692</v>
       </c>
-      <c r="E44" s="393" t="s">
+      <c r="E44" s="358" t="s">
         <v>1000</v>
       </c>
-      <c r="F44" s="383" t="s">
+      <c r="F44" s="351" t="s">
         <v>1130</v>
       </c>
-      <c r="G44" s="383" t="s">
+      <c r="G44" s="351" t="s">
         <v>1131</v>
       </c>
-      <c r="H44" s="383" t="s">
+      <c r="H44" s="351" t="s">
         <v>143</v>
       </c>
-      <c r="I44" s="383" t="s">
+      <c r="I44" s="351" t="s">
         <v>1132</v>
       </c>
-      <c r="J44" s="385" t="s">
+      <c r="J44" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K44" s="385" t="s">
+      <c r="K44" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L44" s="383" t="s">
+      <c r="L44" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M44" s="383"/>
-      <c r="N44" s="383" t="s">
+      <c r="M44" s="351"/>
+      <c r="N44" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O44" s="383" t="s">
+      <c r="O44" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P44" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q44" s="386" t="s">
+      <c r="P44" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q44" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R44" s="386" t="s">
+      <c r="R44" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B45" s="384" t="s">
+      <c r="A45" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B45" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C45" s="384" t="s">
+      <c r="C45" s="352" t="s">
         <v>1053</v>
       </c>
-      <c r="D45" s="383" t="s">
+      <c r="D45" s="351" t="s">
         <v>692</v>
       </c>
-      <c r="E45" s="383"/>
+      <c r="E45" s="351"/>
       <c r="F45" s="284" t="s">
         <v>1133</v>
       </c>
       <c r="G45" s="284"/>
       <c r="H45" s="284"/>
       <c r="I45" s="284"/>
-      <c r="J45" s="391"/>
-      <c r="K45" s="391"/>
+      <c r="J45" s="408"/>
+      <c r="K45" s="408"/>
       <c r="L45" s="284" t="s">
         <v>987</v>
       </c>
@@ -13220,75 +13236,75 @@
       <c r="P45" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q45" s="392" t="s">
+      <c r="Q45" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R45" s="392" t="s">
+      <c r="R45" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="40.5">
-      <c r="A46" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B46" s="384" t="s">
+      <c r="A46" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B46" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C46" s="384" t="s">
+      <c r="C46" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D46" s="284" t="s">
         <v>693</v>
       </c>
-      <c r="E46" s="393" t="s">
+      <c r="E46" s="358" t="s">
         <v>1001</v>
       </c>
-      <c r="F46" s="383" t="s">
+      <c r="F46" s="351" t="s">
         <v>1134</v>
       </c>
-      <c r="G46" s="383" t="s">
+      <c r="G46" s="351" t="s">
         <v>1135</v>
       </c>
-      <c r="H46" s="383" t="s">
+      <c r="H46" s="351" t="s">
         <v>1136</v>
       </c>
-      <c r="I46" s="383" t="s">
+      <c r="I46" s="351" t="s">
         <v>1137</v>
       </c>
-      <c r="J46" s="385" t="s">
+      <c r="J46" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K46" s="385" t="s">
+      <c r="K46" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L46" s="383" t="s">
+      <c r="L46" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M46" s="383"/>
-      <c r="N46" s="383" t="s">
+      <c r="M46" s="351"/>
+      <c r="N46" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O46" s="383" t="s">
+      <c r="O46" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P46" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q46" s="386" t="s">
+      <c r="P46" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q46" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R46" s="386" t="s">
+      <c r="R46" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B47" s="384" t="s">
+      <c r="A47" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C47" s="384" t="s">
+      <c r="C47" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D47" s="284" t="s">
@@ -13301,8 +13317,8 @@
       <c r="G47" s="284"/>
       <c r="H47" s="284"/>
       <c r="I47" s="284"/>
-      <c r="J47" s="391"/>
-      <c r="K47" s="391"/>
+      <c r="J47" s="408"/>
+      <c r="K47" s="408"/>
       <c r="L47" s="284" t="s">
         <v>987</v>
       </c>
@@ -13312,35 +13328,35 @@
       <c r="P47" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q47" s="392" t="s">
+      <c r="Q47" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R47" s="392" t="s">
+      <c r="R47" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B48" s="384" t="s">
+      <c r="A48" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B48" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C48" s="384" t="s">
+      <c r="C48" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D48" s="284" t="s">
         <v>693</v>
       </c>
       <c r="E48" s="284"/>
-      <c r="F48" s="383" t="s">
+      <c r="F48" s="351" t="s">
         <v>1139</v>
       </c>
-      <c r="G48" s="383"/>
-      <c r="H48" s="383"/>
-      <c r="I48" s="383"/>
-      <c r="J48" s="391"/>
-      <c r="K48" s="391"/>
+      <c r="G48" s="351"/>
+      <c r="H48" s="351"/>
+      <c r="I48" s="351"/>
+      <c r="J48" s="408"/>
+      <c r="K48" s="408"/>
       <c r="L48" s="284" t="s">
         <v>987</v>
       </c>
@@ -13350,151 +13366,151 @@
       <c r="P48" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q48" s="392" t="s">
+      <c r="Q48" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R48" s="392" t="s">
+      <c r="R48" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="40.5">
-      <c r="A49" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B49" s="384" t="s">
+      <c r="A49" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B49" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C49" s="384" t="s">
+      <c r="C49" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D49" s="284" t="s">
         <v>694</v>
       </c>
-      <c r="E49" s="393" t="s">
+      <c r="E49" s="358" t="s">
         <v>1002</v>
       </c>
-      <c r="F49" s="383" t="s">
+      <c r="F49" s="351" t="s">
         <v>1140</v>
       </c>
-      <c r="G49" s="383" t="s">
+      <c r="G49" s="351" t="s">
         <v>1141</v>
       </c>
-      <c r="H49" s="383" t="s">
+      <c r="H49" s="351" t="s">
         <v>1115</v>
       </c>
-      <c r="I49" s="383" t="s">
+      <c r="I49" s="351" t="s">
         <v>1098</v>
       </c>
-      <c r="J49" s="385" t="s">
+      <c r="J49" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K49" s="385" t="s">
+      <c r="K49" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L49" s="383" t="s">
+      <c r="L49" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M49" s="383"/>
-      <c r="N49" s="383" t="s">
+      <c r="M49" s="351"/>
+      <c r="N49" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O49" s="383" t="s">
+      <c r="O49" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P49" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q49" s="386" t="s">
+      <c r="P49" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q49" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R49" s="386" t="s">
+      <c r="R49" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B50" s="384" t="s">
+      <c r="A50" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B50" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C50" s="384" t="s">
+      <c r="C50" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D50" s="284" t="s">
         <v>694</v>
       </c>
       <c r="E50" s="284"/>
-      <c r="F50" s="383" t="s">
+      <c r="F50" s="351" t="s">
         <v>1142</v>
       </c>
-      <c r="G50" s="383"/>
-      <c r="H50" s="383"/>
-      <c r="I50" s="383"/>
-      <c r="J50" s="385"/>
-      <c r="K50" s="385"/>
-      <c r="L50" s="383" t="s">
+      <c r="G50" s="351"/>
+      <c r="H50" s="351"/>
+      <c r="I50" s="351"/>
+      <c r="J50" s="405"/>
+      <c r="K50" s="405"/>
+      <c r="L50" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M50" s="383"/>
-      <c r="N50" s="383"/>
-      <c r="O50" s="383"/>
-      <c r="P50" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q50" s="386" t="s">
+      <c r="M50" s="351"/>
+      <c r="N50" s="351"/>
+      <c r="O50" s="351"/>
+      <c r="P50" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q50" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R50" s="386" t="s">
+      <c r="R50" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B51" s="384" t="s">
+      <c r="A51" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B51" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C51" s="384" t="s">
+      <c r="C51" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D51" s="284" t="s">
         <v>694</v>
       </c>
       <c r="E51" s="284"/>
-      <c r="F51" s="383" t="s">
+      <c r="F51" s="351" t="s">
         <v>1143</v>
       </c>
-      <c r="G51" s="383"/>
-      <c r="H51" s="383"/>
-      <c r="I51" s="383"/>
-      <c r="J51" s="385"/>
-      <c r="K51" s="385"/>
-      <c r="L51" s="383" t="s">
+      <c r="G51" s="351"/>
+      <c r="H51" s="351"/>
+      <c r="I51" s="351"/>
+      <c r="J51" s="405"/>
+      <c r="K51" s="405"/>
+      <c r="L51" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M51" s="383"/>
-      <c r="N51" s="383"/>
-      <c r="O51" s="383"/>
-      <c r="P51" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q51" s="386" t="s">
+      <c r="M51" s="351"/>
+      <c r="N51" s="351"/>
+      <c r="O51" s="351"/>
+      <c r="P51" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q51" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R51" s="386" t="s">
+      <c r="R51" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B52" s="384" t="s">
+      <c r="A52" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B52" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C52" s="384" t="s">
+      <c r="C52" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D52" s="284" t="s">
@@ -13507,8 +13523,8 @@
       <c r="G52" s="284"/>
       <c r="H52" s="284"/>
       <c r="I52" s="284"/>
-      <c r="J52" s="390"/>
-      <c r="K52" s="391"/>
+      <c r="J52" s="407"/>
+      <c r="K52" s="408"/>
       <c r="L52" s="284" t="s">
         <v>987</v>
       </c>
@@ -13518,75 +13534,75 @@
       <c r="P52" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q52" s="392" t="s">
+      <c r="Q52" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R52" s="392" t="s">
+      <c r="R52" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="40.5">
-      <c r="A53" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B53" s="384" t="s">
+      <c r="A53" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B53" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C53" s="384" t="s">
+      <c r="C53" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D53" s="284" t="s">
         <v>685</v>
       </c>
-      <c r="E53" s="393" t="s">
+      <c r="E53" s="358" t="s">
         <v>1003</v>
       </c>
-      <c r="F53" s="383" t="s">
+      <c r="F53" s="351" t="s">
         <v>1145</v>
       </c>
-      <c r="G53" s="383" t="s">
+      <c r="G53" s="351" t="s">
         <v>1146</v>
       </c>
-      <c r="H53" s="383" t="s">
+      <c r="H53" s="351" t="s">
         <v>1087</v>
       </c>
-      <c r="I53" s="383">
+      <c r="I53" s="351">
         <v>3</v>
       </c>
-      <c r="J53" s="394" t="s">
+      <c r="J53" s="411" t="s">
         <v>982</v>
       </c>
-      <c r="K53" s="393" t="s">
+      <c r="K53" s="412" t="s">
         <v>983</v>
       </c>
-      <c r="L53" s="384" t="s">
+      <c r="L53" s="352" t="s">
         <v>987</v>
       </c>
-      <c r="M53" s="384"/>
-      <c r="N53" s="394" t="s">
+      <c r="M53" s="352"/>
+      <c r="N53" s="359" t="s">
         <v>984</v>
       </c>
-      <c r="O53" s="394" t="s">
+      <c r="O53" s="359" t="s">
         <v>471</v>
       </c>
-      <c r="P53" s="384" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q53" s="397" t="s">
+      <c r="P53" s="352" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q53" s="360" t="s">
         <v>985</v>
       </c>
-      <c r="R53" s="397" t="s">
+      <c r="R53" s="360" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B54" s="384" t="s">
+      <c r="A54" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B54" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C54" s="384" t="s">
+      <c r="C54" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D54" s="284" t="s">
@@ -13599,78 +13615,78 @@
       <c r="G54" s="284"/>
       <c r="H54" s="284"/>
       <c r="I54" s="284"/>
-      <c r="J54" s="284"/>
-      <c r="K54" s="341"/>
-      <c r="L54" s="383"/>
-      <c r="M54" s="383"/>
+      <c r="J54" s="357"/>
+      <c r="K54" s="413"/>
+      <c r="L54" s="351"/>
+      <c r="M54" s="351"/>
       <c r="N54" s="284"/>
       <c r="O54" s="284"/>
-      <c r="P54" s="383"/>
-      <c r="Q54" s="386"/>
-      <c r="R54" s="386"/>
+      <c r="P54" s="351"/>
+      <c r="Q54" s="354"/>
+      <c r="R54" s="354"/>
     </row>
     <row r="55" spans="1:18" ht="40.5">
-      <c r="A55" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B55" s="384" t="s">
+      <c r="A55" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B55" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C55" s="384" t="s">
+      <c r="C55" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D55" s="284" t="s">
         <v>695</v>
       </c>
-      <c r="E55" s="393" t="s">
+      <c r="E55" s="358" t="s">
         <v>1004</v>
       </c>
-      <c r="F55" s="383" t="s">
+      <c r="F55" s="351" t="s">
         <v>1148</v>
       </c>
-      <c r="G55" s="383" t="s">
+      <c r="G55" s="351" t="s">
         <v>1149</v>
       </c>
-      <c r="H55" s="383" t="s">
+      <c r="H55" s="351" t="s">
         <v>1150</v>
       </c>
-      <c r="I55" s="383" t="s">
+      <c r="I55" s="351" t="s">
         <v>1132</v>
       </c>
-      <c r="J55" s="385" t="s">
+      <c r="J55" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K55" s="385" t="s">
+      <c r="K55" s="405" t="s">
         <v>983</v>
       </c>
-      <c r="L55" s="383" t="s">
+      <c r="L55" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M55" s="383"/>
-      <c r="N55" s="383" t="s">
+      <c r="M55" s="351"/>
+      <c r="N55" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O55" s="383" t="s">
+      <c r="O55" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P55" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q55" s="386" t="s">
+      <c r="P55" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q55" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R55" s="386" t="s">
+      <c r="R55" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B56" s="384" t="s">
+      <c r="A56" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B56" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C56" s="384" t="s">
+      <c r="C56" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D56" s="284" t="s">
@@ -13683,8 +13699,8 @@
       <c r="G56" s="284"/>
       <c r="H56" s="284"/>
       <c r="I56" s="284"/>
-      <c r="J56" s="284"/>
-      <c r="K56" s="341"/>
+      <c r="J56" s="357"/>
+      <c r="K56" s="413"/>
       <c r="L56" s="284" t="s">
         <v>987</v>
       </c>
@@ -13694,21 +13710,21 @@
       <c r="P56" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q56" s="392" t="s">
+      <c r="Q56" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R56" s="392" t="s">
+      <c r="R56" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B57" s="384" t="s">
+      <c r="A57" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B57" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C57" s="384" t="s">
+      <c r="C57" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D57" s="284" t="s">
@@ -13721,8 +13737,8 @@
       <c r="G57" s="284"/>
       <c r="H57" s="284"/>
       <c r="I57" s="284"/>
-      <c r="J57" s="284"/>
-      <c r="K57" s="341"/>
+      <c r="J57" s="357"/>
+      <c r="K57" s="413"/>
       <c r="L57" s="284" t="s">
         <v>987</v>
       </c>
@@ -13732,21 +13748,21 @@
       <c r="P57" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q57" s="392" t="s">
+      <c r="Q57" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R57" s="392" t="s">
+      <c r="R57" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B58" s="384" t="s">
+      <c r="A58" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B58" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C58" s="384" t="s">
+      <c r="C58" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D58" s="284" t="s">
@@ -13759,8 +13775,8 @@
       <c r="G58" s="284"/>
       <c r="H58" s="284"/>
       <c r="I58" s="284"/>
-      <c r="J58" s="284"/>
-      <c r="K58" s="341"/>
+      <c r="J58" s="357"/>
+      <c r="K58" s="413"/>
       <c r="L58" s="284" t="s">
         <v>987</v>
       </c>
@@ -13770,21 +13786,21 @@
       <c r="P58" s="284" t="s">
         <v>461</v>
       </c>
-      <c r="Q58" s="392" t="s">
+      <c r="Q58" s="357" t="s">
         <v>985</v>
       </c>
-      <c r="R58" s="392" t="s">
+      <c r="R58" s="357" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="27">
-      <c r="A59" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B59" s="384" t="s">
+      <c r="A59" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B59" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C59" s="384" t="s">
+      <c r="C59" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D59" s="338" t="s">
@@ -13793,124 +13809,124 @@
       <c r="E59" s="323" t="s">
         <v>1155</v>
       </c>
-      <c r="F59" s="383" t="s">
+      <c r="F59" s="351" t="s">
         <v>1156</v>
       </c>
-      <c r="G59" s="383" t="s">
+      <c r="G59" s="351" t="s">
         <v>1157</v>
       </c>
-      <c r="H59" s="383" t="s">
+      <c r="H59" s="351" t="s">
         <v>1158</v>
       </c>
-      <c r="I59" s="383">
+      <c r="I59" s="351">
         <v>44</v>
       </c>
-      <c r="J59" s="385" t="s">
+      <c r="J59" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K59" s="385" t="s">
+      <c r="K59" s="405" t="s">
         <v>43</v>
       </c>
-      <c r="L59" s="383" t="s">
+      <c r="L59" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M59" s="383"/>
-      <c r="N59" s="383" t="s">
+      <c r="M59" s="351"/>
+      <c r="N59" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O59" s="383" t="s">
+      <c r="O59" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P59" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q59" s="386" t="s">
+      <c r="P59" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q59" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R59" s="386" t="s">
+      <c r="R59" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B60" s="384" t="s">
+      <c r="A60" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B60" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C60" s="384" t="s">
+      <c r="C60" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D60" s="338" t="s">
         <v>1154</v>
       </c>
-      <c r="E60" s="398"/>
-      <c r="F60" s="399" t="s">
+      <c r="E60" s="361"/>
+      <c r="F60" s="362" t="s">
         <v>1159</v>
       </c>
-      <c r="G60" s="399"/>
-      <c r="H60" s="399"/>
-      <c r="I60" s="399"/>
-      <c r="J60" s="400"/>
-      <c r="K60" s="400"/>
-      <c r="L60" s="400" t="s">
+      <c r="G60" s="362"/>
+      <c r="H60" s="362"/>
+      <c r="I60" s="362"/>
+      <c r="J60" s="364"/>
+      <c r="K60" s="364"/>
+      <c r="L60" s="363" t="s">
         <v>987</v>
       </c>
-      <c r="M60" s="400"/>
-      <c r="N60" s="400" t="s">
+      <c r="M60" s="363"/>
+      <c r="N60" s="363" t="s">
         <v>1160</v>
       </c>
-      <c r="O60" s="400"/>
-      <c r="P60" s="400" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q60" s="401"/>
-      <c r="R60" s="401"/>
+      <c r="O60" s="363"/>
+      <c r="P60" s="363" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q60" s="364"/>
+      <c r="R60" s="364"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B61" s="384" t="s">
+      <c r="A61" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B61" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C61" s="384" t="s">
+      <c r="C61" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D61" s="338" t="s">
         <v>1154</v>
       </c>
-      <c r="E61" s="398"/>
-      <c r="F61" s="399" t="s">
+      <c r="E61" s="361"/>
+      <c r="F61" s="362" t="s">
         <v>1161</v>
       </c>
-      <c r="G61" s="399"/>
-      <c r="H61" s="399"/>
-      <c r="I61" s="399"/>
-      <c r="J61" s="400"/>
-      <c r="K61" s="400"/>
-      <c r="L61" s="400" t="s">
+      <c r="G61" s="362"/>
+      <c r="H61" s="362"/>
+      <c r="I61" s="362"/>
+      <c r="J61" s="364"/>
+      <c r="K61" s="364"/>
+      <c r="L61" s="363" t="s">
         <v>987</v>
       </c>
-      <c r="M61" s="400"/>
-      <c r="N61" s="400" t="s">
+      <c r="M61" s="363"/>
+      <c r="N61" s="363" t="s">
         <v>1160</v>
       </c>
-      <c r="O61" s="400"/>
-      <c r="P61" s="400" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q61" s="401"/>
-      <c r="R61" s="401"/>
+      <c r="O61" s="363"/>
+      <c r="P61" s="363" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q61" s="364"/>
+      <c r="R61" s="364"/>
     </row>
     <row r="62" spans="1:18" ht="27">
-      <c r="A62" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B62" s="384" t="s">
+      <c r="A62" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B62" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C62" s="384" t="s">
+      <c r="C62" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D62" s="338" t="s">
@@ -13919,158 +13935,158 @@
       <c r="E62" s="323" t="s">
         <v>1162</v>
       </c>
-      <c r="F62" s="383" t="s">
+      <c r="F62" s="351" t="s">
         <v>1163</v>
       </c>
-      <c r="G62" s="383" t="s">
+      <c r="G62" s="351" t="s">
         <v>1164</v>
       </c>
-      <c r="H62" s="383" t="s">
+      <c r="H62" s="351" t="s">
         <v>1165</v>
       </c>
-      <c r="I62" s="383"/>
-      <c r="J62" s="385" t="s">
+      <c r="I62" s="351"/>
+      <c r="J62" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K62" s="385" t="s">
+      <c r="K62" s="405" t="s">
         <v>43</v>
       </c>
-      <c r="L62" s="383" t="s">
+      <c r="L62" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M62" s="383"/>
-      <c r="N62" s="383" t="s">
+      <c r="M62" s="351"/>
+      <c r="N62" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O62" s="383" t="s">
+      <c r="O62" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P62" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q62" s="386" t="s">
+      <c r="P62" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q62" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R62" s="386" t="s">
+      <c r="R62" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B63" s="384" t="s">
+      <c r="A63" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B63" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C63" s="384" t="s">
+      <c r="C63" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D63" s="338" t="s">
         <v>891</v>
       </c>
-      <c r="E63" s="398"/>
-      <c r="F63" s="399" t="s">
+      <c r="E63" s="361"/>
+      <c r="F63" s="362" t="s">
         <v>1166</v>
       </c>
-      <c r="G63" s="399"/>
-      <c r="H63" s="399"/>
-      <c r="I63" s="399"/>
-      <c r="J63" s="402"/>
-      <c r="K63" s="402"/>
-      <c r="L63" s="402" t="s">
+      <c r="G63" s="362"/>
+      <c r="H63" s="362"/>
+      <c r="I63" s="362"/>
+      <c r="J63" s="366"/>
+      <c r="K63" s="366"/>
+      <c r="L63" s="365" t="s">
         <v>987</v>
       </c>
-      <c r="M63" s="402"/>
-      <c r="N63" s="402" t="s">
+      <c r="M63" s="365"/>
+      <c r="N63" s="365" t="s">
         <v>1160</v>
       </c>
-      <c r="O63" s="402"/>
-      <c r="P63" s="402" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q63" s="403"/>
-      <c r="R63" s="403"/>
+      <c r="O63" s="365"/>
+      <c r="P63" s="365" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q63" s="366"/>
+      <c r="R63" s="366"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B64" s="384" t="s">
+      <c r="A64" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B64" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C64" s="384" t="s">
+      <c r="C64" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D64" s="338" t="s">
         <v>891</v>
       </c>
-      <c r="E64" s="398"/>
-      <c r="F64" s="399" t="s">
+      <c r="E64" s="361"/>
+      <c r="F64" s="362" t="s">
         <v>1167</v>
       </c>
-      <c r="G64" s="399"/>
-      <c r="H64" s="399"/>
-      <c r="I64" s="399"/>
-      <c r="J64" s="402"/>
-      <c r="K64" s="402"/>
-      <c r="L64" s="402" t="s">
+      <c r="G64" s="362"/>
+      <c r="H64" s="362"/>
+      <c r="I64" s="362"/>
+      <c r="J64" s="366"/>
+      <c r="K64" s="366"/>
+      <c r="L64" s="365" t="s">
         <v>987</v>
       </c>
-      <c r="M64" s="402"/>
-      <c r="N64" s="402" t="s">
+      <c r="M64" s="365"/>
+      <c r="N64" s="365" t="s">
         <v>1160</v>
       </c>
-      <c r="O64" s="402"/>
-      <c r="P64" s="402" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q64" s="403"/>
-      <c r="R64" s="403"/>
+      <c r="O64" s="365"/>
+      <c r="P64" s="365" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q64" s="366"/>
+      <c r="R64" s="366"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B65" s="384" t="s">
+      <c r="A65" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B65" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C65" s="384" t="s">
+      <c r="C65" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D65" s="338" t="s">
         <v>891</v>
       </c>
-      <c r="E65" s="398"/>
-      <c r="F65" s="399" t="s">
+      <c r="E65" s="361"/>
+      <c r="F65" s="362" t="s">
         <v>1168</v>
       </c>
-      <c r="G65" s="399"/>
-      <c r="H65" s="399"/>
-      <c r="I65" s="399"/>
-      <c r="J65" s="402"/>
-      <c r="K65" s="402"/>
-      <c r="L65" s="402" t="s">
+      <c r="G65" s="362"/>
+      <c r="H65" s="362"/>
+      <c r="I65" s="362"/>
+      <c r="J65" s="366"/>
+      <c r="K65" s="366"/>
+      <c r="L65" s="365" t="s">
         <v>987</v>
       </c>
-      <c r="M65" s="402"/>
-      <c r="N65" s="402" t="s">
+      <c r="M65" s="365"/>
+      <c r="N65" s="365" t="s">
         <v>1160</v>
       </c>
-      <c r="O65" s="402"/>
-      <c r="P65" s="402" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q65" s="403"/>
-      <c r="R65" s="403"/>
+      <c r="O65" s="365"/>
+      <c r="P65" s="365" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q65" s="366"/>
+      <c r="R65" s="366"/>
     </row>
     <row r="66" spans="1:18" ht="27">
-      <c r="A66" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B66" s="384" t="s">
+      <c r="A66" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B66" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C66" s="384" t="s">
+      <c r="C66" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D66" s="338" t="s">
@@ -14079,266 +14095,266 @@
       <c r="E66" s="323" t="s">
         <v>1169</v>
       </c>
-      <c r="F66" s="383" t="s">
+      <c r="F66" s="351" t="s">
         <v>1140</v>
       </c>
-      <c r="G66" s="383" t="s">
+      <c r="G66" s="351" t="s">
         <v>1170</v>
       </c>
-      <c r="H66" s="383" t="s">
+      <c r="H66" s="351" t="s">
         <v>1171</v>
       </c>
-      <c r="I66" s="383"/>
-      <c r="J66" s="385" t="s">
+      <c r="I66" s="351"/>
+      <c r="J66" s="405" t="s">
         <v>982</v>
       </c>
-      <c r="K66" s="385" t="s">
+      <c r="K66" s="405" t="s">
         <v>43</v>
       </c>
-      <c r="L66" s="383" t="s">
+      <c r="L66" s="351" t="s">
         <v>987</v>
       </c>
-      <c r="M66" s="383"/>
-      <c r="N66" s="383" t="s">
+      <c r="M66" s="351"/>
+      <c r="N66" s="351" t="s">
         <v>984</v>
       </c>
-      <c r="O66" s="383" t="s">
+      <c r="O66" s="351" t="s">
         <v>471</v>
       </c>
-      <c r="P66" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q66" s="386" t="s">
+      <c r="P66" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q66" s="354" t="s">
         <v>985</v>
       </c>
-      <c r="R66" s="386" t="s">
+      <c r="R66" s="354" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B67" s="384" t="s">
+      <c r="A67" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B67" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C67" s="384" t="s">
+      <c r="C67" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D67" s="338" t="s">
         <v>892</v>
       </c>
-      <c r="E67" s="398"/>
-      <c r="F67" s="399" t="s">
+      <c r="E67" s="361"/>
+      <c r="F67" s="362" t="s">
         <v>1172</v>
       </c>
-      <c r="G67" s="399"/>
-      <c r="H67" s="399"/>
-      <c r="I67" s="399"/>
-      <c r="J67" s="400"/>
-      <c r="K67" s="400"/>
-      <c r="L67" s="400" t="s">
+      <c r="G67" s="362"/>
+      <c r="H67" s="362"/>
+      <c r="I67" s="362"/>
+      <c r="J67" s="364"/>
+      <c r="K67" s="364"/>
+      <c r="L67" s="363" t="s">
         <v>987</v>
       </c>
-      <c r="M67" s="400"/>
-      <c r="N67" s="400" t="s">
+      <c r="M67" s="363"/>
+      <c r="N67" s="363" t="s">
         <v>1160</v>
       </c>
-      <c r="O67" s="400"/>
-      <c r="P67" s="400" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q67" s="401"/>
-      <c r="R67" s="401"/>
+      <c r="O67" s="363"/>
+      <c r="P67" s="363" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q67" s="364"/>
+      <c r="R67" s="364"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B68" s="384" t="s">
+      <c r="A68" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B68" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C68" s="384" t="s">
+      <c r="C68" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D68" s="338" t="s">
         <v>892</v>
       </c>
-      <c r="E68" s="398"/>
-      <c r="F68" s="399" t="s">
+      <c r="E68" s="361"/>
+      <c r="F68" s="362" t="s">
         <v>1173</v>
       </c>
-      <c r="G68" s="399"/>
-      <c r="H68" s="399"/>
-      <c r="I68" s="399"/>
-      <c r="J68" s="400"/>
-      <c r="K68" s="400"/>
-      <c r="L68" s="400" t="s">
+      <c r="G68" s="362"/>
+      <c r="H68" s="362"/>
+      <c r="I68" s="362"/>
+      <c r="J68" s="364"/>
+      <c r="K68" s="364"/>
+      <c r="L68" s="363" t="s">
         <v>987</v>
       </c>
-      <c r="M68" s="400"/>
-      <c r="N68" s="400" t="s">
+      <c r="M68" s="363"/>
+      <c r="N68" s="363" t="s">
         <v>1160</v>
       </c>
-      <c r="O68" s="400"/>
-      <c r="P68" s="400" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q68" s="401"/>
-      <c r="R68" s="401"/>
+      <c r="O68" s="363"/>
+      <c r="P68" s="363" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q68" s="364"/>
+      <c r="R68" s="364"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B69" s="384" t="s">
+      <c r="A69" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B69" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C69" s="384" t="s">
+      <c r="C69" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D69" s="338" t="s">
         <v>892</v>
       </c>
-      <c r="E69" s="398"/>
-      <c r="F69" s="399" t="s">
+      <c r="E69" s="361"/>
+      <c r="F69" s="362" t="s">
         <v>1174</v>
       </c>
-      <c r="G69" s="399"/>
-      <c r="H69" s="399"/>
-      <c r="I69" s="399"/>
-      <c r="J69" s="400"/>
-      <c r="K69" s="400"/>
-      <c r="L69" s="400" t="s">
+      <c r="G69" s="362"/>
+      <c r="H69" s="362"/>
+      <c r="I69" s="362"/>
+      <c r="J69" s="364"/>
+      <c r="K69" s="364"/>
+      <c r="L69" s="363" t="s">
         <v>987</v>
       </c>
-      <c r="M69" s="400"/>
-      <c r="N69" s="400" t="s">
+      <c r="M69" s="363"/>
+      <c r="N69" s="363" t="s">
         <v>1160</v>
       </c>
-      <c r="O69" s="400"/>
-      <c r="P69" s="400" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q69" s="401"/>
-      <c r="R69" s="401"/>
+      <c r="O69" s="363"/>
+      <c r="P69" s="363" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q69" s="364"/>
+      <c r="R69" s="364"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B70" s="384" t="s">
+      <c r="A70" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B70" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C70" s="384" t="s">
+      <c r="C70" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D70" s="338" t="s">
         <v>892</v>
       </c>
-      <c r="E70" s="398"/>
-      <c r="F70" s="399" t="s">
+      <c r="E70" s="361"/>
+      <c r="F70" s="362" t="s">
         <v>1175</v>
       </c>
-      <c r="G70" s="399"/>
-      <c r="H70" s="399"/>
-      <c r="I70" s="399"/>
-      <c r="J70" s="400"/>
-      <c r="K70" s="400"/>
-      <c r="L70" s="400" t="s">
+      <c r="G70" s="362"/>
+      <c r="H70" s="362"/>
+      <c r="I70" s="362"/>
+      <c r="J70" s="364"/>
+      <c r="K70" s="364"/>
+      <c r="L70" s="363" t="s">
         <v>987</v>
       </c>
-      <c r="M70" s="400"/>
-      <c r="N70" s="400" t="s">
+      <c r="M70" s="363"/>
+      <c r="N70" s="363" t="s">
         <v>1160</v>
       </c>
-      <c r="O70" s="400"/>
-      <c r="P70" s="400" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q70" s="401"/>
-      <c r="R70" s="401"/>
+      <c r="O70" s="363"/>
+      <c r="P70" s="363" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q70" s="364"/>
+      <c r="R70" s="364"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B71" s="384" t="s">
+      <c r="A71" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C71" s="384" t="s">
+      <c r="C71" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D71" s="338" t="s">
         <v>892</v>
       </c>
-      <c r="E71" s="398"/>
-      <c r="F71" s="399" t="s">
+      <c r="E71" s="361"/>
+      <c r="F71" s="362" t="s">
         <v>1176</v>
       </c>
-      <c r="G71" s="399"/>
-      <c r="H71" s="399"/>
-      <c r="I71" s="399"/>
-      <c r="J71" s="400"/>
-      <c r="K71" s="400"/>
-      <c r="L71" s="400" t="s">
+      <c r="G71" s="362"/>
+      <c r="H71" s="362"/>
+      <c r="I71" s="362"/>
+      <c r="J71" s="364"/>
+      <c r="K71" s="364"/>
+      <c r="L71" s="363" t="s">
         <v>987</v>
       </c>
-      <c r="M71" s="400"/>
-      <c r="N71" s="400" t="s">
+      <c r="M71" s="363"/>
+      <c r="N71" s="363" t="s">
         <v>1160</v>
       </c>
-      <c r="O71" s="400"/>
-      <c r="P71" s="400" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q71" s="401"/>
-      <c r="R71" s="401"/>
+      <c r="O71" s="363"/>
+      <c r="P71" s="363" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q71" s="364"/>
+      <c r="R71" s="364"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B72" s="384" t="s">
+      <c r="A72" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B72" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C72" s="384" t="s">
+      <c r="C72" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D72" s="338" t="s">
         <v>892</v>
       </c>
-      <c r="E72" s="398"/>
-      <c r="F72" s="399" t="s">
+      <c r="E72" s="361"/>
+      <c r="F72" s="362" t="s">
         <v>1177</v>
       </c>
-      <c r="G72" s="399"/>
-      <c r="H72" s="399"/>
-      <c r="I72" s="399"/>
-      <c r="J72" s="400"/>
-      <c r="K72" s="400"/>
-      <c r="L72" s="400" t="s">
+      <c r="G72" s="362"/>
+      <c r="H72" s="362"/>
+      <c r="I72" s="362"/>
+      <c r="J72" s="364"/>
+      <c r="K72" s="364"/>
+      <c r="L72" s="363" t="s">
         <v>987</v>
       </c>
-      <c r="M72" s="400"/>
-      <c r="N72" s="400" t="s">
+      <c r="M72" s="363"/>
+      <c r="N72" s="363" t="s">
         <v>1160</v>
       </c>
-      <c r="O72" s="400"/>
-      <c r="P72" s="400" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q72" s="401"/>
-      <c r="R72" s="401"/>
+      <c r="O72" s="363"/>
+      <c r="P72" s="363" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q72" s="364"/>
+      <c r="R72" s="364"/>
     </row>
     <row r="73" spans="1:18" ht="27">
-      <c r="A73" s="383" t="s">
-        <v>461</v>
-      </c>
-      <c r="B73" s="384" t="s">
+      <c r="A73" s="351" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73" s="352" t="s">
         <v>1058</v>
       </c>
-      <c r="C73" s="384" t="s">
+      <c r="C73" s="352" t="s">
         <v>1053</v>
       </c>
       <c r="D73" s="338" t="s">
@@ -14347,354 +14363,354 @@
       <c r="E73" s="323" t="s">
         <v>1178</v>
       </c>
-      <c r="F73" s="383" t="s">
+      <c r="F73" s="351" t="s">
         <v>1179</v>
       </c>
-      <c r="G73" s="383" t="s">
+      <c r="G73" s="351" t="s">
         <v>1180</v>
       </c>
-      <c r="H73" s="383" t="s">
+      <c r="H73" s="351" t="s">
         <v>1165</v>
       </c>
-      <c r="I73" s="383"/>
-      <c r="J73" s="385" t="s">
+      <c r=